--- a/docs/collections/koten/metadata/data.xlsx
+++ b/docs/collections/koten/metadata/data.xlsx
@@ -1684,6 +1684,846 @@
     <t>9</t>
   </si>
   <si>
+    <t>年</t>
+  </si>
+  <si>
+    <t>アイテムURL</t>
+  </si>
+  <si>
+    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/s/koten/document/1f35990b-a490-1a63-2ab0-32cd98112cf7</t>
+  </si>
+  <si>
+    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/s/koten/document/70b9201c-60a5-1234-1ffd-83e62cc2416e</t>
+  </si>
+  <si>
+    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/s/koten/document/255d0375-6a99-273b-0f01-2534091452a4</t>
+  </si>
+  <si>
+    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/s/koten/document/d7186cac-857f-23f6-3e96-b84378a410c7</t>
+  </si>
+  <si>
+    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/s/koten/document/0ace76fd-80f5-5406-5607-0879c0737535</t>
+  </si>
+  <si>
+    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/s/koten/document/c391c0b7-642b-7f20-902d-6bfc6b3c8d0a</t>
+  </si>
+  <si>
+    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/s/koten/document/4d9020c1-0096-86d9-130f-c67d20ee2a85</t>
+  </si>
+  <si>
+    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/s/koten/document/dd296df6-38fa-a025-7371-5e7d2ceb2046</t>
+  </si>
+  <si>
+    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/s/koten/document/cd187574-954d-6fb0-0874-a3e39ad16ac2</t>
+  </si>
+  <si>
+    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/s/koten/document/2c2614d0-8c8e-8088-284a-92c977dc6774</t>
+  </si>
+  <si>
+    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/s/koten/document/b6aef1c0-7a83-1379-0094-7009198b4291</t>
+  </si>
+  <si>
+    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/s/koten/document/20e39fc5-a301-2156-20ea-8082dd32289f</t>
+  </si>
+  <si>
+    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/s/koten/document/f67b71a9-8295-7ee7-6b3c-43798c0182d6</t>
+  </si>
+  <si>
+    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/s/koten/document/04d80d2f-7432-00cd-a1d1-2f1333d84743</t>
+  </si>
+  <si>
+    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/s/koten/document/43ca8e1d-087d-5bdc-3bc3-372800f60cb6</t>
+  </si>
+  <si>
+    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/s/koten/document/7feffc5a-659e-02e0-40df-df42e9059307</t>
+  </si>
+  <si>
+    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/s/koten/document/586ea69e-70f6-36b0-9e8c-64ff5f4c3f09</t>
+  </si>
+  <si>
+    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/s/koten/document/b64a927b-3706-22ba-0aeb-550af6195588</t>
+  </si>
+  <si>
+    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/s/koten/document/de2a9abc-62d1-1943-32b4-156471ef8c5c</t>
+  </si>
+  <si>
+    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/s/koten/document/652f540f-9d21-0493-7728-52e359fe4292</t>
+  </si>
+  <si>
+    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/s/koten/document/0178c1cb-097d-7ac2-2563-307ae3b80eef</t>
+  </si>
+  <si>
+    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/s/koten/document/c572fe8a-6eb0-5b58-5b97-5f68e8786681</t>
+  </si>
+  <si>
+    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/s/koten/document/3c220085-7d42-833a-084a-64a5f9072686</t>
+  </si>
+  <si>
+    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/s/koten/document/a28d0e4c-8db1-8bb0-32f8-f8967759382a</t>
+  </si>
+  <si>
+    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/s/koten/document/931470e4-2b79-31e5-8f8f-88fda806638d</t>
+  </si>
+  <si>
+    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/s/koten/document/61efab97-3bcc-05f9-17a0-508a6296978f</t>
+  </si>
+  <si>
+    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/s/koten/document/5dfe4131-2a2a-4b42-92b9-561053727994</t>
+  </si>
+  <si>
+    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/s/koten/document/b2669333-a52b-5b93-3075-be6faf961e9e</t>
+  </si>
+  <si>
+    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/s/koten/document/2ed9a6cb-8162-5a55-06d0-5156269260cc</t>
+  </si>
+  <si>
+    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/s/koten/document/a6c6e6f3-84a9-339a-1eb9-52287aca5326</t>
+  </si>
+  <si>
+    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/s/koten/document/d30e06d5-8001-357f-3b60-469a2d9b1da8</t>
+  </si>
+  <si>
+    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/s/koten/document/7234f107-20b2-3791-0f00-2ae032039cd0</t>
+  </si>
+  <si>
+    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/s/koten/document/feb9c85d-3819-213f-21ae-a97abd5e6472</t>
+  </si>
+  <si>
+    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/s/koten/document/7dbdd04c-5fd9-902e-631a-7d3d199d1ed8</t>
+  </si>
+  <si>
+    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/s/koten/document/d5007242-2ecb-8bfd-0604-2083fc477fff</t>
+  </si>
+  <si>
+    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/s/koten/document/6dadf5fc-63b2-43b2-8459-fd004ff15ab3</t>
+  </si>
+  <si>
+    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/s/koten/document/e080e17f-84a0-18b9-686e-d4e496200318</t>
+  </si>
+  <si>
+    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/s/koten/document/dfd2b41e-674b-3add-832f-44cf689100f0</t>
+  </si>
+  <si>
+    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/s/koten/document/87131215-927e-72ea-2c14-5a7995585566</t>
+  </si>
+  <si>
+    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/s/koten/document/4bfbdac2-9c96-3d5b-4582-e0b237826c0d</t>
+  </si>
+  <si>
+    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/s/koten/document/51763842-91db-9f72-a2d2-87cf990007e1</t>
+  </si>
+  <si>
+    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/s/koten/document/1f2ed9da-a2cf-4033-2086-2d3e3fb09386</t>
+  </si>
+  <si>
+    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/s/koten/document/5778a1c4-1b8f-1dfc-24b5-38be7fcc1dab</t>
+  </si>
+  <si>
+    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/s/koten/document/78ae6f7f-5f09-8d58-9f56-366dfa599642</t>
+  </si>
+  <si>
+    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/s/koten/document/ecdb69c8-a18d-42d5-3df7-f2f4bccf096a</t>
+  </si>
+  <si>
+    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/s/koten/document/ca9dfffb-8019-569c-7af5-b0e1e79422c1</t>
+  </si>
+  <si>
+    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/s/koten/document/ed146214-5a40-5419-7770-bdb8f8ef4ae2</t>
+  </si>
+  <si>
+    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/s/koten/document/cc0ebcb2-3979-67e7-712b-9e1f2a688361</t>
+  </si>
+  <si>
+    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/s/koten/document/276ad5b5-9b59-9035-1912-c22ddbf56cd5</t>
+  </si>
+  <si>
+    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/s/koten/document/101a903c-9a91-226d-2b7a-f1b5853d1d6d</t>
+  </si>
+  <si>
+    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/s/koten/document/e260ea9c-6ee4-18ef-6895-c2540d0b84d6</t>
+  </si>
+  <si>
+    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/s/koten/document/720ab3e9-54b3-12b4-50d2-59de91f43e87</t>
+  </si>
+  <si>
+    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/s/koten/document/7a2f0687-8592-8cb4-948c-644fae3d0b60</t>
+  </si>
+  <si>
+    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/s/koten/document/70e9efdf-16bf-4960-3e2d-9ef9a13a4405</t>
+  </si>
+  <si>
+    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/s/koten/document/b570aa8c-6e56-92b9-7bc2-67a459cd66df</t>
+  </si>
+  <si>
+    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/s/koten/document/16ea5dcc-3bea-13be-5929-c58d75822997</t>
+  </si>
+  <si>
+    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/s/koten/document/b13ff573-4c25-98fc-43ab-9c85ab1f3a5c</t>
+  </si>
+  <si>
+    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/s/koten/document/9301d388-95ee-8b41-1c3c-c2951dae8693</t>
+  </si>
+  <si>
+    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/s/koten/document/88930f9c-4b42-93fb-73fe-dfd44f8f2460</t>
+  </si>
+  <si>
+    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/s/koten/document/2cb8bbad-724a-20ce-1f72-fd8cc7c436a4</t>
+  </si>
+  <si>
+    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/s/koten/document/1354de31-0d49-75ba-a01d-5310be0a0a8d</t>
+  </si>
+  <si>
+    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/s/koten/document/01466091-970c-4f8a-2e36-bfb0e88733c8</t>
+  </si>
+  <si>
+    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/s/koten/document/95db0d93-3107-4491-2084-9b7783f35e28</t>
+  </si>
+  <si>
+    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/s/koten/document/d8480473-998e-5d50-41a5-f1464dd215df</t>
+  </si>
+  <si>
+    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/s/koten/document/06582fd8-23f9-121f-7314-1fbb0dc1438b</t>
+  </si>
+  <si>
+    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/s/koten/document/262f6110-5c5b-09d4-7a28-0c0019fa5a79</t>
+  </si>
+  <si>
+    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/s/koten/document/00e1f95d-5bd4-0b85-403e-b0eb6cd422d4</t>
+  </si>
+  <si>
+    <t>viewingDirection</t>
+  </si>
+  <si>
+    <t>http://iiif.io/api/presentation/2#rightToLeftDirection</t>
+  </si>
+  <si>
+    <t>ID</t>
+  </si>
+  <si>
+    <t>1f35990b-a490-1a63-2ab0-32cd98112cf7</t>
+  </si>
+  <si>
+    <t>70b9201c-60a5-1234-1ffd-83e62cc2416e</t>
+  </si>
+  <si>
+    <t>255d0375-6a99-273b-0f01-2534091452a4</t>
+  </si>
+  <si>
+    <t>d7186cac-857f-23f6-3e96-b84378a410c7</t>
+  </si>
+  <si>
+    <t>0ace76fd-80f5-5406-5607-0879c0737535</t>
+  </si>
+  <si>
+    <t>c391c0b7-642b-7f20-902d-6bfc6b3c8d0a</t>
+  </si>
+  <si>
+    <t>4d9020c1-0096-86d9-130f-c67d20ee2a85</t>
+  </si>
+  <si>
+    <t>dd296df6-38fa-a025-7371-5e7d2ceb2046</t>
+  </si>
+  <si>
+    <t>cd187574-954d-6fb0-0874-a3e39ad16ac2</t>
+  </si>
+  <si>
+    <t>2c2614d0-8c8e-8088-284a-92c977dc6774</t>
+  </si>
+  <si>
+    <t>b6aef1c0-7a83-1379-0094-7009198b4291</t>
+  </si>
+  <si>
+    <t>20e39fc5-a301-2156-20ea-8082dd32289f</t>
+  </si>
+  <si>
+    <t>f67b71a9-8295-7ee7-6b3c-43798c0182d6</t>
+  </si>
+  <si>
+    <t>04d80d2f-7432-00cd-a1d1-2f1333d84743</t>
+  </si>
+  <si>
+    <t>43ca8e1d-087d-5bdc-3bc3-372800f60cb6</t>
+  </si>
+  <si>
+    <t>7feffc5a-659e-02e0-40df-df42e9059307</t>
+  </si>
+  <si>
+    <t>586ea69e-70f6-36b0-9e8c-64ff5f4c3f09</t>
+  </si>
+  <si>
+    <t>b64a927b-3706-22ba-0aeb-550af6195588</t>
+  </si>
+  <si>
+    <t>de2a9abc-62d1-1943-32b4-156471ef8c5c</t>
+  </si>
+  <si>
+    <t>652f540f-9d21-0493-7728-52e359fe4292</t>
+  </si>
+  <si>
+    <t>0178c1cb-097d-7ac2-2563-307ae3b80eef</t>
+  </si>
+  <si>
+    <t>c572fe8a-6eb0-5b58-5b97-5f68e8786681</t>
+  </si>
+  <si>
+    <t>3c220085-7d42-833a-084a-64a5f9072686</t>
+  </si>
+  <si>
+    <t>a28d0e4c-8db1-8bb0-32f8-f8967759382a</t>
+  </si>
+  <si>
+    <t>931470e4-2b79-31e5-8f8f-88fda806638d</t>
+  </si>
+  <si>
+    <t>61efab97-3bcc-05f9-17a0-508a6296978f</t>
+  </si>
+  <si>
+    <t>5dfe4131-2a2a-4b42-92b9-561053727994</t>
+  </si>
+  <si>
+    <t>b2669333-a52b-5b93-3075-be6faf961e9e</t>
+  </si>
+  <si>
+    <t>2ed9a6cb-8162-5a55-06d0-5156269260cc</t>
+  </si>
+  <si>
+    <t>a6c6e6f3-84a9-339a-1eb9-52287aca5326</t>
+  </si>
+  <si>
+    <t>d30e06d5-8001-357f-3b60-469a2d9b1da8</t>
+  </si>
+  <si>
+    <t>7234f107-20b2-3791-0f00-2ae032039cd0</t>
+  </si>
+  <si>
+    <t>feb9c85d-3819-213f-21ae-a97abd5e6472</t>
+  </si>
+  <si>
+    <t>7dbdd04c-5fd9-902e-631a-7d3d199d1ed8</t>
+  </si>
+  <si>
+    <t>d5007242-2ecb-8bfd-0604-2083fc477fff</t>
+  </si>
+  <si>
+    <t>6dadf5fc-63b2-43b2-8459-fd004ff15ab3</t>
+  </si>
+  <si>
+    <t>e080e17f-84a0-18b9-686e-d4e496200318</t>
+  </si>
+  <si>
+    <t>dfd2b41e-674b-3add-832f-44cf689100f0</t>
+  </si>
+  <si>
+    <t>87131215-927e-72ea-2c14-5a7995585566</t>
+  </si>
+  <si>
+    <t>4bfbdac2-9c96-3d5b-4582-e0b237826c0d</t>
+  </si>
+  <si>
+    <t>51763842-91db-9f72-a2d2-87cf990007e1</t>
+  </si>
+  <si>
+    <t>1f2ed9da-a2cf-4033-2086-2d3e3fb09386</t>
+  </si>
+  <si>
+    <t>5778a1c4-1b8f-1dfc-24b5-38be7fcc1dab</t>
+  </si>
+  <si>
+    <t>78ae6f7f-5f09-8d58-9f56-366dfa599642</t>
+  </si>
+  <si>
+    <t>ecdb69c8-a18d-42d5-3df7-f2f4bccf096a</t>
+  </si>
+  <si>
+    <t>ca9dfffb-8019-569c-7af5-b0e1e79422c1</t>
+  </si>
+  <si>
+    <t>ed146214-5a40-5419-7770-bdb8f8ef4ae2</t>
+  </si>
+  <si>
+    <t>cc0ebcb2-3979-67e7-712b-9e1f2a688361</t>
+  </si>
+  <si>
+    <t>276ad5b5-9b59-9035-1912-c22ddbf56cd5</t>
+  </si>
+  <si>
+    <t>101a903c-9a91-226d-2b7a-f1b5853d1d6d</t>
+  </si>
+  <si>
+    <t>e260ea9c-6ee4-18ef-6895-c2540d0b84d6</t>
+  </si>
+  <si>
+    <t>720ab3e9-54b3-12b4-50d2-59de91f43e87</t>
+  </si>
+  <si>
+    <t>7a2f0687-8592-8cb4-948c-644fae3d0b60</t>
+  </si>
+  <si>
+    <t>70e9efdf-16bf-4960-3e2d-9ef9a13a4405</t>
+  </si>
+  <si>
+    <t>b570aa8c-6e56-92b9-7bc2-67a459cd66df</t>
+  </si>
+  <si>
+    <t>16ea5dcc-3bea-13be-5929-c58d75822997</t>
+  </si>
+  <si>
+    <t>b13ff573-4c25-98fc-43ab-9c85ab1f3a5c</t>
+  </si>
+  <si>
+    <t>9301d388-95ee-8b41-1c3c-c2951dae8693</t>
+  </si>
+  <si>
+    <t>88930f9c-4b42-93fb-73fe-dfd44f8f2460</t>
+  </si>
+  <si>
+    <t>2cb8bbad-724a-20ce-1f72-fd8cc7c436a4</t>
+  </si>
+  <si>
+    <t>1354de31-0d49-75ba-a01d-5310be0a0a8d</t>
+  </si>
+  <si>
+    <t>01466091-970c-4f8a-2e36-bfb0e88733c8</t>
+  </si>
+  <si>
+    <t>95db0d93-3107-4491-2084-9b7783f35e28</t>
+  </si>
+  <si>
+    <t>d8480473-998e-5d50-41a5-f1464dd215df</t>
+  </si>
+  <si>
+    <t>06582fd8-23f9-121f-7314-1fbb0dc1438b</t>
+  </si>
+  <si>
+    <t>262f6110-5c5b-09d4-7a28-0c0019fa5a79</t>
+  </si>
+  <si>
+    <t>00e1f95d-5bd4-0b85-403e-b0eb6cd422d4</t>
+  </si>
+  <si>
+    <t>機械可読ドキュメント</t>
+  </si>
+  <si>
+    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/api/items/172011</t>
+  </si>
+  <si>
+    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/api/items/171979</t>
+  </si>
+  <si>
+    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/api/items/171982</t>
+  </si>
+  <si>
+    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/api/items/171992</t>
+  </si>
+  <si>
+    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/api/items/172018</t>
+  </si>
+  <si>
+    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/api/items/172031</t>
+  </si>
+  <si>
+    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/api/items/172000</t>
+  </si>
+  <si>
+    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/api/items/171973</t>
+  </si>
+  <si>
+    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/api/items/171966</t>
+  </si>
+  <si>
+    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/api/items/171975</t>
+  </si>
+  <si>
+    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/api/items/172029</t>
+  </si>
+  <si>
+    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/api/items/171985</t>
+  </si>
+  <si>
+    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/api/items/172027</t>
+  </si>
+  <si>
+    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/api/items/172016</t>
+  </si>
+  <si>
+    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/api/items/172022</t>
+  </si>
+  <si>
+    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/api/items/171965</t>
+  </si>
+  <si>
+    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/api/items/172007</t>
+  </si>
+  <si>
+    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/api/items/172026</t>
+  </si>
+  <si>
+    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/api/items/172024</t>
+  </si>
+  <si>
+    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/api/items/172023</t>
+  </si>
+  <si>
+    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/api/items/172010</t>
+  </si>
+  <si>
+    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/api/items/171974</t>
+  </si>
+  <si>
+    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/api/items/172025</t>
+  </si>
+  <si>
+    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/api/items/171980</t>
+  </si>
+  <si>
+    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/api/items/172002</t>
+  </si>
+  <si>
+    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/api/items/172006</t>
+  </si>
+  <si>
+    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/api/items/172017</t>
+  </si>
+  <si>
+    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/api/items/171963</t>
+  </si>
+  <si>
+    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/api/items/171964</t>
+  </si>
+  <si>
+    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/api/items/172008</t>
+  </si>
+  <si>
+    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/api/items/172030</t>
+  </si>
+  <si>
+    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/api/items/171988</t>
+  </si>
+  <si>
+    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/api/items/171986</t>
+  </si>
+  <si>
+    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/api/items/172012</t>
+  </si>
+  <si>
+    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/api/items/172013</t>
+  </si>
+  <si>
+    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/api/items/171971</t>
+  </si>
+  <si>
+    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/api/items/171991</t>
+  </si>
+  <si>
+    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/api/items/171996</t>
+  </si>
+  <si>
+    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/api/items/171998</t>
+  </si>
+  <si>
+    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/api/items/171997</t>
+  </si>
+  <si>
+    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/api/items/171969</t>
+  </si>
+  <si>
+    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/api/items/171970</t>
+  </si>
+  <si>
+    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/api/items/171990</t>
+  </si>
+  <si>
+    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/api/items/172019</t>
+  </si>
+  <si>
+    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/api/items/171999</t>
+  </si>
+  <si>
+    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/api/items/171976</t>
+  </si>
+  <si>
+    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/api/items/172028</t>
+  </si>
+  <si>
+    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/api/items/171983</t>
+  </si>
+  <si>
+    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/api/items/171977</t>
+  </si>
+  <si>
+    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/api/items/172015</t>
+  </si>
+  <si>
+    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/api/items/172020</t>
+  </si>
+  <si>
+    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/api/items/171995</t>
+  </si>
+  <si>
+    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/api/items/172009</t>
+  </si>
+  <si>
+    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/api/items/172021</t>
+  </si>
+  <si>
+    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/api/items/171972</t>
+  </si>
+  <si>
+    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/api/items/171978</t>
+  </si>
+  <si>
+    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/api/items/171984</t>
+  </si>
+  <si>
+    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/api/items/172003</t>
+  </si>
+  <si>
+    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/api/items/171994</t>
+  </si>
+  <si>
+    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/api/items/171981</t>
+  </si>
+  <si>
+    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/api/items/171967</t>
+  </si>
+  <si>
+    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/api/items/171987</t>
+  </si>
+  <si>
+    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/api/items/171993</t>
+  </si>
+  <si>
+    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/api/items/172004</t>
+  </si>
+  <si>
+    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/api/items/172014</t>
+  </si>
+  <si>
+    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/api/items/171968</t>
+  </si>
+  <si>
+    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/api/items/172001</t>
+  </si>
+  <si>
+    <t>ウェブサイトURL</t>
+  </si>
+  <si>
+    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/s/koten/</t>
+  </si>
+  <si>
+    <t>IIIFマニフェストURI</t>
+  </si>
+  <si>
+    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/iiif/172011/manifest</t>
+  </si>
+  <si>
+    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/iiif/171979/manifest</t>
+  </si>
+  <si>
+    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/iiif/171982/manifest</t>
+  </si>
+  <si>
+    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/iiif/171992/manifest</t>
+  </si>
+  <si>
+    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/iiif/172018/manifest</t>
+  </si>
+  <si>
+    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/iiif/172031/manifest</t>
+  </si>
+  <si>
+    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/iiif/172000/manifest</t>
+  </si>
+  <si>
+    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/iiif/171973/manifest</t>
+  </si>
+  <si>
+    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/iiif/171966/manifest</t>
+  </si>
+  <si>
+    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/iiif/171975/manifest</t>
+  </si>
+  <si>
+    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/iiif/172029/manifest</t>
+  </si>
+  <si>
+    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/iiif/171985/manifest</t>
+  </si>
+  <si>
+    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/iiif/172027/manifest</t>
+  </si>
+  <si>
+    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/iiif/172016/manifest</t>
+  </si>
+  <si>
+    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/iiif/172022/manifest</t>
+  </si>
+  <si>
+    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/iiif/171965/manifest</t>
+  </si>
+  <si>
+    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/iiif/172007/manifest</t>
+  </si>
+  <si>
+    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/iiif/172026/manifest</t>
+  </si>
+  <si>
+    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/iiif/172024/manifest</t>
+  </si>
+  <si>
+    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/iiif/172023/manifest</t>
+  </si>
+  <si>
+    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/iiif/172010/manifest</t>
+  </si>
+  <si>
+    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/iiif/171974/manifest</t>
+  </si>
+  <si>
+    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/iiif/172025/manifest</t>
+  </si>
+  <si>
+    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/iiif/171980/manifest</t>
+  </si>
+  <si>
+    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/iiif/172002/manifest</t>
+  </si>
+  <si>
+    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/iiif/172006/manifest</t>
+  </si>
+  <si>
+    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/iiif/172017/manifest</t>
+  </si>
+  <si>
+    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/iiif/171963/manifest</t>
+  </si>
+  <si>
+    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/iiif/171964/manifest</t>
+  </si>
+  <si>
+    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/iiif/172008/manifest</t>
+  </si>
+  <si>
+    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/iiif/172030/manifest</t>
+  </si>
+  <si>
+    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/iiif/171988/manifest</t>
+  </si>
+  <si>
+    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/iiif/171986/manifest</t>
+  </si>
+  <si>
+    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/iiif/172012/manifest</t>
+  </si>
+  <si>
+    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/iiif/172013/manifest</t>
+  </si>
+  <si>
+    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/iiif/171971/manifest</t>
+  </si>
+  <si>
+    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/iiif/171991/manifest</t>
+  </si>
+  <si>
+    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/iiif/171996/manifest</t>
+  </si>
+  <si>
+    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/iiif/171998/manifest</t>
+  </si>
+  <si>
+    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/iiif/171997/manifest</t>
+  </si>
+  <si>
+    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/iiif/171969/manifest</t>
+  </si>
+  <si>
+    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/iiif/171970/manifest</t>
+  </si>
+  <si>
+    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/iiif/171990/manifest</t>
+  </si>
+  <si>
+    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/iiif/172019/manifest</t>
+  </si>
+  <si>
+    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/iiif/171999/manifest</t>
+  </si>
+  <si>
+    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/iiif/171976/manifest</t>
+  </si>
+  <si>
+    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/iiif/172028/manifest</t>
+  </si>
+  <si>
+    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/iiif/171983/manifest</t>
+  </si>
+  <si>
+    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/iiif/171977/manifest</t>
+  </si>
+  <si>
+    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/iiif/172015/manifest</t>
+  </si>
+  <si>
+    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/iiif/172020/manifest</t>
+  </si>
+  <si>
+    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/iiif/171995/manifest</t>
+  </si>
+  <si>
+    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/iiif/172009/manifest</t>
+  </si>
+  <si>
+    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/iiif/172021/manifest</t>
+  </si>
+  <si>
+    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/iiif/171972/manifest</t>
+  </si>
+  <si>
+    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/iiif/171978/manifest</t>
+  </si>
+  <si>
+    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/iiif/171984/manifest</t>
+  </si>
+  <si>
+    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/iiif/172003/manifest</t>
+  </si>
+  <si>
+    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/iiif/171994/manifest</t>
+  </si>
+  <si>
+    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/iiif/171981/manifest</t>
+  </si>
+  <si>
+    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/iiif/171967/manifest</t>
+  </si>
+  <si>
+    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/iiif/171987/manifest</t>
+  </si>
+  <si>
+    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/iiif/171993/manifest</t>
+  </si>
+  <si>
+    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/iiif/172004/manifest</t>
+  </si>
+  <si>
+    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/iiif/172014/manifest</t>
+  </si>
+  <si>
+    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/iiif/171968/manifest</t>
+  </si>
+  <si>
+    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/iiif/172001/manifest</t>
+  </si>
+  <si>
+    <t>帰属</t>
+  </si>
+  <si>
+    <t>コレクション</t>
+  </si>
+  <si>
+    <t>総合図書館所蔵古典籍</t>
+  </si>
+  <si>
     <t>サムネイル</t>
   </si>
   <si>
@@ -1888,850 +2728,10 @@
     <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/files/square/172001/neko0001.jpg</t>
   </si>
   <si>
-    <t>マニフェストURI</t>
-  </si>
-  <si>
-    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/iiif/172011/manifest</t>
-  </si>
-  <si>
-    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/iiif/171979/manifest</t>
-  </si>
-  <si>
-    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/iiif/171982/manifest</t>
-  </si>
-  <si>
-    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/iiif/171992/manifest</t>
-  </si>
-  <si>
-    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/iiif/172018/manifest</t>
-  </si>
-  <si>
-    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/iiif/172031/manifest</t>
-  </si>
-  <si>
-    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/iiif/172000/manifest</t>
-  </si>
-  <si>
-    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/iiif/171973/manifest</t>
-  </si>
-  <si>
-    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/iiif/171966/manifest</t>
-  </si>
-  <si>
-    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/iiif/171975/manifest</t>
-  </si>
-  <si>
-    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/iiif/172029/manifest</t>
-  </si>
-  <si>
-    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/iiif/171985/manifest</t>
-  </si>
-  <si>
-    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/iiif/172027/manifest</t>
-  </si>
-  <si>
-    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/iiif/172016/manifest</t>
-  </si>
-  <si>
-    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/iiif/172022/manifest</t>
-  </si>
-  <si>
-    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/iiif/171965/manifest</t>
-  </si>
-  <si>
-    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/iiif/172007/manifest</t>
-  </si>
-  <si>
-    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/iiif/172026/manifest</t>
-  </si>
-  <si>
-    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/iiif/172024/manifest</t>
-  </si>
-  <si>
-    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/iiif/172023/manifest</t>
-  </si>
-  <si>
-    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/iiif/172010/manifest</t>
-  </si>
-  <si>
-    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/iiif/171974/manifest</t>
-  </si>
-  <si>
-    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/iiif/172025/manifest</t>
-  </si>
-  <si>
-    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/iiif/171980/manifest</t>
-  </si>
-  <si>
-    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/iiif/172002/manifest</t>
-  </si>
-  <si>
-    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/iiif/172006/manifest</t>
-  </si>
-  <si>
-    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/iiif/172017/manifest</t>
-  </si>
-  <si>
-    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/iiif/171963/manifest</t>
-  </si>
-  <si>
-    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/iiif/171964/manifest</t>
-  </si>
-  <si>
-    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/iiif/172008/manifest</t>
-  </si>
-  <si>
-    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/iiif/172030/manifest</t>
-  </si>
-  <si>
-    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/iiif/171988/manifest</t>
-  </si>
-  <si>
-    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/iiif/171986/manifest</t>
-  </si>
-  <si>
-    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/iiif/172012/manifest</t>
-  </si>
-  <si>
-    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/iiif/172013/manifest</t>
-  </si>
-  <si>
-    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/iiif/171971/manifest</t>
-  </si>
-  <si>
-    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/iiif/171991/manifest</t>
-  </si>
-  <si>
-    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/iiif/171996/manifest</t>
-  </si>
-  <si>
-    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/iiif/171998/manifest</t>
-  </si>
-  <si>
-    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/iiif/171997/manifest</t>
-  </si>
-  <si>
-    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/iiif/171969/manifest</t>
-  </si>
-  <si>
-    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/iiif/171970/manifest</t>
-  </si>
-  <si>
-    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/iiif/171990/manifest</t>
-  </si>
-  <si>
-    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/iiif/172019/manifest</t>
-  </si>
-  <si>
-    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/iiif/171999/manifest</t>
-  </si>
-  <si>
-    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/iiif/171976/manifest</t>
-  </si>
-  <si>
-    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/iiif/172028/manifest</t>
-  </si>
-  <si>
-    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/iiif/171983/manifest</t>
-  </si>
-  <si>
-    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/iiif/171977/manifest</t>
-  </si>
-  <si>
-    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/iiif/172015/manifest</t>
-  </si>
-  <si>
-    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/iiif/172020/manifest</t>
-  </si>
-  <si>
-    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/iiif/171995/manifest</t>
-  </si>
-  <si>
-    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/iiif/172009/manifest</t>
-  </si>
-  <si>
-    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/iiif/172021/manifest</t>
-  </si>
-  <si>
-    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/iiif/171972/manifest</t>
-  </si>
-  <si>
-    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/iiif/171978/manifest</t>
-  </si>
-  <si>
-    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/iiif/171984/manifest</t>
-  </si>
-  <si>
-    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/iiif/172003/manifest</t>
-  </si>
-  <si>
-    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/iiif/171994/manifest</t>
-  </si>
-  <si>
-    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/iiif/171981/manifest</t>
-  </si>
-  <si>
-    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/iiif/171967/manifest</t>
-  </si>
-  <si>
-    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/iiif/171987/manifest</t>
-  </si>
-  <si>
-    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/iiif/171993/manifest</t>
-  </si>
-  <si>
-    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/iiif/172004/manifest</t>
-  </si>
-  <si>
-    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/iiif/172014/manifest</t>
-  </si>
-  <si>
-    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/iiif/171968/manifest</t>
-  </si>
-  <si>
-    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/iiif/172001/manifest</t>
-  </si>
-  <si>
-    <t>ID</t>
-  </si>
-  <si>
-    <t>1f35990b-a490-1a63-2ab0-32cd98112cf7</t>
-  </si>
-  <si>
-    <t>70b9201c-60a5-1234-1ffd-83e62cc2416e</t>
-  </si>
-  <si>
-    <t>255d0375-6a99-273b-0f01-2534091452a4</t>
-  </si>
-  <si>
-    <t>d7186cac-857f-23f6-3e96-b84378a410c7</t>
-  </si>
-  <si>
-    <t>0ace76fd-80f5-5406-5607-0879c0737535</t>
-  </si>
-  <si>
-    <t>c391c0b7-642b-7f20-902d-6bfc6b3c8d0a</t>
-  </si>
-  <si>
-    <t>4d9020c1-0096-86d9-130f-c67d20ee2a85</t>
-  </si>
-  <si>
-    <t>dd296df6-38fa-a025-7371-5e7d2ceb2046</t>
-  </si>
-  <si>
-    <t>cd187574-954d-6fb0-0874-a3e39ad16ac2</t>
-  </si>
-  <si>
-    <t>2c2614d0-8c8e-8088-284a-92c977dc6774</t>
-  </si>
-  <si>
-    <t>b6aef1c0-7a83-1379-0094-7009198b4291</t>
-  </si>
-  <si>
-    <t>20e39fc5-a301-2156-20ea-8082dd32289f</t>
-  </si>
-  <si>
-    <t>f67b71a9-8295-7ee7-6b3c-43798c0182d6</t>
-  </si>
-  <si>
-    <t>04d80d2f-7432-00cd-a1d1-2f1333d84743</t>
-  </si>
-  <si>
-    <t>43ca8e1d-087d-5bdc-3bc3-372800f60cb6</t>
-  </si>
-  <si>
-    <t>7feffc5a-659e-02e0-40df-df42e9059307</t>
-  </si>
-  <si>
-    <t>586ea69e-70f6-36b0-9e8c-64ff5f4c3f09</t>
-  </si>
-  <si>
-    <t>b64a927b-3706-22ba-0aeb-550af6195588</t>
-  </si>
-  <si>
-    <t>de2a9abc-62d1-1943-32b4-156471ef8c5c</t>
-  </si>
-  <si>
-    <t>652f540f-9d21-0493-7728-52e359fe4292</t>
-  </si>
-  <si>
-    <t>0178c1cb-097d-7ac2-2563-307ae3b80eef</t>
-  </si>
-  <si>
-    <t>c572fe8a-6eb0-5b58-5b97-5f68e8786681</t>
-  </si>
-  <si>
-    <t>3c220085-7d42-833a-084a-64a5f9072686</t>
-  </si>
-  <si>
-    <t>a28d0e4c-8db1-8bb0-32f8-f8967759382a</t>
-  </si>
-  <si>
-    <t>931470e4-2b79-31e5-8f8f-88fda806638d</t>
-  </si>
-  <si>
-    <t>61efab97-3bcc-05f9-17a0-508a6296978f</t>
-  </si>
-  <si>
-    <t>5dfe4131-2a2a-4b42-92b9-561053727994</t>
-  </si>
-  <si>
-    <t>b2669333-a52b-5b93-3075-be6faf961e9e</t>
-  </si>
-  <si>
-    <t>2ed9a6cb-8162-5a55-06d0-5156269260cc</t>
-  </si>
-  <si>
-    <t>a6c6e6f3-84a9-339a-1eb9-52287aca5326</t>
-  </si>
-  <si>
-    <t>d30e06d5-8001-357f-3b60-469a2d9b1da8</t>
-  </si>
-  <si>
-    <t>7234f107-20b2-3791-0f00-2ae032039cd0</t>
-  </si>
-  <si>
-    <t>feb9c85d-3819-213f-21ae-a97abd5e6472</t>
-  </si>
-  <si>
-    <t>7dbdd04c-5fd9-902e-631a-7d3d199d1ed8</t>
-  </si>
-  <si>
-    <t>d5007242-2ecb-8bfd-0604-2083fc477fff</t>
-  </si>
-  <si>
-    <t>6dadf5fc-63b2-43b2-8459-fd004ff15ab3</t>
-  </si>
-  <si>
-    <t>e080e17f-84a0-18b9-686e-d4e496200318</t>
-  </si>
-  <si>
-    <t>dfd2b41e-674b-3add-832f-44cf689100f0</t>
-  </si>
-  <si>
-    <t>87131215-927e-72ea-2c14-5a7995585566</t>
-  </si>
-  <si>
-    <t>4bfbdac2-9c96-3d5b-4582-e0b237826c0d</t>
-  </si>
-  <si>
-    <t>51763842-91db-9f72-a2d2-87cf990007e1</t>
-  </si>
-  <si>
-    <t>1f2ed9da-a2cf-4033-2086-2d3e3fb09386</t>
-  </si>
-  <si>
-    <t>5778a1c4-1b8f-1dfc-24b5-38be7fcc1dab</t>
-  </si>
-  <si>
-    <t>78ae6f7f-5f09-8d58-9f56-366dfa599642</t>
-  </si>
-  <si>
-    <t>ecdb69c8-a18d-42d5-3df7-f2f4bccf096a</t>
-  </si>
-  <si>
-    <t>ca9dfffb-8019-569c-7af5-b0e1e79422c1</t>
-  </si>
-  <si>
-    <t>ed146214-5a40-5419-7770-bdb8f8ef4ae2</t>
-  </si>
-  <si>
-    <t>cc0ebcb2-3979-67e7-712b-9e1f2a688361</t>
-  </si>
-  <si>
-    <t>276ad5b5-9b59-9035-1912-c22ddbf56cd5</t>
-  </si>
-  <si>
-    <t>101a903c-9a91-226d-2b7a-f1b5853d1d6d</t>
-  </si>
-  <si>
-    <t>e260ea9c-6ee4-18ef-6895-c2540d0b84d6</t>
-  </si>
-  <si>
-    <t>720ab3e9-54b3-12b4-50d2-59de91f43e87</t>
-  </si>
-  <si>
-    <t>7a2f0687-8592-8cb4-948c-644fae3d0b60</t>
-  </si>
-  <si>
-    <t>70e9efdf-16bf-4960-3e2d-9ef9a13a4405</t>
-  </si>
-  <si>
-    <t>b570aa8c-6e56-92b9-7bc2-67a459cd66df</t>
-  </si>
-  <si>
-    <t>16ea5dcc-3bea-13be-5929-c58d75822997</t>
-  </si>
-  <si>
-    <t>b13ff573-4c25-98fc-43ab-9c85ab1f3a5c</t>
-  </si>
-  <si>
-    <t>9301d388-95ee-8b41-1c3c-c2951dae8693</t>
-  </si>
-  <si>
-    <t>88930f9c-4b42-93fb-73fe-dfd44f8f2460</t>
-  </si>
-  <si>
-    <t>2cb8bbad-724a-20ce-1f72-fd8cc7c436a4</t>
-  </si>
-  <si>
-    <t>1354de31-0d49-75ba-a01d-5310be0a0a8d</t>
-  </si>
-  <si>
-    <t>01466091-970c-4f8a-2e36-bfb0e88733c8</t>
-  </si>
-  <si>
-    <t>95db0d93-3107-4491-2084-9b7783f35e28</t>
-  </si>
-  <si>
-    <t>d8480473-998e-5d50-41a5-f1464dd215df</t>
-  </si>
-  <si>
-    <t>06582fd8-23f9-121f-7314-1fbb0dc1438b</t>
-  </si>
-  <si>
-    <t>262f6110-5c5b-09d4-7a28-0c0019fa5a79</t>
-  </si>
-  <si>
-    <t>00e1f95d-5bd4-0b85-403e-b0eb6cd422d4</t>
-  </si>
-  <si>
-    <t>所蔵</t>
-  </si>
-  <si>
-    <t>コレクション名</t>
-  </si>
-  <si>
-    <t>総合図書館所蔵古典籍</t>
-  </si>
-  <si>
-    <t>アイテムURL</t>
-  </si>
-  <si>
-    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/s/koten/document/1f35990b-a490-1a63-2ab0-32cd98112cf7</t>
-  </si>
-  <si>
-    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/s/koten/document/70b9201c-60a5-1234-1ffd-83e62cc2416e</t>
-  </si>
-  <si>
-    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/s/koten/document/255d0375-6a99-273b-0f01-2534091452a4</t>
-  </si>
-  <si>
-    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/s/koten/document/d7186cac-857f-23f6-3e96-b84378a410c7</t>
-  </si>
-  <si>
-    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/s/koten/document/0ace76fd-80f5-5406-5607-0879c0737535</t>
-  </si>
-  <si>
-    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/s/koten/document/c391c0b7-642b-7f20-902d-6bfc6b3c8d0a</t>
-  </si>
-  <si>
-    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/s/koten/document/4d9020c1-0096-86d9-130f-c67d20ee2a85</t>
-  </si>
-  <si>
-    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/s/koten/document/dd296df6-38fa-a025-7371-5e7d2ceb2046</t>
-  </si>
-  <si>
-    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/s/koten/document/cd187574-954d-6fb0-0874-a3e39ad16ac2</t>
-  </si>
-  <si>
-    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/s/koten/document/2c2614d0-8c8e-8088-284a-92c977dc6774</t>
-  </si>
-  <si>
-    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/s/koten/document/b6aef1c0-7a83-1379-0094-7009198b4291</t>
-  </si>
-  <si>
-    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/s/koten/document/20e39fc5-a301-2156-20ea-8082dd32289f</t>
-  </si>
-  <si>
-    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/s/koten/document/f67b71a9-8295-7ee7-6b3c-43798c0182d6</t>
-  </si>
-  <si>
-    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/s/koten/document/04d80d2f-7432-00cd-a1d1-2f1333d84743</t>
-  </si>
-  <si>
-    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/s/koten/document/43ca8e1d-087d-5bdc-3bc3-372800f60cb6</t>
-  </si>
-  <si>
-    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/s/koten/document/7feffc5a-659e-02e0-40df-df42e9059307</t>
-  </si>
-  <si>
-    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/s/koten/document/586ea69e-70f6-36b0-9e8c-64ff5f4c3f09</t>
-  </si>
-  <si>
-    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/s/koten/document/b64a927b-3706-22ba-0aeb-550af6195588</t>
-  </si>
-  <si>
-    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/s/koten/document/de2a9abc-62d1-1943-32b4-156471ef8c5c</t>
-  </si>
-  <si>
-    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/s/koten/document/652f540f-9d21-0493-7728-52e359fe4292</t>
-  </si>
-  <si>
-    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/s/koten/document/0178c1cb-097d-7ac2-2563-307ae3b80eef</t>
-  </si>
-  <si>
-    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/s/koten/document/c572fe8a-6eb0-5b58-5b97-5f68e8786681</t>
-  </si>
-  <si>
-    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/s/koten/document/3c220085-7d42-833a-084a-64a5f9072686</t>
-  </si>
-  <si>
-    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/s/koten/document/a28d0e4c-8db1-8bb0-32f8-f8967759382a</t>
-  </si>
-  <si>
-    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/s/koten/document/931470e4-2b79-31e5-8f8f-88fda806638d</t>
-  </si>
-  <si>
-    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/s/koten/document/61efab97-3bcc-05f9-17a0-508a6296978f</t>
-  </si>
-  <si>
-    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/s/koten/document/5dfe4131-2a2a-4b42-92b9-561053727994</t>
-  </si>
-  <si>
-    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/s/koten/document/b2669333-a52b-5b93-3075-be6faf961e9e</t>
-  </si>
-  <si>
-    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/s/koten/document/2ed9a6cb-8162-5a55-06d0-5156269260cc</t>
-  </si>
-  <si>
-    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/s/koten/document/a6c6e6f3-84a9-339a-1eb9-52287aca5326</t>
-  </si>
-  <si>
-    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/s/koten/document/d30e06d5-8001-357f-3b60-469a2d9b1da8</t>
-  </si>
-  <si>
-    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/s/koten/document/7234f107-20b2-3791-0f00-2ae032039cd0</t>
-  </si>
-  <si>
-    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/s/koten/document/feb9c85d-3819-213f-21ae-a97abd5e6472</t>
-  </si>
-  <si>
-    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/s/koten/document/7dbdd04c-5fd9-902e-631a-7d3d199d1ed8</t>
-  </si>
-  <si>
-    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/s/koten/document/d5007242-2ecb-8bfd-0604-2083fc477fff</t>
-  </si>
-  <si>
-    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/s/koten/document/6dadf5fc-63b2-43b2-8459-fd004ff15ab3</t>
-  </si>
-  <si>
-    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/s/koten/document/e080e17f-84a0-18b9-686e-d4e496200318</t>
-  </si>
-  <si>
-    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/s/koten/document/dfd2b41e-674b-3add-832f-44cf689100f0</t>
-  </si>
-  <si>
-    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/s/koten/document/87131215-927e-72ea-2c14-5a7995585566</t>
-  </si>
-  <si>
-    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/s/koten/document/4bfbdac2-9c96-3d5b-4582-e0b237826c0d</t>
-  </si>
-  <si>
-    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/s/koten/document/51763842-91db-9f72-a2d2-87cf990007e1</t>
-  </si>
-  <si>
-    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/s/koten/document/1f2ed9da-a2cf-4033-2086-2d3e3fb09386</t>
-  </si>
-  <si>
-    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/s/koten/document/5778a1c4-1b8f-1dfc-24b5-38be7fcc1dab</t>
-  </si>
-  <si>
-    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/s/koten/document/78ae6f7f-5f09-8d58-9f56-366dfa599642</t>
-  </si>
-  <si>
-    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/s/koten/document/ecdb69c8-a18d-42d5-3df7-f2f4bccf096a</t>
-  </si>
-  <si>
-    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/s/koten/document/ca9dfffb-8019-569c-7af5-b0e1e79422c1</t>
-  </si>
-  <si>
-    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/s/koten/document/ed146214-5a40-5419-7770-bdb8f8ef4ae2</t>
-  </si>
-  <si>
-    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/s/koten/document/cc0ebcb2-3979-67e7-712b-9e1f2a688361</t>
-  </si>
-  <si>
-    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/s/koten/document/276ad5b5-9b59-9035-1912-c22ddbf56cd5</t>
-  </si>
-  <si>
-    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/s/koten/document/101a903c-9a91-226d-2b7a-f1b5853d1d6d</t>
-  </si>
-  <si>
-    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/s/koten/document/e260ea9c-6ee4-18ef-6895-c2540d0b84d6</t>
-  </si>
-  <si>
-    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/s/koten/document/720ab3e9-54b3-12b4-50d2-59de91f43e87</t>
-  </si>
-  <si>
-    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/s/koten/document/7a2f0687-8592-8cb4-948c-644fae3d0b60</t>
-  </si>
-  <si>
-    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/s/koten/document/70e9efdf-16bf-4960-3e2d-9ef9a13a4405</t>
-  </si>
-  <si>
-    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/s/koten/document/b570aa8c-6e56-92b9-7bc2-67a459cd66df</t>
-  </si>
-  <si>
-    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/s/koten/document/16ea5dcc-3bea-13be-5929-c58d75822997</t>
-  </si>
-  <si>
-    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/s/koten/document/b13ff573-4c25-98fc-43ab-9c85ab1f3a5c</t>
-  </si>
-  <si>
-    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/s/koten/document/9301d388-95ee-8b41-1c3c-c2951dae8693</t>
-  </si>
-  <si>
-    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/s/koten/document/88930f9c-4b42-93fb-73fe-dfd44f8f2460</t>
-  </si>
-  <si>
-    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/s/koten/document/2cb8bbad-724a-20ce-1f72-fd8cc7c436a4</t>
-  </si>
-  <si>
-    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/s/koten/document/1354de31-0d49-75ba-a01d-5310be0a0a8d</t>
-  </si>
-  <si>
-    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/s/koten/document/01466091-970c-4f8a-2e36-bfb0e88733c8</t>
-  </si>
-  <si>
-    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/s/koten/document/95db0d93-3107-4491-2084-9b7783f35e28</t>
-  </si>
-  <si>
-    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/s/koten/document/d8480473-998e-5d50-41a5-f1464dd215df</t>
-  </si>
-  <si>
-    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/s/koten/document/06582fd8-23f9-121f-7314-1fbb0dc1438b</t>
-  </si>
-  <si>
-    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/s/koten/document/262f6110-5c5b-09d4-7a28-0c0019fa5a79</t>
-  </si>
-  <si>
-    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/s/koten/document/00e1f95d-5bd4-0b85-403e-b0eb6cd422d4</t>
-  </si>
-  <si>
     <t>利用条件</t>
   </si>
   <si>
     <t>https://www.lib.u-tokyo.ac.jp/ja/library/general/reuse</t>
-  </si>
-  <si>
-    <t>機械可読データ</t>
-  </si>
-  <si>
-    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/api/items/172011</t>
-  </si>
-  <si>
-    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/api/items/171979</t>
-  </si>
-  <si>
-    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/api/items/171982</t>
-  </si>
-  <si>
-    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/api/items/171992</t>
-  </si>
-  <si>
-    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/api/items/172018</t>
-  </si>
-  <si>
-    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/api/items/172031</t>
-  </si>
-  <si>
-    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/api/items/172000</t>
-  </si>
-  <si>
-    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/api/items/171973</t>
-  </si>
-  <si>
-    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/api/items/171966</t>
-  </si>
-  <si>
-    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/api/items/171975</t>
-  </si>
-  <si>
-    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/api/items/172029</t>
-  </si>
-  <si>
-    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/api/items/171985</t>
-  </si>
-  <si>
-    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/api/items/172027</t>
-  </si>
-  <si>
-    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/api/items/172016</t>
-  </si>
-  <si>
-    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/api/items/172022</t>
-  </si>
-  <si>
-    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/api/items/171965</t>
-  </si>
-  <si>
-    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/api/items/172007</t>
-  </si>
-  <si>
-    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/api/items/172026</t>
-  </si>
-  <si>
-    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/api/items/172024</t>
-  </si>
-  <si>
-    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/api/items/172023</t>
-  </si>
-  <si>
-    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/api/items/172010</t>
-  </si>
-  <si>
-    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/api/items/171974</t>
-  </si>
-  <si>
-    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/api/items/172025</t>
-  </si>
-  <si>
-    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/api/items/171980</t>
-  </si>
-  <si>
-    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/api/items/172002</t>
-  </si>
-  <si>
-    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/api/items/172006</t>
-  </si>
-  <si>
-    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/api/items/172017</t>
-  </si>
-  <si>
-    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/api/items/171963</t>
-  </si>
-  <si>
-    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/api/items/171964</t>
-  </si>
-  <si>
-    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/api/items/172008</t>
-  </si>
-  <si>
-    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/api/items/172030</t>
-  </si>
-  <si>
-    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/api/items/171988</t>
-  </si>
-  <si>
-    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/api/items/171986</t>
-  </si>
-  <si>
-    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/api/items/172012</t>
-  </si>
-  <si>
-    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/api/items/172013</t>
-  </si>
-  <si>
-    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/api/items/171971</t>
-  </si>
-  <si>
-    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/api/items/171991</t>
-  </si>
-  <si>
-    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/api/items/171996</t>
-  </si>
-  <si>
-    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/api/items/171998</t>
-  </si>
-  <si>
-    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/api/items/171997</t>
-  </si>
-  <si>
-    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/api/items/171969</t>
-  </si>
-  <si>
-    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/api/items/171970</t>
-  </si>
-  <si>
-    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/api/items/171990</t>
-  </si>
-  <si>
-    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/api/items/172019</t>
-  </si>
-  <si>
-    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/api/items/171999</t>
-  </si>
-  <si>
-    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/api/items/171976</t>
-  </si>
-  <si>
-    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/api/items/172028</t>
-  </si>
-  <si>
-    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/api/items/171983</t>
-  </si>
-  <si>
-    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/api/items/171977</t>
-  </si>
-  <si>
-    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/api/items/172015</t>
-  </si>
-  <si>
-    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/api/items/172020</t>
-  </si>
-  <si>
-    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/api/items/171995</t>
-  </si>
-  <si>
-    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/api/items/172009</t>
-  </si>
-  <si>
-    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/api/items/172021</t>
-  </si>
-  <si>
-    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/api/items/171972</t>
-  </si>
-  <si>
-    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/api/items/171978</t>
-  </si>
-  <si>
-    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/api/items/171984</t>
-  </si>
-  <si>
-    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/api/items/172003</t>
-  </si>
-  <si>
-    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/api/items/171994</t>
-  </si>
-  <si>
-    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/api/items/171981</t>
-  </si>
-  <si>
-    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/api/items/171967</t>
-  </si>
-  <si>
-    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/api/items/171987</t>
-  </si>
-  <si>
-    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/api/items/171993</t>
-  </si>
-  <si>
-    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/api/items/172004</t>
-  </si>
-  <si>
-    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/api/items/172014</t>
-  </si>
-  <si>
-    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/api/items/171968</t>
-  </si>
-  <si>
-    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/api/items/172001</t>
-  </si>
-  <si>
-    <t>サイトURL</t>
-  </si>
-  <si>
-    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/s/koten/</t>
-  </si>
-  <si>
-    <t>viewingDirection</t>
-  </si>
-  <si>
-    <t>http://iiif.io/api/presentation/2#rightToLeftDirection</t>
-  </si>
-  <si>
-    <t>年</t>
   </si>
 </sst>
 </file>
@@ -3116,34 +3116,34 @@
         <v>556</v>
       </c>
       <c r="M1" t="s">
-        <v>624</v>
+        <v>557</v>
       </c>
       <c r="N1" t="s">
-        <v>692</v>
+        <v>625</v>
       </c>
       <c r="O1" t="s">
-        <v>760</v>
+        <v>627</v>
       </c>
       <c r="P1" t="s">
-        <v>761</v>
+        <v>695</v>
       </c>
       <c r="Q1" t="s">
         <v>763</v>
       </c>
       <c r="R1" t="s">
-        <v>831</v>
+        <v>765</v>
       </c>
       <c r="S1" t="s">
         <v>833</v>
       </c>
       <c r="T1" t="s">
-        <v>901</v>
+        <v>834</v>
       </c>
       <c r="U1" t="s">
-        <v>903</v>
+        <v>836</v>
       </c>
       <c r="V1" t="s">
-        <v>905</v>
+        <v>904</v>
       </c>
     </row>
     <row r="2" spans="1:22">
@@ -3174,32 +3174,32 @@
       <c r="K2" t="s">
         <v>487</v>
       </c>
-      <c r="L2" s="1" t="s">
-        <v>557</v>
-      </c>
       <c r="M2" s="1" t="s">
-        <v>625</v>
-      </c>
-      <c r="N2" t="s">
-        <v>693</v>
-      </c>
-      <c r="P2" t="s">
-        <v>762</v>
+        <v>558</v>
+      </c>
+      <c r="N2" s="1" t="s">
+        <v>626</v>
+      </c>
+      <c r="O2" t="s">
+        <v>628</v>
+      </c>
+      <c r="P2" s="1" t="s">
+        <v>696</v>
       </c>
       <c r="Q2" s="1" t="s">
         <v>764</v>
       </c>
       <c r="R2" s="1" t="s">
-        <v>832</v>
-      </c>
-      <c r="S2" s="1" t="s">
-        <v>834</v>
-      </c>
-      <c r="T2" s="1" t="s">
-        <v>902</v>
+        <v>766</v>
+      </c>
+      <c r="T2" t="s">
+        <v>835</v>
       </c>
       <c r="U2" s="1" t="s">
-        <v>904</v>
+        <v>837</v>
+      </c>
+      <c r="V2" s="1" t="s">
+        <v>905</v>
       </c>
     </row>
     <row r="3" spans="1:22">
@@ -3233,32 +3233,32 @@
       <c r="K3" t="s">
         <v>488</v>
       </c>
-      <c r="L3" s="1" t="s">
-        <v>558</v>
-      </c>
       <c r="M3" s="1" t="s">
+        <v>559</v>
+      </c>
+      <c r="N3" s="1" t="s">
         <v>626</v>
       </c>
-      <c r="N3" t="s">
-        <v>694</v>
-      </c>
-      <c r="P3" t="s">
-        <v>762</v>
+      <c r="O3" t="s">
+        <v>629</v>
+      </c>
+      <c r="P3" s="1" t="s">
+        <v>697</v>
       </c>
       <c r="Q3" s="1" t="s">
-        <v>765</v>
+        <v>764</v>
       </c>
       <c r="R3" s="1" t="s">
-        <v>832</v>
-      </c>
-      <c r="S3" s="1" t="s">
+        <v>767</v>
+      </c>
+      <c r="T3" t="s">
         <v>835</v>
       </c>
-      <c r="T3" s="1" t="s">
-        <v>902</v>
-      </c>
       <c r="U3" s="1" t="s">
-        <v>904</v>
+        <v>838</v>
+      </c>
+      <c r="V3" s="1" t="s">
+        <v>905</v>
       </c>
     </row>
     <row r="4" spans="1:22">
@@ -3292,32 +3292,32 @@
       <c r="K4" t="s">
         <v>489</v>
       </c>
-      <c r="L4" s="1" t="s">
-        <v>559</v>
-      </c>
       <c r="M4" s="1" t="s">
-        <v>627</v>
-      </c>
-      <c r="N4" t="s">
-        <v>695</v>
-      </c>
-      <c r="P4" t="s">
-        <v>762</v>
+        <v>560</v>
+      </c>
+      <c r="N4" s="1" t="s">
+        <v>626</v>
+      </c>
+      <c r="O4" t="s">
+        <v>630</v>
+      </c>
+      <c r="P4" s="1" t="s">
+        <v>698</v>
       </c>
       <c r="Q4" s="1" t="s">
-        <v>766</v>
+        <v>764</v>
       </c>
       <c r="R4" s="1" t="s">
-        <v>832</v>
-      </c>
-      <c r="S4" s="1" t="s">
-        <v>836</v>
-      </c>
-      <c r="T4" s="1" t="s">
-        <v>902</v>
+        <v>768</v>
+      </c>
+      <c r="T4" t="s">
+        <v>835</v>
       </c>
       <c r="U4" s="1" t="s">
-        <v>904</v>
+        <v>839</v>
+      </c>
+      <c r="V4" s="1" t="s">
+        <v>905</v>
       </c>
     </row>
     <row r="5" spans="1:22">
@@ -3351,32 +3351,32 @@
       <c r="K5" t="s">
         <v>490</v>
       </c>
-      <c r="L5" s="1" t="s">
-        <v>560</v>
-      </c>
       <c r="M5" s="1" t="s">
-        <v>628</v>
-      </c>
-      <c r="N5" t="s">
-        <v>696</v>
-      </c>
-      <c r="P5" t="s">
-        <v>762</v>
+        <v>561</v>
+      </c>
+      <c r="N5" s="1" t="s">
+        <v>626</v>
+      </c>
+      <c r="O5" t="s">
+        <v>631</v>
+      </c>
+      <c r="P5" s="1" t="s">
+        <v>699</v>
       </c>
       <c r="Q5" s="1" t="s">
-        <v>767</v>
+        <v>764</v>
       </c>
       <c r="R5" s="1" t="s">
-        <v>832</v>
-      </c>
-      <c r="S5" s="1" t="s">
-        <v>837</v>
-      </c>
-      <c r="T5" s="1" t="s">
-        <v>902</v>
+        <v>769</v>
+      </c>
+      <c r="T5" t="s">
+        <v>835</v>
       </c>
       <c r="U5" s="1" t="s">
-        <v>904</v>
+        <v>840</v>
+      </c>
+      <c r="V5" s="1" t="s">
+        <v>905</v>
       </c>
     </row>
     <row r="6" spans="1:22">
@@ -3410,32 +3410,32 @@
       <c r="K6" t="s">
         <v>491</v>
       </c>
-      <c r="L6" s="1" t="s">
-        <v>561</v>
-      </c>
       <c r="M6" s="1" t="s">
-        <v>629</v>
-      </c>
-      <c r="N6" t="s">
-        <v>697</v>
-      </c>
-      <c r="P6" t="s">
-        <v>762</v>
+        <v>562</v>
+      </c>
+      <c r="N6" s="1" t="s">
+        <v>626</v>
+      </c>
+      <c r="O6" t="s">
+        <v>632</v>
+      </c>
+      <c r="P6" s="1" t="s">
+        <v>700</v>
       </c>
       <c r="Q6" s="1" t="s">
-        <v>768</v>
+        <v>764</v>
       </c>
       <c r="R6" s="1" t="s">
-        <v>832</v>
-      </c>
-      <c r="S6" s="1" t="s">
-        <v>838</v>
-      </c>
-      <c r="T6" s="1" t="s">
-        <v>902</v>
+        <v>770</v>
+      </c>
+      <c r="T6" t="s">
+        <v>835</v>
       </c>
       <c r="U6" s="1" t="s">
-        <v>904</v>
+        <v>841</v>
+      </c>
+      <c r="V6" s="1" t="s">
+        <v>905</v>
       </c>
     </row>
     <row r="7" spans="1:22">
@@ -3469,32 +3469,32 @@
       <c r="K7" t="s">
         <v>492</v>
       </c>
-      <c r="L7" s="1" t="s">
-        <v>562</v>
-      </c>
       <c r="M7" s="1" t="s">
-        <v>630</v>
-      </c>
-      <c r="N7" t="s">
-        <v>698</v>
-      </c>
-      <c r="P7" t="s">
-        <v>762</v>
+        <v>563</v>
+      </c>
+      <c r="N7" s="1" t="s">
+        <v>626</v>
+      </c>
+      <c r="O7" t="s">
+        <v>633</v>
+      </c>
+      <c r="P7" s="1" t="s">
+        <v>701</v>
       </c>
       <c r="Q7" s="1" t="s">
-        <v>769</v>
+        <v>764</v>
       </c>
       <c r="R7" s="1" t="s">
-        <v>832</v>
-      </c>
-      <c r="S7" s="1" t="s">
-        <v>839</v>
-      </c>
-      <c r="T7" s="1" t="s">
-        <v>902</v>
+        <v>771</v>
+      </c>
+      <c r="T7" t="s">
+        <v>835</v>
       </c>
       <c r="U7" s="1" t="s">
-        <v>904</v>
+        <v>842</v>
+      </c>
+      <c r="V7" s="1" t="s">
+        <v>905</v>
       </c>
     </row>
     <row r="8" spans="1:22">
@@ -3528,32 +3528,32 @@
       <c r="K8" t="s">
         <v>493</v>
       </c>
-      <c r="L8" s="1" t="s">
-        <v>563</v>
-      </c>
       <c r="M8" s="1" t="s">
-        <v>631</v>
-      </c>
-      <c r="N8" t="s">
-        <v>699</v>
-      </c>
-      <c r="P8" t="s">
-        <v>762</v>
+        <v>564</v>
+      </c>
+      <c r="N8" s="1" t="s">
+        <v>626</v>
+      </c>
+      <c r="O8" t="s">
+        <v>634</v>
+      </c>
+      <c r="P8" s="1" t="s">
+        <v>702</v>
       </c>
       <c r="Q8" s="1" t="s">
-        <v>770</v>
+        <v>764</v>
       </c>
       <c r="R8" s="1" t="s">
-        <v>832</v>
-      </c>
-      <c r="S8" s="1" t="s">
-        <v>840</v>
-      </c>
-      <c r="T8" s="1" t="s">
-        <v>902</v>
+        <v>772</v>
+      </c>
+      <c r="T8" t="s">
+        <v>835</v>
       </c>
       <c r="U8" s="1" t="s">
-        <v>904</v>
+        <v>843</v>
+      </c>
+      <c r="V8" s="1" t="s">
+        <v>905</v>
       </c>
     </row>
     <row r="9" spans="1:22">
@@ -3587,32 +3587,32 @@
       <c r="K9" t="s">
         <v>494</v>
       </c>
-      <c r="L9" s="1" t="s">
-        <v>564</v>
-      </c>
       <c r="M9" s="1" t="s">
-        <v>632</v>
-      </c>
-      <c r="N9" t="s">
-        <v>700</v>
-      </c>
-      <c r="P9" t="s">
-        <v>762</v>
+        <v>565</v>
+      </c>
+      <c r="N9" s="1" t="s">
+        <v>626</v>
+      </c>
+      <c r="O9" t="s">
+        <v>635</v>
+      </c>
+      <c r="P9" s="1" t="s">
+        <v>703</v>
       </c>
       <c r="Q9" s="1" t="s">
-        <v>771</v>
+        <v>764</v>
       </c>
       <c r="R9" s="1" t="s">
-        <v>832</v>
-      </c>
-      <c r="S9" s="1" t="s">
-        <v>841</v>
-      </c>
-      <c r="T9" s="1" t="s">
-        <v>902</v>
+        <v>773</v>
+      </c>
+      <c r="T9" t="s">
+        <v>835</v>
       </c>
       <c r="U9" s="1" t="s">
-        <v>904</v>
+        <v>844</v>
+      </c>
+      <c r="V9" s="1" t="s">
+        <v>905</v>
       </c>
     </row>
     <row r="10" spans="1:22">
@@ -3640,32 +3640,32 @@
       <c r="K10" t="s">
         <v>495</v>
       </c>
-      <c r="L10" s="1" t="s">
-        <v>565</v>
-      </c>
       <c r="M10" s="1" t="s">
-        <v>633</v>
-      </c>
-      <c r="N10" t="s">
-        <v>701</v>
-      </c>
-      <c r="P10" t="s">
-        <v>762</v>
+        <v>566</v>
+      </c>
+      <c r="N10" s="1" t="s">
+        <v>626</v>
+      </c>
+      <c r="O10" t="s">
+        <v>636</v>
+      </c>
+      <c r="P10" s="1" t="s">
+        <v>704</v>
       </c>
       <c r="Q10" s="1" t="s">
-        <v>772</v>
+        <v>764</v>
       </c>
       <c r="R10" s="1" t="s">
-        <v>832</v>
-      </c>
-      <c r="S10" s="1" t="s">
-        <v>842</v>
-      </c>
-      <c r="T10" s="1" t="s">
-        <v>902</v>
+        <v>774</v>
+      </c>
+      <c r="T10" t="s">
+        <v>835</v>
       </c>
       <c r="U10" s="1" t="s">
-        <v>904</v>
+        <v>845</v>
+      </c>
+      <c r="V10" s="1" t="s">
+        <v>905</v>
       </c>
     </row>
     <row r="11" spans="1:22">
@@ -3693,32 +3693,32 @@
       <c r="K11" t="s">
         <v>496</v>
       </c>
-      <c r="L11" s="1" t="s">
-        <v>566</v>
-      </c>
       <c r="M11" s="1" t="s">
-        <v>634</v>
-      </c>
-      <c r="N11" t="s">
-        <v>702</v>
-      </c>
-      <c r="P11" t="s">
-        <v>762</v>
+        <v>567</v>
+      </c>
+      <c r="N11" s="1" t="s">
+        <v>626</v>
+      </c>
+      <c r="O11" t="s">
+        <v>637</v>
+      </c>
+      <c r="P11" s="1" t="s">
+        <v>705</v>
       </c>
       <c r="Q11" s="1" t="s">
-        <v>773</v>
+        <v>764</v>
       </c>
       <c r="R11" s="1" t="s">
-        <v>832</v>
-      </c>
-      <c r="S11" s="1" t="s">
-        <v>843</v>
-      </c>
-      <c r="T11" s="1" t="s">
-        <v>902</v>
+        <v>775</v>
+      </c>
+      <c r="T11" t="s">
+        <v>835</v>
       </c>
       <c r="U11" s="1" t="s">
-        <v>904</v>
+        <v>846</v>
+      </c>
+      <c r="V11" s="1" t="s">
+        <v>905</v>
       </c>
     </row>
     <row r="12" spans="1:22">
@@ -3752,32 +3752,32 @@
       <c r="K12" t="s">
         <v>497</v>
       </c>
-      <c r="L12" s="1" t="s">
-        <v>567</v>
-      </c>
       <c r="M12" s="1" t="s">
-        <v>635</v>
-      </c>
-      <c r="N12" t="s">
-        <v>703</v>
-      </c>
-      <c r="P12" t="s">
-        <v>762</v>
+        <v>568</v>
+      </c>
+      <c r="N12" s="1" t="s">
+        <v>626</v>
+      </c>
+      <c r="O12" t="s">
+        <v>638</v>
+      </c>
+      <c r="P12" s="1" t="s">
+        <v>706</v>
       </c>
       <c r="Q12" s="1" t="s">
-        <v>774</v>
+        <v>764</v>
       </c>
       <c r="R12" s="1" t="s">
-        <v>832</v>
-      </c>
-      <c r="S12" s="1" t="s">
-        <v>844</v>
-      </c>
-      <c r="T12" s="1" t="s">
-        <v>902</v>
+        <v>776</v>
+      </c>
+      <c r="T12" t="s">
+        <v>835</v>
       </c>
       <c r="U12" s="1" t="s">
-        <v>904</v>
+        <v>847</v>
+      </c>
+      <c r="V12" s="1" t="s">
+        <v>905</v>
       </c>
     </row>
     <row r="13" spans="1:22">
@@ -3814,32 +3814,32 @@
       <c r="K13" t="s">
         <v>498</v>
       </c>
-      <c r="L13" s="1" t="s">
-        <v>568</v>
-      </c>
       <c r="M13" s="1" t="s">
-        <v>636</v>
-      </c>
-      <c r="N13" t="s">
-        <v>704</v>
-      </c>
-      <c r="P13" t="s">
-        <v>762</v>
+        <v>569</v>
+      </c>
+      <c r="N13" s="1" t="s">
+        <v>626</v>
+      </c>
+      <c r="O13" t="s">
+        <v>639</v>
+      </c>
+      <c r="P13" s="1" t="s">
+        <v>707</v>
       </c>
       <c r="Q13" s="1" t="s">
-        <v>775</v>
+        <v>764</v>
       </c>
       <c r="R13" s="1" t="s">
-        <v>832</v>
-      </c>
-      <c r="S13" s="1" t="s">
-        <v>845</v>
-      </c>
-      <c r="T13" s="1" t="s">
-        <v>902</v>
+        <v>777</v>
+      </c>
+      <c r="T13" t="s">
+        <v>835</v>
       </c>
       <c r="U13" s="1" t="s">
-        <v>904</v>
+        <v>848</v>
+      </c>
+      <c r="V13" s="1" t="s">
+        <v>905</v>
       </c>
     </row>
     <row r="14" spans="1:22">
@@ -3873,32 +3873,32 @@
       <c r="K14" t="s">
         <v>499</v>
       </c>
-      <c r="L14" s="1" t="s">
-        <v>569</v>
-      </c>
       <c r="M14" s="1" t="s">
-        <v>637</v>
-      </c>
-      <c r="N14" t="s">
-        <v>705</v>
-      </c>
-      <c r="P14" t="s">
-        <v>762</v>
+        <v>570</v>
+      </c>
+      <c r="N14" s="1" t="s">
+        <v>626</v>
+      </c>
+      <c r="O14" t="s">
+        <v>640</v>
+      </c>
+      <c r="P14" s="1" t="s">
+        <v>708</v>
       </c>
       <c r="Q14" s="1" t="s">
-        <v>776</v>
+        <v>764</v>
       </c>
       <c r="R14" s="1" t="s">
-        <v>832</v>
-      </c>
-      <c r="S14" s="1" t="s">
-        <v>846</v>
-      </c>
-      <c r="T14" s="1" t="s">
-        <v>902</v>
+        <v>778</v>
+      </c>
+      <c r="T14" t="s">
+        <v>835</v>
       </c>
       <c r="U14" s="1" t="s">
-        <v>904</v>
+        <v>849</v>
+      </c>
+      <c r="V14" s="1" t="s">
+        <v>905</v>
       </c>
     </row>
     <row r="15" spans="1:22">
@@ -3929,32 +3929,32 @@
       <c r="K15" t="s">
         <v>500</v>
       </c>
-      <c r="L15" s="1" t="s">
-        <v>570</v>
-      </c>
       <c r="M15" s="1" t="s">
-        <v>638</v>
-      </c>
-      <c r="N15" t="s">
-        <v>706</v>
-      </c>
-      <c r="P15" t="s">
-        <v>762</v>
+        <v>571</v>
+      </c>
+      <c r="N15" s="1" t="s">
+        <v>626</v>
+      </c>
+      <c r="O15" t="s">
+        <v>641</v>
+      </c>
+      <c r="P15" s="1" t="s">
+        <v>709</v>
       </c>
       <c r="Q15" s="1" t="s">
-        <v>777</v>
+        <v>764</v>
       </c>
       <c r="R15" s="1" t="s">
-        <v>832</v>
-      </c>
-      <c r="S15" s="1" t="s">
-        <v>847</v>
-      </c>
-      <c r="T15" s="1" t="s">
-        <v>902</v>
+        <v>779</v>
+      </c>
+      <c r="T15" t="s">
+        <v>835</v>
       </c>
       <c r="U15" s="1" t="s">
-        <v>904</v>
+        <v>850</v>
+      </c>
+      <c r="V15" s="1" t="s">
+        <v>905</v>
       </c>
     </row>
     <row r="16" spans="1:22">
@@ -3982,35 +3982,35 @@
       <c r="K16" t="s">
         <v>501</v>
       </c>
-      <c r="L16" s="1" t="s">
-        <v>571</v>
-      </c>
       <c r="M16" s="1" t="s">
-        <v>639</v>
-      </c>
-      <c r="N16" t="s">
-        <v>707</v>
-      </c>
-      <c r="P16" t="s">
-        <v>762</v>
+        <v>572</v>
+      </c>
+      <c r="N16" s="1" t="s">
+        <v>626</v>
+      </c>
+      <c r="O16" t="s">
+        <v>642</v>
+      </c>
+      <c r="P16" s="1" t="s">
+        <v>710</v>
       </c>
       <c r="Q16" s="1" t="s">
-        <v>778</v>
+        <v>764</v>
       </c>
       <c r="R16" s="1" t="s">
-        <v>832</v>
-      </c>
-      <c r="S16" s="1" t="s">
-        <v>848</v>
-      </c>
-      <c r="T16" s="1" t="s">
-        <v>902</v>
+        <v>780</v>
+      </c>
+      <c r="T16" t="s">
+        <v>835</v>
       </c>
       <c r="U16" s="1" t="s">
-        <v>904</v>
+        <v>851</v>
+      </c>
+      <c r="V16" s="1" t="s">
+        <v>905</v>
       </c>
     </row>
-    <row r="17" spans="1:21">
+    <row r="17" spans="1:22">
       <c r="A17" t="s">
         <v>16</v>
       </c>
@@ -4038,32 +4038,32 @@
       <c r="K17" t="s">
         <v>502</v>
       </c>
-      <c r="L17" s="1" t="s">
-        <v>572</v>
-      </c>
       <c r="M17" s="1" t="s">
-        <v>640</v>
-      </c>
-      <c r="N17" t="s">
-        <v>708</v>
+        <v>573</v>
+      </c>
+      <c r="N17" s="1" t="s">
+        <v>626</v>
+      </c>
+      <c r="O17" t="s">
+        <v>643</v>
+      </c>
+      <c r="P17" s="1" t="s">
+        <v>711</v>
       </c>
       <c r="Q17" s="1" t="s">
-        <v>779</v>
+        <v>764</v>
       </c>
       <c r="R17" s="1" t="s">
-        <v>832</v>
-      </c>
-      <c r="S17" s="1" t="s">
-        <v>849</v>
-      </c>
-      <c r="T17" s="1" t="s">
-        <v>902</v>
+        <v>781</v>
       </c>
       <c r="U17" s="1" t="s">
-        <v>904</v>
+        <v>852</v>
+      </c>
+      <c r="V17" s="1" t="s">
+        <v>905</v>
       </c>
     </row>
-    <row r="18" spans="1:21">
+    <row r="18" spans="1:22">
       <c r="A18" t="s">
         <v>17</v>
       </c>
@@ -4091,35 +4091,35 @@
       <c r="K18" t="s">
         <v>503</v>
       </c>
-      <c r="L18" s="1" t="s">
-        <v>573</v>
-      </c>
       <c r="M18" s="1" t="s">
-        <v>641</v>
-      </c>
-      <c r="N18" t="s">
-        <v>709</v>
-      </c>
-      <c r="P18" t="s">
-        <v>762</v>
+        <v>574</v>
+      </c>
+      <c r="N18" s="1" t="s">
+        <v>626</v>
+      </c>
+      <c r="O18" t="s">
+        <v>644</v>
+      </c>
+      <c r="P18" s="1" t="s">
+        <v>712</v>
       </c>
       <c r="Q18" s="1" t="s">
-        <v>780</v>
+        <v>764</v>
       </c>
       <c r="R18" s="1" t="s">
-        <v>832</v>
-      </c>
-      <c r="S18" s="1" t="s">
-        <v>850</v>
-      </c>
-      <c r="T18" s="1" t="s">
-        <v>902</v>
+        <v>782</v>
+      </c>
+      <c r="T18" t="s">
+        <v>835</v>
       </c>
       <c r="U18" s="1" t="s">
-        <v>904</v>
+        <v>853</v>
+      </c>
+      <c r="V18" s="1" t="s">
+        <v>905</v>
       </c>
     </row>
-    <row r="19" spans="1:21">
+    <row r="19" spans="1:22">
       <c r="A19" t="s">
         <v>18</v>
       </c>
@@ -4147,35 +4147,35 @@
       <c r="K19" t="s">
         <v>504</v>
       </c>
-      <c r="L19" s="1" t="s">
-        <v>574</v>
-      </c>
       <c r="M19" s="1" t="s">
-        <v>642</v>
-      </c>
-      <c r="N19" t="s">
-        <v>710</v>
-      </c>
-      <c r="P19" t="s">
-        <v>762</v>
+        <v>575</v>
+      </c>
+      <c r="N19" s="1" t="s">
+        <v>626</v>
+      </c>
+      <c r="O19" t="s">
+        <v>645</v>
+      </c>
+      <c r="P19" s="1" t="s">
+        <v>713</v>
       </c>
       <c r="Q19" s="1" t="s">
-        <v>781</v>
+        <v>764</v>
       </c>
       <c r="R19" s="1" t="s">
-        <v>832</v>
-      </c>
-      <c r="S19" s="1" t="s">
-        <v>851</v>
-      </c>
-      <c r="T19" s="1" t="s">
-        <v>902</v>
+        <v>783</v>
+      </c>
+      <c r="T19" t="s">
+        <v>835</v>
       </c>
       <c r="U19" s="1" t="s">
-        <v>904</v>
+        <v>854</v>
+      </c>
+      <c r="V19" s="1" t="s">
+        <v>905</v>
       </c>
     </row>
-    <row r="20" spans="1:21">
+    <row r="20" spans="1:22">
       <c r="A20" t="s">
         <v>19</v>
       </c>
@@ -4203,35 +4203,35 @@
       <c r="K20" t="s">
         <v>505</v>
       </c>
-      <c r="L20" s="1" t="s">
-        <v>575</v>
-      </c>
       <c r="M20" s="1" t="s">
-        <v>643</v>
-      </c>
-      <c r="N20" t="s">
-        <v>711</v>
-      </c>
-      <c r="P20" t="s">
-        <v>762</v>
+        <v>576</v>
+      </c>
+      <c r="N20" s="1" t="s">
+        <v>626</v>
+      </c>
+      <c r="O20" t="s">
+        <v>646</v>
+      </c>
+      <c r="P20" s="1" t="s">
+        <v>714</v>
       </c>
       <c r="Q20" s="1" t="s">
-        <v>782</v>
+        <v>764</v>
       </c>
       <c r="R20" s="1" t="s">
-        <v>832</v>
-      </c>
-      <c r="S20" s="1" t="s">
-        <v>852</v>
-      </c>
-      <c r="T20" s="1" t="s">
-        <v>902</v>
+        <v>784</v>
+      </c>
+      <c r="T20" t="s">
+        <v>835</v>
       </c>
       <c r="U20" s="1" t="s">
-        <v>904</v>
+        <v>855</v>
+      </c>
+      <c r="V20" s="1" t="s">
+        <v>905</v>
       </c>
     </row>
-    <row r="21" spans="1:21">
+    <row r="21" spans="1:22">
       <c r="A21" t="s">
         <v>20</v>
       </c>
@@ -4256,35 +4256,35 @@
       <c r="K21" t="s">
         <v>506</v>
       </c>
-      <c r="L21" s="1" t="s">
-        <v>576</v>
-      </c>
       <c r="M21" s="1" t="s">
-        <v>644</v>
-      </c>
-      <c r="N21" t="s">
-        <v>712</v>
-      </c>
-      <c r="P21" t="s">
-        <v>762</v>
+        <v>577</v>
+      </c>
+      <c r="N21" s="1" t="s">
+        <v>626</v>
+      </c>
+      <c r="O21" t="s">
+        <v>647</v>
+      </c>
+      <c r="P21" s="1" t="s">
+        <v>715</v>
       </c>
       <c r="Q21" s="1" t="s">
-        <v>783</v>
+        <v>764</v>
       </c>
       <c r="R21" s="1" t="s">
-        <v>832</v>
-      </c>
-      <c r="S21" s="1" t="s">
-        <v>853</v>
-      </c>
-      <c r="T21" s="1" t="s">
-        <v>902</v>
+        <v>785</v>
+      </c>
+      <c r="T21" t="s">
+        <v>835</v>
       </c>
       <c r="U21" s="1" t="s">
-        <v>904</v>
+        <v>856</v>
+      </c>
+      <c r="V21" s="1" t="s">
+        <v>905</v>
       </c>
     </row>
-    <row r="22" spans="1:21">
+    <row r="22" spans="1:22">
       <c r="A22" t="s">
         <v>21</v>
       </c>
@@ -4312,35 +4312,35 @@
       <c r="K22" t="s">
         <v>507</v>
       </c>
-      <c r="L22" s="1" t="s">
-        <v>577</v>
-      </c>
       <c r="M22" s="1" t="s">
-        <v>645</v>
-      </c>
-      <c r="N22" t="s">
-        <v>713</v>
-      </c>
-      <c r="P22" t="s">
-        <v>762</v>
+        <v>578</v>
+      </c>
+      <c r="N22" s="1" t="s">
+        <v>626</v>
+      </c>
+      <c r="O22" t="s">
+        <v>648</v>
+      </c>
+      <c r="P22" s="1" t="s">
+        <v>716</v>
       </c>
       <c r="Q22" s="1" t="s">
-        <v>784</v>
+        <v>764</v>
       </c>
       <c r="R22" s="1" t="s">
-        <v>832</v>
-      </c>
-      <c r="S22" s="1" t="s">
-        <v>854</v>
-      </c>
-      <c r="T22" s="1" t="s">
-        <v>902</v>
+        <v>786</v>
+      </c>
+      <c r="T22" t="s">
+        <v>835</v>
       </c>
       <c r="U22" s="1" t="s">
-        <v>904</v>
+        <v>857</v>
+      </c>
+      <c r="V22" s="1" t="s">
+        <v>905</v>
       </c>
     </row>
-    <row r="23" spans="1:21">
+    <row r="23" spans="1:22">
       <c r="A23" t="s">
         <v>22</v>
       </c>
@@ -4374,35 +4374,35 @@
       <c r="K23" t="s">
         <v>508</v>
       </c>
-      <c r="L23" s="1" t="s">
-        <v>578</v>
-      </c>
       <c r="M23" s="1" t="s">
-        <v>646</v>
-      </c>
-      <c r="N23" t="s">
-        <v>714</v>
-      </c>
-      <c r="P23" t="s">
-        <v>762</v>
+        <v>579</v>
+      </c>
+      <c r="N23" s="1" t="s">
+        <v>626</v>
+      </c>
+      <c r="O23" t="s">
+        <v>649</v>
+      </c>
+      <c r="P23" s="1" t="s">
+        <v>717</v>
       </c>
       <c r="Q23" s="1" t="s">
-        <v>785</v>
+        <v>764</v>
       </c>
       <c r="R23" s="1" t="s">
-        <v>832</v>
-      </c>
-      <c r="S23" s="1" t="s">
-        <v>855</v>
-      </c>
-      <c r="T23" s="1" t="s">
-        <v>902</v>
+        <v>787</v>
+      </c>
+      <c r="T23" t="s">
+        <v>835</v>
       </c>
       <c r="U23" s="1" t="s">
-        <v>904</v>
+        <v>858</v>
+      </c>
+      <c r="V23" s="1" t="s">
+        <v>905</v>
       </c>
     </row>
-    <row r="24" spans="1:21">
+    <row r="24" spans="1:22">
       <c r="A24" t="s">
         <v>23</v>
       </c>
@@ -4433,35 +4433,35 @@
       <c r="K24" t="s">
         <v>509</v>
       </c>
-      <c r="L24" s="1" t="s">
-        <v>579</v>
-      </c>
       <c r="M24" s="1" t="s">
-        <v>647</v>
-      </c>
-      <c r="N24" t="s">
-        <v>715</v>
-      </c>
-      <c r="P24" t="s">
-        <v>762</v>
+        <v>580</v>
+      </c>
+      <c r="N24" s="1" t="s">
+        <v>626</v>
+      </c>
+      <c r="O24" t="s">
+        <v>650</v>
+      </c>
+      <c r="P24" s="1" t="s">
+        <v>718</v>
       </c>
       <c r="Q24" s="1" t="s">
-        <v>786</v>
+        <v>764</v>
       </c>
       <c r="R24" s="1" t="s">
-        <v>832</v>
-      </c>
-      <c r="S24" s="1" t="s">
-        <v>856</v>
-      </c>
-      <c r="T24" s="1" t="s">
-        <v>902</v>
+        <v>788</v>
+      </c>
+      <c r="T24" t="s">
+        <v>835</v>
       </c>
       <c r="U24" s="1" t="s">
-        <v>904</v>
+        <v>859</v>
+      </c>
+      <c r="V24" s="1" t="s">
+        <v>905</v>
       </c>
     </row>
-    <row r="25" spans="1:21">
+    <row r="25" spans="1:22">
       <c r="A25" t="s">
         <v>24</v>
       </c>
@@ -4489,35 +4489,35 @@
       <c r="K25" t="s">
         <v>510</v>
       </c>
-      <c r="L25" s="1" t="s">
-        <v>580</v>
-      </c>
       <c r="M25" s="1" t="s">
-        <v>648</v>
-      </c>
-      <c r="N25" t="s">
-        <v>716</v>
-      </c>
-      <c r="P25" t="s">
-        <v>762</v>
+        <v>581</v>
+      </c>
+      <c r="N25" s="1" t="s">
+        <v>626</v>
+      </c>
+      <c r="O25" t="s">
+        <v>651</v>
+      </c>
+      <c r="P25" s="1" t="s">
+        <v>719</v>
       </c>
       <c r="Q25" s="1" t="s">
-        <v>787</v>
+        <v>764</v>
       </c>
       <c r="R25" s="1" t="s">
-        <v>832</v>
-      </c>
-      <c r="S25" s="1" t="s">
-        <v>857</v>
-      </c>
-      <c r="T25" s="1" t="s">
-        <v>902</v>
+        <v>789</v>
+      </c>
+      <c r="T25" t="s">
+        <v>835</v>
       </c>
       <c r="U25" s="1" t="s">
-        <v>904</v>
+        <v>860</v>
+      </c>
+      <c r="V25" s="1" t="s">
+        <v>905</v>
       </c>
     </row>
-    <row r="26" spans="1:21">
+    <row r="26" spans="1:22">
       <c r="A26" t="s">
         <v>25</v>
       </c>
@@ -4548,35 +4548,35 @@
       <c r="K26" t="s">
         <v>511</v>
       </c>
-      <c r="L26" s="1" t="s">
-        <v>581</v>
-      </c>
       <c r="M26" s="1" t="s">
-        <v>649</v>
-      </c>
-      <c r="N26" t="s">
-        <v>717</v>
-      </c>
-      <c r="P26" t="s">
-        <v>762</v>
+        <v>582</v>
+      </c>
+      <c r="N26" s="1" t="s">
+        <v>626</v>
+      </c>
+      <c r="O26" t="s">
+        <v>652</v>
+      </c>
+      <c r="P26" s="1" t="s">
+        <v>720</v>
       </c>
       <c r="Q26" s="1" t="s">
-        <v>788</v>
+        <v>764</v>
       </c>
       <c r="R26" s="1" t="s">
-        <v>832</v>
-      </c>
-      <c r="S26" s="1" t="s">
-        <v>858</v>
-      </c>
-      <c r="T26" s="1" t="s">
-        <v>902</v>
+        <v>790</v>
+      </c>
+      <c r="T26" t="s">
+        <v>835</v>
       </c>
       <c r="U26" s="1" t="s">
-        <v>904</v>
+        <v>861</v>
+      </c>
+      <c r="V26" s="1" t="s">
+        <v>905</v>
       </c>
     </row>
-    <row r="27" spans="1:21">
+    <row r="27" spans="1:22">
       <c r="A27" t="s">
         <v>26</v>
       </c>
@@ -4607,32 +4607,32 @@
       <c r="K27" t="s">
         <v>512</v>
       </c>
-      <c r="L27" s="1" t="s">
-        <v>582</v>
-      </c>
       <c r="M27" s="1" t="s">
-        <v>650</v>
-      </c>
-      <c r="N27" t="s">
-        <v>718</v>
+        <v>583</v>
+      </c>
+      <c r="N27" s="1" t="s">
+        <v>626</v>
+      </c>
+      <c r="O27" t="s">
+        <v>653</v>
+      </c>
+      <c r="P27" s="1" t="s">
+        <v>721</v>
       </c>
       <c r="Q27" s="1" t="s">
-        <v>789</v>
+        <v>764</v>
       </c>
       <c r="R27" s="1" t="s">
-        <v>832</v>
-      </c>
-      <c r="S27" s="1" t="s">
-        <v>859</v>
-      </c>
-      <c r="T27" s="1" t="s">
-        <v>902</v>
+        <v>791</v>
       </c>
       <c r="U27" s="1" t="s">
-        <v>904</v>
+        <v>862</v>
+      </c>
+      <c r="V27" s="1" t="s">
+        <v>905</v>
       </c>
     </row>
-    <row r="28" spans="1:21">
+    <row r="28" spans="1:22">
       <c r="A28" t="s">
         <v>26</v>
       </c>
@@ -4663,35 +4663,35 @@
       <c r="K28" t="s">
         <v>513</v>
       </c>
-      <c r="L28" s="1" t="s">
-        <v>582</v>
-      </c>
       <c r="M28" s="1" t="s">
-        <v>650</v>
-      </c>
-      <c r="N28" t="s">
-        <v>718</v>
-      </c>
-      <c r="P28" t="s">
-        <v>762</v>
+        <v>583</v>
+      </c>
+      <c r="N28" s="1" t="s">
+        <v>626</v>
+      </c>
+      <c r="O28" t="s">
+        <v>653</v>
+      </c>
+      <c r="P28" s="1" t="s">
+        <v>721</v>
       </c>
       <c r="Q28" s="1" t="s">
-        <v>789</v>
+        <v>764</v>
       </c>
       <c r="R28" s="1" t="s">
-        <v>832</v>
-      </c>
-      <c r="S28" s="1" t="s">
-        <v>859</v>
-      </c>
-      <c r="T28" s="1" t="s">
-        <v>902</v>
+        <v>791</v>
+      </c>
+      <c r="T28" t="s">
+        <v>835</v>
       </c>
       <c r="U28" s="1" t="s">
-        <v>904</v>
+        <v>862</v>
+      </c>
+      <c r="V28" s="1" t="s">
+        <v>905</v>
       </c>
     </row>
-    <row r="29" spans="1:21">
+    <row r="29" spans="1:22">
       <c r="A29" t="s">
         <v>27</v>
       </c>
@@ -4719,35 +4719,35 @@
       <c r="K29" t="s">
         <v>514</v>
       </c>
-      <c r="L29" s="1" t="s">
-        <v>583</v>
-      </c>
       <c r="M29" s="1" t="s">
-        <v>651</v>
-      </c>
-      <c r="N29" t="s">
-        <v>719</v>
-      </c>
-      <c r="P29" t="s">
-        <v>762</v>
+        <v>584</v>
+      </c>
+      <c r="N29" s="1" t="s">
+        <v>626</v>
+      </c>
+      <c r="O29" t="s">
+        <v>654</v>
+      </c>
+      <c r="P29" s="1" t="s">
+        <v>722</v>
       </c>
       <c r="Q29" s="1" t="s">
-        <v>790</v>
+        <v>764</v>
       </c>
       <c r="R29" s="1" t="s">
-        <v>832</v>
-      </c>
-      <c r="S29" s="1" t="s">
-        <v>860</v>
-      </c>
-      <c r="T29" s="1" t="s">
-        <v>902</v>
+        <v>792</v>
+      </c>
+      <c r="T29" t="s">
+        <v>835</v>
       </c>
       <c r="U29" s="1" t="s">
-        <v>904</v>
+        <v>863</v>
+      </c>
+      <c r="V29" s="1" t="s">
+        <v>905</v>
       </c>
     </row>
-    <row r="30" spans="1:21">
+    <row r="30" spans="1:22">
       <c r="A30" t="s">
         <v>28</v>
       </c>
@@ -4778,35 +4778,35 @@
       <c r="K30" t="s">
         <v>515</v>
       </c>
-      <c r="L30" s="1" t="s">
-        <v>584</v>
-      </c>
       <c r="M30" s="1" t="s">
-        <v>652</v>
-      </c>
-      <c r="N30" t="s">
-        <v>720</v>
-      </c>
-      <c r="P30" t="s">
-        <v>762</v>
+        <v>585</v>
+      </c>
+      <c r="N30" s="1" t="s">
+        <v>626</v>
+      </c>
+      <c r="O30" t="s">
+        <v>655</v>
+      </c>
+      <c r="P30" s="1" t="s">
+        <v>723</v>
       </c>
       <c r="Q30" s="1" t="s">
-        <v>791</v>
+        <v>764</v>
       </c>
       <c r="R30" s="1" t="s">
-        <v>832</v>
-      </c>
-      <c r="S30" s="1" t="s">
-        <v>861</v>
-      </c>
-      <c r="T30" s="1" t="s">
-        <v>902</v>
+        <v>793</v>
+      </c>
+      <c r="T30" t="s">
+        <v>835</v>
       </c>
       <c r="U30" s="1" t="s">
-        <v>904</v>
+        <v>864</v>
+      </c>
+      <c r="V30" s="1" t="s">
+        <v>905</v>
       </c>
     </row>
-    <row r="31" spans="1:21">
+    <row r="31" spans="1:22">
       <c r="A31" t="s">
         <v>29</v>
       </c>
@@ -4831,35 +4831,35 @@
       <c r="K31" t="s">
         <v>516</v>
       </c>
-      <c r="L31" s="1" t="s">
-        <v>585</v>
-      </c>
       <c r="M31" s="1" t="s">
-        <v>653</v>
-      </c>
-      <c r="N31" t="s">
-        <v>721</v>
-      </c>
-      <c r="P31" t="s">
-        <v>762</v>
+        <v>586</v>
+      </c>
+      <c r="N31" s="1" t="s">
+        <v>626</v>
+      </c>
+      <c r="O31" t="s">
+        <v>656</v>
+      </c>
+      <c r="P31" s="1" t="s">
+        <v>724</v>
       </c>
       <c r="Q31" s="1" t="s">
-        <v>792</v>
+        <v>764</v>
       </c>
       <c r="R31" s="1" t="s">
-        <v>832</v>
-      </c>
-      <c r="S31" s="1" t="s">
-        <v>862</v>
-      </c>
-      <c r="T31" s="1" t="s">
-        <v>902</v>
+        <v>794</v>
+      </c>
+      <c r="T31" t="s">
+        <v>835</v>
       </c>
       <c r="U31" s="1" t="s">
-        <v>904</v>
+        <v>865</v>
+      </c>
+      <c r="V31" s="1" t="s">
+        <v>905</v>
       </c>
     </row>
-    <row r="32" spans="1:21">
+    <row r="32" spans="1:22">
       <c r="A32" t="s">
         <v>30</v>
       </c>
@@ -4890,35 +4890,35 @@
       <c r="K32" t="s">
         <v>517</v>
       </c>
-      <c r="L32" s="1" t="s">
-        <v>586</v>
-      </c>
       <c r="M32" s="1" t="s">
-        <v>654</v>
-      </c>
-      <c r="N32" t="s">
-        <v>722</v>
-      </c>
-      <c r="P32" t="s">
-        <v>762</v>
+        <v>587</v>
+      </c>
+      <c r="N32" s="1" t="s">
+        <v>626</v>
+      </c>
+      <c r="O32" t="s">
+        <v>657</v>
+      </c>
+      <c r="P32" s="1" t="s">
+        <v>725</v>
       </c>
       <c r="Q32" s="1" t="s">
-        <v>793</v>
+        <v>764</v>
       </c>
       <c r="R32" s="1" t="s">
-        <v>832</v>
-      </c>
-      <c r="S32" s="1" t="s">
-        <v>863</v>
-      </c>
-      <c r="T32" s="1" t="s">
-        <v>902</v>
+        <v>795</v>
+      </c>
+      <c r="T32" t="s">
+        <v>835</v>
       </c>
       <c r="U32" s="1" t="s">
-        <v>904</v>
+        <v>866</v>
+      </c>
+      <c r="V32" s="1" t="s">
+        <v>905</v>
       </c>
     </row>
-    <row r="33" spans="1:21">
+    <row r="33" spans="1:22">
       <c r="A33" t="s">
         <v>31</v>
       </c>
@@ -4949,35 +4949,35 @@
       <c r="K33" t="s">
         <v>518</v>
       </c>
-      <c r="L33" s="1" t="s">
-        <v>587</v>
-      </c>
       <c r="M33" s="1" t="s">
-        <v>655</v>
-      </c>
-      <c r="N33" t="s">
-        <v>723</v>
-      </c>
-      <c r="P33" t="s">
-        <v>762</v>
+        <v>588</v>
+      </c>
+      <c r="N33" s="1" t="s">
+        <v>626</v>
+      </c>
+      <c r="O33" t="s">
+        <v>658</v>
+      </c>
+      <c r="P33" s="1" t="s">
+        <v>726</v>
       </c>
       <c r="Q33" s="1" t="s">
-        <v>794</v>
+        <v>764</v>
       </c>
       <c r="R33" s="1" t="s">
-        <v>832</v>
-      </c>
-      <c r="S33" s="1" t="s">
-        <v>864</v>
-      </c>
-      <c r="T33" s="1" t="s">
-        <v>902</v>
+        <v>796</v>
+      </c>
+      <c r="T33" t="s">
+        <v>835</v>
       </c>
       <c r="U33" s="1" t="s">
-        <v>904</v>
+        <v>867</v>
+      </c>
+      <c r="V33" s="1" t="s">
+        <v>905</v>
       </c>
     </row>
-    <row r="34" spans="1:21">
+    <row r="34" spans="1:22">
       <c r="A34" t="s">
         <v>32</v>
       </c>
@@ -5002,32 +5002,32 @@
       <c r="K34" t="s">
         <v>519</v>
       </c>
-      <c r="L34" s="1" t="s">
-        <v>588</v>
-      </c>
       <c r="M34" s="1" t="s">
-        <v>656</v>
-      </c>
-      <c r="N34" t="s">
-        <v>724</v>
+        <v>589</v>
+      </c>
+      <c r="N34" s="1" t="s">
+        <v>626</v>
+      </c>
+      <c r="O34" t="s">
+        <v>659</v>
+      </c>
+      <c r="P34" s="1" t="s">
+        <v>727</v>
       </c>
       <c r="Q34" s="1" t="s">
-        <v>795</v>
+        <v>764</v>
       </c>
       <c r="R34" s="1" t="s">
-        <v>832</v>
-      </c>
-      <c r="S34" s="1" t="s">
-        <v>865</v>
-      </c>
-      <c r="T34" s="1" t="s">
-        <v>902</v>
+        <v>797</v>
       </c>
       <c r="U34" s="1" t="s">
-        <v>904</v>
+        <v>868</v>
+      </c>
+      <c r="V34" s="1" t="s">
+        <v>905</v>
       </c>
     </row>
-    <row r="35" spans="1:21">
+    <row r="35" spans="1:22">
       <c r="A35" t="s">
         <v>33</v>
       </c>
@@ -5061,35 +5061,35 @@
       <c r="K35" t="s">
         <v>520</v>
       </c>
-      <c r="L35" s="1" t="s">
-        <v>589</v>
-      </c>
       <c r="M35" s="1" t="s">
-        <v>657</v>
-      </c>
-      <c r="N35" t="s">
-        <v>725</v>
-      </c>
-      <c r="P35" t="s">
-        <v>762</v>
+        <v>590</v>
+      </c>
+      <c r="N35" s="1" t="s">
+        <v>626</v>
+      </c>
+      <c r="O35" t="s">
+        <v>660</v>
+      </c>
+      <c r="P35" s="1" t="s">
+        <v>728</v>
       </c>
       <c r="Q35" s="1" t="s">
-        <v>796</v>
+        <v>764</v>
       </c>
       <c r="R35" s="1" t="s">
-        <v>832</v>
-      </c>
-      <c r="S35" s="1" t="s">
-        <v>866</v>
-      </c>
-      <c r="T35" s="1" t="s">
-        <v>902</v>
+        <v>798</v>
+      </c>
+      <c r="T35" t="s">
+        <v>835</v>
       </c>
       <c r="U35" s="1" t="s">
-        <v>904</v>
+        <v>869</v>
+      </c>
+      <c r="V35" s="1" t="s">
+        <v>905</v>
       </c>
     </row>
-    <row r="36" spans="1:21">
+    <row r="36" spans="1:22">
       <c r="A36" t="s">
         <v>34</v>
       </c>
@@ -5114,32 +5114,32 @@
       <c r="K36" t="s">
         <v>521</v>
       </c>
-      <c r="L36" s="1" t="s">
-        <v>590</v>
-      </c>
       <c r="M36" s="1" t="s">
-        <v>658</v>
-      </c>
-      <c r="N36" t="s">
-        <v>726</v>
+        <v>591</v>
+      </c>
+      <c r="N36" s="1" t="s">
+        <v>626</v>
+      </c>
+      <c r="O36" t="s">
+        <v>661</v>
+      </c>
+      <c r="P36" s="1" t="s">
+        <v>729</v>
       </c>
       <c r="Q36" s="1" t="s">
-        <v>797</v>
+        <v>764</v>
       </c>
       <c r="R36" s="1" t="s">
-        <v>832</v>
-      </c>
-      <c r="S36" s="1" t="s">
-        <v>867</v>
-      </c>
-      <c r="T36" s="1" t="s">
-        <v>902</v>
+        <v>799</v>
       </c>
       <c r="U36" s="1" t="s">
-        <v>904</v>
+        <v>870</v>
+      </c>
+      <c r="V36" s="1" t="s">
+        <v>905</v>
       </c>
     </row>
-    <row r="37" spans="1:21">
+    <row r="37" spans="1:22">
       <c r="A37" t="s">
         <v>35</v>
       </c>
@@ -5170,35 +5170,35 @@
       <c r="K37" t="s">
         <v>522</v>
       </c>
-      <c r="L37" s="1" t="s">
-        <v>591</v>
-      </c>
       <c r="M37" s="1" t="s">
-        <v>659</v>
-      </c>
-      <c r="N37" t="s">
-        <v>727</v>
-      </c>
-      <c r="P37" t="s">
-        <v>762</v>
+        <v>592</v>
+      </c>
+      <c r="N37" s="1" t="s">
+        <v>626</v>
+      </c>
+      <c r="O37" t="s">
+        <v>662</v>
+      </c>
+      <c r="P37" s="1" t="s">
+        <v>730</v>
       </c>
       <c r="Q37" s="1" t="s">
-        <v>798</v>
+        <v>764</v>
       </c>
       <c r="R37" s="1" t="s">
-        <v>832</v>
-      </c>
-      <c r="S37" s="1" t="s">
-        <v>868</v>
-      </c>
-      <c r="T37" s="1" t="s">
-        <v>902</v>
+        <v>800</v>
+      </c>
+      <c r="T37" t="s">
+        <v>835</v>
       </c>
       <c r="U37" s="1" t="s">
-        <v>904</v>
+        <v>871</v>
+      </c>
+      <c r="V37" s="1" t="s">
+        <v>905</v>
       </c>
     </row>
-    <row r="38" spans="1:21">
+    <row r="38" spans="1:22">
       <c r="A38" t="s">
         <v>36</v>
       </c>
@@ -5229,35 +5229,35 @@
       <c r="K38" t="s">
         <v>523</v>
       </c>
-      <c r="L38" s="1" t="s">
-        <v>592</v>
-      </c>
       <c r="M38" s="1" t="s">
-        <v>660</v>
-      </c>
-      <c r="N38" t="s">
-        <v>728</v>
-      </c>
-      <c r="P38" t="s">
-        <v>762</v>
+        <v>593</v>
+      </c>
+      <c r="N38" s="1" t="s">
+        <v>626</v>
+      </c>
+      <c r="O38" t="s">
+        <v>663</v>
+      </c>
+      <c r="P38" s="1" t="s">
+        <v>731</v>
       </c>
       <c r="Q38" s="1" t="s">
-        <v>799</v>
+        <v>764</v>
       </c>
       <c r="R38" s="1" t="s">
-        <v>832</v>
-      </c>
-      <c r="S38" s="1" t="s">
-        <v>869</v>
-      </c>
-      <c r="T38" s="1" t="s">
-        <v>902</v>
+        <v>801</v>
+      </c>
+      <c r="T38" t="s">
+        <v>835</v>
       </c>
       <c r="U38" s="1" t="s">
-        <v>904</v>
+        <v>872</v>
+      </c>
+      <c r="V38" s="1" t="s">
+        <v>905</v>
       </c>
     </row>
-    <row r="39" spans="1:21">
+    <row r="39" spans="1:22">
       <c r="A39" t="s">
         <v>37</v>
       </c>
@@ -5288,35 +5288,35 @@
       <c r="K39" t="s">
         <v>524</v>
       </c>
-      <c r="L39" s="1" t="s">
-        <v>593</v>
-      </c>
       <c r="M39" s="1" t="s">
-        <v>661</v>
-      </c>
-      <c r="N39" t="s">
-        <v>729</v>
-      </c>
-      <c r="P39" t="s">
-        <v>762</v>
+        <v>594</v>
+      </c>
+      <c r="N39" s="1" t="s">
+        <v>626</v>
+      </c>
+      <c r="O39" t="s">
+        <v>664</v>
+      </c>
+      <c r="P39" s="1" t="s">
+        <v>732</v>
       </c>
       <c r="Q39" s="1" t="s">
-        <v>800</v>
+        <v>764</v>
       </c>
       <c r="R39" s="1" t="s">
-        <v>832</v>
-      </c>
-      <c r="S39" s="1" t="s">
-        <v>870</v>
-      </c>
-      <c r="T39" s="1" t="s">
-        <v>902</v>
+        <v>802</v>
+      </c>
+      <c r="T39" t="s">
+        <v>835</v>
       </c>
       <c r="U39" s="1" t="s">
-        <v>904</v>
+        <v>873</v>
+      </c>
+      <c r="V39" s="1" t="s">
+        <v>905</v>
       </c>
     </row>
-    <row r="40" spans="1:21">
+    <row r="40" spans="1:22">
       <c r="A40" t="s">
         <v>38</v>
       </c>
@@ -5350,35 +5350,35 @@
       <c r="K40" t="s">
         <v>525</v>
       </c>
-      <c r="L40" s="1" t="s">
-        <v>594</v>
-      </c>
       <c r="M40" s="1" t="s">
-        <v>662</v>
-      </c>
-      <c r="N40" t="s">
-        <v>730</v>
-      </c>
-      <c r="P40" t="s">
-        <v>762</v>
+        <v>595</v>
+      </c>
+      <c r="N40" s="1" t="s">
+        <v>626</v>
+      </c>
+      <c r="O40" t="s">
+        <v>665</v>
+      </c>
+      <c r="P40" s="1" t="s">
+        <v>733</v>
       </c>
       <c r="Q40" s="1" t="s">
-        <v>801</v>
+        <v>764</v>
       </c>
       <c r="R40" s="1" t="s">
-        <v>832</v>
-      </c>
-      <c r="S40" s="1" t="s">
-        <v>871</v>
-      </c>
-      <c r="T40" s="1" t="s">
-        <v>902</v>
+        <v>803</v>
+      </c>
+      <c r="T40" t="s">
+        <v>835</v>
       </c>
       <c r="U40" s="1" t="s">
-        <v>904</v>
+        <v>874</v>
+      </c>
+      <c r="V40" s="1" t="s">
+        <v>905</v>
       </c>
     </row>
-    <row r="41" spans="1:21">
+    <row r="41" spans="1:22">
       <c r="A41" t="s">
         <v>39</v>
       </c>
@@ -5409,35 +5409,35 @@
       <c r="K41" t="s">
         <v>526</v>
       </c>
-      <c r="L41" s="1" t="s">
-        <v>595</v>
-      </c>
       <c r="M41" s="1" t="s">
-        <v>663</v>
-      </c>
-      <c r="N41" t="s">
-        <v>731</v>
-      </c>
-      <c r="P41" t="s">
-        <v>762</v>
+        <v>596</v>
+      </c>
+      <c r="N41" s="1" t="s">
+        <v>626</v>
+      </c>
+      <c r="O41" t="s">
+        <v>666</v>
+      </c>
+      <c r="P41" s="1" t="s">
+        <v>734</v>
       </c>
       <c r="Q41" s="1" t="s">
-        <v>802</v>
+        <v>764</v>
       </c>
       <c r="R41" s="1" t="s">
-        <v>832</v>
-      </c>
-      <c r="S41" s="1" t="s">
-        <v>872</v>
-      </c>
-      <c r="T41" s="1" t="s">
-        <v>902</v>
+        <v>804</v>
+      </c>
+      <c r="T41" t="s">
+        <v>835</v>
       </c>
       <c r="U41" s="1" t="s">
-        <v>904</v>
+        <v>875</v>
+      </c>
+      <c r="V41" s="1" t="s">
+        <v>905</v>
       </c>
     </row>
-    <row r="42" spans="1:21">
+    <row r="42" spans="1:22">
       <c r="A42" t="s">
         <v>40</v>
       </c>
@@ -5468,35 +5468,35 @@
       <c r="K42" t="s">
         <v>527</v>
       </c>
-      <c r="L42" s="1" t="s">
-        <v>596</v>
-      </c>
       <c r="M42" s="1" t="s">
-        <v>664</v>
-      </c>
-      <c r="N42" t="s">
-        <v>732</v>
-      </c>
-      <c r="P42" t="s">
-        <v>762</v>
+        <v>597</v>
+      </c>
+      <c r="N42" s="1" t="s">
+        <v>626</v>
+      </c>
+      <c r="O42" t="s">
+        <v>667</v>
+      </c>
+      <c r="P42" s="1" t="s">
+        <v>735</v>
       </c>
       <c r="Q42" s="1" t="s">
-        <v>803</v>
+        <v>764</v>
       </c>
       <c r="R42" s="1" t="s">
-        <v>832</v>
-      </c>
-      <c r="S42" s="1" t="s">
-        <v>873</v>
-      </c>
-      <c r="T42" s="1" t="s">
-        <v>902</v>
+        <v>805</v>
+      </c>
+      <c r="T42" t="s">
+        <v>835</v>
       </c>
       <c r="U42" s="1" t="s">
-        <v>904</v>
+        <v>876</v>
+      </c>
+      <c r="V42" s="1" t="s">
+        <v>905</v>
       </c>
     </row>
-    <row r="43" spans="1:21">
+    <row r="43" spans="1:22">
       <c r="A43" t="s">
         <v>41</v>
       </c>
@@ -5527,35 +5527,35 @@
       <c r="K43" t="s">
         <v>528</v>
       </c>
-      <c r="L43" s="1" t="s">
-        <v>597</v>
-      </c>
       <c r="M43" s="1" t="s">
-        <v>665</v>
-      </c>
-      <c r="N43" t="s">
-        <v>733</v>
-      </c>
-      <c r="P43" t="s">
-        <v>762</v>
+        <v>598</v>
+      </c>
+      <c r="N43" s="1" t="s">
+        <v>626</v>
+      </c>
+      <c r="O43" t="s">
+        <v>668</v>
+      </c>
+      <c r="P43" s="1" t="s">
+        <v>736</v>
       </c>
       <c r="Q43" s="1" t="s">
-        <v>804</v>
+        <v>764</v>
       </c>
       <c r="R43" s="1" t="s">
-        <v>832</v>
-      </c>
-      <c r="S43" s="1" t="s">
-        <v>874</v>
-      </c>
-      <c r="T43" s="1" t="s">
-        <v>902</v>
+        <v>806</v>
+      </c>
+      <c r="T43" t="s">
+        <v>835</v>
       </c>
       <c r="U43" s="1" t="s">
-        <v>904</v>
+        <v>877</v>
+      </c>
+      <c r="V43" s="1" t="s">
+        <v>905</v>
       </c>
     </row>
-    <row r="44" spans="1:21">
+    <row r="44" spans="1:22">
       <c r="A44" t="s">
         <v>42</v>
       </c>
@@ -5586,35 +5586,35 @@
       <c r="K44" t="s">
         <v>529</v>
       </c>
-      <c r="L44" s="1" t="s">
-        <v>598</v>
-      </c>
       <c r="M44" s="1" t="s">
-        <v>666</v>
-      </c>
-      <c r="N44" t="s">
-        <v>734</v>
-      </c>
-      <c r="P44" t="s">
-        <v>762</v>
+        <v>599</v>
+      </c>
+      <c r="N44" s="1" t="s">
+        <v>626</v>
+      </c>
+      <c r="O44" t="s">
+        <v>669</v>
+      </c>
+      <c r="P44" s="1" t="s">
+        <v>737</v>
       </c>
       <c r="Q44" s="1" t="s">
-        <v>805</v>
+        <v>764</v>
       </c>
       <c r="R44" s="1" t="s">
-        <v>832</v>
-      </c>
-      <c r="S44" s="1" t="s">
-        <v>875</v>
-      </c>
-      <c r="T44" s="1" t="s">
-        <v>902</v>
+        <v>807</v>
+      </c>
+      <c r="T44" t="s">
+        <v>835</v>
       </c>
       <c r="U44" s="1" t="s">
-        <v>904</v>
+        <v>878</v>
+      </c>
+      <c r="V44" s="1" t="s">
+        <v>905</v>
       </c>
     </row>
-    <row r="45" spans="1:21">
+    <row r="45" spans="1:22">
       <c r="A45" t="s">
         <v>43</v>
       </c>
@@ -5642,35 +5642,35 @@
       <c r="K45" t="s">
         <v>530</v>
       </c>
-      <c r="L45" s="1" t="s">
-        <v>599</v>
-      </c>
       <c r="M45" s="1" t="s">
-        <v>667</v>
-      </c>
-      <c r="N45" t="s">
-        <v>735</v>
-      </c>
-      <c r="P45" t="s">
-        <v>762</v>
+        <v>600</v>
+      </c>
+      <c r="N45" s="1" t="s">
+        <v>626</v>
+      </c>
+      <c r="O45" t="s">
+        <v>670</v>
+      </c>
+      <c r="P45" s="1" t="s">
+        <v>738</v>
       </c>
       <c r="Q45" s="1" t="s">
-        <v>806</v>
+        <v>764</v>
       </c>
       <c r="R45" s="1" t="s">
-        <v>832</v>
-      </c>
-      <c r="S45" s="1" t="s">
-        <v>876</v>
-      </c>
-      <c r="T45" s="1" t="s">
-        <v>902</v>
+        <v>808</v>
+      </c>
+      <c r="T45" t="s">
+        <v>835</v>
       </c>
       <c r="U45" s="1" t="s">
-        <v>904</v>
+        <v>879</v>
+      </c>
+      <c r="V45" s="1" t="s">
+        <v>905</v>
       </c>
     </row>
-    <row r="46" spans="1:21">
+    <row r="46" spans="1:22">
       <c r="A46" t="s">
         <v>44</v>
       </c>
@@ -5698,35 +5698,35 @@
       <c r="K46" t="s">
         <v>531</v>
       </c>
-      <c r="L46" s="1" t="s">
-        <v>600</v>
-      </c>
       <c r="M46" s="1" t="s">
-        <v>668</v>
-      </c>
-      <c r="N46" t="s">
-        <v>736</v>
-      </c>
-      <c r="P46" t="s">
-        <v>762</v>
+        <v>601</v>
+      </c>
+      <c r="N46" s="1" t="s">
+        <v>626</v>
+      </c>
+      <c r="O46" t="s">
+        <v>671</v>
+      </c>
+      <c r="P46" s="1" t="s">
+        <v>739</v>
       </c>
       <c r="Q46" s="1" t="s">
-        <v>807</v>
+        <v>764</v>
       </c>
       <c r="R46" s="1" t="s">
-        <v>832</v>
-      </c>
-      <c r="S46" s="1" t="s">
-        <v>877</v>
-      </c>
-      <c r="T46" s="1" t="s">
-        <v>902</v>
+        <v>809</v>
+      </c>
+      <c r="T46" t="s">
+        <v>835</v>
       </c>
       <c r="U46" s="1" t="s">
-        <v>904</v>
+        <v>880</v>
+      </c>
+      <c r="V46" s="1" t="s">
+        <v>905</v>
       </c>
     </row>
-    <row r="47" spans="1:21">
+    <row r="47" spans="1:22">
       <c r="A47" t="s">
         <v>45</v>
       </c>
@@ -5757,35 +5757,35 @@
       <c r="K47" t="s">
         <v>532</v>
       </c>
-      <c r="L47" s="1" t="s">
-        <v>601</v>
-      </c>
       <c r="M47" s="1" t="s">
-        <v>669</v>
-      </c>
-      <c r="N47" t="s">
-        <v>737</v>
-      </c>
-      <c r="P47" t="s">
-        <v>762</v>
+        <v>602</v>
+      </c>
+      <c r="N47" s="1" t="s">
+        <v>626</v>
+      </c>
+      <c r="O47" t="s">
+        <v>672</v>
+      </c>
+      <c r="P47" s="1" t="s">
+        <v>740</v>
       </c>
       <c r="Q47" s="1" t="s">
-        <v>808</v>
+        <v>764</v>
       </c>
       <c r="R47" s="1" t="s">
-        <v>832</v>
-      </c>
-      <c r="S47" s="1" t="s">
-        <v>878</v>
-      </c>
-      <c r="T47" s="1" t="s">
-        <v>902</v>
+        <v>810</v>
+      </c>
+      <c r="T47" t="s">
+        <v>835</v>
       </c>
       <c r="U47" s="1" t="s">
-        <v>904</v>
+        <v>881</v>
+      </c>
+      <c r="V47" s="1" t="s">
+        <v>905</v>
       </c>
     </row>
-    <row r="48" spans="1:21">
+    <row r="48" spans="1:22">
       <c r="A48" t="s">
         <v>46</v>
       </c>
@@ -5816,35 +5816,35 @@
       <c r="K48" t="s">
         <v>533</v>
       </c>
-      <c r="L48" s="1" t="s">
-        <v>602</v>
-      </c>
       <c r="M48" s="1" t="s">
-        <v>670</v>
-      </c>
-      <c r="N48" t="s">
-        <v>738</v>
-      </c>
-      <c r="P48" t="s">
-        <v>762</v>
+        <v>603</v>
+      </c>
+      <c r="N48" s="1" t="s">
+        <v>626</v>
+      </c>
+      <c r="O48" t="s">
+        <v>673</v>
+      </c>
+      <c r="P48" s="1" t="s">
+        <v>741</v>
       </c>
       <c r="Q48" s="1" t="s">
-        <v>809</v>
+        <v>764</v>
       </c>
       <c r="R48" s="1" t="s">
-        <v>832</v>
-      </c>
-      <c r="S48" s="1" t="s">
-        <v>879</v>
-      </c>
-      <c r="T48" s="1" t="s">
-        <v>902</v>
+        <v>811</v>
+      </c>
+      <c r="T48" t="s">
+        <v>835</v>
       </c>
       <c r="U48" s="1" t="s">
-        <v>904</v>
+        <v>882</v>
+      </c>
+      <c r="V48" s="1" t="s">
+        <v>905</v>
       </c>
     </row>
-    <row r="49" spans="1:21">
+    <row r="49" spans="1:22">
       <c r="A49" t="s">
         <v>47</v>
       </c>
@@ -5878,35 +5878,35 @@
       <c r="K49" t="s">
         <v>534</v>
       </c>
-      <c r="L49" s="1" t="s">
-        <v>603</v>
-      </c>
       <c r="M49" s="1" t="s">
-        <v>671</v>
-      </c>
-      <c r="N49" t="s">
-        <v>739</v>
-      </c>
-      <c r="P49" t="s">
-        <v>762</v>
+        <v>604</v>
+      </c>
+      <c r="N49" s="1" t="s">
+        <v>626</v>
+      </c>
+      <c r="O49" t="s">
+        <v>674</v>
+      </c>
+      <c r="P49" s="1" t="s">
+        <v>742</v>
       </c>
       <c r="Q49" s="1" t="s">
-        <v>810</v>
+        <v>764</v>
       </c>
       <c r="R49" s="1" t="s">
-        <v>832</v>
-      </c>
-      <c r="S49" s="1" t="s">
-        <v>880</v>
-      </c>
-      <c r="T49" s="1" t="s">
-        <v>902</v>
+        <v>812</v>
+      </c>
+      <c r="T49" t="s">
+        <v>835</v>
       </c>
       <c r="U49" s="1" t="s">
-        <v>904</v>
+        <v>883</v>
+      </c>
+      <c r="V49" s="1" t="s">
+        <v>905</v>
       </c>
     </row>
-    <row r="50" spans="1:21">
+    <row r="50" spans="1:22">
       <c r="A50" t="s">
         <v>48</v>
       </c>
@@ -5937,35 +5937,35 @@
       <c r="K50" t="s">
         <v>535</v>
       </c>
-      <c r="L50" s="1" t="s">
-        <v>604</v>
-      </c>
       <c r="M50" s="1" t="s">
-        <v>672</v>
-      </c>
-      <c r="N50" t="s">
-        <v>740</v>
-      </c>
-      <c r="P50" t="s">
-        <v>762</v>
+        <v>605</v>
+      </c>
+      <c r="N50" s="1" t="s">
+        <v>626</v>
+      </c>
+      <c r="O50" t="s">
+        <v>675</v>
+      </c>
+      <c r="P50" s="1" t="s">
+        <v>743</v>
       </c>
       <c r="Q50" s="1" t="s">
-        <v>811</v>
+        <v>764</v>
       </c>
       <c r="R50" s="1" t="s">
-        <v>832</v>
-      </c>
-      <c r="S50" s="1" t="s">
-        <v>881</v>
-      </c>
-      <c r="T50" s="1" t="s">
-        <v>902</v>
+        <v>813</v>
+      </c>
+      <c r="T50" t="s">
+        <v>835</v>
       </c>
       <c r="U50" s="1" t="s">
-        <v>904</v>
+        <v>884</v>
+      </c>
+      <c r="V50" s="1" t="s">
+        <v>905</v>
       </c>
     </row>
-    <row r="51" spans="1:21">
+    <row r="51" spans="1:22">
       <c r="A51" t="s">
         <v>49</v>
       </c>
@@ -5999,35 +5999,35 @@
       <c r="K51" t="s">
         <v>536</v>
       </c>
-      <c r="L51" s="1" t="s">
-        <v>605</v>
-      </c>
       <c r="M51" s="1" t="s">
-        <v>673</v>
-      </c>
-      <c r="N51" t="s">
-        <v>741</v>
-      </c>
-      <c r="P51" t="s">
-        <v>762</v>
+        <v>606</v>
+      </c>
+      <c r="N51" s="1" t="s">
+        <v>626</v>
+      </c>
+      <c r="O51" t="s">
+        <v>676</v>
+      </c>
+      <c r="P51" s="1" t="s">
+        <v>744</v>
       </c>
       <c r="Q51" s="1" t="s">
-        <v>812</v>
+        <v>764</v>
       </c>
       <c r="R51" s="1" t="s">
-        <v>832</v>
-      </c>
-      <c r="S51" s="1" t="s">
-        <v>882</v>
-      </c>
-      <c r="T51" s="1" t="s">
-        <v>902</v>
+        <v>814</v>
+      </c>
+      <c r="T51" t="s">
+        <v>835</v>
       </c>
       <c r="U51" s="1" t="s">
-        <v>904</v>
+        <v>885</v>
+      </c>
+      <c r="V51" s="1" t="s">
+        <v>905</v>
       </c>
     </row>
-    <row r="52" spans="1:21">
+    <row r="52" spans="1:22">
       <c r="A52" t="s">
         <v>50</v>
       </c>
@@ -6058,35 +6058,35 @@
       <c r="K52" t="s">
         <v>537</v>
       </c>
-      <c r="L52" s="1" t="s">
-        <v>606</v>
-      </c>
       <c r="M52" s="1" t="s">
-        <v>674</v>
-      </c>
-      <c r="N52" t="s">
-        <v>742</v>
-      </c>
-      <c r="P52" t="s">
-        <v>762</v>
+        <v>607</v>
+      </c>
+      <c r="N52" s="1" t="s">
+        <v>626</v>
+      </c>
+      <c r="O52" t="s">
+        <v>677</v>
+      </c>
+      <c r="P52" s="1" t="s">
+        <v>745</v>
       </c>
       <c r="Q52" s="1" t="s">
-        <v>813</v>
+        <v>764</v>
       </c>
       <c r="R52" s="1" t="s">
-        <v>832</v>
-      </c>
-      <c r="S52" s="1" t="s">
-        <v>883</v>
-      </c>
-      <c r="T52" s="1" t="s">
-        <v>902</v>
+        <v>815</v>
+      </c>
+      <c r="T52" t="s">
+        <v>835</v>
       </c>
       <c r="U52" s="1" t="s">
-        <v>904</v>
+        <v>886</v>
+      </c>
+      <c r="V52" s="1" t="s">
+        <v>905</v>
       </c>
     </row>
-    <row r="53" spans="1:21">
+    <row r="53" spans="1:22">
       <c r="A53" t="s">
         <v>51</v>
       </c>
@@ -6114,35 +6114,35 @@
       <c r="K53" t="s">
         <v>538</v>
       </c>
-      <c r="L53" s="1" t="s">
-        <v>607</v>
-      </c>
       <c r="M53" s="1" t="s">
-        <v>675</v>
-      </c>
-      <c r="N53" t="s">
-        <v>743</v>
-      </c>
-      <c r="P53" t="s">
-        <v>762</v>
+        <v>608</v>
+      </c>
+      <c r="N53" s="1" t="s">
+        <v>626</v>
+      </c>
+      <c r="O53" t="s">
+        <v>678</v>
+      </c>
+      <c r="P53" s="1" t="s">
+        <v>746</v>
       </c>
       <c r="Q53" s="1" t="s">
-        <v>814</v>
+        <v>764</v>
       </c>
       <c r="R53" s="1" t="s">
-        <v>832</v>
-      </c>
-      <c r="S53" s="1" t="s">
-        <v>884</v>
-      </c>
-      <c r="T53" s="1" t="s">
-        <v>902</v>
+        <v>816</v>
+      </c>
+      <c r="T53" t="s">
+        <v>835</v>
       </c>
       <c r="U53" s="1" t="s">
-        <v>904</v>
+        <v>887</v>
+      </c>
+      <c r="V53" s="1" t="s">
+        <v>905</v>
       </c>
     </row>
-    <row r="54" spans="1:21">
+    <row r="54" spans="1:22">
       <c r="A54" t="s">
         <v>52</v>
       </c>
@@ -6167,35 +6167,35 @@
       <c r="K54" t="s">
         <v>539</v>
       </c>
-      <c r="L54" s="1" t="s">
-        <v>608</v>
-      </c>
       <c r="M54" s="1" t="s">
-        <v>676</v>
-      </c>
-      <c r="N54" t="s">
-        <v>744</v>
-      </c>
-      <c r="P54" t="s">
-        <v>762</v>
+        <v>609</v>
+      </c>
+      <c r="N54" s="1" t="s">
+        <v>626</v>
+      </c>
+      <c r="O54" t="s">
+        <v>679</v>
+      </c>
+      <c r="P54" s="1" t="s">
+        <v>747</v>
       </c>
       <c r="Q54" s="1" t="s">
-        <v>815</v>
+        <v>764</v>
       </c>
       <c r="R54" s="1" t="s">
-        <v>832</v>
-      </c>
-      <c r="S54" s="1" t="s">
-        <v>885</v>
-      </c>
-      <c r="T54" s="1" t="s">
-        <v>902</v>
+        <v>817</v>
+      </c>
+      <c r="T54" t="s">
+        <v>835</v>
       </c>
       <c r="U54" s="1" t="s">
-        <v>904</v>
+        <v>888</v>
+      </c>
+      <c r="V54" s="1" t="s">
+        <v>905</v>
       </c>
     </row>
-    <row r="55" spans="1:21">
+    <row r="55" spans="1:22">
       <c r="A55" t="s">
         <v>53</v>
       </c>
@@ -6223,35 +6223,35 @@
       <c r="K55" t="s">
         <v>540</v>
       </c>
-      <c r="L55" s="1" t="s">
-        <v>609</v>
-      </c>
       <c r="M55" s="1" t="s">
-        <v>677</v>
-      </c>
-      <c r="N55" t="s">
-        <v>745</v>
-      </c>
-      <c r="P55" t="s">
-        <v>762</v>
+        <v>610</v>
+      </c>
+      <c r="N55" s="1" t="s">
+        <v>626</v>
+      </c>
+      <c r="O55" t="s">
+        <v>680</v>
+      </c>
+      <c r="P55" s="1" t="s">
+        <v>748</v>
       </c>
       <c r="Q55" s="1" t="s">
-        <v>816</v>
+        <v>764</v>
       </c>
       <c r="R55" s="1" t="s">
-        <v>832</v>
-      </c>
-      <c r="S55" s="1" t="s">
-        <v>886</v>
-      </c>
-      <c r="T55" s="1" t="s">
-        <v>902</v>
+        <v>818</v>
+      </c>
+      <c r="T55" t="s">
+        <v>835</v>
       </c>
       <c r="U55" s="1" t="s">
-        <v>904</v>
+        <v>889</v>
+      </c>
+      <c r="V55" s="1" t="s">
+        <v>905</v>
       </c>
     </row>
-    <row r="56" spans="1:21">
+    <row r="56" spans="1:22">
       <c r="A56" t="s">
         <v>54</v>
       </c>
@@ -6279,35 +6279,35 @@
       <c r="K56" t="s">
         <v>541</v>
       </c>
-      <c r="L56" s="1" t="s">
-        <v>610</v>
-      </c>
       <c r="M56" s="1" t="s">
-        <v>678</v>
-      </c>
-      <c r="N56" t="s">
-        <v>746</v>
-      </c>
-      <c r="P56" t="s">
-        <v>762</v>
+        <v>611</v>
+      </c>
+      <c r="N56" s="1" t="s">
+        <v>626</v>
+      </c>
+      <c r="O56" t="s">
+        <v>681</v>
+      </c>
+      <c r="P56" s="1" t="s">
+        <v>749</v>
       </c>
       <c r="Q56" s="1" t="s">
-        <v>817</v>
+        <v>764</v>
       </c>
       <c r="R56" s="1" t="s">
-        <v>832</v>
-      </c>
-      <c r="S56" s="1" t="s">
-        <v>887</v>
-      </c>
-      <c r="T56" s="1" t="s">
-        <v>902</v>
+        <v>819</v>
+      </c>
+      <c r="T56" t="s">
+        <v>835</v>
       </c>
       <c r="U56" s="1" t="s">
-        <v>904</v>
+        <v>890</v>
+      </c>
+      <c r="V56" s="1" t="s">
+        <v>905</v>
       </c>
     </row>
-    <row r="57" spans="1:21">
+    <row r="57" spans="1:22">
       <c r="A57" t="s">
         <v>34</v>
       </c>
@@ -6335,35 +6335,35 @@
       <c r="K57" t="s">
         <v>542</v>
       </c>
-      <c r="L57" s="1" t="s">
-        <v>590</v>
-      </c>
       <c r="M57" s="1" t="s">
-        <v>658</v>
-      </c>
-      <c r="N57" t="s">
-        <v>726</v>
-      </c>
-      <c r="P57" t="s">
-        <v>762</v>
+        <v>591</v>
+      </c>
+      <c r="N57" s="1" t="s">
+        <v>626</v>
+      </c>
+      <c r="O57" t="s">
+        <v>661</v>
+      </c>
+      <c r="P57" s="1" t="s">
+        <v>729</v>
       </c>
       <c r="Q57" s="1" t="s">
-        <v>797</v>
+        <v>764</v>
       </c>
       <c r="R57" s="1" t="s">
-        <v>832</v>
-      </c>
-      <c r="S57" s="1" t="s">
-        <v>867</v>
-      </c>
-      <c r="T57" s="1" t="s">
-        <v>902</v>
+        <v>799</v>
+      </c>
+      <c r="T57" t="s">
+        <v>835</v>
       </c>
       <c r="U57" s="1" t="s">
-        <v>904</v>
+        <v>870</v>
+      </c>
+      <c r="V57" s="1" t="s">
+        <v>905</v>
       </c>
     </row>
-    <row r="58" spans="1:21">
+    <row r="58" spans="1:22">
       <c r="A58" t="s">
         <v>55</v>
       </c>
@@ -6391,35 +6391,35 @@
       <c r="K58" t="s">
         <v>543</v>
       </c>
-      <c r="L58" s="1" t="s">
-        <v>611</v>
-      </c>
       <c r="M58" s="1" t="s">
-        <v>679</v>
-      </c>
-      <c r="N58" t="s">
-        <v>747</v>
-      </c>
-      <c r="P58" t="s">
-        <v>762</v>
+        <v>612</v>
+      </c>
+      <c r="N58" s="1" t="s">
+        <v>626</v>
+      </c>
+      <c r="O58" t="s">
+        <v>682</v>
+      </c>
+      <c r="P58" s="1" t="s">
+        <v>750</v>
       </c>
       <c r="Q58" s="1" t="s">
-        <v>818</v>
+        <v>764</v>
       </c>
       <c r="R58" s="1" t="s">
-        <v>832</v>
-      </c>
-      <c r="S58" s="1" t="s">
-        <v>888</v>
-      </c>
-      <c r="T58" s="1" t="s">
-        <v>902</v>
+        <v>820</v>
+      </c>
+      <c r="T58" t="s">
+        <v>835</v>
       </c>
       <c r="U58" s="1" t="s">
-        <v>904</v>
+        <v>891</v>
+      </c>
+      <c r="V58" s="1" t="s">
+        <v>905</v>
       </c>
     </row>
-    <row r="59" spans="1:21">
+    <row r="59" spans="1:22">
       <c r="A59" t="s">
         <v>56</v>
       </c>
@@ -6447,35 +6447,35 @@
       <c r="K59" t="s">
         <v>544</v>
       </c>
-      <c r="L59" s="1" t="s">
-        <v>612</v>
-      </c>
       <c r="M59" s="1" t="s">
-        <v>680</v>
-      </c>
-      <c r="N59" t="s">
-        <v>748</v>
-      </c>
-      <c r="P59" t="s">
-        <v>762</v>
+        <v>613</v>
+      </c>
+      <c r="N59" s="1" t="s">
+        <v>626</v>
+      </c>
+      <c r="O59" t="s">
+        <v>683</v>
+      </c>
+      <c r="P59" s="1" t="s">
+        <v>751</v>
       </c>
       <c r="Q59" s="1" t="s">
-        <v>819</v>
+        <v>764</v>
       </c>
       <c r="R59" s="1" t="s">
-        <v>832</v>
-      </c>
-      <c r="S59" s="1" t="s">
-        <v>889</v>
-      </c>
-      <c r="T59" s="1" t="s">
-        <v>902</v>
+        <v>821</v>
+      </c>
+      <c r="T59" t="s">
+        <v>835</v>
       </c>
       <c r="U59" s="1" t="s">
-        <v>904</v>
+        <v>892</v>
+      </c>
+      <c r="V59" s="1" t="s">
+        <v>905</v>
       </c>
     </row>
-    <row r="60" spans="1:21">
+    <row r="60" spans="1:22">
       <c r="A60" t="s">
         <v>57</v>
       </c>
@@ -6506,35 +6506,35 @@
       <c r="K60" t="s">
         <v>545</v>
       </c>
-      <c r="L60" s="1" t="s">
-        <v>613</v>
-      </c>
       <c r="M60" s="1" t="s">
-        <v>681</v>
-      </c>
-      <c r="N60" t="s">
-        <v>749</v>
-      </c>
-      <c r="P60" t="s">
-        <v>762</v>
+        <v>614</v>
+      </c>
+      <c r="N60" s="1" t="s">
+        <v>626</v>
+      </c>
+      <c r="O60" t="s">
+        <v>684</v>
+      </c>
+      <c r="P60" s="1" t="s">
+        <v>752</v>
       </c>
       <c r="Q60" s="1" t="s">
-        <v>820</v>
+        <v>764</v>
       </c>
       <c r="R60" s="1" t="s">
-        <v>832</v>
-      </c>
-      <c r="S60" s="1" t="s">
-        <v>890</v>
-      </c>
-      <c r="T60" s="1" t="s">
-        <v>902</v>
+        <v>822</v>
+      </c>
+      <c r="T60" t="s">
+        <v>835</v>
       </c>
       <c r="U60" s="1" t="s">
-        <v>904</v>
+        <v>893</v>
+      </c>
+      <c r="V60" s="1" t="s">
+        <v>905</v>
       </c>
     </row>
-    <row r="61" spans="1:21">
+    <row r="61" spans="1:22">
       <c r="A61" t="s">
         <v>58</v>
       </c>
@@ -6562,35 +6562,35 @@
       <c r="K61" t="s">
         <v>546</v>
       </c>
-      <c r="L61" s="1" t="s">
-        <v>614</v>
-      </c>
       <c r="M61" s="1" t="s">
-        <v>682</v>
-      </c>
-      <c r="N61" t="s">
-        <v>750</v>
-      </c>
-      <c r="P61" t="s">
-        <v>762</v>
+        <v>615</v>
+      </c>
+      <c r="N61" s="1" t="s">
+        <v>626</v>
+      </c>
+      <c r="O61" t="s">
+        <v>685</v>
+      </c>
+      <c r="P61" s="1" t="s">
+        <v>753</v>
       </c>
       <c r="Q61" s="1" t="s">
-        <v>821</v>
+        <v>764</v>
       </c>
       <c r="R61" s="1" t="s">
-        <v>832</v>
-      </c>
-      <c r="S61" s="1" t="s">
-        <v>891</v>
-      </c>
-      <c r="T61" s="1" t="s">
-        <v>902</v>
+        <v>823</v>
+      </c>
+      <c r="T61" t="s">
+        <v>835</v>
       </c>
       <c r="U61" s="1" t="s">
-        <v>904</v>
+        <v>894</v>
+      </c>
+      <c r="V61" s="1" t="s">
+        <v>905</v>
       </c>
     </row>
-    <row r="62" spans="1:21">
+    <row r="62" spans="1:22">
       <c r="A62" t="s">
         <v>59</v>
       </c>
@@ -6621,35 +6621,35 @@
       <c r="K62" t="s">
         <v>547</v>
       </c>
-      <c r="L62" s="1" t="s">
-        <v>615</v>
-      </c>
       <c r="M62" s="1" t="s">
-        <v>683</v>
-      </c>
-      <c r="N62" t="s">
-        <v>751</v>
-      </c>
-      <c r="P62" t="s">
-        <v>762</v>
+        <v>616</v>
+      </c>
+      <c r="N62" s="1" t="s">
+        <v>626</v>
+      </c>
+      <c r="O62" t="s">
+        <v>686</v>
+      </c>
+      <c r="P62" s="1" t="s">
+        <v>754</v>
       </c>
       <c r="Q62" s="1" t="s">
-        <v>822</v>
+        <v>764</v>
       </c>
       <c r="R62" s="1" t="s">
-        <v>832</v>
-      </c>
-      <c r="S62" s="1" t="s">
-        <v>892</v>
-      </c>
-      <c r="T62" s="1" t="s">
-        <v>902</v>
+        <v>824</v>
+      </c>
+      <c r="T62" t="s">
+        <v>835</v>
       </c>
       <c r="U62" s="1" t="s">
-        <v>904</v>
+        <v>895</v>
+      </c>
+      <c r="V62" s="1" t="s">
+        <v>905</v>
       </c>
     </row>
-    <row r="63" spans="1:21">
+    <row r="63" spans="1:22">
       <c r="A63" t="s">
         <v>60</v>
       </c>
@@ -6677,35 +6677,35 @@
       <c r="K63" t="s">
         <v>548</v>
       </c>
-      <c r="L63" s="1" t="s">
-        <v>616</v>
-      </c>
       <c r="M63" s="1" t="s">
-        <v>684</v>
-      </c>
-      <c r="N63" t="s">
-        <v>752</v>
-      </c>
-      <c r="P63" t="s">
-        <v>762</v>
+        <v>617</v>
+      </c>
+      <c r="N63" s="1" t="s">
+        <v>626</v>
+      </c>
+      <c r="O63" t="s">
+        <v>687</v>
+      </c>
+      <c r="P63" s="1" t="s">
+        <v>755</v>
       </c>
       <c r="Q63" s="1" t="s">
-        <v>823</v>
+        <v>764</v>
       </c>
       <c r="R63" s="1" t="s">
-        <v>832</v>
-      </c>
-      <c r="S63" s="1" t="s">
-        <v>893</v>
-      </c>
-      <c r="T63" s="1" t="s">
-        <v>902</v>
+        <v>825</v>
+      </c>
+      <c r="T63" t="s">
+        <v>835</v>
       </c>
       <c r="U63" s="1" t="s">
-        <v>904</v>
+        <v>896</v>
+      </c>
+      <c r="V63" s="1" t="s">
+        <v>905</v>
       </c>
     </row>
-    <row r="64" spans="1:21">
+    <row r="64" spans="1:22">
       <c r="A64" t="s">
         <v>61</v>
       </c>
@@ -6733,35 +6733,35 @@
       <c r="K64" t="s">
         <v>549</v>
       </c>
-      <c r="L64" s="1" t="s">
-        <v>617</v>
-      </c>
       <c r="M64" s="1" t="s">
-        <v>685</v>
-      </c>
-      <c r="N64" t="s">
-        <v>753</v>
-      </c>
-      <c r="P64" t="s">
-        <v>762</v>
+        <v>618</v>
+      </c>
+      <c r="N64" s="1" t="s">
+        <v>626</v>
+      </c>
+      <c r="O64" t="s">
+        <v>688</v>
+      </c>
+      <c r="P64" s="1" t="s">
+        <v>756</v>
       </c>
       <c r="Q64" s="1" t="s">
-        <v>824</v>
+        <v>764</v>
       </c>
       <c r="R64" s="1" t="s">
-        <v>832</v>
-      </c>
-      <c r="S64" s="1" t="s">
-        <v>894</v>
-      </c>
-      <c r="T64" s="1" t="s">
-        <v>902</v>
+        <v>826</v>
+      </c>
+      <c r="T64" t="s">
+        <v>835</v>
       </c>
       <c r="U64" s="1" t="s">
-        <v>904</v>
+        <v>897</v>
+      </c>
+      <c r="V64" s="1" t="s">
+        <v>905</v>
       </c>
     </row>
-    <row r="65" spans="1:21">
+    <row r="65" spans="1:22">
       <c r="A65" t="s">
         <v>32</v>
       </c>
@@ -6789,35 +6789,35 @@
       <c r="K65" t="s">
         <v>550</v>
       </c>
-      <c r="L65" s="1" t="s">
-        <v>618</v>
-      </c>
       <c r="M65" s="1" t="s">
-        <v>686</v>
-      </c>
-      <c r="N65" t="s">
-        <v>754</v>
-      </c>
-      <c r="P65" t="s">
-        <v>762</v>
+        <v>619</v>
+      </c>
+      <c r="N65" s="1" t="s">
+        <v>626</v>
+      </c>
+      <c r="O65" t="s">
+        <v>689</v>
+      </c>
+      <c r="P65" s="1" t="s">
+        <v>757</v>
       </c>
       <c r="Q65" s="1" t="s">
-        <v>825</v>
+        <v>764</v>
       </c>
       <c r="R65" s="1" t="s">
-        <v>832</v>
-      </c>
-      <c r="S65" s="1" t="s">
-        <v>895</v>
-      </c>
-      <c r="T65" s="1" t="s">
-        <v>902</v>
+        <v>827</v>
+      </c>
+      <c r="T65" t="s">
+        <v>835</v>
       </c>
       <c r="U65" s="1" t="s">
-        <v>904</v>
+        <v>898</v>
+      </c>
+      <c r="V65" s="1" t="s">
+        <v>905</v>
       </c>
     </row>
-    <row r="66" spans="1:21">
+    <row r="66" spans="1:22">
       <c r="A66" t="s">
         <v>62</v>
       </c>
@@ -6848,35 +6848,35 @@
       <c r="K66" t="s">
         <v>551</v>
       </c>
-      <c r="L66" s="1" t="s">
-        <v>619</v>
-      </c>
       <c r="M66" s="1" t="s">
-        <v>687</v>
-      </c>
-      <c r="N66" t="s">
-        <v>755</v>
-      </c>
-      <c r="P66" t="s">
-        <v>762</v>
+        <v>620</v>
+      </c>
+      <c r="N66" s="1" t="s">
+        <v>626</v>
+      </c>
+      <c r="O66" t="s">
+        <v>690</v>
+      </c>
+      <c r="P66" s="1" t="s">
+        <v>758</v>
       </c>
       <c r="Q66" s="1" t="s">
-        <v>826</v>
+        <v>764</v>
       </c>
       <c r="R66" s="1" t="s">
-        <v>832</v>
-      </c>
-      <c r="S66" s="1" t="s">
-        <v>896</v>
-      </c>
-      <c r="T66" s="1" t="s">
-        <v>902</v>
+        <v>828</v>
+      </c>
+      <c r="T66" t="s">
+        <v>835</v>
       </c>
       <c r="U66" s="1" t="s">
-        <v>904</v>
+        <v>899</v>
+      </c>
+      <c r="V66" s="1" t="s">
+        <v>905</v>
       </c>
     </row>
-    <row r="67" spans="1:21">
+    <row r="67" spans="1:22">
       <c r="A67" t="s">
         <v>63</v>
       </c>
@@ -6907,35 +6907,35 @@
       <c r="K67" t="s">
         <v>552</v>
       </c>
-      <c r="L67" s="1" t="s">
-        <v>620</v>
-      </c>
       <c r="M67" s="1" t="s">
-        <v>688</v>
-      </c>
-      <c r="N67" t="s">
-        <v>756</v>
-      </c>
-      <c r="P67" t="s">
-        <v>762</v>
+        <v>621</v>
+      </c>
+      <c r="N67" s="1" t="s">
+        <v>626</v>
+      </c>
+      <c r="O67" t="s">
+        <v>691</v>
+      </c>
+      <c r="P67" s="1" t="s">
+        <v>759</v>
       </c>
       <c r="Q67" s="1" t="s">
-        <v>827</v>
+        <v>764</v>
       </c>
       <c r="R67" s="1" t="s">
-        <v>832</v>
-      </c>
-      <c r="S67" s="1" t="s">
-        <v>897</v>
-      </c>
-      <c r="T67" s="1" t="s">
-        <v>902</v>
+        <v>829</v>
+      </c>
+      <c r="T67" t="s">
+        <v>835</v>
       </c>
       <c r="U67" s="1" t="s">
-        <v>904</v>
+        <v>900</v>
+      </c>
+      <c r="V67" s="1" t="s">
+        <v>905</v>
       </c>
     </row>
-    <row r="68" spans="1:21">
+    <row r="68" spans="1:22">
       <c r="A68" t="s">
         <v>64</v>
       </c>
@@ -6963,35 +6963,35 @@
       <c r="K68" t="s">
         <v>553</v>
       </c>
-      <c r="L68" s="1" t="s">
-        <v>621</v>
-      </c>
       <c r="M68" s="1" t="s">
-        <v>689</v>
-      </c>
-      <c r="N68" t="s">
-        <v>757</v>
-      </c>
-      <c r="P68" t="s">
-        <v>762</v>
+        <v>622</v>
+      </c>
+      <c r="N68" s="1" t="s">
+        <v>626</v>
+      </c>
+      <c r="O68" t="s">
+        <v>692</v>
+      </c>
+      <c r="P68" s="1" t="s">
+        <v>760</v>
       </c>
       <c r="Q68" s="1" t="s">
-        <v>828</v>
+        <v>764</v>
       </c>
       <c r="R68" s="1" t="s">
-        <v>832</v>
-      </c>
-      <c r="S68" s="1" t="s">
-        <v>898</v>
-      </c>
-      <c r="T68" s="1" t="s">
-        <v>902</v>
+        <v>830</v>
+      </c>
+      <c r="T68" t="s">
+        <v>835</v>
       </c>
       <c r="U68" s="1" t="s">
-        <v>904</v>
+        <v>901</v>
+      </c>
+      <c r="V68" s="1" t="s">
+        <v>905</v>
       </c>
     </row>
-    <row r="69" spans="1:21">
+    <row r="69" spans="1:22">
       <c r="A69" t="s">
         <v>65</v>
       </c>
@@ -7022,35 +7022,35 @@
       <c r="K69" t="s">
         <v>554</v>
       </c>
-      <c r="L69" s="1" t="s">
-        <v>622</v>
-      </c>
       <c r="M69" s="1" t="s">
-        <v>690</v>
-      </c>
-      <c r="N69" t="s">
-        <v>758</v>
-      </c>
-      <c r="P69" t="s">
-        <v>762</v>
+        <v>623</v>
+      </c>
+      <c r="N69" s="1" t="s">
+        <v>626</v>
+      </c>
+      <c r="O69" t="s">
+        <v>693</v>
+      </c>
+      <c r="P69" s="1" t="s">
+        <v>761</v>
       </c>
       <c r="Q69" s="1" t="s">
-        <v>829</v>
+        <v>764</v>
       </c>
       <c r="R69" s="1" t="s">
-        <v>832</v>
-      </c>
-      <c r="S69" s="1" t="s">
-        <v>899</v>
-      </c>
-      <c r="T69" s="1" t="s">
+        <v>831</v>
+      </c>
+      <c r="T69" t="s">
+        <v>835</v>
+      </c>
+      <c r="U69" s="1" t="s">
         <v>902</v>
       </c>
-      <c r="U69" s="1" t="s">
-        <v>904</v>
+      <c r="V69" s="1" t="s">
+        <v>905</v>
       </c>
     </row>
-    <row r="70" spans="1:21">
+    <row r="70" spans="1:22">
       <c r="A70" t="s">
         <v>66</v>
       </c>
@@ -7075,519 +7075,519 @@
       <c r="K70" t="s">
         <v>555</v>
       </c>
-      <c r="L70" s="1" t="s">
-        <v>623</v>
-      </c>
       <c r="M70" s="1" t="s">
-        <v>691</v>
-      </c>
-      <c r="N70" t="s">
-        <v>759</v>
-      </c>
-      <c r="P70" t="s">
+        <v>624</v>
+      </c>
+      <c r="N70" s="1" t="s">
+        <v>626</v>
+      </c>
+      <c r="O70" t="s">
+        <v>694</v>
+      </c>
+      <c r="P70" s="1" t="s">
         <v>762</v>
       </c>
       <c r="Q70" s="1" t="s">
-        <v>830</v>
+        <v>764</v>
       </c>
       <c r="R70" s="1" t="s">
         <v>832</v>
       </c>
-      <c r="S70" s="1" t="s">
-        <v>900</v>
-      </c>
-      <c r="T70" s="1" t="s">
-        <v>902</v>
+      <c r="T70" t="s">
+        <v>835</v>
       </c>
       <c r="U70" s="1" t="s">
-        <v>904</v>
+        <v>903</v>
+      </c>
+      <c r="V70" s="1" t="s">
+        <v>905</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="L2" r:id="rId1"/>
-    <hyperlink ref="M2" r:id="rId2"/>
-    <hyperlink ref="Q2" r:id="rId3"/>
-    <hyperlink ref="R2" r:id="rId4"/>
-    <hyperlink ref="S2" r:id="rId5"/>
-    <hyperlink ref="T2" r:id="rId6"/>
-    <hyperlink ref="U2" r:id="rId7" location="rightToLeftDirection"/>
-    <hyperlink ref="L3" r:id="rId8"/>
-    <hyperlink ref="M3" r:id="rId9"/>
-    <hyperlink ref="Q3" r:id="rId10"/>
-    <hyperlink ref="R3" r:id="rId11"/>
-    <hyperlink ref="S3" r:id="rId12"/>
-    <hyperlink ref="T3" r:id="rId13"/>
-    <hyperlink ref="U3" r:id="rId14" location="rightToLeftDirection"/>
-    <hyperlink ref="L4" r:id="rId15"/>
-    <hyperlink ref="M4" r:id="rId16"/>
-    <hyperlink ref="Q4" r:id="rId17"/>
-    <hyperlink ref="R4" r:id="rId18"/>
-    <hyperlink ref="S4" r:id="rId19"/>
-    <hyperlink ref="T4" r:id="rId20"/>
-    <hyperlink ref="U4" r:id="rId21" location="rightToLeftDirection"/>
-    <hyperlink ref="L5" r:id="rId22"/>
-    <hyperlink ref="M5" r:id="rId23"/>
-    <hyperlink ref="Q5" r:id="rId24"/>
-    <hyperlink ref="R5" r:id="rId25"/>
-    <hyperlink ref="S5" r:id="rId26"/>
-    <hyperlink ref="T5" r:id="rId27"/>
-    <hyperlink ref="U5" r:id="rId28" location="rightToLeftDirection"/>
-    <hyperlink ref="L6" r:id="rId29"/>
-    <hyperlink ref="M6" r:id="rId30"/>
-    <hyperlink ref="Q6" r:id="rId31"/>
-    <hyperlink ref="R6" r:id="rId32"/>
-    <hyperlink ref="S6" r:id="rId33"/>
-    <hyperlink ref="T6" r:id="rId34"/>
-    <hyperlink ref="U6" r:id="rId35" location="rightToLeftDirection"/>
-    <hyperlink ref="L7" r:id="rId36"/>
-    <hyperlink ref="M7" r:id="rId37"/>
-    <hyperlink ref="Q7" r:id="rId38"/>
-    <hyperlink ref="R7" r:id="rId39"/>
-    <hyperlink ref="S7" r:id="rId40"/>
-    <hyperlink ref="T7" r:id="rId41"/>
-    <hyperlink ref="U7" r:id="rId42" location="rightToLeftDirection"/>
-    <hyperlink ref="L8" r:id="rId43"/>
-    <hyperlink ref="M8" r:id="rId44"/>
-    <hyperlink ref="Q8" r:id="rId45"/>
-    <hyperlink ref="R8" r:id="rId46"/>
-    <hyperlink ref="S8" r:id="rId47"/>
-    <hyperlink ref="T8" r:id="rId48"/>
-    <hyperlink ref="U8" r:id="rId49" location="rightToLeftDirection"/>
-    <hyperlink ref="L9" r:id="rId50"/>
-    <hyperlink ref="M9" r:id="rId51"/>
-    <hyperlink ref="Q9" r:id="rId52"/>
-    <hyperlink ref="R9" r:id="rId53"/>
-    <hyperlink ref="S9" r:id="rId54"/>
-    <hyperlink ref="T9" r:id="rId55"/>
-    <hyperlink ref="U9" r:id="rId56" location="rightToLeftDirection"/>
-    <hyperlink ref="L10" r:id="rId57"/>
-    <hyperlink ref="M10" r:id="rId58"/>
-    <hyperlink ref="Q10" r:id="rId59"/>
-    <hyperlink ref="R10" r:id="rId60"/>
-    <hyperlink ref="S10" r:id="rId61"/>
-    <hyperlink ref="T10" r:id="rId62"/>
-    <hyperlink ref="U10" r:id="rId63" location="rightToLeftDirection"/>
-    <hyperlink ref="L11" r:id="rId64"/>
-    <hyperlink ref="M11" r:id="rId65"/>
-    <hyperlink ref="Q11" r:id="rId66"/>
-    <hyperlink ref="R11" r:id="rId67"/>
-    <hyperlink ref="S11" r:id="rId68"/>
-    <hyperlink ref="T11" r:id="rId69"/>
-    <hyperlink ref="U11" r:id="rId70" location="rightToLeftDirection"/>
-    <hyperlink ref="L12" r:id="rId71"/>
-    <hyperlink ref="M12" r:id="rId72"/>
-    <hyperlink ref="Q12" r:id="rId73"/>
-    <hyperlink ref="R12" r:id="rId74"/>
-    <hyperlink ref="S12" r:id="rId75"/>
-    <hyperlink ref="T12" r:id="rId76"/>
-    <hyperlink ref="U12" r:id="rId77" location="rightToLeftDirection"/>
-    <hyperlink ref="L13" r:id="rId78"/>
-    <hyperlink ref="M13" r:id="rId79"/>
-    <hyperlink ref="Q13" r:id="rId80"/>
-    <hyperlink ref="R13" r:id="rId81"/>
-    <hyperlink ref="S13" r:id="rId82"/>
-    <hyperlink ref="T13" r:id="rId83"/>
-    <hyperlink ref="U13" r:id="rId84" location="rightToLeftDirection"/>
-    <hyperlink ref="L14" r:id="rId85"/>
-    <hyperlink ref="M14" r:id="rId86"/>
-    <hyperlink ref="Q14" r:id="rId87"/>
-    <hyperlink ref="R14" r:id="rId88"/>
-    <hyperlink ref="S14" r:id="rId89"/>
-    <hyperlink ref="T14" r:id="rId90"/>
-    <hyperlink ref="U14" r:id="rId91" location="rightToLeftDirection"/>
-    <hyperlink ref="L15" r:id="rId92"/>
-    <hyperlink ref="M15" r:id="rId93"/>
-    <hyperlink ref="Q15" r:id="rId94"/>
-    <hyperlink ref="R15" r:id="rId95"/>
-    <hyperlink ref="S15" r:id="rId96"/>
-    <hyperlink ref="T15" r:id="rId97"/>
-    <hyperlink ref="U15" r:id="rId98" location="rightToLeftDirection"/>
-    <hyperlink ref="L16" r:id="rId99"/>
-    <hyperlink ref="M16" r:id="rId100"/>
-    <hyperlink ref="Q16" r:id="rId101"/>
-    <hyperlink ref="R16" r:id="rId102"/>
-    <hyperlink ref="S16" r:id="rId103"/>
-    <hyperlink ref="T16" r:id="rId104"/>
-    <hyperlink ref="U16" r:id="rId105" location="rightToLeftDirection"/>
-    <hyperlink ref="L17" r:id="rId106"/>
-    <hyperlink ref="M17" r:id="rId107"/>
-    <hyperlink ref="Q17" r:id="rId108"/>
-    <hyperlink ref="R17" r:id="rId109"/>
-    <hyperlink ref="S17" r:id="rId110"/>
-    <hyperlink ref="T17" r:id="rId111"/>
-    <hyperlink ref="U17" r:id="rId112" location="rightToLeftDirection"/>
-    <hyperlink ref="L18" r:id="rId113"/>
-    <hyperlink ref="M18" r:id="rId114"/>
-    <hyperlink ref="Q18" r:id="rId115"/>
-    <hyperlink ref="R18" r:id="rId116"/>
-    <hyperlink ref="S18" r:id="rId117"/>
-    <hyperlink ref="T18" r:id="rId118"/>
-    <hyperlink ref="U18" r:id="rId119" location="rightToLeftDirection"/>
-    <hyperlink ref="L19" r:id="rId120"/>
-    <hyperlink ref="M19" r:id="rId121"/>
-    <hyperlink ref="Q19" r:id="rId122"/>
-    <hyperlink ref="R19" r:id="rId123"/>
-    <hyperlink ref="S19" r:id="rId124"/>
-    <hyperlink ref="T19" r:id="rId125"/>
-    <hyperlink ref="U19" r:id="rId126" location="rightToLeftDirection"/>
-    <hyperlink ref="L20" r:id="rId127"/>
-    <hyperlink ref="M20" r:id="rId128"/>
-    <hyperlink ref="Q20" r:id="rId129"/>
-    <hyperlink ref="R20" r:id="rId130"/>
-    <hyperlink ref="S20" r:id="rId131"/>
-    <hyperlink ref="T20" r:id="rId132"/>
-    <hyperlink ref="U20" r:id="rId133" location="rightToLeftDirection"/>
-    <hyperlink ref="L21" r:id="rId134"/>
-    <hyperlink ref="M21" r:id="rId135"/>
-    <hyperlink ref="Q21" r:id="rId136"/>
-    <hyperlink ref="R21" r:id="rId137"/>
-    <hyperlink ref="S21" r:id="rId138"/>
-    <hyperlink ref="T21" r:id="rId139"/>
-    <hyperlink ref="U21" r:id="rId140" location="rightToLeftDirection"/>
-    <hyperlink ref="L22" r:id="rId141"/>
-    <hyperlink ref="M22" r:id="rId142"/>
-    <hyperlink ref="Q22" r:id="rId143"/>
-    <hyperlink ref="R22" r:id="rId144"/>
-    <hyperlink ref="S22" r:id="rId145"/>
-    <hyperlink ref="T22" r:id="rId146"/>
-    <hyperlink ref="U22" r:id="rId147" location="rightToLeftDirection"/>
-    <hyperlink ref="L23" r:id="rId148"/>
-    <hyperlink ref="M23" r:id="rId149"/>
-    <hyperlink ref="Q23" r:id="rId150"/>
-    <hyperlink ref="R23" r:id="rId151"/>
-    <hyperlink ref="S23" r:id="rId152"/>
-    <hyperlink ref="T23" r:id="rId153"/>
-    <hyperlink ref="U23" r:id="rId154" location="rightToLeftDirection"/>
-    <hyperlink ref="L24" r:id="rId155"/>
-    <hyperlink ref="M24" r:id="rId156"/>
-    <hyperlink ref="Q24" r:id="rId157"/>
-    <hyperlink ref="R24" r:id="rId158"/>
-    <hyperlink ref="S24" r:id="rId159"/>
-    <hyperlink ref="T24" r:id="rId160"/>
-    <hyperlink ref="U24" r:id="rId161" location="rightToLeftDirection"/>
-    <hyperlink ref="L25" r:id="rId162"/>
-    <hyperlink ref="M25" r:id="rId163"/>
-    <hyperlink ref="Q25" r:id="rId164"/>
-    <hyperlink ref="R25" r:id="rId165"/>
-    <hyperlink ref="S25" r:id="rId166"/>
-    <hyperlink ref="T25" r:id="rId167"/>
-    <hyperlink ref="U25" r:id="rId168" location="rightToLeftDirection"/>
-    <hyperlink ref="L26" r:id="rId169"/>
-    <hyperlink ref="M26" r:id="rId170"/>
-    <hyperlink ref="Q26" r:id="rId171"/>
-    <hyperlink ref="R26" r:id="rId172"/>
-    <hyperlink ref="S26" r:id="rId173"/>
-    <hyperlink ref="T26" r:id="rId174"/>
-    <hyperlink ref="U26" r:id="rId175" location="rightToLeftDirection"/>
-    <hyperlink ref="L27" r:id="rId176"/>
-    <hyperlink ref="M27" r:id="rId177"/>
-    <hyperlink ref="Q27" r:id="rId178"/>
-    <hyperlink ref="R27" r:id="rId179"/>
-    <hyperlink ref="S27" r:id="rId180"/>
-    <hyperlink ref="T27" r:id="rId181"/>
-    <hyperlink ref="U27" r:id="rId182" location="rightToLeftDirection"/>
-    <hyperlink ref="L28" r:id="rId183"/>
-    <hyperlink ref="M28" r:id="rId184"/>
-    <hyperlink ref="Q28" r:id="rId185"/>
-    <hyperlink ref="R28" r:id="rId186"/>
-    <hyperlink ref="S28" r:id="rId187"/>
-    <hyperlink ref="T28" r:id="rId188"/>
-    <hyperlink ref="U28" r:id="rId189" location="rightToLeftDirection"/>
-    <hyperlink ref="L29" r:id="rId190"/>
-    <hyperlink ref="M29" r:id="rId191"/>
-    <hyperlink ref="Q29" r:id="rId192"/>
-    <hyperlink ref="R29" r:id="rId193"/>
-    <hyperlink ref="S29" r:id="rId194"/>
-    <hyperlink ref="T29" r:id="rId195"/>
-    <hyperlink ref="U29" r:id="rId196" location="rightToLeftDirection"/>
-    <hyperlink ref="L30" r:id="rId197"/>
-    <hyperlink ref="M30" r:id="rId198"/>
-    <hyperlink ref="Q30" r:id="rId199"/>
-    <hyperlink ref="R30" r:id="rId200"/>
-    <hyperlink ref="S30" r:id="rId201"/>
-    <hyperlink ref="T30" r:id="rId202"/>
-    <hyperlink ref="U30" r:id="rId203" location="rightToLeftDirection"/>
-    <hyperlink ref="L31" r:id="rId204"/>
-    <hyperlink ref="M31" r:id="rId205"/>
-    <hyperlink ref="Q31" r:id="rId206"/>
-    <hyperlink ref="R31" r:id="rId207"/>
-    <hyperlink ref="S31" r:id="rId208"/>
-    <hyperlink ref="T31" r:id="rId209"/>
-    <hyperlink ref="U31" r:id="rId210" location="rightToLeftDirection"/>
-    <hyperlink ref="L32" r:id="rId211"/>
-    <hyperlink ref="M32" r:id="rId212"/>
-    <hyperlink ref="Q32" r:id="rId213"/>
-    <hyperlink ref="R32" r:id="rId214"/>
-    <hyperlink ref="S32" r:id="rId215"/>
-    <hyperlink ref="T32" r:id="rId216"/>
-    <hyperlink ref="U32" r:id="rId217" location="rightToLeftDirection"/>
-    <hyperlink ref="L33" r:id="rId218"/>
-    <hyperlink ref="M33" r:id="rId219"/>
-    <hyperlink ref="Q33" r:id="rId220"/>
-    <hyperlink ref="R33" r:id="rId221"/>
-    <hyperlink ref="S33" r:id="rId222"/>
-    <hyperlink ref="T33" r:id="rId223"/>
-    <hyperlink ref="U33" r:id="rId224" location="rightToLeftDirection"/>
-    <hyperlink ref="L34" r:id="rId225"/>
-    <hyperlink ref="M34" r:id="rId226"/>
-    <hyperlink ref="Q34" r:id="rId227"/>
-    <hyperlink ref="R34" r:id="rId228"/>
-    <hyperlink ref="S34" r:id="rId229"/>
-    <hyperlink ref="T34" r:id="rId230"/>
-    <hyperlink ref="U34" r:id="rId231" location="rightToLeftDirection"/>
-    <hyperlink ref="L35" r:id="rId232"/>
-    <hyperlink ref="M35" r:id="rId233"/>
-    <hyperlink ref="Q35" r:id="rId234"/>
-    <hyperlink ref="R35" r:id="rId235"/>
-    <hyperlink ref="S35" r:id="rId236"/>
-    <hyperlink ref="T35" r:id="rId237"/>
-    <hyperlink ref="U35" r:id="rId238" location="rightToLeftDirection"/>
-    <hyperlink ref="L36" r:id="rId239"/>
-    <hyperlink ref="M36" r:id="rId240"/>
-    <hyperlink ref="Q36" r:id="rId241"/>
-    <hyperlink ref="R36" r:id="rId242"/>
-    <hyperlink ref="S36" r:id="rId243"/>
-    <hyperlink ref="T36" r:id="rId244"/>
-    <hyperlink ref="U36" r:id="rId245" location="rightToLeftDirection"/>
-    <hyperlink ref="L37" r:id="rId246"/>
-    <hyperlink ref="M37" r:id="rId247"/>
-    <hyperlink ref="Q37" r:id="rId248"/>
-    <hyperlink ref="R37" r:id="rId249"/>
-    <hyperlink ref="S37" r:id="rId250"/>
-    <hyperlink ref="T37" r:id="rId251"/>
-    <hyperlink ref="U37" r:id="rId252" location="rightToLeftDirection"/>
-    <hyperlink ref="L38" r:id="rId253"/>
-    <hyperlink ref="M38" r:id="rId254"/>
-    <hyperlink ref="Q38" r:id="rId255"/>
-    <hyperlink ref="R38" r:id="rId256"/>
-    <hyperlink ref="S38" r:id="rId257"/>
-    <hyperlink ref="T38" r:id="rId258"/>
-    <hyperlink ref="U38" r:id="rId259" location="rightToLeftDirection"/>
-    <hyperlink ref="L39" r:id="rId260"/>
-    <hyperlink ref="M39" r:id="rId261"/>
-    <hyperlink ref="Q39" r:id="rId262"/>
-    <hyperlink ref="R39" r:id="rId263"/>
-    <hyperlink ref="S39" r:id="rId264"/>
-    <hyperlink ref="T39" r:id="rId265"/>
-    <hyperlink ref="U39" r:id="rId266" location="rightToLeftDirection"/>
-    <hyperlink ref="L40" r:id="rId267"/>
-    <hyperlink ref="M40" r:id="rId268"/>
-    <hyperlink ref="Q40" r:id="rId269"/>
-    <hyperlink ref="R40" r:id="rId270"/>
-    <hyperlink ref="S40" r:id="rId271"/>
-    <hyperlink ref="T40" r:id="rId272"/>
-    <hyperlink ref="U40" r:id="rId273" location="rightToLeftDirection"/>
-    <hyperlink ref="L41" r:id="rId274"/>
-    <hyperlink ref="M41" r:id="rId275"/>
-    <hyperlink ref="Q41" r:id="rId276"/>
-    <hyperlink ref="R41" r:id="rId277"/>
-    <hyperlink ref="S41" r:id="rId278"/>
-    <hyperlink ref="T41" r:id="rId279"/>
-    <hyperlink ref="U41" r:id="rId280" location="rightToLeftDirection"/>
-    <hyperlink ref="L42" r:id="rId281"/>
-    <hyperlink ref="M42" r:id="rId282"/>
-    <hyperlink ref="Q42" r:id="rId283"/>
-    <hyperlink ref="R42" r:id="rId284"/>
-    <hyperlink ref="S42" r:id="rId285"/>
-    <hyperlink ref="T42" r:id="rId286"/>
-    <hyperlink ref="U42" r:id="rId287" location="rightToLeftDirection"/>
-    <hyperlink ref="L43" r:id="rId288"/>
-    <hyperlink ref="M43" r:id="rId289"/>
-    <hyperlink ref="Q43" r:id="rId290"/>
-    <hyperlink ref="R43" r:id="rId291"/>
-    <hyperlink ref="S43" r:id="rId292"/>
-    <hyperlink ref="T43" r:id="rId293"/>
-    <hyperlink ref="U43" r:id="rId294" location="rightToLeftDirection"/>
-    <hyperlink ref="L44" r:id="rId295"/>
-    <hyperlink ref="M44" r:id="rId296"/>
-    <hyperlink ref="Q44" r:id="rId297"/>
-    <hyperlink ref="R44" r:id="rId298"/>
-    <hyperlink ref="S44" r:id="rId299"/>
-    <hyperlink ref="T44" r:id="rId300"/>
-    <hyperlink ref="U44" r:id="rId301" location="rightToLeftDirection"/>
-    <hyperlink ref="L45" r:id="rId302"/>
-    <hyperlink ref="M45" r:id="rId303"/>
-    <hyperlink ref="Q45" r:id="rId304"/>
-    <hyperlink ref="R45" r:id="rId305"/>
-    <hyperlink ref="S45" r:id="rId306"/>
-    <hyperlink ref="T45" r:id="rId307"/>
-    <hyperlink ref="U45" r:id="rId308" location="rightToLeftDirection"/>
-    <hyperlink ref="L46" r:id="rId309"/>
-    <hyperlink ref="M46" r:id="rId310"/>
-    <hyperlink ref="Q46" r:id="rId311"/>
-    <hyperlink ref="R46" r:id="rId312"/>
-    <hyperlink ref="S46" r:id="rId313"/>
-    <hyperlink ref="T46" r:id="rId314"/>
-    <hyperlink ref="U46" r:id="rId315" location="rightToLeftDirection"/>
-    <hyperlink ref="L47" r:id="rId316"/>
-    <hyperlink ref="M47" r:id="rId317"/>
-    <hyperlink ref="Q47" r:id="rId318"/>
-    <hyperlink ref="R47" r:id="rId319"/>
-    <hyperlink ref="S47" r:id="rId320"/>
-    <hyperlink ref="T47" r:id="rId321"/>
-    <hyperlink ref="U47" r:id="rId322" location="rightToLeftDirection"/>
-    <hyperlink ref="L48" r:id="rId323"/>
-    <hyperlink ref="M48" r:id="rId324"/>
-    <hyperlink ref="Q48" r:id="rId325"/>
-    <hyperlink ref="R48" r:id="rId326"/>
-    <hyperlink ref="S48" r:id="rId327"/>
-    <hyperlink ref="T48" r:id="rId328"/>
-    <hyperlink ref="U48" r:id="rId329" location="rightToLeftDirection"/>
-    <hyperlink ref="L49" r:id="rId330"/>
-    <hyperlink ref="M49" r:id="rId331"/>
-    <hyperlink ref="Q49" r:id="rId332"/>
-    <hyperlink ref="R49" r:id="rId333"/>
-    <hyperlink ref="S49" r:id="rId334"/>
-    <hyperlink ref="T49" r:id="rId335"/>
-    <hyperlink ref="U49" r:id="rId336" location="rightToLeftDirection"/>
-    <hyperlink ref="L50" r:id="rId337"/>
-    <hyperlink ref="M50" r:id="rId338"/>
-    <hyperlink ref="Q50" r:id="rId339"/>
-    <hyperlink ref="R50" r:id="rId340"/>
-    <hyperlink ref="S50" r:id="rId341"/>
-    <hyperlink ref="T50" r:id="rId342"/>
-    <hyperlink ref="U50" r:id="rId343" location="rightToLeftDirection"/>
-    <hyperlink ref="L51" r:id="rId344"/>
-    <hyperlink ref="M51" r:id="rId345"/>
-    <hyperlink ref="Q51" r:id="rId346"/>
-    <hyperlink ref="R51" r:id="rId347"/>
-    <hyperlink ref="S51" r:id="rId348"/>
-    <hyperlink ref="T51" r:id="rId349"/>
-    <hyperlink ref="U51" r:id="rId350" location="rightToLeftDirection"/>
-    <hyperlink ref="L52" r:id="rId351"/>
-    <hyperlink ref="M52" r:id="rId352"/>
-    <hyperlink ref="Q52" r:id="rId353"/>
-    <hyperlink ref="R52" r:id="rId354"/>
-    <hyperlink ref="S52" r:id="rId355"/>
-    <hyperlink ref="T52" r:id="rId356"/>
-    <hyperlink ref="U52" r:id="rId357" location="rightToLeftDirection"/>
-    <hyperlink ref="L53" r:id="rId358"/>
-    <hyperlink ref="M53" r:id="rId359"/>
-    <hyperlink ref="Q53" r:id="rId360"/>
-    <hyperlink ref="R53" r:id="rId361"/>
-    <hyperlink ref="S53" r:id="rId362"/>
-    <hyperlink ref="T53" r:id="rId363"/>
-    <hyperlink ref="U53" r:id="rId364" location="rightToLeftDirection"/>
-    <hyperlink ref="L54" r:id="rId365"/>
-    <hyperlink ref="M54" r:id="rId366"/>
-    <hyperlink ref="Q54" r:id="rId367"/>
-    <hyperlink ref="R54" r:id="rId368"/>
-    <hyperlink ref="S54" r:id="rId369"/>
-    <hyperlink ref="T54" r:id="rId370"/>
-    <hyperlink ref="U54" r:id="rId371" location="rightToLeftDirection"/>
-    <hyperlink ref="L55" r:id="rId372"/>
-    <hyperlink ref="M55" r:id="rId373"/>
-    <hyperlink ref="Q55" r:id="rId374"/>
-    <hyperlink ref="R55" r:id="rId375"/>
-    <hyperlink ref="S55" r:id="rId376"/>
-    <hyperlink ref="T55" r:id="rId377"/>
-    <hyperlink ref="U55" r:id="rId378" location="rightToLeftDirection"/>
-    <hyperlink ref="L56" r:id="rId379"/>
-    <hyperlink ref="M56" r:id="rId380"/>
-    <hyperlink ref="Q56" r:id="rId381"/>
-    <hyperlink ref="R56" r:id="rId382"/>
-    <hyperlink ref="S56" r:id="rId383"/>
-    <hyperlink ref="T56" r:id="rId384"/>
-    <hyperlink ref="U56" r:id="rId385" location="rightToLeftDirection"/>
-    <hyperlink ref="L57" r:id="rId386"/>
-    <hyperlink ref="M57" r:id="rId387"/>
-    <hyperlink ref="Q57" r:id="rId388"/>
-    <hyperlink ref="R57" r:id="rId389"/>
-    <hyperlink ref="S57" r:id="rId390"/>
-    <hyperlink ref="T57" r:id="rId391"/>
-    <hyperlink ref="U57" r:id="rId392" location="rightToLeftDirection"/>
-    <hyperlink ref="L58" r:id="rId393"/>
-    <hyperlink ref="M58" r:id="rId394"/>
-    <hyperlink ref="Q58" r:id="rId395"/>
-    <hyperlink ref="R58" r:id="rId396"/>
-    <hyperlink ref="S58" r:id="rId397"/>
-    <hyperlink ref="T58" r:id="rId398"/>
-    <hyperlink ref="U58" r:id="rId399" location="rightToLeftDirection"/>
-    <hyperlink ref="L59" r:id="rId400"/>
-    <hyperlink ref="M59" r:id="rId401"/>
-    <hyperlink ref="Q59" r:id="rId402"/>
-    <hyperlink ref="R59" r:id="rId403"/>
-    <hyperlink ref="S59" r:id="rId404"/>
-    <hyperlink ref="T59" r:id="rId405"/>
-    <hyperlink ref="U59" r:id="rId406" location="rightToLeftDirection"/>
-    <hyperlink ref="L60" r:id="rId407"/>
-    <hyperlink ref="M60" r:id="rId408"/>
-    <hyperlink ref="Q60" r:id="rId409"/>
-    <hyperlink ref="R60" r:id="rId410"/>
-    <hyperlink ref="S60" r:id="rId411"/>
-    <hyperlink ref="T60" r:id="rId412"/>
-    <hyperlink ref="U60" r:id="rId413" location="rightToLeftDirection"/>
-    <hyperlink ref="L61" r:id="rId414"/>
-    <hyperlink ref="M61" r:id="rId415"/>
-    <hyperlink ref="Q61" r:id="rId416"/>
-    <hyperlink ref="R61" r:id="rId417"/>
-    <hyperlink ref="S61" r:id="rId418"/>
-    <hyperlink ref="T61" r:id="rId419"/>
-    <hyperlink ref="U61" r:id="rId420" location="rightToLeftDirection"/>
-    <hyperlink ref="L62" r:id="rId421"/>
-    <hyperlink ref="M62" r:id="rId422"/>
-    <hyperlink ref="Q62" r:id="rId423"/>
-    <hyperlink ref="R62" r:id="rId424"/>
-    <hyperlink ref="S62" r:id="rId425"/>
-    <hyperlink ref="T62" r:id="rId426"/>
-    <hyperlink ref="U62" r:id="rId427" location="rightToLeftDirection"/>
-    <hyperlink ref="L63" r:id="rId428"/>
-    <hyperlink ref="M63" r:id="rId429"/>
-    <hyperlink ref="Q63" r:id="rId430"/>
-    <hyperlink ref="R63" r:id="rId431"/>
-    <hyperlink ref="S63" r:id="rId432"/>
-    <hyperlink ref="T63" r:id="rId433"/>
-    <hyperlink ref="U63" r:id="rId434" location="rightToLeftDirection"/>
-    <hyperlink ref="L64" r:id="rId435"/>
-    <hyperlink ref="M64" r:id="rId436"/>
-    <hyperlink ref="Q64" r:id="rId437"/>
-    <hyperlink ref="R64" r:id="rId438"/>
-    <hyperlink ref="S64" r:id="rId439"/>
-    <hyperlink ref="T64" r:id="rId440"/>
-    <hyperlink ref="U64" r:id="rId441" location="rightToLeftDirection"/>
-    <hyperlink ref="L65" r:id="rId442"/>
-    <hyperlink ref="M65" r:id="rId443"/>
-    <hyperlink ref="Q65" r:id="rId444"/>
-    <hyperlink ref="R65" r:id="rId445"/>
-    <hyperlink ref="S65" r:id="rId446"/>
-    <hyperlink ref="T65" r:id="rId447"/>
-    <hyperlink ref="U65" r:id="rId448" location="rightToLeftDirection"/>
-    <hyperlink ref="L66" r:id="rId449"/>
-    <hyperlink ref="M66" r:id="rId450"/>
-    <hyperlink ref="Q66" r:id="rId451"/>
-    <hyperlink ref="R66" r:id="rId452"/>
-    <hyperlink ref="S66" r:id="rId453"/>
-    <hyperlink ref="T66" r:id="rId454"/>
-    <hyperlink ref="U66" r:id="rId455" location="rightToLeftDirection"/>
-    <hyperlink ref="L67" r:id="rId456"/>
-    <hyperlink ref="M67" r:id="rId457"/>
-    <hyperlink ref="Q67" r:id="rId458"/>
-    <hyperlink ref="R67" r:id="rId459"/>
-    <hyperlink ref="S67" r:id="rId460"/>
-    <hyperlink ref="T67" r:id="rId461"/>
-    <hyperlink ref="U67" r:id="rId462" location="rightToLeftDirection"/>
-    <hyperlink ref="L68" r:id="rId463"/>
-    <hyperlink ref="M68" r:id="rId464"/>
-    <hyperlink ref="Q68" r:id="rId465"/>
-    <hyperlink ref="R68" r:id="rId466"/>
-    <hyperlink ref="S68" r:id="rId467"/>
-    <hyperlink ref="T68" r:id="rId468"/>
-    <hyperlink ref="U68" r:id="rId469" location="rightToLeftDirection"/>
-    <hyperlink ref="L69" r:id="rId470"/>
-    <hyperlink ref="M69" r:id="rId471"/>
-    <hyperlink ref="Q69" r:id="rId472"/>
-    <hyperlink ref="R69" r:id="rId473"/>
-    <hyperlink ref="S69" r:id="rId474"/>
-    <hyperlink ref="T69" r:id="rId475"/>
-    <hyperlink ref="U69" r:id="rId476" location="rightToLeftDirection"/>
-    <hyperlink ref="L70" r:id="rId477"/>
-    <hyperlink ref="M70" r:id="rId478"/>
-    <hyperlink ref="Q70" r:id="rId479"/>
-    <hyperlink ref="R70" r:id="rId480"/>
-    <hyperlink ref="S70" r:id="rId481"/>
-    <hyperlink ref="T70" r:id="rId482"/>
-    <hyperlink ref="U70" r:id="rId483" location="rightToLeftDirection"/>
+    <hyperlink ref="M2" r:id="rId1"/>
+    <hyperlink ref="N2" r:id="rId2" location="rightToLeftDirection"/>
+    <hyperlink ref="P2" r:id="rId3"/>
+    <hyperlink ref="Q2" r:id="rId4"/>
+    <hyperlink ref="R2" r:id="rId5"/>
+    <hyperlink ref="U2" r:id="rId6"/>
+    <hyperlink ref="V2" r:id="rId7"/>
+    <hyperlink ref="M3" r:id="rId8"/>
+    <hyperlink ref="N3" r:id="rId9" location="rightToLeftDirection"/>
+    <hyperlink ref="P3" r:id="rId10"/>
+    <hyperlink ref="Q3" r:id="rId11"/>
+    <hyperlink ref="R3" r:id="rId12"/>
+    <hyperlink ref="U3" r:id="rId13"/>
+    <hyperlink ref="V3" r:id="rId14"/>
+    <hyperlink ref="M4" r:id="rId15"/>
+    <hyperlink ref="N4" r:id="rId16" location="rightToLeftDirection"/>
+    <hyperlink ref="P4" r:id="rId17"/>
+    <hyperlink ref="Q4" r:id="rId18"/>
+    <hyperlink ref="R4" r:id="rId19"/>
+    <hyperlink ref="U4" r:id="rId20"/>
+    <hyperlink ref="V4" r:id="rId21"/>
+    <hyperlink ref="M5" r:id="rId22"/>
+    <hyperlink ref="N5" r:id="rId23" location="rightToLeftDirection"/>
+    <hyperlink ref="P5" r:id="rId24"/>
+    <hyperlink ref="Q5" r:id="rId25"/>
+    <hyperlink ref="R5" r:id="rId26"/>
+    <hyperlink ref="U5" r:id="rId27"/>
+    <hyperlink ref="V5" r:id="rId28"/>
+    <hyperlink ref="M6" r:id="rId29"/>
+    <hyperlink ref="N6" r:id="rId30" location="rightToLeftDirection"/>
+    <hyperlink ref="P6" r:id="rId31"/>
+    <hyperlink ref="Q6" r:id="rId32"/>
+    <hyperlink ref="R6" r:id="rId33"/>
+    <hyperlink ref="U6" r:id="rId34"/>
+    <hyperlink ref="V6" r:id="rId35"/>
+    <hyperlink ref="M7" r:id="rId36"/>
+    <hyperlink ref="N7" r:id="rId37" location="rightToLeftDirection"/>
+    <hyperlink ref="P7" r:id="rId38"/>
+    <hyperlink ref="Q7" r:id="rId39"/>
+    <hyperlink ref="R7" r:id="rId40"/>
+    <hyperlink ref="U7" r:id="rId41"/>
+    <hyperlink ref="V7" r:id="rId42"/>
+    <hyperlink ref="M8" r:id="rId43"/>
+    <hyperlink ref="N8" r:id="rId44" location="rightToLeftDirection"/>
+    <hyperlink ref="P8" r:id="rId45"/>
+    <hyperlink ref="Q8" r:id="rId46"/>
+    <hyperlink ref="R8" r:id="rId47"/>
+    <hyperlink ref="U8" r:id="rId48"/>
+    <hyperlink ref="V8" r:id="rId49"/>
+    <hyperlink ref="M9" r:id="rId50"/>
+    <hyperlink ref="N9" r:id="rId51" location="rightToLeftDirection"/>
+    <hyperlink ref="P9" r:id="rId52"/>
+    <hyperlink ref="Q9" r:id="rId53"/>
+    <hyperlink ref="R9" r:id="rId54"/>
+    <hyperlink ref="U9" r:id="rId55"/>
+    <hyperlink ref="V9" r:id="rId56"/>
+    <hyperlink ref="M10" r:id="rId57"/>
+    <hyperlink ref="N10" r:id="rId58" location="rightToLeftDirection"/>
+    <hyperlink ref="P10" r:id="rId59"/>
+    <hyperlink ref="Q10" r:id="rId60"/>
+    <hyperlink ref="R10" r:id="rId61"/>
+    <hyperlink ref="U10" r:id="rId62"/>
+    <hyperlink ref="V10" r:id="rId63"/>
+    <hyperlink ref="M11" r:id="rId64"/>
+    <hyperlink ref="N11" r:id="rId65" location="rightToLeftDirection"/>
+    <hyperlink ref="P11" r:id="rId66"/>
+    <hyperlink ref="Q11" r:id="rId67"/>
+    <hyperlink ref="R11" r:id="rId68"/>
+    <hyperlink ref="U11" r:id="rId69"/>
+    <hyperlink ref="V11" r:id="rId70"/>
+    <hyperlink ref="M12" r:id="rId71"/>
+    <hyperlink ref="N12" r:id="rId72" location="rightToLeftDirection"/>
+    <hyperlink ref="P12" r:id="rId73"/>
+    <hyperlink ref="Q12" r:id="rId74"/>
+    <hyperlink ref="R12" r:id="rId75"/>
+    <hyperlink ref="U12" r:id="rId76"/>
+    <hyperlink ref="V12" r:id="rId77"/>
+    <hyperlink ref="M13" r:id="rId78"/>
+    <hyperlink ref="N13" r:id="rId79" location="rightToLeftDirection"/>
+    <hyperlink ref="P13" r:id="rId80"/>
+    <hyperlink ref="Q13" r:id="rId81"/>
+    <hyperlink ref="R13" r:id="rId82"/>
+    <hyperlink ref="U13" r:id="rId83"/>
+    <hyperlink ref="V13" r:id="rId84"/>
+    <hyperlink ref="M14" r:id="rId85"/>
+    <hyperlink ref="N14" r:id="rId86" location="rightToLeftDirection"/>
+    <hyperlink ref="P14" r:id="rId87"/>
+    <hyperlink ref="Q14" r:id="rId88"/>
+    <hyperlink ref="R14" r:id="rId89"/>
+    <hyperlink ref="U14" r:id="rId90"/>
+    <hyperlink ref="V14" r:id="rId91"/>
+    <hyperlink ref="M15" r:id="rId92"/>
+    <hyperlink ref="N15" r:id="rId93" location="rightToLeftDirection"/>
+    <hyperlink ref="P15" r:id="rId94"/>
+    <hyperlink ref="Q15" r:id="rId95"/>
+    <hyperlink ref="R15" r:id="rId96"/>
+    <hyperlink ref="U15" r:id="rId97"/>
+    <hyperlink ref="V15" r:id="rId98"/>
+    <hyperlink ref="M16" r:id="rId99"/>
+    <hyperlink ref="N16" r:id="rId100" location="rightToLeftDirection"/>
+    <hyperlink ref="P16" r:id="rId101"/>
+    <hyperlink ref="Q16" r:id="rId102"/>
+    <hyperlink ref="R16" r:id="rId103"/>
+    <hyperlink ref="U16" r:id="rId104"/>
+    <hyperlink ref="V16" r:id="rId105"/>
+    <hyperlink ref="M17" r:id="rId106"/>
+    <hyperlink ref="N17" r:id="rId107" location="rightToLeftDirection"/>
+    <hyperlink ref="P17" r:id="rId108"/>
+    <hyperlink ref="Q17" r:id="rId109"/>
+    <hyperlink ref="R17" r:id="rId110"/>
+    <hyperlink ref="U17" r:id="rId111"/>
+    <hyperlink ref="V17" r:id="rId112"/>
+    <hyperlink ref="M18" r:id="rId113"/>
+    <hyperlink ref="N18" r:id="rId114" location="rightToLeftDirection"/>
+    <hyperlink ref="P18" r:id="rId115"/>
+    <hyperlink ref="Q18" r:id="rId116"/>
+    <hyperlink ref="R18" r:id="rId117"/>
+    <hyperlink ref="U18" r:id="rId118"/>
+    <hyperlink ref="V18" r:id="rId119"/>
+    <hyperlink ref="M19" r:id="rId120"/>
+    <hyperlink ref="N19" r:id="rId121" location="rightToLeftDirection"/>
+    <hyperlink ref="P19" r:id="rId122"/>
+    <hyperlink ref="Q19" r:id="rId123"/>
+    <hyperlink ref="R19" r:id="rId124"/>
+    <hyperlink ref="U19" r:id="rId125"/>
+    <hyperlink ref="V19" r:id="rId126"/>
+    <hyperlink ref="M20" r:id="rId127"/>
+    <hyperlink ref="N20" r:id="rId128" location="rightToLeftDirection"/>
+    <hyperlink ref="P20" r:id="rId129"/>
+    <hyperlink ref="Q20" r:id="rId130"/>
+    <hyperlink ref="R20" r:id="rId131"/>
+    <hyperlink ref="U20" r:id="rId132"/>
+    <hyperlink ref="V20" r:id="rId133"/>
+    <hyperlink ref="M21" r:id="rId134"/>
+    <hyperlink ref="N21" r:id="rId135" location="rightToLeftDirection"/>
+    <hyperlink ref="P21" r:id="rId136"/>
+    <hyperlink ref="Q21" r:id="rId137"/>
+    <hyperlink ref="R21" r:id="rId138"/>
+    <hyperlink ref="U21" r:id="rId139"/>
+    <hyperlink ref="V21" r:id="rId140"/>
+    <hyperlink ref="M22" r:id="rId141"/>
+    <hyperlink ref="N22" r:id="rId142" location="rightToLeftDirection"/>
+    <hyperlink ref="P22" r:id="rId143"/>
+    <hyperlink ref="Q22" r:id="rId144"/>
+    <hyperlink ref="R22" r:id="rId145"/>
+    <hyperlink ref="U22" r:id="rId146"/>
+    <hyperlink ref="V22" r:id="rId147"/>
+    <hyperlink ref="M23" r:id="rId148"/>
+    <hyperlink ref="N23" r:id="rId149" location="rightToLeftDirection"/>
+    <hyperlink ref="P23" r:id="rId150"/>
+    <hyperlink ref="Q23" r:id="rId151"/>
+    <hyperlink ref="R23" r:id="rId152"/>
+    <hyperlink ref="U23" r:id="rId153"/>
+    <hyperlink ref="V23" r:id="rId154"/>
+    <hyperlink ref="M24" r:id="rId155"/>
+    <hyperlink ref="N24" r:id="rId156" location="rightToLeftDirection"/>
+    <hyperlink ref="P24" r:id="rId157"/>
+    <hyperlink ref="Q24" r:id="rId158"/>
+    <hyperlink ref="R24" r:id="rId159"/>
+    <hyperlink ref="U24" r:id="rId160"/>
+    <hyperlink ref="V24" r:id="rId161"/>
+    <hyperlink ref="M25" r:id="rId162"/>
+    <hyperlink ref="N25" r:id="rId163" location="rightToLeftDirection"/>
+    <hyperlink ref="P25" r:id="rId164"/>
+    <hyperlink ref="Q25" r:id="rId165"/>
+    <hyperlink ref="R25" r:id="rId166"/>
+    <hyperlink ref="U25" r:id="rId167"/>
+    <hyperlink ref="V25" r:id="rId168"/>
+    <hyperlink ref="M26" r:id="rId169"/>
+    <hyperlink ref="N26" r:id="rId170" location="rightToLeftDirection"/>
+    <hyperlink ref="P26" r:id="rId171"/>
+    <hyperlink ref="Q26" r:id="rId172"/>
+    <hyperlink ref="R26" r:id="rId173"/>
+    <hyperlink ref="U26" r:id="rId174"/>
+    <hyperlink ref="V26" r:id="rId175"/>
+    <hyperlink ref="M27" r:id="rId176"/>
+    <hyperlink ref="N27" r:id="rId177" location="rightToLeftDirection"/>
+    <hyperlink ref="P27" r:id="rId178"/>
+    <hyperlink ref="Q27" r:id="rId179"/>
+    <hyperlink ref="R27" r:id="rId180"/>
+    <hyperlink ref="U27" r:id="rId181"/>
+    <hyperlink ref="V27" r:id="rId182"/>
+    <hyperlink ref="M28" r:id="rId183"/>
+    <hyperlink ref="N28" r:id="rId184" location="rightToLeftDirection"/>
+    <hyperlink ref="P28" r:id="rId185"/>
+    <hyperlink ref="Q28" r:id="rId186"/>
+    <hyperlink ref="R28" r:id="rId187"/>
+    <hyperlink ref="U28" r:id="rId188"/>
+    <hyperlink ref="V28" r:id="rId189"/>
+    <hyperlink ref="M29" r:id="rId190"/>
+    <hyperlink ref="N29" r:id="rId191" location="rightToLeftDirection"/>
+    <hyperlink ref="P29" r:id="rId192"/>
+    <hyperlink ref="Q29" r:id="rId193"/>
+    <hyperlink ref="R29" r:id="rId194"/>
+    <hyperlink ref="U29" r:id="rId195"/>
+    <hyperlink ref="V29" r:id="rId196"/>
+    <hyperlink ref="M30" r:id="rId197"/>
+    <hyperlink ref="N30" r:id="rId198" location="rightToLeftDirection"/>
+    <hyperlink ref="P30" r:id="rId199"/>
+    <hyperlink ref="Q30" r:id="rId200"/>
+    <hyperlink ref="R30" r:id="rId201"/>
+    <hyperlink ref="U30" r:id="rId202"/>
+    <hyperlink ref="V30" r:id="rId203"/>
+    <hyperlink ref="M31" r:id="rId204"/>
+    <hyperlink ref="N31" r:id="rId205" location="rightToLeftDirection"/>
+    <hyperlink ref="P31" r:id="rId206"/>
+    <hyperlink ref="Q31" r:id="rId207"/>
+    <hyperlink ref="R31" r:id="rId208"/>
+    <hyperlink ref="U31" r:id="rId209"/>
+    <hyperlink ref="V31" r:id="rId210"/>
+    <hyperlink ref="M32" r:id="rId211"/>
+    <hyperlink ref="N32" r:id="rId212" location="rightToLeftDirection"/>
+    <hyperlink ref="P32" r:id="rId213"/>
+    <hyperlink ref="Q32" r:id="rId214"/>
+    <hyperlink ref="R32" r:id="rId215"/>
+    <hyperlink ref="U32" r:id="rId216"/>
+    <hyperlink ref="V32" r:id="rId217"/>
+    <hyperlink ref="M33" r:id="rId218"/>
+    <hyperlink ref="N33" r:id="rId219" location="rightToLeftDirection"/>
+    <hyperlink ref="P33" r:id="rId220"/>
+    <hyperlink ref="Q33" r:id="rId221"/>
+    <hyperlink ref="R33" r:id="rId222"/>
+    <hyperlink ref="U33" r:id="rId223"/>
+    <hyperlink ref="V33" r:id="rId224"/>
+    <hyperlink ref="M34" r:id="rId225"/>
+    <hyperlink ref="N34" r:id="rId226" location="rightToLeftDirection"/>
+    <hyperlink ref="P34" r:id="rId227"/>
+    <hyperlink ref="Q34" r:id="rId228"/>
+    <hyperlink ref="R34" r:id="rId229"/>
+    <hyperlink ref="U34" r:id="rId230"/>
+    <hyperlink ref="V34" r:id="rId231"/>
+    <hyperlink ref="M35" r:id="rId232"/>
+    <hyperlink ref="N35" r:id="rId233" location="rightToLeftDirection"/>
+    <hyperlink ref="P35" r:id="rId234"/>
+    <hyperlink ref="Q35" r:id="rId235"/>
+    <hyperlink ref="R35" r:id="rId236"/>
+    <hyperlink ref="U35" r:id="rId237"/>
+    <hyperlink ref="V35" r:id="rId238"/>
+    <hyperlink ref="M36" r:id="rId239"/>
+    <hyperlink ref="N36" r:id="rId240" location="rightToLeftDirection"/>
+    <hyperlink ref="P36" r:id="rId241"/>
+    <hyperlink ref="Q36" r:id="rId242"/>
+    <hyperlink ref="R36" r:id="rId243"/>
+    <hyperlink ref="U36" r:id="rId244"/>
+    <hyperlink ref="V36" r:id="rId245"/>
+    <hyperlink ref="M37" r:id="rId246"/>
+    <hyperlink ref="N37" r:id="rId247" location="rightToLeftDirection"/>
+    <hyperlink ref="P37" r:id="rId248"/>
+    <hyperlink ref="Q37" r:id="rId249"/>
+    <hyperlink ref="R37" r:id="rId250"/>
+    <hyperlink ref="U37" r:id="rId251"/>
+    <hyperlink ref="V37" r:id="rId252"/>
+    <hyperlink ref="M38" r:id="rId253"/>
+    <hyperlink ref="N38" r:id="rId254" location="rightToLeftDirection"/>
+    <hyperlink ref="P38" r:id="rId255"/>
+    <hyperlink ref="Q38" r:id="rId256"/>
+    <hyperlink ref="R38" r:id="rId257"/>
+    <hyperlink ref="U38" r:id="rId258"/>
+    <hyperlink ref="V38" r:id="rId259"/>
+    <hyperlink ref="M39" r:id="rId260"/>
+    <hyperlink ref="N39" r:id="rId261" location="rightToLeftDirection"/>
+    <hyperlink ref="P39" r:id="rId262"/>
+    <hyperlink ref="Q39" r:id="rId263"/>
+    <hyperlink ref="R39" r:id="rId264"/>
+    <hyperlink ref="U39" r:id="rId265"/>
+    <hyperlink ref="V39" r:id="rId266"/>
+    <hyperlink ref="M40" r:id="rId267"/>
+    <hyperlink ref="N40" r:id="rId268" location="rightToLeftDirection"/>
+    <hyperlink ref="P40" r:id="rId269"/>
+    <hyperlink ref="Q40" r:id="rId270"/>
+    <hyperlink ref="R40" r:id="rId271"/>
+    <hyperlink ref="U40" r:id="rId272"/>
+    <hyperlink ref="V40" r:id="rId273"/>
+    <hyperlink ref="M41" r:id="rId274"/>
+    <hyperlink ref="N41" r:id="rId275" location="rightToLeftDirection"/>
+    <hyperlink ref="P41" r:id="rId276"/>
+    <hyperlink ref="Q41" r:id="rId277"/>
+    <hyperlink ref="R41" r:id="rId278"/>
+    <hyperlink ref="U41" r:id="rId279"/>
+    <hyperlink ref="V41" r:id="rId280"/>
+    <hyperlink ref="M42" r:id="rId281"/>
+    <hyperlink ref="N42" r:id="rId282" location="rightToLeftDirection"/>
+    <hyperlink ref="P42" r:id="rId283"/>
+    <hyperlink ref="Q42" r:id="rId284"/>
+    <hyperlink ref="R42" r:id="rId285"/>
+    <hyperlink ref="U42" r:id="rId286"/>
+    <hyperlink ref="V42" r:id="rId287"/>
+    <hyperlink ref="M43" r:id="rId288"/>
+    <hyperlink ref="N43" r:id="rId289" location="rightToLeftDirection"/>
+    <hyperlink ref="P43" r:id="rId290"/>
+    <hyperlink ref="Q43" r:id="rId291"/>
+    <hyperlink ref="R43" r:id="rId292"/>
+    <hyperlink ref="U43" r:id="rId293"/>
+    <hyperlink ref="V43" r:id="rId294"/>
+    <hyperlink ref="M44" r:id="rId295"/>
+    <hyperlink ref="N44" r:id="rId296" location="rightToLeftDirection"/>
+    <hyperlink ref="P44" r:id="rId297"/>
+    <hyperlink ref="Q44" r:id="rId298"/>
+    <hyperlink ref="R44" r:id="rId299"/>
+    <hyperlink ref="U44" r:id="rId300"/>
+    <hyperlink ref="V44" r:id="rId301"/>
+    <hyperlink ref="M45" r:id="rId302"/>
+    <hyperlink ref="N45" r:id="rId303" location="rightToLeftDirection"/>
+    <hyperlink ref="P45" r:id="rId304"/>
+    <hyperlink ref="Q45" r:id="rId305"/>
+    <hyperlink ref="R45" r:id="rId306"/>
+    <hyperlink ref="U45" r:id="rId307"/>
+    <hyperlink ref="V45" r:id="rId308"/>
+    <hyperlink ref="M46" r:id="rId309"/>
+    <hyperlink ref="N46" r:id="rId310" location="rightToLeftDirection"/>
+    <hyperlink ref="P46" r:id="rId311"/>
+    <hyperlink ref="Q46" r:id="rId312"/>
+    <hyperlink ref="R46" r:id="rId313"/>
+    <hyperlink ref="U46" r:id="rId314"/>
+    <hyperlink ref="V46" r:id="rId315"/>
+    <hyperlink ref="M47" r:id="rId316"/>
+    <hyperlink ref="N47" r:id="rId317" location="rightToLeftDirection"/>
+    <hyperlink ref="P47" r:id="rId318"/>
+    <hyperlink ref="Q47" r:id="rId319"/>
+    <hyperlink ref="R47" r:id="rId320"/>
+    <hyperlink ref="U47" r:id="rId321"/>
+    <hyperlink ref="V47" r:id="rId322"/>
+    <hyperlink ref="M48" r:id="rId323"/>
+    <hyperlink ref="N48" r:id="rId324" location="rightToLeftDirection"/>
+    <hyperlink ref="P48" r:id="rId325"/>
+    <hyperlink ref="Q48" r:id="rId326"/>
+    <hyperlink ref="R48" r:id="rId327"/>
+    <hyperlink ref="U48" r:id="rId328"/>
+    <hyperlink ref="V48" r:id="rId329"/>
+    <hyperlink ref="M49" r:id="rId330"/>
+    <hyperlink ref="N49" r:id="rId331" location="rightToLeftDirection"/>
+    <hyperlink ref="P49" r:id="rId332"/>
+    <hyperlink ref="Q49" r:id="rId333"/>
+    <hyperlink ref="R49" r:id="rId334"/>
+    <hyperlink ref="U49" r:id="rId335"/>
+    <hyperlink ref="V49" r:id="rId336"/>
+    <hyperlink ref="M50" r:id="rId337"/>
+    <hyperlink ref="N50" r:id="rId338" location="rightToLeftDirection"/>
+    <hyperlink ref="P50" r:id="rId339"/>
+    <hyperlink ref="Q50" r:id="rId340"/>
+    <hyperlink ref="R50" r:id="rId341"/>
+    <hyperlink ref="U50" r:id="rId342"/>
+    <hyperlink ref="V50" r:id="rId343"/>
+    <hyperlink ref="M51" r:id="rId344"/>
+    <hyperlink ref="N51" r:id="rId345" location="rightToLeftDirection"/>
+    <hyperlink ref="P51" r:id="rId346"/>
+    <hyperlink ref="Q51" r:id="rId347"/>
+    <hyperlink ref="R51" r:id="rId348"/>
+    <hyperlink ref="U51" r:id="rId349"/>
+    <hyperlink ref="V51" r:id="rId350"/>
+    <hyperlink ref="M52" r:id="rId351"/>
+    <hyperlink ref="N52" r:id="rId352" location="rightToLeftDirection"/>
+    <hyperlink ref="P52" r:id="rId353"/>
+    <hyperlink ref="Q52" r:id="rId354"/>
+    <hyperlink ref="R52" r:id="rId355"/>
+    <hyperlink ref="U52" r:id="rId356"/>
+    <hyperlink ref="V52" r:id="rId357"/>
+    <hyperlink ref="M53" r:id="rId358"/>
+    <hyperlink ref="N53" r:id="rId359" location="rightToLeftDirection"/>
+    <hyperlink ref="P53" r:id="rId360"/>
+    <hyperlink ref="Q53" r:id="rId361"/>
+    <hyperlink ref="R53" r:id="rId362"/>
+    <hyperlink ref="U53" r:id="rId363"/>
+    <hyperlink ref="V53" r:id="rId364"/>
+    <hyperlink ref="M54" r:id="rId365"/>
+    <hyperlink ref="N54" r:id="rId366" location="rightToLeftDirection"/>
+    <hyperlink ref="P54" r:id="rId367"/>
+    <hyperlink ref="Q54" r:id="rId368"/>
+    <hyperlink ref="R54" r:id="rId369"/>
+    <hyperlink ref="U54" r:id="rId370"/>
+    <hyperlink ref="V54" r:id="rId371"/>
+    <hyperlink ref="M55" r:id="rId372"/>
+    <hyperlink ref="N55" r:id="rId373" location="rightToLeftDirection"/>
+    <hyperlink ref="P55" r:id="rId374"/>
+    <hyperlink ref="Q55" r:id="rId375"/>
+    <hyperlink ref="R55" r:id="rId376"/>
+    <hyperlink ref="U55" r:id="rId377"/>
+    <hyperlink ref="V55" r:id="rId378"/>
+    <hyperlink ref="M56" r:id="rId379"/>
+    <hyperlink ref="N56" r:id="rId380" location="rightToLeftDirection"/>
+    <hyperlink ref="P56" r:id="rId381"/>
+    <hyperlink ref="Q56" r:id="rId382"/>
+    <hyperlink ref="R56" r:id="rId383"/>
+    <hyperlink ref="U56" r:id="rId384"/>
+    <hyperlink ref="V56" r:id="rId385"/>
+    <hyperlink ref="M57" r:id="rId386"/>
+    <hyperlink ref="N57" r:id="rId387" location="rightToLeftDirection"/>
+    <hyperlink ref="P57" r:id="rId388"/>
+    <hyperlink ref="Q57" r:id="rId389"/>
+    <hyperlink ref="R57" r:id="rId390"/>
+    <hyperlink ref="U57" r:id="rId391"/>
+    <hyperlink ref="V57" r:id="rId392"/>
+    <hyperlink ref="M58" r:id="rId393"/>
+    <hyperlink ref="N58" r:id="rId394" location="rightToLeftDirection"/>
+    <hyperlink ref="P58" r:id="rId395"/>
+    <hyperlink ref="Q58" r:id="rId396"/>
+    <hyperlink ref="R58" r:id="rId397"/>
+    <hyperlink ref="U58" r:id="rId398"/>
+    <hyperlink ref="V58" r:id="rId399"/>
+    <hyperlink ref="M59" r:id="rId400"/>
+    <hyperlink ref="N59" r:id="rId401" location="rightToLeftDirection"/>
+    <hyperlink ref="P59" r:id="rId402"/>
+    <hyperlink ref="Q59" r:id="rId403"/>
+    <hyperlink ref="R59" r:id="rId404"/>
+    <hyperlink ref="U59" r:id="rId405"/>
+    <hyperlink ref="V59" r:id="rId406"/>
+    <hyperlink ref="M60" r:id="rId407"/>
+    <hyperlink ref="N60" r:id="rId408" location="rightToLeftDirection"/>
+    <hyperlink ref="P60" r:id="rId409"/>
+    <hyperlink ref="Q60" r:id="rId410"/>
+    <hyperlink ref="R60" r:id="rId411"/>
+    <hyperlink ref="U60" r:id="rId412"/>
+    <hyperlink ref="V60" r:id="rId413"/>
+    <hyperlink ref="M61" r:id="rId414"/>
+    <hyperlink ref="N61" r:id="rId415" location="rightToLeftDirection"/>
+    <hyperlink ref="P61" r:id="rId416"/>
+    <hyperlink ref="Q61" r:id="rId417"/>
+    <hyperlink ref="R61" r:id="rId418"/>
+    <hyperlink ref="U61" r:id="rId419"/>
+    <hyperlink ref="V61" r:id="rId420"/>
+    <hyperlink ref="M62" r:id="rId421"/>
+    <hyperlink ref="N62" r:id="rId422" location="rightToLeftDirection"/>
+    <hyperlink ref="P62" r:id="rId423"/>
+    <hyperlink ref="Q62" r:id="rId424"/>
+    <hyperlink ref="R62" r:id="rId425"/>
+    <hyperlink ref="U62" r:id="rId426"/>
+    <hyperlink ref="V62" r:id="rId427"/>
+    <hyperlink ref="M63" r:id="rId428"/>
+    <hyperlink ref="N63" r:id="rId429" location="rightToLeftDirection"/>
+    <hyperlink ref="P63" r:id="rId430"/>
+    <hyperlink ref="Q63" r:id="rId431"/>
+    <hyperlink ref="R63" r:id="rId432"/>
+    <hyperlink ref="U63" r:id="rId433"/>
+    <hyperlink ref="V63" r:id="rId434"/>
+    <hyperlink ref="M64" r:id="rId435"/>
+    <hyperlink ref="N64" r:id="rId436" location="rightToLeftDirection"/>
+    <hyperlink ref="P64" r:id="rId437"/>
+    <hyperlink ref="Q64" r:id="rId438"/>
+    <hyperlink ref="R64" r:id="rId439"/>
+    <hyperlink ref="U64" r:id="rId440"/>
+    <hyperlink ref="V64" r:id="rId441"/>
+    <hyperlink ref="M65" r:id="rId442"/>
+    <hyperlink ref="N65" r:id="rId443" location="rightToLeftDirection"/>
+    <hyperlink ref="P65" r:id="rId444"/>
+    <hyperlink ref="Q65" r:id="rId445"/>
+    <hyperlink ref="R65" r:id="rId446"/>
+    <hyperlink ref="U65" r:id="rId447"/>
+    <hyperlink ref="V65" r:id="rId448"/>
+    <hyperlink ref="M66" r:id="rId449"/>
+    <hyperlink ref="N66" r:id="rId450" location="rightToLeftDirection"/>
+    <hyperlink ref="P66" r:id="rId451"/>
+    <hyperlink ref="Q66" r:id="rId452"/>
+    <hyperlink ref="R66" r:id="rId453"/>
+    <hyperlink ref="U66" r:id="rId454"/>
+    <hyperlink ref="V66" r:id="rId455"/>
+    <hyperlink ref="M67" r:id="rId456"/>
+    <hyperlink ref="N67" r:id="rId457" location="rightToLeftDirection"/>
+    <hyperlink ref="P67" r:id="rId458"/>
+    <hyperlink ref="Q67" r:id="rId459"/>
+    <hyperlink ref="R67" r:id="rId460"/>
+    <hyperlink ref="U67" r:id="rId461"/>
+    <hyperlink ref="V67" r:id="rId462"/>
+    <hyperlink ref="M68" r:id="rId463"/>
+    <hyperlink ref="N68" r:id="rId464" location="rightToLeftDirection"/>
+    <hyperlink ref="P68" r:id="rId465"/>
+    <hyperlink ref="Q68" r:id="rId466"/>
+    <hyperlink ref="R68" r:id="rId467"/>
+    <hyperlink ref="U68" r:id="rId468"/>
+    <hyperlink ref="V68" r:id="rId469"/>
+    <hyperlink ref="M69" r:id="rId470"/>
+    <hyperlink ref="N69" r:id="rId471" location="rightToLeftDirection"/>
+    <hyperlink ref="P69" r:id="rId472"/>
+    <hyperlink ref="Q69" r:id="rId473"/>
+    <hyperlink ref="R69" r:id="rId474"/>
+    <hyperlink ref="U69" r:id="rId475"/>
+    <hyperlink ref="V69" r:id="rId476"/>
+    <hyperlink ref="M70" r:id="rId477"/>
+    <hyperlink ref="N70" r:id="rId478" location="rightToLeftDirection"/>
+    <hyperlink ref="P70" r:id="rId479"/>
+    <hyperlink ref="Q70" r:id="rId480"/>
+    <hyperlink ref="R70" r:id="rId481"/>
+    <hyperlink ref="U70" r:id="rId482"/>
+    <hyperlink ref="V70" r:id="rId483"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/docs/collections/koten/metadata/data.xlsx
+++ b/docs/collections/koten/metadata/data.xlsx
@@ -14,11 +14,14 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1295" uniqueCount="906">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1318" uniqueCount="929">
   <si>
     <t>書名</t>
   </si>
   <si>
+    <t>dcterms:title</t>
+  </si>
+  <si>
     <t>真言陀羅尼</t>
   </si>
   <si>
@@ -220,6 +223,9 @@
     <t>書名よみ</t>
   </si>
   <si>
+    <t>dcndl:titleTranscription</t>
+  </si>
+  <si>
     <t>シンゴン ダラニ</t>
   </si>
   <si>
@@ -421,6 +427,9 @@
     <t>他の書名</t>
   </si>
   <si>
+    <t>dcterms:alternative</t>
+  </si>
+  <si>
     <t>験號</t>
   </si>
   <si>
@@ -469,6 +478,9 @@
     <t>責任表示</t>
   </si>
   <si>
+    <t>dcterms:creator</t>
+  </si>
+  <si>
     <t>宗存[著]</t>
   </si>
   <si>
@@ -604,6 +616,9 @@
     <t>出版</t>
   </si>
   <si>
+    <t>dcterms:publisher</t>
+  </si>
+  <si>
     <t>刊</t>
   </si>
   <si>
@@ -706,6 +721,9 @@
     <t>注記</t>
   </si>
   <si>
+    <t>dcterms:description</t>
+  </si>
+  <si>
     <t>題簽   :  家伝通外印記  :  岡崎桂一郎  光義之印、 朱印光高ノ黒印アリ巻末ニ「家傳通外上下二巻謹記之  于時永祿二年巳未冬十月十一日、正五位下度會常辰抜萃」トアリ</t>
   </si>
   <si>
@@ -844,6 +862,9 @@
     <t>分類</t>
   </si>
   <si>
+    <t>dcterms:subject</t>
+  </si>
+  <si>
     <t>仏教</t>
   </si>
   <si>
@@ -940,6 +961,9 @@
     <t>原本請求記号</t>
   </si>
   <si>
+    <t>dcndl:callNumber</t>
+  </si>
+  <si>
     <t>A00:4011</t>
   </si>
   <si>
@@ -1150,6 +1174,9 @@
     <t>マイクロフィルム番号</t>
   </si>
   <si>
+    <t>dcndl:sourceIdentifier</t>
+  </si>
+  <si>
     <t>9-11-1</t>
   </si>
   <si>
@@ -1360,6 +1387,9 @@
     <t>形態</t>
   </si>
   <si>
+    <t>dcterms:extent</t>
+  </si>
+  <si>
     <t>1軸 ; 小</t>
   </si>
   <si>
@@ -1474,7 +1504,10 @@
     <t>2巻 ; 小</t>
   </si>
   <si>
-    <t>通番</t>
+    <t>ソート用項目</t>
+  </si>
+  <si>
+    <t>uterms:sort</t>
   </si>
   <si>
     <t>1</t>
@@ -1684,12 +1717,228 @@
     <t>9</t>
   </si>
   <si>
-    <t>年</t>
+    <t>ID</t>
+  </si>
+  <si>
+    <t>bibo:identifier</t>
+  </si>
+  <si>
+    <t>1f35990b-a490-1a63-2ab0-32cd98112cf7</t>
+  </si>
+  <si>
+    <t>70b9201c-60a5-1234-1ffd-83e62cc2416e</t>
+  </si>
+  <si>
+    <t>255d0375-6a99-273b-0f01-2534091452a4</t>
+  </si>
+  <si>
+    <t>d7186cac-857f-23f6-3e96-b84378a410c7</t>
+  </si>
+  <si>
+    <t>0ace76fd-80f5-5406-5607-0879c0737535</t>
+  </si>
+  <si>
+    <t>c391c0b7-642b-7f20-902d-6bfc6b3c8d0a</t>
+  </si>
+  <si>
+    <t>4d9020c1-0096-86d9-130f-c67d20ee2a85</t>
+  </si>
+  <si>
+    <t>dd296df6-38fa-a025-7371-5e7d2ceb2046</t>
+  </si>
+  <si>
+    <t>cd187574-954d-6fb0-0874-a3e39ad16ac2</t>
+  </si>
+  <si>
+    <t>2c2614d0-8c8e-8088-284a-92c977dc6774</t>
+  </si>
+  <si>
+    <t>b6aef1c0-7a83-1379-0094-7009198b4291</t>
+  </si>
+  <si>
+    <t>20e39fc5-a301-2156-20ea-8082dd32289f</t>
+  </si>
+  <si>
+    <t>f67b71a9-8295-7ee7-6b3c-43798c0182d6</t>
+  </si>
+  <si>
+    <t>04d80d2f-7432-00cd-a1d1-2f1333d84743</t>
+  </si>
+  <si>
+    <t>43ca8e1d-087d-5bdc-3bc3-372800f60cb6</t>
+  </si>
+  <si>
+    <t>7feffc5a-659e-02e0-40df-df42e9059307</t>
+  </si>
+  <si>
+    <t>586ea69e-70f6-36b0-9e8c-64ff5f4c3f09</t>
+  </si>
+  <si>
+    <t>b64a927b-3706-22ba-0aeb-550af6195588</t>
+  </si>
+  <si>
+    <t>de2a9abc-62d1-1943-32b4-156471ef8c5c</t>
+  </si>
+  <si>
+    <t>652f540f-9d21-0493-7728-52e359fe4292</t>
+  </si>
+  <si>
+    <t>0178c1cb-097d-7ac2-2563-307ae3b80eef</t>
+  </si>
+  <si>
+    <t>c572fe8a-6eb0-5b58-5b97-5f68e8786681</t>
+  </si>
+  <si>
+    <t>3c220085-7d42-833a-084a-64a5f9072686</t>
+  </si>
+  <si>
+    <t>a28d0e4c-8db1-8bb0-32f8-f8967759382a</t>
+  </si>
+  <si>
+    <t>931470e4-2b79-31e5-8f8f-88fda806638d</t>
+  </si>
+  <si>
+    <t>61efab97-3bcc-05f9-17a0-508a6296978f</t>
+  </si>
+  <si>
+    <t>5dfe4131-2a2a-4b42-92b9-561053727994</t>
+  </si>
+  <si>
+    <t>b2669333-a52b-5b93-3075-be6faf961e9e</t>
+  </si>
+  <si>
+    <t>2ed9a6cb-8162-5a55-06d0-5156269260cc</t>
+  </si>
+  <si>
+    <t>a6c6e6f3-84a9-339a-1eb9-52287aca5326</t>
+  </si>
+  <si>
+    <t>d30e06d5-8001-357f-3b60-469a2d9b1da8</t>
+  </si>
+  <si>
+    <t>7234f107-20b2-3791-0f00-2ae032039cd0</t>
+  </si>
+  <si>
+    <t>feb9c85d-3819-213f-21ae-a97abd5e6472</t>
+  </si>
+  <si>
+    <t>7dbdd04c-5fd9-902e-631a-7d3d199d1ed8</t>
+  </si>
+  <si>
+    <t>d5007242-2ecb-8bfd-0604-2083fc477fff</t>
+  </si>
+  <si>
+    <t>6dadf5fc-63b2-43b2-8459-fd004ff15ab3</t>
+  </si>
+  <si>
+    <t>e080e17f-84a0-18b9-686e-d4e496200318</t>
+  </si>
+  <si>
+    <t>dfd2b41e-674b-3add-832f-44cf689100f0</t>
+  </si>
+  <si>
+    <t>87131215-927e-72ea-2c14-5a7995585566</t>
+  </si>
+  <si>
+    <t>4bfbdac2-9c96-3d5b-4582-e0b237826c0d</t>
+  </si>
+  <si>
+    <t>51763842-91db-9f72-a2d2-87cf990007e1</t>
+  </si>
+  <si>
+    <t>1f2ed9da-a2cf-4033-2086-2d3e3fb09386</t>
+  </si>
+  <si>
+    <t>5778a1c4-1b8f-1dfc-24b5-38be7fcc1dab</t>
+  </si>
+  <si>
+    <t>78ae6f7f-5f09-8d58-9f56-366dfa599642</t>
+  </si>
+  <si>
+    <t>ecdb69c8-a18d-42d5-3df7-f2f4bccf096a</t>
+  </si>
+  <si>
+    <t>ca9dfffb-8019-569c-7af5-b0e1e79422c1</t>
+  </si>
+  <si>
+    <t>ed146214-5a40-5419-7770-bdb8f8ef4ae2</t>
+  </si>
+  <si>
+    <t>cc0ebcb2-3979-67e7-712b-9e1f2a688361</t>
+  </si>
+  <si>
+    <t>276ad5b5-9b59-9035-1912-c22ddbf56cd5</t>
+  </si>
+  <si>
+    <t>101a903c-9a91-226d-2b7a-f1b5853d1d6d</t>
+  </si>
+  <si>
+    <t>e260ea9c-6ee4-18ef-6895-c2540d0b84d6</t>
+  </si>
+  <si>
+    <t>720ab3e9-54b3-12b4-50d2-59de91f43e87</t>
+  </si>
+  <si>
+    <t>7a2f0687-8592-8cb4-948c-644fae3d0b60</t>
+  </si>
+  <si>
+    <t>70e9efdf-16bf-4960-3e2d-9ef9a13a4405</t>
+  </si>
+  <si>
+    <t>b570aa8c-6e56-92b9-7bc2-67a459cd66df</t>
+  </si>
+  <si>
+    <t>16ea5dcc-3bea-13be-5929-c58d75822997</t>
+  </si>
+  <si>
+    <t>b13ff573-4c25-98fc-43ab-9c85ab1f3a5c</t>
+  </si>
+  <si>
+    <t>9301d388-95ee-8b41-1c3c-c2951dae8693</t>
+  </si>
+  <si>
+    <t>88930f9c-4b42-93fb-73fe-dfd44f8f2460</t>
+  </si>
+  <si>
+    <t>2cb8bbad-724a-20ce-1f72-fd8cc7c436a4</t>
+  </si>
+  <si>
+    <t>1354de31-0d49-75ba-a01d-5310be0a0a8d</t>
+  </si>
+  <si>
+    <t>01466091-970c-4f8a-2e36-bfb0e88733c8</t>
+  </si>
+  <si>
+    <t>95db0d93-3107-4491-2084-9b7783f35e28</t>
+  </si>
+  <si>
+    <t>d8480473-998e-5d50-41a5-f1464dd215df</t>
+  </si>
+  <si>
+    <t>06582fd8-23f9-121f-7314-1fbb0dc1438b</t>
+  </si>
+  <si>
+    <t>262f6110-5c5b-09d4-7a28-0c0019fa5a79</t>
+  </si>
+  <si>
+    <t>00e1f95d-5bd4-0b85-403e-b0eb6cd422d4</t>
+  </si>
+  <si>
+    <t>ウェブサイトURL</t>
+  </si>
+  <si>
+    <t>dcterms:isPartOf</t>
+  </si>
+  <si>
+    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/s/koten/</t>
   </si>
   <si>
     <t>アイテムURL</t>
   </si>
   <si>
+    <t>dcterms:relation</t>
+  </si>
+  <si>
     <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/s/koten/document/1f35990b-a490-1a63-2ab0-32cd98112cf7</t>
   </si>
   <si>
@@ -1891,429 +2140,459 @@
     <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/s/koten/document/00e1f95d-5bd4-0b85-403e-b0eb6cd422d4</t>
   </si>
   <si>
+    <t>利用条件</t>
+  </si>
+  <si>
+    <t>dcterms:rights</t>
+  </si>
+  <si>
+    <t>https://www.lib.u-tokyo.ac.jp/ja/library/general/reuse</t>
+  </si>
+  <si>
+    <t>サムネイル</t>
+  </si>
+  <si>
+    <t>foaf:thumbnail</t>
+  </si>
+  <si>
+    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/files/square/172011/shing001.jpg</t>
+  </si>
+  <si>
+    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/files/square/171979/kade1001.jpg</t>
+  </si>
+  <si>
+    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/files/square/171982/kanre001.jpg</t>
+  </si>
+  <si>
+    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/files/square/171992/komi1001.jpg</t>
+  </si>
+  <si>
+    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/files/square/172018/sins0001.jpg</t>
+  </si>
+  <si>
+    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/files/square/172031/zokk0001.jpg</t>
+  </si>
+  <si>
+    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/files/square/172000/myak0001.jpg</t>
+  </si>
+  <si>
+    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/files/square/171973/hish0001.jpg</t>
+  </si>
+  <si>
+    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/files/square/171966/chog1001.jpg</t>
+  </si>
+  <si>
+    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/files/square/171975/ichi0001.jpg</t>
+  </si>
+  <si>
+    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/files/square/172029/yoshit01.jpg</t>
+  </si>
+  <si>
+    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/files/square/171985/keng0001.jpg</t>
+  </si>
+  <si>
+    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/files/square/172027/unri1001.jpg</t>
+  </si>
+  <si>
+    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/files/square/172016/shos1001.jpg</t>
+  </si>
+  <si>
+    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/files/square/172022/tenj0001.jpg</t>
+  </si>
+  <si>
+    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/files/square/171965/bunsh001.jpg</t>
+  </si>
+  <si>
+    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/files/square/172007/rosh0001.jpg</t>
+  </si>
+  <si>
+    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/files/square/172026/tsuki001.jpg</t>
+  </si>
+  <si>
+    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/files/square/172024/toei0001.jpg</t>
+  </si>
+  <si>
+    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/files/square/172023/tenm0101.jpg</t>
+  </si>
+  <si>
+    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/files/square/172010/sazui001.jpg</t>
+  </si>
+  <si>
+    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/files/square/171974/hyakk001.jpg</t>
+  </si>
+  <si>
+    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/files/square/172025/tona0001.jpg</t>
+  </si>
+  <si>
+    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/files/square/171980/kaita001.jpg</t>
+  </si>
+  <si>
+    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/files/square/172002/nenju001.jpg</t>
+  </si>
+  <si>
+    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/files/square/172006/rong1001.jpg</t>
+  </si>
+  <si>
+    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/files/square/172017/shuy1001.jpg</t>
+  </si>
+  <si>
+    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/files/square/171963/arino101.jpg</t>
+  </si>
+  <si>
+    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/files/square/171964/bunr0101.jpg</t>
+  </si>
+  <si>
+    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/files/square/172008/ryuk0001.jpg</t>
+  </si>
+  <si>
+    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/files/square/172030/yotsu001.jpg</t>
+  </si>
+  <si>
+    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/files/square/171988/koatb001.jpg</t>
+  </si>
+  <si>
+    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/files/square/171986/kins1001.jpg</t>
+  </si>
+  <si>
+    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/files/square/172012/shin1001.jpg</t>
+  </si>
+  <si>
+    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/files/square/172013/sishu001.jpg</t>
+  </si>
+  <si>
+    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/files/square/171971/ghaha001.jpg</t>
+  </si>
+  <si>
+    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/files/square/171991/koku0001.jpg</t>
+  </si>
+  <si>
+    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/files/square/171996/kyuhk001.jpg</t>
+  </si>
+  <si>
+    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/files/square/171998/kyuki001.jpg</t>
+  </si>
+  <si>
+    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/files/square/171997/kyuhw001.jpg</t>
+  </si>
+  <si>
+    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/files/square/171969/gakus001.jpg</t>
+  </si>
+  <si>
+    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/files/square/171970/geik1001.jpg</t>
+  </si>
+  <si>
+    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/files/square/171990/koko0001.jpg</t>
+  </si>
+  <si>
+    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/files/square/172019/soga0101.jpg</t>
+  </si>
+  <si>
+    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/files/square/171999/moku1001.jpg</t>
+  </si>
+  <si>
+    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/files/square/171976/imawa001.jpg</t>
+  </si>
+  <si>
+    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/files/square/172028/wase0001.jpg</t>
+  </si>
+  <si>
+    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/files/square/171983/kawari01.jpg</t>
+  </si>
+  <si>
+    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/files/square/171977/inut0001.jpg</t>
+  </si>
+  <si>
+    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/files/square/172015/shose001.jpg</t>
+  </si>
+  <si>
+    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/files/square/172020/sono1001.jpg</t>
+  </si>
+  <si>
+    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/files/square/171995/kuzuh001.jpg</t>
+  </si>
+  <si>
+    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/files/square/172009/satsu001.jpg</t>
+  </si>
+  <si>
+    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/files/square/172021/teiki001.jpg</t>
+  </si>
+  <si>
+    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/files/square/171972/gkojo001.jpg</t>
+  </si>
+  <si>
+    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/files/square/171978/jodo0001.jpg</t>
+  </si>
+  <si>
+    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/files/square/171984/keiku001.jpg</t>
+  </si>
+  <si>
+    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/files/square/172003/ochi0001.jpg</t>
+  </si>
+  <si>
+    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/files/square/171994/kuri1.jpg</t>
+  </si>
+  <si>
+    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/files/square/171981/kama0001.jpg</t>
+  </si>
+  <si>
+    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/files/square/171967/daij0001.jpg</t>
+  </si>
+  <si>
+    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/files/square/171987/koat0001.jpg</t>
+  </si>
+  <si>
+    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/files/square/171993/komo1001.jpg</t>
+  </si>
+  <si>
+    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/files/square/172004/riku1001.jpg</t>
+  </si>
+  <si>
+    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/files/square/172014/shoky001.jpg</t>
+  </si>
+  <si>
+    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/files/square/171968/engi0001.jpg</t>
+  </si>
+  <si>
+    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/files/square/172001/neko0001.jpg</t>
+  </si>
+  <si>
+    <t>機械可読ドキュメント</t>
+  </si>
+  <si>
+    <t>rdfs:seeAlso</t>
+  </si>
+  <si>
+    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/api/items/172011</t>
+  </si>
+  <si>
+    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/api/items/171979</t>
+  </si>
+  <si>
+    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/api/items/171982</t>
+  </si>
+  <si>
+    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/api/items/171992</t>
+  </si>
+  <si>
+    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/api/items/172018</t>
+  </si>
+  <si>
+    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/api/items/172031</t>
+  </si>
+  <si>
+    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/api/items/172000</t>
+  </si>
+  <si>
+    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/api/items/171973</t>
+  </si>
+  <si>
+    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/api/items/171966</t>
+  </si>
+  <si>
+    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/api/items/171975</t>
+  </si>
+  <si>
+    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/api/items/172029</t>
+  </si>
+  <si>
+    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/api/items/171985</t>
+  </si>
+  <si>
+    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/api/items/172027</t>
+  </si>
+  <si>
+    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/api/items/172016</t>
+  </si>
+  <si>
+    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/api/items/172022</t>
+  </si>
+  <si>
+    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/api/items/171965</t>
+  </si>
+  <si>
+    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/api/items/172007</t>
+  </si>
+  <si>
+    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/api/items/172026</t>
+  </si>
+  <si>
+    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/api/items/172024</t>
+  </si>
+  <si>
+    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/api/items/172023</t>
+  </si>
+  <si>
+    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/api/items/172010</t>
+  </si>
+  <si>
+    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/api/items/171974</t>
+  </si>
+  <si>
+    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/api/items/172025</t>
+  </si>
+  <si>
+    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/api/items/171980</t>
+  </si>
+  <si>
+    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/api/items/172002</t>
+  </si>
+  <si>
+    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/api/items/172006</t>
+  </si>
+  <si>
+    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/api/items/172017</t>
+  </si>
+  <si>
+    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/api/items/171963</t>
+  </si>
+  <si>
+    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/api/items/171964</t>
+  </si>
+  <si>
+    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/api/items/172008</t>
+  </si>
+  <si>
+    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/api/items/172030</t>
+  </si>
+  <si>
+    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/api/items/171988</t>
+  </si>
+  <si>
+    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/api/items/171986</t>
+  </si>
+  <si>
+    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/api/items/172012</t>
+  </si>
+  <si>
+    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/api/items/172013</t>
+  </si>
+  <si>
+    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/api/items/171971</t>
+  </si>
+  <si>
+    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/api/items/171991</t>
+  </si>
+  <si>
+    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/api/items/171996</t>
+  </si>
+  <si>
+    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/api/items/171998</t>
+  </si>
+  <si>
+    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/api/items/171997</t>
+  </si>
+  <si>
+    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/api/items/171969</t>
+  </si>
+  <si>
+    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/api/items/171970</t>
+  </si>
+  <si>
+    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/api/items/171990</t>
+  </si>
+  <si>
+    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/api/items/172019</t>
+  </si>
+  <si>
+    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/api/items/171999</t>
+  </si>
+  <si>
+    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/api/items/171976</t>
+  </si>
+  <si>
+    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/api/items/172028</t>
+  </si>
+  <si>
+    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/api/items/171983</t>
+  </si>
+  <si>
+    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/api/items/171977</t>
+  </si>
+  <si>
+    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/api/items/172015</t>
+  </si>
+  <si>
+    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/api/items/172020</t>
+  </si>
+  <si>
+    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/api/items/171995</t>
+  </si>
+  <si>
+    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/api/items/172009</t>
+  </si>
+  <si>
+    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/api/items/172021</t>
+  </si>
+  <si>
+    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/api/items/171972</t>
+  </si>
+  <si>
+    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/api/items/171978</t>
+  </si>
+  <si>
+    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/api/items/171984</t>
+  </si>
+  <si>
+    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/api/items/172003</t>
+  </si>
+  <si>
+    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/api/items/171994</t>
+  </si>
+  <si>
+    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/api/items/171981</t>
+  </si>
+  <si>
+    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/api/items/171967</t>
+  </si>
+  <si>
+    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/api/items/171987</t>
+  </si>
+  <si>
+    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/api/items/171993</t>
+  </si>
+  <si>
+    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/api/items/172004</t>
+  </si>
+  <si>
+    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/api/items/172014</t>
+  </si>
+  <si>
+    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/api/items/171968</t>
+  </si>
+  <si>
+    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/api/items/172001</t>
+  </si>
+  <si>
+    <t>帰属</t>
+  </si>
+  <si>
+    <t>sc:attributionLabel</t>
+  </si>
+  <si>
     <t>viewingDirection</t>
   </si>
   <si>
+    <t>sc:viewingDirection</t>
+  </si>
+  <si>
     <t>http://iiif.io/api/presentation/2#rightToLeftDirection</t>
   </si>
   <si>
-    <t>ID</t>
-  </si>
-  <si>
-    <t>1f35990b-a490-1a63-2ab0-32cd98112cf7</t>
-  </si>
-  <si>
-    <t>70b9201c-60a5-1234-1ffd-83e62cc2416e</t>
-  </si>
-  <si>
-    <t>255d0375-6a99-273b-0f01-2534091452a4</t>
-  </si>
-  <si>
-    <t>d7186cac-857f-23f6-3e96-b84378a410c7</t>
-  </si>
-  <si>
-    <t>0ace76fd-80f5-5406-5607-0879c0737535</t>
-  </si>
-  <si>
-    <t>c391c0b7-642b-7f20-902d-6bfc6b3c8d0a</t>
-  </si>
-  <si>
-    <t>4d9020c1-0096-86d9-130f-c67d20ee2a85</t>
-  </si>
-  <si>
-    <t>dd296df6-38fa-a025-7371-5e7d2ceb2046</t>
-  </si>
-  <si>
-    <t>cd187574-954d-6fb0-0874-a3e39ad16ac2</t>
-  </si>
-  <si>
-    <t>2c2614d0-8c8e-8088-284a-92c977dc6774</t>
-  </si>
-  <si>
-    <t>b6aef1c0-7a83-1379-0094-7009198b4291</t>
-  </si>
-  <si>
-    <t>20e39fc5-a301-2156-20ea-8082dd32289f</t>
-  </si>
-  <si>
-    <t>f67b71a9-8295-7ee7-6b3c-43798c0182d6</t>
-  </si>
-  <si>
-    <t>04d80d2f-7432-00cd-a1d1-2f1333d84743</t>
-  </si>
-  <si>
-    <t>43ca8e1d-087d-5bdc-3bc3-372800f60cb6</t>
-  </si>
-  <si>
-    <t>7feffc5a-659e-02e0-40df-df42e9059307</t>
-  </si>
-  <si>
-    <t>586ea69e-70f6-36b0-9e8c-64ff5f4c3f09</t>
-  </si>
-  <si>
-    <t>b64a927b-3706-22ba-0aeb-550af6195588</t>
-  </si>
-  <si>
-    <t>de2a9abc-62d1-1943-32b4-156471ef8c5c</t>
-  </si>
-  <si>
-    <t>652f540f-9d21-0493-7728-52e359fe4292</t>
-  </si>
-  <si>
-    <t>0178c1cb-097d-7ac2-2563-307ae3b80eef</t>
-  </si>
-  <si>
-    <t>c572fe8a-6eb0-5b58-5b97-5f68e8786681</t>
-  </si>
-  <si>
-    <t>3c220085-7d42-833a-084a-64a5f9072686</t>
-  </si>
-  <si>
-    <t>a28d0e4c-8db1-8bb0-32f8-f8967759382a</t>
-  </si>
-  <si>
-    <t>931470e4-2b79-31e5-8f8f-88fda806638d</t>
-  </si>
-  <si>
-    <t>61efab97-3bcc-05f9-17a0-508a6296978f</t>
-  </si>
-  <si>
-    <t>5dfe4131-2a2a-4b42-92b9-561053727994</t>
-  </si>
-  <si>
-    <t>b2669333-a52b-5b93-3075-be6faf961e9e</t>
-  </si>
-  <si>
-    <t>2ed9a6cb-8162-5a55-06d0-5156269260cc</t>
-  </si>
-  <si>
-    <t>a6c6e6f3-84a9-339a-1eb9-52287aca5326</t>
-  </si>
-  <si>
-    <t>d30e06d5-8001-357f-3b60-469a2d9b1da8</t>
-  </si>
-  <si>
-    <t>7234f107-20b2-3791-0f00-2ae032039cd0</t>
-  </si>
-  <si>
-    <t>feb9c85d-3819-213f-21ae-a97abd5e6472</t>
-  </si>
-  <si>
-    <t>7dbdd04c-5fd9-902e-631a-7d3d199d1ed8</t>
-  </si>
-  <si>
-    <t>d5007242-2ecb-8bfd-0604-2083fc477fff</t>
-  </si>
-  <si>
-    <t>6dadf5fc-63b2-43b2-8459-fd004ff15ab3</t>
-  </si>
-  <si>
-    <t>e080e17f-84a0-18b9-686e-d4e496200318</t>
-  </si>
-  <si>
-    <t>dfd2b41e-674b-3add-832f-44cf689100f0</t>
-  </si>
-  <si>
-    <t>87131215-927e-72ea-2c14-5a7995585566</t>
-  </si>
-  <si>
-    <t>4bfbdac2-9c96-3d5b-4582-e0b237826c0d</t>
-  </si>
-  <si>
-    <t>51763842-91db-9f72-a2d2-87cf990007e1</t>
-  </si>
-  <si>
-    <t>1f2ed9da-a2cf-4033-2086-2d3e3fb09386</t>
-  </si>
-  <si>
-    <t>5778a1c4-1b8f-1dfc-24b5-38be7fcc1dab</t>
-  </si>
-  <si>
-    <t>78ae6f7f-5f09-8d58-9f56-366dfa599642</t>
-  </si>
-  <si>
-    <t>ecdb69c8-a18d-42d5-3df7-f2f4bccf096a</t>
-  </si>
-  <si>
-    <t>ca9dfffb-8019-569c-7af5-b0e1e79422c1</t>
-  </si>
-  <si>
-    <t>ed146214-5a40-5419-7770-bdb8f8ef4ae2</t>
-  </si>
-  <si>
-    <t>cc0ebcb2-3979-67e7-712b-9e1f2a688361</t>
-  </si>
-  <si>
-    <t>276ad5b5-9b59-9035-1912-c22ddbf56cd5</t>
-  </si>
-  <si>
-    <t>101a903c-9a91-226d-2b7a-f1b5853d1d6d</t>
-  </si>
-  <si>
-    <t>e260ea9c-6ee4-18ef-6895-c2540d0b84d6</t>
-  </si>
-  <si>
-    <t>720ab3e9-54b3-12b4-50d2-59de91f43e87</t>
-  </si>
-  <si>
-    <t>7a2f0687-8592-8cb4-948c-644fae3d0b60</t>
-  </si>
-  <si>
-    <t>70e9efdf-16bf-4960-3e2d-9ef9a13a4405</t>
-  </si>
-  <si>
-    <t>b570aa8c-6e56-92b9-7bc2-67a459cd66df</t>
-  </si>
-  <si>
-    <t>16ea5dcc-3bea-13be-5929-c58d75822997</t>
-  </si>
-  <si>
-    <t>b13ff573-4c25-98fc-43ab-9c85ab1f3a5c</t>
-  </si>
-  <si>
-    <t>9301d388-95ee-8b41-1c3c-c2951dae8693</t>
-  </si>
-  <si>
-    <t>88930f9c-4b42-93fb-73fe-dfd44f8f2460</t>
-  </si>
-  <si>
-    <t>2cb8bbad-724a-20ce-1f72-fd8cc7c436a4</t>
-  </si>
-  <si>
-    <t>1354de31-0d49-75ba-a01d-5310be0a0a8d</t>
-  </si>
-  <si>
-    <t>01466091-970c-4f8a-2e36-bfb0e88733c8</t>
-  </si>
-  <si>
-    <t>95db0d93-3107-4491-2084-9b7783f35e28</t>
-  </si>
-  <si>
-    <t>d8480473-998e-5d50-41a5-f1464dd215df</t>
-  </si>
-  <si>
-    <t>06582fd8-23f9-121f-7314-1fbb0dc1438b</t>
-  </si>
-  <si>
-    <t>262f6110-5c5b-09d4-7a28-0c0019fa5a79</t>
-  </si>
-  <si>
-    <t>00e1f95d-5bd4-0b85-403e-b0eb6cd422d4</t>
-  </si>
-  <si>
-    <t>機械可読ドキュメント</t>
-  </si>
-  <si>
-    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/api/items/172011</t>
-  </si>
-  <si>
-    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/api/items/171979</t>
-  </si>
-  <si>
-    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/api/items/171982</t>
-  </si>
-  <si>
-    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/api/items/171992</t>
-  </si>
-  <si>
-    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/api/items/172018</t>
-  </si>
-  <si>
-    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/api/items/172031</t>
-  </si>
-  <si>
-    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/api/items/172000</t>
-  </si>
-  <si>
-    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/api/items/171973</t>
-  </si>
-  <si>
-    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/api/items/171966</t>
-  </si>
-  <si>
-    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/api/items/171975</t>
-  </si>
-  <si>
-    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/api/items/172029</t>
-  </si>
-  <si>
-    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/api/items/171985</t>
-  </si>
-  <si>
-    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/api/items/172027</t>
-  </si>
-  <si>
-    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/api/items/172016</t>
-  </si>
-  <si>
-    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/api/items/172022</t>
-  </si>
-  <si>
-    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/api/items/171965</t>
-  </si>
-  <si>
-    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/api/items/172007</t>
-  </si>
-  <si>
-    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/api/items/172026</t>
-  </si>
-  <si>
-    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/api/items/172024</t>
-  </si>
-  <si>
-    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/api/items/172023</t>
-  </si>
-  <si>
-    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/api/items/172010</t>
-  </si>
-  <si>
-    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/api/items/171974</t>
-  </si>
-  <si>
-    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/api/items/172025</t>
-  </si>
-  <si>
-    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/api/items/171980</t>
-  </si>
-  <si>
-    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/api/items/172002</t>
-  </si>
-  <si>
-    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/api/items/172006</t>
-  </si>
-  <si>
-    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/api/items/172017</t>
-  </si>
-  <si>
-    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/api/items/171963</t>
-  </si>
-  <si>
-    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/api/items/171964</t>
-  </si>
-  <si>
-    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/api/items/172008</t>
-  </si>
-  <si>
-    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/api/items/172030</t>
-  </si>
-  <si>
-    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/api/items/171988</t>
-  </si>
-  <si>
-    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/api/items/171986</t>
-  </si>
-  <si>
-    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/api/items/172012</t>
-  </si>
-  <si>
-    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/api/items/172013</t>
-  </si>
-  <si>
-    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/api/items/171971</t>
-  </si>
-  <si>
-    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/api/items/171991</t>
-  </si>
-  <si>
-    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/api/items/171996</t>
-  </si>
-  <si>
-    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/api/items/171998</t>
-  </si>
-  <si>
-    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/api/items/171997</t>
-  </si>
-  <si>
-    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/api/items/171969</t>
-  </si>
-  <si>
-    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/api/items/171970</t>
-  </si>
-  <si>
-    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/api/items/171990</t>
-  </si>
-  <si>
-    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/api/items/172019</t>
-  </si>
-  <si>
-    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/api/items/171999</t>
-  </si>
-  <si>
-    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/api/items/171976</t>
-  </si>
-  <si>
-    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/api/items/172028</t>
-  </si>
-  <si>
-    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/api/items/171983</t>
-  </si>
-  <si>
-    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/api/items/171977</t>
-  </si>
-  <si>
-    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/api/items/172015</t>
-  </si>
-  <si>
-    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/api/items/172020</t>
-  </si>
-  <si>
-    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/api/items/171995</t>
-  </si>
-  <si>
-    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/api/items/172009</t>
-  </si>
-  <si>
-    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/api/items/172021</t>
-  </si>
-  <si>
-    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/api/items/171972</t>
-  </si>
-  <si>
-    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/api/items/171978</t>
-  </si>
-  <si>
-    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/api/items/171984</t>
-  </si>
-  <si>
-    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/api/items/172003</t>
-  </si>
-  <si>
-    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/api/items/171994</t>
-  </si>
-  <si>
-    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/api/items/171981</t>
-  </si>
-  <si>
-    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/api/items/171967</t>
-  </si>
-  <si>
-    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/api/items/171987</t>
-  </si>
-  <si>
-    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/api/items/171993</t>
-  </si>
-  <si>
-    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/api/items/172004</t>
-  </si>
-  <si>
-    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/api/items/172014</t>
-  </si>
-  <si>
-    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/api/items/171968</t>
-  </si>
-  <si>
-    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/api/items/172001</t>
-  </si>
-  <si>
-    <t>ウェブサイトURL</t>
-  </si>
-  <si>
-    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/s/koten/</t>
+    <t>コレクション</t>
+  </si>
+  <si>
+    <t>uterms:databaseLabel</t>
+  </si>
+  <si>
+    <t>総合図書館所蔵古典籍</t>
   </si>
   <si>
     <t>IIIFマニフェストURI</t>
   </si>
   <si>
+    <t>uterms:manifestUri</t>
+  </si>
+  <si>
     <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/iiif/172011/manifest</t>
   </si>
   <si>
@@ -2515,223 +2794,13 @@
     <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/iiif/172001/manifest</t>
   </si>
   <si>
-    <t>帰属</t>
-  </si>
-  <si>
-    <t>コレクション</t>
-  </si>
-  <si>
-    <t>総合図書館所蔵古典籍</t>
-  </si>
-  <si>
-    <t>サムネイル</t>
-  </si>
-  <si>
-    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/files/square/172011/shing001.jpg</t>
-  </si>
-  <si>
-    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/files/square/171979/kade1001.jpg</t>
-  </si>
-  <si>
-    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/files/square/171982/kanre001.jpg</t>
-  </si>
-  <si>
-    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/files/square/171992/komi1001.jpg</t>
-  </si>
-  <si>
-    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/files/square/172018/sins0001.jpg</t>
-  </si>
-  <si>
-    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/files/square/172031/zokk0001.jpg</t>
-  </si>
-  <si>
-    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/files/square/172000/myak0001.jpg</t>
-  </si>
-  <si>
-    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/files/square/171973/hish0001.jpg</t>
-  </si>
-  <si>
-    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/files/square/171966/chog1001.jpg</t>
-  </si>
-  <si>
-    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/files/square/171975/ichi0001.jpg</t>
-  </si>
-  <si>
-    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/files/square/172029/yoshit01.jpg</t>
-  </si>
-  <si>
-    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/files/square/171985/keng0001.jpg</t>
-  </si>
-  <si>
-    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/files/square/172027/unri1001.jpg</t>
-  </si>
-  <si>
-    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/files/square/172016/shos1001.jpg</t>
-  </si>
-  <si>
-    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/files/square/172022/tenj0001.jpg</t>
-  </si>
-  <si>
-    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/files/square/171965/bunsh001.jpg</t>
-  </si>
-  <si>
-    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/files/square/172007/rosh0001.jpg</t>
-  </si>
-  <si>
-    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/files/square/172026/tsuki001.jpg</t>
-  </si>
-  <si>
-    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/files/square/172024/toei0001.jpg</t>
-  </si>
-  <si>
-    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/files/square/172023/tenm0101.jpg</t>
-  </si>
-  <si>
-    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/files/square/172010/sazui001.jpg</t>
-  </si>
-  <si>
-    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/files/square/171974/hyakk001.jpg</t>
-  </si>
-  <si>
-    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/files/square/172025/tona0001.jpg</t>
-  </si>
-  <si>
-    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/files/square/171980/kaita001.jpg</t>
-  </si>
-  <si>
-    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/files/square/172002/nenju001.jpg</t>
-  </si>
-  <si>
-    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/files/square/172006/rong1001.jpg</t>
-  </si>
-  <si>
-    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/files/square/172017/shuy1001.jpg</t>
-  </si>
-  <si>
-    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/files/square/171963/arino101.jpg</t>
-  </si>
-  <si>
-    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/files/square/171964/bunr0101.jpg</t>
-  </si>
-  <si>
-    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/files/square/172008/ryuk0001.jpg</t>
-  </si>
-  <si>
-    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/files/square/172030/yotsu001.jpg</t>
-  </si>
-  <si>
-    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/files/square/171988/koatb001.jpg</t>
-  </si>
-  <si>
-    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/files/square/171986/kins1001.jpg</t>
-  </si>
-  <si>
-    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/files/square/172012/shin1001.jpg</t>
-  </si>
-  <si>
-    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/files/square/172013/sishu001.jpg</t>
-  </si>
-  <si>
-    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/files/square/171971/ghaha001.jpg</t>
-  </si>
-  <si>
-    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/files/square/171991/koku0001.jpg</t>
-  </si>
-  <si>
-    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/files/square/171996/kyuhk001.jpg</t>
-  </si>
-  <si>
-    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/files/square/171998/kyuki001.jpg</t>
-  </si>
-  <si>
-    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/files/square/171997/kyuhw001.jpg</t>
-  </si>
-  <si>
-    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/files/square/171969/gakus001.jpg</t>
-  </si>
-  <si>
-    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/files/square/171970/geik1001.jpg</t>
-  </si>
-  <si>
-    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/files/square/171990/koko0001.jpg</t>
-  </si>
-  <si>
-    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/files/square/172019/soga0101.jpg</t>
-  </si>
-  <si>
-    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/files/square/171999/moku1001.jpg</t>
-  </si>
-  <si>
-    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/files/square/171976/imawa001.jpg</t>
-  </si>
-  <si>
-    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/files/square/172028/wase0001.jpg</t>
-  </si>
-  <si>
-    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/files/square/171983/kawari01.jpg</t>
-  </si>
-  <si>
-    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/files/square/171977/inut0001.jpg</t>
-  </si>
-  <si>
-    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/files/square/172015/shose001.jpg</t>
-  </si>
-  <si>
-    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/files/square/172020/sono1001.jpg</t>
-  </si>
-  <si>
-    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/files/square/171995/kuzuh001.jpg</t>
-  </si>
-  <si>
-    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/files/square/172009/satsu001.jpg</t>
-  </si>
-  <si>
-    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/files/square/172021/teiki001.jpg</t>
-  </si>
-  <si>
-    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/files/square/171972/gkojo001.jpg</t>
-  </si>
-  <si>
-    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/files/square/171978/jodo0001.jpg</t>
-  </si>
-  <si>
-    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/files/square/171984/keiku001.jpg</t>
-  </si>
-  <si>
-    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/files/square/172003/ochi0001.jpg</t>
-  </si>
-  <si>
-    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/files/square/171994/kuri1.jpg</t>
-  </si>
-  <si>
-    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/files/square/171981/kama0001.jpg</t>
-  </si>
-  <si>
-    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/files/square/171967/daij0001.jpg</t>
-  </si>
-  <si>
-    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/files/square/171987/koat0001.jpg</t>
-  </si>
-  <si>
-    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/files/square/171993/komo1001.jpg</t>
-  </si>
-  <si>
-    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/files/square/172004/riku1001.jpg</t>
-  </si>
-  <si>
-    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/files/square/172014/shoky001.jpg</t>
-  </si>
-  <si>
-    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/files/square/171968/engi0001.jpg</t>
-  </si>
-  <si>
-    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/files/square/172001/neko0001.jpg</t>
-  </si>
-  <si>
-    <t>利用条件</t>
-  </si>
-  <si>
-    <t>https://www.lib.u-tokyo.ac.jp/ja/library/general/reuse</t>
+    <t>西暦</t>
+  </si>
+  <si>
+    <t>uterms:year</t>
+  </si>
+  <si>
+    <t># of media</t>
   </si>
 </sst>
 </file>
@@ -2749,10 +2818,9 @@
     <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -2772,14 +2840,19 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top"/>
+      <protection locked="0"/>
+    </xf>
   </cellStyleXfs>
   <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -3072,4522 +3145,4803 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:V70"/>
+  <dimension ref="A1:W71"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:22">
+    <row r="1" spans="1:23">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C1" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="D1" t="s">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="E1" t="s">
-        <v>195</v>
+        <v>199</v>
       </c>
       <c r="F1" t="s">
-        <v>229</v>
+        <v>234</v>
       </c>
       <c r="G1" t="s">
-        <v>275</v>
+        <v>281</v>
       </c>
       <c r="H1" t="s">
-        <v>307</v>
+        <v>314</v>
       </c>
       <c r="I1" t="s">
-        <v>377</v>
+        <v>385</v>
       </c>
       <c r="J1" t="s">
-        <v>447</v>
+        <v>456</v>
       </c>
       <c r="K1" t="s">
-        <v>486</v>
+        <v>496</v>
       </c>
       <c r="L1" t="s">
-        <v>556</v>
+        <v>567</v>
       </c>
       <c r="M1" t="s">
-        <v>557</v>
+        <v>636</v>
       </c>
       <c r="N1" t="s">
-        <v>625</v>
+        <v>639</v>
       </c>
       <c r="O1" t="s">
-        <v>627</v>
+        <v>708</v>
       </c>
       <c r="P1" t="s">
-        <v>695</v>
+        <v>711</v>
       </c>
       <c r="Q1" t="s">
-        <v>763</v>
+        <v>780</v>
       </c>
       <c r="R1" t="s">
-        <v>765</v>
+        <v>849</v>
       </c>
       <c r="S1" t="s">
-        <v>833</v>
+        <v>851</v>
       </c>
       <c r="T1" t="s">
-        <v>834</v>
+        <v>854</v>
       </c>
       <c r="U1" t="s">
-        <v>836</v>
+        <v>857</v>
       </c>
       <c r="V1" t="s">
-        <v>904</v>
+        <v>926</v>
+      </c>
+      <c r="W1" t="s">
+        <v>928</v>
       </c>
     </row>
-    <row r="2" spans="1:22">
+    <row r="2" spans="1:23">
       <c r="A2" t="s">
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>68</v>
+        <v>69</v>
+      </c>
+      <c r="C2" t="s">
+        <v>137</v>
       </c>
       <c r="D2" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="E2" t="s">
-        <v>196</v>
+        <v>200</v>
+      </c>
+      <c r="F2" t="s">
+        <v>235</v>
       </c>
       <c r="G2" t="s">
-        <v>276</v>
+        <v>282</v>
       </c>
       <c r="H2" t="s">
-        <v>308</v>
+        <v>315</v>
       </c>
       <c r="I2" t="s">
-        <v>378</v>
+        <v>386</v>
       </c>
       <c r="J2" t="s">
-        <v>448</v>
+        <v>457</v>
       </c>
       <c r="K2" t="s">
-        <v>487</v>
-      </c>
-      <c r="M2" s="1" t="s">
-        <v>558</v>
-      </c>
-      <c r="N2" s="1" t="s">
-        <v>626</v>
+        <v>497</v>
+      </c>
+      <c r="L2" t="s">
+        <v>568</v>
+      </c>
+      <c r="M2" t="s">
+        <v>637</v>
+      </c>
+      <c r="N2" t="s">
+        <v>640</v>
       </c>
       <c r="O2" t="s">
-        <v>628</v>
-      </c>
-      <c r="P2" s="1" t="s">
-        <v>696</v>
-      </c>
-      <c r="Q2" s="1" t="s">
-        <v>764</v>
-      </c>
-      <c r="R2" s="1" t="s">
-        <v>766</v>
+        <v>709</v>
+      </c>
+      <c r="P2" t="s">
+        <v>712</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>781</v>
+      </c>
+      <c r="R2" t="s">
+        <v>850</v>
+      </c>
+      <c r="S2" t="s">
+        <v>852</v>
       </c>
       <c r="T2" t="s">
-        <v>835</v>
-      </c>
-      <c r="U2" s="1" t="s">
-        <v>837</v>
-      </c>
-      <c r="V2" s="1" t="s">
-        <v>905</v>
+        <v>855</v>
+      </c>
+      <c r="U2" t="s">
+        <v>858</v>
+      </c>
+      <c r="V2" t="s">
+        <v>927</v>
+      </c>
+      <c r="W2">
+        <v>6768</v>
       </c>
     </row>
-    <row r="3" spans="1:22">
+    <row r="3" spans="1:23">
       <c r="A3" t="s">
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="D3" t="s">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="E3" t="s">
-        <v>197</v>
-      </c>
-      <c r="F3" t="s">
-        <v>230</v>
+        <v>201</v>
       </c>
       <c r="G3" t="s">
-        <v>277</v>
+        <v>283</v>
       </c>
       <c r="H3" t="s">
-        <v>309</v>
+        <v>316</v>
       </c>
       <c r="I3" t="s">
-        <v>379</v>
+        <v>387</v>
       </c>
       <c r="J3" t="s">
-        <v>449</v>
+        <v>458</v>
       </c>
       <c r="K3" t="s">
-        <v>488</v>
+        <v>498</v>
+      </c>
+      <c r="L3" t="s">
+        <v>569</v>
       </c>
       <c r="M3" s="1" t="s">
-        <v>559</v>
+        <v>638</v>
       </c>
       <c r="N3" s="1" t="s">
-        <v>626</v>
-      </c>
-      <c r="O3" t="s">
-        <v>629</v>
+        <v>641</v>
+      </c>
+      <c r="O3" s="1" t="s">
+        <v>710</v>
       </c>
       <c r="P3" s="1" t="s">
-        <v>697</v>
+        <v>713</v>
       </c>
       <c r="Q3" s="1" t="s">
-        <v>764</v>
-      </c>
-      <c r="R3" s="1" t="s">
-        <v>767</v>
+        <v>782</v>
+      </c>
+      <c r="S3" s="1" t="s">
+        <v>853</v>
       </c>
       <c r="T3" t="s">
-        <v>835</v>
+        <v>856</v>
       </c>
       <c r="U3" s="1" t="s">
-        <v>838</v>
-      </c>
-      <c r="V3" s="1" t="s">
-        <v>905</v>
+        <v>859</v>
+      </c>
+      <c r="W3">
+        <v>49</v>
       </c>
     </row>
-    <row r="4" spans="1:22">
+    <row r="4" spans="1:23">
       <c r="A4" t="s">
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="D4" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="E4" t="s">
-        <v>198</v>
+        <v>202</v>
       </c>
       <c r="F4" t="s">
-        <v>231</v>
+        <v>236</v>
       </c>
       <c r="G4" t="s">
-        <v>277</v>
+        <v>284</v>
       </c>
       <c r="H4" t="s">
-        <v>310</v>
+        <v>317</v>
       </c>
       <c r="I4" t="s">
-        <v>380</v>
+        <v>388</v>
       </c>
       <c r="J4" t="s">
-        <v>450</v>
+        <v>459</v>
       </c>
       <c r="K4" t="s">
-        <v>489</v>
+        <v>499</v>
+      </c>
+      <c r="L4" t="s">
+        <v>570</v>
       </c>
       <c r="M4" s="1" t="s">
-        <v>560</v>
+        <v>638</v>
       </c>
       <c r="N4" s="1" t="s">
-        <v>626</v>
-      </c>
-      <c r="O4" t="s">
-        <v>630</v>
+        <v>642</v>
+      </c>
+      <c r="O4" s="1" t="s">
+        <v>710</v>
       </c>
       <c r="P4" s="1" t="s">
-        <v>698</v>
+        <v>714</v>
       </c>
       <c r="Q4" s="1" t="s">
-        <v>764</v>
-      </c>
-      <c r="R4" s="1" t="s">
-        <v>768</v>
+        <v>783</v>
+      </c>
+      <c r="S4" s="1" t="s">
+        <v>853</v>
       </c>
       <c r="T4" t="s">
-        <v>835</v>
+        <v>856</v>
       </c>
       <c r="U4" s="1" t="s">
-        <v>839</v>
-      </c>
-      <c r="V4" s="1" t="s">
-        <v>905</v>
+        <v>860</v>
+      </c>
+      <c r="W4">
+        <v>99</v>
       </c>
     </row>
-    <row r="5" spans="1:22">
+    <row r="5" spans="1:23">
       <c r="A5" t="s">
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="D5" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="E5" t="s">
-        <v>197</v>
+        <v>203</v>
       </c>
       <c r="F5" t="s">
-        <v>232</v>
+        <v>237</v>
       </c>
       <c r="G5" t="s">
-        <v>277</v>
+        <v>284</v>
       </c>
       <c r="H5" t="s">
-        <v>311</v>
+        <v>318</v>
       </c>
       <c r="I5" t="s">
-        <v>381</v>
+        <v>389</v>
       </c>
       <c r="J5" t="s">
-        <v>451</v>
+        <v>460</v>
       </c>
       <c r="K5" t="s">
-        <v>490</v>
+        <v>500</v>
+      </c>
+      <c r="L5" t="s">
+        <v>571</v>
       </c>
       <c r="M5" s="1" t="s">
-        <v>561</v>
+        <v>638</v>
       </c>
       <c r="N5" s="1" t="s">
-        <v>626</v>
-      </c>
-      <c r="O5" t="s">
-        <v>631</v>
+        <v>643</v>
+      </c>
+      <c r="O5" s="1" t="s">
+        <v>710</v>
       </c>
       <c r="P5" s="1" t="s">
-        <v>699</v>
+        <v>715</v>
       </c>
       <c r="Q5" s="1" t="s">
-        <v>764</v>
-      </c>
-      <c r="R5" s="1" t="s">
-        <v>769</v>
+        <v>784</v>
+      </c>
+      <c r="S5" s="1" t="s">
+        <v>853</v>
       </c>
       <c r="T5" t="s">
-        <v>835</v>
+        <v>856</v>
       </c>
       <c r="U5" s="1" t="s">
-        <v>840</v>
-      </c>
-      <c r="V5" s="1" t="s">
-        <v>905</v>
+        <v>861</v>
+      </c>
+      <c r="W5">
+        <v>77</v>
       </c>
     </row>
-    <row r="6" spans="1:22">
+    <row r="6" spans="1:23">
       <c r="A6" t="s">
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="D6" t="s">
-        <v>154</v>
+        <v>158</v>
       </c>
       <c r="E6" t="s">
-        <v>197</v>
+        <v>202</v>
       </c>
       <c r="F6" t="s">
-        <v>233</v>
+        <v>238</v>
       </c>
       <c r="G6" t="s">
-        <v>277</v>
+        <v>284</v>
       </c>
       <c r="H6" t="s">
-        <v>312</v>
+        <v>319</v>
       </c>
       <c r="I6" t="s">
-        <v>382</v>
+        <v>390</v>
       </c>
       <c r="J6" t="s">
-        <v>452</v>
+        <v>461</v>
       </c>
       <c r="K6" t="s">
-        <v>491</v>
+        <v>501</v>
+      </c>
+      <c r="L6" t="s">
+        <v>572</v>
       </c>
       <c r="M6" s="1" t="s">
-        <v>562</v>
+        <v>638</v>
       </c>
       <c r="N6" s="1" t="s">
-        <v>626</v>
-      </c>
-      <c r="O6" t="s">
-        <v>632</v>
+        <v>644</v>
+      </c>
+      <c r="O6" s="1" t="s">
+        <v>710</v>
       </c>
       <c r="P6" s="1" t="s">
-        <v>700</v>
+        <v>716</v>
       </c>
       <c r="Q6" s="1" t="s">
-        <v>764</v>
-      </c>
-      <c r="R6" s="1" t="s">
-        <v>770</v>
+        <v>785</v>
+      </c>
+      <c r="S6" s="1" t="s">
+        <v>853</v>
       </c>
       <c r="T6" t="s">
-        <v>835</v>
+        <v>856</v>
       </c>
       <c r="U6" s="1" t="s">
-        <v>841</v>
-      </c>
-      <c r="V6" s="1" t="s">
-        <v>905</v>
+        <v>862</v>
+      </c>
+      <c r="W6">
+        <v>208</v>
       </c>
     </row>
-    <row r="7" spans="1:22">
+    <row r="7" spans="1:23">
       <c r="A7" t="s">
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="D7" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="E7" t="s">
-        <v>199</v>
+        <v>202</v>
       </c>
       <c r="F7" t="s">
-        <v>234</v>
+        <v>239</v>
       </c>
       <c r="G7" t="s">
-        <v>277</v>
+        <v>284</v>
       </c>
       <c r="H7" t="s">
-        <v>313</v>
+        <v>320</v>
       </c>
       <c r="I7" t="s">
-        <v>383</v>
+        <v>391</v>
       </c>
       <c r="J7" t="s">
-        <v>453</v>
+        <v>462</v>
       </c>
       <c r="K7" t="s">
-        <v>492</v>
+        <v>502</v>
+      </c>
+      <c r="L7" t="s">
+        <v>573</v>
       </c>
       <c r="M7" s="1" t="s">
-        <v>563</v>
+        <v>638</v>
       </c>
       <c r="N7" s="1" t="s">
-        <v>626</v>
-      </c>
-      <c r="O7" t="s">
-        <v>633</v>
+        <v>645</v>
+      </c>
+      <c r="O7" s="1" t="s">
+        <v>710</v>
       </c>
       <c r="P7" s="1" t="s">
-        <v>701</v>
+        <v>717</v>
       </c>
       <c r="Q7" s="1" t="s">
-        <v>764</v>
-      </c>
-      <c r="R7" s="1" t="s">
-        <v>771</v>
+        <v>786</v>
+      </c>
+      <c r="S7" s="1" t="s">
+        <v>853</v>
       </c>
       <c r="T7" t="s">
-        <v>835</v>
+        <v>856</v>
       </c>
       <c r="U7" s="1" t="s">
-        <v>842</v>
-      </c>
-      <c r="V7" s="1" t="s">
-        <v>905</v>
+        <v>863</v>
+      </c>
+      <c r="W7">
+        <v>33</v>
       </c>
     </row>
-    <row r="8" spans="1:22">
+    <row r="8" spans="1:23">
       <c r="A8" t="s">
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="D8" t="s">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="E8" t="s">
-        <v>197</v>
+        <v>204</v>
       </c>
       <c r="F8" t="s">
-        <v>235</v>
+        <v>240</v>
       </c>
       <c r="G8" t="s">
-        <v>277</v>
+        <v>284</v>
       </c>
       <c r="H8" t="s">
-        <v>314</v>
+        <v>321</v>
       </c>
       <c r="I8" t="s">
-        <v>384</v>
+        <v>392</v>
       </c>
       <c r="J8" t="s">
-        <v>454</v>
+        <v>463</v>
       </c>
       <c r="K8" t="s">
-        <v>493</v>
+        <v>503</v>
+      </c>
+      <c r="L8" t="s">
+        <v>574</v>
       </c>
       <c r="M8" s="1" t="s">
-        <v>564</v>
+        <v>638</v>
       </c>
       <c r="N8" s="1" t="s">
-        <v>626</v>
-      </c>
-      <c r="O8" t="s">
-        <v>634</v>
+        <v>646</v>
+      </c>
+      <c r="O8" s="1" t="s">
+        <v>710</v>
       </c>
       <c r="P8" s="1" t="s">
-        <v>702</v>
+        <v>718</v>
       </c>
       <c r="Q8" s="1" t="s">
-        <v>764</v>
-      </c>
-      <c r="R8" s="1" t="s">
-        <v>772</v>
+        <v>787</v>
+      </c>
+      <c r="S8" s="1" t="s">
+        <v>853</v>
       </c>
       <c r="T8" t="s">
-        <v>835</v>
+        <v>856</v>
       </c>
       <c r="U8" s="1" t="s">
-        <v>843</v>
-      </c>
-      <c r="V8" s="1" t="s">
-        <v>905</v>
+        <v>864</v>
+      </c>
+      <c r="W8">
+        <v>202</v>
       </c>
     </row>
-    <row r="9" spans="1:22">
+    <row r="9" spans="1:23">
       <c r="A9" t="s">
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="D9" t="s">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="E9" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="F9" t="s">
-        <v>236</v>
+        <v>241</v>
       </c>
       <c r="G9" t="s">
-        <v>278</v>
+        <v>284</v>
       </c>
       <c r="H9" t="s">
-        <v>315</v>
+        <v>322</v>
       </c>
       <c r="I9" t="s">
-        <v>385</v>
+        <v>393</v>
       </c>
       <c r="J9" t="s">
-        <v>455</v>
+        <v>464</v>
       </c>
       <c r="K9" t="s">
-        <v>494</v>
+        <v>504</v>
+      </c>
+      <c r="L9" t="s">
+        <v>575</v>
       </c>
       <c r="M9" s="1" t="s">
-        <v>565</v>
+        <v>638</v>
       </c>
       <c r="N9" s="1" t="s">
-        <v>626</v>
-      </c>
-      <c r="O9" t="s">
-        <v>635</v>
+        <v>647</v>
+      </c>
+      <c r="O9" s="1" t="s">
+        <v>710</v>
       </c>
       <c r="P9" s="1" t="s">
-        <v>703</v>
+        <v>719</v>
       </c>
       <c r="Q9" s="1" t="s">
-        <v>764</v>
-      </c>
-      <c r="R9" s="1" t="s">
-        <v>773</v>
+        <v>788</v>
+      </c>
+      <c r="S9" s="1" t="s">
+        <v>853</v>
       </c>
       <c r="T9" t="s">
-        <v>835</v>
+        <v>856</v>
       </c>
       <c r="U9" s="1" t="s">
-        <v>844</v>
-      </c>
-      <c r="V9" s="1" t="s">
-        <v>905</v>
+        <v>865</v>
+      </c>
+      <c r="W9">
+        <v>24</v>
       </c>
     </row>
-    <row r="10" spans="1:22">
+    <row r="10" spans="1:23">
       <c r="A10" t="s">
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>76</v>
+        <v>77</v>
+      </c>
+      <c r="D10" t="s">
+        <v>161</v>
       </c>
       <c r="E10" t="s">
-        <v>201</v>
+        <v>205</v>
+      </c>
+      <c r="F10" t="s">
+        <v>242</v>
       </c>
       <c r="G10" t="s">
-        <v>279</v>
+        <v>285</v>
       </c>
       <c r="H10" t="s">
-        <v>316</v>
+        <v>323</v>
       </c>
       <c r="I10" t="s">
-        <v>386</v>
+        <v>394</v>
       </c>
       <c r="J10" t="s">
-        <v>456</v>
+        <v>465</v>
       </c>
       <c r="K10" t="s">
-        <v>495</v>
+        <v>505</v>
+      </c>
+      <c r="L10" t="s">
+        <v>576</v>
       </c>
       <c r="M10" s="1" t="s">
-        <v>566</v>
+        <v>638</v>
       </c>
       <c r="N10" s="1" t="s">
-        <v>626</v>
-      </c>
-      <c r="O10" t="s">
-        <v>636</v>
+        <v>648</v>
+      </c>
+      <c r="O10" s="1" t="s">
+        <v>710</v>
       </c>
       <c r="P10" s="1" t="s">
-        <v>704</v>
+        <v>720</v>
       </c>
       <c r="Q10" s="1" t="s">
-        <v>764</v>
-      </c>
-      <c r="R10" s="1" t="s">
-        <v>774</v>
+        <v>789</v>
+      </c>
+      <c r="S10" s="1" t="s">
+        <v>853</v>
       </c>
       <c r="T10" t="s">
-        <v>835</v>
+        <v>856</v>
       </c>
       <c r="U10" s="1" t="s">
-        <v>845</v>
-      </c>
-      <c r="V10" s="1" t="s">
-        <v>905</v>
+        <v>866</v>
+      </c>
+      <c r="W10">
+        <v>8</v>
       </c>
     </row>
-    <row r="11" spans="1:22">
+    <row r="11" spans="1:23">
       <c r="A11" t="s">
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="E11" t="s">
-        <v>197</v>
+        <v>206</v>
       </c>
       <c r="G11" t="s">
-        <v>280</v>
+        <v>286</v>
       </c>
       <c r="H11" t="s">
-        <v>317</v>
+        <v>324</v>
       </c>
       <c r="I11" t="s">
-        <v>387</v>
+        <v>395</v>
       </c>
       <c r="J11" t="s">
-        <v>455</v>
+        <v>466</v>
       </c>
       <c r="K11" t="s">
-        <v>496</v>
+        <v>506</v>
+      </c>
+      <c r="L11" t="s">
+        <v>577</v>
       </c>
       <c r="M11" s="1" t="s">
-        <v>567</v>
+        <v>638</v>
       </c>
       <c r="N11" s="1" t="s">
-        <v>626</v>
-      </c>
-      <c r="O11" t="s">
-        <v>637</v>
+        <v>649</v>
+      </c>
+      <c r="O11" s="1" t="s">
+        <v>710</v>
       </c>
       <c r="P11" s="1" t="s">
-        <v>705</v>
+        <v>721</v>
       </c>
       <c r="Q11" s="1" t="s">
-        <v>764</v>
-      </c>
-      <c r="R11" s="1" t="s">
-        <v>775</v>
+        <v>790</v>
+      </c>
+      <c r="S11" s="1" t="s">
+        <v>853</v>
       </c>
       <c r="T11" t="s">
-        <v>835</v>
+        <v>856</v>
       </c>
       <c r="U11" s="1" t="s">
-        <v>846</v>
-      </c>
-      <c r="V11" s="1" t="s">
-        <v>905</v>
+        <v>867</v>
+      </c>
+      <c r="W11">
+        <v>152</v>
       </c>
     </row>
-    <row r="12" spans="1:22">
+    <row r="12" spans="1:23">
       <c r="A12" t="s">
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>78</v>
-      </c>
-      <c r="D12" t="s">
-        <v>158</v>
+        <v>79</v>
       </c>
       <c r="E12" t="s">
-        <v>197</v>
-      </c>
-      <c r="F12" t="s">
-        <v>237</v>
+        <v>202</v>
       </c>
       <c r="G12" t="s">
-        <v>281</v>
+        <v>287</v>
       </c>
       <c r="H12" t="s">
-        <v>318</v>
+        <v>325</v>
       </c>
       <c r="I12" t="s">
-        <v>388</v>
+        <v>396</v>
       </c>
       <c r="J12" t="s">
-        <v>457</v>
+        <v>465</v>
       </c>
       <c r="K12" t="s">
-        <v>497</v>
+        <v>507</v>
+      </c>
+      <c r="L12" t="s">
+        <v>578</v>
       </c>
       <c r="M12" s="1" t="s">
-        <v>568</v>
+        <v>638</v>
       </c>
       <c r="N12" s="1" t="s">
-        <v>626</v>
-      </c>
-      <c r="O12" t="s">
-        <v>638</v>
+        <v>650</v>
+      </c>
+      <c r="O12" s="1" t="s">
+        <v>710</v>
       </c>
       <c r="P12" s="1" t="s">
-        <v>706</v>
+        <v>722</v>
       </c>
       <c r="Q12" s="1" t="s">
-        <v>764</v>
-      </c>
-      <c r="R12" s="1" t="s">
-        <v>776</v>
+        <v>791</v>
+      </c>
+      <c r="S12" s="1" t="s">
+        <v>853</v>
       </c>
       <c r="T12" t="s">
-        <v>835</v>
+        <v>856</v>
       </c>
       <c r="U12" s="1" t="s">
-        <v>847</v>
-      </c>
-      <c r="V12" s="1" t="s">
-        <v>905</v>
+        <v>868</v>
+      </c>
+      <c r="W12">
+        <v>105</v>
       </c>
     </row>
-    <row r="13" spans="1:22">
+    <row r="13" spans="1:23">
       <c r="A13" t="s">
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>79</v>
-      </c>
-      <c r="C13" t="s">
-        <v>135</v>
+        <v>80</v>
       </c>
       <c r="D13" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="E13" t="s">
         <v>202</v>
       </c>
       <c r="F13" t="s">
-        <v>238</v>
+        <v>243</v>
       </c>
       <c r="G13" t="s">
-        <v>277</v>
+        <v>288</v>
       </c>
       <c r="H13" t="s">
-        <v>319</v>
+        <v>326</v>
       </c>
       <c r="I13" t="s">
-        <v>389</v>
+        <v>397</v>
       </c>
       <c r="J13" t="s">
-        <v>458</v>
+        <v>467</v>
       </c>
       <c r="K13" t="s">
-        <v>498</v>
+        <v>508</v>
+      </c>
+      <c r="L13" t="s">
+        <v>579</v>
       </c>
       <c r="M13" s="1" t="s">
-        <v>569</v>
+        <v>638</v>
       </c>
       <c r="N13" s="1" t="s">
-        <v>626</v>
-      </c>
-      <c r="O13" t="s">
-        <v>639</v>
+        <v>651</v>
+      </c>
+      <c r="O13" s="1" t="s">
+        <v>710</v>
       </c>
       <c r="P13" s="1" t="s">
-        <v>707</v>
+        <v>723</v>
       </c>
       <c r="Q13" s="1" t="s">
-        <v>764</v>
-      </c>
-      <c r="R13" s="1" t="s">
-        <v>777</v>
+        <v>792</v>
+      </c>
+      <c r="S13" s="1" t="s">
+        <v>853</v>
       </c>
       <c r="T13" t="s">
-        <v>835</v>
+        <v>856</v>
       </c>
       <c r="U13" s="1" t="s">
-        <v>848</v>
-      </c>
-      <c r="V13" s="1" t="s">
-        <v>905</v>
+        <v>869</v>
+      </c>
+      <c r="W13">
+        <v>10</v>
       </c>
     </row>
-    <row r="14" spans="1:22">
+    <row r="14" spans="1:23">
       <c r="A14" t="s">
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>80</v>
+        <v>81</v>
+      </c>
+      <c r="C14" t="s">
+        <v>138</v>
       </c>
       <c r="D14" t="s">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="E14" t="s">
-        <v>203</v>
+        <v>207</v>
       </c>
       <c r="F14" t="s">
-        <v>239</v>
+        <v>244</v>
       </c>
       <c r="G14" t="s">
-        <v>277</v>
+        <v>284</v>
       </c>
       <c r="H14" t="s">
-        <v>320</v>
+        <v>327</v>
       </c>
       <c r="I14" t="s">
-        <v>390</v>
+        <v>398</v>
       </c>
       <c r="J14" t="s">
-        <v>459</v>
+        <v>468</v>
       </c>
       <c r="K14" t="s">
-        <v>499</v>
+        <v>509</v>
+      </c>
+      <c r="L14" t="s">
+        <v>580</v>
       </c>
       <c r="M14" s="1" t="s">
-        <v>570</v>
+        <v>638</v>
       </c>
       <c r="N14" s="1" t="s">
-        <v>626</v>
-      </c>
-      <c r="O14" t="s">
-        <v>640</v>
+        <v>652</v>
+      </c>
+      <c r="O14" s="1" t="s">
+        <v>710</v>
       </c>
       <c r="P14" s="1" t="s">
-        <v>708</v>
+        <v>724</v>
       </c>
       <c r="Q14" s="1" t="s">
-        <v>764</v>
-      </c>
-      <c r="R14" s="1" t="s">
-        <v>778</v>
+        <v>793</v>
+      </c>
+      <c r="S14" s="1" t="s">
+        <v>853</v>
       </c>
       <c r="T14" t="s">
-        <v>835</v>
+        <v>856</v>
       </c>
       <c r="U14" s="1" t="s">
-        <v>849</v>
-      </c>
-      <c r="V14" s="1" t="s">
-        <v>905</v>
+        <v>870</v>
+      </c>
+      <c r="W14">
+        <v>46</v>
       </c>
     </row>
-    <row r="15" spans="1:22">
+    <row r="15" spans="1:23">
       <c r="A15" t="s">
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="D15" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="E15" t="s">
-        <v>197</v>
+        <v>208</v>
+      </c>
+      <c r="F15" t="s">
+        <v>245</v>
       </c>
       <c r="G15" t="s">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="H15" t="s">
-        <v>321</v>
+        <v>328</v>
       </c>
       <c r="I15" t="s">
-        <v>391</v>
+        <v>399</v>
       </c>
       <c r="J15" t="s">
-        <v>460</v>
+        <v>469</v>
       </c>
       <c r="K15" t="s">
-        <v>500</v>
+        <v>510</v>
+      </c>
+      <c r="L15" t="s">
+        <v>581</v>
       </c>
       <c r="M15" s="1" t="s">
-        <v>571</v>
+        <v>638</v>
       </c>
       <c r="N15" s="1" t="s">
-        <v>626</v>
-      </c>
-      <c r="O15" t="s">
-        <v>641</v>
+        <v>653</v>
+      </c>
+      <c r="O15" s="1" t="s">
+        <v>710</v>
       </c>
       <c r="P15" s="1" t="s">
-        <v>709</v>
+        <v>725</v>
       </c>
       <c r="Q15" s="1" t="s">
-        <v>764</v>
-      </c>
-      <c r="R15" s="1" t="s">
-        <v>779</v>
+        <v>794</v>
+      </c>
+      <c r="S15" s="1" t="s">
+        <v>853</v>
       </c>
       <c r="T15" t="s">
-        <v>835</v>
+        <v>856</v>
       </c>
       <c r="U15" s="1" t="s">
-        <v>850</v>
-      </c>
-      <c r="V15" s="1" t="s">
-        <v>905</v>
+        <v>871</v>
+      </c>
+      <c r="W15">
+        <v>145</v>
       </c>
     </row>
-    <row r="16" spans="1:22">
+    <row r="16" spans="1:23">
       <c r="A16" t="s">
         <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>82</v>
+        <v>83</v>
+      </c>
+      <c r="D16" t="s">
+        <v>165</v>
       </c>
       <c r="E16" t="s">
-        <v>197</v>
+        <v>202</v>
       </c>
       <c r="G16" t="s">
-        <v>283</v>
+        <v>289</v>
       </c>
       <c r="H16" t="s">
-        <v>322</v>
+        <v>329</v>
       </c>
       <c r="I16" t="s">
-        <v>392</v>
+        <v>400</v>
       </c>
       <c r="J16" t="s">
-        <v>461</v>
+        <v>470</v>
       </c>
       <c r="K16" t="s">
-        <v>501</v>
+        <v>511</v>
+      </c>
+      <c r="L16" t="s">
+        <v>582</v>
       </c>
       <c r="M16" s="1" t="s">
-        <v>572</v>
+        <v>638</v>
       </c>
       <c r="N16" s="1" t="s">
-        <v>626</v>
-      </c>
-      <c r="O16" t="s">
-        <v>642</v>
+        <v>654</v>
+      </c>
+      <c r="O16" s="1" t="s">
+        <v>710</v>
       </c>
       <c r="P16" s="1" t="s">
-        <v>710</v>
+        <v>726</v>
       </c>
       <c r="Q16" s="1" t="s">
-        <v>764</v>
-      </c>
-      <c r="R16" s="1" t="s">
-        <v>780</v>
+        <v>795</v>
+      </c>
+      <c r="S16" s="1" t="s">
+        <v>853</v>
       </c>
       <c r="T16" t="s">
-        <v>835</v>
+        <v>856</v>
       </c>
       <c r="U16" s="1" t="s">
-        <v>851</v>
-      </c>
-      <c r="V16" s="1" t="s">
-        <v>905</v>
+        <v>872</v>
+      </c>
+      <c r="W16">
+        <v>257</v>
       </c>
     </row>
-    <row r="17" spans="1:22">
+    <row r="17" spans="1:23">
       <c r="A17" t="s">
         <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="E17" t="s">
-        <v>197</v>
-      </c>
-      <c r="F17" t="s">
-        <v>240</v>
+        <v>202</v>
       </c>
       <c r="G17" t="s">
-        <v>283</v>
+        <v>290</v>
       </c>
       <c r="H17" t="s">
-        <v>323</v>
+        <v>330</v>
       </c>
       <c r="I17" t="s">
-        <v>393</v>
+        <v>401</v>
       </c>
       <c r="J17" t="s">
-        <v>461</v>
+        <v>471</v>
       </c>
       <c r="K17" t="s">
-        <v>502</v>
+        <v>512</v>
+      </c>
+      <c r="L17" t="s">
+        <v>583</v>
       </c>
       <c r="M17" s="1" t="s">
-        <v>573</v>
+        <v>638</v>
       </c>
       <c r="N17" s="1" t="s">
-        <v>626</v>
-      </c>
-      <c r="O17" t="s">
-        <v>643</v>
+        <v>655</v>
+      </c>
+      <c r="O17" s="1" t="s">
+        <v>710</v>
       </c>
       <c r="P17" s="1" t="s">
-        <v>711</v>
+        <v>727</v>
       </c>
       <c r="Q17" s="1" t="s">
-        <v>764</v>
-      </c>
-      <c r="R17" s="1" t="s">
-        <v>781</v>
+        <v>796</v>
+      </c>
+      <c r="S17" s="1" t="s">
+        <v>853</v>
+      </c>
+      <c r="T17" t="s">
+        <v>856</v>
       </c>
       <c r="U17" s="1" t="s">
-        <v>852</v>
-      </c>
-      <c r="V17" s="1" t="s">
-        <v>905</v>
+        <v>873</v>
+      </c>
+      <c r="W17">
+        <v>13</v>
       </c>
     </row>
-    <row r="18" spans="1:22">
+    <row r="18" spans="1:23">
       <c r="A18" t="s">
         <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>84</v>
-      </c>
-      <c r="D18" t="s">
-        <v>162</v>
+        <v>85</v>
       </c>
       <c r="E18" t="s">
-        <v>197</v>
+        <v>202</v>
+      </c>
+      <c r="F18" t="s">
+        <v>246</v>
       </c>
       <c r="G18" t="s">
-        <v>278</v>
+        <v>290</v>
       </c>
       <c r="H18" t="s">
-        <v>324</v>
+        <v>331</v>
       </c>
       <c r="I18" t="s">
-        <v>394</v>
+        <v>402</v>
       </c>
       <c r="J18" t="s">
-        <v>462</v>
+        <v>471</v>
       </c>
       <c r="K18" t="s">
-        <v>503</v>
+        <v>513</v>
+      </c>
+      <c r="L18" t="s">
+        <v>584</v>
       </c>
       <c r="M18" s="1" t="s">
-        <v>574</v>
+        <v>638</v>
       </c>
       <c r="N18" s="1" t="s">
-        <v>626</v>
-      </c>
-      <c r="O18" t="s">
-        <v>644</v>
+        <v>656</v>
+      </c>
+      <c r="O18" s="1" t="s">
+        <v>710</v>
       </c>
       <c r="P18" s="1" t="s">
-        <v>712</v>
+        <v>728</v>
       </c>
       <c r="Q18" s="1" t="s">
-        <v>764</v>
-      </c>
-      <c r="R18" s="1" t="s">
-        <v>782</v>
-      </c>
-      <c r="T18" t="s">
-        <v>835</v>
+        <v>797</v>
+      </c>
+      <c r="S18" s="1" t="s">
+        <v>853</v>
       </c>
       <c r="U18" s="1" t="s">
-        <v>853</v>
-      </c>
-      <c r="V18" s="1" t="s">
-        <v>905</v>
+        <v>874</v>
+      </c>
+      <c r="W18">
+        <v>68</v>
       </c>
     </row>
-    <row r="19" spans="1:22">
+    <row r="19" spans="1:23">
       <c r="A19" t="s">
         <v>18</v>
       </c>
       <c r="B19" t="s">
-        <v>85</v>
-      </c>
-      <c r="C19" t="s">
-        <v>136</v>
+        <v>86</v>
+      </c>
+      <c r="D19" t="s">
+        <v>166</v>
       </c>
       <c r="E19" t="s">
-        <v>197</v>
+        <v>202</v>
       </c>
       <c r="G19" t="s">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="H19" t="s">
-        <v>325</v>
+        <v>332</v>
       </c>
       <c r="I19" t="s">
-        <v>395</v>
+        <v>403</v>
       </c>
       <c r="J19" t="s">
-        <v>463</v>
+        <v>472</v>
       </c>
       <c r="K19" t="s">
-        <v>504</v>
+        <v>514</v>
+      </c>
+      <c r="L19" t="s">
+        <v>585</v>
       </c>
       <c r="M19" s="1" t="s">
-        <v>575</v>
+        <v>638</v>
       </c>
       <c r="N19" s="1" t="s">
-        <v>626</v>
-      </c>
-      <c r="O19" t="s">
-        <v>645</v>
+        <v>657</v>
+      </c>
+      <c r="O19" s="1" t="s">
+        <v>710</v>
       </c>
       <c r="P19" s="1" t="s">
-        <v>713</v>
+        <v>729</v>
       </c>
       <c r="Q19" s="1" t="s">
-        <v>764</v>
-      </c>
-      <c r="R19" s="1" t="s">
-        <v>783</v>
+        <v>798</v>
+      </c>
+      <c r="S19" s="1" t="s">
+        <v>853</v>
       </c>
       <c r="T19" t="s">
-        <v>835</v>
+        <v>856</v>
       </c>
       <c r="U19" s="1" t="s">
-        <v>854</v>
-      </c>
-      <c r="V19" s="1" t="s">
-        <v>905</v>
+        <v>875</v>
+      </c>
+      <c r="W19">
+        <v>69</v>
       </c>
     </row>
-    <row r="20" spans="1:22">
+    <row r="20" spans="1:23">
       <c r="A20" t="s">
         <v>19</v>
       </c>
       <c r="B20" t="s">
-        <v>86</v>
-      </c>
-      <c r="D20" t="s">
-        <v>163</v>
+        <v>87</v>
+      </c>
+      <c r="C20" t="s">
+        <v>139</v>
       </c>
       <c r="E20" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="G20" t="s">
-        <v>284</v>
+        <v>290</v>
       </c>
       <c r="H20" t="s">
-        <v>326</v>
+        <v>333</v>
       </c>
       <c r="I20" t="s">
-        <v>396</v>
+        <v>404</v>
       </c>
       <c r="J20" t="s">
-        <v>464</v>
+        <v>473</v>
       </c>
       <c r="K20" t="s">
-        <v>505</v>
+        <v>515</v>
+      </c>
+      <c r="L20" t="s">
+        <v>586</v>
       </c>
       <c r="M20" s="1" t="s">
-        <v>576</v>
+        <v>638</v>
       </c>
       <c r="N20" s="1" t="s">
-        <v>626</v>
-      </c>
-      <c r="O20" t="s">
-        <v>646</v>
+        <v>658</v>
+      </c>
+      <c r="O20" s="1" t="s">
+        <v>710</v>
       </c>
       <c r="P20" s="1" t="s">
-        <v>714</v>
+        <v>730</v>
       </c>
       <c r="Q20" s="1" t="s">
-        <v>764</v>
-      </c>
-      <c r="R20" s="1" t="s">
-        <v>784</v>
+        <v>799</v>
+      </c>
+      <c r="S20" s="1" t="s">
+        <v>853</v>
       </c>
       <c r="T20" t="s">
-        <v>835</v>
+        <v>856</v>
       </c>
       <c r="U20" s="1" t="s">
-        <v>855</v>
-      </c>
-      <c r="V20" s="1" t="s">
-        <v>905</v>
+        <v>876</v>
+      </c>
+      <c r="W20">
+        <v>38</v>
       </c>
     </row>
-    <row r="21" spans="1:22">
+    <row r="21" spans="1:23">
       <c r="A21" t="s">
         <v>20</v>
       </c>
       <c r="B21" t="s">
-        <v>87</v>
+        <v>88</v>
+      </c>
+      <c r="D21" t="s">
+        <v>167</v>
       </c>
       <c r="E21" t="s">
-        <v>196</v>
-      </c>
-      <c r="F21" t="s">
-        <v>241</v>
+        <v>209</v>
+      </c>
+      <c r="G21" t="s">
+        <v>291</v>
       </c>
       <c r="H21" t="s">
-        <v>327</v>
+        <v>334</v>
       </c>
       <c r="I21" t="s">
-        <v>397</v>
+        <v>405</v>
       </c>
       <c r="J21" t="s">
-        <v>465</v>
+        <v>474</v>
       </c>
       <c r="K21" t="s">
-        <v>506</v>
+        <v>516</v>
+      </c>
+      <c r="L21" t="s">
+        <v>587</v>
       </c>
       <c r="M21" s="1" t="s">
-        <v>577</v>
+        <v>638</v>
       </c>
       <c r="N21" s="1" t="s">
-        <v>626</v>
-      </c>
-      <c r="O21" t="s">
-        <v>647</v>
+        <v>659</v>
+      </c>
+      <c r="O21" s="1" t="s">
+        <v>710</v>
       </c>
       <c r="P21" s="1" t="s">
-        <v>715</v>
+        <v>731</v>
       </c>
       <c r="Q21" s="1" t="s">
-        <v>764</v>
-      </c>
-      <c r="R21" s="1" t="s">
-        <v>785</v>
+        <v>800</v>
+      </c>
+      <c r="S21" s="1" t="s">
+        <v>853</v>
       </c>
       <c r="T21" t="s">
-        <v>835</v>
+        <v>856</v>
       </c>
       <c r="U21" s="1" t="s">
-        <v>856</v>
-      </c>
-      <c r="V21" s="1" t="s">
-        <v>905</v>
+        <v>877</v>
+      </c>
+      <c r="W21">
+        <v>44</v>
       </c>
     </row>
-    <row r="22" spans="1:22">
+    <row r="22" spans="1:23">
       <c r="A22" t="s">
         <v>21</v>
       </c>
       <c r="B22" t="s">
-        <v>88</v>
-      </c>
-      <c r="D22" t="s">
-        <v>164</v>
+        <v>89</v>
       </c>
       <c r="E22" t="s">
-        <v>205</v>
-      </c>
-      <c r="G22" t="s">
-        <v>285</v>
+        <v>201</v>
+      </c>
+      <c r="F22" t="s">
+        <v>247</v>
       </c>
       <c r="H22" t="s">
-        <v>328</v>
+        <v>335</v>
       </c>
       <c r="I22" t="s">
-        <v>398</v>
+        <v>406</v>
       </c>
       <c r="J22" t="s">
-        <v>455</v>
+        <v>475</v>
       </c>
       <c r="K22" t="s">
-        <v>507</v>
+        <v>517</v>
+      </c>
+      <c r="L22" t="s">
+        <v>588</v>
       </c>
       <c r="M22" s="1" t="s">
-        <v>578</v>
+        <v>638</v>
       </c>
       <c r="N22" s="1" t="s">
-        <v>626</v>
-      </c>
-      <c r="O22" t="s">
-        <v>648</v>
+        <v>660</v>
+      </c>
+      <c r="O22" s="1" t="s">
+        <v>710</v>
       </c>
       <c r="P22" s="1" t="s">
-        <v>716</v>
+        <v>732</v>
       </c>
       <c r="Q22" s="1" t="s">
-        <v>764</v>
-      </c>
-      <c r="R22" s="1" t="s">
-        <v>786</v>
+        <v>801</v>
+      </c>
+      <c r="S22" s="1" t="s">
+        <v>853</v>
       </c>
       <c r="T22" t="s">
-        <v>835</v>
+        <v>856</v>
       </c>
       <c r="U22" s="1" t="s">
-        <v>857</v>
-      </c>
-      <c r="V22" s="1" t="s">
-        <v>905</v>
+        <v>878</v>
+      </c>
+      <c r="W22">
+        <v>810</v>
       </c>
     </row>
-    <row r="23" spans="1:22">
+    <row r="23" spans="1:23">
       <c r="A23" t="s">
         <v>22</v>
       </c>
       <c r="B23" t="s">
-        <v>89</v>
-      </c>
-      <c r="C23" t="s">
-        <v>137</v>
+        <v>90</v>
       </c>
       <c r="D23" t="s">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="E23" t="s">
-        <v>197</v>
-      </c>
-      <c r="F23" t="s">
-        <v>242</v>
+        <v>210</v>
       </c>
       <c r="G23" t="s">
-        <v>286</v>
+        <v>292</v>
       </c>
       <c r="H23" t="s">
-        <v>329</v>
+        <v>336</v>
       </c>
       <c r="I23" t="s">
-        <v>399</v>
+        <v>407</v>
       </c>
       <c r="J23" t="s">
-        <v>463</v>
+        <v>465</v>
       </c>
       <c r="K23" t="s">
-        <v>508</v>
+        <v>518</v>
+      </c>
+      <c r="L23" t="s">
+        <v>589</v>
       </c>
       <c r="M23" s="1" t="s">
-        <v>579</v>
+        <v>638</v>
       </c>
       <c r="N23" s="1" t="s">
-        <v>626</v>
-      </c>
-      <c r="O23" t="s">
-        <v>649</v>
+        <v>661</v>
+      </c>
+      <c r="O23" s="1" t="s">
+        <v>710</v>
       </c>
       <c r="P23" s="1" t="s">
-        <v>717</v>
+        <v>733</v>
       </c>
       <c r="Q23" s="1" t="s">
-        <v>764</v>
-      </c>
-      <c r="R23" s="1" t="s">
-        <v>787</v>
+        <v>802</v>
+      </c>
+      <c r="S23" s="1" t="s">
+        <v>853</v>
       </c>
       <c r="T23" t="s">
-        <v>835</v>
+        <v>856</v>
       </c>
       <c r="U23" s="1" t="s">
-        <v>858</v>
-      </c>
-      <c r="V23" s="1" t="s">
-        <v>905</v>
+        <v>879</v>
+      </c>
+      <c r="W23">
+        <v>20</v>
       </c>
     </row>
-    <row r="24" spans="1:22">
+    <row r="24" spans="1:23">
       <c r="A24" t="s">
         <v>23</v>
       </c>
       <c r="B24" t="s">
-        <v>90</v>
+        <v>91</v>
+      </c>
+      <c r="C24" t="s">
+        <v>140</v>
       </c>
       <c r="D24" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="E24" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="F24" t="s">
-        <v>243</v>
+        <v>248</v>
       </c>
       <c r="G24" t="s">
-        <v>287</v>
+        <v>293</v>
       </c>
       <c r="H24" t="s">
-        <v>330</v>
+        <v>337</v>
       </c>
       <c r="I24" t="s">
-        <v>400</v>
+        <v>408</v>
       </c>
       <c r="J24" t="s">
-        <v>455</v>
+        <v>473</v>
       </c>
       <c r="K24" t="s">
-        <v>509</v>
+        <v>519</v>
+      </c>
+      <c r="L24" t="s">
+        <v>590</v>
       </c>
       <c r="M24" s="1" t="s">
-        <v>580</v>
+        <v>638</v>
       </c>
       <c r="N24" s="1" t="s">
-        <v>626</v>
-      </c>
-      <c r="O24" t="s">
-        <v>650</v>
+        <v>662</v>
+      </c>
+      <c r="O24" s="1" t="s">
+        <v>710</v>
       </c>
       <c r="P24" s="1" t="s">
-        <v>718</v>
+        <v>734</v>
       </c>
       <c r="Q24" s="1" t="s">
-        <v>764</v>
-      </c>
-      <c r="R24" s="1" t="s">
-        <v>788</v>
+        <v>803</v>
+      </c>
+      <c r="S24" s="1" t="s">
+        <v>853</v>
       </c>
       <c r="T24" t="s">
-        <v>835</v>
+        <v>856</v>
       </c>
       <c r="U24" s="1" t="s">
-        <v>859</v>
-      </c>
-      <c r="V24" s="1" t="s">
-        <v>905</v>
+        <v>880</v>
+      </c>
+      <c r="W24">
+        <v>18</v>
       </c>
     </row>
-    <row r="25" spans="1:22">
+    <row r="25" spans="1:23">
       <c r="A25" t="s">
         <v>24</v>
       </c>
       <c r="B25" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="D25" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="E25" t="s">
-        <v>207</v>
+        <v>211</v>
+      </c>
+      <c r="F25" t="s">
+        <v>249</v>
       </c>
       <c r="G25" t="s">
-        <v>277</v>
+        <v>294</v>
       </c>
       <c r="H25" t="s">
-        <v>331</v>
+        <v>338</v>
       </c>
       <c r="I25" t="s">
-        <v>401</v>
+        <v>409</v>
       </c>
       <c r="J25" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="K25" t="s">
-        <v>510</v>
+        <v>520</v>
+      </c>
+      <c r="L25" t="s">
+        <v>591</v>
       </c>
       <c r="M25" s="1" t="s">
-        <v>581</v>
+        <v>638</v>
       </c>
       <c r="N25" s="1" t="s">
-        <v>626</v>
-      </c>
-      <c r="O25" t="s">
-        <v>651</v>
+        <v>663</v>
+      </c>
+      <c r="O25" s="1" t="s">
+        <v>710</v>
       </c>
       <c r="P25" s="1" t="s">
-        <v>719</v>
+        <v>735</v>
       </c>
       <c r="Q25" s="1" t="s">
-        <v>764</v>
-      </c>
-      <c r="R25" s="1" t="s">
-        <v>789</v>
+        <v>804</v>
+      </c>
+      <c r="S25" s="1" t="s">
+        <v>853</v>
       </c>
       <c r="T25" t="s">
-        <v>835</v>
+        <v>856</v>
       </c>
       <c r="U25" s="1" t="s">
-        <v>860</v>
-      </c>
-      <c r="V25" s="1" t="s">
-        <v>905</v>
+        <v>881</v>
+      </c>
+      <c r="W25">
+        <v>12</v>
       </c>
     </row>
-    <row r="26" spans="1:22">
+    <row r="26" spans="1:23">
       <c r="A26" t="s">
         <v>25</v>
       </c>
       <c r="B26" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="D26" t="s">
-        <v>168</v>
+        <v>171</v>
       </c>
       <c r="E26" t="s">
-        <v>204</v>
-      </c>
-      <c r="F26" t="s">
-        <v>244</v>
+        <v>212</v>
       </c>
       <c r="G26" t="s">
-        <v>288</v>
+        <v>284</v>
       </c>
       <c r="H26" t="s">
-        <v>332</v>
+        <v>339</v>
       </c>
       <c r="I26" t="s">
-        <v>402</v>
+        <v>410</v>
       </c>
       <c r="J26" t="s">
-        <v>467</v>
+        <v>476</v>
       </c>
       <c r="K26" t="s">
-        <v>511</v>
+        <v>521</v>
+      </c>
+      <c r="L26" t="s">
+        <v>592</v>
       </c>
       <c r="M26" s="1" t="s">
-        <v>582</v>
+        <v>638</v>
       </c>
       <c r="N26" s="1" t="s">
-        <v>626</v>
-      </c>
-      <c r="O26" t="s">
-        <v>652</v>
+        <v>664</v>
+      </c>
+      <c r="O26" s="1" t="s">
+        <v>710</v>
       </c>
       <c r="P26" s="1" t="s">
-        <v>720</v>
+        <v>736</v>
       </c>
       <c r="Q26" s="1" t="s">
-        <v>764</v>
-      </c>
-      <c r="R26" s="1" t="s">
-        <v>790</v>
+        <v>805</v>
+      </c>
+      <c r="S26" s="1" t="s">
+        <v>853</v>
       </c>
       <c r="T26" t="s">
-        <v>835</v>
+        <v>856</v>
       </c>
       <c r="U26" s="1" t="s">
-        <v>861</v>
-      </c>
-      <c r="V26" s="1" t="s">
-        <v>905</v>
+        <v>882</v>
+      </c>
+      <c r="W26">
+        <v>6</v>
       </c>
     </row>
-    <row r="27" spans="1:22">
+    <row r="27" spans="1:23">
       <c r="A27" t="s">
         <v>26</v>
       </c>
       <c r="B27" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="D27" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="E27" t="s">
-        <v>197</v>
+        <v>209</v>
       </c>
       <c r="F27" t="s">
-        <v>245</v>
+        <v>250</v>
       </c>
       <c r="G27" t="s">
-        <v>278</v>
+        <v>295</v>
       </c>
       <c r="H27" t="s">
-        <v>333</v>
+        <v>340</v>
       </c>
       <c r="I27" t="s">
-        <v>403</v>
+        <v>411</v>
       </c>
       <c r="J27" t="s">
-        <v>468</v>
+        <v>477</v>
       </c>
       <c r="K27" t="s">
-        <v>512</v>
+        <v>522</v>
+      </c>
+      <c r="L27" t="s">
+        <v>593</v>
       </c>
       <c r="M27" s="1" t="s">
-        <v>583</v>
+        <v>638</v>
       </c>
       <c r="N27" s="1" t="s">
-        <v>626</v>
-      </c>
-      <c r="O27" t="s">
-        <v>653</v>
+        <v>665</v>
+      </c>
+      <c r="O27" s="1" t="s">
+        <v>710</v>
       </c>
       <c r="P27" s="1" t="s">
-        <v>721</v>
+        <v>737</v>
       </c>
       <c r="Q27" s="1" t="s">
-        <v>764</v>
-      </c>
-      <c r="R27" s="1" t="s">
-        <v>791</v>
+        <v>806</v>
+      </c>
+      <c r="S27" s="1" t="s">
+        <v>853</v>
+      </c>
+      <c r="T27" t="s">
+        <v>856</v>
       </c>
       <c r="U27" s="1" t="s">
-        <v>862</v>
-      </c>
-      <c r="V27" s="1" t="s">
-        <v>905</v>
+        <v>883</v>
+      </c>
+      <c r="W27">
+        <v>27</v>
       </c>
     </row>
-    <row r="28" spans="1:22">
+    <row r="28" spans="1:23">
       <c r="A28" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B28" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="D28" t="s">
-        <v>169</v>
+        <v>173</v>
       </c>
       <c r="E28" t="s">
-        <v>208</v>
+        <v>202</v>
       </c>
       <c r="F28" t="s">
-        <v>246</v>
+        <v>251</v>
       </c>
       <c r="G28" t="s">
-        <v>278</v>
+        <v>285</v>
       </c>
       <c r="H28" t="s">
-        <v>334</v>
+        <v>341</v>
       </c>
       <c r="I28" t="s">
-        <v>404</v>
+        <v>412</v>
       </c>
       <c r="J28" t="s">
-        <v>455</v>
+        <v>478</v>
       </c>
       <c r="K28" t="s">
-        <v>513</v>
+        <v>523</v>
+      </c>
+      <c r="L28" t="s">
+        <v>594</v>
       </c>
       <c r="M28" s="1" t="s">
-        <v>583</v>
+        <v>638</v>
       </c>
       <c r="N28" s="1" t="s">
-        <v>626</v>
-      </c>
-      <c r="O28" t="s">
-        <v>653</v>
+        <v>666</v>
+      </c>
+      <c r="O28" s="1" t="s">
+        <v>710</v>
       </c>
       <c r="P28" s="1" t="s">
-        <v>721</v>
+        <v>738</v>
       </c>
       <c r="Q28" s="1" t="s">
-        <v>764</v>
-      </c>
-      <c r="R28" s="1" t="s">
-        <v>791</v>
-      </c>
-      <c r="T28" t="s">
-        <v>835</v>
+        <v>807</v>
+      </c>
+      <c r="S28" s="1" t="s">
+        <v>853</v>
       </c>
       <c r="U28" s="1" t="s">
-        <v>862</v>
-      </c>
-      <c r="V28" s="1" t="s">
-        <v>905</v>
+        <v>884</v>
+      </c>
+      <c r="W28">
+        <v>125</v>
       </c>
     </row>
-    <row r="29" spans="1:22">
+    <row r="29" spans="1:23">
       <c r="A29" t="s">
         <v>27</v>
       </c>
       <c r="B29" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="D29" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="E29" t="s">
-        <v>209</v>
+        <v>213</v>
+      </c>
+      <c r="F29" t="s">
+        <v>252</v>
       </c>
       <c r="G29" t="s">
-        <v>289</v>
+        <v>285</v>
       </c>
       <c r="H29" t="s">
-        <v>335</v>
+        <v>342</v>
       </c>
       <c r="I29" t="s">
-        <v>405</v>
+        <v>413</v>
       </c>
       <c r="J29" t="s">
-        <v>469</v>
+        <v>465</v>
       </c>
       <c r="K29" t="s">
-        <v>514</v>
+        <v>524</v>
+      </c>
+      <c r="L29" t="s">
+        <v>594</v>
       </c>
       <c r="M29" s="1" t="s">
-        <v>584</v>
+        <v>638</v>
       </c>
       <c r="N29" s="1" t="s">
-        <v>626</v>
-      </c>
-      <c r="O29" t="s">
-        <v>654</v>
+        <v>666</v>
+      </c>
+      <c r="O29" s="1" t="s">
+        <v>710</v>
       </c>
       <c r="P29" s="1" t="s">
-        <v>722</v>
+        <v>738</v>
       </c>
       <c r="Q29" s="1" t="s">
-        <v>764</v>
-      </c>
-      <c r="R29" s="1" t="s">
-        <v>792</v>
+        <v>807</v>
+      </c>
+      <c r="S29" s="1" t="s">
+        <v>853</v>
       </c>
       <c r="T29" t="s">
-        <v>835</v>
+        <v>856</v>
       </c>
       <c r="U29" s="1" t="s">
-        <v>863</v>
-      </c>
-      <c r="V29" s="1" t="s">
-        <v>905</v>
+        <v>884</v>
+      </c>
+      <c r="W29">
+        <v>22</v>
       </c>
     </row>
-    <row r="30" spans="1:22">
+    <row r="30" spans="1:23">
       <c r="A30" t="s">
         <v>28</v>
       </c>
       <c r="B30" t="s">
-        <v>95</v>
-      </c>
-      <c r="C30" t="s">
-        <v>138</v>
+        <v>96</v>
       </c>
       <c r="D30" t="s">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="E30" t="s">
-        <v>210</v>
+        <v>214</v>
       </c>
       <c r="G30" t="s">
-        <v>290</v>
+        <v>296</v>
       </c>
       <c r="H30" t="s">
-        <v>336</v>
+        <v>343</v>
       </c>
       <c r="I30" t="s">
-        <v>406</v>
+        <v>414</v>
       </c>
       <c r="J30" t="s">
-        <v>470</v>
+        <v>479</v>
       </c>
       <c r="K30" t="s">
-        <v>515</v>
+        <v>525</v>
+      </c>
+      <c r="L30" t="s">
+        <v>595</v>
       </c>
       <c r="M30" s="1" t="s">
-        <v>585</v>
+        <v>638</v>
       </c>
       <c r="N30" s="1" t="s">
-        <v>626</v>
-      </c>
-      <c r="O30" t="s">
-        <v>655</v>
+        <v>667</v>
+      </c>
+      <c r="O30" s="1" t="s">
+        <v>710</v>
       </c>
       <c r="P30" s="1" t="s">
-        <v>723</v>
+        <v>739</v>
       </c>
       <c r="Q30" s="1" t="s">
-        <v>764</v>
-      </c>
-      <c r="R30" s="1" t="s">
-        <v>793</v>
+        <v>808</v>
+      </c>
+      <c r="S30" s="1" t="s">
+        <v>853</v>
       </c>
       <c r="T30" t="s">
-        <v>835</v>
+        <v>856</v>
       </c>
       <c r="U30" s="1" t="s">
-        <v>864</v>
-      </c>
-      <c r="V30" s="1" t="s">
-        <v>905</v>
+        <v>885</v>
+      </c>
+      <c r="W30">
+        <v>200</v>
       </c>
     </row>
-    <row r="31" spans="1:22">
+    <row r="31" spans="1:23">
       <c r="A31" t="s">
         <v>29</v>
       </c>
       <c r="B31" t="s">
-        <v>96</v>
+        <v>97</v>
+      </c>
+      <c r="C31" t="s">
+        <v>141</v>
       </c>
       <c r="D31" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
       <c r="E31" t="s">
-        <v>211</v>
+        <v>215</v>
+      </c>
+      <c r="G31" t="s">
+        <v>297</v>
       </c>
       <c r="H31" t="s">
-        <v>337</v>
+        <v>344</v>
       </c>
       <c r="I31" t="s">
-        <v>407</v>
+        <v>415</v>
       </c>
       <c r="J31" t="s">
-        <v>471</v>
+        <v>480</v>
       </c>
       <c r="K31" t="s">
-        <v>516</v>
+        <v>526</v>
+      </c>
+      <c r="L31" t="s">
+        <v>596</v>
       </c>
       <c r="M31" s="1" t="s">
-        <v>586</v>
+        <v>638</v>
       </c>
       <c r="N31" s="1" t="s">
-        <v>626</v>
-      </c>
-      <c r="O31" t="s">
-        <v>656</v>
+        <v>668</v>
+      </c>
+      <c r="O31" s="1" t="s">
+        <v>710</v>
       </c>
       <c r="P31" s="1" t="s">
-        <v>724</v>
+        <v>740</v>
       </c>
       <c r="Q31" s="1" t="s">
-        <v>764</v>
-      </c>
-      <c r="R31" s="1" t="s">
-        <v>794</v>
+        <v>809</v>
+      </c>
+      <c r="S31" s="1" t="s">
+        <v>853</v>
       </c>
       <c r="T31" t="s">
-        <v>835</v>
+        <v>856</v>
       </c>
       <c r="U31" s="1" t="s">
-        <v>865</v>
-      </c>
-      <c r="V31" s="1" t="s">
-        <v>905</v>
+        <v>886</v>
+      </c>
+      <c r="W31">
+        <v>108</v>
       </c>
     </row>
-    <row r="32" spans="1:22">
+    <row r="32" spans="1:23">
       <c r="A32" t="s">
         <v>30</v>
       </c>
       <c r="B32" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="D32" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="E32" t="s">
-        <v>197</v>
-      </c>
-      <c r="F32" t="s">
-        <v>247</v>
-      </c>
-      <c r="G32" t="s">
-        <v>291</v>
+        <v>216</v>
       </c>
       <c r="H32" t="s">
-        <v>338</v>
+        <v>345</v>
       </c>
       <c r="I32" t="s">
-        <v>408</v>
+        <v>416</v>
       </c>
       <c r="J32" t="s">
-        <v>455</v>
+        <v>481</v>
       </c>
       <c r="K32" t="s">
-        <v>517</v>
+        <v>527</v>
+      </c>
+      <c r="L32" t="s">
+        <v>597</v>
       </c>
       <c r="M32" s="1" t="s">
-        <v>587</v>
+        <v>638</v>
       </c>
       <c r="N32" s="1" t="s">
-        <v>626</v>
-      </c>
-      <c r="O32" t="s">
-        <v>657</v>
+        <v>669</v>
+      </c>
+      <c r="O32" s="1" t="s">
+        <v>710</v>
       </c>
       <c r="P32" s="1" t="s">
-        <v>725</v>
+        <v>741</v>
       </c>
       <c r="Q32" s="1" t="s">
-        <v>764</v>
-      </c>
-      <c r="R32" s="1" t="s">
-        <v>795</v>
+        <v>810</v>
+      </c>
+      <c r="S32" s="1" t="s">
+        <v>853</v>
       </c>
       <c r="T32" t="s">
-        <v>835</v>
+        <v>856</v>
       </c>
       <c r="U32" s="1" t="s">
-        <v>866</v>
-      </c>
-      <c r="V32" s="1" t="s">
-        <v>905</v>
+        <v>887</v>
+      </c>
+      <c r="W32">
+        <v>759</v>
       </c>
     </row>
-    <row r="33" spans="1:22">
+    <row r="33" spans="1:23">
       <c r="A33" t="s">
         <v>31</v>
       </c>
       <c r="B33" t="s">
-        <v>98</v>
-      </c>
-      <c r="C33" t="s">
-        <v>139</v>
+        <v>99</v>
+      </c>
+      <c r="D33" t="s">
+        <v>177</v>
       </c>
       <c r="E33" t="s">
-        <v>197</v>
+        <v>202</v>
       </c>
       <c r="F33" t="s">
-        <v>248</v>
+        <v>253</v>
       </c>
       <c r="G33" t="s">
-        <v>292</v>
+        <v>298</v>
       </c>
       <c r="H33" t="s">
-        <v>339</v>
+        <v>346</v>
       </c>
       <c r="I33" t="s">
-        <v>409</v>
+        <v>417</v>
       </c>
       <c r="J33" t="s">
-        <v>457</v>
+        <v>465</v>
       </c>
       <c r="K33" t="s">
-        <v>518</v>
+        <v>528</v>
+      </c>
+      <c r="L33" t="s">
+        <v>598</v>
       </c>
       <c r="M33" s="1" t="s">
-        <v>588</v>
+        <v>638</v>
       </c>
       <c r="N33" s="1" t="s">
-        <v>626</v>
-      </c>
-      <c r="O33" t="s">
-        <v>658</v>
+        <v>670</v>
+      </c>
+      <c r="O33" s="1" t="s">
+        <v>710</v>
       </c>
       <c r="P33" s="1" t="s">
-        <v>726</v>
+        <v>742</v>
       </c>
       <c r="Q33" s="1" t="s">
-        <v>764</v>
-      </c>
-      <c r="R33" s="1" t="s">
-        <v>796</v>
+        <v>811</v>
+      </c>
+      <c r="S33" s="1" t="s">
+        <v>853</v>
       </c>
       <c r="T33" t="s">
-        <v>835</v>
+        <v>856</v>
       </c>
       <c r="U33" s="1" t="s">
-        <v>867</v>
-      </c>
-      <c r="V33" s="1" t="s">
-        <v>905</v>
+        <v>888</v>
+      </c>
+      <c r="W33">
+        <v>48</v>
       </c>
     </row>
-    <row r="34" spans="1:22">
+    <row r="34" spans="1:23">
       <c r="A34" t="s">
         <v>32</v>
       </c>
       <c r="B34" t="s">
-        <v>99</v>
+        <v>100</v>
+      </c>
+      <c r="C34" t="s">
+        <v>142</v>
       </c>
       <c r="E34" t="s">
-        <v>196</v>
+        <v>202</v>
+      </c>
+      <c r="F34" t="s">
+        <v>254</v>
       </c>
       <c r="G34" t="s">
-        <v>293</v>
+        <v>299</v>
       </c>
       <c r="H34" t="s">
-        <v>340</v>
+        <v>347</v>
       </c>
       <c r="I34" t="s">
-        <v>410</v>
+        <v>418</v>
       </c>
       <c r="J34" t="s">
-        <v>457</v>
+        <v>467</v>
       </c>
       <c r="K34" t="s">
-        <v>519</v>
+        <v>529</v>
+      </c>
+      <c r="L34" t="s">
+        <v>599</v>
       </c>
       <c r="M34" s="1" t="s">
-        <v>589</v>
+        <v>638</v>
       </c>
       <c r="N34" s="1" t="s">
-        <v>626</v>
-      </c>
-      <c r="O34" t="s">
-        <v>659</v>
+        <v>671</v>
+      </c>
+      <c r="O34" s="1" t="s">
+        <v>710</v>
       </c>
       <c r="P34" s="1" t="s">
-        <v>727</v>
+        <v>743</v>
       </c>
       <c r="Q34" s="1" t="s">
-        <v>764</v>
-      </c>
-      <c r="R34" s="1" t="s">
-        <v>797</v>
+        <v>812</v>
+      </c>
+      <c r="S34" s="1" t="s">
+        <v>853</v>
+      </c>
+      <c r="T34" t="s">
+        <v>856</v>
       </c>
       <c r="U34" s="1" t="s">
-        <v>868</v>
-      </c>
-      <c r="V34" s="1" t="s">
-        <v>905</v>
+        <v>889</v>
+      </c>
+      <c r="W34">
+        <v>58</v>
       </c>
     </row>
-    <row r="35" spans="1:22">
+    <row r="35" spans="1:23">
       <c r="A35" t="s">
         <v>33</v>
       </c>
       <c r="B35" t="s">
-        <v>100</v>
-      </c>
-      <c r="C35" t="s">
-        <v>140</v>
-      </c>
-      <c r="D35" t="s">
-        <v>174</v>
+        <v>101</v>
       </c>
       <c r="E35" t="s">
-        <v>212</v>
-      </c>
-      <c r="F35" t="s">
-        <v>249</v>
+        <v>201</v>
       </c>
       <c r="G35" t="s">
-        <v>290</v>
+        <v>300</v>
       </c>
       <c r="H35" t="s">
-        <v>341</v>
+        <v>348</v>
       </c>
       <c r="I35" t="s">
-        <v>411</v>
+        <v>419</v>
       </c>
       <c r="J35" t="s">
-        <v>472</v>
+        <v>467</v>
       </c>
       <c r="K35" t="s">
-        <v>520</v>
+        <v>530</v>
+      </c>
+      <c r="L35" t="s">
+        <v>600</v>
       </c>
       <c r="M35" s="1" t="s">
-        <v>590</v>
+        <v>638</v>
       </c>
       <c r="N35" s="1" t="s">
-        <v>626</v>
-      </c>
-      <c r="O35" t="s">
-        <v>660</v>
+        <v>672</v>
+      </c>
+      <c r="O35" s="1" t="s">
+        <v>710</v>
       </c>
       <c r="P35" s="1" t="s">
-        <v>728</v>
+        <v>744</v>
       </c>
       <c r="Q35" s="1" t="s">
-        <v>764</v>
-      </c>
-      <c r="R35" s="1" t="s">
-        <v>798</v>
-      </c>
-      <c r="T35" t="s">
-        <v>835</v>
+        <v>813</v>
+      </c>
+      <c r="S35" s="1" t="s">
+        <v>853</v>
       </c>
       <c r="U35" s="1" t="s">
-        <v>869</v>
-      </c>
-      <c r="V35" s="1" t="s">
-        <v>905</v>
+        <v>890</v>
+      </c>
+      <c r="W35">
+        <v>26</v>
       </c>
     </row>
-    <row r="36" spans="1:22">
+    <row r="36" spans="1:23">
       <c r="A36" t="s">
         <v>34</v>
       </c>
       <c r="B36" t="s">
-        <v>101</v>
+        <v>102</v>
+      </c>
+      <c r="C36" t="s">
+        <v>143</v>
+      </c>
+      <c r="D36" t="s">
+        <v>178</v>
       </c>
       <c r="E36" t="s">
-        <v>213</v>
+        <v>217</v>
+      </c>
+      <c r="F36" t="s">
+        <v>255</v>
       </c>
       <c r="G36" t="s">
-        <v>294</v>
+        <v>297</v>
       </c>
       <c r="H36" t="s">
-        <v>342</v>
+        <v>349</v>
       </c>
       <c r="I36" t="s">
-        <v>412</v>
+        <v>420</v>
       </c>
       <c r="J36" t="s">
-        <v>473</v>
+        <v>482</v>
       </c>
       <c r="K36" t="s">
-        <v>521</v>
+        <v>531</v>
+      </c>
+      <c r="L36" t="s">
+        <v>601</v>
       </c>
       <c r="M36" s="1" t="s">
-        <v>591</v>
+        <v>638</v>
       </c>
       <c r="N36" s="1" t="s">
-        <v>626</v>
-      </c>
-      <c r="O36" t="s">
-        <v>661</v>
+        <v>673</v>
+      </c>
+      <c r="O36" s="1" t="s">
+        <v>710</v>
       </c>
       <c r="P36" s="1" t="s">
-        <v>729</v>
+        <v>745</v>
       </c>
       <c r="Q36" s="1" t="s">
-        <v>764</v>
-      </c>
-      <c r="R36" s="1" t="s">
-        <v>799</v>
+        <v>814</v>
+      </c>
+      <c r="S36" s="1" t="s">
+        <v>853</v>
+      </c>
+      <c r="T36" t="s">
+        <v>856</v>
       </c>
       <c r="U36" s="1" t="s">
-        <v>870</v>
-      </c>
-      <c r="V36" s="1" t="s">
-        <v>905</v>
+        <v>891</v>
+      </c>
+      <c r="W36">
+        <v>107</v>
       </c>
     </row>
-    <row r="37" spans="1:22">
+    <row r="37" spans="1:23">
       <c r="A37" t="s">
         <v>35</v>
       </c>
       <c r="B37" t="s">
-        <v>102</v>
-      </c>
-      <c r="D37" t="s">
-        <v>175</v>
+        <v>103</v>
       </c>
       <c r="E37" t="s">
-        <v>197</v>
-      </c>
-      <c r="F37" t="s">
-        <v>250</v>
+        <v>218</v>
       </c>
       <c r="G37" t="s">
-        <v>277</v>
+        <v>301</v>
       </c>
       <c r="H37" t="s">
-        <v>343</v>
+        <v>350</v>
       </c>
       <c r="I37" t="s">
-        <v>413</v>
+        <v>421</v>
       </c>
       <c r="J37" t="s">
-        <v>461</v>
+        <v>483</v>
       </c>
       <c r="K37" t="s">
-        <v>522</v>
+        <v>532</v>
+      </c>
+      <c r="L37" t="s">
+        <v>602</v>
       </c>
       <c r="M37" s="1" t="s">
-        <v>592</v>
+        <v>638</v>
       </c>
       <c r="N37" s="1" t="s">
-        <v>626</v>
-      </c>
-      <c r="O37" t="s">
-        <v>662</v>
+        <v>674</v>
+      </c>
+      <c r="O37" s="1" t="s">
+        <v>710</v>
       </c>
       <c r="P37" s="1" t="s">
-        <v>730</v>
+        <v>746</v>
       </c>
       <c r="Q37" s="1" t="s">
-        <v>764</v>
-      </c>
-      <c r="R37" s="1" t="s">
-        <v>800</v>
-      </c>
-      <c r="T37" t="s">
-        <v>835</v>
+        <v>815</v>
+      </c>
+      <c r="S37" s="1" t="s">
+        <v>853</v>
       </c>
       <c r="U37" s="1" t="s">
-        <v>871</v>
-      </c>
-      <c r="V37" s="1" t="s">
-        <v>905</v>
+        <v>892</v>
+      </c>
+      <c r="W37">
+        <v>227</v>
       </c>
     </row>
-    <row r="38" spans="1:22">
+    <row r="38" spans="1:23">
       <c r="A38" t="s">
         <v>36</v>
       </c>
       <c r="B38" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="D38" t="s">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="E38" t="s">
-        <v>197</v>
+        <v>202</v>
       </c>
       <c r="F38" t="s">
-        <v>251</v>
+        <v>256</v>
       </c>
       <c r="G38" t="s">
-        <v>295</v>
+        <v>284</v>
       </c>
       <c r="H38" t="s">
-        <v>344</v>
+        <v>351</v>
       </c>
       <c r="I38" t="s">
-        <v>414</v>
+        <v>422</v>
       </c>
       <c r="J38" t="s">
-        <v>455</v>
+        <v>471</v>
       </c>
       <c r="K38" t="s">
-        <v>523</v>
+        <v>533</v>
+      </c>
+      <c r="L38" t="s">
+        <v>603</v>
       </c>
       <c r="M38" s="1" t="s">
-        <v>593</v>
+        <v>638</v>
       </c>
       <c r="N38" s="1" t="s">
-        <v>626</v>
-      </c>
-      <c r="O38" t="s">
-        <v>663</v>
+        <v>675</v>
+      </c>
+      <c r="O38" s="1" t="s">
+        <v>710</v>
       </c>
       <c r="P38" s="1" t="s">
-        <v>731</v>
+        <v>747</v>
       </c>
       <c r="Q38" s="1" t="s">
-        <v>764</v>
-      </c>
-      <c r="R38" s="1" t="s">
-        <v>801</v>
+        <v>816</v>
+      </c>
+      <c r="S38" s="1" t="s">
+        <v>853</v>
       </c>
       <c r="T38" t="s">
-        <v>835</v>
+        <v>856</v>
       </c>
       <c r="U38" s="1" t="s">
-        <v>872</v>
-      </c>
-      <c r="V38" s="1" t="s">
-        <v>905</v>
+        <v>893</v>
+      </c>
+      <c r="W38">
+        <v>6</v>
       </c>
     </row>
-    <row r="39" spans="1:22">
+    <row r="39" spans="1:23">
       <c r="A39" t="s">
         <v>37</v>
       </c>
       <c r="B39" t="s">
-        <v>104</v>
-      </c>
-      <c r="C39" t="s">
-        <v>141</v>
+        <v>105</v>
+      </c>
+      <c r="D39" t="s">
+        <v>180</v>
       </c>
       <c r="E39" t="s">
-        <v>197</v>
+        <v>202</v>
       </c>
       <c r="F39" t="s">
-        <v>252</v>
+        <v>257</v>
       </c>
       <c r="G39" t="s">
-        <v>296</v>
+        <v>302</v>
       </c>
       <c r="H39" t="s">
-        <v>345</v>
+        <v>352</v>
       </c>
       <c r="I39" t="s">
-        <v>415</v>
+        <v>423</v>
       </c>
       <c r="J39" t="s">
-        <v>455</v>
+        <v>465</v>
       </c>
       <c r="K39" t="s">
-        <v>524</v>
+        <v>534</v>
+      </c>
+      <c r="L39" t="s">
+        <v>604</v>
       </c>
       <c r="M39" s="1" t="s">
-        <v>594</v>
+        <v>638</v>
       </c>
       <c r="N39" s="1" t="s">
-        <v>626</v>
-      </c>
-      <c r="O39" t="s">
-        <v>664</v>
+        <v>676</v>
+      </c>
+      <c r="O39" s="1" t="s">
+        <v>710</v>
       </c>
       <c r="P39" s="1" t="s">
-        <v>732</v>
+        <v>748</v>
       </c>
       <c r="Q39" s="1" t="s">
-        <v>764</v>
-      </c>
-      <c r="R39" s="1" t="s">
-        <v>802</v>
+        <v>817</v>
+      </c>
+      <c r="S39" s="1" t="s">
+        <v>853</v>
       </c>
       <c r="T39" t="s">
-        <v>835</v>
+        <v>856</v>
       </c>
       <c r="U39" s="1" t="s">
-        <v>873</v>
-      </c>
-      <c r="V39" s="1" t="s">
-        <v>905</v>
+        <v>894</v>
+      </c>
+      <c r="W39">
+        <v>83</v>
       </c>
     </row>
-    <row r="40" spans="1:22">
+    <row r="40" spans="1:23">
       <c r="A40" t="s">
         <v>38</v>
       </c>
       <c r="B40" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="C40" t="s">
-        <v>142</v>
-      </c>
-      <c r="D40" t="s">
-        <v>177</v>
+        <v>144</v>
       </c>
       <c r="E40" t="s">
-        <v>214</v>
+        <v>202</v>
       </c>
       <c r="F40" t="s">
-        <v>253</v>
+        <v>258</v>
       </c>
       <c r="G40" t="s">
-        <v>297</v>
+        <v>303</v>
       </c>
       <c r="H40" t="s">
-        <v>346</v>
+        <v>353</v>
       </c>
       <c r="I40" t="s">
-        <v>416</v>
+        <v>424</v>
       </c>
       <c r="J40" t="s">
-        <v>474</v>
+        <v>465</v>
       </c>
       <c r="K40" t="s">
-        <v>525</v>
+        <v>535</v>
+      </c>
+      <c r="L40" t="s">
+        <v>605</v>
       </c>
       <c r="M40" s="1" t="s">
-        <v>595</v>
+        <v>638</v>
       </c>
       <c r="N40" s="1" t="s">
-        <v>626</v>
-      </c>
-      <c r="O40" t="s">
-        <v>665</v>
+        <v>677</v>
+      </c>
+      <c r="O40" s="1" t="s">
+        <v>710</v>
       </c>
       <c r="P40" s="1" t="s">
-        <v>733</v>
+        <v>749</v>
       </c>
       <c r="Q40" s="1" t="s">
-        <v>764</v>
-      </c>
-      <c r="R40" s="1" t="s">
-        <v>803</v>
+        <v>818</v>
+      </c>
+      <c r="S40" s="1" t="s">
+        <v>853</v>
       </c>
       <c r="T40" t="s">
-        <v>835</v>
+        <v>856</v>
       </c>
       <c r="U40" s="1" t="s">
-        <v>874</v>
-      </c>
-      <c r="V40" s="1" t="s">
-        <v>905</v>
+        <v>895</v>
+      </c>
+      <c r="W40">
+        <v>28</v>
       </c>
     </row>
-    <row r="41" spans="1:22">
+    <row r="41" spans="1:23">
       <c r="A41" t="s">
         <v>39</v>
       </c>
       <c r="B41" t="s">
-        <v>106</v>
+        <v>107</v>
+      </c>
+      <c r="C41" t="s">
+        <v>145</v>
       </c>
       <c r="D41" t="s">
-        <v>178</v>
+        <v>181</v>
       </c>
       <c r="E41" t="s">
-        <v>215</v>
+        <v>219</v>
       </c>
       <c r="F41" t="s">
-        <v>254</v>
+        <v>259</v>
       </c>
       <c r="G41" t="s">
-        <v>297</v>
+        <v>304</v>
       </c>
       <c r="H41" t="s">
-        <v>347</v>
+        <v>354</v>
       </c>
       <c r="I41" t="s">
-        <v>417</v>
+        <v>425</v>
       </c>
       <c r="J41" t="s">
-        <v>475</v>
+        <v>484</v>
       </c>
       <c r="K41" t="s">
-        <v>526</v>
+        <v>536</v>
+      </c>
+      <c r="L41" t="s">
+        <v>606</v>
       </c>
       <c r="M41" s="1" t="s">
-        <v>596</v>
+        <v>638</v>
       </c>
       <c r="N41" s="1" t="s">
-        <v>626</v>
-      </c>
-      <c r="O41" t="s">
-        <v>666</v>
+        <v>678</v>
+      </c>
+      <c r="O41" s="1" t="s">
+        <v>710</v>
       </c>
       <c r="P41" s="1" t="s">
-        <v>734</v>
+        <v>750</v>
       </c>
       <c r="Q41" s="1" t="s">
-        <v>764</v>
-      </c>
-      <c r="R41" s="1" t="s">
-        <v>804</v>
+        <v>819</v>
+      </c>
+      <c r="S41" s="1" t="s">
+        <v>853</v>
       </c>
       <c r="T41" t="s">
-        <v>835</v>
+        <v>856</v>
       </c>
       <c r="U41" s="1" t="s">
-        <v>875</v>
-      </c>
-      <c r="V41" s="1" t="s">
-        <v>905</v>
+        <v>896</v>
+      </c>
+      <c r="W41">
+        <v>63</v>
       </c>
     </row>
-    <row r="42" spans="1:22">
+    <row r="42" spans="1:23">
       <c r="A42" t="s">
         <v>40</v>
       </c>
       <c r="B42" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="D42" t="s">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="E42" t="s">
-        <v>216</v>
+        <v>220</v>
       </c>
       <c r="F42" t="s">
-        <v>255</v>
+        <v>260</v>
       </c>
       <c r="G42" t="s">
-        <v>297</v>
+        <v>304</v>
       </c>
       <c r="H42" t="s">
-        <v>348</v>
+        <v>355</v>
       </c>
       <c r="I42" t="s">
-        <v>418</v>
+        <v>426</v>
       </c>
       <c r="J42" t="s">
-        <v>476</v>
+        <v>485</v>
       </c>
       <c r="K42" t="s">
-        <v>527</v>
+        <v>537</v>
+      </c>
+      <c r="L42" t="s">
+        <v>607</v>
       </c>
       <c r="M42" s="1" t="s">
-        <v>597</v>
+        <v>638</v>
       </c>
       <c r="N42" s="1" t="s">
-        <v>626</v>
-      </c>
-      <c r="O42" t="s">
-        <v>667</v>
+        <v>679</v>
+      </c>
+      <c r="O42" s="1" t="s">
+        <v>710</v>
       </c>
       <c r="P42" s="1" t="s">
-        <v>735</v>
+        <v>751</v>
       </c>
       <c r="Q42" s="1" t="s">
-        <v>764</v>
-      </c>
-      <c r="R42" s="1" t="s">
-        <v>805</v>
+        <v>820</v>
+      </c>
+      <c r="S42" s="1" t="s">
+        <v>853</v>
       </c>
       <c r="T42" t="s">
-        <v>835</v>
+        <v>856</v>
       </c>
       <c r="U42" s="1" t="s">
-        <v>876</v>
-      </c>
-      <c r="V42" s="1" t="s">
-        <v>905</v>
+        <v>897</v>
+      </c>
+      <c r="W42">
+        <v>81</v>
       </c>
     </row>
-    <row r="43" spans="1:22">
+    <row r="43" spans="1:23">
       <c r="A43" t="s">
         <v>41</v>
       </c>
       <c r="B43" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="D43" t="s">
-        <v>180</v>
+        <v>183</v>
       </c>
       <c r="E43" t="s">
-        <v>217</v>
+        <v>221</v>
       </c>
       <c r="F43" t="s">
-        <v>256</v>
+        <v>261</v>
       </c>
       <c r="G43" t="s">
-        <v>298</v>
+        <v>304</v>
       </c>
       <c r="H43" t="s">
-        <v>349</v>
+        <v>356</v>
       </c>
       <c r="I43" t="s">
-        <v>419</v>
+        <v>427</v>
       </c>
       <c r="J43" t="s">
-        <v>461</v>
+        <v>486</v>
       </c>
       <c r="K43" t="s">
-        <v>528</v>
+        <v>538</v>
+      </c>
+      <c r="L43" t="s">
+        <v>608</v>
       </c>
       <c r="M43" s="1" t="s">
-        <v>598</v>
+        <v>638</v>
       </c>
       <c r="N43" s="1" t="s">
-        <v>626</v>
-      </c>
-      <c r="O43" t="s">
-        <v>668</v>
+        <v>680</v>
+      </c>
+      <c r="O43" s="1" t="s">
+        <v>710</v>
       </c>
       <c r="P43" s="1" t="s">
-        <v>736</v>
+        <v>752</v>
       </c>
       <c r="Q43" s="1" t="s">
-        <v>764</v>
-      </c>
-      <c r="R43" s="1" t="s">
-        <v>806</v>
+        <v>821</v>
+      </c>
+      <c r="S43" s="1" t="s">
+        <v>853</v>
       </c>
       <c r="T43" t="s">
-        <v>835</v>
+        <v>856</v>
       </c>
       <c r="U43" s="1" t="s">
-        <v>877</v>
-      </c>
-      <c r="V43" s="1" t="s">
-        <v>905</v>
+        <v>898</v>
+      </c>
+      <c r="W43">
+        <v>34</v>
       </c>
     </row>
-    <row r="44" spans="1:22">
+    <row r="44" spans="1:23">
       <c r="A44" t="s">
         <v>42</v>
       </c>
       <c r="B44" t="s">
-        <v>109</v>
-      </c>
-      <c r="C44" t="s">
-        <v>143</v>
+        <v>110</v>
       </c>
       <c r="D44" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="E44" t="s">
-        <v>197</v>
+        <v>222</v>
+      </c>
+      <c r="F44" t="s">
+        <v>262</v>
       </c>
       <c r="G44" t="s">
-        <v>285</v>
+        <v>305</v>
       </c>
       <c r="H44" t="s">
-        <v>350</v>
+        <v>357</v>
       </c>
       <c r="I44" t="s">
-        <v>420</v>
+        <v>428</v>
       </c>
       <c r="J44" t="s">
-        <v>455</v>
+        <v>471</v>
       </c>
       <c r="K44" t="s">
-        <v>529</v>
+        <v>539</v>
+      </c>
+      <c r="L44" t="s">
+        <v>609</v>
       </c>
       <c r="M44" s="1" t="s">
-        <v>599</v>
+        <v>638</v>
       </c>
       <c r="N44" s="1" t="s">
-        <v>626</v>
-      </c>
-      <c r="O44" t="s">
-        <v>669</v>
+        <v>681</v>
+      </c>
+      <c r="O44" s="1" t="s">
+        <v>710</v>
       </c>
       <c r="P44" s="1" t="s">
-        <v>737</v>
+        <v>753</v>
       </c>
       <c r="Q44" s="1" t="s">
-        <v>764</v>
-      </c>
-      <c r="R44" s="1" t="s">
-        <v>807</v>
+        <v>822</v>
+      </c>
+      <c r="S44" s="1" t="s">
+        <v>853</v>
       </c>
       <c r="T44" t="s">
-        <v>835</v>
+        <v>856</v>
       </c>
       <c r="U44" s="1" t="s">
-        <v>878</v>
-      </c>
-      <c r="V44" s="1" t="s">
-        <v>905</v>
+        <v>899</v>
+      </c>
+      <c r="W44">
+        <v>52</v>
       </c>
     </row>
-    <row r="45" spans="1:22">
+    <row r="45" spans="1:23">
       <c r="A45" t="s">
         <v>43</v>
       </c>
       <c r="B45" t="s">
-        <v>110</v>
+        <v>111</v>
+      </c>
+      <c r="C45" t="s">
+        <v>146</v>
+      </c>
+      <c r="D45" t="s">
+        <v>185</v>
       </c>
       <c r="E45" t="s">
-        <v>197</v>
-      </c>
-      <c r="F45" t="s">
-        <v>257</v>
+        <v>202</v>
       </c>
       <c r="G45" t="s">
-        <v>299</v>
+        <v>292</v>
       </c>
       <c r="H45" t="s">
-        <v>351</v>
+        <v>358</v>
       </c>
       <c r="I45" t="s">
-        <v>421</v>
+        <v>429</v>
       </c>
       <c r="J45" t="s">
-        <v>477</v>
+        <v>465</v>
       </c>
       <c r="K45" t="s">
-        <v>530</v>
+        <v>540</v>
+      </c>
+      <c r="L45" t="s">
+        <v>610</v>
       </c>
       <c r="M45" s="1" t="s">
-        <v>600</v>
+        <v>638</v>
       </c>
       <c r="N45" s="1" t="s">
-        <v>626</v>
-      </c>
-      <c r="O45" t="s">
-        <v>670</v>
+        <v>682</v>
+      </c>
+      <c r="O45" s="1" t="s">
+        <v>710</v>
       </c>
       <c r="P45" s="1" t="s">
-        <v>738</v>
+        <v>754</v>
       </c>
       <c r="Q45" s="1" t="s">
-        <v>764</v>
-      </c>
-      <c r="R45" s="1" t="s">
-        <v>808</v>
+        <v>823</v>
+      </c>
+      <c r="S45" s="1" t="s">
+        <v>853</v>
       </c>
       <c r="T45" t="s">
-        <v>835</v>
+        <v>856</v>
       </c>
       <c r="U45" s="1" t="s">
-        <v>879</v>
-      </c>
-      <c r="V45" s="1" t="s">
-        <v>905</v>
+        <v>900</v>
+      </c>
+      <c r="W45">
+        <v>49</v>
       </c>
     </row>
-    <row r="46" spans="1:22">
+    <row r="46" spans="1:23">
       <c r="A46" t="s">
         <v>44</v>
       </c>
       <c r="B46" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="E46" t="s">
-        <v>196</v>
+        <v>202</v>
       </c>
       <c r="F46" t="s">
-        <v>241</v>
+        <v>263</v>
       </c>
       <c r="G46" t="s">
-        <v>300</v>
+        <v>306</v>
       </c>
       <c r="H46" t="s">
-        <v>352</v>
+        <v>359</v>
       </c>
       <c r="I46" t="s">
-        <v>422</v>
+        <v>430</v>
       </c>
       <c r="J46" t="s">
-        <v>478</v>
+        <v>487</v>
       </c>
       <c r="K46" t="s">
-        <v>531</v>
+        <v>541</v>
+      </c>
+      <c r="L46" t="s">
+        <v>611</v>
       </c>
       <c r="M46" s="1" t="s">
-        <v>601</v>
+        <v>638</v>
       </c>
       <c r="N46" s="1" t="s">
-        <v>626</v>
-      </c>
-      <c r="O46" t="s">
-        <v>671</v>
+        <v>683</v>
+      </c>
+      <c r="O46" s="1" t="s">
+        <v>710</v>
       </c>
       <c r="P46" s="1" t="s">
-        <v>739</v>
+        <v>755</v>
       </c>
       <c r="Q46" s="1" t="s">
-        <v>764</v>
-      </c>
-      <c r="R46" s="1" t="s">
-        <v>809</v>
+        <v>824</v>
+      </c>
+      <c r="S46" s="1" t="s">
+        <v>853</v>
       </c>
       <c r="T46" t="s">
-        <v>835</v>
+        <v>856</v>
       </c>
       <c r="U46" s="1" t="s">
-        <v>880</v>
-      </c>
-      <c r="V46" s="1" t="s">
-        <v>905</v>
+        <v>901</v>
+      </c>
+      <c r="W46">
+        <v>41</v>
       </c>
     </row>
-    <row r="47" spans="1:22">
+    <row r="47" spans="1:23">
       <c r="A47" t="s">
         <v>45</v>
       </c>
       <c r="B47" t="s">
-        <v>112</v>
-      </c>
-      <c r="D47" t="s">
-        <v>182</v>
+        <v>113</v>
       </c>
       <c r="E47" t="s">
-        <v>218</v>
+        <v>201</v>
       </c>
       <c r="F47" t="s">
-        <v>258</v>
+        <v>247</v>
       </c>
       <c r="G47" t="s">
-        <v>294</v>
+        <v>307</v>
       </c>
       <c r="H47" t="s">
-        <v>353</v>
+        <v>360</v>
       </c>
       <c r="I47" t="s">
-        <v>423</v>
+        <v>431</v>
       </c>
       <c r="J47" t="s">
-        <v>473</v>
+        <v>488</v>
       </c>
       <c r="K47" t="s">
-        <v>532</v>
+        <v>542</v>
+      </c>
+      <c r="L47" t="s">
+        <v>612</v>
       </c>
       <c r="M47" s="1" t="s">
-        <v>602</v>
+        <v>638</v>
       </c>
       <c r="N47" s="1" t="s">
-        <v>626</v>
-      </c>
-      <c r="O47" t="s">
-        <v>672</v>
+        <v>684</v>
+      </c>
+      <c r="O47" s="1" t="s">
+        <v>710</v>
       </c>
       <c r="P47" s="1" t="s">
-        <v>740</v>
+        <v>756</v>
       </c>
       <c r="Q47" s="1" t="s">
-        <v>764</v>
-      </c>
-      <c r="R47" s="1" t="s">
-        <v>810</v>
+        <v>825</v>
+      </c>
+      <c r="S47" s="1" t="s">
+        <v>853</v>
       </c>
       <c r="T47" t="s">
-        <v>835</v>
+        <v>856</v>
       </c>
       <c r="U47" s="1" t="s">
-        <v>881</v>
-      </c>
-      <c r="V47" s="1" t="s">
-        <v>905</v>
+        <v>902</v>
+      </c>
+      <c r="W47">
+        <v>630</v>
       </c>
     </row>
-    <row r="48" spans="1:22">
+    <row r="48" spans="1:23">
       <c r="A48" t="s">
         <v>46</v>
       </c>
       <c r="B48" t="s">
-        <v>113</v>
-      </c>
-      <c r="C48" t="s">
-        <v>144</v>
+        <v>114</v>
+      </c>
+      <c r="D48" t="s">
+        <v>186</v>
       </c>
       <c r="E48" t="s">
-        <v>197</v>
+        <v>223</v>
       </c>
       <c r="F48" t="s">
-        <v>259</v>
+        <v>264</v>
       </c>
       <c r="G48" t="s">
-        <v>295</v>
+        <v>301</v>
       </c>
       <c r="H48" t="s">
-        <v>354</v>
+        <v>361</v>
       </c>
       <c r="I48" t="s">
-        <v>424</v>
+        <v>432</v>
       </c>
       <c r="J48" t="s">
-        <v>479</v>
+        <v>483</v>
       </c>
       <c r="K48" t="s">
-        <v>533</v>
+        <v>543</v>
+      </c>
+      <c r="L48" t="s">
+        <v>613</v>
       </c>
       <c r="M48" s="1" t="s">
-        <v>603</v>
+        <v>638</v>
       </c>
       <c r="N48" s="1" t="s">
-        <v>626</v>
-      </c>
-      <c r="O48" t="s">
-        <v>673</v>
+        <v>685</v>
+      </c>
+      <c r="O48" s="1" t="s">
+        <v>710</v>
       </c>
       <c r="P48" s="1" t="s">
-        <v>741</v>
+        <v>757</v>
       </c>
       <c r="Q48" s="1" t="s">
-        <v>764</v>
-      </c>
-      <c r="R48" s="1" t="s">
-        <v>811</v>
+        <v>826</v>
+      </c>
+      <c r="S48" s="1" t="s">
+        <v>853</v>
       </c>
       <c r="T48" t="s">
-        <v>835</v>
+        <v>856</v>
       </c>
       <c r="U48" s="1" t="s">
-        <v>882</v>
-      </c>
-      <c r="V48" s="1" t="s">
-        <v>905</v>
+        <v>903</v>
+      </c>
+      <c r="W48">
+        <v>171</v>
       </c>
     </row>
-    <row r="49" spans="1:22">
+    <row r="49" spans="1:23">
       <c r="A49" t="s">
         <v>47</v>
       </c>
       <c r="B49" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="C49" t="s">
-        <v>145</v>
-      </c>
-      <c r="D49" t="s">
-        <v>183</v>
+        <v>147</v>
       </c>
       <c r="E49" t="s">
-        <v>219</v>
+        <v>202</v>
       </c>
       <c r="F49" t="s">
-        <v>260</v>
+        <v>265</v>
       </c>
       <c r="G49" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="H49" t="s">
-        <v>355</v>
+        <v>362</v>
       </c>
       <c r="I49" t="s">
-        <v>425</v>
+        <v>433</v>
       </c>
       <c r="J49" t="s">
-        <v>461</v>
+        <v>489</v>
       </c>
       <c r="K49" t="s">
-        <v>534</v>
+        <v>544</v>
+      </c>
+      <c r="L49" t="s">
+        <v>614</v>
       </c>
       <c r="M49" s="1" t="s">
-        <v>604</v>
+        <v>638</v>
       </c>
       <c r="N49" s="1" t="s">
-        <v>626</v>
-      </c>
-      <c r="O49" t="s">
-        <v>674</v>
+        <v>686</v>
+      </c>
+      <c r="O49" s="1" t="s">
+        <v>710</v>
       </c>
       <c r="P49" s="1" t="s">
-        <v>742</v>
+        <v>758</v>
       </c>
       <c r="Q49" s="1" t="s">
-        <v>764</v>
-      </c>
-      <c r="R49" s="1" t="s">
-        <v>812</v>
+        <v>827</v>
+      </c>
+      <c r="S49" s="1" t="s">
+        <v>853</v>
       </c>
       <c r="T49" t="s">
-        <v>835</v>
+        <v>856</v>
       </c>
       <c r="U49" s="1" t="s">
-        <v>883</v>
-      </c>
-      <c r="V49" s="1" t="s">
-        <v>905</v>
+        <v>904</v>
+      </c>
+      <c r="W49">
+        <v>30</v>
       </c>
     </row>
-    <row r="50" spans="1:22">
+    <row r="50" spans="1:23">
       <c r="A50" t="s">
         <v>48</v>
       </c>
       <c r="B50" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="C50" t="s">
-        <v>146</v>
+        <v>148</v>
+      </c>
+      <c r="D50" t="s">
+        <v>187</v>
       </c>
       <c r="E50" t="s">
-        <v>196</v>
+        <v>224</v>
       </c>
       <c r="F50" t="s">
-        <v>261</v>
+        <v>266</v>
       </c>
       <c r="G50" t="s">
-        <v>293</v>
+        <v>308</v>
       </c>
       <c r="H50" t="s">
-        <v>356</v>
+        <v>363</v>
       </c>
       <c r="I50" t="s">
-        <v>426</v>
+        <v>434</v>
       </c>
       <c r="J50" t="s">
-        <v>461</v>
+        <v>471</v>
       </c>
       <c r="K50" t="s">
-        <v>535</v>
+        <v>545</v>
+      </c>
+      <c r="L50" t="s">
+        <v>615</v>
       </c>
       <c r="M50" s="1" t="s">
-        <v>605</v>
+        <v>638</v>
       </c>
       <c r="N50" s="1" t="s">
-        <v>626</v>
-      </c>
-      <c r="O50" t="s">
-        <v>675</v>
+        <v>687</v>
+      </c>
+      <c r="O50" s="1" t="s">
+        <v>710</v>
       </c>
       <c r="P50" s="1" t="s">
-        <v>743</v>
+        <v>759</v>
       </c>
       <c r="Q50" s="1" t="s">
-        <v>764</v>
-      </c>
-      <c r="R50" s="1" t="s">
-        <v>813</v>
+        <v>828</v>
+      </c>
+      <c r="S50" s="1" t="s">
+        <v>853</v>
       </c>
       <c r="T50" t="s">
-        <v>835</v>
+        <v>856</v>
       </c>
       <c r="U50" s="1" t="s">
-        <v>884</v>
-      </c>
-      <c r="V50" s="1" t="s">
         <v>905</v>
       </c>
+      <c r="W50">
+        <v>15</v>
+      </c>
     </row>
-    <row r="51" spans="1:22">
+    <row r="51" spans="1:23">
       <c r="A51" t="s">
         <v>49</v>
       </c>
       <c r="B51" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="C51" t="s">
-        <v>147</v>
-      </c>
-      <c r="D51" t="s">
-        <v>184</v>
+        <v>149</v>
       </c>
       <c r="E51" t="s">
-        <v>196</v>
+        <v>201</v>
       </c>
       <c r="F51" t="s">
-        <v>262</v>
+        <v>267</v>
       </c>
       <c r="G51" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="H51" t="s">
-        <v>357</v>
+        <v>364</v>
       </c>
       <c r="I51" t="s">
-        <v>427</v>
+        <v>435</v>
       </c>
       <c r="J51" t="s">
-        <v>457</v>
+        <v>471</v>
       </c>
       <c r="K51" t="s">
-        <v>536</v>
+        <v>546</v>
+      </c>
+      <c r="L51" t="s">
+        <v>616</v>
       </c>
       <c r="M51" s="1" t="s">
-        <v>606</v>
+        <v>638</v>
       </c>
       <c r="N51" s="1" t="s">
-        <v>626</v>
-      </c>
-      <c r="O51" t="s">
-        <v>676</v>
+        <v>688</v>
+      </c>
+      <c r="O51" s="1" t="s">
+        <v>710</v>
       </c>
       <c r="P51" s="1" t="s">
-        <v>744</v>
+        <v>760</v>
       </c>
       <c r="Q51" s="1" t="s">
-        <v>764</v>
-      </c>
-      <c r="R51" s="1" t="s">
-        <v>814</v>
+        <v>829</v>
+      </c>
+      <c r="S51" s="1" t="s">
+        <v>853</v>
       </c>
       <c r="T51" t="s">
-        <v>835</v>
+        <v>856</v>
       </c>
       <c r="U51" s="1" t="s">
-        <v>885</v>
-      </c>
-      <c r="V51" s="1" t="s">
-        <v>905</v>
+        <v>906</v>
+      </c>
+      <c r="W51">
+        <v>12</v>
       </c>
     </row>
-    <row r="52" spans="1:22">
+    <row r="52" spans="1:23">
       <c r="A52" t="s">
         <v>50</v>
       </c>
       <c r="B52" t="s">
-        <v>117</v>
+        <v>118</v>
+      </c>
+      <c r="C52" t="s">
+        <v>150</v>
       </c>
       <c r="D52" t="s">
-        <v>185</v>
+        <v>188</v>
       </c>
       <c r="E52" t="s">
-        <v>220</v>
+        <v>201</v>
       </c>
       <c r="F52" t="s">
-        <v>263</v>
+        <v>268</v>
       </c>
       <c r="G52" t="s">
-        <v>285</v>
+        <v>309</v>
       </c>
       <c r="H52" t="s">
-        <v>358</v>
+        <v>365</v>
       </c>
       <c r="I52" t="s">
-        <v>428</v>
+        <v>436</v>
       </c>
       <c r="J52" t="s">
-        <v>455</v>
+        <v>467</v>
       </c>
       <c r="K52" t="s">
-        <v>537</v>
+        <v>547</v>
+      </c>
+      <c r="L52" t="s">
+        <v>617</v>
       </c>
       <c r="M52" s="1" t="s">
-        <v>607</v>
+        <v>638</v>
       </c>
       <c r="N52" s="1" t="s">
-        <v>626</v>
-      </c>
-      <c r="O52" t="s">
-        <v>677</v>
+        <v>689</v>
+      </c>
+      <c r="O52" s="1" t="s">
+        <v>710</v>
       </c>
       <c r="P52" s="1" t="s">
-        <v>745</v>
+        <v>761</v>
       </c>
       <c r="Q52" s="1" t="s">
-        <v>764</v>
-      </c>
-      <c r="R52" s="1" t="s">
-        <v>815</v>
+        <v>830</v>
+      </c>
+      <c r="S52" s="1" t="s">
+        <v>853</v>
       </c>
       <c r="T52" t="s">
-        <v>835</v>
+        <v>856</v>
       </c>
       <c r="U52" s="1" t="s">
-        <v>886</v>
-      </c>
-      <c r="V52" s="1" t="s">
-        <v>905</v>
+        <v>907</v>
+      </c>
+      <c r="W52">
+        <v>44</v>
       </c>
     </row>
-    <row r="53" spans="1:22">
+    <row r="53" spans="1:23">
       <c r="A53" t="s">
         <v>51</v>
       </c>
       <c r="B53" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="D53" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="E53" t="s">
-        <v>221</v>
+        <v>225</v>
+      </c>
+      <c r="F53" t="s">
+        <v>269</v>
       </c>
       <c r="G53" t="s">
-        <v>302</v>
+        <v>292</v>
       </c>
       <c r="H53" t="s">
-        <v>359</v>
+        <v>366</v>
       </c>
       <c r="I53" t="s">
-        <v>429</v>
+        <v>437</v>
       </c>
       <c r="J53" t="s">
-        <v>480</v>
+        <v>465</v>
       </c>
       <c r="K53" t="s">
-        <v>538</v>
+        <v>548</v>
+      </c>
+      <c r="L53" t="s">
+        <v>618</v>
       </c>
       <c r="M53" s="1" t="s">
-        <v>608</v>
+        <v>638</v>
       </c>
       <c r="N53" s="1" t="s">
-        <v>626</v>
-      </c>
-      <c r="O53" t="s">
-        <v>678</v>
+        <v>690</v>
+      </c>
+      <c r="O53" s="1" t="s">
+        <v>710</v>
       </c>
       <c r="P53" s="1" t="s">
-        <v>746</v>
+        <v>762</v>
       </c>
       <c r="Q53" s="1" t="s">
-        <v>764</v>
-      </c>
-      <c r="R53" s="1" t="s">
-        <v>816</v>
+        <v>831</v>
+      </c>
+      <c r="S53" s="1" t="s">
+        <v>853</v>
       </c>
       <c r="T53" t="s">
-        <v>835</v>
+        <v>856</v>
       </c>
       <c r="U53" s="1" t="s">
-        <v>887</v>
-      </c>
-      <c r="V53" s="1" t="s">
-        <v>905</v>
+        <v>908</v>
+      </c>
+      <c r="W53">
+        <v>6</v>
       </c>
     </row>
-    <row r="54" spans="1:22">
+    <row r="54" spans="1:23">
       <c r="A54" t="s">
         <v>52</v>
       </c>
       <c r="B54" t="s">
-        <v>119</v>
+        <v>120</v>
+      </c>
+      <c r="D54" t="s">
+        <v>190</v>
       </c>
       <c r="E54" t="s">
-        <v>222</v>
+        <v>226</v>
       </c>
       <c r="G54" t="s">
-        <v>293</v>
+        <v>309</v>
       </c>
       <c r="H54" t="s">
-        <v>360</v>
+        <v>367</v>
       </c>
       <c r="I54" t="s">
-        <v>430</v>
+        <v>438</v>
       </c>
       <c r="J54" t="s">
-        <v>461</v>
+        <v>490</v>
       </c>
       <c r="K54" t="s">
-        <v>539</v>
+        <v>549</v>
+      </c>
+      <c r="L54" t="s">
+        <v>619</v>
       </c>
       <c r="M54" s="1" t="s">
-        <v>609</v>
+        <v>638</v>
       </c>
       <c r="N54" s="1" t="s">
-        <v>626</v>
-      </c>
-      <c r="O54" t="s">
-        <v>679</v>
+        <v>691</v>
+      </c>
+      <c r="O54" s="1" t="s">
+        <v>710</v>
       </c>
       <c r="P54" s="1" t="s">
-        <v>747</v>
+        <v>763</v>
       </c>
       <c r="Q54" s="1" t="s">
-        <v>764</v>
-      </c>
-      <c r="R54" s="1" t="s">
-        <v>817</v>
+        <v>832</v>
+      </c>
+      <c r="S54" s="1" t="s">
+        <v>853</v>
       </c>
       <c r="T54" t="s">
-        <v>835</v>
+        <v>856</v>
       </c>
       <c r="U54" s="1" t="s">
-        <v>888</v>
-      </c>
-      <c r="V54" s="1" t="s">
-        <v>905</v>
+        <v>909</v>
+      </c>
+      <c r="W54">
+        <v>72</v>
       </c>
     </row>
-    <row r="55" spans="1:22">
+    <row r="55" spans="1:23">
       <c r="A55" t="s">
         <v>53</v>
       </c>
       <c r="B55" t="s">
-        <v>120</v>
-      </c>
-      <c r="D55" t="s">
-        <v>187</v>
+        <v>121</v>
       </c>
       <c r="E55" t="s">
-        <v>219</v>
+        <v>227</v>
       </c>
       <c r="G55" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
       <c r="H55" t="s">
-        <v>361</v>
+        <v>368</v>
       </c>
       <c r="I55" t="s">
-        <v>431</v>
+        <v>439</v>
       </c>
       <c r="J55" t="s">
-        <v>455</v>
+        <v>471</v>
       </c>
       <c r="K55" t="s">
-        <v>540</v>
+        <v>550</v>
+      </c>
+      <c r="L55" t="s">
+        <v>620</v>
       </c>
       <c r="M55" s="1" t="s">
-        <v>610</v>
+        <v>638</v>
       </c>
       <c r="N55" s="1" t="s">
-        <v>626</v>
-      </c>
-      <c r="O55" t="s">
-        <v>680</v>
+        <v>692</v>
+      </c>
+      <c r="O55" s="1" t="s">
+        <v>710</v>
       </c>
       <c r="P55" s="1" t="s">
-        <v>748</v>
+        <v>764</v>
       </c>
       <c r="Q55" s="1" t="s">
-        <v>764</v>
-      </c>
-      <c r="R55" s="1" t="s">
-        <v>818</v>
+        <v>833</v>
+      </c>
+      <c r="S55" s="1" t="s">
+        <v>853</v>
       </c>
       <c r="T55" t="s">
-        <v>835</v>
+        <v>856</v>
       </c>
       <c r="U55" s="1" t="s">
-        <v>889</v>
-      </c>
-      <c r="V55" s="1" t="s">
-        <v>905</v>
+        <v>910</v>
+      </c>
+      <c r="W55">
+        <v>19</v>
       </c>
     </row>
-    <row r="56" spans="1:22">
+    <row r="56" spans="1:23">
       <c r="A56" t="s">
         <v>54</v>
       </c>
       <c r="B56" t="s">
-        <v>121</v>
+        <v>122</v>
+      </c>
+      <c r="D56" t="s">
+        <v>191</v>
       </c>
       <c r="E56" t="s">
-        <v>197</v>
-      </c>
-      <c r="F56" t="s">
-        <v>264</v>
+        <v>224</v>
       </c>
       <c r="G56" t="s">
-        <v>304</v>
+        <v>310</v>
       </c>
       <c r="H56" t="s">
-        <v>362</v>
+        <v>369</v>
       </c>
       <c r="I56" t="s">
-        <v>432</v>
+        <v>440</v>
       </c>
       <c r="J56" t="s">
-        <v>455</v>
+        <v>465</v>
       </c>
       <c r="K56" t="s">
-        <v>541</v>
+        <v>551</v>
+      </c>
+      <c r="L56" t="s">
+        <v>621</v>
       </c>
       <c r="M56" s="1" t="s">
-        <v>611</v>
+        <v>638</v>
       </c>
       <c r="N56" s="1" t="s">
-        <v>626</v>
-      </c>
-      <c r="O56" t="s">
-        <v>681</v>
+        <v>693</v>
+      </c>
+      <c r="O56" s="1" t="s">
+        <v>710</v>
       </c>
       <c r="P56" s="1" t="s">
-        <v>749</v>
+        <v>765</v>
       </c>
       <c r="Q56" s="1" t="s">
-        <v>764</v>
-      </c>
-      <c r="R56" s="1" t="s">
-        <v>819</v>
+        <v>834</v>
+      </c>
+      <c r="S56" s="1" t="s">
+        <v>853</v>
       </c>
       <c r="T56" t="s">
+        <v>856</v>
+      </c>
+      <c r="U56" s="1" t="s">
+        <v>911</v>
+      </c>
+      <c r="W56">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="57" spans="1:23">
+      <c r="A57" t="s">
+        <v>55</v>
+      </c>
+      <c r="B57" t="s">
+        <v>123</v>
+      </c>
+      <c r="E57" t="s">
+        <v>202</v>
+      </c>
+      <c r="F57" t="s">
+        <v>270</v>
+      </c>
+      <c r="G57" t="s">
+        <v>311</v>
+      </c>
+      <c r="H57" t="s">
+        <v>370</v>
+      </c>
+      <c r="I57" t="s">
+        <v>441</v>
+      </c>
+      <c r="J57" t="s">
+        <v>465</v>
+      </c>
+      <c r="K57" t="s">
+        <v>552</v>
+      </c>
+      <c r="L57" t="s">
+        <v>622</v>
+      </c>
+      <c r="M57" s="1" t="s">
+        <v>638</v>
+      </c>
+      <c r="N57" s="1" t="s">
+        <v>694</v>
+      </c>
+      <c r="O57" s="1" t="s">
+        <v>710</v>
+      </c>
+      <c r="P57" s="1" t="s">
+        <v>766</v>
+      </c>
+      <c r="Q57" s="1" t="s">
         <v>835</v>
       </c>
-      <c r="U56" s="1" t="s">
-        <v>890</v>
-      </c>
-      <c r="V56" s="1" t="s">
-        <v>905</v>
+      <c r="S57" s="1" t="s">
+        <v>853</v>
+      </c>
+      <c r="T57" t="s">
+        <v>856</v>
+      </c>
+      <c r="U57" s="1" t="s">
+        <v>912</v>
+      </c>
+      <c r="W57">
+        <v>56</v>
       </c>
     </row>
-    <row r="57" spans="1:22">
-      <c r="A57" t="s">
-        <v>34</v>
-      </c>
-      <c r="B57" t="s">
-        <v>101</v>
-      </c>
-      <c r="D57" t="s">
-        <v>188</v>
-      </c>
-      <c r="E57" t="s">
-        <v>208</v>
-      </c>
-      <c r="G57" t="s">
-        <v>294</v>
-      </c>
-      <c r="H57" t="s">
-        <v>363</v>
-      </c>
-      <c r="I57" t="s">
-        <v>433</v>
-      </c>
-      <c r="J57" t="s">
-        <v>473</v>
-      </c>
-      <c r="K57" t="s">
-        <v>542</v>
-      </c>
-      <c r="M57" s="1" t="s">
-        <v>591</v>
-      </c>
-      <c r="N57" s="1" t="s">
-        <v>626</v>
-      </c>
-      <c r="O57" t="s">
-        <v>661</v>
-      </c>
-      <c r="P57" s="1" t="s">
-        <v>729</v>
-      </c>
-      <c r="Q57" s="1" t="s">
-        <v>764</v>
-      </c>
-      <c r="R57" s="1" t="s">
-        <v>799</v>
-      </c>
-      <c r="T57" t="s">
-        <v>835</v>
-      </c>
-      <c r="U57" s="1" t="s">
-        <v>870</v>
-      </c>
-      <c r="V57" s="1" t="s">
-        <v>905</v>
+    <row r="58" spans="1:23">
+      <c r="A58" t="s">
+        <v>35</v>
+      </c>
+      <c r="B58" t="s">
+        <v>103</v>
+      </c>
+      <c r="D58" t="s">
+        <v>192</v>
+      </c>
+      <c r="E58" t="s">
+        <v>213</v>
+      </c>
+      <c r="G58" t="s">
+        <v>301</v>
+      </c>
+      <c r="H58" t="s">
+        <v>371</v>
+      </c>
+      <c r="I58" t="s">
+        <v>442</v>
+      </c>
+      <c r="J58" t="s">
+        <v>483</v>
+      </c>
+      <c r="K58" t="s">
+        <v>553</v>
+      </c>
+      <c r="L58" t="s">
+        <v>602</v>
+      </c>
+      <c r="M58" s="1" t="s">
+        <v>638</v>
+      </c>
+      <c r="N58" s="1" t="s">
+        <v>674</v>
+      </c>
+      <c r="O58" s="1" t="s">
+        <v>710</v>
+      </c>
+      <c r="P58" s="1" t="s">
+        <v>746</v>
+      </c>
+      <c r="Q58" s="1" t="s">
+        <v>815</v>
+      </c>
+      <c r="S58" s="1" t="s">
+        <v>853</v>
+      </c>
+      <c r="T58" t="s">
+        <v>856</v>
+      </c>
+      <c r="U58" s="1" t="s">
+        <v>892</v>
+      </c>
+      <c r="W58">
+        <v>314</v>
       </c>
     </row>
-    <row r="58" spans="1:22">
-      <c r="A58" t="s">
-        <v>55</v>
-      </c>
-      <c r="B58" t="s">
-        <v>122</v>
-      </c>
-      <c r="D58" t="s">
-        <v>189</v>
-      </c>
-      <c r="E58" t="s">
-        <v>196</v>
-      </c>
-      <c r="G58" t="s">
-        <v>293</v>
-      </c>
-      <c r="H58" t="s">
-        <v>364</v>
-      </c>
-      <c r="I58" t="s">
-        <v>434</v>
-      </c>
-      <c r="J58" t="s">
-        <v>461</v>
-      </c>
-      <c r="K58" t="s">
-        <v>543</v>
-      </c>
-      <c r="M58" s="1" t="s">
-        <v>612</v>
-      </c>
-      <c r="N58" s="1" t="s">
-        <v>626</v>
-      </c>
-      <c r="O58" t="s">
-        <v>682</v>
-      </c>
-      <c r="P58" s="1" t="s">
-        <v>750</v>
-      </c>
-      <c r="Q58" s="1" t="s">
-        <v>764</v>
-      </c>
-      <c r="R58" s="1" t="s">
-        <v>820</v>
-      </c>
-      <c r="T58" t="s">
-        <v>835</v>
-      </c>
-      <c r="U58" s="1" t="s">
-        <v>891</v>
-      </c>
-      <c r="V58" s="1" t="s">
-        <v>905</v>
-      </c>
-    </row>
-    <row r="59" spans="1:22">
+    <row r="59" spans="1:23">
       <c r="A59" t="s">
         <v>56</v>
       </c>
       <c r="B59" t="s">
-        <v>123</v>
+        <v>124</v>
+      </c>
+      <c r="D59" t="s">
+        <v>193</v>
       </c>
       <c r="E59" t="s">
-        <v>223</v>
-      </c>
-      <c r="F59" t="s">
-        <v>265</v>
+        <v>201</v>
       </c>
       <c r="G59" t="s">
-        <v>293</v>
+        <v>300</v>
       </c>
       <c r="H59" t="s">
-        <v>365</v>
+        <v>372</v>
       </c>
       <c r="I59" t="s">
-        <v>435</v>
+        <v>443</v>
       </c>
       <c r="J59" t="s">
-        <v>461</v>
+        <v>471</v>
       </c>
       <c r="K59" t="s">
-        <v>544</v>
+        <v>554</v>
+      </c>
+      <c r="L59" t="s">
+        <v>623</v>
       </c>
       <c r="M59" s="1" t="s">
-        <v>613</v>
+        <v>638</v>
       </c>
       <c r="N59" s="1" t="s">
-        <v>626</v>
-      </c>
-      <c r="O59" t="s">
-        <v>683</v>
+        <v>695</v>
+      </c>
+      <c r="O59" s="1" t="s">
+        <v>710</v>
       </c>
       <c r="P59" s="1" t="s">
-        <v>751</v>
+        <v>767</v>
       </c>
       <c r="Q59" s="1" t="s">
-        <v>764</v>
-      </c>
-      <c r="R59" s="1" t="s">
-        <v>821</v>
+        <v>836</v>
+      </c>
+      <c r="S59" s="1" t="s">
+        <v>853</v>
       </c>
       <c r="T59" t="s">
-        <v>835</v>
+        <v>856</v>
       </c>
       <c r="U59" s="1" t="s">
-        <v>892</v>
-      </c>
-      <c r="V59" s="1" t="s">
-        <v>905</v>
+        <v>913</v>
+      </c>
+      <c r="W59">
+        <v>15</v>
       </c>
     </row>
-    <row r="60" spans="1:22">
+    <row r="60" spans="1:23">
       <c r="A60" t="s">
         <v>57</v>
       </c>
       <c r="B60" t="s">
-        <v>124</v>
-      </c>
-      <c r="D60" t="s">
-        <v>190</v>
+        <v>125</v>
       </c>
       <c r="E60" t="s">
-        <v>224</v>
+        <v>228</v>
       </c>
       <c r="F60" t="s">
-        <v>266</v>
+        <v>271</v>
       </c>
       <c r="G60" t="s">
-        <v>277</v>
+        <v>300</v>
       </c>
       <c r="H60" t="s">
-        <v>366</v>
+        <v>373</v>
       </c>
       <c r="I60" t="s">
-        <v>436</v>
+        <v>444</v>
       </c>
       <c r="J60" t="s">
-        <v>481</v>
+        <v>471</v>
       </c>
       <c r="K60" t="s">
-        <v>545</v>
+        <v>555</v>
+      </c>
+      <c r="L60" t="s">
+        <v>624</v>
       </c>
       <c r="M60" s="1" t="s">
-        <v>614</v>
+        <v>638</v>
       </c>
       <c r="N60" s="1" t="s">
-        <v>626</v>
-      </c>
-      <c r="O60" t="s">
-        <v>684</v>
+        <v>696</v>
+      </c>
+      <c r="O60" s="1" t="s">
+        <v>710</v>
       </c>
       <c r="P60" s="1" t="s">
-        <v>752</v>
+        <v>768</v>
       </c>
       <c r="Q60" s="1" t="s">
-        <v>764</v>
-      </c>
-      <c r="R60" s="1" t="s">
-        <v>822</v>
+        <v>837</v>
+      </c>
+      <c r="S60" s="1" t="s">
+        <v>853</v>
       </c>
       <c r="T60" t="s">
-        <v>835</v>
+        <v>856</v>
       </c>
       <c r="U60" s="1" t="s">
-        <v>893</v>
-      </c>
-      <c r="V60" s="1" t="s">
-        <v>905</v>
+        <v>914</v>
+      </c>
+      <c r="W60">
+        <v>21</v>
       </c>
     </row>
-    <row r="61" spans="1:22">
+    <row r="61" spans="1:23">
       <c r="A61" t="s">
         <v>58</v>
       </c>
       <c r="B61" t="s">
-        <v>125</v>
-      </c>
-      <c r="C61" t="s">
-        <v>148</v>
+        <v>126</v>
+      </c>
+      <c r="D61" t="s">
+        <v>194</v>
       </c>
       <c r="E61" t="s">
-        <v>208</v>
+        <v>229</v>
+      </c>
+      <c r="F61" t="s">
+        <v>272</v>
       </c>
       <c r="G61" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="H61" t="s">
-        <v>367</v>
+        <v>374</v>
       </c>
       <c r="I61" t="s">
-        <v>437</v>
+        <v>445</v>
       </c>
       <c r="J61" t="s">
-        <v>455</v>
+        <v>491</v>
       </c>
       <c r="K61" t="s">
-        <v>546</v>
+        <v>556</v>
+      </c>
+      <c r="L61" t="s">
+        <v>625</v>
       </c>
       <c r="M61" s="1" t="s">
-        <v>615</v>
+        <v>638</v>
       </c>
       <c r="N61" s="1" t="s">
-        <v>626</v>
-      </c>
-      <c r="O61" t="s">
-        <v>685</v>
+        <v>697</v>
+      </c>
+      <c r="O61" s="1" t="s">
+        <v>710</v>
       </c>
       <c r="P61" s="1" t="s">
-        <v>753</v>
+        <v>769</v>
       </c>
       <c r="Q61" s="1" t="s">
-        <v>764</v>
-      </c>
-      <c r="R61" s="1" t="s">
-        <v>823</v>
+        <v>838</v>
+      </c>
+      <c r="S61" s="1" t="s">
+        <v>853</v>
       </c>
       <c r="T61" t="s">
-        <v>835</v>
+        <v>856</v>
       </c>
       <c r="U61" s="1" t="s">
-        <v>894</v>
-      </c>
-      <c r="V61" s="1" t="s">
-        <v>905</v>
+        <v>915</v>
+      </c>
+      <c r="W61">
+        <v>126</v>
       </c>
     </row>
-    <row r="62" spans="1:22">
+    <row r="62" spans="1:23">
       <c r="A62" t="s">
         <v>59</v>
       </c>
       <c r="B62" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="C62" t="s">
-        <v>149</v>
-      </c>
-      <c r="D62" t="s">
-        <v>191</v>
+        <v>151</v>
       </c>
       <c r="E62" t="s">
-        <v>197</v>
-      </c>
-      <c r="F62" t="s">
-        <v>267</v>
+        <v>213</v>
+      </c>
+      <c r="G62" t="s">
+        <v>290</v>
       </c>
       <c r="H62" t="s">
-        <v>368</v>
+        <v>375</v>
       </c>
       <c r="I62" t="s">
-        <v>438</v>
+        <v>446</v>
       </c>
       <c r="J62" t="s">
-        <v>482</v>
+        <v>465</v>
       </c>
       <c r="K62" t="s">
-        <v>547</v>
+        <v>557</v>
+      </c>
+      <c r="L62" t="s">
+        <v>626</v>
       </c>
       <c r="M62" s="1" t="s">
-        <v>616</v>
+        <v>638</v>
       </c>
       <c r="N62" s="1" t="s">
-        <v>626</v>
-      </c>
-      <c r="O62" t="s">
-        <v>686</v>
+        <v>698</v>
+      </c>
+      <c r="O62" s="1" t="s">
+        <v>710</v>
       </c>
       <c r="P62" s="1" t="s">
-        <v>754</v>
+        <v>770</v>
       </c>
       <c r="Q62" s="1" t="s">
-        <v>764</v>
-      </c>
-      <c r="R62" s="1" t="s">
-        <v>824</v>
+        <v>839</v>
+      </c>
+      <c r="S62" s="1" t="s">
+        <v>853</v>
       </c>
       <c r="T62" t="s">
-        <v>835</v>
+        <v>856</v>
       </c>
       <c r="U62" s="1" t="s">
-        <v>895</v>
-      </c>
-      <c r="V62" s="1" t="s">
-        <v>905</v>
+        <v>916</v>
+      </c>
+      <c r="W62">
+        <v>31</v>
       </c>
     </row>
-    <row r="63" spans="1:22">
+    <row r="63" spans="1:23">
       <c r="A63" t="s">
         <v>60</v>
       </c>
       <c r="B63" t="s">
-        <v>127</v>
+        <v>128</v>
+      </c>
+      <c r="C63" t="s">
+        <v>152</v>
+      </c>
+      <c r="D63" t="s">
+        <v>195</v>
       </c>
       <c r="E63" t="s">
-        <v>225</v>
+        <v>202</v>
       </c>
       <c r="F63" t="s">
-        <v>268</v>
-      </c>
-      <c r="G63" t="s">
-        <v>293</v>
+        <v>273</v>
       </c>
       <c r="H63" t="s">
-        <v>369</v>
+        <v>376</v>
       </c>
       <c r="I63" t="s">
-        <v>439</v>
+        <v>447</v>
       </c>
       <c r="J63" t="s">
-        <v>457</v>
+        <v>492</v>
       </c>
       <c r="K63" t="s">
-        <v>548</v>
+        <v>558</v>
+      </c>
+      <c r="L63" t="s">
+        <v>627</v>
       </c>
       <c r="M63" s="1" t="s">
-        <v>617</v>
+        <v>638</v>
       </c>
       <c r="N63" s="1" t="s">
-        <v>626</v>
-      </c>
-      <c r="O63" t="s">
-        <v>687</v>
+        <v>699</v>
+      </c>
+      <c r="O63" s="1" t="s">
+        <v>710</v>
       </c>
       <c r="P63" s="1" t="s">
-        <v>755</v>
+        <v>771</v>
       </c>
       <c r="Q63" s="1" t="s">
-        <v>764</v>
-      </c>
-      <c r="R63" s="1" t="s">
-        <v>825</v>
+        <v>840</v>
+      </c>
+      <c r="S63" s="1" t="s">
+        <v>853</v>
       </c>
       <c r="T63" t="s">
-        <v>835</v>
+        <v>856</v>
       </c>
       <c r="U63" s="1" t="s">
-        <v>896</v>
-      </c>
-      <c r="V63" s="1" t="s">
-        <v>905</v>
+        <v>917</v>
+      </c>
+      <c r="W63">
+        <v>7</v>
       </c>
     </row>
-    <row r="64" spans="1:22">
+    <row r="64" spans="1:23">
       <c r="A64" t="s">
         <v>61</v>
       </c>
       <c r="B64" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="E64" t="s">
-        <v>226</v>
+        <v>230</v>
       </c>
       <c r="F64" t="s">
-        <v>269</v>
+        <v>274</v>
       </c>
       <c r="G64" t="s">
-        <v>293</v>
+        <v>300</v>
       </c>
       <c r="H64" t="s">
-        <v>370</v>
+        <v>377</v>
       </c>
       <c r="I64" t="s">
-        <v>440</v>
+        <v>448</v>
       </c>
       <c r="J64" t="s">
-        <v>457</v>
+        <v>467</v>
       </c>
       <c r="K64" t="s">
-        <v>549</v>
+        <v>559</v>
+      </c>
+      <c r="L64" t="s">
+        <v>628</v>
       </c>
       <c r="M64" s="1" t="s">
-        <v>618</v>
+        <v>638</v>
       </c>
       <c r="N64" s="1" t="s">
-        <v>626</v>
-      </c>
-      <c r="O64" t="s">
-        <v>688</v>
+        <v>700</v>
+      </c>
+      <c r="O64" s="1" t="s">
+        <v>710</v>
       </c>
       <c r="P64" s="1" t="s">
-        <v>756</v>
+        <v>772</v>
       </c>
       <c r="Q64" s="1" t="s">
-        <v>764</v>
-      </c>
-      <c r="R64" s="1" t="s">
-        <v>826</v>
+        <v>841</v>
+      </c>
+      <c r="S64" s="1" t="s">
+        <v>853</v>
       </c>
       <c r="T64" t="s">
-        <v>835</v>
+        <v>856</v>
       </c>
       <c r="U64" s="1" t="s">
-        <v>897</v>
-      </c>
-      <c r="V64" s="1" t="s">
-        <v>905</v>
+        <v>918</v>
+      </c>
+      <c r="W64">
+        <v>17</v>
       </c>
     </row>
-    <row r="65" spans="1:22">
+    <row r="65" spans="1:23">
       <c r="A65" t="s">
-        <v>32</v>
+        <v>62</v>
       </c>
       <c r="B65" t="s">
-        <v>99</v>
+        <v>130</v>
       </c>
       <c r="E65" t="s">
-        <v>227</v>
+        <v>231</v>
       </c>
       <c r="F65" t="s">
-        <v>270</v>
+        <v>275</v>
       </c>
       <c r="G65" t="s">
-        <v>293</v>
+        <v>300</v>
       </c>
       <c r="H65" t="s">
-        <v>371</v>
+        <v>378</v>
       </c>
       <c r="I65" t="s">
-        <v>441</v>
+        <v>449</v>
       </c>
       <c r="J65" t="s">
-        <v>457</v>
+        <v>467</v>
       </c>
       <c r="K65" t="s">
-        <v>550</v>
+        <v>560</v>
+      </c>
+      <c r="L65" t="s">
+        <v>629</v>
       </c>
       <c r="M65" s="1" t="s">
-        <v>619</v>
+        <v>638</v>
       </c>
       <c r="N65" s="1" t="s">
-        <v>626</v>
-      </c>
-      <c r="O65" t="s">
-        <v>689</v>
+        <v>701</v>
+      </c>
+      <c r="O65" s="1" t="s">
+        <v>710</v>
       </c>
       <c r="P65" s="1" t="s">
-        <v>757</v>
+        <v>773</v>
       </c>
       <c r="Q65" s="1" t="s">
-        <v>764</v>
-      </c>
-      <c r="R65" s="1" t="s">
-        <v>827</v>
+        <v>842</v>
+      </c>
+      <c r="S65" s="1" t="s">
+        <v>853</v>
       </c>
       <c r="T65" t="s">
-        <v>835</v>
+        <v>856</v>
       </c>
       <c r="U65" s="1" t="s">
-        <v>898</v>
-      </c>
-      <c r="V65" s="1" t="s">
-        <v>905</v>
+        <v>919</v>
+      </c>
+      <c r="W65">
+        <v>13</v>
       </c>
     </row>
-    <row r="66" spans="1:22">
+    <row r="66" spans="1:23">
       <c r="A66" t="s">
-        <v>62</v>
+        <v>33</v>
       </c>
       <c r="B66" t="s">
-        <v>129</v>
-      </c>
-      <c r="D66" t="s">
-        <v>192</v>
+        <v>101</v>
       </c>
       <c r="E66" t="s">
-        <v>197</v>
+        <v>232</v>
       </c>
       <c r="F66" t="s">
-        <v>271</v>
+        <v>276</v>
       </c>
       <c r="G66" t="s">
-        <v>296</v>
+        <v>300</v>
       </c>
       <c r="H66" t="s">
-        <v>372</v>
+        <v>379</v>
       </c>
       <c r="I66" t="s">
-        <v>442</v>
+        <v>450</v>
       </c>
       <c r="J66" t="s">
-        <v>483</v>
+        <v>467</v>
       </c>
       <c r="K66" t="s">
-        <v>551</v>
+        <v>561</v>
+      </c>
+      <c r="L66" t="s">
+        <v>630</v>
       </c>
       <c r="M66" s="1" t="s">
-        <v>620</v>
+        <v>638</v>
       </c>
       <c r="N66" s="1" t="s">
-        <v>626</v>
-      </c>
-      <c r="O66" t="s">
-        <v>690</v>
+        <v>702</v>
+      </c>
+      <c r="O66" s="1" t="s">
+        <v>710</v>
       </c>
       <c r="P66" s="1" t="s">
-        <v>758</v>
+        <v>774</v>
       </c>
       <c r="Q66" s="1" t="s">
-        <v>764</v>
-      </c>
-      <c r="R66" s="1" t="s">
-        <v>828</v>
+        <v>843</v>
+      </c>
+      <c r="S66" s="1" t="s">
+        <v>853</v>
       </c>
       <c r="T66" t="s">
-        <v>835</v>
+        <v>856</v>
       </c>
       <c r="U66" s="1" t="s">
-        <v>899</v>
-      </c>
-      <c r="V66" s="1" t="s">
-        <v>905</v>
+        <v>920</v>
+      </c>
+      <c r="W66">
+        <v>13</v>
       </c>
     </row>
-    <row r="67" spans="1:22">
+    <row r="67" spans="1:23">
       <c r="A67" t="s">
         <v>63</v>
       </c>
       <c r="B67" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="D67" t="s">
-        <v>193</v>
+        <v>196</v>
       </c>
       <c r="E67" t="s">
-        <v>197</v>
+        <v>202</v>
       </c>
       <c r="F67" t="s">
-        <v>272</v>
+        <v>277</v>
       </c>
       <c r="G67" t="s">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="H67" t="s">
-        <v>373</v>
+        <v>380</v>
       </c>
       <c r="I67" t="s">
-        <v>443</v>
+        <v>451</v>
       </c>
       <c r="J67" t="s">
-        <v>484</v>
+        <v>493</v>
       </c>
       <c r="K67" t="s">
-        <v>552</v>
+        <v>562</v>
+      </c>
+      <c r="L67" t="s">
+        <v>631</v>
       </c>
       <c r="M67" s="1" t="s">
-        <v>621</v>
+        <v>638</v>
       </c>
       <c r="N67" s="1" t="s">
-        <v>626</v>
-      </c>
-      <c r="O67" t="s">
-        <v>691</v>
+        <v>703</v>
+      </c>
+      <c r="O67" s="1" t="s">
+        <v>710</v>
       </c>
       <c r="P67" s="1" t="s">
-        <v>759</v>
+        <v>775</v>
       </c>
       <c r="Q67" s="1" t="s">
-        <v>764</v>
-      </c>
-      <c r="R67" s="1" t="s">
-        <v>829</v>
+        <v>844</v>
+      </c>
+      <c r="S67" s="1" t="s">
+        <v>853</v>
       </c>
       <c r="T67" t="s">
-        <v>835</v>
+        <v>856</v>
       </c>
       <c r="U67" s="1" t="s">
-        <v>900</v>
-      </c>
-      <c r="V67" s="1" t="s">
-        <v>905</v>
+        <v>921</v>
+      </c>
+      <c r="W67">
+        <v>297</v>
       </c>
     </row>
-    <row r="68" spans="1:22">
+    <row r="68" spans="1:23">
       <c r="A68" t="s">
         <v>64</v>
       </c>
       <c r="B68" t="s">
-        <v>131</v>
+        <v>132</v>
+      </c>
+      <c r="D68" t="s">
+        <v>197</v>
       </c>
       <c r="E68" t="s">
-        <v>197</v>
+        <v>202</v>
       </c>
       <c r="F68" t="s">
-        <v>273</v>
+        <v>278</v>
       </c>
       <c r="G68" t="s">
-        <v>300</v>
+        <v>308</v>
       </c>
       <c r="H68" t="s">
-        <v>374</v>
+        <v>381</v>
       </c>
       <c r="I68" t="s">
-        <v>444</v>
+        <v>452</v>
       </c>
       <c r="J68" t="s">
-        <v>464</v>
+        <v>494</v>
       </c>
       <c r="K68" t="s">
-        <v>553</v>
+        <v>563</v>
+      </c>
+      <c r="L68" t="s">
+        <v>632</v>
       </c>
       <c r="M68" s="1" t="s">
-        <v>622</v>
+        <v>638</v>
       </c>
       <c r="N68" s="1" t="s">
-        <v>626</v>
-      </c>
-      <c r="O68" t="s">
-        <v>692</v>
+        <v>704</v>
+      </c>
+      <c r="O68" s="1" t="s">
+        <v>710</v>
       </c>
       <c r="P68" s="1" t="s">
-        <v>760</v>
+        <v>776</v>
       </c>
       <c r="Q68" s="1" t="s">
-        <v>764</v>
-      </c>
-      <c r="R68" s="1" t="s">
-        <v>830</v>
+        <v>845</v>
+      </c>
+      <c r="S68" s="1" t="s">
+        <v>853</v>
       </c>
       <c r="T68" t="s">
-        <v>835</v>
+        <v>856</v>
       </c>
       <c r="U68" s="1" t="s">
-        <v>901</v>
-      </c>
-      <c r="V68" s="1" t="s">
-        <v>905</v>
+        <v>922</v>
+      </c>
+      <c r="W68">
+        <v>73</v>
       </c>
     </row>
-    <row r="69" spans="1:22">
+    <row r="69" spans="1:23">
       <c r="A69" t="s">
         <v>65</v>
       </c>
       <c r="B69" t="s">
-        <v>132</v>
-      </c>
-      <c r="D69" t="s">
-        <v>194</v>
+        <v>133</v>
       </c>
       <c r="E69" t="s">
-        <v>197</v>
+        <v>202</v>
       </c>
       <c r="F69" t="s">
-        <v>274</v>
+        <v>279</v>
       </c>
       <c r="G69" t="s">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="H69" t="s">
-        <v>375</v>
+        <v>382</v>
       </c>
       <c r="I69" t="s">
-        <v>445</v>
+        <v>453</v>
       </c>
       <c r="J69" t="s">
-        <v>455</v>
+        <v>474</v>
       </c>
       <c r="K69" t="s">
-        <v>554</v>
+        <v>564</v>
+      </c>
+      <c r="L69" t="s">
+        <v>633</v>
       </c>
       <c r="M69" s="1" t="s">
-        <v>623</v>
+        <v>638</v>
       </c>
       <c r="N69" s="1" t="s">
-        <v>626</v>
-      </c>
-      <c r="O69" t="s">
-        <v>693</v>
+        <v>705</v>
+      </c>
+      <c r="O69" s="1" t="s">
+        <v>710</v>
       </c>
       <c r="P69" s="1" t="s">
-        <v>761</v>
+        <v>777</v>
       </c>
       <c r="Q69" s="1" t="s">
-        <v>764</v>
-      </c>
-      <c r="R69" s="1" t="s">
-        <v>831</v>
+        <v>846</v>
+      </c>
+      <c r="S69" s="1" t="s">
+        <v>853</v>
       </c>
       <c r="T69" t="s">
-        <v>835</v>
+        <v>856</v>
       </c>
       <c r="U69" s="1" t="s">
-        <v>902</v>
-      </c>
-      <c r="V69" s="1" t="s">
-        <v>905</v>
+        <v>923</v>
+      </c>
+      <c r="W69">
+        <v>73</v>
       </c>
     </row>
-    <row r="70" spans="1:22">
+    <row r="70" spans="1:23">
       <c r="A70" t="s">
         <v>66</v>
       </c>
       <c r="B70" t="s">
-        <v>133</v>
+        <v>134</v>
+      </c>
+      <c r="D70" t="s">
+        <v>198</v>
       </c>
       <c r="E70" t="s">
-        <v>228</v>
+        <v>202</v>
+      </c>
+      <c r="F70" t="s">
+        <v>280</v>
       </c>
       <c r="G70" t="s">
-        <v>306</v>
+        <v>312</v>
       </c>
       <c r="H70" t="s">
-        <v>376</v>
+        <v>383</v>
       </c>
       <c r="I70" t="s">
-        <v>446</v>
+        <v>454</v>
       </c>
       <c r="J70" t="s">
-        <v>485</v>
+        <v>465</v>
       </c>
       <c r="K70" t="s">
-        <v>555</v>
+        <v>565</v>
+      </c>
+      <c r="L70" t="s">
+        <v>634</v>
       </c>
       <c r="M70" s="1" t="s">
-        <v>624</v>
+        <v>638</v>
       </c>
       <c r="N70" s="1" t="s">
-        <v>626</v>
-      </c>
-      <c r="O70" t="s">
-        <v>694</v>
+        <v>706</v>
+      </c>
+      <c r="O70" s="1" t="s">
+        <v>710</v>
       </c>
       <c r="P70" s="1" t="s">
-        <v>762</v>
+        <v>778</v>
       </c>
       <c r="Q70" s="1" t="s">
-        <v>764</v>
-      </c>
-      <c r="R70" s="1" t="s">
-        <v>832</v>
+        <v>847</v>
+      </c>
+      <c r="S70" s="1" t="s">
+        <v>853</v>
       </c>
       <c r="T70" t="s">
-        <v>835</v>
+        <v>856</v>
       </c>
       <c r="U70" s="1" t="s">
-        <v>903</v>
-      </c>
-      <c r="V70" s="1" t="s">
-        <v>905</v>
+        <v>924</v>
+      </c>
+      <c r="W70">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="71" spans="1:23">
+      <c r="A71" t="s">
+        <v>67</v>
+      </c>
+      <c r="B71" t="s">
+        <v>135</v>
+      </c>
+      <c r="E71" t="s">
+        <v>233</v>
+      </c>
+      <c r="G71" t="s">
+        <v>313</v>
+      </c>
+      <c r="H71" t="s">
+        <v>384</v>
+      </c>
+      <c r="I71" t="s">
+        <v>455</v>
+      </c>
+      <c r="J71" t="s">
+        <v>495</v>
+      </c>
+      <c r="K71" t="s">
+        <v>566</v>
+      </c>
+      <c r="L71" t="s">
+        <v>635</v>
+      </c>
+      <c r="M71" s="1" t="s">
+        <v>638</v>
+      </c>
+      <c r="N71" s="1" t="s">
+        <v>707</v>
+      </c>
+      <c r="O71" s="1" t="s">
+        <v>710</v>
+      </c>
+      <c r="P71" s="1" t="s">
+        <v>779</v>
+      </c>
+      <c r="Q71" s="1" t="s">
+        <v>848</v>
+      </c>
+      <c r="S71" s="1" t="s">
+        <v>853</v>
+      </c>
+      <c r="T71" t="s">
+        <v>856</v>
+      </c>
+      <c r="U71" s="1" t="s">
+        <v>925</v>
+      </c>
+      <c r="W71">
+        <v>15</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="M2" r:id="rId1"/>
-    <hyperlink ref="N2" r:id="rId2" location="rightToLeftDirection"/>
-    <hyperlink ref="P2" r:id="rId3"/>
-    <hyperlink ref="Q2" r:id="rId4"/>
-    <hyperlink ref="R2" r:id="rId5"/>
-    <hyperlink ref="U2" r:id="rId6"/>
-    <hyperlink ref="V2" r:id="rId7"/>
-    <hyperlink ref="M3" r:id="rId8"/>
-    <hyperlink ref="N3" r:id="rId9" location="rightToLeftDirection"/>
-    <hyperlink ref="P3" r:id="rId10"/>
-    <hyperlink ref="Q3" r:id="rId11"/>
-    <hyperlink ref="R3" r:id="rId12"/>
-    <hyperlink ref="U3" r:id="rId13"/>
-    <hyperlink ref="V3" r:id="rId14"/>
-    <hyperlink ref="M4" r:id="rId15"/>
-    <hyperlink ref="N4" r:id="rId16" location="rightToLeftDirection"/>
-    <hyperlink ref="P4" r:id="rId17"/>
-    <hyperlink ref="Q4" r:id="rId18"/>
-    <hyperlink ref="R4" r:id="rId19"/>
-    <hyperlink ref="U4" r:id="rId20"/>
-    <hyperlink ref="V4" r:id="rId21"/>
-    <hyperlink ref="M5" r:id="rId22"/>
-    <hyperlink ref="N5" r:id="rId23" location="rightToLeftDirection"/>
-    <hyperlink ref="P5" r:id="rId24"/>
-    <hyperlink ref="Q5" r:id="rId25"/>
-    <hyperlink ref="R5" r:id="rId26"/>
-    <hyperlink ref="U5" r:id="rId27"/>
-    <hyperlink ref="V5" r:id="rId28"/>
-    <hyperlink ref="M6" r:id="rId29"/>
-    <hyperlink ref="N6" r:id="rId30" location="rightToLeftDirection"/>
-    <hyperlink ref="P6" r:id="rId31"/>
-    <hyperlink ref="Q6" r:id="rId32"/>
-    <hyperlink ref="R6" r:id="rId33"/>
-    <hyperlink ref="U6" r:id="rId34"/>
-    <hyperlink ref="V6" r:id="rId35"/>
-    <hyperlink ref="M7" r:id="rId36"/>
-    <hyperlink ref="N7" r:id="rId37" location="rightToLeftDirection"/>
-    <hyperlink ref="P7" r:id="rId38"/>
-    <hyperlink ref="Q7" r:id="rId39"/>
-    <hyperlink ref="R7" r:id="rId40"/>
-    <hyperlink ref="U7" r:id="rId41"/>
-    <hyperlink ref="V7" r:id="rId42"/>
-    <hyperlink ref="M8" r:id="rId43"/>
-    <hyperlink ref="N8" r:id="rId44" location="rightToLeftDirection"/>
-    <hyperlink ref="P8" r:id="rId45"/>
-    <hyperlink ref="Q8" r:id="rId46"/>
-    <hyperlink ref="R8" r:id="rId47"/>
-    <hyperlink ref="U8" r:id="rId48"/>
-    <hyperlink ref="V8" r:id="rId49"/>
-    <hyperlink ref="M9" r:id="rId50"/>
-    <hyperlink ref="N9" r:id="rId51" location="rightToLeftDirection"/>
-    <hyperlink ref="P9" r:id="rId52"/>
-    <hyperlink ref="Q9" r:id="rId53"/>
-    <hyperlink ref="R9" r:id="rId54"/>
-    <hyperlink ref="U9" r:id="rId55"/>
-    <hyperlink ref="V9" r:id="rId56"/>
-    <hyperlink ref="M10" r:id="rId57"/>
-    <hyperlink ref="N10" r:id="rId58" location="rightToLeftDirection"/>
-    <hyperlink ref="P10" r:id="rId59"/>
-    <hyperlink ref="Q10" r:id="rId60"/>
-    <hyperlink ref="R10" r:id="rId61"/>
-    <hyperlink ref="U10" r:id="rId62"/>
-    <hyperlink ref="V10" r:id="rId63"/>
-    <hyperlink ref="M11" r:id="rId64"/>
-    <hyperlink ref="N11" r:id="rId65" location="rightToLeftDirection"/>
-    <hyperlink ref="P11" r:id="rId66"/>
-    <hyperlink ref="Q11" r:id="rId67"/>
-    <hyperlink ref="R11" r:id="rId68"/>
-    <hyperlink ref="U11" r:id="rId69"/>
-    <hyperlink ref="V11" r:id="rId70"/>
-    <hyperlink ref="M12" r:id="rId71"/>
-    <hyperlink ref="N12" r:id="rId72" location="rightToLeftDirection"/>
-    <hyperlink ref="P12" r:id="rId73"/>
-    <hyperlink ref="Q12" r:id="rId74"/>
-    <hyperlink ref="R12" r:id="rId75"/>
-    <hyperlink ref="U12" r:id="rId76"/>
-    <hyperlink ref="V12" r:id="rId77"/>
-    <hyperlink ref="M13" r:id="rId78"/>
-    <hyperlink ref="N13" r:id="rId79" location="rightToLeftDirection"/>
-    <hyperlink ref="P13" r:id="rId80"/>
-    <hyperlink ref="Q13" r:id="rId81"/>
-    <hyperlink ref="R13" r:id="rId82"/>
-    <hyperlink ref="U13" r:id="rId83"/>
-    <hyperlink ref="V13" r:id="rId84"/>
-    <hyperlink ref="M14" r:id="rId85"/>
-    <hyperlink ref="N14" r:id="rId86" location="rightToLeftDirection"/>
-    <hyperlink ref="P14" r:id="rId87"/>
-    <hyperlink ref="Q14" r:id="rId88"/>
-    <hyperlink ref="R14" r:id="rId89"/>
-    <hyperlink ref="U14" r:id="rId90"/>
-    <hyperlink ref="V14" r:id="rId91"/>
-    <hyperlink ref="M15" r:id="rId92"/>
-    <hyperlink ref="N15" r:id="rId93" location="rightToLeftDirection"/>
-    <hyperlink ref="P15" r:id="rId94"/>
-    <hyperlink ref="Q15" r:id="rId95"/>
-    <hyperlink ref="R15" r:id="rId96"/>
-    <hyperlink ref="U15" r:id="rId97"/>
-    <hyperlink ref="V15" r:id="rId98"/>
-    <hyperlink ref="M16" r:id="rId99"/>
-    <hyperlink ref="N16" r:id="rId100" location="rightToLeftDirection"/>
-    <hyperlink ref="P16" r:id="rId101"/>
-    <hyperlink ref="Q16" r:id="rId102"/>
-    <hyperlink ref="R16" r:id="rId103"/>
-    <hyperlink ref="U16" r:id="rId104"/>
-    <hyperlink ref="V16" r:id="rId105"/>
-    <hyperlink ref="M17" r:id="rId106"/>
-    <hyperlink ref="N17" r:id="rId107" location="rightToLeftDirection"/>
-    <hyperlink ref="P17" r:id="rId108"/>
-    <hyperlink ref="Q17" r:id="rId109"/>
-    <hyperlink ref="R17" r:id="rId110"/>
-    <hyperlink ref="U17" r:id="rId111"/>
-    <hyperlink ref="V17" r:id="rId112"/>
-    <hyperlink ref="M18" r:id="rId113"/>
-    <hyperlink ref="N18" r:id="rId114" location="rightToLeftDirection"/>
-    <hyperlink ref="P18" r:id="rId115"/>
-    <hyperlink ref="Q18" r:id="rId116"/>
-    <hyperlink ref="R18" r:id="rId117"/>
-    <hyperlink ref="U18" r:id="rId118"/>
-    <hyperlink ref="V18" r:id="rId119"/>
-    <hyperlink ref="M19" r:id="rId120"/>
-    <hyperlink ref="N19" r:id="rId121" location="rightToLeftDirection"/>
-    <hyperlink ref="P19" r:id="rId122"/>
-    <hyperlink ref="Q19" r:id="rId123"/>
-    <hyperlink ref="R19" r:id="rId124"/>
-    <hyperlink ref="U19" r:id="rId125"/>
-    <hyperlink ref="V19" r:id="rId126"/>
-    <hyperlink ref="M20" r:id="rId127"/>
-    <hyperlink ref="N20" r:id="rId128" location="rightToLeftDirection"/>
-    <hyperlink ref="P20" r:id="rId129"/>
-    <hyperlink ref="Q20" r:id="rId130"/>
-    <hyperlink ref="R20" r:id="rId131"/>
-    <hyperlink ref="U20" r:id="rId132"/>
-    <hyperlink ref="V20" r:id="rId133"/>
-    <hyperlink ref="M21" r:id="rId134"/>
-    <hyperlink ref="N21" r:id="rId135" location="rightToLeftDirection"/>
-    <hyperlink ref="P21" r:id="rId136"/>
-    <hyperlink ref="Q21" r:id="rId137"/>
-    <hyperlink ref="R21" r:id="rId138"/>
-    <hyperlink ref="U21" r:id="rId139"/>
-    <hyperlink ref="V21" r:id="rId140"/>
-    <hyperlink ref="M22" r:id="rId141"/>
-    <hyperlink ref="N22" r:id="rId142" location="rightToLeftDirection"/>
-    <hyperlink ref="P22" r:id="rId143"/>
-    <hyperlink ref="Q22" r:id="rId144"/>
-    <hyperlink ref="R22" r:id="rId145"/>
-    <hyperlink ref="U22" r:id="rId146"/>
-    <hyperlink ref="V22" r:id="rId147"/>
-    <hyperlink ref="M23" r:id="rId148"/>
-    <hyperlink ref="N23" r:id="rId149" location="rightToLeftDirection"/>
-    <hyperlink ref="P23" r:id="rId150"/>
-    <hyperlink ref="Q23" r:id="rId151"/>
-    <hyperlink ref="R23" r:id="rId152"/>
-    <hyperlink ref="U23" r:id="rId153"/>
-    <hyperlink ref="V23" r:id="rId154"/>
-    <hyperlink ref="M24" r:id="rId155"/>
-    <hyperlink ref="N24" r:id="rId156" location="rightToLeftDirection"/>
-    <hyperlink ref="P24" r:id="rId157"/>
-    <hyperlink ref="Q24" r:id="rId158"/>
-    <hyperlink ref="R24" r:id="rId159"/>
-    <hyperlink ref="U24" r:id="rId160"/>
-    <hyperlink ref="V24" r:id="rId161"/>
-    <hyperlink ref="M25" r:id="rId162"/>
-    <hyperlink ref="N25" r:id="rId163" location="rightToLeftDirection"/>
-    <hyperlink ref="P25" r:id="rId164"/>
-    <hyperlink ref="Q25" r:id="rId165"/>
-    <hyperlink ref="R25" r:id="rId166"/>
-    <hyperlink ref="U25" r:id="rId167"/>
-    <hyperlink ref="V25" r:id="rId168"/>
-    <hyperlink ref="M26" r:id="rId169"/>
-    <hyperlink ref="N26" r:id="rId170" location="rightToLeftDirection"/>
-    <hyperlink ref="P26" r:id="rId171"/>
-    <hyperlink ref="Q26" r:id="rId172"/>
-    <hyperlink ref="R26" r:id="rId173"/>
-    <hyperlink ref="U26" r:id="rId174"/>
-    <hyperlink ref="V26" r:id="rId175"/>
-    <hyperlink ref="M27" r:id="rId176"/>
-    <hyperlink ref="N27" r:id="rId177" location="rightToLeftDirection"/>
-    <hyperlink ref="P27" r:id="rId178"/>
-    <hyperlink ref="Q27" r:id="rId179"/>
-    <hyperlink ref="R27" r:id="rId180"/>
-    <hyperlink ref="U27" r:id="rId181"/>
-    <hyperlink ref="V27" r:id="rId182"/>
-    <hyperlink ref="M28" r:id="rId183"/>
-    <hyperlink ref="N28" r:id="rId184" location="rightToLeftDirection"/>
-    <hyperlink ref="P28" r:id="rId185"/>
-    <hyperlink ref="Q28" r:id="rId186"/>
-    <hyperlink ref="R28" r:id="rId187"/>
-    <hyperlink ref="U28" r:id="rId188"/>
-    <hyperlink ref="V28" r:id="rId189"/>
-    <hyperlink ref="M29" r:id="rId190"/>
-    <hyperlink ref="N29" r:id="rId191" location="rightToLeftDirection"/>
-    <hyperlink ref="P29" r:id="rId192"/>
-    <hyperlink ref="Q29" r:id="rId193"/>
-    <hyperlink ref="R29" r:id="rId194"/>
-    <hyperlink ref="U29" r:id="rId195"/>
-    <hyperlink ref="V29" r:id="rId196"/>
-    <hyperlink ref="M30" r:id="rId197"/>
-    <hyperlink ref="N30" r:id="rId198" location="rightToLeftDirection"/>
-    <hyperlink ref="P30" r:id="rId199"/>
-    <hyperlink ref="Q30" r:id="rId200"/>
-    <hyperlink ref="R30" r:id="rId201"/>
-    <hyperlink ref="U30" r:id="rId202"/>
-    <hyperlink ref="V30" r:id="rId203"/>
-    <hyperlink ref="M31" r:id="rId204"/>
-    <hyperlink ref="N31" r:id="rId205" location="rightToLeftDirection"/>
-    <hyperlink ref="P31" r:id="rId206"/>
-    <hyperlink ref="Q31" r:id="rId207"/>
-    <hyperlink ref="R31" r:id="rId208"/>
-    <hyperlink ref="U31" r:id="rId209"/>
-    <hyperlink ref="V31" r:id="rId210"/>
-    <hyperlink ref="M32" r:id="rId211"/>
-    <hyperlink ref="N32" r:id="rId212" location="rightToLeftDirection"/>
-    <hyperlink ref="P32" r:id="rId213"/>
-    <hyperlink ref="Q32" r:id="rId214"/>
-    <hyperlink ref="R32" r:id="rId215"/>
-    <hyperlink ref="U32" r:id="rId216"/>
-    <hyperlink ref="V32" r:id="rId217"/>
-    <hyperlink ref="M33" r:id="rId218"/>
-    <hyperlink ref="N33" r:id="rId219" location="rightToLeftDirection"/>
-    <hyperlink ref="P33" r:id="rId220"/>
-    <hyperlink ref="Q33" r:id="rId221"/>
-    <hyperlink ref="R33" r:id="rId222"/>
-    <hyperlink ref="U33" r:id="rId223"/>
-    <hyperlink ref="V33" r:id="rId224"/>
-    <hyperlink ref="M34" r:id="rId225"/>
-    <hyperlink ref="N34" r:id="rId226" location="rightToLeftDirection"/>
-    <hyperlink ref="P34" r:id="rId227"/>
-    <hyperlink ref="Q34" r:id="rId228"/>
-    <hyperlink ref="R34" r:id="rId229"/>
-    <hyperlink ref="U34" r:id="rId230"/>
-    <hyperlink ref="V34" r:id="rId231"/>
-    <hyperlink ref="M35" r:id="rId232"/>
-    <hyperlink ref="N35" r:id="rId233" location="rightToLeftDirection"/>
-    <hyperlink ref="P35" r:id="rId234"/>
-    <hyperlink ref="Q35" r:id="rId235"/>
-    <hyperlink ref="R35" r:id="rId236"/>
-    <hyperlink ref="U35" r:id="rId237"/>
-    <hyperlink ref="V35" r:id="rId238"/>
-    <hyperlink ref="M36" r:id="rId239"/>
-    <hyperlink ref="N36" r:id="rId240" location="rightToLeftDirection"/>
-    <hyperlink ref="P36" r:id="rId241"/>
-    <hyperlink ref="Q36" r:id="rId242"/>
-    <hyperlink ref="R36" r:id="rId243"/>
-    <hyperlink ref="U36" r:id="rId244"/>
-    <hyperlink ref="V36" r:id="rId245"/>
-    <hyperlink ref="M37" r:id="rId246"/>
-    <hyperlink ref="N37" r:id="rId247" location="rightToLeftDirection"/>
-    <hyperlink ref="P37" r:id="rId248"/>
-    <hyperlink ref="Q37" r:id="rId249"/>
-    <hyperlink ref="R37" r:id="rId250"/>
-    <hyperlink ref="U37" r:id="rId251"/>
-    <hyperlink ref="V37" r:id="rId252"/>
-    <hyperlink ref="M38" r:id="rId253"/>
-    <hyperlink ref="N38" r:id="rId254" location="rightToLeftDirection"/>
-    <hyperlink ref="P38" r:id="rId255"/>
-    <hyperlink ref="Q38" r:id="rId256"/>
-    <hyperlink ref="R38" r:id="rId257"/>
-    <hyperlink ref="U38" r:id="rId258"/>
-    <hyperlink ref="V38" r:id="rId259"/>
-    <hyperlink ref="M39" r:id="rId260"/>
-    <hyperlink ref="N39" r:id="rId261" location="rightToLeftDirection"/>
-    <hyperlink ref="P39" r:id="rId262"/>
-    <hyperlink ref="Q39" r:id="rId263"/>
-    <hyperlink ref="R39" r:id="rId264"/>
-    <hyperlink ref="U39" r:id="rId265"/>
-    <hyperlink ref="V39" r:id="rId266"/>
-    <hyperlink ref="M40" r:id="rId267"/>
-    <hyperlink ref="N40" r:id="rId268" location="rightToLeftDirection"/>
-    <hyperlink ref="P40" r:id="rId269"/>
-    <hyperlink ref="Q40" r:id="rId270"/>
-    <hyperlink ref="R40" r:id="rId271"/>
-    <hyperlink ref="U40" r:id="rId272"/>
-    <hyperlink ref="V40" r:id="rId273"/>
-    <hyperlink ref="M41" r:id="rId274"/>
-    <hyperlink ref="N41" r:id="rId275" location="rightToLeftDirection"/>
-    <hyperlink ref="P41" r:id="rId276"/>
-    <hyperlink ref="Q41" r:id="rId277"/>
-    <hyperlink ref="R41" r:id="rId278"/>
-    <hyperlink ref="U41" r:id="rId279"/>
-    <hyperlink ref="V41" r:id="rId280"/>
-    <hyperlink ref="M42" r:id="rId281"/>
-    <hyperlink ref="N42" r:id="rId282" location="rightToLeftDirection"/>
-    <hyperlink ref="P42" r:id="rId283"/>
-    <hyperlink ref="Q42" r:id="rId284"/>
-    <hyperlink ref="R42" r:id="rId285"/>
-    <hyperlink ref="U42" r:id="rId286"/>
-    <hyperlink ref="V42" r:id="rId287"/>
-    <hyperlink ref="M43" r:id="rId288"/>
-    <hyperlink ref="N43" r:id="rId289" location="rightToLeftDirection"/>
-    <hyperlink ref="P43" r:id="rId290"/>
-    <hyperlink ref="Q43" r:id="rId291"/>
-    <hyperlink ref="R43" r:id="rId292"/>
-    <hyperlink ref="U43" r:id="rId293"/>
-    <hyperlink ref="V43" r:id="rId294"/>
-    <hyperlink ref="M44" r:id="rId295"/>
-    <hyperlink ref="N44" r:id="rId296" location="rightToLeftDirection"/>
-    <hyperlink ref="P44" r:id="rId297"/>
-    <hyperlink ref="Q44" r:id="rId298"/>
-    <hyperlink ref="R44" r:id="rId299"/>
-    <hyperlink ref="U44" r:id="rId300"/>
-    <hyperlink ref="V44" r:id="rId301"/>
-    <hyperlink ref="M45" r:id="rId302"/>
-    <hyperlink ref="N45" r:id="rId303" location="rightToLeftDirection"/>
-    <hyperlink ref="P45" r:id="rId304"/>
-    <hyperlink ref="Q45" r:id="rId305"/>
-    <hyperlink ref="R45" r:id="rId306"/>
-    <hyperlink ref="U45" r:id="rId307"/>
-    <hyperlink ref="V45" r:id="rId308"/>
-    <hyperlink ref="M46" r:id="rId309"/>
-    <hyperlink ref="N46" r:id="rId310" location="rightToLeftDirection"/>
-    <hyperlink ref="P46" r:id="rId311"/>
-    <hyperlink ref="Q46" r:id="rId312"/>
-    <hyperlink ref="R46" r:id="rId313"/>
-    <hyperlink ref="U46" r:id="rId314"/>
-    <hyperlink ref="V46" r:id="rId315"/>
-    <hyperlink ref="M47" r:id="rId316"/>
-    <hyperlink ref="N47" r:id="rId317" location="rightToLeftDirection"/>
-    <hyperlink ref="P47" r:id="rId318"/>
-    <hyperlink ref="Q47" r:id="rId319"/>
-    <hyperlink ref="R47" r:id="rId320"/>
-    <hyperlink ref="U47" r:id="rId321"/>
-    <hyperlink ref="V47" r:id="rId322"/>
-    <hyperlink ref="M48" r:id="rId323"/>
-    <hyperlink ref="N48" r:id="rId324" location="rightToLeftDirection"/>
-    <hyperlink ref="P48" r:id="rId325"/>
-    <hyperlink ref="Q48" r:id="rId326"/>
-    <hyperlink ref="R48" r:id="rId327"/>
-    <hyperlink ref="U48" r:id="rId328"/>
-    <hyperlink ref="V48" r:id="rId329"/>
-    <hyperlink ref="M49" r:id="rId330"/>
-    <hyperlink ref="N49" r:id="rId331" location="rightToLeftDirection"/>
-    <hyperlink ref="P49" r:id="rId332"/>
-    <hyperlink ref="Q49" r:id="rId333"/>
-    <hyperlink ref="R49" r:id="rId334"/>
-    <hyperlink ref="U49" r:id="rId335"/>
-    <hyperlink ref="V49" r:id="rId336"/>
-    <hyperlink ref="M50" r:id="rId337"/>
-    <hyperlink ref="N50" r:id="rId338" location="rightToLeftDirection"/>
-    <hyperlink ref="P50" r:id="rId339"/>
-    <hyperlink ref="Q50" r:id="rId340"/>
-    <hyperlink ref="R50" r:id="rId341"/>
-    <hyperlink ref="U50" r:id="rId342"/>
-    <hyperlink ref="V50" r:id="rId343"/>
-    <hyperlink ref="M51" r:id="rId344"/>
-    <hyperlink ref="N51" r:id="rId345" location="rightToLeftDirection"/>
-    <hyperlink ref="P51" r:id="rId346"/>
-    <hyperlink ref="Q51" r:id="rId347"/>
-    <hyperlink ref="R51" r:id="rId348"/>
-    <hyperlink ref="U51" r:id="rId349"/>
-    <hyperlink ref="V51" r:id="rId350"/>
-    <hyperlink ref="M52" r:id="rId351"/>
-    <hyperlink ref="N52" r:id="rId352" location="rightToLeftDirection"/>
-    <hyperlink ref="P52" r:id="rId353"/>
-    <hyperlink ref="Q52" r:id="rId354"/>
-    <hyperlink ref="R52" r:id="rId355"/>
-    <hyperlink ref="U52" r:id="rId356"/>
-    <hyperlink ref="V52" r:id="rId357"/>
-    <hyperlink ref="M53" r:id="rId358"/>
-    <hyperlink ref="N53" r:id="rId359" location="rightToLeftDirection"/>
-    <hyperlink ref="P53" r:id="rId360"/>
-    <hyperlink ref="Q53" r:id="rId361"/>
-    <hyperlink ref="R53" r:id="rId362"/>
-    <hyperlink ref="U53" r:id="rId363"/>
-    <hyperlink ref="V53" r:id="rId364"/>
-    <hyperlink ref="M54" r:id="rId365"/>
-    <hyperlink ref="N54" r:id="rId366" location="rightToLeftDirection"/>
-    <hyperlink ref="P54" r:id="rId367"/>
-    <hyperlink ref="Q54" r:id="rId368"/>
-    <hyperlink ref="R54" r:id="rId369"/>
-    <hyperlink ref="U54" r:id="rId370"/>
-    <hyperlink ref="V54" r:id="rId371"/>
-    <hyperlink ref="M55" r:id="rId372"/>
-    <hyperlink ref="N55" r:id="rId373" location="rightToLeftDirection"/>
-    <hyperlink ref="P55" r:id="rId374"/>
-    <hyperlink ref="Q55" r:id="rId375"/>
-    <hyperlink ref="R55" r:id="rId376"/>
-    <hyperlink ref="U55" r:id="rId377"/>
-    <hyperlink ref="V55" r:id="rId378"/>
-    <hyperlink ref="M56" r:id="rId379"/>
-    <hyperlink ref="N56" r:id="rId380" location="rightToLeftDirection"/>
-    <hyperlink ref="P56" r:id="rId381"/>
-    <hyperlink ref="Q56" r:id="rId382"/>
-    <hyperlink ref="R56" r:id="rId383"/>
-    <hyperlink ref="U56" r:id="rId384"/>
-    <hyperlink ref="V56" r:id="rId385"/>
-    <hyperlink ref="M57" r:id="rId386"/>
-    <hyperlink ref="N57" r:id="rId387" location="rightToLeftDirection"/>
-    <hyperlink ref="P57" r:id="rId388"/>
-    <hyperlink ref="Q57" r:id="rId389"/>
-    <hyperlink ref="R57" r:id="rId390"/>
-    <hyperlink ref="U57" r:id="rId391"/>
-    <hyperlink ref="V57" r:id="rId392"/>
-    <hyperlink ref="M58" r:id="rId393"/>
-    <hyperlink ref="N58" r:id="rId394" location="rightToLeftDirection"/>
-    <hyperlink ref="P58" r:id="rId395"/>
-    <hyperlink ref="Q58" r:id="rId396"/>
-    <hyperlink ref="R58" r:id="rId397"/>
-    <hyperlink ref="U58" r:id="rId398"/>
-    <hyperlink ref="V58" r:id="rId399"/>
-    <hyperlink ref="M59" r:id="rId400"/>
-    <hyperlink ref="N59" r:id="rId401" location="rightToLeftDirection"/>
-    <hyperlink ref="P59" r:id="rId402"/>
-    <hyperlink ref="Q59" r:id="rId403"/>
-    <hyperlink ref="R59" r:id="rId404"/>
-    <hyperlink ref="U59" r:id="rId405"/>
-    <hyperlink ref="V59" r:id="rId406"/>
-    <hyperlink ref="M60" r:id="rId407"/>
-    <hyperlink ref="N60" r:id="rId408" location="rightToLeftDirection"/>
-    <hyperlink ref="P60" r:id="rId409"/>
-    <hyperlink ref="Q60" r:id="rId410"/>
-    <hyperlink ref="R60" r:id="rId411"/>
-    <hyperlink ref="U60" r:id="rId412"/>
-    <hyperlink ref="V60" r:id="rId413"/>
-    <hyperlink ref="M61" r:id="rId414"/>
-    <hyperlink ref="N61" r:id="rId415" location="rightToLeftDirection"/>
-    <hyperlink ref="P61" r:id="rId416"/>
-    <hyperlink ref="Q61" r:id="rId417"/>
-    <hyperlink ref="R61" r:id="rId418"/>
-    <hyperlink ref="U61" r:id="rId419"/>
-    <hyperlink ref="V61" r:id="rId420"/>
-    <hyperlink ref="M62" r:id="rId421"/>
-    <hyperlink ref="N62" r:id="rId422" location="rightToLeftDirection"/>
-    <hyperlink ref="P62" r:id="rId423"/>
-    <hyperlink ref="Q62" r:id="rId424"/>
-    <hyperlink ref="R62" r:id="rId425"/>
-    <hyperlink ref="U62" r:id="rId426"/>
-    <hyperlink ref="V62" r:id="rId427"/>
-    <hyperlink ref="M63" r:id="rId428"/>
-    <hyperlink ref="N63" r:id="rId429" location="rightToLeftDirection"/>
-    <hyperlink ref="P63" r:id="rId430"/>
-    <hyperlink ref="Q63" r:id="rId431"/>
-    <hyperlink ref="R63" r:id="rId432"/>
-    <hyperlink ref="U63" r:id="rId433"/>
-    <hyperlink ref="V63" r:id="rId434"/>
-    <hyperlink ref="M64" r:id="rId435"/>
-    <hyperlink ref="N64" r:id="rId436" location="rightToLeftDirection"/>
-    <hyperlink ref="P64" r:id="rId437"/>
-    <hyperlink ref="Q64" r:id="rId438"/>
-    <hyperlink ref="R64" r:id="rId439"/>
-    <hyperlink ref="U64" r:id="rId440"/>
-    <hyperlink ref="V64" r:id="rId441"/>
-    <hyperlink ref="M65" r:id="rId442"/>
-    <hyperlink ref="N65" r:id="rId443" location="rightToLeftDirection"/>
-    <hyperlink ref="P65" r:id="rId444"/>
-    <hyperlink ref="Q65" r:id="rId445"/>
-    <hyperlink ref="R65" r:id="rId446"/>
-    <hyperlink ref="U65" r:id="rId447"/>
-    <hyperlink ref="V65" r:id="rId448"/>
-    <hyperlink ref="M66" r:id="rId449"/>
-    <hyperlink ref="N66" r:id="rId450" location="rightToLeftDirection"/>
-    <hyperlink ref="P66" r:id="rId451"/>
-    <hyperlink ref="Q66" r:id="rId452"/>
-    <hyperlink ref="R66" r:id="rId453"/>
-    <hyperlink ref="U66" r:id="rId454"/>
-    <hyperlink ref="V66" r:id="rId455"/>
-    <hyperlink ref="M67" r:id="rId456"/>
-    <hyperlink ref="N67" r:id="rId457" location="rightToLeftDirection"/>
-    <hyperlink ref="P67" r:id="rId458"/>
-    <hyperlink ref="Q67" r:id="rId459"/>
-    <hyperlink ref="R67" r:id="rId460"/>
-    <hyperlink ref="U67" r:id="rId461"/>
-    <hyperlink ref="V67" r:id="rId462"/>
-    <hyperlink ref="M68" r:id="rId463"/>
-    <hyperlink ref="N68" r:id="rId464" location="rightToLeftDirection"/>
-    <hyperlink ref="P68" r:id="rId465"/>
-    <hyperlink ref="Q68" r:id="rId466"/>
-    <hyperlink ref="R68" r:id="rId467"/>
-    <hyperlink ref="U68" r:id="rId468"/>
-    <hyperlink ref="V68" r:id="rId469"/>
-    <hyperlink ref="M69" r:id="rId470"/>
-    <hyperlink ref="N69" r:id="rId471" location="rightToLeftDirection"/>
-    <hyperlink ref="P69" r:id="rId472"/>
-    <hyperlink ref="Q69" r:id="rId473"/>
-    <hyperlink ref="R69" r:id="rId474"/>
-    <hyperlink ref="U69" r:id="rId475"/>
-    <hyperlink ref="V69" r:id="rId476"/>
-    <hyperlink ref="M70" r:id="rId477"/>
-    <hyperlink ref="N70" r:id="rId478" location="rightToLeftDirection"/>
-    <hyperlink ref="P70" r:id="rId479"/>
-    <hyperlink ref="Q70" r:id="rId480"/>
-    <hyperlink ref="R70" r:id="rId481"/>
-    <hyperlink ref="U70" r:id="rId482"/>
-    <hyperlink ref="V70" r:id="rId483"/>
+    <hyperlink ref="M3" r:id="rId1"/>
+    <hyperlink ref="N3" r:id="rId2"/>
+    <hyperlink ref="O3" r:id="rId3"/>
+    <hyperlink ref="P3" r:id="rId4"/>
+    <hyperlink ref="Q3" r:id="rId5"/>
+    <hyperlink ref="S3" r:id="rId6" location="rightToLeftDirection"/>
+    <hyperlink ref="U3" r:id="rId7"/>
+    <hyperlink ref="M4" r:id="rId8"/>
+    <hyperlink ref="N4" r:id="rId9"/>
+    <hyperlink ref="O4" r:id="rId10"/>
+    <hyperlink ref="P4" r:id="rId11"/>
+    <hyperlink ref="Q4" r:id="rId12"/>
+    <hyperlink ref="S4" r:id="rId13" location="rightToLeftDirection"/>
+    <hyperlink ref="U4" r:id="rId14"/>
+    <hyperlink ref="M5" r:id="rId15"/>
+    <hyperlink ref="N5" r:id="rId16"/>
+    <hyperlink ref="O5" r:id="rId17"/>
+    <hyperlink ref="P5" r:id="rId18"/>
+    <hyperlink ref="Q5" r:id="rId19"/>
+    <hyperlink ref="S5" r:id="rId20" location="rightToLeftDirection"/>
+    <hyperlink ref="U5" r:id="rId21"/>
+    <hyperlink ref="M6" r:id="rId22"/>
+    <hyperlink ref="N6" r:id="rId23"/>
+    <hyperlink ref="O6" r:id="rId24"/>
+    <hyperlink ref="P6" r:id="rId25"/>
+    <hyperlink ref="Q6" r:id="rId26"/>
+    <hyperlink ref="S6" r:id="rId27" location="rightToLeftDirection"/>
+    <hyperlink ref="U6" r:id="rId28"/>
+    <hyperlink ref="M7" r:id="rId29"/>
+    <hyperlink ref="N7" r:id="rId30"/>
+    <hyperlink ref="O7" r:id="rId31"/>
+    <hyperlink ref="P7" r:id="rId32"/>
+    <hyperlink ref="Q7" r:id="rId33"/>
+    <hyperlink ref="S7" r:id="rId34" location="rightToLeftDirection"/>
+    <hyperlink ref="U7" r:id="rId35"/>
+    <hyperlink ref="M8" r:id="rId36"/>
+    <hyperlink ref="N8" r:id="rId37"/>
+    <hyperlink ref="O8" r:id="rId38"/>
+    <hyperlink ref="P8" r:id="rId39"/>
+    <hyperlink ref="Q8" r:id="rId40"/>
+    <hyperlink ref="S8" r:id="rId41" location="rightToLeftDirection"/>
+    <hyperlink ref="U8" r:id="rId42"/>
+    <hyperlink ref="M9" r:id="rId43"/>
+    <hyperlink ref="N9" r:id="rId44"/>
+    <hyperlink ref="O9" r:id="rId45"/>
+    <hyperlink ref="P9" r:id="rId46"/>
+    <hyperlink ref="Q9" r:id="rId47"/>
+    <hyperlink ref="S9" r:id="rId48" location="rightToLeftDirection"/>
+    <hyperlink ref="U9" r:id="rId49"/>
+    <hyperlink ref="M10" r:id="rId50"/>
+    <hyperlink ref="N10" r:id="rId51"/>
+    <hyperlink ref="O10" r:id="rId52"/>
+    <hyperlink ref="P10" r:id="rId53"/>
+    <hyperlink ref="Q10" r:id="rId54"/>
+    <hyperlink ref="S10" r:id="rId55" location="rightToLeftDirection"/>
+    <hyperlink ref="U10" r:id="rId56"/>
+    <hyperlink ref="M11" r:id="rId57"/>
+    <hyperlink ref="N11" r:id="rId58"/>
+    <hyperlink ref="O11" r:id="rId59"/>
+    <hyperlink ref="P11" r:id="rId60"/>
+    <hyperlink ref="Q11" r:id="rId61"/>
+    <hyperlink ref="S11" r:id="rId62" location="rightToLeftDirection"/>
+    <hyperlink ref="U11" r:id="rId63"/>
+    <hyperlink ref="M12" r:id="rId64"/>
+    <hyperlink ref="N12" r:id="rId65"/>
+    <hyperlink ref="O12" r:id="rId66"/>
+    <hyperlink ref="P12" r:id="rId67"/>
+    <hyperlink ref="Q12" r:id="rId68"/>
+    <hyperlink ref="S12" r:id="rId69" location="rightToLeftDirection"/>
+    <hyperlink ref="U12" r:id="rId70"/>
+    <hyperlink ref="M13" r:id="rId71"/>
+    <hyperlink ref="N13" r:id="rId72"/>
+    <hyperlink ref="O13" r:id="rId73"/>
+    <hyperlink ref="P13" r:id="rId74"/>
+    <hyperlink ref="Q13" r:id="rId75"/>
+    <hyperlink ref="S13" r:id="rId76" location="rightToLeftDirection"/>
+    <hyperlink ref="U13" r:id="rId77"/>
+    <hyperlink ref="M14" r:id="rId78"/>
+    <hyperlink ref="N14" r:id="rId79"/>
+    <hyperlink ref="O14" r:id="rId80"/>
+    <hyperlink ref="P14" r:id="rId81"/>
+    <hyperlink ref="Q14" r:id="rId82"/>
+    <hyperlink ref="S14" r:id="rId83" location="rightToLeftDirection"/>
+    <hyperlink ref="U14" r:id="rId84"/>
+    <hyperlink ref="M15" r:id="rId85"/>
+    <hyperlink ref="N15" r:id="rId86"/>
+    <hyperlink ref="O15" r:id="rId87"/>
+    <hyperlink ref="P15" r:id="rId88"/>
+    <hyperlink ref="Q15" r:id="rId89"/>
+    <hyperlink ref="S15" r:id="rId90" location="rightToLeftDirection"/>
+    <hyperlink ref="U15" r:id="rId91"/>
+    <hyperlink ref="M16" r:id="rId92"/>
+    <hyperlink ref="N16" r:id="rId93"/>
+    <hyperlink ref="O16" r:id="rId94"/>
+    <hyperlink ref="P16" r:id="rId95"/>
+    <hyperlink ref="Q16" r:id="rId96"/>
+    <hyperlink ref="S16" r:id="rId97" location="rightToLeftDirection"/>
+    <hyperlink ref="U16" r:id="rId98"/>
+    <hyperlink ref="M17" r:id="rId99"/>
+    <hyperlink ref="N17" r:id="rId100"/>
+    <hyperlink ref="O17" r:id="rId101"/>
+    <hyperlink ref="P17" r:id="rId102"/>
+    <hyperlink ref="Q17" r:id="rId103"/>
+    <hyperlink ref="S17" r:id="rId104" location="rightToLeftDirection"/>
+    <hyperlink ref="U17" r:id="rId105"/>
+    <hyperlink ref="M18" r:id="rId106"/>
+    <hyperlink ref="N18" r:id="rId107"/>
+    <hyperlink ref="O18" r:id="rId108"/>
+    <hyperlink ref="P18" r:id="rId109"/>
+    <hyperlink ref="Q18" r:id="rId110"/>
+    <hyperlink ref="S18" r:id="rId111" location="rightToLeftDirection"/>
+    <hyperlink ref="U18" r:id="rId112"/>
+    <hyperlink ref="M19" r:id="rId113"/>
+    <hyperlink ref="N19" r:id="rId114"/>
+    <hyperlink ref="O19" r:id="rId115"/>
+    <hyperlink ref="P19" r:id="rId116"/>
+    <hyperlink ref="Q19" r:id="rId117"/>
+    <hyperlink ref="S19" r:id="rId118" location="rightToLeftDirection"/>
+    <hyperlink ref="U19" r:id="rId119"/>
+    <hyperlink ref="M20" r:id="rId120"/>
+    <hyperlink ref="N20" r:id="rId121"/>
+    <hyperlink ref="O20" r:id="rId122"/>
+    <hyperlink ref="P20" r:id="rId123"/>
+    <hyperlink ref="Q20" r:id="rId124"/>
+    <hyperlink ref="S20" r:id="rId125" location="rightToLeftDirection"/>
+    <hyperlink ref="U20" r:id="rId126"/>
+    <hyperlink ref="M21" r:id="rId127"/>
+    <hyperlink ref="N21" r:id="rId128"/>
+    <hyperlink ref="O21" r:id="rId129"/>
+    <hyperlink ref="P21" r:id="rId130"/>
+    <hyperlink ref="Q21" r:id="rId131"/>
+    <hyperlink ref="S21" r:id="rId132" location="rightToLeftDirection"/>
+    <hyperlink ref="U21" r:id="rId133"/>
+    <hyperlink ref="M22" r:id="rId134"/>
+    <hyperlink ref="N22" r:id="rId135"/>
+    <hyperlink ref="O22" r:id="rId136"/>
+    <hyperlink ref="P22" r:id="rId137"/>
+    <hyperlink ref="Q22" r:id="rId138"/>
+    <hyperlink ref="S22" r:id="rId139" location="rightToLeftDirection"/>
+    <hyperlink ref="U22" r:id="rId140"/>
+    <hyperlink ref="M23" r:id="rId141"/>
+    <hyperlink ref="N23" r:id="rId142"/>
+    <hyperlink ref="O23" r:id="rId143"/>
+    <hyperlink ref="P23" r:id="rId144"/>
+    <hyperlink ref="Q23" r:id="rId145"/>
+    <hyperlink ref="S23" r:id="rId146" location="rightToLeftDirection"/>
+    <hyperlink ref="U23" r:id="rId147"/>
+    <hyperlink ref="M24" r:id="rId148"/>
+    <hyperlink ref="N24" r:id="rId149"/>
+    <hyperlink ref="O24" r:id="rId150"/>
+    <hyperlink ref="P24" r:id="rId151"/>
+    <hyperlink ref="Q24" r:id="rId152"/>
+    <hyperlink ref="S24" r:id="rId153" location="rightToLeftDirection"/>
+    <hyperlink ref="U24" r:id="rId154"/>
+    <hyperlink ref="M25" r:id="rId155"/>
+    <hyperlink ref="N25" r:id="rId156"/>
+    <hyperlink ref="O25" r:id="rId157"/>
+    <hyperlink ref="P25" r:id="rId158"/>
+    <hyperlink ref="Q25" r:id="rId159"/>
+    <hyperlink ref="S25" r:id="rId160" location="rightToLeftDirection"/>
+    <hyperlink ref="U25" r:id="rId161"/>
+    <hyperlink ref="M26" r:id="rId162"/>
+    <hyperlink ref="N26" r:id="rId163"/>
+    <hyperlink ref="O26" r:id="rId164"/>
+    <hyperlink ref="P26" r:id="rId165"/>
+    <hyperlink ref="Q26" r:id="rId166"/>
+    <hyperlink ref="S26" r:id="rId167" location="rightToLeftDirection"/>
+    <hyperlink ref="U26" r:id="rId168"/>
+    <hyperlink ref="M27" r:id="rId169"/>
+    <hyperlink ref="N27" r:id="rId170"/>
+    <hyperlink ref="O27" r:id="rId171"/>
+    <hyperlink ref="P27" r:id="rId172"/>
+    <hyperlink ref="Q27" r:id="rId173"/>
+    <hyperlink ref="S27" r:id="rId174" location="rightToLeftDirection"/>
+    <hyperlink ref="U27" r:id="rId175"/>
+    <hyperlink ref="M28" r:id="rId176"/>
+    <hyperlink ref="N28" r:id="rId177"/>
+    <hyperlink ref="O28" r:id="rId178"/>
+    <hyperlink ref="P28" r:id="rId179"/>
+    <hyperlink ref="Q28" r:id="rId180"/>
+    <hyperlink ref="S28" r:id="rId181" location="rightToLeftDirection"/>
+    <hyperlink ref="U28" r:id="rId182"/>
+    <hyperlink ref="M29" r:id="rId183"/>
+    <hyperlink ref="N29" r:id="rId184"/>
+    <hyperlink ref="O29" r:id="rId185"/>
+    <hyperlink ref="P29" r:id="rId186"/>
+    <hyperlink ref="Q29" r:id="rId187"/>
+    <hyperlink ref="S29" r:id="rId188" location="rightToLeftDirection"/>
+    <hyperlink ref="U29" r:id="rId189"/>
+    <hyperlink ref="M30" r:id="rId190"/>
+    <hyperlink ref="N30" r:id="rId191"/>
+    <hyperlink ref="O30" r:id="rId192"/>
+    <hyperlink ref="P30" r:id="rId193"/>
+    <hyperlink ref="Q30" r:id="rId194"/>
+    <hyperlink ref="S30" r:id="rId195" location="rightToLeftDirection"/>
+    <hyperlink ref="U30" r:id="rId196"/>
+    <hyperlink ref="M31" r:id="rId197"/>
+    <hyperlink ref="N31" r:id="rId198"/>
+    <hyperlink ref="O31" r:id="rId199"/>
+    <hyperlink ref="P31" r:id="rId200"/>
+    <hyperlink ref="Q31" r:id="rId201"/>
+    <hyperlink ref="S31" r:id="rId202" location="rightToLeftDirection"/>
+    <hyperlink ref="U31" r:id="rId203"/>
+    <hyperlink ref="M32" r:id="rId204"/>
+    <hyperlink ref="N32" r:id="rId205"/>
+    <hyperlink ref="O32" r:id="rId206"/>
+    <hyperlink ref="P32" r:id="rId207"/>
+    <hyperlink ref="Q32" r:id="rId208"/>
+    <hyperlink ref="S32" r:id="rId209" location="rightToLeftDirection"/>
+    <hyperlink ref="U32" r:id="rId210"/>
+    <hyperlink ref="M33" r:id="rId211"/>
+    <hyperlink ref="N33" r:id="rId212"/>
+    <hyperlink ref="O33" r:id="rId213"/>
+    <hyperlink ref="P33" r:id="rId214"/>
+    <hyperlink ref="Q33" r:id="rId215"/>
+    <hyperlink ref="S33" r:id="rId216" location="rightToLeftDirection"/>
+    <hyperlink ref="U33" r:id="rId217"/>
+    <hyperlink ref="M34" r:id="rId218"/>
+    <hyperlink ref="N34" r:id="rId219"/>
+    <hyperlink ref="O34" r:id="rId220"/>
+    <hyperlink ref="P34" r:id="rId221"/>
+    <hyperlink ref="Q34" r:id="rId222"/>
+    <hyperlink ref="S34" r:id="rId223" location="rightToLeftDirection"/>
+    <hyperlink ref="U34" r:id="rId224"/>
+    <hyperlink ref="M35" r:id="rId225"/>
+    <hyperlink ref="N35" r:id="rId226"/>
+    <hyperlink ref="O35" r:id="rId227"/>
+    <hyperlink ref="P35" r:id="rId228"/>
+    <hyperlink ref="Q35" r:id="rId229"/>
+    <hyperlink ref="S35" r:id="rId230" location="rightToLeftDirection"/>
+    <hyperlink ref="U35" r:id="rId231"/>
+    <hyperlink ref="M36" r:id="rId232"/>
+    <hyperlink ref="N36" r:id="rId233"/>
+    <hyperlink ref="O36" r:id="rId234"/>
+    <hyperlink ref="P36" r:id="rId235"/>
+    <hyperlink ref="Q36" r:id="rId236"/>
+    <hyperlink ref="S36" r:id="rId237" location="rightToLeftDirection"/>
+    <hyperlink ref="U36" r:id="rId238"/>
+    <hyperlink ref="M37" r:id="rId239"/>
+    <hyperlink ref="N37" r:id="rId240"/>
+    <hyperlink ref="O37" r:id="rId241"/>
+    <hyperlink ref="P37" r:id="rId242"/>
+    <hyperlink ref="Q37" r:id="rId243"/>
+    <hyperlink ref="S37" r:id="rId244" location="rightToLeftDirection"/>
+    <hyperlink ref="U37" r:id="rId245"/>
+    <hyperlink ref="M38" r:id="rId246"/>
+    <hyperlink ref="N38" r:id="rId247"/>
+    <hyperlink ref="O38" r:id="rId248"/>
+    <hyperlink ref="P38" r:id="rId249"/>
+    <hyperlink ref="Q38" r:id="rId250"/>
+    <hyperlink ref="S38" r:id="rId251" location="rightToLeftDirection"/>
+    <hyperlink ref="U38" r:id="rId252"/>
+    <hyperlink ref="M39" r:id="rId253"/>
+    <hyperlink ref="N39" r:id="rId254"/>
+    <hyperlink ref="O39" r:id="rId255"/>
+    <hyperlink ref="P39" r:id="rId256"/>
+    <hyperlink ref="Q39" r:id="rId257"/>
+    <hyperlink ref="S39" r:id="rId258" location="rightToLeftDirection"/>
+    <hyperlink ref="U39" r:id="rId259"/>
+    <hyperlink ref="M40" r:id="rId260"/>
+    <hyperlink ref="N40" r:id="rId261"/>
+    <hyperlink ref="O40" r:id="rId262"/>
+    <hyperlink ref="P40" r:id="rId263"/>
+    <hyperlink ref="Q40" r:id="rId264"/>
+    <hyperlink ref="S40" r:id="rId265" location="rightToLeftDirection"/>
+    <hyperlink ref="U40" r:id="rId266"/>
+    <hyperlink ref="M41" r:id="rId267"/>
+    <hyperlink ref="N41" r:id="rId268"/>
+    <hyperlink ref="O41" r:id="rId269"/>
+    <hyperlink ref="P41" r:id="rId270"/>
+    <hyperlink ref="Q41" r:id="rId271"/>
+    <hyperlink ref="S41" r:id="rId272" location="rightToLeftDirection"/>
+    <hyperlink ref="U41" r:id="rId273"/>
+    <hyperlink ref="M42" r:id="rId274"/>
+    <hyperlink ref="N42" r:id="rId275"/>
+    <hyperlink ref="O42" r:id="rId276"/>
+    <hyperlink ref="P42" r:id="rId277"/>
+    <hyperlink ref="Q42" r:id="rId278"/>
+    <hyperlink ref="S42" r:id="rId279" location="rightToLeftDirection"/>
+    <hyperlink ref="U42" r:id="rId280"/>
+    <hyperlink ref="M43" r:id="rId281"/>
+    <hyperlink ref="N43" r:id="rId282"/>
+    <hyperlink ref="O43" r:id="rId283"/>
+    <hyperlink ref="P43" r:id="rId284"/>
+    <hyperlink ref="Q43" r:id="rId285"/>
+    <hyperlink ref="S43" r:id="rId286" location="rightToLeftDirection"/>
+    <hyperlink ref="U43" r:id="rId287"/>
+    <hyperlink ref="M44" r:id="rId288"/>
+    <hyperlink ref="N44" r:id="rId289"/>
+    <hyperlink ref="O44" r:id="rId290"/>
+    <hyperlink ref="P44" r:id="rId291"/>
+    <hyperlink ref="Q44" r:id="rId292"/>
+    <hyperlink ref="S44" r:id="rId293" location="rightToLeftDirection"/>
+    <hyperlink ref="U44" r:id="rId294"/>
+    <hyperlink ref="M45" r:id="rId295"/>
+    <hyperlink ref="N45" r:id="rId296"/>
+    <hyperlink ref="O45" r:id="rId297"/>
+    <hyperlink ref="P45" r:id="rId298"/>
+    <hyperlink ref="Q45" r:id="rId299"/>
+    <hyperlink ref="S45" r:id="rId300" location="rightToLeftDirection"/>
+    <hyperlink ref="U45" r:id="rId301"/>
+    <hyperlink ref="M46" r:id="rId302"/>
+    <hyperlink ref="N46" r:id="rId303"/>
+    <hyperlink ref="O46" r:id="rId304"/>
+    <hyperlink ref="P46" r:id="rId305"/>
+    <hyperlink ref="Q46" r:id="rId306"/>
+    <hyperlink ref="S46" r:id="rId307" location="rightToLeftDirection"/>
+    <hyperlink ref="U46" r:id="rId308"/>
+    <hyperlink ref="M47" r:id="rId309"/>
+    <hyperlink ref="N47" r:id="rId310"/>
+    <hyperlink ref="O47" r:id="rId311"/>
+    <hyperlink ref="P47" r:id="rId312"/>
+    <hyperlink ref="Q47" r:id="rId313"/>
+    <hyperlink ref="S47" r:id="rId314" location="rightToLeftDirection"/>
+    <hyperlink ref="U47" r:id="rId315"/>
+    <hyperlink ref="M48" r:id="rId316"/>
+    <hyperlink ref="N48" r:id="rId317"/>
+    <hyperlink ref="O48" r:id="rId318"/>
+    <hyperlink ref="P48" r:id="rId319"/>
+    <hyperlink ref="Q48" r:id="rId320"/>
+    <hyperlink ref="S48" r:id="rId321" location="rightToLeftDirection"/>
+    <hyperlink ref="U48" r:id="rId322"/>
+    <hyperlink ref="M49" r:id="rId323"/>
+    <hyperlink ref="N49" r:id="rId324"/>
+    <hyperlink ref="O49" r:id="rId325"/>
+    <hyperlink ref="P49" r:id="rId326"/>
+    <hyperlink ref="Q49" r:id="rId327"/>
+    <hyperlink ref="S49" r:id="rId328" location="rightToLeftDirection"/>
+    <hyperlink ref="U49" r:id="rId329"/>
+    <hyperlink ref="M50" r:id="rId330"/>
+    <hyperlink ref="N50" r:id="rId331"/>
+    <hyperlink ref="O50" r:id="rId332"/>
+    <hyperlink ref="P50" r:id="rId333"/>
+    <hyperlink ref="Q50" r:id="rId334"/>
+    <hyperlink ref="S50" r:id="rId335" location="rightToLeftDirection"/>
+    <hyperlink ref="U50" r:id="rId336"/>
+    <hyperlink ref="M51" r:id="rId337"/>
+    <hyperlink ref="N51" r:id="rId338"/>
+    <hyperlink ref="O51" r:id="rId339"/>
+    <hyperlink ref="P51" r:id="rId340"/>
+    <hyperlink ref="Q51" r:id="rId341"/>
+    <hyperlink ref="S51" r:id="rId342" location="rightToLeftDirection"/>
+    <hyperlink ref="U51" r:id="rId343"/>
+    <hyperlink ref="M52" r:id="rId344"/>
+    <hyperlink ref="N52" r:id="rId345"/>
+    <hyperlink ref="O52" r:id="rId346"/>
+    <hyperlink ref="P52" r:id="rId347"/>
+    <hyperlink ref="Q52" r:id="rId348"/>
+    <hyperlink ref="S52" r:id="rId349" location="rightToLeftDirection"/>
+    <hyperlink ref="U52" r:id="rId350"/>
+    <hyperlink ref="M53" r:id="rId351"/>
+    <hyperlink ref="N53" r:id="rId352"/>
+    <hyperlink ref="O53" r:id="rId353"/>
+    <hyperlink ref="P53" r:id="rId354"/>
+    <hyperlink ref="Q53" r:id="rId355"/>
+    <hyperlink ref="S53" r:id="rId356" location="rightToLeftDirection"/>
+    <hyperlink ref="U53" r:id="rId357"/>
+    <hyperlink ref="M54" r:id="rId358"/>
+    <hyperlink ref="N54" r:id="rId359"/>
+    <hyperlink ref="O54" r:id="rId360"/>
+    <hyperlink ref="P54" r:id="rId361"/>
+    <hyperlink ref="Q54" r:id="rId362"/>
+    <hyperlink ref="S54" r:id="rId363" location="rightToLeftDirection"/>
+    <hyperlink ref="U54" r:id="rId364"/>
+    <hyperlink ref="M55" r:id="rId365"/>
+    <hyperlink ref="N55" r:id="rId366"/>
+    <hyperlink ref="O55" r:id="rId367"/>
+    <hyperlink ref="P55" r:id="rId368"/>
+    <hyperlink ref="Q55" r:id="rId369"/>
+    <hyperlink ref="S55" r:id="rId370" location="rightToLeftDirection"/>
+    <hyperlink ref="U55" r:id="rId371"/>
+    <hyperlink ref="M56" r:id="rId372"/>
+    <hyperlink ref="N56" r:id="rId373"/>
+    <hyperlink ref="O56" r:id="rId374"/>
+    <hyperlink ref="P56" r:id="rId375"/>
+    <hyperlink ref="Q56" r:id="rId376"/>
+    <hyperlink ref="S56" r:id="rId377" location="rightToLeftDirection"/>
+    <hyperlink ref="U56" r:id="rId378"/>
+    <hyperlink ref="M57" r:id="rId379"/>
+    <hyperlink ref="N57" r:id="rId380"/>
+    <hyperlink ref="O57" r:id="rId381"/>
+    <hyperlink ref="P57" r:id="rId382"/>
+    <hyperlink ref="Q57" r:id="rId383"/>
+    <hyperlink ref="S57" r:id="rId384" location="rightToLeftDirection"/>
+    <hyperlink ref="U57" r:id="rId385"/>
+    <hyperlink ref="M58" r:id="rId386"/>
+    <hyperlink ref="N58" r:id="rId387"/>
+    <hyperlink ref="O58" r:id="rId388"/>
+    <hyperlink ref="P58" r:id="rId389"/>
+    <hyperlink ref="Q58" r:id="rId390"/>
+    <hyperlink ref="S58" r:id="rId391" location="rightToLeftDirection"/>
+    <hyperlink ref="U58" r:id="rId392"/>
+    <hyperlink ref="M59" r:id="rId393"/>
+    <hyperlink ref="N59" r:id="rId394"/>
+    <hyperlink ref="O59" r:id="rId395"/>
+    <hyperlink ref="P59" r:id="rId396"/>
+    <hyperlink ref="Q59" r:id="rId397"/>
+    <hyperlink ref="S59" r:id="rId398" location="rightToLeftDirection"/>
+    <hyperlink ref="U59" r:id="rId399"/>
+    <hyperlink ref="M60" r:id="rId400"/>
+    <hyperlink ref="N60" r:id="rId401"/>
+    <hyperlink ref="O60" r:id="rId402"/>
+    <hyperlink ref="P60" r:id="rId403"/>
+    <hyperlink ref="Q60" r:id="rId404"/>
+    <hyperlink ref="S60" r:id="rId405" location="rightToLeftDirection"/>
+    <hyperlink ref="U60" r:id="rId406"/>
+    <hyperlink ref="M61" r:id="rId407"/>
+    <hyperlink ref="N61" r:id="rId408"/>
+    <hyperlink ref="O61" r:id="rId409"/>
+    <hyperlink ref="P61" r:id="rId410"/>
+    <hyperlink ref="Q61" r:id="rId411"/>
+    <hyperlink ref="S61" r:id="rId412" location="rightToLeftDirection"/>
+    <hyperlink ref="U61" r:id="rId413"/>
+    <hyperlink ref="M62" r:id="rId414"/>
+    <hyperlink ref="N62" r:id="rId415"/>
+    <hyperlink ref="O62" r:id="rId416"/>
+    <hyperlink ref="P62" r:id="rId417"/>
+    <hyperlink ref="Q62" r:id="rId418"/>
+    <hyperlink ref="S62" r:id="rId419" location="rightToLeftDirection"/>
+    <hyperlink ref="U62" r:id="rId420"/>
+    <hyperlink ref="M63" r:id="rId421"/>
+    <hyperlink ref="N63" r:id="rId422"/>
+    <hyperlink ref="O63" r:id="rId423"/>
+    <hyperlink ref="P63" r:id="rId424"/>
+    <hyperlink ref="Q63" r:id="rId425"/>
+    <hyperlink ref="S63" r:id="rId426" location="rightToLeftDirection"/>
+    <hyperlink ref="U63" r:id="rId427"/>
+    <hyperlink ref="M64" r:id="rId428"/>
+    <hyperlink ref="N64" r:id="rId429"/>
+    <hyperlink ref="O64" r:id="rId430"/>
+    <hyperlink ref="P64" r:id="rId431"/>
+    <hyperlink ref="Q64" r:id="rId432"/>
+    <hyperlink ref="S64" r:id="rId433" location="rightToLeftDirection"/>
+    <hyperlink ref="U64" r:id="rId434"/>
+    <hyperlink ref="M65" r:id="rId435"/>
+    <hyperlink ref="N65" r:id="rId436"/>
+    <hyperlink ref="O65" r:id="rId437"/>
+    <hyperlink ref="P65" r:id="rId438"/>
+    <hyperlink ref="Q65" r:id="rId439"/>
+    <hyperlink ref="S65" r:id="rId440" location="rightToLeftDirection"/>
+    <hyperlink ref="U65" r:id="rId441"/>
+    <hyperlink ref="M66" r:id="rId442"/>
+    <hyperlink ref="N66" r:id="rId443"/>
+    <hyperlink ref="O66" r:id="rId444"/>
+    <hyperlink ref="P66" r:id="rId445"/>
+    <hyperlink ref="Q66" r:id="rId446"/>
+    <hyperlink ref="S66" r:id="rId447" location="rightToLeftDirection"/>
+    <hyperlink ref="U66" r:id="rId448"/>
+    <hyperlink ref="M67" r:id="rId449"/>
+    <hyperlink ref="N67" r:id="rId450"/>
+    <hyperlink ref="O67" r:id="rId451"/>
+    <hyperlink ref="P67" r:id="rId452"/>
+    <hyperlink ref="Q67" r:id="rId453"/>
+    <hyperlink ref="S67" r:id="rId454" location="rightToLeftDirection"/>
+    <hyperlink ref="U67" r:id="rId455"/>
+    <hyperlink ref="M68" r:id="rId456"/>
+    <hyperlink ref="N68" r:id="rId457"/>
+    <hyperlink ref="O68" r:id="rId458"/>
+    <hyperlink ref="P68" r:id="rId459"/>
+    <hyperlink ref="Q68" r:id="rId460"/>
+    <hyperlink ref="S68" r:id="rId461" location="rightToLeftDirection"/>
+    <hyperlink ref="U68" r:id="rId462"/>
+    <hyperlink ref="M69" r:id="rId463"/>
+    <hyperlink ref="N69" r:id="rId464"/>
+    <hyperlink ref="O69" r:id="rId465"/>
+    <hyperlink ref="P69" r:id="rId466"/>
+    <hyperlink ref="Q69" r:id="rId467"/>
+    <hyperlink ref="S69" r:id="rId468" location="rightToLeftDirection"/>
+    <hyperlink ref="U69" r:id="rId469"/>
+    <hyperlink ref="M70" r:id="rId470"/>
+    <hyperlink ref="N70" r:id="rId471"/>
+    <hyperlink ref="O70" r:id="rId472"/>
+    <hyperlink ref="P70" r:id="rId473"/>
+    <hyperlink ref="Q70" r:id="rId474"/>
+    <hyperlink ref="S70" r:id="rId475" location="rightToLeftDirection"/>
+    <hyperlink ref="U70" r:id="rId476"/>
+    <hyperlink ref="M71" r:id="rId477"/>
+    <hyperlink ref="N71" r:id="rId478"/>
+    <hyperlink ref="O71" r:id="rId479"/>
+    <hyperlink ref="P71" r:id="rId480"/>
+    <hyperlink ref="Q71" r:id="rId481"/>
+    <hyperlink ref="S71" r:id="rId482" location="rightToLeftDirection"/>
+    <hyperlink ref="U71" r:id="rId483"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/docs/collections/koten/metadata/data.xlsx
+++ b/docs/collections/koten/metadata/data.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="939">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="940">
   <si>
     <t>書名</t>
   </si>
@@ -1557,6 +1557,9 @@
   </si>
   <si>
     <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/api/items/172012</t>
+  </si>
+  <si>
+    <t xml:space="preserve">総合図書館所蔵古典籍 </t>
   </si>
   <si>
     <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/iiif/172012/manifest</t>
@@ -4436,7 +4439,9 @@
         <v>70</v>
       </c>
       <c r="T18" t="s"/>
-      <c r="U18" t="s"/>
+      <c r="U18" t="s">
+        <v>71</v>
+      </c>
       <c r="V18" t="s"/>
       <c r="W18" t="s">
         <v>271</v>
@@ -5122,7 +5127,9 @@
         <v>70</v>
       </c>
       <c r="T28" t="s"/>
-      <c r="U28" t="s"/>
+      <c r="U28" t="s">
+        <v>71</v>
+      </c>
       <c r="V28" t="s"/>
       <c r="W28" t="s">
         <v>402</v>
@@ -5600,7 +5607,9 @@
         <v>70</v>
       </c>
       <c r="T35" t="s"/>
-      <c r="U35" t="s"/>
+      <c r="U35" t="s">
+        <v>71</v>
+      </c>
       <c r="V35" t="s"/>
       <c r="W35" t="s">
         <v>486</v>
@@ -5736,10 +5745,12 @@
         <v>70</v>
       </c>
       <c r="T37" t="s"/>
-      <c r="U37" t="s"/>
+      <c r="U37" t="s">
+        <v>514</v>
+      </c>
       <c r="V37" t="s"/>
       <c r="W37" t="s">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="X37" t="s"/>
       <c r="Y37" t="s"/>
@@ -5751,53 +5762,53 @@
     </row>
     <row r="38" spans="1:28">
       <c r="A38" t="s">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="B38" t="s">
-        <v>516</v>
+        <v>517</v>
       </c>
       <c r="C38" t="s"/>
       <c r="D38" t="s">
-        <v>517</v>
+        <v>518</v>
       </c>
       <c r="E38" t="s">
         <v>76</v>
       </c>
       <c r="F38" t="s">
-        <v>518</v>
+        <v>519</v>
       </c>
       <c r="G38" t="s">
         <v>78</v>
       </c>
       <c r="H38" t="s">
-        <v>519</v>
+        <v>520</v>
       </c>
       <c r="I38" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="J38" t="s">
         <v>254</v>
       </c>
       <c r="K38" t="s">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="L38" t="s">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="M38" t="s">
         <v>65</v>
       </c>
       <c r="N38" t="s">
-        <v>523</v>
+        <v>524</v>
       </c>
       <c r="O38" t="s">
         <v>67</v>
       </c>
       <c r="P38" t="s">
-        <v>524</v>
+        <v>525</v>
       </c>
       <c r="Q38" t="s">
-        <v>525</v>
+        <v>526</v>
       </c>
       <c r="R38" t="s"/>
       <c r="S38" t="s">
@@ -5809,7 +5820,7 @@
       </c>
       <c r="V38" t="s"/>
       <c r="W38" t="s">
-        <v>526</v>
+        <v>527</v>
       </c>
       <c r="X38" t="s"/>
       <c r="Y38" t="s"/>
@@ -5821,53 +5832,53 @@
     </row>
     <row r="39" spans="1:28">
       <c r="A39" t="s">
-        <v>527</v>
+        <v>528</v>
       </c>
       <c r="B39" t="s">
-        <v>528</v>
+        <v>529</v>
       </c>
       <c r="C39" t="s"/>
       <c r="D39" t="s">
-        <v>529</v>
+        <v>530</v>
       </c>
       <c r="E39" t="s">
         <v>76</v>
       </c>
       <c r="F39" t="s">
-        <v>530</v>
+        <v>531</v>
       </c>
       <c r="G39" t="s">
-        <v>531</v>
+        <v>532</v>
       </c>
       <c r="H39" t="s">
-        <v>532</v>
+        <v>533</v>
       </c>
       <c r="I39" t="s">
-        <v>533</v>
+        <v>534</v>
       </c>
       <c r="J39" t="s">
         <v>162</v>
       </c>
       <c r="K39" t="s">
-        <v>534</v>
+        <v>535</v>
       </c>
       <c r="L39" t="s">
-        <v>535</v>
+        <v>536</v>
       </c>
       <c r="M39" t="s">
         <v>65</v>
       </c>
       <c r="N39" t="s">
-        <v>536</v>
+        <v>537</v>
       </c>
       <c r="O39" t="s">
         <v>67</v>
       </c>
       <c r="P39" t="s">
-        <v>537</v>
+        <v>538</v>
       </c>
       <c r="Q39" t="s">
-        <v>538</v>
+        <v>539</v>
       </c>
       <c r="R39" t="s"/>
       <c r="S39" t="s">
@@ -5879,7 +5890,7 @@
       </c>
       <c r="V39" t="s"/>
       <c r="W39" t="s">
-        <v>539</v>
+        <v>540</v>
       </c>
       <c r="X39" t="s"/>
       <c r="Y39" t="s"/>
@@ -5891,53 +5902,53 @@
     </row>
     <row r="40" spans="1:28">
       <c r="A40" t="s">
-        <v>540</v>
+        <v>541</v>
       </c>
       <c r="B40" t="s">
-        <v>541</v>
+        <v>542</v>
       </c>
       <c r="C40" t="s">
-        <v>542</v>
+        <v>543</v>
       </c>
       <c r="D40" t="s"/>
       <c r="E40" t="s">
         <v>76</v>
       </c>
       <c r="F40" t="s">
-        <v>543</v>
+        <v>544</v>
       </c>
       <c r="G40" t="s">
-        <v>544</v>
+        <v>545</v>
       </c>
       <c r="H40" t="s">
-        <v>545</v>
+        <v>546</v>
       </c>
       <c r="I40" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
       <c r="J40" t="s">
         <v>162</v>
       </c>
       <c r="K40" t="s">
-        <v>547</v>
+        <v>548</v>
       </c>
       <c r="L40" t="s">
-        <v>548</v>
+        <v>549</v>
       </c>
       <c r="M40" t="s">
         <v>65</v>
       </c>
       <c r="N40" t="s">
-        <v>549</v>
+        <v>550</v>
       </c>
       <c r="O40" t="s">
         <v>67</v>
       </c>
       <c r="P40" t="s">
-        <v>550</v>
+        <v>551</v>
       </c>
       <c r="Q40" t="s">
-        <v>551</v>
+        <v>552</v>
       </c>
       <c r="R40" t="s"/>
       <c r="S40" t="s">
@@ -5949,7 +5960,7 @@
       </c>
       <c r="V40" t="s"/>
       <c r="W40" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
       <c r="X40" t="s"/>
       <c r="Y40" t="s"/>
@@ -5961,55 +5972,55 @@
     </row>
     <row r="41" spans="1:28">
       <c r="A41" t="s">
-        <v>553</v>
+        <v>554</v>
       </c>
       <c r="B41" t="s">
-        <v>554</v>
+        <v>555</v>
       </c>
       <c r="C41" t="s">
-        <v>555</v>
+        <v>556</v>
       </c>
       <c r="D41" t="s">
-        <v>556</v>
+        <v>557</v>
       </c>
       <c r="E41" t="s">
-        <v>557</v>
+        <v>558</v>
       </c>
       <c r="F41" t="s">
-        <v>558</v>
+        <v>559</v>
       </c>
       <c r="G41" t="s">
-        <v>559</v>
+        <v>560</v>
       </c>
       <c r="H41" t="s">
-        <v>560</v>
+        <v>561</v>
       </c>
       <c r="I41" t="s">
-        <v>561</v>
+        <v>562</v>
       </c>
       <c r="J41" t="s">
-        <v>562</v>
+        <v>563</v>
       </c>
       <c r="K41" t="s">
-        <v>563</v>
+        <v>564</v>
       </c>
       <c r="L41" t="s">
-        <v>564</v>
+        <v>565</v>
       </c>
       <c r="M41" t="s">
         <v>65</v>
       </c>
       <c r="N41" t="s">
-        <v>565</v>
+        <v>566</v>
       </c>
       <c r="O41" t="s">
         <v>67</v>
       </c>
       <c r="P41" t="s">
-        <v>566</v>
+        <v>567</v>
       </c>
       <c r="Q41" t="s">
-        <v>567</v>
+        <v>568</v>
       </c>
       <c r="R41" t="s"/>
       <c r="S41" t="s">
@@ -6021,7 +6032,7 @@
       </c>
       <c r="V41" t="s"/>
       <c r="W41" t="s">
-        <v>568</v>
+        <v>569</v>
       </c>
       <c r="X41" t="s"/>
       <c r="Y41" t="s"/>
@@ -6033,53 +6044,53 @@
     </row>
     <row r="42" spans="1:28">
       <c r="A42" t="s">
-        <v>569</v>
+        <v>570</v>
       </c>
       <c r="B42" t="s">
-        <v>570</v>
+        <v>571</v>
       </c>
       <c r="C42" t="s"/>
       <c r="D42" t="s">
-        <v>571</v>
+        <v>572</v>
       </c>
       <c r="E42" t="s">
-        <v>572</v>
+        <v>573</v>
       </c>
       <c r="F42" t="s">
-        <v>573</v>
+        <v>574</v>
       </c>
       <c r="G42" t="s">
-        <v>559</v>
+        <v>560</v>
       </c>
       <c r="H42" t="s">
-        <v>574</v>
+        <v>575</v>
       </c>
       <c r="I42" t="s">
-        <v>575</v>
+        <v>576</v>
       </c>
       <c r="J42" t="s">
-        <v>576</v>
+        <v>577</v>
       </c>
       <c r="K42" t="s">
-        <v>577</v>
+        <v>578</v>
       </c>
       <c r="L42" t="s">
-        <v>578</v>
+        <v>579</v>
       </c>
       <c r="M42" t="s">
         <v>65</v>
       </c>
       <c r="N42" t="s">
-        <v>579</v>
+        <v>580</v>
       </c>
       <c r="O42" t="s">
         <v>67</v>
       </c>
       <c r="P42" t="s">
-        <v>580</v>
+        <v>581</v>
       </c>
       <c r="Q42" t="s">
-        <v>581</v>
+        <v>582</v>
       </c>
       <c r="R42" t="s"/>
       <c r="S42" t="s">
@@ -6091,7 +6102,7 @@
       </c>
       <c r="V42" t="s"/>
       <c r="W42" t="s">
-        <v>582</v>
+        <v>583</v>
       </c>
       <c r="X42" t="s"/>
       <c r="Y42" t="s"/>
@@ -6103,53 +6114,53 @@
     </row>
     <row r="43" spans="1:28">
       <c r="A43" t="s">
-        <v>583</v>
+        <v>584</v>
       </c>
       <c r="B43" t="s">
-        <v>584</v>
+        <v>585</v>
       </c>
       <c r="C43" t="s"/>
       <c r="D43" t="s">
-        <v>585</v>
+        <v>586</v>
       </c>
       <c r="E43" t="s">
-        <v>586</v>
+        <v>587</v>
       </c>
       <c r="F43" t="s">
-        <v>587</v>
+        <v>588</v>
       </c>
       <c r="G43" t="s">
-        <v>559</v>
+        <v>560</v>
       </c>
       <c r="H43" t="s">
-        <v>588</v>
+        <v>589</v>
       </c>
       <c r="I43" t="s">
-        <v>589</v>
+        <v>590</v>
       </c>
       <c r="J43" t="s">
-        <v>590</v>
+        <v>591</v>
       </c>
       <c r="K43" t="s">
-        <v>591</v>
+        <v>592</v>
       </c>
       <c r="L43" t="s">
-        <v>592</v>
+        <v>593</v>
       </c>
       <c r="M43" t="s">
         <v>65</v>
       </c>
       <c r="N43" t="s">
-        <v>593</v>
+        <v>594</v>
       </c>
       <c r="O43" t="s">
         <v>67</v>
       </c>
       <c r="P43" t="s">
-        <v>594</v>
+        <v>595</v>
       </c>
       <c r="Q43" t="s">
-        <v>595</v>
+        <v>596</v>
       </c>
       <c r="R43" t="s"/>
       <c r="S43" t="s">
@@ -6161,7 +6172,7 @@
       </c>
       <c r="V43" t="s"/>
       <c r="W43" t="s">
-        <v>596</v>
+        <v>597</v>
       </c>
       <c r="X43" t="s"/>
       <c r="Y43" t="s"/>
@@ -6173,53 +6184,53 @@
     </row>
     <row r="44" spans="1:28">
       <c r="A44" t="s">
-        <v>597</v>
+        <v>598</v>
       </c>
       <c r="B44" t="s">
-        <v>598</v>
+        <v>599</v>
       </c>
       <c r="C44" t="s"/>
       <c r="D44" t="s">
-        <v>599</v>
+        <v>600</v>
       </c>
       <c r="E44" t="s">
-        <v>600</v>
+        <v>601</v>
       </c>
       <c r="F44" t="s">
-        <v>601</v>
+        <v>602</v>
       </c>
       <c r="G44" t="s">
-        <v>602</v>
+        <v>603</v>
       </c>
       <c r="H44" t="s">
-        <v>603</v>
+        <v>604</v>
       </c>
       <c r="I44" t="s">
-        <v>604</v>
+        <v>605</v>
       </c>
       <c r="J44" t="s">
         <v>254</v>
       </c>
       <c r="K44" t="s">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="L44" t="s">
-        <v>606</v>
+        <v>607</v>
       </c>
       <c r="M44" t="s">
         <v>65</v>
       </c>
       <c r="N44" t="s">
-        <v>607</v>
+        <v>608</v>
       </c>
       <c r="O44" t="s">
         <v>67</v>
       </c>
       <c r="P44" t="s">
-        <v>608</v>
+        <v>609</v>
       </c>
       <c r="Q44" t="s">
-        <v>609</v>
+        <v>610</v>
       </c>
       <c r="R44" t="s"/>
       <c r="S44" t="s">
@@ -6231,7 +6242,7 @@
       </c>
       <c r="V44" t="s"/>
       <c r="W44" t="s">
-        <v>610</v>
+        <v>611</v>
       </c>
       <c r="X44" t="s"/>
       <c r="Y44" t="s"/>
@@ -6243,16 +6254,16 @@
     </row>
     <row r="45" spans="1:28">
       <c r="A45" t="s">
-        <v>611</v>
+        <v>612</v>
       </c>
       <c r="B45" t="s">
-        <v>612</v>
+        <v>613</v>
       </c>
       <c r="C45" t="s">
-        <v>613</v>
+        <v>614</v>
       </c>
       <c r="D45" t="s">
-        <v>614</v>
+        <v>615</v>
       </c>
       <c r="E45" t="s">
         <v>76</v>
@@ -6262,34 +6273,34 @@
         <v>326</v>
       </c>
       <c r="H45" t="s">
-        <v>615</v>
+        <v>616</v>
       </c>
       <c r="I45" t="s">
-        <v>616</v>
+        <v>617</v>
       </c>
       <c r="J45" t="s">
         <v>162</v>
       </c>
       <c r="K45" t="s">
-        <v>617</v>
+        <v>618</v>
       </c>
       <c r="L45" t="s">
-        <v>618</v>
+        <v>619</v>
       </c>
       <c r="M45" t="s">
         <v>65</v>
       </c>
       <c r="N45" t="s">
-        <v>619</v>
+        <v>620</v>
       </c>
       <c r="O45" t="s">
         <v>67</v>
       </c>
       <c r="P45" t="s">
-        <v>620</v>
+        <v>621</v>
       </c>
       <c r="Q45" t="s">
-        <v>621</v>
+        <v>622</v>
       </c>
       <c r="R45" t="s"/>
       <c r="S45" t="s">
@@ -6301,7 +6312,7 @@
       </c>
       <c r="V45" t="s"/>
       <c r="W45" t="s">
-        <v>622</v>
+        <v>623</v>
       </c>
       <c r="X45" t="s"/>
       <c r="Y45" t="s"/>
@@ -6313,10 +6324,10 @@
     </row>
     <row r="46" spans="1:28">
       <c r="A46" t="s">
-        <v>623</v>
+        <v>624</v>
       </c>
       <c r="B46" t="s">
-        <v>624</v>
+        <v>625</v>
       </c>
       <c r="C46" t="s"/>
       <c r="D46" t="s"/>
@@ -6324,40 +6335,40 @@
         <v>76</v>
       </c>
       <c r="F46" t="s">
-        <v>625</v>
+        <v>626</v>
       </c>
       <c r="G46" t="s">
-        <v>626</v>
+        <v>627</v>
       </c>
       <c r="H46" t="s">
-        <v>627</v>
+        <v>628</v>
       </c>
       <c r="I46" t="s">
-        <v>628</v>
+        <v>629</v>
       </c>
       <c r="J46" t="s">
-        <v>629</v>
+        <v>630</v>
       </c>
       <c r="K46" t="s">
-        <v>630</v>
+        <v>631</v>
       </c>
       <c r="L46" t="s">
-        <v>631</v>
+        <v>632</v>
       </c>
       <c r="M46" t="s">
         <v>65</v>
       </c>
       <c r="N46" t="s">
-        <v>632</v>
+        <v>633</v>
       </c>
       <c r="O46" t="s">
         <v>67</v>
       </c>
       <c r="P46" t="s">
-        <v>633</v>
+        <v>634</v>
       </c>
       <c r="Q46" t="s">
-        <v>634</v>
+        <v>635</v>
       </c>
       <c r="R46" t="s"/>
       <c r="S46" t="s">
@@ -6369,7 +6380,7 @@
       </c>
       <c r="V46" t="s"/>
       <c r="W46" t="s">
-        <v>635</v>
+        <v>636</v>
       </c>
       <c r="X46" t="s"/>
       <c r="Y46" t="s"/>
@@ -6381,10 +6392,10 @@
     </row>
     <row r="47" spans="1:28">
       <c r="A47" t="s">
-        <v>636</v>
+        <v>637</v>
       </c>
       <c r="B47" t="s">
-        <v>637</v>
+        <v>638</v>
       </c>
       <c r="C47" t="s"/>
       <c r="D47" t="s"/>
@@ -6395,37 +6406,37 @@
         <v>312</v>
       </c>
       <c r="G47" t="s">
-        <v>638</v>
+        <v>639</v>
       </c>
       <c r="H47" t="s">
-        <v>639</v>
+        <v>640</v>
       </c>
       <c r="I47" t="s">
-        <v>640</v>
+        <v>641</v>
       </c>
       <c r="J47" t="s">
-        <v>641</v>
+        <v>642</v>
       </c>
       <c r="K47" t="s">
-        <v>642</v>
+        <v>643</v>
       </c>
       <c r="L47" t="s">
-        <v>643</v>
+        <v>644</v>
       </c>
       <c r="M47" t="s">
         <v>65</v>
       </c>
       <c r="N47" t="s">
-        <v>644</v>
+        <v>645</v>
       </c>
       <c r="O47" t="s">
         <v>67</v>
       </c>
       <c r="P47" t="s">
-        <v>645</v>
+        <v>646</v>
       </c>
       <c r="Q47" t="s">
-        <v>646</v>
+        <v>647</v>
       </c>
       <c r="R47" t="s"/>
       <c r="S47" t="s">
@@ -6437,7 +6448,7 @@
       </c>
       <c r="V47" t="s"/>
       <c r="W47" t="s">
-        <v>647</v>
+        <v>648</v>
       </c>
       <c r="X47" t="s"/>
       <c r="Y47" t="s"/>
@@ -6449,53 +6460,53 @@
     </row>
     <row r="48" spans="1:28">
       <c r="A48" t="s">
-        <v>648</v>
+        <v>649</v>
       </c>
       <c r="B48" t="s">
-        <v>649</v>
+        <v>650</v>
       </c>
       <c r="C48" t="s"/>
       <c r="D48" t="s">
-        <v>650</v>
+        <v>651</v>
       </c>
       <c r="E48" t="s">
-        <v>651</v>
+        <v>652</v>
       </c>
       <c r="F48" t="s">
-        <v>652</v>
+        <v>653</v>
       </c>
       <c r="G48" t="s">
         <v>505</v>
       </c>
       <c r="H48" t="s">
-        <v>653</v>
+        <v>654</v>
       </c>
       <c r="I48" t="s">
-        <v>654</v>
+        <v>655</v>
       </c>
       <c r="J48" t="s">
         <v>508</v>
       </c>
       <c r="K48" t="s">
-        <v>655</v>
+        <v>656</v>
       </c>
       <c r="L48" t="s">
-        <v>656</v>
+        <v>657</v>
       </c>
       <c r="M48" t="s">
         <v>65</v>
       </c>
       <c r="N48" t="s">
-        <v>657</v>
+        <v>658</v>
       </c>
       <c r="O48" t="s">
         <v>67</v>
       </c>
       <c r="P48" t="s">
-        <v>658</v>
+        <v>659</v>
       </c>
       <c r="Q48" t="s">
-        <v>659</v>
+        <v>660</v>
       </c>
       <c r="R48" t="s"/>
       <c r="S48" t="s">
@@ -6507,7 +6518,7 @@
       </c>
       <c r="V48" t="s"/>
       <c r="W48" t="s">
-        <v>660</v>
+        <v>661</v>
       </c>
       <c r="X48" t="s"/>
       <c r="Y48" t="s"/>
@@ -6519,53 +6530,53 @@
     </row>
     <row r="49" spans="1:28">
       <c r="A49" t="s">
-        <v>661</v>
+        <v>662</v>
       </c>
       <c r="B49" t="s">
-        <v>662</v>
+        <v>663</v>
       </c>
       <c r="C49" t="s">
-        <v>663</v>
+        <v>664</v>
       </c>
       <c r="D49" t="s"/>
       <c r="E49" t="s">
         <v>76</v>
       </c>
       <c r="F49" t="s">
-        <v>664</v>
+        <v>665</v>
       </c>
       <c r="G49" t="s">
-        <v>531</v>
+        <v>532</v>
       </c>
       <c r="H49" t="s">
-        <v>665</v>
+        <v>666</v>
       </c>
       <c r="I49" t="s">
-        <v>666</v>
+        <v>667</v>
       </c>
       <c r="J49" t="s">
-        <v>667</v>
+        <v>668</v>
       </c>
       <c r="K49" t="s">
-        <v>668</v>
+        <v>669</v>
       </c>
       <c r="L49" t="s">
-        <v>669</v>
+        <v>670</v>
       </c>
       <c r="M49" t="s">
         <v>65</v>
       </c>
       <c r="N49" t="s">
-        <v>670</v>
+        <v>671</v>
       </c>
       <c r="O49" t="s">
         <v>67</v>
       </c>
       <c r="P49" t="s">
-        <v>671</v>
+        <v>672</v>
       </c>
       <c r="Q49" t="s">
-        <v>672</v>
+        <v>673</v>
       </c>
       <c r="R49" t="s"/>
       <c r="S49" t="s">
@@ -6577,7 +6588,7 @@
       </c>
       <c r="V49" t="s"/>
       <c r="W49" t="s">
-        <v>673</v>
+        <v>674</v>
       </c>
       <c r="X49" t="s"/>
       <c r="Y49" t="s"/>
@@ -6589,55 +6600,55 @@
     </row>
     <row r="50" spans="1:28">
       <c r="A50" t="s">
-        <v>674</v>
+        <v>675</v>
       </c>
       <c r="B50" t="s">
-        <v>675</v>
+        <v>676</v>
       </c>
       <c r="C50" t="s">
-        <v>676</v>
+        <v>677</v>
       </c>
       <c r="D50" t="s">
-        <v>677</v>
+        <v>678</v>
       </c>
       <c r="E50" t="s">
-        <v>678</v>
+        <v>679</v>
       </c>
       <c r="F50" t="s">
-        <v>679</v>
+        <v>680</v>
       </c>
       <c r="G50" t="s">
-        <v>680</v>
+        <v>681</v>
       </c>
       <c r="H50" t="s">
-        <v>681</v>
+        <v>682</v>
       </c>
       <c r="I50" t="s">
-        <v>682</v>
+        <v>683</v>
       </c>
       <c r="J50" t="s">
         <v>254</v>
       </c>
       <c r="K50" t="s">
-        <v>683</v>
+        <v>684</v>
       </c>
       <c r="L50" t="s">
-        <v>684</v>
+        <v>685</v>
       </c>
       <c r="M50" t="s">
         <v>65</v>
       </c>
       <c r="N50" t="s">
-        <v>685</v>
+        <v>686</v>
       </c>
       <c r="O50" t="s">
         <v>67</v>
       </c>
       <c r="P50" t="s">
-        <v>686</v>
+        <v>687</v>
       </c>
       <c r="Q50" t="s">
-        <v>687</v>
+        <v>688</v>
       </c>
       <c r="R50" t="s"/>
       <c r="S50" t="s">
@@ -6649,7 +6660,7 @@
       </c>
       <c r="V50" t="s"/>
       <c r="W50" t="s">
-        <v>688</v>
+        <v>689</v>
       </c>
       <c r="X50" t="s"/>
       <c r="Y50" t="s"/>
@@ -6661,53 +6672,53 @@
     </row>
     <row r="51" spans="1:28">
       <c r="A51" t="s">
-        <v>689</v>
+        <v>690</v>
       </c>
       <c r="B51" t="s">
-        <v>690</v>
+        <v>691</v>
       </c>
       <c r="C51" t="s">
-        <v>691</v>
+        <v>692</v>
       </c>
       <c r="D51" t="s"/>
       <c r="E51" t="s">
         <v>58</v>
       </c>
       <c r="F51" t="s">
-        <v>692</v>
+        <v>693</v>
       </c>
       <c r="G51" t="s">
         <v>478</v>
       </c>
       <c r="H51" t="s">
-        <v>693</v>
+        <v>694</v>
       </c>
       <c r="I51" t="s">
-        <v>694</v>
+        <v>695</v>
       </c>
       <c r="J51" t="s">
         <v>254</v>
       </c>
       <c r="K51" t="s">
-        <v>695</v>
+        <v>696</v>
       </c>
       <c r="L51" t="s">
-        <v>696</v>
+        <v>697</v>
       </c>
       <c r="M51" t="s">
         <v>65</v>
       </c>
       <c r="N51" t="s">
-        <v>697</v>
+        <v>698</v>
       </c>
       <c r="O51" t="s">
         <v>67</v>
       </c>
       <c r="P51" t="s">
-        <v>698</v>
+        <v>699</v>
       </c>
       <c r="Q51" t="s">
-        <v>699</v>
+        <v>700</v>
       </c>
       <c r="R51" t="s"/>
       <c r="S51" t="s">
@@ -6719,7 +6730,7 @@
       </c>
       <c r="V51" t="s"/>
       <c r="W51" t="s">
-        <v>700</v>
+        <v>701</v>
       </c>
       <c r="X51" t="s"/>
       <c r="Y51" t="s"/>
@@ -6731,55 +6742,55 @@
     </row>
     <row r="52" spans="1:28">
       <c r="A52" t="s">
-        <v>701</v>
+        <v>702</v>
       </c>
       <c r="B52" t="s">
-        <v>702</v>
+        <v>703</v>
       </c>
       <c r="C52" t="s">
-        <v>703</v>
+        <v>704</v>
       </c>
       <c r="D52" t="s">
-        <v>704</v>
+        <v>705</v>
       </c>
       <c r="E52" t="s">
         <v>58</v>
       </c>
       <c r="F52" t="s">
-        <v>705</v>
+        <v>706</v>
       </c>
       <c r="G52" t="s">
-        <v>706</v>
+        <v>707</v>
       </c>
       <c r="H52" t="s">
-        <v>707</v>
+        <v>708</v>
       </c>
       <c r="I52" t="s">
-        <v>708</v>
+        <v>709</v>
       </c>
       <c r="J52" t="s">
         <v>200</v>
       </c>
       <c r="K52" t="s">
-        <v>709</v>
+        <v>710</v>
       </c>
       <c r="L52" t="s">
-        <v>710</v>
+        <v>711</v>
       </c>
       <c r="M52" t="s">
         <v>65</v>
       </c>
       <c r="N52" t="s">
-        <v>711</v>
+        <v>712</v>
       </c>
       <c r="O52" t="s">
         <v>67</v>
       </c>
       <c r="P52" t="s">
-        <v>712</v>
+        <v>713</v>
       </c>
       <c r="Q52" t="s">
-        <v>713</v>
+        <v>714</v>
       </c>
       <c r="R52" t="s"/>
       <c r="S52" t="s">
@@ -6791,7 +6802,7 @@
       </c>
       <c r="V52" t="s"/>
       <c r="W52" t="s">
-        <v>714</v>
+        <v>715</v>
       </c>
       <c r="X52" t="s"/>
       <c r="Y52" t="s"/>
@@ -6803,53 +6814,53 @@
     </row>
     <row r="53" spans="1:28">
       <c r="A53" t="s">
-        <v>715</v>
+        <v>716</v>
       </c>
       <c r="B53" t="s">
-        <v>716</v>
+        <v>717</v>
       </c>
       <c r="C53" t="s"/>
       <c r="D53" t="s">
-        <v>717</v>
+        <v>718</v>
       </c>
       <c r="E53" t="s">
-        <v>718</v>
+        <v>719</v>
       </c>
       <c r="F53" t="s">
-        <v>719</v>
+        <v>720</v>
       </c>
       <c r="G53" t="s">
         <v>326</v>
       </c>
       <c r="H53" t="s">
-        <v>720</v>
+        <v>721</v>
       </c>
       <c r="I53" t="s">
-        <v>721</v>
+        <v>722</v>
       </c>
       <c r="J53" t="s">
         <v>162</v>
       </c>
       <c r="K53" t="s">
-        <v>722</v>
+        <v>723</v>
       </c>
       <c r="L53" t="s">
-        <v>723</v>
+        <v>724</v>
       </c>
       <c r="M53" t="s">
         <v>65</v>
       </c>
       <c r="N53" t="s">
-        <v>724</v>
+        <v>725</v>
       </c>
       <c r="O53" t="s">
         <v>67</v>
       </c>
       <c r="P53" t="s">
-        <v>725</v>
+        <v>726</v>
       </c>
       <c r="Q53" t="s">
-        <v>726</v>
+        <v>727</v>
       </c>
       <c r="R53" t="s"/>
       <c r="S53" t="s">
@@ -6861,7 +6872,7 @@
       </c>
       <c r="V53" t="s"/>
       <c r="W53" t="s">
-        <v>727</v>
+        <v>728</v>
       </c>
       <c r="X53" t="s"/>
       <c r="Y53" t="s"/>
@@ -6873,51 +6884,51 @@
     </row>
     <row r="54" spans="1:28">
       <c r="A54" t="s">
-        <v>728</v>
+        <v>729</v>
       </c>
       <c r="B54" t="s">
-        <v>729</v>
+        <v>730</v>
       </c>
       <c r="C54" t="s"/>
       <c r="D54" t="s">
-        <v>730</v>
+        <v>731</v>
       </c>
       <c r="E54" t="s">
-        <v>731</v>
+        <v>732</v>
       </c>
       <c r="F54" t="s"/>
       <c r="G54" t="s">
-        <v>706</v>
+        <v>707</v>
       </c>
       <c r="H54" t="s">
-        <v>732</v>
+        <v>733</v>
       </c>
       <c r="I54" t="s">
-        <v>733</v>
+        <v>734</v>
       </c>
       <c r="J54" t="s">
-        <v>734</v>
+        <v>735</v>
       </c>
       <c r="K54" t="s">
-        <v>735</v>
+        <v>736</v>
       </c>
       <c r="L54" t="s">
-        <v>736</v>
+        <v>737</v>
       </c>
       <c r="M54" t="s">
         <v>65</v>
       </c>
       <c r="N54" t="s">
-        <v>737</v>
+        <v>738</v>
       </c>
       <c r="O54" t="s">
         <v>67</v>
       </c>
       <c r="P54" t="s">
-        <v>738</v>
+        <v>739</v>
       </c>
       <c r="Q54" t="s">
-        <v>739</v>
+        <v>740</v>
       </c>
       <c r="R54" t="s"/>
       <c r="S54" t="s">
@@ -6929,7 +6940,7 @@
       </c>
       <c r="V54" t="s"/>
       <c r="W54" t="s">
-        <v>740</v>
+        <v>741</v>
       </c>
       <c r="X54" t="s"/>
       <c r="Y54" t="s"/>
@@ -6941,49 +6952,49 @@
     </row>
     <row r="55" spans="1:28">
       <c r="A55" t="s">
-        <v>741</v>
+        <v>742</v>
       </c>
       <c r="B55" t="s">
-        <v>742</v>
+        <v>743</v>
       </c>
       <c r="C55" t="s"/>
       <c r="D55" t="s"/>
       <c r="E55" t="s">
-        <v>743</v>
+        <v>744</v>
       </c>
       <c r="F55" t="s"/>
       <c r="G55" t="s">
         <v>478</v>
       </c>
       <c r="H55" t="s">
-        <v>744</v>
+        <v>745</v>
       </c>
       <c r="I55" t="s">
-        <v>745</v>
+        <v>746</v>
       </c>
       <c r="J55" t="s">
         <v>254</v>
       </c>
       <c r="K55" t="s">
-        <v>746</v>
+        <v>747</v>
       </c>
       <c r="L55" t="s">
-        <v>747</v>
+        <v>748</v>
       </c>
       <c r="M55" t="s">
         <v>65</v>
       </c>
       <c r="N55" t="s">
-        <v>748</v>
+        <v>749</v>
       </c>
       <c r="O55" t="s">
         <v>67</v>
       </c>
       <c r="P55" t="s">
-        <v>749</v>
+        <v>750</v>
       </c>
       <c r="Q55" t="s">
-        <v>750</v>
+        <v>751</v>
       </c>
       <c r="R55" t="s"/>
       <c r="S55" t="s">
@@ -6995,7 +7006,7 @@
       </c>
       <c r="V55" t="s"/>
       <c r="W55" t="s">
-        <v>751</v>
+        <v>752</v>
       </c>
       <c r="X55" t="s"/>
       <c r="Y55" t="s"/>
@@ -7007,51 +7018,51 @@
     </row>
     <row r="56" spans="1:28">
       <c r="A56" t="s">
-        <v>752</v>
+        <v>753</v>
       </c>
       <c r="B56" t="s">
-        <v>753</v>
+        <v>754</v>
       </c>
       <c r="C56" t="s"/>
       <c r="D56" t="s">
-        <v>754</v>
+        <v>755</v>
       </c>
       <c r="E56" t="s">
-        <v>678</v>
+        <v>679</v>
       </c>
       <c r="F56" t="s"/>
       <c r="G56" t="s">
-        <v>755</v>
+        <v>756</v>
       </c>
       <c r="H56" t="s">
-        <v>756</v>
+        <v>757</v>
       </c>
       <c r="I56" t="s">
-        <v>757</v>
+        <v>758</v>
       </c>
       <c r="J56" t="s">
         <v>162</v>
       </c>
       <c r="K56" t="s">
-        <v>758</v>
+        <v>759</v>
       </c>
       <c r="L56" t="s">
-        <v>759</v>
+        <v>760</v>
       </c>
       <c r="M56" t="s">
         <v>65</v>
       </c>
       <c r="N56" t="s">
-        <v>760</v>
+        <v>761</v>
       </c>
       <c r="O56" t="s">
         <v>67</v>
       </c>
       <c r="P56" t="s">
-        <v>761</v>
+        <v>762</v>
       </c>
       <c r="Q56" t="s">
-        <v>762</v>
+        <v>763</v>
       </c>
       <c r="R56" t="s"/>
       <c r="S56" t="s">
@@ -7063,7 +7074,7 @@
       </c>
       <c r="V56" t="s"/>
       <c r="W56" t="s">
-        <v>763</v>
+        <v>764</v>
       </c>
       <c r="X56" t="s"/>
       <c r="Y56" t="s"/>
@@ -7075,10 +7086,10 @@
     </row>
     <row r="57" spans="1:28">
       <c r="A57" t="s">
-        <v>764</v>
+        <v>765</v>
       </c>
       <c r="B57" t="s">
-        <v>765</v>
+        <v>766</v>
       </c>
       <c r="C57" t="s"/>
       <c r="D57" t="s"/>
@@ -7086,40 +7097,40 @@
         <v>76</v>
       </c>
       <c r="F57" t="s">
-        <v>766</v>
+        <v>767</v>
       </c>
       <c r="G57" t="s">
-        <v>767</v>
+        <v>768</v>
       </c>
       <c r="H57" t="s">
-        <v>768</v>
+        <v>769</v>
       </c>
       <c r="I57" t="s">
-        <v>769</v>
+        <v>770</v>
       </c>
       <c r="J57" t="s">
         <v>162</v>
       </c>
       <c r="K57" t="s">
-        <v>770</v>
+        <v>771</v>
       </c>
       <c r="L57" t="s">
-        <v>771</v>
+        <v>772</v>
       </c>
       <c r="M57" t="s">
         <v>65</v>
       </c>
       <c r="N57" t="s">
-        <v>772</v>
+        <v>773</v>
       </c>
       <c r="O57" t="s">
         <v>67</v>
       </c>
       <c r="P57" t="s">
-        <v>773</v>
+        <v>774</v>
       </c>
       <c r="Q57" t="s">
-        <v>774</v>
+        <v>775</v>
       </c>
       <c r="R57" t="s"/>
       <c r="S57" t="s">
@@ -7131,7 +7142,7 @@
       </c>
       <c r="V57" t="s"/>
       <c r="W57" t="s">
-        <v>775</v>
+        <v>776</v>
       </c>
       <c r="X57" t="s"/>
       <c r="Y57" t="s"/>
@@ -7150,7 +7161,7 @@
       </c>
       <c r="C58" t="s"/>
       <c r="D58" t="s">
-        <v>776</v>
+        <v>777</v>
       </c>
       <c r="E58" t="s">
         <v>403</v>
@@ -7160,16 +7171,16 @@
         <v>505</v>
       </c>
       <c r="H58" t="s">
-        <v>777</v>
+        <v>778</v>
       </c>
       <c r="I58" t="s">
-        <v>778</v>
+        <v>779</v>
       </c>
       <c r="J58" t="s">
         <v>508</v>
       </c>
       <c r="K58" t="s">
-        <v>779</v>
+        <v>780</v>
       </c>
       <c r="L58" t="s">
         <v>510</v>
@@ -7199,7 +7210,7 @@
       </c>
       <c r="V58" t="s"/>
       <c r="W58" t="s">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="X58" t="s"/>
       <c r="Y58" t="s"/>
@@ -7211,14 +7222,14 @@
     </row>
     <row r="59" spans="1:28">
       <c r="A59" t="s">
-        <v>780</v>
+        <v>781</v>
       </c>
       <c r="B59" t="s">
-        <v>781</v>
+        <v>782</v>
       </c>
       <c r="C59" t="s"/>
       <c r="D59" t="s">
-        <v>782</v>
+        <v>783</v>
       </c>
       <c r="E59" t="s">
         <v>58</v>
@@ -7228,34 +7239,34 @@
         <v>478</v>
       </c>
       <c r="H59" t="s">
-        <v>783</v>
+        <v>784</v>
       </c>
       <c r="I59" t="s">
-        <v>784</v>
+        <v>785</v>
       </c>
       <c r="J59" t="s">
         <v>254</v>
       </c>
       <c r="K59" t="s">
-        <v>785</v>
+        <v>786</v>
       </c>
       <c r="L59" t="s">
-        <v>786</v>
+        <v>787</v>
       </c>
       <c r="M59" t="s">
         <v>65</v>
       </c>
       <c r="N59" t="s">
-        <v>787</v>
+        <v>788</v>
       </c>
       <c r="O59" t="s">
         <v>67</v>
       </c>
       <c r="P59" t="s">
-        <v>788</v>
+        <v>789</v>
       </c>
       <c r="Q59" t="s">
-        <v>789</v>
+        <v>790</v>
       </c>
       <c r="R59" t="s"/>
       <c r="S59" t="s">
@@ -7267,7 +7278,7 @@
       </c>
       <c r="V59" t="s"/>
       <c r="W59" t="s">
-        <v>790</v>
+        <v>791</v>
       </c>
       <c r="X59" t="s"/>
       <c r="Y59" t="s"/>
@@ -7279,51 +7290,51 @@
     </row>
     <row r="60" spans="1:28">
       <c r="A60" t="s">
-        <v>791</v>
+        <v>792</v>
       </c>
       <c r="B60" t="s">
-        <v>792</v>
+        <v>793</v>
       </c>
       <c r="C60" t="s"/>
       <c r="D60" t="s"/>
       <c r="E60" t="s">
-        <v>793</v>
+        <v>794</v>
       </c>
       <c r="F60" t="s">
-        <v>794</v>
+        <v>795</v>
       </c>
       <c r="G60" t="s">
         <v>478</v>
       </c>
       <c r="H60" t="s">
-        <v>795</v>
+        <v>796</v>
       </c>
       <c r="I60" t="s">
-        <v>796</v>
+        <v>797</v>
       </c>
       <c r="J60" t="s">
         <v>254</v>
       </c>
       <c r="K60" t="s">
-        <v>797</v>
+        <v>798</v>
       </c>
       <c r="L60" t="s">
-        <v>798</v>
+        <v>799</v>
       </c>
       <c r="M60" t="s">
         <v>65</v>
       </c>
       <c r="N60" t="s">
-        <v>799</v>
+        <v>800</v>
       </c>
       <c r="O60" t="s">
         <v>67</v>
       </c>
       <c r="P60" t="s">
-        <v>800</v>
+        <v>801</v>
       </c>
       <c r="Q60" t="s">
-        <v>801</v>
+        <v>802</v>
       </c>
       <c r="R60" t="s"/>
       <c r="S60" t="s">
@@ -7335,7 +7346,7 @@
       </c>
       <c r="V60" t="s"/>
       <c r="W60" t="s">
-        <v>802</v>
+        <v>803</v>
       </c>
       <c r="X60" t="s"/>
       <c r="Y60" t="s"/>
@@ -7347,53 +7358,53 @@
     </row>
     <row r="61" spans="1:28">
       <c r="A61" t="s">
-        <v>803</v>
+        <v>804</v>
       </c>
       <c r="B61" t="s">
-        <v>804</v>
+        <v>805</v>
       </c>
       <c r="C61" t="s"/>
       <c r="D61" t="s">
-        <v>805</v>
+        <v>806</v>
       </c>
       <c r="E61" t="s">
-        <v>806</v>
+        <v>807</v>
       </c>
       <c r="F61" t="s">
-        <v>807</v>
+        <v>808</v>
       </c>
       <c r="G61" t="s">
         <v>78</v>
       </c>
       <c r="H61" t="s">
-        <v>808</v>
+        <v>809</v>
       </c>
       <c r="I61" t="s">
-        <v>809</v>
+        <v>810</v>
       </c>
       <c r="J61" t="s">
-        <v>810</v>
+        <v>811</v>
       </c>
       <c r="K61" t="s">
-        <v>811</v>
+        <v>812</v>
       </c>
       <c r="L61" t="s">
-        <v>812</v>
+        <v>813</v>
       </c>
       <c r="M61" t="s">
         <v>65</v>
       </c>
       <c r="N61" t="s">
-        <v>813</v>
+        <v>814</v>
       </c>
       <c r="O61" t="s">
         <v>67</v>
       </c>
       <c r="P61" t="s">
-        <v>814</v>
+        <v>815</v>
       </c>
       <c r="Q61" t="s">
-        <v>815</v>
+        <v>816</v>
       </c>
       <c r="R61" t="s"/>
       <c r="S61" t="s">
@@ -7405,7 +7416,7 @@
       </c>
       <c r="V61" t="s"/>
       <c r="W61" t="s">
-        <v>816</v>
+        <v>817</v>
       </c>
       <c r="X61" t="s"/>
       <c r="Y61" t="s"/>
@@ -7417,13 +7428,13 @@
     </row>
     <row r="62" spans="1:28">
       <c r="A62" t="s">
-        <v>817</v>
+        <v>818</v>
       </c>
       <c r="B62" t="s">
-        <v>818</v>
+        <v>819</v>
       </c>
       <c r="C62" t="s">
-        <v>819</v>
+        <v>820</v>
       </c>
       <c r="D62" t="s"/>
       <c r="E62" t="s">
@@ -7434,34 +7445,34 @@
         <v>251</v>
       </c>
       <c r="H62" t="s">
-        <v>820</v>
+        <v>821</v>
       </c>
       <c r="I62" t="s">
-        <v>821</v>
+        <v>822</v>
       </c>
       <c r="J62" t="s">
         <v>162</v>
       </c>
       <c r="K62" t="s">
-        <v>822</v>
+        <v>823</v>
       </c>
       <c r="L62" t="s">
-        <v>823</v>
+        <v>824</v>
       </c>
       <c r="M62" t="s">
         <v>65</v>
       </c>
       <c r="N62" t="s">
-        <v>824</v>
+        <v>825</v>
       </c>
       <c r="O62" t="s">
         <v>67</v>
       </c>
       <c r="P62" t="s">
-        <v>825</v>
+        <v>826</v>
       </c>
       <c r="Q62" t="s">
-        <v>826</v>
+        <v>827</v>
       </c>
       <c r="R62" t="s"/>
       <c r="S62" t="s">
@@ -7473,7 +7484,7 @@
       </c>
       <c r="V62" t="s"/>
       <c r="W62" t="s">
-        <v>827</v>
+        <v>828</v>
       </c>
       <c r="X62" t="s"/>
       <c r="Y62" t="s"/>
@@ -7485,53 +7496,53 @@
     </row>
     <row r="63" spans="1:28">
       <c r="A63" t="s">
-        <v>828</v>
+        <v>829</v>
       </c>
       <c r="B63" t="s">
-        <v>829</v>
+        <v>830</v>
       </c>
       <c r="C63" t="s">
-        <v>830</v>
+        <v>831</v>
       </c>
       <c r="D63" t="s">
-        <v>831</v>
+        <v>832</v>
       </c>
       <c r="E63" t="s">
         <v>76</v>
       </c>
       <c r="F63" t="s">
-        <v>832</v>
+        <v>833</v>
       </c>
       <c r="G63" t="s"/>
       <c r="H63" t="s">
-        <v>833</v>
+        <v>834</v>
       </c>
       <c r="I63" t="s">
-        <v>834</v>
+        <v>835</v>
       </c>
       <c r="J63" t="s">
-        <v>835</v>
+        <v>836</v>
       </c>
       <c r="K63" t="s">
-        <v>836</v>
+        <v>837</v>
       </c>
       <c r="L63" t="s">
-        <v>837</v>
+        <v>838</v>
       </c>
       <c r="M63" t="s">
         <v>65</v>
       </c>
       <c r="N63" t="s">
-        <v>838</v>
+        <v>839</v>
       </c>
       <c r="O63" t="s">
         <v>67</v>
       </c>
       <c r="P63" t="s">
-        <v>839</v>
+        <v>840</v>
       </c>
       <c r="Q63" t="s">
-        <v>840</v>
+        <v>841</v>
       </c>
       <c r="R63" t="s"/>
       <c r="S63" t="s">
@@ -7543,7 +7554,7 @@
       </c>
       <c r="V63" t="s"/>
       <c r="W63" t="s">
-        <v>841</v>
+        <v>842</v>
       </c>
       <c r="X63" t="s"/>
       <c r="Y63" t="s"/>
@@ -7555,51 +7566,51 @@
     </row>
     <row r="64" spans="1:28">
       <c r="A64" t="s">
-        <v>842</v>
+        <v>843</v>
       </c>
       <c r="B64" t="s">
-        <v>843</v>
+        <v>844</v>
       </c>
       <c r="C64" t="s"/>
       <c r="D64" t="s"/>
       <c r="E64" t="s">
-        <v>844</v>
+        <v>845</v>
       </c>
       <c r="F64" t="s">
-        <v>845</v>
+        <v>846</v>
       </c>
       <c r="G64" t="s">
         <v>478</v>
       </c>
       <c r="H64" t="s">
-        <v>846</v>
+        <v>847</v>
       </c>
       <c r="I64" t="s">
-        <v>847</v>
+        <v>848</v>
       </c>
       <c r="J64" t="s">
         <v>200</v>
       </c>
       <c r="K64" t="s">
-        <v>848</v>
+        <v>849</v>
       </c>
       <c r="L64" t="s">
-        <v>849</v>
+        <v>850</v>
       </c>
       <c r="M64" t="s">
         <v>65</v>
       </c>
       <c r="N64" t="s">
-        <v>850</v>
+        <v>851</v>
       </c>
       <c r="O64" t="s">
         <v>67</v>
       </c>
       <c r="P64" t="s">
-        <v>851</v>
+        <v>852</v>
       </c>
       <c r="Q64" t="s">
-        <v>852</v>
+        <v>853</v>
       </c>
       <c r="R64" t="s"/>
       <c r="S64" t="s">
@@ -7611,7 +7622,7 @@
       </c>
       <c r="V64" t="s"/>
       <c r="W64" t="s">
-        <v>853</v>
+        <v>854</v>
       </c>
       <c r="X64" t="s"/>
       <c r="Y64" t="s"/>
@@ -7623,51 +7634,51 @@
     </row>
     <row r="65" spans="1:28">
       <c r="A65" t="s">
-        <v>854</v>
+        <v>855</v>
       </c>
       <c r="B65" t="s">
-        <v>855</v>
+        <v>856</v>
       </c>
       <c r="C65" t="s"/>
       <c r="D65" t="s"/>
       <c r="E65" t="s">
-        <v>856</v>
+        <v>857</v>
       </c>
       <c r="F65" t="s">
-        <v>857</v>
+        <v>858</v>
       </c>
       <c r="G65" t="s">
         <v>478</v>
       </c>
       <c r="H65" t="s">
-        <v>858</v>
+        <v>859</v>
       </c>
       <c r="I65" t="s">
-        <v>859</v>
+        <v>860</v>
       </c>
       <c r="J65" t="s">
         <v>200</v>
       </c>
       <c r="K65" t="s">
-        <v>860</v>
+        <v>861</v>
       </c>
       <c r="L65" t="s">
-        <v>861</v>
+        <v>862</v>
       </c>
       <c r="M65" t="s">
         <v>65</v>
       </c>
       <c r="N65" t="s">
-        <v>862</v>
+        <v>863</v>
       </c>
       <c r="O65" t="s">
         <v>67</v>
       </c>
       <c r="P65" t="s">
-        <v>863</v>
+        <v>864</v>
       </c>
       <c r="Q65" t="s">
-        <v>864</v>
+        <v>865</v>
       </c>
       <c r="R65" t="s"/>
       <c r="S65" t="s">
@@ -7679,7 +7690,7 @@
       </c>
       <c r="V65" t="s"/>
       <c r="W65" t="s">
-        <v>865</v>
+        <v>866</v>
       </c>
       <c r="X65" t="s"/>
       <c r="Y65" t="s"/>
@@ -7699,43 +7710,43 @@
       <c r="C66" t="s"/>
       <c r="D66" t="s"/>
       <c r="E66" t="s">
-        <v>866</v>
+        <v>867</v>
       </c>
       <c r="F66" t="s">
-        <v>867</v>
+        <v>868</v>
       </c>
       <c r="G66" t="s">
         <v>478</v>
       </c>
       <c r="H66" t="s">
-        <v>868</v>
+        <v>869</v>
       </c>
       <c r="I66" t="s">
-        <v>869</v>
+        <v>870</v>
       </c>
       <c r="J66" t="s">
         <v>200</v>
       </c>
       <c r="K66" t="s">
-        <v>870</v>
+        <v>871</v>
       </c>
       <c r="L66" t="s">
-        <v>871</v>
+        <v>872</v>
       </c>
       <c r="M66" t="s">
         <v>65</v>
       </c>
       <c r="N66" t="s">
-        <v>872</v>
+        <v>873</v>
       </c>
       <c r="O66" t="s">
         <v>67</v>
       </c>
       <c r="P66" t="s">
-        <v>873</v>
+        <v>874</v>
       </c>
       <c r="Q66" t="s">
-        <v>874</v>
+        <v>875</v>
       </c>
       <c r="R66" t="s"/>
       <c r="S66" t="s">
@@ -7747,7 +7758,7 @@
       </c>
       <c r="V66" t="s"/>
       <c r="W66" t="s">
-        <v>875</v>
+        <v>876</v>
       </c>
       <c r="X66" t="s"/>
       <c r="Y66" t="s"/>
@@ -7759,53 +7770,53 @@
     </row>
     <row r="67" spans="1:28">
       <c r="A67" t="s">
-        <v>876</v>
+        <v>877</v>
       </c>
       <c r="B67" t="s">
-        <v>877</v>
+        <v>878</v>
       </c>
       <c r="C67" t="s"/>
       <c r="D67" t="s">
-        <v>878</v>
+        <v>879</v>
       </c>
       <c r="E67" t="s">
         <v>76</v>
       </c>
       <c r="F67" t="s">
-        <v>879</v>
+        <v>880</v>
       </c>
       <c r="G67" t="s">
-        <v>544</v>
+        <v>545</v>
       </c>
       <c r="H67" t="s">
-        <v>880</v>
+        <v>881</v>
       </c>
       <c r="I67" t="s">
-        <v>881</v>
+        <v>882</v>
       </c>
       <c r="J67" t="s">
-        <v>882</v>
+        <v>883</v>
       </c>
       <c r="K67" t="s">
-        <v>883</v>
+        <v>884</v>
       </c>
       <c r="L67" t="s">
-        <v>884</v>
+        <v>885</v>
       </c>
       <c r="M67" t="s">
         <v>65</v>
       </c>
       <c r="N67" t="s">
-        <v>885</v>
+        <v>886</v>
       </c>
       <c r="O67" t="s">
         <v>67</v>
       </c>
       <c r="P67" t="s">
-        <v>886</v>
+        <v>887</v>
       </c>
       <c r="Q67" t="s">
-        <v>887</v>
+        <v>888</v>
       </c>
       <c r="R67" t="s"/>
       <c r="S67" t="s">
@@ -7817,7 +7828,7 @@
       </c>
       <c r="V67" t="s"/>
       <c r="W67" t="s">
-        <v>888</v>
+        <v>889</v>
       </c>
       <c r="X67" t="s"/>
       <c r="Y67" t="s"/>
@@ -7829,53 +7840,53 @@
     </row>
     <row r="68" spans="1:28">
       <c r="A68" t="s">
-        <v>889</v>
+        <v>890</v>
       </c>
       <c r="B68" t="s">
-        <v>890</v>
+        <v>891</v>
       </c>
       <c r="C68" t="s"/>
       <c r="D68" t="s">
-        <v>891</v>
+        <v>892</v>
       </c>
       <c r="E68" t="s">
         <v>76</v>
       </c>
       <c r="F68" t="s">
-        <v>892</v>
+        <v>893</v>
       </c>
       <c r="G68" t="s">
-        <v>680</v>
+        <v>681</v>
       </c>
       <c r="H68" t="s">
-        <v>893</v>
+        <v>894</v>
       </c>
       <c r="I68" t="s">
-        <v>894</v>
+        <v>895</v>
       </c>
       <c r="J68" t="s">
-        <v>895</v>
+        <v>896</v>
       </c>
       <c r="K68" t="s">
-        <v>896</v>
+        <v>897</v>
       </c>
       <c r="L68" t="s">
-        <v>897</v>
+        <v>898</v>
       </c>
       <c r="M68" t="s">
         <v>65</v>
       </c>
       <c r="N68" t="s">
-        <v>898</v>
+        <v>899</v>
       </c>
       <c r="O68" t="s">
         <v>67</v>
       </c>
       <c r="P68" t="s">
-        <v>899</v>
+        <v>900</v>
       </c>
       <c r="Q68" t="s">
-        <v>900</v>
+        <v>901</v>
       </c>
       <c r="R68" t="s"/>
       <c r="S68" t="s">
@@ -7887,7 +7898,7 @@
       </c>
       <c r="V68" t="s"/>
       <c r="W68" t="s">
-        <v>901</v>
+        <v>902</v>
       </c>
       <c r="X68" t="s"/>
       <c r="Y68" t="s"/>
@@ -7899,10 +7910,10 @@
     </row>
     <row r="69" spans="1:28">
       <c r="A69" t="s">
-        <v>902</v>
+        <v>903</v>
       </c>
       <c r="B69" t="s">
-        <v>903</v>
+        <v>904</v>
       </c>
       <c r="C69" t="s"/>
       <c r="D69" t="s"/>
@@ -7910,40 +7921,40 @@
         <v>76</v>
       </c>
       <c r="F69" t="s">
-        <v>904</v>
+        <v>905</v>
       </c>
       <c r="G69" t="s">
-        <v>638</v>
+        <v>639</v>
       </c>
       <c r="H69" t="s">
-        <v>905</v>
+        <v>906</v>
       </c>
       <c r="I69" t="s">
-        <v>906</v>
+        <v>907</v>
       </c>
       <c r="J69" t="s">
         <v>303</v>
       </c>
       <c r="K69" t="s">
-        <v>907</v>
+        <v>908</v>
       </c>
       <c r="L69" t="s">
-        <v>908</v>
+        <v>909</v>
       </c>
       <c r="M69" t="s">
         <v>65</v>
       </c>
       <c r="N69" t="s">
-        <v>909</v>
+        <v>910</v>
       </c>
       <c r="O69" t="s">
         <v>67</v>
       </c>
       <c r="P69" t="s">
-        <v>910</v>
+        <v>911</v>
       </c>
       <c r="Q69" t="s">
-        <v>911</v>
+        <v>912</v>
       </c>
       <c r="R69" t="s"/>
       <c r="S69" t="s">
@@ -7955,7 +7966,7 @@
       </c>
       <c r="V69" t="s"/>
       <c r="W69" t="s">
-        <v>912</v>
+        <v>913</v>
       </c>
       <c r="X69" t="s"/>
       <c r="Y69" t="s"/>
@@ -7967,53 +7978,53 @@
     </row>
     <row r="70" spans="1:28">
       <c r="A70" t="s">
-        <v>913</v>
+        <v>914</v>
       </c>
       <c r="B70" t="s">
-        <v>914</v>
+        <v>915</v>
       </c>
       <c r="C70" t="s"/>
       <c r="D70" t="s">
-        <v>915</v>
+        <v>916</v>
       </c>
       <c r="E70" t="s">
         <v>76</v>
       </c>
       <c r="F70" t="s">
-        <v>916</v>
+        <v>917</v>
       </c>
       <c r="G70" t="s">
-        <v>917</v>
+        <v>918</v>
       </c>
       <c r="H70" t="s">
-        <v>918</v>
+        <v>919</v>
       </c>
       <c r="I70" t="s">
-        <v>919</v>
+        <v>920</v>
       </c>
       <c r="J70" t="s">
         <v>162</v>
       </c>
       <c r="K70" t="s">
-        <v>920</v>
+        <v>921</v>
       </c>
       <c r="L70" t="s">
-        <v>921</v>
+        <v>922</v>
       </c>
       <c r="M70" t="s">
         <v>65</v>
       </c>
       <c r="N70" t="s">
-        <v>922</v>
+        <v>923</v>
       </c>
       <c r="O70" t="s">
         <v>67</v>
       </c>
       <c r="P70" t="s">
-        <v>923</v>
+        <v>924</v>
       </c>
       <c r="Q70" t="s">
-        <v>924</v>
+        <v>925</v>
       </c>
       <c r="R70" t="s"/>
       <c r="S70" t="s">
@@ -8025,7 +8036,7 @@
       </c>
       <c r="V70" t="s"/>
       <c r="W70" t="s">
-        <v>925</v>
+        <v>926</v>
       </c>
       <c r="X70" t="s"/>
       <c r="Y70" t="s"/>
@@ -8037,49 +8048,49 @@
     </row>
     <row r="71" spans="1:28">
       <c r="A71" t="s">
-        <v>926</v>
+        <v>927</v>
       </c>
       <c r="B71" t="s">
-        <v>927</v>
+        <v>928</v>
       </c>
       <c r="C71" t="s"/>
       <c r="D71" t="s"/>
       <c r="E71" t="s">
-        <v>928</v>
+        <v>929</v>
       </c>
       <c r="F71" t="s"/>
       <c r="G71" t="s">
-        <v>929</v>
+        <v>930</v>
       </c>
       <c r="H71" t="s">
-        <v>930</v>
+        <v>931</v>
       </c>
       <c r="I71" t="s">
-        <v>931</v>
+        <v>932</v>
       </c>
       <c r="J71" t="s">
-        <v>932</v>
+        <v>933</v>
       </c>
       <c r="K71" t="s">
-        <v>933</v>
+        <v>934</v>
       </c>
       <c r="L71" t="s">
-        <v>934</v>
+        <v>935</v>
       </c>
       <c r="M71" t="s">
         <v>65</v>
       </c>
       <c r="N71" t="s">
-        <v>935</v>
+        <v>936</v>
       </c>
       <c r="O71" t="s">
         <v>67</v>
       </c>
       <c r="P71" t="s">
-        <v>936</v>
+        <v>937</v>
       </c>
       <c r="Q71" t="s">
-        <v>937</v>
+        <v>938</v>
       </c>
       <c r="R71" t="s"/>
       <c r="S71" t="s">
@@ -8091,7 +8102,7 @@
       </c>
       <c r="V71" t="s"/>
       <c r="W71" t="s">
-        <v>938</v>
+        <v>939</v>
       </c>
       <c r="X71" t="s"/>
       <c r="Y71" t="s"/>

--- a/docs/collections/koten/metadata/data.xlsx
+++ b/docs/collections/koten/metadata/data.xlsx
@@ -218,7 +218,7 @@
     <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/s/koten/document/1f35990b-a490-1a63-2ab0-32cd98112cf7</t>
   </si>
   <si>
-    <t>https://www.lib.u-tokyo.ac.jp/ja/library/general/reuse</t>
+    <t>https://www.lib.u-tokyo.ac.jp/ja/library/contents/archives-top/reuse</t>
   </si>
   <si>
     <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/files/square/172011/shing001.jpg</t>

--- a/docs/collections/koten/metadata/data.xlsx
+++ b/docs/collections/koten/metadata/data.xlsx
@@ -950,7 +950,7 @@
     <t>天目中峯和尚廣録</t>
   </si>
   <si>
-    <t>テンモク チュウホウ オショウ コウロ??</t>
+    <t>テンモク チュウホウ オショウ コウロク</t>
   </si>
   <si>
     <t>古活字版</t>

--- a/docs/collections/koten/metadata/data.xlsx
+++ b/docs/collections/koten/metadata/data.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="942">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="946">
   <si>
     <t>書名</t>
   </si>
@@ -1241,6 +1241,12 @@
     <t>33</t>
   </si>
   <si>
+    <t>9ee510e1-7088-63e6-0403-65be28f00bfe</t>
+  </si>
+  <si>
+    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/s/koten/document/9ee510e1-7088-63e6-0403-65be28f00bfe</t>
+  </si>
+  <si>
     <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/files/medium/e7a5956b7392ee31a7235ee1f9b42534ad5766c0.jpg</t>
   </si>
   <si>
@@ -2361,6 +2367,12 @@
   </si>
   <si>
     <t>6</t>
+  </si>
+  <si>
+    <t>950a3252-4bc7-7baa-40e0-5a15cb5610a8</t>
+  </si>
+  <si>
+    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/s/koten/document/950a3252-4bc7-7baa-40e0-5a15cb5610a8</t>
   </si>
   <si>
     <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/files/medium/57b196d2c652ebd63570a2a7499b411405fa2068.jpg</t>
@@ -5181,19 +5193,19 @@
         <v>407</v>
       </c>
       <c r="L29" t="s">
-        <v>398</v>
+        <v>408</v>
       </c>
       <c r="M29" t="s">
         <v>65</v>
       </c>
       <c r="N29" t="s">
-        <v>399</v>
+        <v>409</v>
       </c>
       <c r="O29" t="s">
         <v>67</v>
       </c>
       <c r="P29" t="s">
-        <v>408</v>
+        <v>410</v>
       </c>
       <c r="Q29" t="s">
         <v>401</v>
@@ -5220,51 +5232,51 @@
     </row>
     <row r="30" spans="1:28">
       <c r="A30" t="s">
-        <v>409</v>
+        <v>411</v>
       </c>
       <c r="B30" t="s">
-        <v>410</v>
+        <v>412</v>
       </c>
       <c r="C30" t="s"/>
       <c r="D30" t="s">
-        <v>411</v>
+        <v>413</v>
       </c>
       <c r="E30" t="s">
-        <v>412</v>
+        <v>414</v>
       </c>
       <c r="F30" t="s"/>
       <c r="G30" t="s">
-        <v>413</v>
+        <v>415</v>
       </c>
       <c r="H30" t="s">
-        <v>414</v>
+        <v>416</v>
       </c>
       <c r="I30" t="s">
-        <v>415</v>
+        <v>417</v>
       </c>
       <c r="J30" t="s">
-        <v>416</v>
+        <v>418</v>
       </c>
       <c r="K30" t="s">
-        <v>417</v>
+        <v>419</v>
       </c>
       <c r="L30" t="s">
-        <v>418</v>
+        <v>420</v>
       </c>
       <c r="M30" t="s">
         <v>65</v>
       </c>
       <c r="N30" t="s">
-        <v>419</v>
+        <v>421</v>
       </c>
       <c r="O30" t="s">
         <v>67</v>
       </c>
       <c r="P30" t="s">
-        <v>420</v>
+        <v>422</v>
       </c>
       <c r="Q30" t="s">
-        <v>421</v>
+        <v>423</v>
       </c>
       <c r="R30" t="s"/>
       <c r="S30" t="s">
@@ -5276,7 +5288,7 @@
       </c>
       <c r="V30" t="s"/>
       <c r="W30" t="s">
-        <v>422</v>
+        <v>424</v>
       </c>
       <c r="X30" t="s"/>
       <c r="Y30" t="s"/>
@@ -5288,53 +5300,53 @@
     </row>
     <row r="31" spans="1:28">
       <c r="A31" t="s">
-        <v>423</v>
+        <v>425</v>
       </c>
       <c r="B31" t="s">
-        <v>424</v>
+        <v>426</v>
       </c>
       <c r="C31" t="s">
-        <v>425</v>
+        <v>427</v>
       </c>
       <c r="D31" t="s">
-        <v>426</v>
+        <v>428</v>
       </c>
       <c r="E31" t="s">
-        <v>427</v>
+        <v>429</v>
       </c>
       <c r="F31" t="s"/>
       <c r="G31" t="s">
-        <v>428</v>
+        <v>430</v>
       </c>
       <c r="H31" t="s">
-        <v>429</v>
+        <v>431</v>
       </c>
       <c r="I31" t="s">
-        <v>430</v>
+        <v>432</v>
       </c>
       <c r="J31" t="s">
-        <v>431</v>
+        <v>433</v>
       </c>
       <c r="K31" t="s">
-        <v>432</v>
+        <v>434</v>
       </c>
       <c r="L31" t="s">
-        <v>433</v>
+        <v>435</v>
       </c>
       <c r="M31" t="s">
         <v>65</v>
       </c>
       <c r="N31" t="s">
-        <v>434</v>
+        <v>436</v>
       </c>
       <c r="O31" t="s">
         <v>67</v>
       </c>
       <c r="P31" t="s">
-        <v>435</v>
+        <v>437</v>
       </c>
       <c r="Q31" t="s">
-        <v>436</v>
+        <v>438</v>
       </c>
       <c r="R31" t="s"/>
       <c r="S31" t="s">
@@ -5346,7 +5358,7 @@
       </c>
       <c r="V31" t="s"/>
       <c r="W31" t="s">
-        <v>437</v>
+        <v>439</v>
       </c>
       <c r="X31" t="s"/>
       <c r="Y31" t="s"/>
@@ -5358,49 +5370,49 @@
     </row>
     <row r="32" spans="1:28">
       <c r="A32" t="s">
-        <v>438</v>
+        <v>440</v>
       </c>
       <c r="B32" t="s">
-        <v>439</v>
+        <v>441</v>
       </c>
       <c r="C32" t="s"/>
       <c r="D32" t="s">
-        <v>440</v>
+        <v>442</v>
       </c>
       <c r="E32" t="s">
-        <v>441</v>
+        <v>443</v>
       </c>
       <c r="F32" t="s"/>
       <c r="G32" t="s"/>
       <c r="H32" t="s">
-        <v>442</v>
+        <v>444</v>
       </c>
       <c r="I32" t="s">
-        <v>443</v>
+        <v>445</v>
       </c>
       <c r="J32" t="s">
-        <v>444</v>
+        <v>446</v>
       </c>
       <c r="K32" t="s">
-        <v>445</v>
+        <v>447</v>
       </c>
       <c r="L32" t="s">
-        <v>446</v>
+        <v>448</v>
       </c>
       <c r="M32" t="s">
         <v>65</v>
       </c>
       <c r="N32" t="s">
-        <v>447</v>
+        <v>449</v>
       </c>
       <c r="O32" t="s">
         <v>67</v>
       </c>
       <c r="P32" t="s">
-        <v>448</v>
+        <v>450</v>
       </c>
       <c r="Q32" t="s">
-        <v>449</v>
+        <v>451</v>
       </c>
       <c r="R32" t="s"/>
       <c r="S32" t="s">
@@ -5412,7 +5424,7 @@
       </c>
       <c r="V32" t="s"/>
       <c r="W32" t="s">
-        <v>450</v>
+        <v>452</v>
       </c>
       <c r="X32" t="s"/>
       <c r="Y32" t="s"/>
@@ -5424,53 +5436,53 @@
     </row>
     <row r="33" spans="1:28">
       <c r="A33" t="s">
-        <v>451</v>
+        <v>453</v>
       </c>
       <c r="B33" t="s">
-        <v>452</v>
+        <v>454</v>
       </c>
       <c r="C33" t="s"/>
       <c r="D33" t="s">
-        <v>453</v>
+        <v>455</v>
       </c>
       <c r="E33" t="s">
         <v>76</v>
       </c>
       <c r="F33" t="s">
-        <v>454</v>
+        <v>456</v>
       </c>
       <c r="G33" t="s">
-        <v>455</v>
+        <v>457</v>
       </c>
       <c r="H33" t="s">
-        <v>456</v>
+        <v>458</v>
       </c>
       <c r="I33" t="s">
-        <v>457</v>
+        <v>459</v>
       </c>
       <c r="J33" t="s">
         <v>162</v>
       </c>
       <c r="K33" t="s">
-        <v>458</v>
+        <v>460</v>
       </c>
       <c r="L33" t="s">
-        <v>459</v>
+        <v>461</v>
       </c>
       <c r="M33" t="s">
         <v>65</v>
       </c>
       <c r="N33" t="s">
-        <v>460</v>
+        <v>462</v>
       </c>
       <c r="O33" t="s">
         <v>67</v>
       </c>
       <c r="P33" t="s">
-        <v>461</v>
+        <v>463</v>
       </c>
       <c r="Q33" t="s">
-        <v>462</v>
+        <v>464</v>
       </c>
       <c r="R33" t="s"/>
       <c r="S33" t="s">
@@ -5482,7 +5494,7 @@
       </c>
       <c r="V33" t="s"/>
       <c r="W33" t="s">
-        <v>463</v>
+        <v>465</v>
       </c>
       <c r="X33" t="s"/>
       <c r="Y33" t="s"/>
@@ -5494,53 +5506,53 @@
     </row>
     <row r="34" spans="1:28">
       <c r="A34" t="s">
-        <v>464</v>
+        <v>466</v>
       </c>
       <c r="B34" t="s">
-        <v>465</v>
+        <v>467</v>
       </c>
       <c r="C34" t="s">
-        <v>466</v>
+        <v>468</v>
       </c>
       <c r="D34" t="s"/>
       <c r="E34" t="s">
         <v>76</v>
       </c>
       <c r="F34" t="s">
-        <v>467</v>
+        <v>469</v>
       </c>
       <c r="G34" t="s">
-        <v>468</v>
+        <v>470</v>
       </c>
       <c r="H34" t="s">
-        <v>469</v>
+        <v>471</v>
       </c>
       <c r="I34" t="s">
-        <v>470</v>
+        <v>472</v>
       </c>
       <c r="J34" t="s">
         <v>200</v>
       </c>
       <c r="K34" t="s">
-        <v>471</v>
+        <v>473</v>
       </c>
       <c r="L34" t="s">
-        <v>472</v>
+        <v>474</v>
       </c>
       <c r="M34" t="s">
         <v>65</v>
       </c>
       <c r="N34" t="s">
-        <v>473</v>
+        <v>475</v>
       </c>
       <c r="O34" t="s">
         <v>67</v>
       </c>
       <c r="P34" t="s">
-        <v>474</v>
+        <v>476</v>
       </c>
       <c r="Q34" t="s">
-        <v>475</v>
+        <v>477</v>
       </c>
       <c r="R34" t="s"/>
       <c r="S34" t="s">
@@ -5552,7 +5564,7 @@
       </c>
       <c r="V34" t="s"/>
       <c r="W34" t="s">
-        <v>476</v>
+        <v>478</v>
       </c>
       <c r="X34" t="s"/>
       <c r="Y34" t="s"/>
@@ -5564,10 +5576,10 @@
     </row>
     <row r="35" spans="1:28">
       <c r="A35" t="s">
-        <v>477</v>
+        <v>479</v>
       </c>
       <c r="B35" t="s">
-        <v>478</v>
+        <v>480</v>
       </c>
       <c r="C35" t="s"/>
       <c r="D35" t="s"/>
@@ -5576,37 +5588,37 @@
       </c>
       <c r="F35" t="s"/>
       <c r="G35" t="s">
-        <v>479</v>
+        <v>481</v>
       </c>
       <c r="H35" t="s">
-        <v>480</v>
+        <v>482</v>
       </c>
       <c r="I35" t="s">
-        <v>481</v>
+        <v>483</v>
       </c>
       <c r="J35" t="s">
         <v>200</v>
       </c>
       <c r="K35" t="s">
-        <v>482</v>
+        <v>484</v>
       </c>
       <c r="L35" t="s">
-        <v>483</v>
+        <v>485</v>
       </c>
       <c r="M35" t="s">
         <v>65</v>
       </c>
       <c r="N35" t="s">
-        <v>484</v>
+        <v>486</v>
       </c>
       <c r="O35" t="s">
         <v>67</v>
       </c>
       <c r="P35" t="s">
-        <v>485</v>
+        <v>487</v>
       </c>
       <c r="Q35" t="s">
-        <v>486</v>
+        <v>488</v>
       </c>
       <c r="R35" t="s"/>
       <c r="S35" t="s">
@@ -5618,7 +5630,7 @@
       </c>
       <c r="V35" t="s"/>
       <c r="W35" t="s">
-        <v>487</v>
+        <v>489</v>
       </c>
       <c r="X35" t="s"/>
       <c r="Y35" t="s"/>
@@ -5630,55 +5642,55 @@
     </row>
     <row r="36" spans="1:28">
       <c r="A36" t="s">
-        <v>488</v>
+        <v>490</v>
       </c>
       <c r="B36" t="s">
-        <v>489</v>
+        <v>491</v>
       </c>
       <c r="C36" t="s">
-        <v>490</v>
+        <v>492</v>
       </c>
       <c r="D36" t="s">
-        <v>491</v>
+        <v>493</v>
       </c>
       <c r="E36" t="s">
-        <v>492</v>
+        <v>494</v>
       </c>
       <c r="F36" t="s">
-        <v>493</v>
+        <v>495</v>
       </c>
       <c r="G36" t="s">
-        <v>428</v>
+        <v>430</v>
       </c>
       <c r="H36" t="s">
-        <v>494</v>
+        <v>496</v>
       </c>
       <c r="I36" t="s">
-        <v>495</v>
+        <v>497</v>
       </c>
       <c r="J36" t="s">
-        <v>496</v>
+        <v>498</v>
       </c>
       <c r="K36" t="s">
-        <v>497</v>
+        <v>499</v>
       </c>
       <c r="L36" t="s">
-        <v>498</v>
+        <v>500</v>
       </c>
       <c r="M36" t="s">
         <v>65</v>
       </c>
       <c r="N36" t="s">
-        <v>499</v>
+        <v>501</v>
       </c>
       <c r="O36" t="s">
         <v>67</v>
       </c>
       <c r="P36" t="s">
-        <v>500</v>
+        <v>502</v>
       </c>
       <c r="Q36" t="s">
-        <v>501</v>
+        <v>503</v>
       </c>
       <c r="R36" t="s"/>
       <c r="S36" t="s">
@@ -5690,7 +5702,7 @@
       </c>
       <c r="V36" t="s"/>
       <c r="W36" t="s">
-        <v>502</v>
+        <v>504</v>
       </c>
       <c r="X36" t="s"/>
       <c r="Y36" t="s"/>
@@ -5702,49 +5714,49 @@
     </row>
     <row r="37" spans="1:28">
       <c r="A37" t="s">
-        <v>503</v>
+        <v>505</v>
       </c>
       <c r="B37" t="s">
-        <v>504</v>
+        <v>506</v>
       </c>
       <c r="C37" t="s"/>
       <c r="D37" t="s"/>
       <c r="E37" t="s">
-        <v>505</v>
+        <v>507</v>
       </c>
       <c r="F37" t="s"/>
       <c r="G37" t="s">
-        <v>506</v>
+        <v>508</v>
       </c>
       <c r="H37" t="s">
-        <v>507</v>
+        <v>509</v>
       </c>
       <c r="I37" t="s">
-        <v>508</v>
+        <v>510</v>
       </c>
       <c r="J37" t="s">
-        <v>509</v>
+        <v>511</v>
       </c>
       <c r="K37" t="s">
-        <v>510</v>
+        <v>512</v>
       </c>
       <c r="L37" t="s">
-        <v>511</v>
+        <v>513</v>
       </c>
       <c r="M37" t="s">
         <v>65</v>
       </c>
       <c r="N37" t="s">
-        <v>512</v>
+        <v>514</v>
       </c>
       <c r="O37" t="s">
         <v>67</v>
       </c>
       <c r="P37" t="s">
-        <v>513</v>
+        <v>515</v>
       </c>
       <c r="Q37" t="s">
-        <v>514</v>
+        <v>516</v>
       </c>
       <c r="R37" t="s"/>
       <c r="S37" t="s">
@@ -5752,11 +5764,11 @@
       </c>
       <c r="T37" t="s"/>
       <c r="U37" t="s">
-        <v>515</v>
+        <v>517</v>
       </c>
       <c r="V37" t="s"/>
       <c r="W37" t="s">
-        <v>516</v>
+        <v>518</v>
       </c>
       <c r="X37" t="s"/>
       <c r="Y37" t="s"/>
@@ -5768,53 +5780,53 @@
     </row>
     <row r="38" spans="1:28">
       <c r="A38" t="s">
-        <v>517</v>
+        <v>519</v>
       </c>
       <c r="B38" t="s">
-        <v>518</v>
+        <v>520</v>
       </c>
       <c r="C38" t="s"/>
       <c r="D38" t="s">
-        <v>519</v>
+        <v>521</v>
       </c>
       <c r="E38" t="s">
         <v>76</v>
       </c>
       <c r="F38" t="s">
-        <v>520</v>
+        <v>522</v>
       </c>
       <c r="G38" t="s">
         <v>78</v>
       </c>
       <c r="H38" t="s">
-        <v>521</v>
+        <v>523</v>
       </c>
       <c r="I38" t="s">
-        <v>522</v>
+        <v>524</v>
       </c>
       <c r="J38" t="s">
         <v>254</v>
       </c>
       <c r="K38" t="s">
-        <v>523</v>
+        <v>525</v>
       </c>
       <c r="L38" t="s">
-        <v>524</v>
+        <v>526</v>
       </c>
       <c r="M38" t="s">
         <v>65</v>
       </c>
       <c r="N38" t="s">
-        <v>525</v>
+        <v>527</v>
       </c>
       <c r="O38" t="s">
         <v>67</v>
       </c>
       <c r="P38" t="s">
-        <v>526</v>
+        <v>528</v>
       </c>
       <c r="Q38" t="s">
-        <v>527</v>
+        <v>529</v>
       </c>
       <c r="R38" t="s"/>
       <c r="S38" t="s">
@@ -5826,7 +5838,7 @@
       </c>
       <c r="V38" t="s"/>
       <c r="W38" t="s">
-        <v>528</v>
+        <v>530</v>
       </c>
       <c r="X38" t="s"/>
       <c r="Y38" t="s"/>
@@ -5838,53 +5850,53 @@
     </row>
     <row r="39" spans="1:28">
       <c r="A39" t="s">
-        <v>529</v>
+        <v>531</v>
       </c>
       <c r="B39" t="s">
-        <v>530</v>
+        <v>532</v>
       </c>
       <c r="C39" t="s"/>
       <c r="D39" t="s">
-        <v>531</v>
+        <v>533</v>
       </c>
       <c r="E39" t="s">
         <v>76</v>
       </c>
       <c r="F39" t="s">
-        <v>532</v>
+        <v>534</v>
       </c>
       <c r="G39" t="s">
-        <v>533</v>
+        <v>535</v>
       </c>
       <c r="H39" t="s">
-        <v>534</v>
+        <v>536</v>
       </c>
       <c r="I39" t="s">
-        <v>535</v>
+        <v>537</v>
       </c>
       <c r="J39" t="s">
         <v>162</v>
       </c>
       <c r="K39" t="s">
-        <v>536</v>
+        <v>538</v>
       </c>
       <c r="L39" t="s">
-        <v>537</v>
+        <v>539</v>
       </c>
       <c r="M39" t="s">
         <v>65</v>
       </c>
       <c r="N39" t="s">
-        <v>538</v>
+        <v>540</v>
       </c>
       <c r="O39" t="s">
         <v>67</v>
       </c>
       <c r="P39" t="s">
-        <v>539</v>
+        <v>541</v>
       </c>
       <c r="Q39" t="s">
-        <v>540</v>
+        <v>542</v>
       </c>
       <c r="R39" t="s"/>
       <c r="S39" t="s">
@@ -5896,7 +5908,7 @@
       </c>
       <c r="V39" t="s"/>
       <c r="W39" t="s">
-        <v>541</v>
+        <v>543</v>
       </c>
       <c r="X39" t="s"/>
       <c r="Y39" t="s"/>
@@ -5908,53 +5920,53 @@
     </row>
     <row r="40" spans="1:28">
       <c r="A40" t="s">
-        <v>542</v>
+        <v>544</v>
       </c>
       <c r="B40" t="s">
-        <v>543</v>
+        <v>545</v>
       </c>
       <c r="C40" t="s">
-        <v>544</v>
+        <v>546</v>
       </c>
       <c r="D40" t="s"/>
       <c r="E40" t="s">
         <v>76</v>
       </c>
       <c r="F40" t="s">
-        <v>545</v>
+        <v>547</v>
       </c>
       <c r="G40" t="s">
-        <v>546</v>
+        <v>548</v>
       </c>
       <c r="H40" t="s">
-        <v>547</v>
+        <v>549</v>
       </c>
       <c r="I40" t="s">
-        <v>548</v>
+        <v>550</v>
       </c>
       <c r="J40" t="s">
         <v>162</v>
       </c>
       <c r="K40" t="s">
-        <v>549</v>
+        <v>551</v>
       </c>
       <c r="L40" t="s">
-        <v>550</v>
+        <v>552</v>
       </c>
       <c r="M40" t="s">
         <v>65</v>
       </c>
       <c r="N40" t="s">
-        <v>551</v>
+        <v>553</v>
       </c>
       <c r="O40" t="s">
         <v>67</v>
       </c>
       <c r="P40" t="s">
-        <v>552</v>
+        <v>554</v>
       </c>
       <c r="Q40" t="s">
-        <v>553</v>
+        <v>555</v>
       </c>
       <c r="R40" t="s"/>
       <c r="S40" t="s">
@@ -5966,7 +5978,7 @@
       </c>
       <c r="V40" t="s"/>
       <c r="W40" t="s">
-        <v>554</v>
+        <v>556</v>
       </c>
       <c r="X40" t="s"/>
       <c r="Y40" t="s"/>
@@ -5978,55 +5990,55 @@
     </row>
     <row r="41" spans="1:28">
       <c r="A41" t="s">
-        <v>555</v>
+        <v>557</v>
       </c>
       <c r="B41" t="s">
-        <v>556</v>
+        <v>558</v>
       </c>
       <c r="C41" t="s">
-        <v>557</v>
+        <v>559</v>
       </c>
       <c r="D41" t="s">
-        <v>558</v>
+        <v>560</v>
       </c>
       <c r="E41" t="s">
-        <v>559</v>
+        <v>561</v>
       </c>
       <c r="F41" t="s">
-        <v>560</v>
+        <v>562</v>
       </c>
       <c r="G41" t="s">
-        <v>561</v>
+        <v>563</v>
       </c>
       <c r="H41" t="s">
-        <v>562</v>
+        <v>564</v>
       </c>
       <c r="I41" t="s">
-        <v>563</v>
+        <v>565</v>
       </c>
       <c r="J41" t="s">
-        <v>564</v>
+        <v>566</v>
       </c>
       <c r="K41" t="s">
-        <v>565</v>
+        <v>567</v>
       </c>
       <c r="L41" t="s">
-        <v>566</v>
+        <v>568</v>
       </c>
       <c r="M41" t="s">
         <v>65</v>
       </c>
       <c r="N41" t="s">
-        <v>567</v>
+        <v>569</v>
       </c>
       <c r="O41" t="s">
         <v>67</v>
       </c>
       <c r="P41" t="s">
-        <v>568</v>
+        <v>570</v>
       </c>
       <c r="Q41" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
       <c r="R41" t="s"/>
       <c r="S41" t="s">
@@ -6038,7 +6050,7 @@
       </c>
       <c r="V41" t="s"/>
       <c r="W41" t="s">
-        <v>570</v>
+        <v>572</v>
       </c>
       <c r="X41" t="s"/>
       <c r="Y41" t="s"/>
@@ -6050,53 +6062,53 @@
     </row>
     <row r="42" spans="1:28">
       <c r="A42" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
       <c r="B42" t="s">
-        <v>572</v>
+        <v>574</v>
       </c>
       <c r="C42" t="s"/>
       <c r="D42" t="s">
-        <v>573</v>
+        <v>575</v>
       </c>
       <c r="E42" t="s">
-        <v>574</v>
+        <v>576</v>
       </c>
       <c r="F42" t="s">
-        <v>575</v>
+        <v>577</v>
       </c>
       <c r="G42" t="s">
-        <v>561</v>
+        <v>563</v>
       </c>
       <c r="H42" t="s">
-        <v>576</v>
+        <v>578</v>
       </c>
       <c r="I42" t="s">
-        <v>577</v>
+        <v>579</v>
       </c>
       <c r="J42" t="s">
-        <v>578</v>
+        <v>580</v>
       </c>
       <c r="K42" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
       <c r="L42" t="s">
-        <v>580</v>
+        <v>582</v>
       </c>
       <c r="M42" t="s">
         <v>65</v>
       </c>
       <c r="N42" t="s">
-        <v>581</v>
+        <v>583</v>
       </c>
       <c r="O42" t="s">
         <v>67</v>
       </c>
       <c r="P42" t="s">
-        <v>582</v>
+        <v>584</v>
       </c>
       <c r="Q42" t="s">
-        <v>583</v>
+        <v>585</v>
       </c>
       <c r="R42" t="s"/>
       <c r="S42" t="s">
@@ -6108,7 +6120,7 @@
       </c>
       <c r="V42" t="s"/>
       <c r="W42" t="s">
-        <v>584</v>
+        <v>586</v>
       </c>
       <c r="X42" t="s"/>
       <c r="Y42" t="s"/>
@@ -6120,53 +6132,53 @@
     </row>
     <row r="43" spans="1:28">
       <c r="A43" t="s">
-        <v>585</v>
+        <v>587</v>
       </c>
       <c r="B43" t="s">
-        <v>586</v>
+        <v>588</v>
       </c>
       <c r="C43" t="s"/>
       <c r="D43" t="s">
-        <v>587</v>
+        <v>589</v>
       </c>
       <c r="E43" t="s">
-        <v>588</v>
+        <v>590</v>
       </c>
       <c r="F43" t="s">
-        <v>589</v>
+        <v>591</v>
       </c>
       <c r="G43" t="s">
-        <v>561</v>
+        <v>563</v>
       </c>
       <c r="H43" t="s">
-        <v>590</v>
+        <v>592</v>
       </c>
       <c r="I43" t="s">
-        <v>591</v>
+        <v>593</v>
       </c>
       <c r="J43" t="s">
-        <v>592</v>
+        <v>594</v>
       </c>
       <c r="K43" t="s">
-        <v>593</v>
+        <v>595</v>
       </c>
       <c r="L43" t="s">
-        <v>594</v>
+        <v>596</v>
       </c>
       <c r="M43" t="s">
         <v>65</v>
       </c>
       <c r="N43" t="s">
-        <v>595</v>
+        <v>597</v>
       </c>
       <c r="O43" t="s">
         <v>67</v>
       </c>
       <c r="P43" t="s">
-        <v>596</v>
+        <v>598</v>
       </c>
       <c r="Q43" t="s">
-        <v>597</v>
+        <v>599</v>
       </c>
       <c r="R43" t="s"/>
       <c r="S43" t="s">
@@ -6178,7 +6190,7 @@
       </c>
       <c r="V43" t="s"/>
       <c r="W43" t="s">
-        <v>598</v>
+        <v>600</v>
       </c>
       <c r="X43" t="s"/>
       <c r="Y43" t="s"/>
@@ -6190,53 +6202,53 @@
     </row>
     <row r="44" spans="1:28">
       <c r="A44" t="s">
-        <v>599</v>
+        <v>601</v>
       </c>
       <c r="B44" t="s">
-        <v>600</v>
+        <v>602</v>
       </c>
       <c r="C44" t="s"/>
       <c r="D44" t="s">
-        <v>601</v>
+        <v>603</v>
       </c>
       <c r="E44" t="s">
-        <v>602</v>
+        <v>604</v>
       </c>
       <c r="F44" t="s">
-        <v>603</v>
+        <v>605</v>
       </c>
       <c r="G44" t="s">
-        <v>604</v>
+        <v>606</v>
       </c>
       <c r="H44" t="s">
-        <v>605</v>
+        <v>607</v>
       </c>
       <c r="I44" t="s">
-        <v>606</v>
+        <v>608</v>
       </c>
       <c r="J44" t="s">
         <v>254</v>
       </c>
       <c r="K44" t="s">
-        <v>607</v>
+        <v>609</v>
       </c>
       <c r="L44" t="s">
-        <v>608</v>
+        <v>610</v>
       </c>
       <c r="M44" t="s">
         <v>65</v>
       </c>
       <c r="N44" t="s">
-        <v>609</v>
+        <v>611</v>
       </c>
       <c r="O44" t="s">
         <v>67</v>
       </c>
       <c r="P44" t="s">
-        <v>610</v>
+        <v>612</v>
       </c>
       <c r="Q44" t="s">
-        <v>611</v>
+        <v>613</v>
       </c>
       <c r="R44" t="s"/>
       <c r="S44" t="s">
@@ -6248,7 +6260,7 @@
       </c>
       <c r="V44" t="s"/>
       <c r="W44" t="s">
-        <v>612</v>
+        <v>614</v>
       </c>
       <c r="X44" t="s"/>
       <c r="Y44" t="s"/>
@@ -6260,16 +6272,16 @@
     </row>
     <row r="45" spans="1:28">
       <c r="A45" t="s">
-        <v>613</v>
+        <v>615</v>
       </c>
       <c r="B45" t="s">
-        <v>614</v>
+        <v>616</v>
       </c>
       <c r="C45" t="s">
-        <v>615</v>
+        <v>617</v>
       </c>
       <c r="D45" t="s">
-        <v>616</v>
+        <v>618</v>
       </c>
       <c r="E45" t="s">
         <v>76</v>
@@ -6279,34 +6291,34 @@
         <v>326</v>
       </c>
       <c r="H45" t="s">
-        <v>617</v>
+        <v>619</v>
       </c>
       <c r="I45" t="s">
-        <v>618</v>
+        <v>620</v>
       </c>
       <c r="J45" t="s">
         <v>162</v>
       </c>
       <c r="K45" t="s">
-        <v>619</v>
+        <v>621</v>
       </c>
       <c r="L45" t="s">
-        <v>620</v>
+        <v>622</v>
       </c>
       <c r="M45" t="s">
         <v>65</v>
       </c>
       <c r="N45" t="s">
-        <v>621</v>
+        <v>623</v>
       </c>
       <c r="O45" t="s">
         <v>67</v>
       </c>
       <c r="P45" t="s">
-        <v>622</v>
+        <v>624</v>
       </c>
       <c r="Q45" t="s">
-        <v>623</v>
+        <v>625</v>
       </c>
       <c r="R45" t="s"/>
       <c r="S45" t="s">
@@ -6318,7 +6330,7 @@
       </c>
       <c r="V45" t="s"/>
       <c r="W45" t="s">
-        <v>624</v>
+        <v>626</v>
       </c>
       <c r="X45" t="s"/>
       <c r="Y45" t="s"/>
@@ -6330,10 +6342,10 @@
     </row>
     <row r="46" spans="1:28">
       <c r="A46" t="s">
-        <v>625</v>
+        <v>627</v>
       </c>
       <c r="B46" t="s">
-        <v>626</v>
+        <v>628</v>
       </c>
       <c r="C46" t="s"/>
       <c r="D46" t="s"/>
@@ -6341,40 +6353,40 @@
         <v>76</v>
       </c>
       <c r="F46" t="s">
-        <v>627</v>
+        <v>629</v>
       </c>
       <c r="G46" t="s">
-        <v>628</v>
+        <v>630</v>
       </c>
       <c r="H46" t="s">
-        <v>629</v>
+        <v>631</v>
       </c>
       <c r="I46" t="s">
-        <v>630</v>
+        <v>632</v>
       </c>
       <c r="J46" t="s">
-        <v>631</v>
+        <v>633</v>
       </c>
       <c r="K46" t="s">
-        <v>632</v>
+        <v>634</v>
       </c>
       <c r="L46" t="s">
-        <v>633</v>
+        <v>635</v>
       </c>
       <c r="M46" t="s">
         <v>65</v>
       </c>
       <c r="N46" t="s">
-        <v>634</v>
+        <v>636</v>
       </c>
       <c r="O46" t="s">
         <v>67</v>
       </c>
       <c r="P46" t="s">
-        <v>635</v>
+        <v>637</v>
       </c>
       <c r="Q46" t="s">
-        <v>636</v>
+        <v>638</v>
       </c>
       <c r="R46" t="s"/>
       <c r="S46" t="s">
@@ -6386,7 +6398,7 @@
       </c>
       <c r="V46" t="s"/>
       <c r="W46" t="s">
-        <v>637</v>
+        <v>639</v>
       </c>
       <c r="X46" t="s"/>
       <c r="Y46" t="s"/>
@@ -6398,10 +6410,10 @@
     </row>
     <row r="47" spans="1:28">
       <c r="A47" t="s">
-        <v>638</v>
+        <v>640</v>
       </c>
       <c r="B47" t="s">
-        <v>639</v>
+        <v>641</v>
       </c>
       <c r="C47" t="s"/>
       <c r="D47" t="s"/>
@@ -6412,37 +6424,37 @@
         <v>312</v>
       </c>
       <c r="G47" t="s">
-        <v>640</v>
+        <v>642</v>
       </c>
       <c r="H47" t="s">
-        <v>641</v>
+        <v>643</v>
       </c>
       <c r="I47" t="s">
-        <v>642</v>
+        <v>644</v>
       </c>
       <c r="J47" t="s">
-        <v>643</v>
+        <v>645</v>
       </c>
       <c r="K47" t="s">
-        <v>644</v>
+        <v>646</v>
       </c>
       <c r="L47" t="s">
-        <v>645</v>
+        <v>647</v>
       </c>
       <c r="M47" t="s">
         <v>65</v>
       </c>
       <c r="N47" t="s">
-        <v>646</v>
+        <v>648</v>
       </c>
       <c r="O47" t="s">
         <v>67</v>
       </c>
       <c r="P47" t="s">
-        <v>647</v>
+        <v>649</v>
       </c>
       <c r="Q47" t="s">
-        <v>648</v>
+        <v>650</v>
       </c>
       <c r="R47" t="s"/>
       <c r="S47" t="s">
@@ -6454,7 +6466,7 @@
       </c>
       <c r="V47" t="s"/>
       <c r="W47" t="s">
-        <v>649</v>
+        <v>651</v>
       </c>
       <c r="X47" t="s"/>
       <c r="Y47" t="s"/>
@@ -6466,53 +6478,53 @@
     </row>
     <row r="48" spans="1:28">
       <c r="A48" t="s">
-        <v>650</v>
+        <v>652</v>
       </c>
       <c r="B48" t="s">
-        <v>651</v>
+        <v>653</v>
       </c>
       <c r="C48" t="s"/>
       <c r="D48" t="s">
-        <v>652</v>
+        <v>654</v>
       </c>
       <c r="E48" t="s">
-        <v>653</v>
+        <v>655</v>
       </c>
       <c r="F48" t="s">
-        <v>654</v>
+        <v>656</v>
       </c>
       <c r="G48" t="s">
-        <v>506</v>
+        <v>508</v>
       </c>
       <c r="H48" t="s">
-        <v>655</v>
+        <v>657</v>
       </c>
       <c r="I48" t="s">
-        <v>656</v>
+        <v>658</v>
       </c>
       <c r="J48" t="s">
-        <v>509</v>
+        <v>511</v>
       </c>
       <c r="K48" t="s">
-        <v>657</v>
+        <v>659</v>
       </c>
       <c r="L48" t="s">
-        <v>658</v>
+        <v>660</v>
       </c>
       <c r="M48" t="s">
         <v>65</v>
       </c>
       <c r="N48" t="s">
-        <v>659</v>
+        <v>661</v>
       </c>
       <c r="O48" t="s">
         <v>67</v>
       </c>
       <c r="P48" t="s">
-        <v>660</v>
+        <v>662</v>
       </c>
       <c r="Q48" t="s">
-        <v>661</v>
+        <v>663</v>
       </c>
       <c r="R48" t="s"/>
       <c r="S48" t="s">
@@ -6524,7 +6536,7 @@
       </c>
       <c r="V48" t="s"/>
       <c r="W48" t="s">
-        <v>662</v>
+        <v>664</v>
       </c>
       <c r="X48" t="s"/>
       <c r="Y48" t="s"/>
@@ -6536,53 +6548,53 @@
     </row>
     <row r="49" spans="1:28">
       <c r="A49" t="s">
-        <v>663</v>
+        <v>665</v>
       </c>
       <c r="B49" t="s">
-        <v>664</v>
+        <v>666</v>
       </c>
       <c r="C49" t="s">
-        <v>665</v>
+        <v>667</v>
       </c>
       <c r="D49" t="s"/>
       <c r="E49" t="s">
         <v>76</v>
       </c>
       <c r="F49" t="s">
-        <v>666</v>
+        <v>668</v>
       </c>
       <c r="G49" t="s">
-        <v>533</v>
+        <v>535</v>
       </c>
       <c r="H49" t="s">
-        <v>667</v>
+        <v>669</v>
       </c>
       <c r="I49" t="s">
-        <v>668</v>
+        <v>670</v>
       </c>
       <c r="J49" t="s">
-        <v>669</v>
+        <v>671</v>
       </c>
       <c r="K49" t="s">
-        <v>670</v>
+        <v>672</v>
       </c>
       <c r="L49" t="s">
-        <v>671</v>
+        <v>673</v>
       </c>
       <c r="M49" t="s">
         <v>65</v>
       </c>
       <c r="N49" t="s">
-        <v>672</v>
+        <v>674</v>
       </c>
       <c r="O49" t="s">
         <v>67</v>
       </c>
       <c r="P49" t="s">
-        <v>673</v>
+        <v>675</v>
       </c>
       <c r="Q49" t="s">
-        <v>674</v>
+        <v>676</v>
       </c>
       <c r="R49" t="s"/>
       <c r="S49" t="s">
@@ -6594,7 +6606,7 @@
       </c>
       <c r="V49" t="s"/>
       <c r="W49" t="s">
-        <v>675</v>
+        <v>677</v>
       </c>
       <c r="X49" t="s"/>
       <c r="Y49" t="s"/>
@@ -6606,55 +6618,55 @@
     </row>
     <row r="50" spans="1:28">
       <c r="A50" t="s">
-        <v>676</v>
+        <v>678</v>
       </c>
       <c r="B50" t="s">
-        <v>677</v>
+        <v>679</v>
       </c>
       <c r="C50" t="s">
-        <v>678</v>
+        <v>680</v>
       </c>
       <c r="D50" t="s">
-        <v>679</v>
+        <v>681</v>
       </c>
       <c r="E50" t="s">
-        <v>680</v>
+        <v>682</v>
       </c>
       <c r="F50" t="s">
-        <v>681</v>
+        <v>683</v>
       </c>
       <c r="G50" t="s">
-        <v>682</v>
+        <v>684</v>
       </c>
       <c r="H50" t="s">
-        <v>683</v>
+        <v>685</v>
       </c>
       <c r="I50" t="s">
-        <v>684</v>
+        <v>686</v>
       </c>
       <c r="J50" t="s">
         <v>254</v>
       </c>
       <c r="K50" t="s">
-        <v>685</v>
+        <v>687</v>
       </c>
       <c r="L50" t="s">
-        <v>686</v>
+        <v>688</v>
       </c>
       <c r="M50" t="s">
         <v>65</v>
       </c>
       <c r="N50" t="s">
-        <v>687</v>
+        <v>689</v>
       </c>
       <c r="O50" t="s">
         <v>67</v>
       </c>
       <c r="P50" t="s">
-        <v>688</v>
+        <v>690</v>
       </c>
       <c r="Q50" t="s">
-        <v>689</v>
+        <v>691</v>
       </c>
       <c r="R50" t="s"/>
       <c r="S50" t="s">
@@ -6666,7 +6678,7 @@
       </c>
       <c r="V50" t="s"/>
       <c r="W50" t="s">
-        <v>690</v>
+        <v>692</v>
       </c>
       <c r="X50" t="s"/>
       <c r="Y50" t="s"/>
@@ -6678,53 +6690,53 @@
     </row>
     <row r="51" spans="1:28">
       <c r="A51" t="s">
-        <v>691</v>
+        <v>693</v>
       </c>
       <c r="B51" t="s">
-        <v>692</v>
+        <v>694</v>
       </c>
       <c r="C51" t="s">
-        <v>693</v>
+        <v>695</v>
       </c>
       <c r="D51" t="s"/>
       <c r="E51" t="s">
         <v>58</v>
       </c>
       <c r="F51" t="s">
-        <v>694</v>
+        <v>696</v>
       </c>
       <c r="G51" t="s">
-        <v>479</v>
+        <v>481</v>
       </c>
       <c r="H51" t="s">
-        <v>695</v>
+        <v>697</v>
       </c>
       <c r="I51" t="s">
-        <v>696</v>
+        <v>698</v>
       </c>
       <c r="J51" t="s">
         <v>254</v>
       </c>
       <c r="K51" t="s">
-        <v>697</v>
+        <v>699</v>
       </c>
       <c r="L51" t="s">
-        <v>698</v>
+        <v>700</v>
       </c>
       <c r="M51" t="s">
         <v>65</v>
       </c>
       <c r="N51" t="s">
-        <v>699</v>
+        <v>701</v>
       </c>
       <c r="O51" t="s">
         <v>67</v>
       </c>
       <c r="P51" t="s">
-        <v>700</v>
+        <v>702</v>
       </c>
       <c r="Q51" t="s">
-        <v>701</v>
+        <v>703</v>
       </c>
       <c r="R51" t="s"/>
       <c r="S51" t="s">
@@ -6736,7 +6748,7 @@
       </c>
       <c r="V51" t="s"/>
       <c r="W51" t="s">
-        <v>702</v>
+        <v>704</v>
       </c>
       <c r="X51" t="s"/>
       <c r="Y51" t="s"/>
@@ -6748,55 +6760,55 @@
     </row>
     <row r="52" spans="1:28">
       <c r="A52" t="s">
-        <v>703</v>
+        <v>705</v>
       </c>
       <c r="B52" t="s">
-        <v>704</v>
+        <v>706</v>
       </c>
       <c r="C52" t="s">
-        <v>705</v>
+        <v>707</v>
       </c>
       <c r="D52" t="s">
-        <v>706</v>
+        <v>708</v>
       </c>
       <c r="E52" t="s">
         <v>58</v>
       </c>
       <c r="F52" t="s">
-        <v>707</v>
+        <v>709</v>
       </c>
       <c r="G52" t="s">
-        <v>708</v>
+        <v>710</v>
       </c>
       <c r="H52" t="s">
-        <v>709</v>
+        <v>711</v>
       </c>
       <c r="I52" t="s">
-        <v>710</v>
+        <v>712</v>
       </c>
       <c r="J52" t="s">
         <v>200</v>
       </c>
       <c r="K52" t="s">
-        <v>711</v>
+        <v>713</v>
       </c>
       <c r="L52" t="s">
-        <v>712</v>
+        <v>714</v>
       </c>
       <c r="M52" t="s">
         <v>65</v>
       </c>
       <c r="N52" t="s">
-        <v>713</v>
+        <v>715</v>
       </c>
       <c r="O52" t="s">
         <v>67</v>
       </c>
       <c r="P52" t="s">
-        <v>714</v>
+        <v>716</v>
       </c>
       <c r="Q52" t="s">
-        <v>715</v>
+        <v>717</v>
       </c>
       <c r="R52" t="s"/>
       <c r="S52" t="s">
@@ -6808,7 +6820,7 @@
       </c>
       <c r="V52" t="s"/>
       <c r="W52" t="s">
-        <v>716</v>
+        <v>718</v>
       </c>
       <c r="X52" t="s"/>
       <c r="Y52" t="s"/>
@@ -6820,53 +6832,53 @@
     </row>
     <row r="53" spans="1:28">
       <c r="A53" t="s">
-        <v>717</v>
+        <v>719</v>
       </c>
       <c r="B53" t="s">
-        <v>718</v>
+        <v>720</v>
       </c>
       <c r="C53" t="s"/>
       <c r="D53" t="s">
-        <v>719</v>
+        <v>721</v>
       </c>
       <c r="E53" t="s">
-        <v>720</v>
+        <v>722</v>
       </c>
       <c r="F53" t="s">
-        <v>721</v>
+        <v>723</v>
       </c>
       <c r="G53" t="s">
         <v>326</v>
       </c>
       <c r="H53" t="s">
-        <v>722</v>
+        <v>724</v>
       </c>
       <c r="I53" t="s">
-        <v>723</v>
+        <v>725</v>
       </c>
       <c r="J53" t="s">
         <v>162</v>
       </c>
       <c r="K53" t="s">
-        <v>724</v>
+        <v>726</v>
       </c>
       <c r="L53" t="s">
-        <v>725</v>
+        <v>727</v>
       </c>
       <c r="M53" t="s">
         <v>65</v>
       </c>
       <c r="N53" t="s">
-        <v>726</v>
+        <v>728</v>
       </c>
       <c r="O53" t="s">
         <v>67</v>
       </c>
       <c r="P53" t="s">
-        <v>727</v>
+        <v>729</v>
       </c>
       <c r="Q53" t="s">
-        <v>728</v>
+        <v>730</v>
       </c>
       <c r="R53" t="s"/>
       <c r="S53" t="s">
@@ -6878,7 +6890,7 @@
       </c>
       <c r="V53" t="s"/>
       <c r="W53" t="s">
-        <v>729</v>
+        <v>731</v>
       </c>
       <c r="X53" t="s"/>
       <c r="Y53" t="s"/>
@@ -6890,51 +6902,51 @@
     </row>
     <row r="54" spans="1:28">
       <c r="A54" t="s">
-        <v>730</v>
+        <v>732</v>
       </c>
       <c r="B54" t="s">
-        <v>731</v>
+        <v>733</v>
       </c>
       <c r="C54" t="s"/>
       <c r="D54" t="s">
-        <v>732</v>
+        <v>734</v>
       </c>
       <c r="E54" t="s">
-        <v>733</v>
+        <v>735</v>
       </c>
       <c r="F54" t="s"/>
       <c r="G54" t="s">
-        <v>708</v>
+        <v>710</v>
       </c>
       <c r="H54" t="s">
-        <v>734</v>
+        <v>736</v>
       </c>
       <c r="I54" t="s">
-        <v>735</v>
+        <v>737</v>
       </c>
       <c r="J54" t="s">
-        <v>736</v>
+        <v>738</v>
       </c>
       <c r="K54" t="s">
-        <v>737</v>
+        <v>739</v>
       </c>
       <c r="L54" t="s">
-        <v>738</v>
+        <v>740</v>
       </c>
       <c r="M54" t="s">
         <v>65</v>
       </c>
       <c r="N54" t="s">
-        <v>739</v>
+        <v>741</v>
       </c>
       <c r="O54" t="s">
         <v>67</v>
       </c>
       <c r="P54" t="s">
-        <v>740</v>
+        <v>742</v>
       </c>
       <c r="Q54" t="s">
-        <v>741</v>
+        <v>743</v>
       </c>
       <c r="R54" t="s"/>
       <c r="S54" t="s">
@@ -6946,7 +6958,7 @@
       </c>
       <c r="V54" t="s"/>
       <c r="W54" t="s">
-        <v>742</v>
+        <v>744</v>
       </c>
       <c r="X54" t="s"/>
       <c r="Y54" t="s"/>
@@ -6958,49 +6970,49 @@
     </row>
     <row r="55" spans="1:28">
       <c r="A55" t="s">
-        <v>743</v>
+        <v>745</v>
       </c>
       <c r="B55" t="s">
-        <v>744</v>
+        <v>746</v>
       </c>
       <c r="C55" t="s"/>
       <c r="D55" t="s"/>
       <c r="E55" t="s">
-        <v>745</v>
+        <v>747</v>
       </c>
       <c r="F55" t="s"/>
       <c r="G55" t="s">
-        <v>479</v>
+        <v>481</v>
       </c>
       <c r="H55" t="s">
-        <v>746</v>
+        <v>748</v>
       </c>
       <c r="I55" t="s">
-        <v>747</v>
+        <v>749</v>
       </c>
       <c r="J55" t="s">
         <v>254</v>
       </c>
       <c r="K55" t="s">
-        <v>748</v>
+        <v>750</v>
       </c>
       <c r="L55" t="s">
-        <v>749</v>
+        <v>751</v>
       </c>
       <c r="M55" t="s">
         <v>65</v>
       </c>
       <c r="N55" t="s">
-        <v>750</v>
+        <v>752</v>
       </c>
       <c r="O55" t="s">
         <v>67</v>
       </c>
       <c r="P55" t="s">
-        <v>751</v>
+        <v>753</v>
       </c>
       <c r="Q55" t="s">
-        <v>752</v>
+        <v>754</v>
       </c>
       <c r="R55" t="s"/>
       <c r="S55" t="s">
@@ -7012,7 +7024,7 @@
       </c>
       <c r="V55" t="s"/>
       <c r="W55" t="s">
-        <v>753</v>
+        <v>755</v>
       </c>
       <c r="X55" t="s"/>
       <c r="Y55" t="s"/>
@@ -7024,51 +7036,51 @@
     </row>
     <row r="56" spans="1:28">
       <c r="A56" t="s">
-        <v>754</v>
+        <v>756</v>
       </c>
       <c r="B56" t="s">
-        <v>755</v>
+        <v>757</v>
       </c>
       <c r="C56" t="s"/>
       <c r="D56" t="s">
-        <v>756</v>
+        <v>758</v>
       </c>
       <c r="E56" t="s">
-        <v>680</v>
+        <v>682</v>
       </c>
       <c r="F56" t="s"/>
       <c r="G56" t="s">
-        <v>757</v>
+        <v>759</v>
       </c>
       <c r="H56" t="s">
-        <v>758</v>
+        <v>760</v>
       </c>
       <c r="I56" t="s">
-        <v>759</v>
+        <v>761</v>
       </c>
       <c r="J56" t="s">
         <v>162</v>
       </c>
       <c r="K56" t="s">
-        <v>760</v>
+        <v>762</v>
       </c>
       <c r="L56" t="s">
-        <v>761</v>
+        <v>763</v>
       </c>
       <c r="M56" t="s">
         <v>65</v>
       </c>
       <c r="N56" t="s">
-        <v>762</v>
+        <v>764</v>
       </c>
       <c r="O56" t="s">
         <v>67</v>
       </c>
       <c r="P56" t="s">
-        <v>763</v>
+        <v>765</v>
       </c>
       <c r="Q56" t="s">
-        <v>764</v>
+        <v>766</v>
       </c>
       <c r="R56" t="s"/>
       <c r="S56" t="s">
@@ -7080,7 +7092,7 @@
       </c>
       <c r="V56" t="s"/>
       <c r="W56" t="s">
-        <v>765</v>
+        <v>767</v>
       </c>
       <c r="X56" t="s"/>
       <c r="Y56" t="s"/>
@@ -7092,10 +7104,10 @@
     </row>
     <row r="57" spans="1:28">
       <c r="A57" t="s">
-        <v>766</v>
+        <v>768</v>
       </c>
       <c r="B57" t="s">
-        <v>767</v>
+        <v>769</v>
       </c>
       <c r="C57" t="s"/>
       <c r="D57" t="s"/>
@@ -7103,40 +7115,40 @@
         <v>76</v>
       </c>
       <c r="F57" t="s">
-        <v>768</v>
+        <v>770</v>
       </c>
       <c r="G57" t="s">
-        <v>769</v>
+        <v>771</v>
       </c>
       <c r="H57" t="s">
-        <v>770</v>
+        <v>772</v>
       </c>
       <c r="I57" t="s">
-        <v>771</v>
+        <v>773</v>
       </c>
       <c r="J57" t="s">
         <v>162</v>
       </c>
       <c r="K57" t="s">
-        <v>772</v>
+        <v>774</v>
       </c>
       <c r="L57" t="s">
-        <v>773</v>
+        <v>775</v>
       </c>
       <c r="M57" t="s">
         <v>65</v>
       </c>
       <c r="N57" t="s">
-        <v>774</v>
+        <v>776</v>
       </c>
       <c r="O57" t="s">
         <v>67</v>
       </c>
       <c r="P57" t="s">
-        <v>775</v>
+        <v>777</v>
       </c>
       <c r="Q57" t="s">
-        <v>776</v>
+        <v>778</v>
       </c>
       <c r="R57" t="s"/>
       <c r="S57" t="s">
@@ -7148,7 +7160,7 @@
       </c>
       <c r="V57" t="s"/>
       <c r="W57" t="s">
-        <v>777</v>
+        <v>779</v>
       </c>
       <c r="X57" t="s"/>
       <c r="Y57" t="s"/>
@@ -7160,51 +7172,51 @@
     </row>
     <row r="58" spans="1:28">
       <c r="A58" t="s">
-        <v>503</v>
+        <v>505</v>
       </c>
       <c r="B58" t="s">
-        <v>504</v>
+        <v>506</v>
       </c>
       <c r="C58" t="s"/>
       <c r="D58" t="s">
-        <v>778</v>
+        <v>780</v>
       </c>
       <c r="E58" t="s">
         <v>403</v>
       </c>
       <c r="F58" t="s"/>
       <c r="G58" t="s">
-        <v>506</v>
+        <v>508</v>
       </c>
       <c r="H58" t="s">
-        <v>779</v>
+        <v>781</v>
       </c>
       <c r="I58" t="s">
-        <v>780</v>
+        <v>782</v>
       </c>
       <c r="J58" t="s">
-        <v>509</v>
+        <v>511</v>
       </c>
       <c r="K58" t="s">
-        <v>781</v>
+        <v>783</v>
       </c>
       <c r="L58" t="s">
-        <v>511</v>
+        <v>784</v>
       </c>
       <c r="M58" t="s">
         <v>65</v>
       </c>
       <c r="N58" t="s">
-        <v>512</v>
+        <v>785</v>
       </c>
       <c r="O58" t="s">
         <v>67</v>
       </c>
       <c r="P58" t="s">
-        <v>782</v>
+        <v>786</v>
       </c>
       <c r="Q58" t="s">
-        <v>514</v>
+        <v>516</v>
       </c>
       <c r="R58" t="s"/>
       <c r="S58" t="s">
@@ -7216,7 +7228,7 @@
       </c>
       <c r="V58" t="s"/>
       <c r="W58" t="s">
-        <v>516</v>
+        <v>518</v>
       </c>
       <c r="X58" t="s"/>
       <c r="Y58" t="s"/>
@@ -7228,51 +7240,51 @@
     </row>
     <row r="59" spans="1:28">
       <c r="A59" t="s">
-        <v>783</v>
+        <v>787</v>
       </c>
       <c r="B59" t="s">
-        <v>784</v>
+        <v>788</v>
       </c>
       <c r="C59" t="s"/>
       <c r="D59" t="s">
-        <v>785</v>
+        <v>789</v>
       </c>
       <c r="E59" t="s">
         <v>58</v>
       </c>
       <c r="F59" t="s"/>
       <c r="G59" t="s">
-        <v>479</v>
+        <v>481</v>
       </c>
       <c r="H59" t="s">
-        <v>786</v>
+        <v>790</v>
       </c>
       <c r="I59" t="s">
-        <v>787</v>
+        <v>791</v>
       </c>
       <c r="J59" t="s">
         <v>254</v>
       </c>
       <c r="K59" t="s">
-        <v>788</v>
+        <v>792</v>
       </c>
       <c r="L59" t="s">
-        <v>789</v>
+        <v>793</v>
       </c>
       <c r="M59" t="s">
         <v>65</v>
       </c>
       <c r="N59" t="s">
-        <v>790</v>
+        <v>794</v>
       </c>
       <c r="O59" t="s">
         <v>67</v>
       </c>
       <c r="P59" t="s">
-        <v>791</v>
+        <v>795</v>
       </c>
       <c r="Q59" t="s">
-        <v>792</v>
+        <v>796</v>
       </c>
       <c r="R59" t="s"/>
       <c r="S59" t="s">
@@ -7284,7 +7296,7 @@
       </c>
       <c r="V59" t="s"/>
       <c r="W59" t="s">
-        <v>793</v>
+        <v>797</v>
       </c>
       <c r="X59" t="s"/>
       <c r="Y59" t="s"/>
@@ -7296,51 +7308,51 @@
     </row>
     <row r="60" spans="1:28">
       <c r="A60" t="s">
-        <v>794</v>
+        <v>798</v>
       </c>
       <c r="B60" t="s">
-        <v>795</v>
+        <v>799</v>
       </c>
       <c r="C60" t="s"/>
       <c r="D60" t="s"/>
       <c r="E60" t="s">
-        <v>796</v>
+        <v>800</v>
       </c>
       <c r="F60" t="s">
-        <v>797</v>
+        <v>801</v>
       </c>
       <c r="G60" t="s">
-        <v>479</v>
+        <v>481</v>
       </c>
       <c r="H60" t="s">
-        <v>798</v>
+        <v>802</v>
       </c>
       <c r="I60" t="s">
-        <v>799</v>
+        <v>803</v>
       </c>
       <c r="J60" t="s">
         <v>254</v>
       </c>
       <c r="K60" t="s">
-        <v>800</v>
+        <v>804</v>
       </c>
       <c r="L60" t="s">
-        <v>801</v>
+        <v>805</v>
       </c>
       <c r="M60" t="s">
         <v>65</v>
       </c>
       <c r="N60" t="s">
-        <v>802</v>
+        <v>806</v>
       </c>
       <c r="O60" t="s">
         <v>67</v>
       </c>
       <c r="P60" t="s">
-        <v>803</v>
+        <v>807</v>
       </c>
       <c r="Q60" t="s">
-        <v>804</v>
+        <v>808</v>
       </c>
       <c r="R60" t="s"/>
       <c r="S60" t="s">
@@ -7352,7 +7364,7 @@
       </c>
       <c r="V60" t="s"/>
       <c r="W60" t="s">
-        <v>805</v>
+        <v>809</v>
       </c>
       <c r="X60" t="s"/>
       <c r="Y60" t="s"/>
@@ -7364,53 +7376,53 @@
     </row>
     <row r="61" spans="1:28">
       <c r="A61" t="s">
-        <v>806</v>
+        <v>810</v>
       </c>
       <c r="B61" t="s">
-        <v>807</v>
+        <v>811</v>
       </c>
       <c r="C61" t="s"/>
       <c r="D61" t="s">
-        <v>808</v>
+        <v>812</v>
       </c>
       <c r="E61" t="s">
-        <v>809</v>
+        <v>813</v>
       </c>
       <c r="F61" t="s">
-        <v>810</v>
+        <v>814</v>
       </c>
       <c r="G61" t="s">
         <v>78</v>
       </c>
       <c r="H61" t="s">
-        <v>811</v>
+        <v>815</v>
       </c>
       <c r="I61" t="s">
-        <v>812</v>
+        <v>816</v>
       </c>
       <c r="J61" t="s">
-        <v>813</v>
+        <v>817</v>
       </c>
       <c r="K61" t="s">
-        <v>814</v>
+        <v>818</v>
       </c>
       <c r="L61" t="s">
-        <v>815</v>
+        <v>819</v>
       </c>
       <c r="M61" t="s">
         <v>65</v>
       </c>
       <c r="N61" t="s">
-        <v>816</v>
+        <v>820</v>
       </c>
       <c r="O61" t="s">
         <v>67</v>
       </c>
       <c r="P61" t="s">
-        <v>817</v>
+        <v>821</v>
       </c>
       <c r="Q61" t="s">
-        <v>818</v>
+        <v>822</v>
       </c>
       <c r="R61" t="s"/>
       <c r="S61" t="s">
@@ -7422,7 +7434,7 @@
       </c>
       <c r="V61" t="s"/>
       <c r="W61" t="s">
-        <v>819</v>
+        <v>823</v>
       </c>
       <c r="X61" t="s"/>
       <c r="Y61" t="s"/>
@@ -7434,13 +7446,13 @@
     </row>
     <row r="62" spans="1:28">
       <c r="A62" t="s">
-        <v>820</v>
+        <v>824</v>
       </c>
       <c r="B62" t="s">
-        <v>821</v>
+        <v>825</v>
       </c>
       <c r="C62" t="s">
-        <v>822</v>
+        <v>826</v>
       </c>
       <c r="D62" t="s"/>
       <c r="E62" t="s">
@@ -7451,34 +7463,34 @@
         <v>251</v>
       </c>
       <c r="H62" t="s">
-        <v>823</v>
+        <v>827</v>
       </c>
       <c r="I62" t="s">
-        <v>824</v>
+        <v>828</v>
       </c>
       <c r="J62" t="s">
         <v>162</v>
       </c>
       <c r="K62" t="s">
-        <v>825</v>
+        <v>829</v>
       </c>
       <c r="L62" t="s">
-        <v>826</v>
+        <v>830</v>
       </c>
       <c r="M62" t="s">
         <v>65</v>
       </c>
       <c r="N62" t="s">
-        <v>827</v>
+        <v>831</v>
       </c>
       <c r="O62" t="s">
         <v>67</v>
       </c>
       <c r="P62" t="s">
-        <v>828</v>
+        <v>832</v>
       </c>
       <c r="Q62" t="s">
-        <v>829</v>
+        <v>833</v>
       </c>
       <c r="R62" t="s"/>
       <c r="S62" t="s">
@@ -7490,7 +7502,7 @@
       </c>
       <c r="V62" t="s"/>
       <c r="W62" t="s">
-        <v>830</v>
+        <v>834</v>
       </c>
       <c r="X62" t="s"/>
       <c r="Y62" t="s"/>
@@ -7502,53 +7514,53 @@
     </row>
     <row r="63" spans="1:28">
       <c r="A63" t="s">
-        <v>831</v>
+        <v>835</v>
       </c>
       <c r="B63" t="s">
-        <v>832</v>
+        <v>836</v>
       </c>
       <c r="C63" t="s">
-        <v>833</v>
+        <v>837</v>
       </c>
       <c r="D63" t="s">
-        <v>834</v>
+        <v>838</v>
       </c>
       <c r="E63" t="s">
         <v>76</v>
       </c>
       <c r="F63" t="s">
-        <v>835</v>
+        <v>839</v>
       </c>
       <c r="G63" t="s"/>
       <c r="H63" t="s">
-        <v>836</v>
+        <v>840</v>
       </c>
       <c r="I63" t="s">
-        <v>837</v>
+        <v>841</v>
       </c>
       <c r="J63" t="s">
-        <v>838</v>
+        <v>842</v>
       </c>
       <c r="K63" t="s">
-        <v>839</v>
+        <v>843</v>
       </c>
       <c r="L63" t="s">
-        <v>840</v>
+        <v>844</v>
       </c>
       <c r="M63" t="s">
         <v>65</v>
       </c>
       <c r="N63" t="s">
-        <v>841</v>
+        <v>845</v>
       </c>
       <c r="O63" t="s">
         <v>67</v>
       </c>
       <c r="P63" t="s">
-        <v>842</v>
+        <v>846</v>
       </c>
       <c r="Q63" t="s">
-        <v>843</v>
+        <v>847</v>
       </c>
       <c r="R63" t="s"/>
       <c r="S63" t="s">
@@ -7560,7 +7572,7 @@
       </c>
       <c r="V63" t="s"/>
       <c r="W63" t="s">
-        <v>844</v>
+        <v>848</v>
       </c>
       <c r="X63" t="s"/>
       <c r="Y63" t="s"/>
@@ -7572,51 +7584,51 @@
     </row>
     <row r="64" spans="1:28">
       <c r="A64" t="s">
-        <v>845</v>
+        <v>849</v>
       </c>
       <c r="B64" t="s">
-        <v>846</v>
+        <v>850</v>
       </c>
       <c r="C64" t="s"/>
       <c r="D64" t="s"/>
       <c r="E64" t="s">
-        <v>847</v>
+        <v>851</v>
       </c>
       <c r="F64" t="s">
-        <v>848</v>
+        <v>852</v>
       </c>
       <c r="G64" t="s">
-        <v>479</v>
+        <v>481</v>
       </c>
       <c r="H64" t="s">
-        <v>849</v>
+        <v>853</v>
       </c>
       <c r="I64" t="s">
-        <v>850</v>
+        <v>854</v>
       </c>
       <c r="J64" t="s">
         <v>200</v>
       </c>
       <c r="K64" t="s">
-        <v>851</v>
+        <v>855</v>
       </c>
       <c r="L64" t="s">
-        <v>852</v>
+        <v>856</v>
       </c>
       <c r="M64" t="s">
         <v>65</v>
       </c>
       <c r="N64" t="s">
-        <v>853</v>
+        <v>857</v>
       </c>
       <c r="O64" t="s">
         <v>67</v>
       </c>
       <c r="P64" t="s">
-        <v>854</v>
+        <v>858</v>
       </c>
       <c r="Q64" t="s">
-        <v>855</v>
+        <v>859</v>
       </c>
       <c r="R64" t="s"/>
       <c r="S64" t="s">
@@ -7628,7 +7640,7 @@
       </c>
       <c r="V64" t="s"/>
       <c r="W64" t="s">
-        <v>856</v>
+        <v>860</v>
       </c>
       <c r="X64" t="s"/>
       <c r="Y64" t="s"/>
@@ -7640,51 +7652,51 @@
     </row>
     <row r="65" spans="1:28">
       <c r="A65" t="s">
-        <v>857</v>
+        <v>861</v>
       </c>
       <c r="B65" t="s">
-        <v>858</v>
+        <v>862</v>
       </c>
       <c r="C65" t="s"/>
       <c r="D65" t="s"/>
       <c r="E65" t="s">
-        <v>859</v>
+        <v>863</v>
       </c>
       <c r="F65" t="s">
-        <v>860</v>
+        <v>864</v>
       </c>
       <c r="G65" t="s">
-        <v>479</v>
+        <v>481</v>
       </c>
       <c r="H65" t="s">
-        <v>861</v>
+        <v>865</v>
       </c>
       <c r="I65" t="s">
-        <v>862</v>
+        <v>866</v>
       </c>
       <c r="J65" t="s">
         <v>200</v>
       </c>
       <c r="K65" t="s">
-        <v>863</v>
+        <v>867</v>
       </c>
       <c r="L65" t="s">
-        <v>864</v>
+        <v>868</v>
       </c>
       <c r="M65" t="s">
         <v>65</v>
       </c>
       <c r="N65" t="s">
-        <v>865</v>
+        <v>869</v>
       </c>
       <c r="O65" t="s">
         <v>67</v>
       </c>
       <c r="P65" t="s">
-        <v>866</v>
+        <v>870</v>
       </c>
       <c r="Q65" t="s">
-        <v>867</v>
+        <v>871</v>
       </c>
       <c r="R65" t="s"/>
       <c r="S65" t="s">
@@ -7696,7 +7708,7 @@
       </c>
       <c r="V65" t="s"/>
       <c r="W65" t="s">
-        <v>868</v>
+        <v>872</v>
       </c>
       <c r="X65" t="s"/>
       <c r="Y65" t="s"/>
@@ -7708,51 +7720,51 @@
     </row>
     <row r="66" spans="1:28">
       <c r="A66" t="s">
-        <v>477</v>
+        <v>479</v>
       </c>
       <c r="B66" t="s">
-        <v>478</v>
+        <v>480</v>
       </c>
       <c r="C66" t="s"/>
       <c r="D66" t="s"/>
       <c r="E66" t="s">
-        <v>869</v>
+        <v>873</v>
       </c>
       <c r="F66" t="s">
-        <v>870</v>
+        <v>874</v>
       </c>
       <c r="G66" t="s">
-        <v>479</v>
+        <v>481</v>
       </c>
       <c r="H66" t="s">
-        <v>871</v>
+        <v>875</v>
       </c>
       <c r="I66" t="s">
-        <v>872</v>
+        <v>876</v>
       </c>
       <c r="J66" t="s">
         <v>200</v>
       </c>
       <c r="K66" t="s">
-        <v>873</v>
+        <v>877</v>
       </c>
       <c r="L66" t="s">
-        <v>874</v>
+        <v>878</v>
       </c>
       <c r="M66" t="s">
         <v>65</v>
       </c>
       <c r="N66" t="s">
-        <v>875</v>
+        <v>879</v>
       </c>
       <c r="O66" t="s">
         <v>67</v>
       </c>
       <c r="P66" t="s">
-        <v>876</v>
+        <v>880</v>
       </c>
       <c r="Q66" t="s">
-        <v>877</v>
+        <v>881</v>
       </c>
       <c r="R66" t="s"/>
       <c r="S66" t="s">
@@ -7764,7 +7776,7 @@
       </c>
       <c r="V66" t="s"/>
       <c r="W66" t="s">
-        <v>878</v>
+        <v>882</v>
       </c>
       <c r="X66" t="s"/>
       <c r="Y66" t="s"/>
@@ -7776,53 +7788,53 @@
     </row>
     <row r="67" spans="1:28">
       <c r="A67" t="s">
-        <v>879</v>
+        <v>883</v>
       </c>
       <c r="B67" t="s">
-        <v>880</v>
+        <v>884</v>
       </c>
       <c r="C67" t="s"/>
       <c r="D67" t="s">
-        <v>881</v>
+        <v>885</v>
       </c>
       <c r="E67" t="s">
         <v>76</v>
       </c>
       <c r="F67" t="s">
-        <v>882</v>
+        <v>886</v>
       </c>
       <c r="G67" t="s">
-        <v>546</v>
+        <v>548</v>
       </c>
       <c r="H67" t="s">
-        <v>883</v>
+        <v>887</v>
       </c>
       <c r="I67" t="s">
-        <v>884</v>
+        <v>888</v>
       </c>
       <c r="J67" t="s">
-        <v>885</v>
+        <v>889</v>
       </c>
       <c r="K67" t="s">
-        <v>886</v>
+        <v>890</v>
       </c>
       <c r="L67" t="s">
-        <v>887</v>
+        <v>891</v>
       </c>
       <c r="M67" t="s">
         <v>65</v>
       </c>
       <c r="N67" t="s">
-        <v>888</v>
+        <v>892</v>
       </c>
       <c r="O67" t="s">
         <v>67</v>
       </c>
       <c r="P67" t="s">
-        <v>889</v>
+        <v>893</v>
       </c>
       <c r="Q67" t="s">
-        <v>890</v>
+        <v>894</v>
       </c>
       <c r="R67" t="s"/>
       <c r="S67" t="s">
@@ -7834,7 +7846,7 @@
       </c>
       <c r="V67" t="s"/>
       <c r="W67" t="s">
-        <v>891</v>
+        <v>895</v>
       </c>
       <c r="X67" t="s"/>
       <c r="Y67" t="s"/>
@@ -7846,53 +7858,53 @@
     </row>
     <row r="68" spans="1:28">
       <c r="A68" t="s">
-        <v>892</v>
+        <v>896</v>
       </c>
       <c r="B68" t="s">
-        <v>893</v>
+        <v>897</v>
       </c>
       <c r="C68" t="s"/>
       <c r="D68" t="s">
-        <v>894</v>
+        <v>898</v>
       </c>
       <c r="E68" t="s">
         <v>76</v>
       </c>
       <c r="F68" t="s">
-        <v>895</v>
+        <v>899</v>
       </c>
       <c r="G68" t="s">
-        <v>682</v>
+        <v>684</v>
       </c>
       <c r="H68" t="s">
-        <v>896</v>
+        <v>900</v>
       </c>
       <c r="I68" t="s">
-        <v>897</v>
+        <v>901</v>
       </c>
       <c r="J68" t="s">
-        <v>898</v>
+        <v>902</v>
       </c>
       <c r="K68" t="s">
-        <v>899</v>
+        <v>903</v>
       </c>
       <c r="L68" t="s">
-        <v>900</v>
+        <v>904</v>
       </c>
       <c r="M68" t="s">
         <v>65</v>
       </c>
       <c r="N68" t="s">
-        <v>901</v>
+        <v>905</v>
       </c>
       <c r="O68" t="s">
         <v>67</v>
       </c>
       <c r="P68" t="s">
-        <v>902</v>
+        <v>906</v>
       </c>
       <c r="Q68" t="s">
-        <v>903</v>
+        <v>907</v>
       </c>
       <c r="R68" t="s"/>
       <c r="S68" t="s">
@@ -7904,7 +7916,7 @@
       </c>
       <c r="V68" t="s"/>
       <c r="W68" t="s">
-        <v>904</v>
+        <v>908</v>
       </c>
       <c r="X68" t="s"/>
       <c r="Y68" t="s"/>
@@ -7916,10 +7928,10 @@
     </row>
     <row r="69" spans="1:28">
       <c r="A69" t="s">
-        <v>905</v>
+        <v>909</v>
       </c>
       <c r="B69" t="s">
-        <v>906</v>
+        <v>910</v>
       </c>
       <c r="C69" t="s"/>
       <c r="D69" t="s"/>
@@ -7927,40 +7939,40 @@
         <v>76</v>
       </c>
       <c r="F69" t="s">
-        <v>907</v>
+        <v>911</v>
       </c>
       <c r="G69" t="s">
-        <v>640</v>
+        <v>642</v>
       </c>
       <c r="H69" t="s">
-        <v>908</v>
+        <v>912</v>
       </c>
       <c r="I69" t="s">
-        <v>909</v>
+        <v>913</v>
       </c>
       <c r="J69" t="s">
         <v>303</v>
       </c>
       <c r="K69" t="s">
-        <v>910</v>
+        <v>914</v>
       </c>
       <c r="L69" t="s">
-        <v>911</v>
+        <v>915</v>
       </c>
       <c r="M69" t="s">
         <v>65</v>
       </c>
       <c r="N69" t="s">
-        <v>912</v>
+        <v>916</v>
       </c>
       <c r="O69" t="s">
         <v>67</v>
       </c>
       <c r="P69" t="s">
-        <v>913</v>
+        <v>917</v>
       </c>
       <c r="Q69" t="s">
-        <v>914</v>
+        <v>918</v>
       </c>
       <c r="R69" t="s"/>
       <c r="S69" t="s">
@@ -7972,7 +7984,7 @@
       </c>
       <c r="V69" t="s"/>
       <c r="W69" t="s">
-        <v>915</v>
+        <v>919</v>
       </c>
       <c r="X69" t="s"/>
       <c r="Y69" t="s"/>
@@ -7984,53 +7996,53 @@
     </row>
     <row r="70" spans="1:28">
       <c r="A70" t="s">
-        <v>916</v>
+        <v>920</v>
       </c>
       <c r="B70" t="s">
-        <v>917</v>
+        <v>921</v>
       </c>
       <c r="C70" t="s"/>
       <c r="D70" t="s">
-        <v>918</v>
+        <v>922</v>
       </c>
       <c r="E70" t="s">
         <v>76</v>
       </c>
       <c r="F70" t="s">
-        <v>919</v>
+        <v>923</v>
       </c>
       <c r="G70" t="s">
-        <v>920</v>
+        <v>924</v>
       </c>
       <c r="H70" t="s">
-        <v>921</v>
+        <v>925</v>
       </c>
       <c r="I70" t="s">
-        <v>922</v>
+        <v>926</v>
       </c>
       <c r="J70" t="s">
         <v>162</v>
       </c>
       <c r="K70" t="s">
-        <v>923</v>
+        <v>927</v>
       </c>
       <c r="L70" t="s">
-        <v>924</v>
+        <v>928</v>
       </c>
       <c r="M70" t="s">
         <v>65</v>
       </c>
       <c r="N70" t="s">
-        <v>925</v>
+        <v>929</v>
       </c>
       <c r="O70" t="s">
         <v>67</v>
       </c>
       <c r="P70" t="s">
-        <v>926</v>
+        <v>930</v>
       </c>
       <c r="Q70" t="s">
-        <v>927</v>
+        <v>931</v>
       </c>
       <c r="R70" t="s"/>
       <c r="S70" t="s">
@@ -8042,7 +8054,7 @@
       </c>
       <c r="V70" t="s"/>
       <c r="W70" t="s">
-        <v>928</v>
+        <v>932</v>
       </c>
       <c r="X70" t="s"/>
       <c r="Y70" t="s"/>
@@ -8054,49 +8066,49 @@
     </row>
     <row r="71" spans="1:28">
       <c r="A71" t="s">
-        <v>929</v>
+        <v>933</v>
       </c>
       <c r="B71" t="s">
-        <v>930</v>
+        <v>934</v>
       </c>
       <c r="C71" t="s"/>
       <c r="D71" t="s"/>
       <c r="E71" t="s">
-        <v>931</v>
+        <v>935</v>
       </c>
       <c r="F71" t="s"/>
       <c r="G71" t="s">
-        <v>932</v>
+        <v>936</v>
       </c>
       <c r="H71" t="s">
-        <v>933</v>
+        <v>937</v>
       </c>
       <c r="I71" t="s">
-        <v>934</v>
+        <v>938</v>
       </c>
       <c r="J71" t="s">
-        <v>935</v>
+        <v>939</v>
       </c>
       <c r="K71" t="s">
-        <v>936</v>
+        <v>940</v>
       </c>
       <c r="L71" t="s">
-        <v>937</v>
+        <v>941</v>
       </c>
       <c r="M71" t="s">
         <v>65</v>
       </c>
       <c r="N71" t="s">
-        <v>938</v>
+        <v>942</v>
       </c>
       <c r="O71" t="s">
         <v>67</v>
       </c>
       <c r="P71" t="s">
-        <v>939</v>
+        <v>943</v>
       </c>
       <c r="Q71" t="s">
-        <v>940</v>
+        <v>944</v>
       </c>
       <c r="R71" t="s"/>
       <c r="S71" t="s">
@@ -8108,7 +8120,7 @@
       </c>
       <c r="V71" t="s"/>
       <c r="W71" t="s">
-        <v>941</v>
+        <v>945</v>
       </c>
       <c r="X71" t="s"/>
       <c r="Y71" t="s"/>

--- a/docs/collections/koten/metadata/data.xlsx
+++ b/docs/collections/koten/metadata/data.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="946">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="1016">
   <si>
     <t>書名</t>
   </si>
@@ -50,6 +50,9 @@
     <t>通番</t>
   </si>
   <si>
+    <t>iiif viewer</t>
+  </si>
+  <si>
     <t>ID</t>
   </si>
   <si>
@@ -209,6 +212,9 @@
     <t>1</t>
   </si>
   <si>
+    <t>http://tify.sub.uni-goettingen.de/demo.html?manifest=https://archdataset.dl.itc.u-tokyo.ac.jp/manifest/1f35990b-a490-1a63-2ab0-32cd98112cf7.json</t>
+  </si>
+  <si>
     <t>1f35990b-a490-1a63-2ab0-32cd98112cf7</t>
   </si>
   <si>
@@ -266,6 +272,9 @@
     <t>10</t>
   </si>
   <si>
+    <t>http://tify.sub.uni-goettingen.de/demo.html?manifest=https://archdataset.dl.itc.u-tokyo.ac.jp/manifest/70b9201c-60a5-1234-1ffd-83e62cc2416e.json</t>
+  </si>
+  <si>
     <t>70b9201c-60a5-1234-1ffd-83e62cc2416e</t>
   </si>
   <si>
@@ -308,6 +317,9 @@
     <t>11</t>
   </si>
   <si>
+    <t>http://tify.sub.uni-goettingen.de/demo.html?manifest=https://archdataset.dl.itc.u-tokyo.ac.jp/manifest/255d0375-6a99-273b-0f01-2534091452a4.json</t>
+  </si>
+  <si>
     <t>255d0375-6a99-273b-0f01-2534091452a4</t>
   </si>
   <si>
@@ -347,6 +359,9 @@
     <t>12</t>
   </si>
   <si>
+    <t>http://tify.sub.uni-goettingen.de/demo.html?manifest=https://archdataset.dl.itc.u-tokyo.ac.jp/manifest/d7186cac-857f-23f6-3e96-b84378a410c7.json</t>
+  </si>
+  <si>
     <t>d7186cac-857f-23f6-3e96-b84378a410c7</t>
   </si>
   <si>
@@ -383,6 +398,9 @@
     <t>13</t>
   </si>
   <si>
+    <t>http://tify.sub.uni-goettingen.de/demo.html?manifest=https://archdataset.dl.itc.u-tokyo.ac.jp/manifest/0ace76fd-80f5-5406-5607-0879c0737535.json</t>
+  </si>
+  <si>
     <t>0ace76fd-80f5-5406-5607-0879c0737535</t>
   </si>
   <si>
@@ -425,6 +443,9 @@
     <t>14</t>
   </si>
   <si>
+    <t>http://tify.sub.uni-goettingen.de/demo.html?manifest=https://archdataset.dl.itc.u-tokyo.ac.jp/manifest/c391c0b7-642b-7f20-902d-6bfc6b3c8d0a.json</t>
+  </si>
+  <si>
     <t>c391c0b7-642b-7f20-902d-6bfc6b3c8d0a</t>
   </si>
   <si>
@@ -464,6 +485,9 @@
     <t>15</t>
   </si>
   <si>
+    <t>http://tify.sub.uni-goettingen.de/demo.html?manifest=https://archdataset.dl.itc.u-tokyo.ac.jp/manifest/4d9020c1-0096-86d9-130f-c67d20ee2a85.json</t>
+  </si>
+  <si>
     <t>4d9020c1-0096-86d9-130f-c67d20ee2a85</t>
   </si>
   <si>
@@ -509,6 +533,9 @@
     <t>16</t>
   </si>
   <si>
+    <t>http://tify.sub.uni-goettingen.de/demo.html?manifest=https://archdataset.dl.itc.u-tokyo.ac.jp/manifest/dd296df6-38fa-a025-7371-5e7d2ceb2046.json</t>
+  </si>
+  <si>
     <t>dd296df6-38fa-a025-7371-5e7d2ceb2046</t>
   </si>
   <si>
@@ -548,6 +575,9 @@
     <t>17</t>
   </si>
   <si>
+    <t>http://tify.sub.uni-goettingen.de/demo.html?manifest=https://archdataset.dl.itc.u-tokyo.ac.jp/manifest/cd187574-954d-6fb0-0874-a3e39ad16ac2.json</t>
+  </si>
+  <si>
     <t>cd187574-954d-6fb0-0874-a3e39ad16ac2</t>
   </si>
   <si>
@@ -581,6 +611,9 @@
     <t>18</t>
   </si>
   <si>
+    <t>http://tify.sub.uni-goettingen.de/demo.html?manifest=https://archdataset.dl.itc.u-tokyo.ac.jp/manifest/2c2614d0-8c8e-8088-284a-92c977dc6774.json</t>
+  </si>
+  <si>
     <t>2c2614d0-8c8e-8088-284a-92c977dc6774</t>
   </si>
   <si>
@@ -623,6 +656,9 @@
     <t>19</t>
   </si>
   <si>
+    <t>http://tify.sub.uni-goettingen.de/demo.html?manifest=https://archdataset.dl.itc.u-tokyo.ac.jp/manifest/b6aef1c0-7a83-1379-0094-7009198b4291.json</t>
+  </si>
+  <si>
     <t>b6aef1c0-7a83-1379-0094-7009198b4291</t>
   </si>
   <si>
@@ -668,6 +704,9 @@
     <t>2</t>
   </si>
   <si>
+    <t>http://tify.sub.uni-goettingen.de/demo.html?manifest=https://archdataset.dl.itc.u-tokyo.ac.jp/manifest/20e39fc5-a301-2156-20ea-8082dd32289f.json</t>
+  </si>
+  <si>
     <t>20e39fc5-a301-2156-20ea-8082dd32289f</t>
   </si>
   <si>
@@ -710,6 +749,9 @@
     <t>20</t>
   </si>
   <si>
+    <t>http://tify.sub.uni-goettingen.de/demo.html?manifest=https://archdataset.dl.itc.u-tokyo.ac.jp/manifest/f67b71a9-8295-7ee7-6b3c-43798c0182d6.json</t>
+  </si>
+  <si>
     <t>f67b71a9-8295-7ee7-6b3c-43798c0182d6</t>
   </si>
   <si>
@@ -749,6 +791,9 @@
     <t>21</t>
   </si>
   <si>
+    <t>http://tify.sub.uni-goettingen.de/demo.html?manifest=https://archdataset.dl.itc.u-tokyo.ac.jp/manifest/04d80d2f-7432-00cd-a1d1-2f1333d84743.json</t>
+  </si>
+  <si>
     <t>04d80d2f-7432-00cd-a1d1-2f1333d84743</t>
   </si>
   <si>
@@ -785,6 +830,9 @@
     <t>22</t>
   </si>
   <si>
+    <t>http://tify.sub.uni-goettingen.de/demo.html?manifest=https://archdataset.dl.itc.u-tokyo.ac.jp/manifest/43ca8e1d-087d-5bdc-3bc3-372800f60cb6.json</t>
+  </si>
+  <si>
     <t>43ca8e1d-087d-5bdc-3bc3-372800f60cb6</t>
   </si>
   <si>
@@ -818,6 +866,9 @@
     <t>23</t>
   </si>
   <si>
+    <t>http://tify.sub.uni-goettingen.de/demo.html?manifest=https://archdataset.dl.itc.u-tokyo.ac.jp/manifest/7feffc5a-659e-02e0-40df-df42e9059307.json</t>
+  </si>
+  <si>
     <t>7feffc5a-659e-02e0-40df-df42e9059307</t>
   </si>
   <si>
@@ -854,6 +905,9 @@
     <t>24</t>
   </si>
   <si>
+    <t>http://tify.sub.uni-goettingen.de/demo.html?manifest=https://archdataset.dl.itc.u-tokyo.ac.jp/manifest/586ea69e-70f6-36b0-9e8c-64ff5f4c3f09.json</t>
+  </si>
+  <si>
     <t>586ea69e-70f6-36b0-9e8c-64ff5f4c3f09</t>
   </si>
   <si>
@@ -890,6 +944,9 @@
     <t>25</t>
   </si>
   <si>
+    <t>http://tify.sub.uni-goettingen.de/demo.html?manifest=https://archdataset.dl.itc.u-tokyo.ac.jp/manifest/b64a927b-3706-22ba-0aeb-550af6195588.json</t>
+  </si>
+  <si>
     <t>b64a927b-3706-22ba-0aeb-550af6195588</t>
   </si>
   <si>
@@ -932,6 +989,9 @@
     <t>26</t>
   </si>
   <si>
+    <t>http://tify.sub.uni-goettingen.de/demo.html?manifest=https://archdataset.dl.itc.u-tokyo.ac.jp/manifest/de2a9abc-62d1-1943-32b4-156471ef8c5c.json</t>
+  </si>
+  <si>
     <t>de2a9abc-62d1-1943-32b4-156471ef8c5c</t>
   </si>
   <si>
@@ -968,6 +1028,9 @@
     <t>27</t>
   </si>
   <si>
+    <t>http://tify.sub.uni-goettingen.de/demo.html?manifest=https://archdataset.dl.itc.u-tokyo.ac.jp/manifest/652f540f-9d21-0493-7728-52e359fe4292.json</t>
+  </si>
+  <si>
     <t>652f540f-9d21-0493-7728-52e359fe4292</t>
   </si>
   <si>
@@ -1007,6 +1070,9 @@
     <t>28</t>
   </si>
   <si>
+    <t>http://tify.sub.uni-goettingen.de/demo.html?manifest=https://archdataset.dl.itc.u-tokyo.ac.jp/manifest/0178c1cb-097d-7ac2-2563-307ae3b80eef.json</t>
+  </si>
+  <si>
     <t>0178c1cb-097d-7ac2-2563-307ae3b80eef</t>
   </si>
   <si>
@@ -1049,6 +1115,9 @@
     <t>29</t>
   </si>
   <si>
+    <t>http://tify.sub.uni-goettingen.de/demo.html?manifest=https://archdataset.dl.itc.u-tokyo.ac.jp/manifest/c572fe8a-6eb0-5b58-5b97-5f68e8786681.json</t>
+  </si>
+  <si>
     <t>c572fe8a-6eb0-5b58-5b97-5f68e8786681</t>
   </si>
   <si>
@@ -1091,6 +1160,9 @@
     <t>3</t>
   </si>
   <si>
+    <t>http://tify.sub.uni-goettingen.de/demo.html?manifest=https://archdataset.dl.itc.u-tokyo.ac.jp/manifest/3c220085-7d42-833a-084a-64a5f9072686.json</t>
+  </si>
+  <si>
     <t>3c220085-7d42-833a-084a-64a5f9072686</t>
   </si>
   <si>
@@ -1130,6 +1202,9 @@
     <t>30</t>
   </si>
   <si>
+    <t>http://tify.sub.uni-goettingen.de/demo.html?manifest=https://archdataset.dl.itc.u-tokyo.ac.jp/manifest/a28d0e4c-8db1-8bb0-32f8-f8967759382a.json</t>
+  </si>
+  <si>
     <t>a28d0e4c-8db1-8bb0-32f8-f8967759382a</t>
   </si>
   <si>
@@ -1172,6 +1247,9 @@
     <t>31</t>
   </si>
   <si>
+    <t>http://tify.sub.uni-goettingen.de/demo.html?manifest=https://archdataset.dl.itc.u-tokyo.ac.jp/manifest/931470e4-2b79-31e5-8f8f-88fda806638d.json</t>
+  </si>
+  <si>
     <t>931470e4-2b79-31e5-8f8f-88fda806638d</t>
   </si>
   <si>
@@ -1211,6 +1289,9 @@
     <t>32</t>
   </si>
   <si>
+    <t>http://tify.sub.uni-goettingen.de/demo.html?manifest=https://archdataset.dl.itc.u-tokyo.ac.jp/manifest/61efab97-3bcc-05f9-17a0-508a6296978f.json</t>
+  </si>
+  <si>
     <t>61efab97-3bcc-05f9-17a0-508a6296978f</t>
   </si>
   <si>
@@ -1241,6 +1322,9 @@
     <t>33</t>
   </si>
   <si>
+    <t>http://tify.sub.uni-goettingen.de/demo.html?manifest=https://archdataset.dl.itc.u-tokyo.ac.jp/manifest/9ee510e1-7088-63e6-0403-65be28f00bfe.json</t>
+  </si>
+  <si>
     <t>9ee510e1-7088-63e6-0403-65be28f00bfe</t>
   </si>
   <si>
@@ -1277,6 +1361,9 @@
     <t>34</t>
   </si>
   <si>
+    <t>http://tify.sub.uni-goettingen.de/demo.html?manifest=https://archdataset.dl.itc.u-tokyo.ac.jp/manifest/5dfe4131-2a2a-4b42-92b9-561053727994.json</t>
+  </si>
+  <si>
     <t>5dfe4131-2a2a-4b42-92b9-561053727994</t>
   </si>
   <si>
@@ -1322,6 +1409,9 @@
     <t>35</t>
   </si>
   <si>
+    <t>http://tify.sub.uni-goettingen.de/demo.html?manifest=https://archdataset.dl.itc.u-tokyo.ac.jp/manifest/b2669333-a52b-5b93-3075-be6faf961e9e.json</t>
+  </si>
+  <si>
     <t>b2669333-a52b-5b93-3075-be6faf961e9e</t>
   </si>
   <si>
@@ -1361,6 +1451,9 @@
     <t>36</t>
   </si>
   <si>
+    <t>http://tify.sub.uni-goettingen.de/demo.html?manifest=https://archdataset.dl.itc.u-tokyo.ac.jp/manifest/2ed9a6cb-8162-5a55-06d0-5156269260cc.json</t>
+  </si>
+  <si>
     <t>2ed9a6cb-8162-5a55-06d0-5156269260cc</t>
   </si>
   <si>
@@ -1400,6 +1493,9 @@
     <t>37</t>
   </si>
   <si>
+    <t>http://tify.sub.uni-goettingen.de/demo.html?manifest=https://archdataset.dl.itc.u-tokyo.ac.jp/manifest/a6c6e6f3-84a9-339a-1eb9-52287aca5326.json</t>
+  </si>
+  <si>
     <t>a6c6e6f3-84a9-339a-1eb9-52287aca5326</t>
   </si>
   <si>
@@ -1439,6 +1535,9 @@
     <t>38</t>
   </si>
   <si>
+    <t>http://tify.sub.uni-goettingen.de/demo.html?manifest=https://archdataset.dl.itc.u-tokyo.ac.jp/manifest/d30e06d5-8001-357f-3b60-469a2d9b1da8.json</t>
+  </si>
+  <si>
     <t>d30e06d5-8001-357f-3b60-469a2d9b1da8</t>
   </si>
   <si>
@@ -1472,6 +1571,9 @@
     <t>39</t>
   </si>
   <si>
+    <t>http://tify.sub.uni-goettingen.de/demo.html?manifest=https://archdataset.dl.itc.u-tokyo.ac.jp/manifest/7234f107-20b2-3791-0f00-2ae032039cd0.json</t>
+  </si>
+  <si>
     <t>7234f107-20b2-3791-0f00-2ae032039cd0</t>
   </si>
   <si>
@@ -1517,6 +1619,9 @@
     <t>4</t>
   </si>
   <si>
+    <t>http://tify.sub.uni-goettingen.de/demo.html?manifest=https://archdataset.dl.itc.u-tokyo.ac.jp/manifest/feb9c85d-3819-213f-21ae-a97abd5e6472.json</t>
+  </si>
+  <si>
     <t>feb9c85d-3819-213f-21ae-a97abd5e6472</t>
   </si>
   <si>
@@ -1556,6 +1661,9 @@
     <t>40</t>
   </si>
   <si>
+    <t>http://tify.sub.uni-goettingen.de/demo.html?manifest=https://archdataset.dl.itc.u-tokyo.ac.jp/manifest/7dbdd04c-5fd9-902e-631a-7d3d199d1ed8.json</t>
+  </si>
+  <si>
     <t>7dbdd04c-5fd9-902e-631a-7d3d199d1ed8</t>
   </si>
   <si>
@@ -1595,6 +1703,9 @@
     <t>41</t>
   </si>
   <si>
+    <t>http://tify.sub.uni-goettingen.de/demo.html?manifest=https://archdataset.dl.itc.u-tokyo.ac.jp/manifest/d5007242-2ecb-8bfd-0604-2083fc477fff.json</t>
+  </si>
+  <si>
     <t>d5007242-2ecb-8bfd-0604-2083fc477fff</t>
   </si>
   <si>
@@ -1634,6 +1745,9 @@
     <t>42</t>
   </si>
   <si>
+    <t>http://tify.sub.uni-goettingen.de/demo.html?manifest=https://archdataset.dl.itc.u-tokyo.ac.jp/manifest/6dadf5fc-63b2-43b2-8459-fd004ff15ab3.json</t>
+  </si>
+  <si>
     <t>6dadf5fc-63b2-43b2-8459-fd004ff15ab3</t>
   </si>
   <si>
@@ -1673,6 +1787,9 @@
     <t>43</t>
   </si>
   <si>
+    <t>http://tify.sub.uni-goettingen.de/demo.html?manifest=https://archdataset.dl.itc.u-tokyo.ac.jp/manifest/e080e17f-84a0-18b9-686e-d4e496200318.json</t>
+  </si>
+  <si>
     <t>e080e17f-84a0-18b9-686e-d4e496200318</t>
   </si>
   <si>
@@ -1721,6 +1838,9 @@
     <t>44</t>
   </si>
   <si>
+    <t>http://tify.sub.uni-goettingen.de/demo.html?manifest=https://archdataset.dl.itc.u-tokyo.ac.jp/manifest/dfd2b41e-674b-3add-832f-44cf689100f0.json</t>
+  </si>
+  <si>
     <t>dfd2b41e-674b-3add-832f-44cf689100f0</t>
   </si>
   <si>
@@ -1763,6 +1883,9 @@
     <t>45</t>
   </si>
   <si>
+    <t>http://tify.sub.uni-goettingen.de/demo.html?manifest=https://archdataset.dl.itc.u-tokyo.ac.jp/manifest/87131215-927e-72ea-2c14-5a7995585566.json</t>
+  </si>
+  <si>
     <t>87131215-927e-72ea-2c14-5a7995585566</t>
   </si>
   <si>
@@ -1805,6 +1928,9 @@
     <t>46</t>
   </si>
   <si>
+    <t>http://tify.sub.uni-goettingen.de/demo.html?manifest=https://archdataset.dl.itc.u-tokyo.ac.jp/manifest/4bfbdac2-9c96-3d5b-4582-e0b237826c0d.json</t>
+  </si>
+  <si>
     <t>4bfbdac2-9c96-3d5b-4582-e0b237826c0d</t>
   </si>
   <si>
@@ -1847,6 +1973,9 @@
     <t>47</t>
   </si>
   <si>
+    <t>http://tify.sub.uni-goettingen.de/demo.html?manifest=https://archdataset.dl.itc.u-tokyo.ac.jp/manifest/51763842-91db-9f72-a2d2-87cf990007e1.json</t>
+  </si>
+  <si>
     <t>51763842-91db-9f72-a2d2-87cf990007e1</t>
   </si>
   <si>
@@ -1883,6 +2012,9 @@
     <t>48</t>
   </si>
   <si>
+    <t>http://tify.sub.uni-goettingen.de/demo.html?manifest=https://archdataset.dl.itc.u-tokyo.ac.jp/manifest/1f2ed9da-a2cf-4033-2086-2d3e3fb09386.json</t>
+  </si>
+  <si>
     <t>1f2ed9da-a2cf-4033-2086-2d3e3fb09386</t>
   </si>
   <si>
@@ -1922,6 +2054,9 @@
     <t>49</t>
   </si>
   <si>
+    <t>http://tify.sub.uni-goettingen.de/demo.html?manifest=https://archdataset.dl.itc.u-tokyo.ac.jp/manifest/5778a1c4-1b8f-1dfc-24b5-38be7fcc1dab.json</t>
+  </si>
+  <si>
     <t>5778a1c4-1b8f-1dfc-24b5-38be7fcc1dab</t>
   </si>
   <si>
@@ -1958,6 +2093,9 @@
     <t>5</t>
   </si>
   <si>
+    <t>http://tify.sub.uni-goettingen.de/demo.html?manifest=https://archdataset.dl.itc.u-tokyo.ac.jp/manifest/78ae6f7f-5f09-8d58-9f56-366dfa599642.json</t>
+  </si>
+  <si>
     <t>78ae6f7f-5f09-8d58-9f56-366dfa599642</t>
   </si>
   <si>
@@ -1997,6 +2135,9 @@
     <t>50</t>
   </si>
   <si>
+    <t>http://tify.sub.uni-goettingen.de/demo.html?manifest=https://archdataset.dl.itc.u-tokyo.ac.jp/manifest/ecdb69c8-a18d-42d5-3df7-f2f4bccf096a.json</t>
+  </si>
+  <si>
     <t>ecdb69c8-a18d-42d5-3df7-f2f4bccf096a</t>
   </si>
   <si>
@@ -2036,6 +2177,9 @@
     <t>51</t>
   </si>
   <si>
+    <t>http://tify.sub.uni-goettingen.de/demo.html?manifest=https://archdataset.dl.itc.u-tokyo.ac.jp/manifest/ca9dfffb-8019-569c-7af5-b0e1e79422c1.json</t>
+  </si>
+  <si>
     <t>ca9dfffb-8019-569c-7af5-b0e1e79422c1</t>
   </si>
   <si>
@@ -2081,6 +2225,9 @@
     <t>52</t>
   </si>
   <si>
+    <t>http://tify.sub.uni-goettingen.de/demo.html?manifest=https://archdataset.dl.itc.u-tokyo.ac.jp/manifest/ed146214-5a40-5419-7770-bdb8f8ef4ae2.json</t>
+  </si>
+  <si>
     <t>ed146214-5a40-5419-7770-bdb8f8ef4ae2</t>
   </si>
   <si>
@@ -2117,6 +2264,9 @@
     <t>53</t>
   </si>
   <si>
+    <t>http://tify.sub.uni-goettingen.de/demo.html?manifest=https://archdataset.dl.itc.u-tokyo.ac.jp/manifest/cc0ebcb2-3979-67e7-712b-9e1f2a688361.json</t>
+  </si>
+  <si>
     <t>cc0ebcb2-3979-67e7-712b-9e1f2a688361</t>
   </si>
   <si>
@@ -2159,6 +2309,9 @@
     <t>54</t>
   </si>
   <si>
+    <t>http://tify.sub.uni-goettingen.de/demo.html?manifest=https://archdataset.dl.itc.u-tokyo.ac.jp/manifest/276ad5b5-9b59-9035-1912-c22ddbf56cd5.json</t>
+  </si>
+  <si>
     <t>276ad5b5-9b59-9035-1912-c22ddbf56cd5</t>
   </si>
   <si>
@@ -2198,6 +2351,9 @@
     <t>55</t>
   </si>
   <si>
+    <t>http://tify.sub.uni-goettingen.de/demo.html?manifest=https://archdataset.dl.itc.u-tokyo.ac.jp/manifest/101a903c-9a91-226d-2b7a-f1b5853d1d6d.json</t>
+  </si>
+  <si>
     <t>101a903c-9a91-226d-2b7a-f1b5853d1d6d</t>
   </si>
   <si>
@@ -2237,6 +2393,9 @@
     <t>56</t>
   </si>
   <si>
+    <t>http://tify.sub.uni-goettingen.de/demo.html?manifest=https://archdataset.dl.itc.u-tokyo.ac.jp/manifest/e260ea9c-6ee4-18ef-6895-c2540d0b84d6.json</t>
+  </si>
+  <si>
     <t>e260ea9c-6ee4-18ef-6895-c2540d0b84d6</t>
   </si>
   <si>
@@ -2270,6 +2429,9 @@
     <t>57</t>
   </si>
   <si>
+    <t>http://tify.sub.uni-goettingen.de/demo.html?manifest=https://archdataset.dl.itc.u-tokyo.ac.jp/manifest/720ab3e9-54b3-12b4-50d2-59de91f43e87.json</t>
+  </si>
+  <si>
     <t>720ab3e9-54b3-12b4-50d2-59de91f43e87</t>
   </si>
   <si>
@@ -2306,6 +2468,9 @@
     <t>58</t>
   </si>
   <si>
+    <t>http://tify.sub.uni-goettingen.de/demo.html?manifest=https://archdataset.dl.itc.u-tokyo.ac.jp/manifest/7a2f0687-8592-8cb4-948c-644fae3d0b60.json</t>
+  </si>
+  <si>
     <t>7a2f0687-8592-8cb4-948c-644fae3d0b60</t>
   </si>
   <si>
@@ -2342,6 +2507,9 @@
     <t>59</t>
   </si>
   <si>
+    <t>http://tify.sub.uni-goettingen.de/demo.html?manifest=https://archdataset.dl.itc.u-tokyo.ac.jp/manifest/70e9efdf-16bf-4960-3e2d-9ef9a13a4405.json</t>
+  </si>
+  <si>
     <t>70e9efdf-16bf-4960-3e2d-9ef9a13a4405</t>
   </si>
   <si>
@@ -2369,6 +2537,9 @@
     <t>6</t>
   </si>
   <si>
+    <t>http://tify.sub.uni-goettingen.de/demo.html?manifest=https://archdataset.dl.itc.u-tokyo.ac.jp/manifest/950a3252-4bc7-7baa-40e0-5a15cb5610a8.json</t>
+  </si>
+  <si>
     <t>950a3252-4bc7-7baa-40e0-5a15cb5610a8</t>
   </si>
   <si>
@@ -2396,6 +2567,9 @@
     <t>60</t>
   </si>
   <si>
+    <t>http://tify.sub.uni-goettingen.de/demo.html?manifest=https://archdataset.dl.itc.u-tokyo.ac.jp/manifest/b570aa8c-6e56-92b9-7bc2-67a459cd66df.json</t>
+  </si>
+  <si>
     <t>b570aa8c-6e56-92b9-7bc2-67a459cd66df</t>
   </si>
   <si>
@@ -2432,6 +2606,9 @@
     <t>61</t>
   </si>
   <si>
+    <t>http://tify.sub.uni-goettingen.de/demo.html?manifest=https://archdataset.dl.itc.u-tokyo.ac.jp/manifest/16ea5dcc-3bea-13be-5929-c58d75822997.json</t>
+  </si>
+  <si>
     <t>16ea5dcc-3bea-13be-5929-c58d75822997</t>
   </si>
   <si>
@@ -2474,6 +2651,9 @@
     <t>62</t>
   </si>
   <si>
+    <t>http://tify.sub.uni-goettingen.de/demo.html?manifest=https://archdataset.dl.itc.u-tokyo.ac.jp/manifest/b13ff573-4c25-98fc-43ab-9c85ab1f3a5c.json</t>
+  </si>
+  <si>
     <t>b13ff573-4c25-98fc-43ab-9c85ab1f3a5c</t>
   </si>
   <si>
@@ -2507,6 +2687,9 @@
     <t>63</t>
   </si>
   <si>
+    <t>http://tify.sub.uni-goettingen.de/demo.html?manifest=https://archdataset.dl.itc.u-tokyo.ac.jp/manifest/9301d388-95ee-8b41-1c3c-c2951dae8693.json</t>
+  </si>
+  <si>
     <t>9301d388-95ee-8b41-1c3c-c2951dae8693</t>
   </si>
   <si>
@@ -2549,6 +2732,9 @@
     <t>64</t>
   </si>
   <si>
+    <t>http://tify.sub.uni-goettingen.de/demo.html?manifest=https://archdataset.dl.itc.u-tokyo.ac.jp/manifest/88930f9c-4b42-93fb-73fe-dfd44f8f2460.json</t>
+  </si>
+  <si>
     <t>88930f9c-4b42-93fb-73fe-dfd44f8f2460</t>
   </si>
   <si>
@@ -2585,6 +2771,9 @@
     <t>65</t>
   </si>
   <si>
+    <t>http://tify.sub.uni-goettingen.de/demo.html?manifest=https://archdataset.dl.itc.u-tokyo.ac.jp/manifest/2cb8bbad-724a-20ce-1f72-fd8cc7c436a4.json</t>
+  </si>
+  <si>
     <t>2cb8bbad-724a-20ce-1f72-fd8cc7c436a4</t>
   </si>
   <si>
@@ -2621,6 +2810,9 @@
     <t>66</t>
   </si>
   <si>
+    <t>http://tify.sub.uni-goettingen.de/demo.html?manifest=https://archdataset.dl.itc.u-tokyo.ac.jp/manifest/1354de31-0d49-75ba-a01d-5310be0a0a8d.json</t>
+  </si>
+  <si>
     <t>1354de31-0d49-75ba-a01d-5310be0a0a8d</t>
   </si>
   <si>
@@ -2651,6 +2843,9 @@
     <t>67</t>
   </si>
   <si>
+    <t>http://tify.sub.uni-goettingen.de/demo.html?manifest=https://archdataset.dl.itc.u-tokyo.ac.jp/manifest/01466091-970c-4f8a-2e36-bfb0e88733c8.json</t>
+  </si>
+  <si>
     <t>01466091-970c-4f8a-2e36-bfb0e88733c8</t>
   </si>
   <si>
@@ -2690,6 +2885,9 @@
     <t>68</t>
   </si>
   <si>
+    <t>http://tify.sub.uni-goettingen.de/demo.html?manifest=https://archdataset.dl.itc.u-tokyo.ac.jp/manifest/95db0d93-3107-4491-2084-9b7783f35e28.json</t>
+  </si>
+  <si>
     <t>95db0d93-3107-4491-2084-9b7783f35e28</t>
   </si>
   <si>
@@ -2729,6 +2927,9 @@
     <t>69</t>
   </si>
   <si>
+    <t>http://tify.sub.uni-goettingen.de/demo.html?manifest=https://archdataset.dl.itc.u-tokyo.ac.jp/manifest/d8480473-998e-5d50-41a5-f1464dd215df.json</t>
+  </si>
+  <si>
     <t>d8480473-998e-5d50-41a5-f1464dd215df</t>
   </si>
   <si>
@@ -2762,6 +2963,9 @@
     <t>7</t>
   </si>
   <si>
+    <t>http://tify.sub.uni-goettingen.de/demo.html?manifest=https://archdataset.dl.itc.u-tokyo.ac.jp/manifest/06582fd8-23f9-121f-7314-1fbb0dc1438b.json</t>
+  </si>
+  <si>
     <t>06582fd8-23f9-121f-7314-1fbb0dc1438b</t>
   </si>
   <si>
@@ -2801,6 +3005,9 @@
     <t>8</t>
   </si>
   <si>
+    <t>http://tify.sub.uni-goettingen.de/demo.html?manifest=https://archdataset.dl.itc.u-tokyo.ac.jp/manifest/262f6110-5c5b-09d4-7a28-0c0019fa5a79.json</t>
+  </si>
+  <si>
     <t>262f6110-5c5b-09d4-7a28-0c0019fa5a79</t>
   </si>
   <si>
@@ -2838,6 +3045,9 @@
   </si>
   <si>
     <t>9</t>
+  </si>
+  <si>
+    <t>http://tify.sub.uni-goettingen.de/demo.html?manifest=https://archdataset.dl.itc.u-tokyo.ac.jp/manifest/00e1f95d-5bd4-0b85-403e-b0eb6cd422d4.json</t>
   </si>
   <si>
     <t>00e1f95d-5bd4-0b85-403e-b0eb6cd422d4</t>
@@ -3188,7 +3398,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AB71"/>
+  <dimension ref="A1:AC71"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3196,7 +3406,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:28">
+    <row r="1" spans="1:29">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -3281,43 +3491,46 @@
       <c r="AB1" t="s">
         <v>27</v>
       </c>
+      <c r="AC1" t="s">
+        <v>28</v>
+      </c>
     </row>
-    <row r="2" spans="1:28">
+    <row r="2" spans="1:29">
       <c r="A2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="E2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="F2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="I2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="J2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="K2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="L2" t="s">
-        <v>39</v>
+        <v>11</v>
       </c>
       <c r="M2" t="s">
         <v>40</v>
@@ -3364,4769 +3577,4979 @@
       <c r="AA2" t="s">
         <v>54</v>
       </c>
-      <c r="AB2" t="n">
+      <c r="AB2" t="s">
+        <v>55</v>
+      </c>
+      <c r="AC2" t="n">
         <v>6768</v>
       </c>
     </row>
-    <row r="3" spans="1:28">
+    <row r="3" spans="1:29">
       <c r="A3" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B3" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C3" t="s"/>
       <c r="D3" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="E3" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="F3" t="s"/>
       <c r="G3" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="H3" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="I3" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="J3" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="K3" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="L3" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="M3" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="N3" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="O3" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="P3" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="Q3" t="s">
-        <v>69</v>
-      </c>
-      <c r="R3" t="s"/>
-      <c r="S3" t="s">
         <v>70</v>
       </c>
-      <c r="T3" t="s"/>
-      <c r="U3" t="s">
+      <c r="R3" t="s">
         <v>71</v>
       </c>
-      <c r="V3" t="s"/>
-      <c r="W3" t="s">
+      <c r="S3" t="s"/>
+      <c r="T3" t="s">
         <v>72</v>
       </c>
-      <c r="X3" t="s"/>
+      <c r="U3" t="s"/>
+      <c r="V3" t="s">
+        <v>73</v>
+      </c>
+      <c r="W3" t="s"/>
+      <c r="X3" t="s">
+        <v>74</v>
+      </c>
       <c r="Y3" t="s"/>
       <c r="Z3" t="s"/>
       <c r="AA3" t="s"/>
-      <c r="AB3" t="n">
+      <c r="AB3" t="s"/>
+      <c r="AC3" t="n">
         <v>49</v>
       </c>
     </row>
-    <row r="4" spans="1:28">
+    <row r="4" spans="1:29">
       <c r="A4" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="B4" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="C4" t="s"/>
       <c r="D4" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="E4" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="F4" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="G4" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="H4" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="I4" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="J4" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="K4" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="L4" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="M4" t="s">
-        <v>65</v>
+        <v>86</v>
       </c>
       <c r="N4" t="s">
-        <v>84</v>
+        <v>67</v>
       </c>
       <c r="O4" t="s">
-        <v>67</v>
+        <v>87</v>
       </c>
       <c r="P4" t="s">
-        <v>85</v>
+        <v>69</v>
       </c>
       <c r="Q4" t="s">
-        <v>86</v>
-      </c>
-      <c r="R4" t="s"/>
-      <c r="S4" t="s">
-        <v>70</v>
-      </c>
-      <c r="T4" t="s"/>
-      <c r="U4" t="s">
-        <v>71</v>
-      </c>
-      <c r="V4" t="s"/>
-      <c r="W4" t="s">
-        <v>87</v>
-      </c>
-      <c r="X4" t="s"/>
+        <v>88</v>
+      </c>
+      <c r="R4" t="s">
+        <v>89</v>
+      </c>
+      <c r="S4" t="s"/>
+      <c r="T4" t="s">
+        <v>72</v>
+      </c>
+      <c r="U4" t="s"/>
+      <c r="V4" t="s">
+        <v>73</v>
+      </c>
+      <c r="W4" t="s"/>
+      <c r="X4" t="s">
+        <v>90</v>
+      </c>
       <c r="Y4" t="s"/>
       <c r="Z4" t="s"/>
       <c r="AA4" t="s"/>
-      <c r="AB4" t="n">
+      <c r="AB4" t="s"/>
+      <c r="AC4" t="n">
         <v>99</v>
       </c>
     </row>
-    <row r="5" spans="1:28">
+    <row r="5" spans="1:29">
       <c r="A5" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="B5" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="C5" t="s"/>
       <c r="D5" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="E5" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="F5" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="G5" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="H5" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="I5" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="J5" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="K5" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="L5" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="M5" t="s">
-        <v>65</v>
+        <v>101</v>
       </c>
       <c r="N5" t="s">
-        <v>98</v>
+        <v>67</v>
       </c>
       <c r="O5" t="s">
-        <v>67</v>
+        <v>102</v>
       </c>
       <c r="P5" t="s">
-        <v>99</v>
+        <v>69</v>
       </c>
       <c r="Q5" t="s">
-        <v>100</v>
-      </c>
-      <c r="R5" t="s"/>
-      <c r="S5" t="s">
-        <v>70</v>
-      </c>
-      <c r="T5" t="s"/>
-      <c r="U5" t="s">
-        <v>71</v>
-      </c>
-      <c r="V5" t="s"/>
-      <c r="W5" t="s">
-        <v>101</v>
-      </c>
-      <c r="X5" t="s"/>
+        <v>103</v>
+      </c>
+      <c r="R5" t="s">
+        <v>104</v>
+      </c>
+      <c r="S5" t="s"/>
+      <c r="T5" t="s">
+        <v>72</v>
+      </c>
+      <c r="U5" t="s"/>
+      <c r="V5" t="s">
+        <v>73</v>
+      </c>
+      <c r="W5" t="s"/>
+      <c r="X5" t="s">
+        <v>105</v>
+      </c>
       <c r="Y5" t="s"/>
       <c r="Z5" t="s"/>
       <c r="AA5" t="s"/>
-      <c r="AB5" t="n">
+      <c r="AB5" t="s"/>
+      <c r="AC5" t="n">
         <v>77</v>
       </c>
     </row>
-    <row r="6" spans="1:28">
+    <row r="6" spans="1:29">
       <c r="A6" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="B6" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="C6" t="s"/>
       <c r="D6" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="E6" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="F6" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="G6" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="H6" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="I6" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="J6" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="K6" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="L6" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="M6" t="s">
-        <v>65</v>
+        <v>115</v>
       </c>
       <c r="N6" t="s">
-        <v>111</v>
+        <v>67</v>
       </c>
       <c r="O6" t="s">
-        <v>67</v>
+        <v>116</v>
       </c>
       <c r="P6" t="s">
-        <v>112</v>
+        <v>69</v>
       </c>
       <c r="Q6" t="s">
-        <v>113</v>
-      </c>
-      <c r="R6" t="s"/>
-      <c r="S6" t="s">
-        <v>70</v>
-      </c>
-      <c r="T6" t="s"/>
-      <c r="U6" t="s">
-        <v>71</v>
-      </c>
-      <c r="V6" t="s"/>
-      <c r="W6" t="s">
-        <v>114</v>
-      </c>
-      <c r="X6" t="s"/>
+        <v>117</v>
+      </c>
+      <c r="R6" t="s">
+        <v>118</v>
+      </c>
+      <c r="S6" t="s"/>
+      <c r="T6" t="s">
+        <v>72</v>
+      </c>
+      <c r="U6" t="s"/>
+      <c r="V6" t="s">
+        <v>73</v>
+      </c>
+      <c r="W6" t="s"/>
+      <c r="X6" t="s">
+        <v>119</v>
+      </c>
       <c r="Y6" t="s"/>
       <c r="Z6" t="s"/>
       <c r="AA6" t="s"/>
-      <c r="AB6" t="n">
+      <c r="AB6" t="s"/>
+      <c r="AC6" t="n">
         <v>208</v>
       </c>
     </row>
-    <row r="7" spans="1:28">
+    <row r="7" spans="1:29">
       <c r="A7" t="s">
-        <v>115</v>
+        <v>120</v>
       </c>
       <c r="B7" t="s">
-        <v>116</v>
+        <v>121</v>
       </c>
       <c r="C7" t="s"/>
       <c r="D7" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="E7" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="F7" t="s">
-        <v>117</v>
+        <v>122</v>
       </c>
       <c r="G7" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="H7" t="s">
-        <v>118</v>
+        <v>123</v>
       </c>
       <c r="I7" t="s">
-        <v>119</v>
+        <v>124</v>
       </c>
       <c r="J7" t="s">
-        <v>120</v>
+        <v>125</v>
       </c>
       <c r="K7" t="s">
-        <v>121</v>
+        <v>126</v>
       </c>
       <c r="L7" t="s">
-        <v>122</v>
+        <v>127</v>
       </c>
       <c r="M7" t="s">
-        <v>65</v>
+        <v>128</v>
       </c>
       <c r="N7" t="s">
-        <v>123</v>
+        <v>67</v>
       </c>
       <c r="O7" t="s">
-        <v>67</v>
+        <v>129</v>
       </c>
       <c r="P7" t="s">
-        <v>124</v>
+        <v>69</v>
       </c>
       <c r="Q7" t="s">
-        <v>125</v>
-      </c>
-      <c r="R7" t="s"/>
-      <c r="S7" t="s">
-        <v>70</v>
-      </c>
-      <c r="T7" t="s"/>
-      <c r="U7" t="s">
-        <v>71</v>
-      </c>
-      <c r="V7" t="s"/>
-      <c r="W7" t="s">
-        <v>126</v>
-      </c>
-      <c r="X7" t="s"/>
+        <v>130</v>
+      </c>
+      <c r="R7" t="s">
+        <v>131</v>
+      </c>
+      <c r="S7" t="s"/>
+      <c r="T7" t="s">
+        <v>72</v>
+      </c>
+      <c r="U7" t="s"/>
+      <c r="V7" t="s">
+        <v>73</v>
+      </c>
+      <c r="W7" t="s"/>
+      <c r="X7" t="s">
+        <v>132</v>
+      </c>
       <c r="Y7" t="s"/>
       <c r="Z7" t="s"/>
       <c r="AA7" t="s"/>
-      <c r="AB7" t="n">
+      <c r="AB7" t="s"/>
+      <c r="AC7" t="n">
         <v>33</v>
       </c>
     </row>
-    <row r="8" spans="1:28">
+    <row r="8" spans="1:29">
       <c r="A8" t="s">
-        <v>127</v>
+        <v>133</v>
       </c>
       <c r="B8" t="s">
-        <v>128</v>
+        <v>134</v>
       </c>
       <c r="C8" t="s"/>
       <c r="D8" t="s">
-        <v>129</v>
+        <v>135</v>
       </c>
       <c r="E8" t="s">
-        <v>130</v>
+        <v>136</v>
       </c>
       <c r="F8" t="s">
-        <v>131</v>
+        <v>137</v>
       </c>
       <c r="G8" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="H8" t="s">
-        <v>132</v>
+        <v>138</v>
       </c>
       <c r="I8" t="s">
-        <v>133</v>
+        <v>139</v>
       </c>
       <c r="J8" t="s">
-        <v>134</v>
+        <v>140</v>
       </c>
       <c r="K8" t="s">
-        <v>135</v>
+        <v>141</v>
       </c>
       <c r="L8" t="s">
-        <v>136</v>
+        <v>142</v>
       </c>
       <c r="M8" t="s">
-        <v>65</v>
+        <v>143</v>
       </c>
       <c r="N8" t="s">
-        <v>137</v>
+        <v>67</v>
       </c>
       <c r="O8" t="s">
-        <v>67</v>
+        <v>144</v>
       </c>
       <c r="P8" t="s">
-        <v>138</v>
+        <v>69</v>
       </c>
       <c r="Q8" t="s">
-        <v>139</v>
-      </c>
-      <c r="R8" t="s"/>
-      <c r="S8" t="s">
-        <v>70</v>
-      </c>
-      <c r="T8" t="s"/>
-      <c r="U8" t="s">
-        <v>71</v>
-      </c>
-      <c r="V8" t="s"/>
-      <c r="W8" t="s">
-        <v>140</v>
-      </c>
-      <c r="X8" t="s"/>
+        <v>145</v>
+      </c>
+      <c r="R8" t="s">
+        <v>146</v>
+      </c>
+      <c r="S8" t="s"/>
+      <c r="T8" t="s">
+        <v>72</v>
+      </c>
+      <c r="U8" t="s"/>
+      <c r="V8" t="s">
+        <v>73</v>
+      </c>
+      <c r="W8" t="s"/>
+      <c r="X8" t="s">
+        <v>147</v>
+      </c>
       <c r="Y8" t="s"/>
       <c r="Z8" t="s"/>
       <c r="AA8" t="s"/>
-      <c r="AB8" t="n">
+      <c r="AB8" t="s"/>
+      <c r="AC8" t="n">
         <v>202</v>
       </c>
     </row>
-    <row r="9" spans="1:28">
+    <row r="9" spans="1:29">
       <c r="A9" t="s">
-        <v>141</v>
+        <v>148</v>
       </c>
       <c r="B9" t="s">
-        <v>142</v>
+        <v>149</v>
       </c>
       <c r="C9" t="s"/>
       <c r="D9" t="s">
-        <v>143</v>
+        <v>150</v>
       </c>
       <c r="E9" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="F9" t="s">
-        <v>144</v>
+        <v>151</v>
       </c>
       <c r="G9" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="H9" t="s">
-        <v>145</v>
+        <v>152</v>
       </c>
       <c r="I9" t="s">
-        <v>146</v>
+        <v>153</v>
       </c>
       <c r="J9" t="s">
-        <v>147</v>
+        <v>154</v>
       </c>
       <c r="K9" t="s">
-        <v>148</v>
+        <v>155</v>
       </c>
       <c r="L9" t="s">
-        <v>149</v>
+        <v>156</v>
       </c>
       <c r="M9" t="s">
-        <v>65</v>
+        <v>157</v>
       </c>
       <c r="N9" t="s">
-        <v>150</v>
+        <v>67</v>
       </c>
       <c r="O9" t="s">
-        <v>67</v>
+        <v>158</v>
       </c>
       <c r="P9" t="s">
-        <v>151</v>
+        <v>69</v>
       </c>
       <c r="Q9" t="s">
-        <v>152</v>
-      </c>
-      <c r="R9" t="s"/>
-      <c r="S9" t="s">
-        <v>70</v>
-      </c>
-      <c r="T9" t="s"/>
-      <c r="U9" t="s">
-        <v>71</v>
-      </c>
-      <c r="V9" t="s"/>
-      <c r="W9" t="s">
-        <v>153</v>
-      </c>
-      <c r="X9" t="s"/>
+        <v>159</v>
+      </c>
+      <c r="R9" t="s">
+        <v>160</v>
+      </c>
+      <c r="S9" t="s"/>
+      <c r="T9" t="s">
+        <v>72</v>
+      </c>
+      <c r="U9" t="s"/>
+      <c r="V9" t="s">
+        <v>73</v>
+      </c>
+      <c r="W9" t="s"/>
+      <c r="X9" t="s">
+        <v>161</v>
+      </c>
       <c r="Y9" t="s"/>
       <c r="Z9" t="s"/>
       <c r="AA9" t="s"/>
-      <c r="AB9" t="n">
+      <c r="AB9" t="s"/>
+      <c r="AC9" t="n">
         <v>24</v>
       </c>
     </row>
-    <row r="10" spans="1:28">
+    <row r="10" spans="1:29">
       <c r="A10" t="s">
-        <v>154</v>
+        <v>162</v>
       </c>
       <c r="B10" t="s">
-        <v>155</v>
+        <v>163</v>
       </c>
       <c r="C10" t="s"/>
       <c r="D10" t="s">
-        <v>156</v>
+        <v>164</v>
       </c>
       <c r="E10" t="s">
-        <v>157</v>
+        <v>165</v>
       </c>
       <c r="F10" t="s">
-        <v>158</v>
+        <v>166</v>
       </c>
       <c r="G10" t="s">
-        <v>159</v>
+        <v>167</v>
       </c>
       <c r="H10" t="s">
-        <v>160</v>
+        <v>168</v>
       </c>
       <c r="I10" t="s">
-        <v>161</v>
+        <v>169</v>
       </c>
       <c r="J10" t="s">
-        <v>162</v>
+        <v>170</v>
       </c>
       <c r="K10" t="s">
-        <v>163</v>
+        <v>171</v>
       </c>
       <c r="L10" t="s">
-        <v>164</v>
+        <v>172</v>
       </c>
       <c r="M10" t="s">
-        <v>65</v>
+        <v>173</v>
       </c>
       <c r="N10" t="s">
-        <v>165</v>
+        <v>67</v>
       </c>
       <c r="O10" t="s">
-        <v>67</v>
+        <v>174</v>
       </c>
       <c r="P10" t="s">
-        <v>166</v>
+        <v>69</v>
       </c>
       <c r="Q10" t="s">
-        <v>167</v>
-      </c>
-      <c r="R10" t="s"/>
-      <c r="S10" t="s">
-        <v>70</v>
-      </c>
-      <c r="T10" t="s"/>
-      <c r="U10" t="s">
-        <v>71</v>
-      </c>
-      <c r="V10" t="s"/>
-      <c r="W10" t="s">
-        <v>168</v>
-      </c>
-      <c r="X10" t="s"/>
+        <v>175</v>
+      </c>
+      <c r="R10" t="s">
+        <v>176</v>
+      </c>
+      <c r="S10" t="s"/>
+      <c r="T10" t="s">
+        <v>72</v>
+      </c>
+      <c r="U10" t="s"/>
+      <c r="V10" t="s">
+        <v>73</v>
+      </c>
+      <c r="W10" t="s"/>
+      <c r="X10" t="s">
+        <v>177</v>
+      </c>
       <c r="Y10" t="s"/>
       <c r="Z10" t="s"/>
       <c r="AA10" t="s"/>
-      <c r="AB10" t="n">
+      <c r="AB10" t="s"/>
+      <c r="AC10" t="n">
         <v>8</v>
       </c>
     </row>
-    <row r="11" spans="1:28">
+    <row r="11" spans="1:29">
       <c r="A11" t="s">
-        <v>169</v>
+        <v>178</v>
       </c>
       <c r="B11" t="s">
-        <v>170</v>
+        <v>179</v>
       </c>
       <c r="C11" t="s"/>
       <c r="D11" t="s"/>
       <c r="E11" t="s">
-        <v>171</v>
+        <v>180</v>
       </c>
       <c r="F11" t="s"/>
       <c r="G11" t="s">
-        <v>172</v>
+        <v>181</v>
       </c>
       <c r="H11" t="s">
-        <v>173</v>
+        <v>182</v>
       </c>
       <c r="I11" t="s">
-        <v>174</v>
+        <v>183</v>
       </c>
       <c r="J11" t="s">
-        <v>175</v>
+        <v>184</v>
       </c>
       <c r="K11" t="s">
-        <v>176</v>
+        <v>185</v>
       </c>
       <c r="L11" t="s">
-        <v>177</v>
+        <v>186</v>
       </c>
       <c r="M11" t="s">
-        <v>65</v>
+        <v>187</v>
       </c>
       <c r="N11" t="s">
-        <v>178</v>
+        <v>67</v>
       </c>
       <c r="O11" t="s">
-        <v>67</v>
+        <v>188</v>
       </c>
       <c r="P11" t="s">
-        <v>179</v>
+        <v>69</v>
       </c>
       <c r="Q11" t="s">
-        <v>180</v>
-      </c>
-      <c r="R11" t="s"/>
-      <c r="S11" t="s">
-        <v>70</v>
-      </c>
-      <c r="T11" t="s"/>
-      <c r="U11" t="s">
-        <v>71</v>
-      </c>
-      <c r="V11" t="s"/>
-      <c r="W11" t="s">
-        <v>181</v>
-      </c>
-      <c r="X11" t="s"/>
+        <v>189</v>
+      </c>
+      <c r="R11" t="s">
+        <v>190</v>
+      </c>
+      <c r="S11" t="s"/>
+      <c r="T11" t="s">
+        <v>72</v>
+      </c>
+      <c r="U11" t="s"/>
+      <c r="V11" t="s">
+        <v>73</v>
+      </c>
+      <c r="W11" t="s"/>
+      <c r="X11" t="s">
+        <v>191</v>
+      </c>
       <c r="Y11" t="s"/>
       <c r="Z11" t="s"/>
       <c r="AA11" t="s"/>
-      <c r="AB11" t="n">
+      <c r="AB11" t="s"/>
+      <c r="AC11" t="n">
         <v>152</v>
       </c>
     </row>
-    <row r="12" spans="1:28">
+    <row r="12" spans="1:29">
       <c r="A12" t="s">
-        <v>182</v>
+        <v>192</v>
       </c>
       <c r="B12" t="s">
-        <v>183</v>
+        <v>193</v>
       </c>
       <c r="C12" t="s"/>
       <c r="D12" t="s"/>
       <c r="E12" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="F12" t="s"/>
       <c r="G12" t="s">
-        <v>184</v>
+        <v>194</v>
       </c>
       <c r="H12" t="s">
-        <v>185</v>
+        <v>195</v>
       </c>
       <c r="I12" t="s">
-        <v>186</v>
+        <v>196</v>
       </c>
       <c r="J12" t="s">
-        <v>162</v>
+        <v>170</v>
       </c>
       <c r="K12" t="s">
-        <v>187</v>
+        <v>197</v>
       </c>
       <c r="L12" t="s">
-        <v>188</v>
+        <v>198</v>
       </c>
       <c r="M12" t="s">
-        <v>65</v>
+        <v>199</v>
       </c>
       <c r="N12" t="s">
-        <v>189</v>
+        <v>67</v>
       </c>
       <c r="O12" t="s">
-        <v>67</v>
+        <v>200</v>
       </c>
       <c r="P12" t="s">
-        <v>190</v>
+        <v>69</v>
       </c>
       <c r="Q12" t="s">
-        <v>191</v>
-      </c>
-      <c r="R12" t="s"/>
-      <c r="S12" t="s">
-        <v>70</v>
-      </c>
-      <c r="T12" t="s"/>
-      <c r="U12" t="s">
-        <v>71</v>
-      </c>
-      <c r="V12" t="s"/>
-      <c r="W12" t="s">
-        <v>192</v>
-      </c>
-      <c r="X12" t="s"/>
+        <v>201</v>
+      </c>
+      <c r="R12" t="s">
+        <v>202</v>
+      </c>
+      <c r="S12" t="s"/>
+      <c r="T12" t="s">
+        <v>72</v>
+      </c>
+      <c r="U12" t="s"/>
+      <c r="V12" t="s">
+        <v>73</v>
+      </c>
+      <c r="W12" t="s"/>
+      <c r="X12" t="s">
+        <v>203</v>
+      </c>
       <c r="Y12" t="s"/>
       <c r="Z12" t="s"/>
       <c r="AA12" t="s"/>
-      <c r="AB12" t="n">
+      <c r="AB12" t="s"/>
+      <c r="AC12" t="n">
         <v>105</v>
       </c>
     </row>
-    <row r="13" spans="1:28">
+    <row r="13" spans="1:29">
       <c r="A13" t="s">
-        <v>193</v>
+        <v>204</v>
       </c>
       <c r="B13" t="s">
-        <v>194</v>
+        <v>205</v>
       </c>
       <c r="C13" t="s"/>
       <c r="D13" t="s">
-        <v>195</v>
+        <v>206</v>
       </c>
       <c r="E13" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="F13" t="s">
-        <v>196</v>
+        <v>207</v>
       </c>
       <c r="G13" t="s">
-        <v>197</v>
+        <v>208</v>
       </c>
       <c r="H13" t="s">
-        <v>198</v>
+        <v>209</v>
       </c>
       <c r="I13" t="s">
-        <v>199</v>
+        <v>210</v>
       </c>
       <c r="J13" t="s">
-        <v>200</v>
+        <v>211</v>
       </c>
       <c r="K13" t="s">
-        <v>201</v>
+        <v>212</v>
       </c>
       <c r="L13" t="s">
-        <v>202</v>
+        <v>213</v>
       </c>
       <c r="M13" t="s">
-        <v>65</v>
+        <v>214</v>
       </c>
       <c r="N13" t="s">
-        <v>203</v>
+        <v>67</v>
       </c>
       <c r="O13" t="s">
-        <v>67</v>
+        <v>215</v>
       </c>
       <c r="P13" t="s">
-        <v>204</v>
+        <v>69</v>
       </c>
       <c r="Q13" t="s">
-        <v>205</v>
-      </c>
-      <c r="R13" t="s"/>
-      <c r="S13" t="s">
-        <v>70</v>
-      </c>
-      <c r="T13" t="s"/>
-      <c r="U13" t="s">
-        <v>71</v>
-      </c>
-      <c r="V13" t="s"/>
-      <c r="W13" t="s">
-        <v>206</v>
-      </c>
-      <c r="X13" t="s"/>
+        <v>216</v>
+      </c>
+      <c r="R13" t="s">
+        <v>217</v>
+      </c>
+      <c r="S13" t="s"/>
+      <c r="T13" t="s">
+        <v>72</v>
+      </c>
+      <c r="U13" t="s"/>
+      <c r="V13" t="s">
+        <v>73</v>
+      </c>
+      <c r="W13" t="s"/>
+      <c r="X13" t="s">
+        <v>218</v>
+      </c>
       <c r="Y13" t="s"/>
       <c r="Z13" t="s"/>
       <c r="AA13" t="s"/>
-      <c r="AB13" t="n">
+      <c r="AB13" t="s"/>
+      <c r="AC13" t="n">
         <v>10</v>
       </c>
     </row>
-    <row r="14" spans="1:28">
+    <row r="14" spans="1:29">
       <c r="A14" t="s">
-        <v>207</v>
+        <v>219</v>
       </c>
       <c r="B14" t="s">
-        <v>208</v>
+        <v>220</v>
       </c>
       <c r="C14" t="s">
-        <v>209</v>
+        <v>221</v>
       </c>
       <c r="D14" t="s">
-        <v>210</v>
+        <v>222</v>
       </c>
       <c r="E14" t="s">
-        <v>211</v>
+        <v>223</v>
       </c>
       <c r="F14" t="s">
-        <v>212</v>
+        <v>224</v>
       </c>
       <c r="G14" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="H14" t="s">
-        <v>213</v>
+        <v>225</v>
       </c>
       <c r="I14" t="s">
-        <v>214</v>
+        <v>226</v>
       </c>
       <c r="J14" t="s">
-        <v>215</v>
+        <v>227</v>
       </c>
       <c r="K14" t="s">
-        <v>216</v>
+        <v>228</v>
       </c>
       <c r="L14" t="s">
-        <v>217</v>
+        <v>229</v>
       </c>
       <c r="M14" t="s">
-        <v>65</v>
+        <v>230</v>
       </c>
       <c r="N14" t="s">
-        <v>218</v>
+        <v>67</v>
       </c>
       <c r="O14" t="s">
-        <v>67</v>
+        <v>231</v>
       </c>
       <c r="P14" t="s">
-        <v>219</v>
+        <v>69</v>
       </c>
       <c r="Q14" t="s">
-        <v>220</v>
-      </c>
-      <c r="R14" t="s"/>
-      <c r="S14" t="s">
-        <v>70</v>
-      </c>
-      <c r="T14" t="s"/>
-      <c r="U14" t="s">
-        <v>71</v>
-      </c>
-      <c r="V14" t="s"/>
-      <c r="W14" t="s">
-        <v>221</v>
-      </c>
-      <c r="X14" t="s"/>
+        <v>232</v>
+      </c>
+      <c r="R14" t="s">
+        <v>233</v>
+      </c>
+      <c r="S14" t="s"/>
+      <c r="T14" t="s">
+        <v>72</v>
+      </c>
+      <c r="U14" t="s"/>
+      <c r="V14" t="s">
+        <v>73</v>
+      </c>
+      <c r="W14" t="s"/>
+      <c r="X14" t="s">
+        <v>234</v>
+      </c>
       <c r="Y14" t="s"/>
       <c r="Z14" t="s"/>
       <c r="AA14" t="s"/>
-      <c r="AB14" t="n">
+      <c r="AB14" t="s"/>
+      <c r="AC14" t="n">
         <v>46</v>
       </c>
     </row>
-    <row r="15" spans="1:28">
+    <row r="15" spans="1:29">
       <c r="A15" t="s">
-        <v>222</v>
+        <v>235</v>
       </c>
       <c r="B15" t="s">
-        <v>223</v>
+        <v>236</v>
       </c>
       <c r="C15" t="s"/>
       <c r="D15" t="s">
-        <v>224</v>
+        <v>237</v>
       </c>
       <c r="E15" t="s">
-        <v>225</v>
+        <v>238</v>
       </c>
       <c r="F15" t="s">
-        <v>226</v>
+        <v>239</v>
       </c>
       <c r="G15" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="H15" t="s">
-        <v>227</v>
+        <v>240</v>
       </c>
       <c r="I15" t="s">
-        <v>228</v>
+        <v>241</v>
       </c>
       <c r="J15" t="s">
-        <v>229</v>
+        <v>242</v>
       </c>
       <c r="K15" t="s">
-        <v>230</v>
+        <v>243</v>
       </c>
       <c r="L15" t="s">
-        <v>231</v>
+        <v>244</v>
       </c>
       <c r="M15" t="s">
-        <v>65</v>
+        <v>245</v>
       </c>
       <c r="N15" t="s">
-        <v>232</v>
+        <v>67</v>
       </c>
       <c r="O15" t="s">
-        <v>67</v>
+        <v>246</v>
       </c>
       <c r="P15" t="s">
-        <v>233</v>
+        <v>69</v>
       </c>
       <c r="Q15" t="s">
-        <v>234</v>
-      </c>
-      <c r="R15" t="s"/>
-      <c r="S15" t="s">
-        <v>70</v>
-      </c>
-      <c r="T15" t="s"/>
-      <c r="U15" t="s">
-        <v>71</v>
-      </c>
-      <c r="V15" t="s"/>
-      <c r="W15" t="s">
-        <v>235</v>
-      </c>
-      <c r="X15" t="s"/>
+        <v>247</v>
+      </c>
+      <c r="R15" t="s">
+        <v>248</v>
+      </c>
+      <c r="S15" t="s"/>
+      <c r="T15" t="s">
+        <v>72</v>
+      </c>
+      <c r="U15" t="s"/>
+      <c r="V15" t="s">
+        <v>73</v>
+      </c>
+      <c r="W15" t="s"/>
+      <c r="X15" t="s">
+        <v>249</v>
+      </c>
       <c r="Y15" t="s"/>
       <c r="Z15" t="s"/>
       <c r="AA15" t="s"/>
-      <c r="AB15" t="n">
+      <c r="AB15" t="s"/>
+      <c r="AC15" t="n">
         <v>145</v>
       </c>
     </row>
-    <row r="16" spans="1:28">
+    <row r="16" spans="1:29">
       <c r="A16" t="s">
-        <v>236</v>
+        <v>250</v>
       </c>
       <c r="B16" t="s">
-        <v>237</v>
+        <v>251</v>
       </c>
       <c r="C16" t="s"/>
       <c r="D16" t="s">
-        <v>238</v>
+        <v>252</v>
       </c>
       <c r="E16" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="F16" t="s"/>
       <c r="G16" t="s">
-        <v>239</v>
+        <v>253</v>
       </c>
       <c r="H16" t="s">
-        <v>240</v>
+        <v>254</v>
       </c>
       <c r="I16" t="s">
-        <v>241</v>
+        <v>255</v>
       </c>
       <c r="J16" t="s">
-        <v>242</v>
+        <v>256</v>
       </c>
       <c r="K16" t="s">
-        <v>243</v>
+        <v>257</v>
       </c>
       <c r="L16" t="s">
-        <v>244</v>
+        <v>258</v>
       </c>
       <c r="M16" t="s">
-        <v>65</v>
+        <v>259</v>
       </c>
       <c r="N16" t="s">
-        <v>245</v>
+        <v>67</v>
       </c>
       <c r="O16" t="s">
-        <v>67</v>
+        <v>260</v>
       </c>
       <c r="P16" t="s">
-        <v>246</v>
+        <v>69</v>
       </c>
       <c r="Q16" t="s">
-        <v>247</v>
-      </c>
-      <c r="R16" t="s"/>
-      <c r="S16" t="s">
-        <v>70</v>
-      </c>
-      <c r="T16" t="s"/>
-      <c r="U16" t="s">
-        <v>71</v>
-      </c>
-      <c r="V16" t="s"/>
-      <c r="W16" t="s">
-        <v>248</v>
-      </c>
-      <c r="X16" t="s"/>
+        <v>261</v>
+      </c>
+      <c r="R16" t="s">
+        <v>262</v>
+      </c>
+      <c r="S16" t="s"/>
+      <c r="T16" t="s">
+        <v>72</v>
+      </c>
+      <c r="U16" t="s"/>
+      <c r="V16" t="s">
+        <v>73</v>
+      </c>
+      <c r="W16" t="s"/>
+      <c r="X16" t="s">
+        <v>263</v>
+      </c>
       <c r="Y16" t="s"/>
       <c r="Z16" t="s"/>
       <c r="AA16" t="s"/>
-      <c r="AB16" t="n">
+      <c r="AB16" t="s"/>
+      <c r="AC16" t="n">
         <v>257</v>
       </c>
     </row>
-    <row r="17" spans="1:28">
+    <row r="17" spans="1:29">
       <c r="A17" t="s">
-        <v>249</v>
+        <v>264</v>
       </c>
       <c r="B17" t="s">
-        <v>250</v>
+        <v>265</v>
       </c>
       <c r="C17" t="s"/>
       <c r="D17" t="s"/>
       <c r="E17" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="F17" t="s"/>
       <c r="G17" t="s">
-        <v>251</v>
+        <v>266</v>
       </c>
       <c r="H17" t="s">
-        <v>252</v>
+        <v>267</v>
       </c>
       <c r="I17" t="s">
-        <v>253</v>
+        <v>268</v>
       </c>
       <c r="J17" t="s">
-        <v>254</v>
+        <v>269</v>
       </c>
       <c r="K17" t="s">
-        <v>255</v>
+        <v>270</v>
       </c>
       <c r="L17" t="s">
-        <v>256</v>
+        <v>271</v>
       </c>
       <c r="M17" t="s">
-        <v>65</v>
+        <v>272</v>
       </c>
       <c r="N17" t="s">
-        <v>257</v>
+        <v>67</v>
       </c>
       <c r="O17" t="s">
-        <v>67</v>
+        <v>273</v>
       </c>
       <c r="P17" t="s">
-        <v>258</v>
+        <v>69</v>
       </c>
       <c r="Q17" t="s">
-        <v>259</v>
-      </c>
-      <c r="R17" t="s"/>
-      <c r="S17" t="s">
-        <v>70</v>
-      </c>
-      <c r="T17" t="s"/>
-      <c r="U17" t="s">
-        <v>71</v>
-      </c>
-      <c r="V17" t="s"/>
-      <c r="W17" t="s">
-        <v>260</v>
-      </c>
-      <c r="X17" t="s"/>
+        <v>274</v>
+      </c>
+      <c r="R17" t="s">
+        <v>275</v>
+      </c>
+      <c r="S17" t="s"/>
+      <c r="T17" t="s">
+        <v>72</v>
+      </c>
+      <c r="U17" t="s"/>
+      <c r="V17" t="s">
+        <v>73</v>
+      </c>
+      <c r="W17" t="s"/>
+      <c r="X17" t="s">
+        <v>276</v>
+      </c>
       <c r="Y17" t="s"/>
       <c r="Z17" t="s"/>
       <c r="AA17" t="s"/>
-      <c r="AB17" t="n">
+      <c r="AB17" t="s"/>
+      <c r="AC17" t="n">
         <v>13</v>
       </c>
     </row>
-    <row r="18" spans="1:28">
+    <row r="18" spans="1:29">
       <c r="A18" t="s">
-        <v>261</v>
+        <v>277</v>
       </c>
       <c r="B18" t="s">
-        <v>262</v>
+        <v>278</v>
       </c>
       <c r="C18" t="s"/>
       <c r="D18" t="s"/>
       <c r="E18" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="F18" t="s">
-        <v>263</v>
+        <v>279</v>
       </c>
       <c r="G18" t="s">
-        <v>251</v>
+        <v>266</v>
       </c>
       <c r="H18" t="s">
-        <v>264</v>
+        <v>280</v>
       </c>
       <c r="I18" t="s">
-        <v>265</v>
+        <v>281</v>
       </c>
       <c r="J18" t="s">
-        <v>254</v>
+        <v>269</v>
       </c>
       <c r="K18" t="s">
-        <v>266</v>
+        <v>282</v>
       </c>
       <c r="L18" t="s">
-        <v>267</v>
+        <v>283</v>
       </c>
       <c r="M18" t="s">
-        <v>65</v>
+        <v>284</v>
       </c>
       <c r="N18" t="s">
-        <v>268</v>
+        <v>67</v>
       </c>
       <c r="O18" t="s">
-        <v>67</v>
+        <v>285</v>
       </c>
       <c r="P18" t="s">
-        <v>269</v>
+        <v>69</v>
       </c>
       <c r="Q18" t="s">
-        <v>270</v>
-      </c>
-      <c r="R18" t="s"/>
-      <c r="S18" t="s">
-        <v>70</v>
-      </c>
-      <c r="T18" t="s"/>
-      <c r="U18" t="s">
-        <v>71</v>
-      </c>
-      <c r="V18" t="s"/>
-      <c r="W18" t="s">
-        <v>271</v>
-      </c>
-      <c r="X18" t="s"/>
+        <v>286</v>
+      </c>
+      <c r="R18" t="s">
+        <v>287</v>
+      </c>
+      <c r="S18" t="s"/>
+      <c r="T18" t="s">
+        <v>72</v>
+      </c>
+      <c r="U18" t="s"/>
+      <c r="V18" t="s">
+        <v>73</v>
+      </c>
+      <c r="W18" t="s"/>
+      <c r="X18" t="s">
+        <v>288</v>
+      </c>
       <c r="Y18" t="s"/>
       <c r="Z18" t="s"/>
       <c r="AA18" t="s"/>
-      <c r="AB18" t="n">
+      <c r="AB18" t="s"/>
+      <c r="AC18" t="n">
         <v>68</v>
       </c>
     </row>
-    <row r="19" spans="1:28">
+    <row r="19" spans="1:29">
       <c r="A19" t="s">
-        <v>272</v>
+        <v>289</v>
       </c>
       <c r="B19" t="s">
-        <v>273</v>
+        <v>290</v>
       </c>
       <c r="C19" t="s"/>
       <c r="D19" t="s">
-        <v>274</v>
+        <v>291</v>
       </c>
       <c r="E19" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="F19" t="s"/>
       <c r="G19" t="s">
-        <v>159</v>
+        <v>167</v>
       </c>
       <c r="H19" t="s">
-        <v>275</v>
+        <v>292</v>
       </c>
       <c r="I19" t="s">
-        <v>276</v>
+        <v>293</v>
       </c>
       <c r="J19" t="s">
-        <v>277</v>
+        <v>294</v>
       </c>
       <c r="K19" t="s">
-        <v>278</v>
+        <v>295</v>
       </c>
       <c r="L19" t="s">
-        <v>279</v>
+        <v>296</v>
       </c>
       <c r="M19" t="s">
-        <v>65</v>
+        <v>297</v>
       </c>
       <c r="N19" t="s">
-        <v>280</v>
+        <v>67</v>
       </c>
       <c r="O19" t="s">
-        <v>67</v>
+        <v>298</v>
       </c>
       <c r="P19" t="s">
-        <v>281</v>
+        <v>69</v>
       </c>
       <c r="Q19" t="s">
-        <v>282</v>
-      </c>
-      <c r="R19" t="s"/>
-      <c r="S19" t="s">
-        <v>70</v>
-      </c>
-      <c r="T19" t="s"/>
-      <c r="U19" t="s">
-        <v>71</v>
-      </c>
-      <c r="V19" t="s"/>
-      <c r="W19" t="s">
-        <v>283</v>
-      </c>
-      <c r="X19" t="s"/>
+        <v>299</v>
+      </c>
+      <c r="R19" t="s">
+        <v>300</v>
+      </c>
+      <c r="S19" t="s"/>
+      <c r="T19" t="s">
+        <v>72</v>
+      </c>
+      <c r="U19" t="s"/>
+      <c r="V19" t="s">
+        <v>73</v>
+      </c>
+      <c r="W19" t="s"/>
+      <c r="X19" t="s">
+        <v>301</v>
+      </c>
       <c r="Y19" t="s"/>
       <c r="Z19" t="s"/>
       <c r="AA19" t="s"/>
-      <c r="AB19" t="n">
+      <c r="AB19" t="s"/>
+      <c r="AC19" t="n">
         <v>69</v>
       </c>
     </row>
-    <row r="20" spans="1:28">
+    <row r="20" spans="1:29">
       <c r="A20" t="s">
-        <v>284</v>
+        <v>302</v>
       </c>
       <c r="B20" t="s">
-        <v>285</v>
+        <v>303</v>
       </c>
       <c r="C20" t="s">
-        <v>286</v>
+        <v>304</v>
       </c>
       <c r="D20" t="s"/>
       <c r="E20" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="F20" t="s"/>
       <c r="G20" t="s">
-        <v>251</v>
+        <v>266</v>
       </c>
       <c r="H20" t="s">
-        <v>287</v>
+        <v>305</v>
       </c>
       <c r="I20" t="s">
-        <v>288</v>
+        <v>306</v>
       </c>
       <c r="J20" t="s">
-        <v>289</v>
+        <v>307</v>
       </c>
       <c r="K20" t="s">
-        <v>290</v>
+        <v>308</v>
       </c>
       <c r="L20" t="s">
-        <v>291</v>
+        <v>309</v>
       </c>
       <c r="M20" t="s">
-        <v>65</v>
+        <v>310</v>
       </c>
       <c r="N20" t="s">
-        <v>292</v>
+        <v>67</v>
       </c>
       <c r="O20" t="s">
-        <v>67</v>
+        <v>311</v>
       </c>
       <c r="P20" t="s">
-        <v>293</v>
+        <v>69</v>
       </c>
       <c r="Q20" t="s">
-        <v>294</v>
-      </c>
-      <c r="R20" t="s"/>
-      <c r="S20" t="s">
-        <v>70</v>
-      </c>
-      <c r="T20" t="s"/>
-      <c r="U20" t="s">
-        <v>71</v>
-      </c>
-      <c r="V20" t="s"/>
-      <c r="W20" t="s">
-        <v>295</v>
-      </c>
-      <c r="X20" t="s"/>
+        <v>312</v>
+      </c>
+      <c r="R20" t="s">
+        <v>313</v>
+      </c>
+      <c r="S20" t="s"/>
+      <c r="T20" t="s">
+        <v>72</v>
+      </c>
+      <c r="U20" t="s"/>
+      <c r="V20" t="s">
+        <v>73</v>
+      </c>
+      <c r="W20" t="s"/>
+      <c r="X20" t="s">
+        <v>314</v>
+      </c>
       <c r="Y20" t="s"/>
       <c r="Z20" t="s"/>
       <c r="AA20" t="s"/>
-      <c r="AB20" t="n">
+      <c r="AB20" t="s"/>
+      <c r="AC20" t="n">
         <v>38</v>
       </c>
     </row>
-    <row r="21" spans="1:28">
+    <row r="21" spans="1:29">
       <c r="A21" t="s">
-        <v>296</v>
+        <v>315</v>
       </c>
       <c r="B21" t="s">
-        <v>297</v>
+        <v>316</v>
       </c>
       <c r="C21" t="s"/>
       <c r="D21" t="s">
-        <v>298</v>
+        <v>317</v>
       </c>
       <c r="E21" t="s">
-        <v>299</v>
+        <v>318</v>
       </c>
       <c r="F21" t="s"/>
       <c r="G21" t="s">
-        <v>300</v>
+        <v>319</v>
       </c>
       <c r="H21" t="s">
-        <v>301</v>
+        <v>320</v>
       </c>
       <c r="I21" t="s">
-        <v>302</v>
+        <v>321</v>
       </c>
       <c r="J21" t="s">
-        <v>303</v>
+        <v>322</v>
       </c>
       <c r="K21" t="s">
-        <v>304</v>
+        <v>323</v>
       </c>
       <c r="L21" t="s">
-        <v>305</v>
+        <v>324</v>
       </c>
       <c r="M21" t="s">
-        <v>65</v>
+        <v>325</v>
       </c>
       <c r="N21" t="s">
-        <v>306</v>
+        <v>67</v>
       </c>
       <c r="O21" t="s">
-        <v>67</v>
+        <v>326</v>
       </c>
       <c r="P21" t="s">
-        <v>307</v>
+        <v>69</v>
       </c>
       <c r="Q21" t="s">
-        <v>308</v>
-      </c>
-      <c r="R21" t="s"/>
-      <c r="S21" t="s">
-        <v>70</v>
-      </c>
-      <c r="T21" t="s"/>
-      <c r="U21" t="s">
-        <v>71</v>
-      </c>
-      <c r="V21" t="s"/>
-      <c r="W21" t="s">
-        <v>309</v>
-      </c>
-      <c r="X21" t="s"/>
+        <v>327</v>
+      </c>
+      <c r="R21" t="s">
+        <v>328</v>
+      </c>
+      <c r="S21" t="s"/>
+      <c r="T21" t="s">
+        <v>72</v>
+      </c>
+      <c r="U21" t="s"/>
+      <c r="V21" t="s">
+        <v>73</v>
+      </c>
+      <c r="W21" t="s"/>
+      <c r="X21" t="s">
+        <v>329</v>
+      </c>
       <c r="Y21" t="s"/>
       <c r="Z21" t="s"/>
       <c r="AA21" t="s"/>
-      <c r="AB21" t="n">
+      <c r="AB21" t="s"/>
+      <c r="AC21" t="n">
         <v>44</v>
       </c>
     </row>
-    <row r="22" spans="1:28">
+    <row r="22" spans="1:29">
       <c r="A22" t="s">
-        <v>310</v>
+        <v>330</v>
       </c>
       <c r="B22" t="s">
-        <v>311</v>
+        <v>331</v>
       </c>
       <c r="C22" t="s"/>
       <c r="D22" t="s"/>
       <c r="E22" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="F22" t="s">
-        <v>312</v>
+        <v>332</v>
       </c>
       <c r="G22" t="s"/>
       <c r="H22" t="s">
-        <v>313</v>
+        <v>333</v>
       </c>
       <c r="I22" t="s">
-        <v>314</v>
+        <v>334</v>
       </c>
       <c r="J22" t="s">
-        <v>315</v>
+        <v>335</v>
       </c>
       <c r="K22" t="s">
-        <v>316</v>
+        <v>336</v>
       </c>
       <c r="L22" t="s">
-        <v>317</v>
+        <v>337</v>
       </c>
       <c r="M22" t="s">
-        <v>65</v>
+        <v>338</v>
       </c>
       <c r="N22" t="s">
-        <v>318</v>
+        <v>67</v>
       </c>
       <c r="O22" t="s">
-        <v>67</v>
+        <v>339</v>
       </c>
       <c r="P22" t="s">
-        <v>319</v>
+        <v>69</v>
       </c>
       <c r="Q22" t="s">
-        <v>320</v>
-      </c>
-      <c r="R22" t="s"/>
-      <c r="S22" t="s">
-        <v>70</v>
-      </c>
-      <c r="T22" t="s"/>
-      <c r="U22" t="s">
-        <v>71</v>
-      </c>
-      <c r="V22" t="s"/>
-      <c r="W22" t="s">
-        <v>321</v>
-      </c>
-      <c r="X22" t="s"/>
+        <v>340</v>
+      </c>
+      <c r="R22" t="s">
+        <v>341</v>
+      </c>
+      <c r="S22" t="s"/>
+      <c r="T22" t="s">
+        <v>72</v>
+      </c>
+      <c r="U22" t="s"/>
+      <c r="V22" t="s">
+        <v>73</v>
+      </c>
+      <c r="W22" t="s"/>
+      <c r="X22" t="s">
+        <v>342</v>
+      </c>
       <c r="Y22" t="s"/>
       <c r="Z22" t="s"/>
       <c r="AA22" t="s"/>
-      <c r="AB22" t="n">
+      <c r="AB22" t="s"/>
+      <c r="AC22" t="n">
         <v>810</v>
       </c>
     </row>
-    <row r="23" spans="1:28">
+    <row r="23" spans="1:29">
       <c r="A23" t="s">
-        <v>322</v>
+        <v>343</v>
       </c>
       <c r="B23" t="s">
-        <v>323</v>
+        <v>344</v>
       </c>
       <c r="C23" t="s"/>
       <c r="D23" t="s">
-        <v>324</v>
+        <v>345</v>
       </c>
       <c r="E23" t="s">
-        <v>325</v>
+        <v>346</v>
       </c>
       <c r="F23" t="s"/>
       <c r="G23" t="s">
-        <v>326</v>
+        <v>347</v>
       </c>
       <c r="H23" t="s">
-        <v>327</v>
+        <v>348</v>
       </c>
       <c r="I23" t="s">
-        <v>328</v>
+        <v>349</v>
       </c>
       <c r="J23" t="s">
-        <v>162</v>
+        <v>170</v>
       </c>
       <c r="K23" t="s">
-        <v>329</v>
+        <v>350</v>
       </c>
       <c r="L23" t="s">
-        <v>330</v>
+        <v>351</v>
       </c>
       <c r="M23" t="s">
-        <v>65</v>
+        <v>352</v>
       </c>
       <c r="N23" t="s">
-        <v>331</v>
+        <v>67</v>
       </c>
       <c r="O23" t="s">
-        <v>67</v>
+        <v>353</v>
       </c>
       <c r="P23" t="s">
-        <v>332</v>
+        <v>69</v>
       </c>
       <c r="Q23" t="s">
-        <v>333</v>
-      </c>
-      <c r="R23" t="s"/>
-      <c r="S23" t="s">
-        <v>70</v>
-      </c>
-      <c r="T23" t="s"/>
-      <c r="U23" t="s">
-        <v>71</v>
-      </c>
-      <c r="V23" t="s"/>
-      <c r="W23" t="s">
-        <v>334</v>
-      </c>
-      <c r="X23" t="s"/>
+        <v>354</v>
+      </c>
+      <c r="R23" t="s">
+        <v>355</v>
+      </c>
+      <c r="S23" t="s"/>
+      <c r="T23" t="s">
+        <v>72</v>
+      </c>
+      <c r="U23" t="s"/>
+      <c r="V23" t="s">
+        <v>73</v>
+      </c>
+      <c r="W23" t="s"/>
+      <c r="X23" t="s">
+        <v>356</v>
+      </c>
       <c r="Y23" t="s"/>
       <c r="Z23" t="s"/>
       <c r="AA23" t="s"/>
-      <c r="AB23" t="n">
+      <c r="AB23" t="s"/>
+      <c r="AC23" t="n">
         <v>20</v>
       </c>
     </row>
-    <row r="24" spans="1:28">
+    <row r="24" spans="1:29">
       <c r="A24" t="s">
-        <v>335</v>
+        <v>357</v>
       </c>
       <c r="B24" t="s">
-        <v>336</v>
+        <v>358</v>
       </c>
       <c r="C24" t="s">
-        <v>337</v>
+        <v>359</v>
       </c>
       <c r="D24" t="s">
-        <v>338</v>
+        <v>360</v>
       </c>
       <c r="E24" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="F24" t="s">
-        <v>339</v>
+        <v>361</v>
       </c>
       <c r="G24" t="s">
-        <v>340</v>
+        <v>362</v>
       </c>
       <c r="H24" t="s">
-        <v>341</v>
+        <v>363</v>
       </c>
       <c r="I24" t="s">
-        <v>342</v>
+        <v>364</v>
       </c>
       <c r="J24" t="s">
-        <v>289</v>
+        <v>307</v>
       </c>
       <c r="K24" t="s">
-        <v>343</v>
+        <v>365</v>
       </c>
       <c r="L24" t="s">
-        <v>344</v>
+        <v>366</v>
       </c>
       <c r="M24" t="s">
-        <v>65</v>
+        <v>367</v>
       </c>
       <c r="N24" t="s">
-        <v>345</v>
+        <v>67</v>
       </c>
       <c r="O24" t="s">
-        <v>67</v>
+        <v>368</v>
       </c>
       <c r="P24" t="s">
-        <v>346</v>
+        <v>69</v>
       </c>
       <c r="Q24" t="s">
-        <v>347</v>
-      </c>
-      <c r="R24" t="s"/>
-      <c r="S24" t="s">
-        <v>70</v>
-      </c>
-      <c r="T24" t="s"/>
-      <c r="U24" t="s">
-        <v>71</v>
-      </c>
-      <c r="V24" t="s"/>
-      <c r="W24" t="s">
-        <v>348</v>
-      </c>
-      <c r="X24" t="s"/>
+        <v>369</v>
+      </c>
+      <c r="R24" t="s">
+        <v>370</v>
+      </c>
+      <c r="S24" t="s"/>
+      <c r="T24" t="s">
+        <v>72</v>
+      </c>
+      <c r="U24" t="s"/>
+      <c r="V24" t="s">
+        <v>73</v>
+      </c>
+      <c r="W24" t="s"/>
+      <c r="X24" t="s">
+        <v>371</v>
+      </c>
       <c r="Y24" t="s"/>
       <c r="Z24" t="s"/>
       <c r="AA24" t="s"/>
-      <c r="AB24" t="n">
+      <c r="AB24" t="s"/>
+      <c r="AC24" t="n">
         <v>18</v>
       </c>
     </row>
-    <row r="25" spans="1:28">
+    <row r="25" spans="1:29">
       <c r="A25" t="s">
-        <v>349</v>
+        <v>372</v>
       </c>
       <c r="B25" t="s">
-        <v>350</v>
+        <v>373</v>
       </c>
       <c r="C25" t="s"/>
       <c r="D25" t="s">
-        <v>351</v>
+        <v>374</v>
       </c>
       <c r="E25" t="s">
-        <v>352</v>
+        <v>375</v>
       </c>
       <c r="F25" t="s">
-        <v>353</v>
+        <v>376</v>
       </c>
       <c r="G25" t="s">
-        <v>354</v>
+        <v>377</v>
       </c>
       <c r="H25" t="s">
-        <v>355</v>
+        <v>378</v>
       </c>
       <c r="I25" t="s">
-        <v>356</v>
+        <v>379</v>
       </c>
       <c r="J25" t="s">
-        <v>162</v>
+        <v>170</v>
       </c>
       <c r="K25" t="s">
-        <v>357</v>
+        <v>380</v>
       </c>
       <c r="L25" t="s">
-        <v>358</v>
+        <v>381</v>
       </c>
       <c r="M25" t="s">
-        <v>65</v>
+        <v>382</v>
       </c>
       <c r="N25" t="s">
-        <v>359</v>
+        <v>67</v>
       </c>
       <c r="O25" t="s">
-        <v>67</v>
+        <v>383</v>
       </c>
       <c r="P25" t="s">
-        <v>360</v>
+        <v>69</v>
       </c>
       <c r="Q25" t="s">
-        <v>361</v>
-      </c>
-      <c r="R25" t="s"/>
-      <c r="S25" t="s">
-        <v>70</v>
-      </c>
-      <c r="T25" t="s"/>
-      <c r="U25" t="s">
-        <v>71</v>
-      </c>
-      <c r="V25" t="s"/>
-      <c r="W25" t="s">
-        <v>362</v>
-      </c>
-      <c r="X25" t="s"/>
+        <v>384</v>
+      </c>
+      <c r="R25" t="s">
+        <v>385</v>
+      </c>
+      <c r="S25" t="s"/>
+      <c r="T25" t="s">
+        <v>72</v>
+      </c>
+      <c r="U25" t="s"/>
+      <c r="V25" t="s">
+        <v>73</v>
+      </c>
+      <c r="W25" t="s"/>
+      <c r="X25" t="s">
+        <v>386</v>
+      </c>
       <c r="Y25" t="s"/>
       <c r="Z25" t="s"/>
       <c r="AA25" t="s"/>
-      <c r="AB25" t="n">
+      <c r="AB25" t="s"/>
+      <c r="AC25" t="n">
         <v>12</v>
       </c>
     </row>
-    <row r="26" spans="1:28">
+    <row r="26" spans="1:29">
       <c r="A26" t="s">
-        <v>363</v>
+        <v>387</v>
       </c>
       <c r="B26" t="s">
-        <v>364</v>
+        <v>388</v>
       </c>
       <c r="C26" t="s"/>
       <c r="D26" t="s">
-        <v>365</v>
+        <v>389</v>
       </c>
       <c r="E26" t="s">
-        <v>366</v>
+        <v>390</v>
       </c>
       <c r="F26" t="s"/>
       <c r="G26" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="H26" t="s">
-        <v>367</v>
+        <v>391</v>
       </c>
       <c r="I26" t="s">
-        <v>368</v>
+        <v>392</v>
       </c>
       <c r="J26" t="s">
-        <v>369</v>
+        <v>393</v>
       </c>
       <c r="K26" t="s">
-        <v>370</v>
+        <v>394</v>
       </c>
       <c r="L26" t="s">
-        <v>371</v>
+        <v>395</v>
       </c>
       <c r="M26" t="s">
-        <v>65</v>
+        <v>396</v>
       </c>
       <c r="N26" t="s">
-        <v>372</v>
+        <v>67</v>
       </c>
       <c r="O26" t="s">
-        <v>67</v>
+        <v>397</v>
       </c>
       <c r="P26" t="s">
-        <v>373</v>
+        <v>69</v>
       </c>
       <c r="Q26" t="s">
-        <v>374</v>
-      </c>
-      <c r="R26" t="s"/>
-      <c r="S26" t="s">
-        <v>70</v>
-      </c>
-      <c r="T26" t="s"/>
-      <c r="U26" t="s">
-        <v>71</v>
-      </c>
-      <c r="V26" t="s"/>
-      <c r="W26" t="s">
-        <v>375</v>
-      </c>
-      <c r="X26" t="s"/>
+        <v>398</v>
+      </c>
+      <c r="R26" t="s">
+        <v>399</v>
+      </c>
+      <c r="S26" t="s"/>
+      <c r="T26" t="s">
+        <v>72</v>
+      </c>
+      <c r="U26" t="s"/>
+      <c r="V26" t="s">
+        <v>73</v>
+      </c>
+      <c r="W26" t="s"/>
+      <c r="X26" t="s">
+        <v>400</v>
+      </c>
       <c r="Y26" t="s"/>
       <c r="Z26" t="s"/>
       <c r="AA26" t="s"/>
-      <c r="AB26" t="n">
+      <c r="AB26" t="s"/>
+      <c r="AC26" t="n">
         <v>6</v>
       </c>
     </row>
-    <row r="27" spans="1:28">
+    <row r="27" spans="1:29">
       <c r="A27" t="s">
-        <v>376</v>
+        <v>401</v>
       </c>
       <c r="B27" t="s">
-        <v>377</v>
+        <v>402</v>
       </c>
       <c r="C27" t="s"/>
       <c r="D27" t="s">
-        <v>378</v>
+        <v>403</v>
       </c>
       <c r="E27" t="s">
-        <v>299</v>
+        <v>318</v>
       </c>
       <c r="F27" t="s">
-        <v>379</v>
+        <v>404</v>
       </c>
       <c r="G27" t="s">
-        <v>380</v>
+        <v>405</v>
       </c>
       <c r="H27" t="s">
-        <v>381</v>
+        <v>406</v>
       </c>
       <c r="I27" t="s">
-        <v>382</v>
+        <v>407</v>
       </c>
       <c r="J27" t="s">
-        <v>383</v>
+        <v>408</v>
       </c>
       <c r="K27" t="s">
-        <v>384</v>
+        <v>409</v>
       </c>
       <c r="L27" t="s">
-        <v>385</v>
+        <v>410</v>
       </c>
       <c r="M27" t="s">
-        <v>65</v>
+        <v>411</v>
       </c>
       <c r="N27" t="s">
-        <v>386</v>
+        <v>67</v>
       </c>
       <c r="O27" t="s">
-        <v>67</v>
+        <v>412</v>
       </c>
       <c r="P27" t="s">
-        <v>387</v>
+        <v>69</v>
       </c>
       <c r="Q27" t="s">
-        <v>388</v>
-      </c>
-      <c r="R27" t="s"/>
-      <c r="S27" t="s">
-        <v>70</v>
-      </c>
-      <c r="T27" t="s"/>
-      <c r="U27" t="s">
-        <v>71</v>
-      </c>
-      <c r="V27" t="s"/>
-      <c r="W27" t="s">
-        <v>389</v>
-      </c>
-      <c r="X27" t="s"/>
+        <v>413</v>
+      </c>
+      <c r="R27" t="s">
+        <v>414</v>
+      </c>
+      <c r="S27" t="s"/>
+      <c r="T27" t="s">
+        <v>72</v>
+      </c>
+      <c r="U27" t="s"/>
+      <c r="V27" t="s">
+        <v>73</v>
+      </c>
+      <c r="W27" t="s"/>
+      <c r="X27" t="s">
+        <v>415</v>
+      </c>
       <c r="Y27" t="s"/>
       <c r="Z27" t="s"/>
       <c r="AA27" t="s"/>
-      <c r="AB27" t="n">
+      <c r="AB27" t="s"/>
+      <c r="AC27" t="n">
         <v>27</v>
       </c>
     </row>
-    <row r="28" spans="1:28">
+    <row r="28" spans="1:29">
       <c r="A28" t="s">
-        <v>390</v>
+        <v>416</v>
       </c>
       <c r="B28" t="s">
-        <v>391</v>
+        <v>417</v>
       </c>
       <c r="C28" t="s"/>
       <c r="D28" t="s">
-        <v>392</v>
+        <v>418</v>
       </c>
       <c r="E28" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="F28" t="s">
-        <v>393</v>
+        <v>419</v>
       </c>
       <c r="G28" t="s">
-        <v>159</v>
+        <v>167</v>
       </c>
       <c r="H28" t="s">
-        <v>394</v>
+        <v>420</v>
       </c>
       <c r="I28" t="s">
-        <v>395</v>
+        <v>421</v>
       </c>
       <c r="J28" t="s">
-        <v>396</v>
+        <v>422</v>
       </c>
       <c r="K28" t="s">
-        <v>397</v>
+        <v>423</v>
       </c>
       <c r="L28" t="s">
-        <v>398</v>
+        <v>424</v>
       </c>
       <c r="M28" t="s">
-        <v>65</v>
+        <v>425</v>
       </c>
       <c r="N28" t="s">
-        <v>399</v>
+        <v>67</v>
       </c>
       <c r="O28" t="s">
-        <v>67</v>
+        <v>426</v>
       </c>
       <c r="P28" t="s">
-        <v>400</v>
+        <v>69</v>
       </c>
       <c r="Q28" t="s">
-        <v>401</v>
-      </c>
-      <c r="R28" t="s"/>
-      <c r="S28" t="s">
-        <v>70</v>
-      </c>
-      <c r="T28" t="s"/>
-      <c r="U28" t="s">
-        <v>71</v>
-      </c>
-      <c r="V28" t="s"/>
-      <c r="W28" t="s">
-        <v>402</v>
-      </c>
-      <c r="X28" t="s"/>
+        <v>427</v>
+      </c>
+      <c r="R28" t="s">
+        <v>428</v>
+      </c>
+      <c r="S28" t="s"/>
+      <c r="T28" t="s">
+        <v>72</v>
+      </c>
+      <c r="U28" t="s"/>
+      <c r="V28" t="s">
+        <v>73</v>
+      </c>
+      <c r="W28" t="s"/>
+      <c r="X28" t="s">
+        <v>429</v>
+      </c>
       <c r="Y28" t="s"/>
       <c r="Z28" t="s"/>
       <c r="AA28" t="s"/>
-      <c r="AB28" t="n">
+      <c r="AB28" t="s"/>
+      <c r="AC28" t="n">
         <v>125</v>
       </c>
     </row>
-    <row r="29" spans="1:28">
+    <row r="29" spans="1:29">
       <c r="A29" t="s">
-        <v>390</v>
+        <v>416</v>
       </c>
       <c r="B29" t="s">
-        <v>391</v>
+        <v>417</v>
       </c>
       <c r="C29" t="s"/>
       <c r="D29" t="s">
-        <v>392</v>
+        <v>418</v>
       </c>
       <c r="E29" t="s">
-        <v>403</v>
+        <v>430</v>
       </c>
       <c r="F29" t="s">
-        <v>404</v>
+        <v>431</v>
       </c>
       <c r="G29" t="s">
-        <v>159</v>
+        <v>167</v>
       </c>
       <c r="H29" t="s">
-        <v>405</v>
+        <v>432</v>
       </c>
       <c r="I29" t="s">
-        <v>406</v>
+        <v>433</v>
       </c>
       <c r="J29" t="s">
-        <v>162</v>
+        <v>170</v>
       </c>
       <c r="K29" t="s">
-        <v>407</v>
+        <v>434</v>
       </c>
       <c r="L29" t="s">
-        <v>408</v>
+        <v>435</v>
       </c>
       <c r="M29" t="s">
-        <v>65</v>
+        <v>436</v>
       </c>
       <c r="N29" t="s">
-        <v>409</v>
+        <v>67</v>
       </c>
       <c r="O29" t="s">
-        <v>67</v>
+        <v>437</v>
       </c>
       <c r="P29" t="s">
-        <v>410</v>
+        <v>69</v>
       </c>
       <c r="Q29" t="s">
-        <v>401</v>
-      </c>
-      <c r="R29" t="s"/>
-      <c r="S29" t="s">
-        <v>70</v>
-      </c>
-      <c r="T29" t="s"/>
-      <c r="U29" t="s">
-        <v>71</v>
-      </c>
-      <c r="V29" t="s"/>
-      <c r="W29" t="s">
-        <v>402</v>
-      </c>
-      <c r="X29" t="s"/>
+        <v>438</v>
+      </c>
+      <c r="R29" t="s">
+        <v>428</v>
+      </c>
+      <c r="S29" t="s"/>
+      <c r="T29" t="s">
+        <v>72</v>
+      </c>
+      <c r="U29" t="s"/>
+      <c r="V29" t="s">
+        <v>73</v>
+      </c>
+      <c r="W29" t="s"/>
+      <c r="X29" t="s">
+        <v>429</v>
+      </c>
       <c r="Y29" t="s"/>
       <c r="Z29" t="s"/>
       <c r="AA29" t="s"/>
-      <c r="AB29" t="n">
+      <c r="AB29" t="s"/>
+      <c r="AC29" t="n">
         <v>22</v>
       </c>
     </row>
-    <row r="30" spans="1:28">
+    <row r="30" spans="1:29">
       <c r="A30" t="s">
-        <v>411</v>
+        <v>439</v>
       </c>
       <c r="B30" t="s">
-        <v>412</v>
+        <v>440</v>
       </c>
       <c r="C30" t="s"/>
       <c r="D30" t="s">
-        <v>413</v>
+        <v>441</v>
       </c>
       <c r="E30" t="s">
-        <v>414</v>
+        <v>442</v>
       </c>
       <c r="F30" t="s"/>
       <c r="G30" t="s">
-        <v>415</v>
+        <v>443</v>
       </c>
       <c r="H30" t="s">
-        <v>416</v>
+        <v>444</v>
       </c>
       <c r="I30" t="s">
-        <v>417</v>
+        <v>445</v>
       </c>
       <c r="J30" t="s">
-        <v>418</v>
+        <v>446</v>
       </c>
       <c r="K30" t="s">
-        <v>419</v>
+        <v>447</v>
       </c>
       <c r="L30" t="s">
-        <v>420</v>
+        <v>448</v>
       </c>
       <c r="M30" t="s">
-        <v>65</v>
+        <v>449</v>
       </c>
       <c r="N30" t="s">
-        <v>421</v>
+        <v>67</v>
       </c>
       <c r="O30" t="s">
-        <v>67</v>
+        <v>450</v>
       </c>
       <c r="P30" t="s">
-        <v>422</v>
+        <v>69</v>
       </c>
       <c r="Q30" t="s">
-        <v>423</v>
-      </c>
-      <c r="R30" t="s"/>
-      <c r="S30" t="s">
-        <v>70</v>
-      </c>
-      <c r="T30" t="s"/>
-      <c r="U30" t="s">
-        <v>71</v>
-      </c>
-      <c r="V30" t="s"/>
-      <c r="W30" t="s">
-        <v>424</v>
-      </c>
-      <c r="X30" t="s"/>
+        <v>451</v>
+      </c>
+      <c r="R30" t="s">
+        <v>452</v>
+      </c>
+      <c r="S30" t="s"/>
+      <c r="T30" t="s">
+        <v>72</v>
+      </c>
+      <c r="U30" t="s"/>
+      <c r="V30" t="s">
+        <v>73</v>
+      </c>
+      <c r="W30" t="s"/>
+      <c r="X30" t="s">
+        <v>453</v>
+      </c>
       <c r="Y30" t="s"/>
       <c r="Z30" t="s"/>
       <c r="AA30" t="s"/>
-      <c r="AB30" t="n">
+      <c r="AB30" t="s"/>
+      <c r="AC30" t="n">
         <v>200</v>
       </c>
     </row>
-    <row r="31" spans="1:28">
+    <row r="31" spans="1:29">
       <c r="A31" t="s">
-        <v>425</v>
+        <v>454</v>
       </c>
       <c r="B31" t="s">
-        <v>426</v>
+        <v>455</v>
       </c>
       <c r="C31" t="s">
-        <v>427</v>
+        <v>456</v>
       </c>
       <c r="D31" t="s">
-        <v>428</v>
+        <v>457</v>
       </c>
       <c r="E31" t="s">
-        <v>429</v>
+        <v>458</v>
       </c>
       <c r="F31" t="s"/>
       <c r="G31" t="s">
-        <v>430</v>
+        <v>459</v>
       </c>
       <c r="H31" t="s">
-        <v>431</v>
+        <v>460</v>
       </c>
       <c r="I31" t="s">
-        <v>432</v>
+        <v>461</v>
       </c>
       <c r="J31" t="s">
-        <v>433</v>
+        <v>462</v>
       </c>
       <c r="K31" t="s">
-        <v>434</v>
+        <v>463</v>
       </c>
       <c r="L31" t="s">
-        <v>435</v>
+        <v>464</v>
       </c>
       <c r="M31" t="s">
-        <v>65</v>
+        <v>465</v>
       </c>
       <c r="N31" t="s">
-        <v>436</v>
+        <v>67</v>
       </c>
       <c r="O31" t="s">
-        <v>67</v>
+        <v>466</v>
       </c>
       <c r="P31" t="s">
-        <v>437</v>
+        <v>69</v>
       </c>
       <c r="Q31" t="s">
-        <v>438</v>
-      </c>
-      <c r="R31" t="s"/>
-      <c r="S31" t="s">
-        <v>70</v>
-      </c>
-      <c r="T31" t="s"/>
-      <c r="U31" t="s">
-        <v>71</v>
-      </c>
-      <c r="V31" t="s"/>
-      <c r="W31" t="s">
-        <v>439</v>
-      </c>
-      <c r="X31" t="s"/>
+        <v>467</v>
+      </c>
+      <c r="R31" t="s">
+        <v>468</v>
+      </c>
+      <c r="S31" t="s"/>
+      <c r="T31" t="s">
+        <v>72</v>
+      </c>
+      <c r="U31" t="s"/>
+      <c r="V31" t="s">
+        <v>73</v>
+      </c>
+      <c r="W31" t="s"/>
+      <c r="X31" t="s">
+        <v>469</v>
+      </c>
       <c r="Y31" t="s"/>
       <c r="Z31" t="s"/>
       <c r="AA31" t="s"/>
-      <c r="AB31" t="n">
+      <c r="AB31" t="s"/>
+      <c r="AC31" t="n">
         <v>108</v>
       </c>
     </row>
-    <row r="32" spans="1:28">
+    <row r="32" spans="1:29">
       <c r="A32" t="s">
-        <v>440</v>
+        <v>470</v>
       </c>
       <c r="B32" t="s">
-        <v>441</v>
+        <v>471</v>
       </c>
       <c r="C32" t="s"/>
       <c r="D32" t="s">
-        <v>442</v>
+        <v>472</v>
       </c>
       <c r="E32" t="s">
-        <v>443</v>
+        <v>473</v>
       </c>
       <c r="F32" t="s"/>
       <c r="G32" t="s"/>
       <c r="H32" t="s">
-        <v>444</v>
+        <v>474</v>
       </c>
       <c r="I32" t="s">
-        <v>445</v>
+        <v>475</v>
       </c>
       <c r="J32" t="s">
-        <v>446</v>
+        <v>476</v>
       </c>
       <c r="K32" t="s">
-        <v>447</v>
+        <v>477</v>
       </c>
       <c r="L32" t="s">
-        <v>448</v>
+        <v>478</v>
       </c>
       <c r="M32" t="s">
-        <v>65</v>
+        <v>479</v>
       </c>
       <c r="N32" t="s">
-        <v>449</v>
+        <v>67</v>
       </c>
       <c r="O32" t="s">
-        <v>67</v>
+        <v>480</v>
       </c>
       <c r="P32" t="s">
-        <v>450</v>
+        <v>69</v>
       </c>
       <c r="Q32" t="s">
-        <v>451</v>
-      </c>
-      <c r="R32" t="s"/>
-      <c r="S32" t="s">
-        <v>70</v>
-      </c>
-      <c r="T32" t="s"/>
-      <c r="U32" t="s">
-        <v>71</v>
-      </c>
-      <c r="V32" t="s"/>
-      <c r="W32" t="s">
-        <v>452</v>
-      </c>
-      <c r="X32" t="s"/>
+        <v>481</v>
+      </c>
+      <c r="R32" t="s">
+        <v>482</v>
+      </c>
+      <c r="S32" t="s"/>
+      <c r="T32" t="s">
+        <v>72</v>
+      </c>
+      <c r="U32" t="s"/>
+      <c r="V32" t="s">
+        <v>73</v>
+      </c>
+      <c r="W32" t="s"/>
+      <c r="X32" t="s">
+        <v>483</v>
+      </c>
       <c r="Y32" t="s"/>
       <c r="Z32" t="s"/>
       <c r="AA32" t="s"/>
-      <c r="AB32" t="n">
+      <c r="AB32" t="s"/>
+      <c r="AC32" t="n">
         <v>759</v>
       </c>
     </row>
-    <row r="33" spans="1:28">
+    <row r="33" spans="1:29">
       <c r="A33" t="s">
-        <v>453</v>
+        <v>484</v>
       </c>
       <c r="B33" t="s">
-        <v>454</v>
+        <v>485</v>
       </c>
       <c r="C33" t="s"/>
       <c r="D33" t="s">
-        <v>455</v>
+        <v>486</v>
       </c>
       <c r="E33" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="F33" t="s">
-        <v>456</v>
+        <v>487</v>
       </c>
       <c r="G33" t="s">
-        <v>457</v>
+        <v>488</v>
       </c>
       <c r="H33" t="s">
-        <v>458</v>
+        <v>489</v>
       </c>
       <c r="I33" t="s">
-        <v>459</v>
+        <v>490</v>
       </c>
       <c r="J33" t="s">
-        <v>162</v>
+        <v>170</v>
       </c>
       <c r="K33" t="s">
-        <v>460</v>
+        <v>491</v>
       </c>
       <c r="L33" t="s">
-        <v>461</v>
+        <v>492</v>
       </c>
       <c r="M33" t="s">
-        <v>65</v>
+        <v>493</v>
       </c>
       <c r="N33" t="s">
-        <v>462</v>
+        <v>67</v>
       </c>
       <c r="O33" t="s">
-        <v>67</v>
+        <v>494</v>
       </c>
       <c r="P33" t="s">
-        <v>463</v>
+        <v>69</v>
       </c>
       <c r="Q33" t="s">
-        <v>464</v>
-      </c>
-      <c r="R33" t="s"/>
-      <c r="S33" t="s">
-        <v>70</v>
-      </c>
-      <c r="T33" t="s"/>
-      <c r="U33" t="s">
-        <v>71</v>
-      </c>
-      <c r="V33" t="s"/>
-      <c r="W33" t="s">
-        <v>465</v>
-      </c>
-      <c r="X33" t="s"/>
+        <v>495</v>
+      </c>
+      <c r="R33" t="s">
+        <v>496</v>
+      </c>
+      <c r="S33" t="s"/>
+      <c r="T33" t="s">
+        <v>72</v>
+      </c>
+      <c r="U33" t="s"/>
+      <c r="V33" t="s">
+        <v>73</v>
+      </c>
+      <c r="W33" t="s"/>
+      <c r="X33" t="s">
+        <v>497</v>
+      </c>
       <c r="Y33" t="s"/>
       <c r="Z33" t="s"/>
       <c r="AA33" t="s"/>
-      <c r="AB33" t="n">
+      <c r="AB33" t="s"/>
+      <c r="AC33" t="n">
         <v>48</v>
       </c>
     </row>
-    <row r="34" spans="1:28">
+    <row r="34" spans="1:29">
       <c r="A34" t="s">
-        <v>466</v>
+        <v>498</v>
       </c>
       <c r="B34" t="s">
-        <v>467</v>
+        <v>499</v>
       </c>
       <c r="C34" t="s">
-        <v>468</v>
+        <v>500</v>
       </c>
       <c r="D34" t="s"/>
       <c r="E34" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="F34" t="s">
-        <v>469</v>
+        <v>501</v>
       </c>
       <c r="G34" t="s">
-        <v>470</v>
+        <v>502</v>
       </c>
       <c r="H34" t="s">
-        <v>471</v>
+        <v>503</v>
       </c>
       <c r="I34" t="s">
-        <v>472</v>
+        <v>504</v>
       </c>
       <c r="J34" t="s">
-        <v>200</v>
+        <v>211</v>
       </c>
       <c r="K34" t="s">
-        <v>473</v>
+        <v>505</v>
       </c>
       <c r="L34" t="s">
-        <v>474</v>
+        <v>506</v>
       </c>
       <c r="M34" t="s">
-        <v>65</v>
+        <v>507</v>
       </c>
       <c r="N34" t="s">
-        <v>475</v>
+        <v>67</v>
       </c>
       <c r="O34" t="s">
-        <v>67</v>
+        <v>508</v>
       </c>
       <c r="P34" t="s">
-        <v>476</v>
+        <v>69</v>
       </c>
       <c r="Q34" t="s">
-        <v>477</v>
-      </c>
-      <c r="R34" t="s"/>
-      <c r="S34" t="s">
-        <v>70</v>
-      </c>
-      <c r="T34" t="s"/>
-      <c r="U34" t="s">
-        <v>71</v>
-      </c>
-      <c r="V34" t="s"/>
-      <c r="W34" t="s">
-        <v>478</v>
-      </c>
-      <c r="X34" t="s"/>
+        <v>509</v>
+      </c>
+      <c r="R34" t="s">
+        <v>510</v>
+      </c>
+      <c r="S34" t="s"/>
+      <c r="T34" t="s">
+        <v>72</v>
+      </c>
+      <c r="U34" t="s"/>
+      <c r="V34" t="s">
+        <v>73</v>
+      </c>
+      <c r="W34" t="s"/>
+      <c r="X34" t="s">
+        <v>511</v>
+      </c>
       <c r="Y34" t="s"/>
       <c r="Z34" t="s"/>
       <c r="AA34" t="s"/>
-      <c r="AB34" t="n">
+      <c r="AB34" t="s"/>
+      <c r="AC34" t="n">
         <v>58</v>
       </c>
     </row>
-    <row r="35" spans="1:28">
+    <row r="35" spans="1:29">
       <c r="A35" t="s">
-        <v>479</v>
+        <v>512</v>
       </c>
       <c r="B35" t="s">
-        <v>480</v>
+        <v>513</v>
       </c>
       <c r="C35" t="s"/>
       <c r="D35" t="s"/>
       <c r="E35" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="F35" t="s"/>
       <c r="G35" t="s">
-        <v>481</v>
+        <v>514</v>
       </c>
       <c r="H35" t="s">
-        <v>482</v>
+        <v>515</v>
       </c>
       <c r="I35" t="s">
-        <v>483</v>
+        <v>516</v>
       </c>
       <c r="J35" t="s">
-        <v>200</v>
+        <v>211</v>
       </c>
       <c r="K35" t="s">
-        <v>484</v>
+        <v>517</v>
       </c>
       <c r="L35" t="s">
-        <v>485</v>
+        <v>518</v>
       </c>
       <c r="M35" t="s">
-        <v>65</v>
+        <v>519</v>
       </c>
       <c r="N35" t="s">
-        <v>486</v>
+        <v>67</v>
       </c>
       <c r="O35" t="s">
-        <v>67</v>
+        <v>520</v>
       </c>
       <c r="P35" t="s">
-        <v>487</v>
+        <v>69</v>
       </c>
       <c r="Q35" t="s">
-        <v>488</v>
-      </c>
-      <c r="R35" t="s"/>
-      <c r="S35" t="s">
-        <v>70</v>
-      </c>
-      <c r="T35" t="s"/>
-      <c r="U35" t="s">
-        <v>71</v>
-      </c>
-      <c r="V35" t="s"/>
-      <c r="W35" t="s">
-        <v>489</v>
-      </c>
-      <c r="X35" t="s"/>
+        <v>521</v>
+      </c>
+      <c r="R35" t="s">
+        <v>522</v>
+      </c>
+      <c r="S35" t="s"/>
+      <c r="T35" t="s">
+        <v>72</v>
+      </c>
+      <c r="U35" t="s"/>
+      <c r="V35" t="s">
+        <v>73</v>
+      </c>
+      <c r="W35" t="s"/>
+      <c r="X35" t="s">
+        <v>523</v>
+      </c>
       <c r="Y35" t="s"/>
       <c r="Z35" t="s"/>
       <c r="AA35" t="s"/>
-      <c r="AB35" t="n">
+      <c r="AB35" t="s"/>
+      <c r="AC35" t="n">
         <v>26</v>
       </c>
     </row>
-    <row r="36" spans="1:28">
+    <row r="36" spans="1:29">
       <c r="A36" t="s">
-        <v>490</v>
+        <v>524</v>
       </c>
       <c r="B36" t="s">
-        <v>491</v>
+        <v>525</v>
       </c>
       <c r="C36" t="s">
-        <v>492</v>
+        <v>526</v>
       </c>
       <c r="D36" t="s">
-        <v>493</v>
+        <v>527</v>
       </c>
       <c r="E36" t="s">
-        <v>494</v>
+        <v>528</v>
       </c>
       <c r="F36" t="s">
-        <v>495</v>
+        <v>529</v>
       </c>
       <c r="G36" t="s">
-        <v>430</v>
+        <v>459</v>
       </c>
       <c r="H36" t="s">
-        <v>496</v>
+        <v>530</v>
       </c>
       <c r="I36" t="s">
-        <v>497</v>
+        <v>531</v>
       </c>
       <c r="J36" t="s">
-        <v>498</v>
+        <v>532</v>
       </c>
       <c r="K36" t="s">
-        <v>499</v>
+        <v>533</v>
       </c>
       <c r="L36" t="s">
-        <v>500</v>
+        <v>534</v>
       </c>
       <c r="M36" t="s">
-        <v>65</v>
+        <v>535</v>
       </c>
       <c r="N36" t="s">
-        <v>501</v>
+        <v>67</v>
       </c>
       <c r="O36" t="s">
-        <v>67</v>
+        <v>536</v>
       </c>
       <c r="P36" t="s">
-        <v>502</v>
+        <v>69</v>
       </c>
       <c r="Q36" t="s">
-        <v>503</v>
-      </c>
-      <c r="R36" t="s"/>
-      <c r="S36" t="s">
-        <v>70</v>
-      </c>
-      <c r="T36" t="s"/>
-      <c r="U36" t="s">
-        <v>71</v>
-      </c>
-      <c r="V36" t="s"/>
-      <c r="W36" t="s">
-        <v>504</v>
-      </c>
-      <c r="X36" t="s"/>
+        <v>537</v>
+      </c>
+      <c r="R36" t="s">
+        <v>538</v>
+      </c>
+      <c r="S36" t="s"/>
+      <c r="T36" t="s">
+        <v>72</v>
+      </c>
+      <c r="U36" t="s"/>
+      <c r="V36" t="s">
+        <v>73</v>
+      </c>
+      <c r="W36" t="s"/>
+      <c r="X36" t="s">
+        <v>539</v>
+      </c>
       <c r="Y36" t="s"/>
       <c r="Z36" t="s"/>
       <c r="AA36" t="s"/>
-      <c r="AB36" t="n">
+      <c r="AB36" t="s"/>
+      <c r="AC36" t="n">
         <v>107</v>
       </c>
     </row>
-    <row r="37" spans="1:28">
+    <row r="37" spans="1:29">
       <c r="A37" t="s">
-        <v>505</v>
+        <v>540</v>
       </c>
       <c r="B37" t="s">
-        <v>506</v>
+        <v>541</v>
       </c>
       <c r="C37" t="s"/>
       <c r="D37" t="s"/>
       <c r="E37" t="s">
-        <v>507</v>
+        <v>542</v>
       </c>
       <c r="F37" t="s"/>
       <c r="G37" t="s">
-        <v>508</v>
+        <v>543</v>
       </c>
       <c r="H37" t="s">
-        <v>509</v>
+        <v>544</v>
       </c>
       <c r="I37" t="s">
-        <v>510</v>
+        <v>545</v>
       </c>
       <c r="J37" t="s">
-        <v>511</v>
+        <v>546</v>
       </c>
       <c r="K37" t="s">
-        <v>512</v>
+        <v>547</v>
       </c>
       <c r="L37" t="s">
-        <v>513</v>
+        <v>548</v>
       </c>
       <c r="M37" t="s">
-        <v>65</v>
+        <v>549</v>
       </c>
       <c r="N37" t="s">
-        <v>514</v>
+        <v>67</v>
       </c>
       <c r="O37" t="s">
-        <v>67</v>
+        <v>550</v>
       </c>
       <c r="P37" t="s">
-        <v>515</v>
+        <v>69</v>
       </c>
       <c r="Q37" t="s">
-        <v>516</v>
-      </c>
-      <c r="R37" t="s"/>
-      <c r="S37" t="s">
-        <v>70</v>
-      </c>
-      <c r="T37" t="s"/>
-      <c r="U37" t="s">
-        <v>517</v>
-      </c>
-      <c r="V37" t="s"/>
-      <c r="W37" t="s">
-        <v>518</v>
-      </c>
-      <c r="X37" t="s"/>
+        <v>551</v>
+      </c>
+      <c r="R37" t="s">
+        <v>552</v>
+      </c>
+      <c r="S37" t="s"/>
+      <c r="T37" t="s">
+        <v>72</v>
+      </c>
+      <c r="U37" t="s"/>
+      <c r="V37" t="s">
+        <v>553</v>
+      </c>
+      <c r="W37" t="s"/>
+      <c r="X37" t="s">
+        <v>554</v>
+      </c>
       <c r="Y37" t="s"/>
       <c r="Z37" t="s"/>
       <c r="AA37" t="s"/>
-      <c r="AB37" t="n">
+      <c r="AB37" t="s"/>
+      <c r="AC37" t="n">
         <v>227</v>
       </c>
     </row>
-    <row r="38" spans="1:28">
+    <row r="38" spans="1:29">
       <c r="A38" t="s">
-        <v>519</v>
+        <v>555</v>
       </c>
       <c r="B38" t="s">
-        <v>520</v>
+        <v>556</v>
       </c>
       <c r="C38" t="s"/>
       <c r="D38" t="s">
-        <v>521</v>
+        <v>557</v>
       </c>
       <c r="E38" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="F38" t="s">
-        <v>522</v>
+        <v>558</v>
       </c>
       <c r="G38" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="H38" t="s">
-        <v>523</v>
+        <v>559</v>
       </c>
       <c r="I38" t="s">
-        <v>524</v>
+        <v>560</v>
       </c>
       <c r="J38" t="s">
-        <v>254</v>
+        <v>269</v>
       </c>
       <c r="K38" t="s">
-        <v>525</v>
+        <v>561</v>
       </c>
       <c r="L38" t="s">
-        <v>526</v>
+        <v>562</v>
       </c>
       <c r="M38" t="s">
-        <v>65</v>
+        <v>563</v>
       </c>
       <c r="N38" t="s">
-        <v>527</v>
+        <v>67</v>
       </c>
       <c r="O38" t="s">
-        <v>67</v>
+        <v>564</v>
       </c>
       <c r="P38" t="s">
-        <v>528</v>
+        <v>69</v>
       </c>
       <c r="Q38" t="s">
-        <v>529</v>
-      </c>
-      <c r="R38" t="s"/>
-      <c r="S38" t="s">
-        <v>70</v>
-      </c>
-      <c r="T38" t="s"/>
-      <c r="U38" t="s">
-        <v>71</v>
-      </c>
-      <c r="V38" t="s"/>
-      <c r="W38" t="s">
-        <v>530</v>
-      </c>
-      <c r="X38" t="s"/>
+        <v>565</v>
+      </c>
+      <c r="R38" t="s">
+        <v>566</v>
+      </c>
+      <c r="S38" t="s"/>
+      <c r="T38" t="s">
+        <v>72</v>
+      </c>
+      <c r="U38" t="s"/>
+      <c r="V38" t="s">
+        <v>73</v>
+      </c>
+      <c r="W38" t="s"/>
+      <c r="X38" t="s">
+        <v>567</v>
+      </c>
       <c r="Y38" t="s"/>
       <c r="Z38" t="s"/>
       <c r="AA38" t="s"/>
-      <c r="AB38" t="n">
+      <c r="AB38" t="s"/>
+      <c r="AC38" t="n">
         <v>6</v>
       </c>
     </row>
-    <row r="39" spans="1:28">
+    <row r="39" spans="1:29">
       <c r="A39" t="s">
-        <v>531</v>
+        <v>568</v>
       </c>
       <c r="B39" t="s">
-        <v>532</v>
+        <v>569</v>
       </c>
       <c r="C39" t="s"/>
       <c r="D39" t="s">
-        <v>533</v>
+        <v>570</v>
       </c>
       <c r="E39" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="F39" t="s">
-        <v>534</v>
+        <v>571</v>
       </c>
       <c r="G39" t="s">
-        <v>535</v>
+        <v>572</v>
       </c>
       <c r="H39" t="s">
-        <v>536</v>
+        <v>573</v>
       </c>
       <c r="I39" t="s">
-        <v>537</v>
+        <v>574</v>
       </c>
       <c r="J39" t="s">
-        <v>162</v>
+        <v>170</v>
       </c>
       <c r="K39" t="s">
-        <v>538</v>
+        <v>575</v>
       </c>
       <c r="L39" t="s">
-        <v>539</v>
+        <v>576</v>
       </c>
       <c r="M39" t="s">
-        <v>65</v>
+        <v>577</v>
       </c>
       <c r="N39" t="s">
-        <v>540</v>
+        <v>67</v>
       </c>
       <c r="O39" t="s">
-        <v>67</v>
+        <v>578</v>
       </c>
       <c r="P39" t="s">
-        <v>541</v>
+        <v>69</v>
       </c>
       <c r="Q39" t="s">
-        <v>542</v>
-      </c>
-      <c r="R39" t="s"/>
-      <c r="S39" t="s">
-        <v>70</v>
-      </c>
-      <c r="T39" t="s"/>
-      <c r="U39" t="s">
-        <v>71</v>
-      </c>
-      <c r="V39" t="s"/>
-      <c r="W39" t="s">
-        <v>543</v>
-      </c>
-      <c r="X39" t="s"/>
+        <v>579</v>
+      </c>
+      <c r="R39" t="s">
+        <v>580</v>
+      </c>
+      <c r="S39" t="s"/>
+      <c r="T39" t="s">
+        <v>72</v>
+      </c>
+      <c r="U39" t="s"/>
+      <c r="V39" t="s">
+        <v>73</v>
+      </c>
+      <c r="W39" t="s"/>
+      <c r="X39" t="s">
+        <v>581</v>
+      </c>
       <c r="Y39" t="s"/>
       <c r="Z39" t="s"/>
       <c r="AA39" t="s"/>
-      <c r="AB39" t="n">
+      <c r="AB39" t="s"/>
+      <c r="AC39" t="n">
         <v>83</v>
       </c>
     </row>
-    <row r="40" spans="1:28">
+    <row r="40" spans="1:29">
       <c r="A40" t="s">
-        <v>544</v>
+        <v>582</v>
       </c>
       <c r="B40" t="s">
-        <v>545</v>
+        <v>583</v>
       </c>
       <c r="C40" t="s">
-        <v>546</v>
+        <v>584</v>
       </c>
       <c r="D40" t="s"/>
       <c r="E40" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="F40" t="s">
-        <v>547</v>
+        <v>585</v>
       </c>
       <c r="G40" t="s">
-        <v>548</v>
+        <v>586</v>
       </c>
       <c r="H40" t="s">
-        <v>549</v>
+        <v>587</v>
       </c>
       <c r="I40" t="s">
-        <v>550</v>
+        <v>588</v>
       </c>
       <c r="J40" t="s">
-        <v>162</v>
+        <v>170</v>
       </c>
       <c r="K40" t="s">
-        <v>551</v>
+        <v>589</v>
       </c>
       <c r="L40" t="s">
-        <v>552</v>
+        <v>590</v>
       </c>
       <c r="M40" t="s">
-        <v>65</v>
+        <v>591</v>
       </c>
       <c r="N40" t="s">
-        <v>553</v>
+        <v>67</v>
       </c>
       <c r="O40" t="s">
-        <v>67</v>
+        <v>592</v>
       </c>
       <c r="P40" t="s">
-        <v>554</v>
+        <v>69</v>
       </c>
       <c r="Q40" t="s">
-        <v>555</v>
-      </c>
-      <c r="R40" t="s"/>
-      <c r="S40" t="s">
-        <v>70</v>
-      </c>
-      <c r="T40" t="s"/>
-      <c r="U40" t="s">
-        <v>71</v>
-      </c>
-      <c r="V40" t="s"/>
-      <c r="W40" t="s">
-        <v>556</v>
-      </c>
-      <c r="X40" t="s"/>
+        <v>593</v>
+      </c>
+      <c r="R40" t="s">
+        <v>594</v>
+      </c>
+      <c r="S40" t="s"/>
+      <c r="T40" t="s">
+        <v>72</v>
+      </c>
+      <c r="U40" t="s"/>
+      <c r="V40" t="s">
+        <v>73</v>
+      </c>
+      <c r="W40" t="s"/>
+      <c r="X40" t="s">
+        <v>595</v>
+      </c>
       <c r="Y40" t="s"/>
       <c r="Z40" t="s"/>
       <c r="AA40" t="s"/>
-      <c r="AB40" t="n">
+      <c r="AB40" t="s"/>
+      <c r="AC40" t="n">
         <v>28</v>
       </c>
     </row>
-    <row r="41" spans="1:28">
+    <row r="41" spans="1:29">
       <c r="A41" t="s">
-        <v>557</v>
+        <v>596</v>
       </c>
       <c r="B41" t="s">
-        <v>558</v>
+        <v>597</v>
       </c>
       <c r="C41" t="s">
-        <v>559</v>
+        <v>598</v>
       </c>
       <c r="D41" t="s">
-        <v>560</v>
+        <v>599</v>
       </c>
       <c r="E41" t="s">
-        <v>561</v>
+        <v>600</v>
       </c>
       <c r="F41" t="s">
-        <v>562</v>
+        <v>601</v>
       </c>
       <c r="G41" t="s">
-        <v>563</v>
+        <v>602</v>
       </c>
       <c r="H41" t="s">
-        <v>564</v>
+        <v>603</v>
       </c>
       <c r="I41" t="s">
-        <v>565</v>
+        <v>604</v>
       </c>
       <c r="J41" t="s">
-        <v>566</v>
+        <v>605</v>
       </c>
       <c r="K41" t="s">
-        <v>567</v>
+        <v>606</v>
       </c>
       <c r="L41" t="s">
-        <v>568</v>
+        <v>607</v>
       </c>
       <c r="M41" t="s">
-        <v>65</v>
+        <v>608</v>
       </c>
       <c r="N41" t="s">
-        <v>569</v>
+        <v>67</v>
       </c>
       <c r="O41" t="s">
-        <v>67</v>
+        <v>609</v>
       </c>
       <c r="P41" t="s">
-        <v>570</v>
+        <v>69</v>
       </c>
       <c r="Q41" t="s">
-        <v>571</v>
-      </c>
-      <c r="R41" t="s"/>
-      <c r="S41" t="s">
-        <v>70</v>
-      </c>
-      <c r="T41" t="s"/>
-      <c r="U41" t="s">
-        <v>71</v>
-      </c>
-      <c r="V41" t="s"/>
-      <c r="W41" t="s">
-        <v>572</v>
-      </c>
-      <c r="X41" t="s"/>
+        <v>610</v>
+      </c>
+      <c r="R41" t="s">
+        <v>611</v>
+      </c>
+      <c r="S41" t="s"/>
+      <c r="T41" t="s">
+        <v>72</v>
+      </c>
+      <c r="U41" t="s"/>
+      <c r="V41" t="s">
+        <v>73</v>
+      </c>
+      <c r="W41" t="s"/>
+      <c r="X41" t="s">
+        <v>612</v>
+      </c>
       <c r="Y41" t="s"/>
       <c r="Z41" t="s"/>
       <c r="AA41" t="s"/>
-      <c r="AB41" t="n">
+      <c r="AB41" t="s"/>
+      <c r="AC41" t="n">
         <v>63</v>
       </c>
     </row>
-    <row r="42" spans="1:28">
+    <row r="42" spans="1:29">
       <c r="A42" t="s">
-        <v>573</v>
+        <v>613</v>
       </c>
       <c r="B42" t="s">
-        <v>574</v>
+        <v>614</v>
       </c>
       <c r="C42" t="s"/>
       <c r="D42" t="s">
-        <v>575</v>
+        <v>615</v>
       </c>
       <c r="E42" t="s">
-        <v>576</v>
+        <v>616</v>
       </c>
       <c r="F42" t="s">
-        <v>577</v>
+        <v>617</v>
       </c>
       <c r="G42" t="s">
-        <v>563</v>
+        <v>602</v>
       </c>
       <c r="H42" t="s">
-        <v>578</v>
+        <v>618</v>
       </c>
       <c r="I42" t="s">
-        <v>579</v>
+        <v>619</v>
       </c>
       <c r="J42" t="s">
-        <v>580</v>
+        <v>620</v>
       </c>
       <c r="K42" t="s">
-        <v>581</v>
+        <v>621</v>
       </c>
       <c r="L42" t="s">
-        <v>582</v>
+        <v>622</v>
       </c>
       <c r="M42" t="s">
-        <v>65</v>
+        <v>623</v>
       </c>
       <c r="N42" t="s">
-        <v>583</v>
+        <v>67</v>
       </c>
       <c r="O42" t="s">
-        <v>67</v>
+        <v>624</v>
       </c>
       <c r="P42" t="s">
-        <v>584</v>
+        <v>69</v>
       </c>
       <c r="Q42" t="s">
-        <v>585</v>
-      </c>
-      <c r="R42" t="s"/>
-      <c r="S42" t="s">
-        <v>70</v>
-      </c>
-      <c r="T42" t="s"/>
-      <c r="U42" t="s">
-        <v>71</v>
-      </c>
-      <c r="V42" t="s"/>
-      <c r="W42" t="s">
-        <v>586</v>
-      </c>
-      <c r="X42" t="s"/>
+        <v>625</v>
+      </c>
+      <c r="R42" t="s">
+        <v>626</v>
+      </c>
+      <c r="S42" t="s"/>
+      <c r="T42" t="s">
+        <v>72</v>
+      </c>
+      <c r="U42" t="s"/>
+      <c r="V42" t="s">
+        <v>73</v>
+      </c>
+      <c r="W42" t="s"/>
+      <c r="X42" t="s">
+        <v>627</v>
+      </c>
       <c r="Y42" t="s"/>
       <c r="Z42" t="s"/>
       <c r="AA42" t="s"/>
-      <c r="AB42" t="n">
+      <c r="AB42" t="s"/>
+      <c r="AC42" t="n">
         <v>81</v>
       </c>
     </row>
-    <row r="43" spans="1:28">
+    <row r="43" spans="1:29">
       <c r="A43" t="s">
-        <v>587</v>
+        <v>628</v>
       </c>
       <c r="B43" t="s">
-        <v>588</v>
+        <v>629</v>
       </c>
       <c r="C43" t="s"/>
       <c r="D43" t="s">
-        <v>589</v>
+        <v>630</v>
       </c>
       <c r="E43" t="s">
-        <v>590</v>
+        <v>631</v>
       </c>
       <c r="F43" t="s">
-        <v>591</v>
+        <v>632</v>
       </c>
       <c r="G43" t="s">
-        <v>563</v>
+        <v>602</v>
       </c>
       <c r="H43" t="s">
-        <v>592</v>
+        <v>633</v>
       </c>
       <c r="I43" t="s">
-        <v>593</v>
+        <v>634</v>
       </c>
       <c r="J43" t="s">
-        <v>594</v>
+        <v>635</v>
       </c>
       <c r="K43" t="s">
-        <v>595</v>
+        <v>636</v>
       </c>
       <c r="L43" t="s">
-        <v>596</v>
+        <v>637</v>
       </c>
       <c r="M43" t="s">
-        <v>65</v>
+        <v>638</v>
       </c>
       <c r="N43" t="s">
-        <v>597</v>
+        <v>67</v>
       </c>
       <c r="O43" t="s">
-        <v>67</v>
+        <v>639</v>
       </c>
       <c r="P43" t="s">
-        <v>598</v>
+        <v>69</v>
       </c>
       <c r="Q43" t="s">
-        <v>599</v>
-      </c>
-      <c r="R43" t="s"/>
-      <c r="S43" t="s">
-        <v>70</v>
-      </c>
-      <c r="T43" t="s"/>
-      <c r="U43" t="s">
-        <v>71</v>
-      </c>
-      <c r="V43" t="s"/>
-      <c r="W43" t="s">
-        <v>600</v>
-      </c>
-      <c r="X43" t="s"/>
+        <v>640</v>
+      </c>
+      <c r="R43" t="s">
+        <v>641</v>
+      </c>
+      <c r="S43" t="s"/>
+      <c r="T43" t="s">
+        <v>72</v>
+      </c>
+      <c r="U43" t="s"/>
+      <c r="V43" t="s">
+        <v>73</v>
+      </c>
+      <c r="W43" t="s"/>
+      <c r="X43" t="s">
+        <v>642</v>
+      </c>
       <c r="Y43" t="s"/>
       <c r="Z43" t="s"/>
       <c r="AA43" t="s"/>
-      <c r="AB43" t="n">
+      <c r="AB43" t="s"/>
+      <c r="AC43" t="n">
         <v>34</v>
       </c>
     </row>
-    <row r="44" spans="1:28">
+    <row r="44" spans="1:29">
       <c r="A44" t="s">
-        <v>601</v>
+        <v>643</v>
       </c>
       <c r="B44" t="s">
-        <v>602</v>
+        <v>644</v>
       </c>
       <c r="C44" t="s"/>
       <c r="D44" t="s">
-        <v>603</v>
+        <v>645</v>
       </c>
       <c r="E44" t="s">
-        <v>604</v>
+        <v>646</v>
       </c>
       <c r="F44" t="s">
-        <v>605</v>
+        <v>647</v>
       </c>
       <c r="G44" t="s">
-        <v>606</v>
+        <v>648</v>
       </c>
       <c r="H44" t="s">
-        <v>607</v>
+        <v>649</v>
       </c>
       <c r="I44" t="s">
-        <v>608</v>
+        <v>650</v>
       </c>
       <c r="J44" t="s">
-        <v>254</v>
+        <v>269</v>
       </c>
       <c r="K44" t="s">
-        <v>609</v>
+        <v>651</v>
       </c>
       <c r="L44" t="s">
-        <v>610</v>
+        <v>652</v>
       </c>
       <c r="M44" t="s">
-        <v>65</v>
+        <v>653</v>
       </c>
       <c r="N44" t="s">
-        <v>611</v>
+        <v>67</v>
       </c>
       <c r="O44" t="s">
-        <v>67</v>
+        <v>654</v>
       </c>
       <c r="P44" t="s">
-        <v>612</v>
+        <v>69</v>
       </c>
       <c r="Q44" t="s">
-        <v>613</v>
-      </c>
-      <c r="R44" t="s"/>
-      <c r="S44" t="s">
-        <v>70</v>
-      </c>
-      <c r="T44" t="s"/>
-      <c r="U44" t="s">
-        <v>71</v>
-      </c>
-      <c r="V44" t="s"/>
-      <c r="W44" t="s">
-        <v>614</v>
-      </c>
-      <c r="X44" t="s"/>
+        <v>655</v>
+      </c>
+      <c r="R44" t="s">
+        <v>656</v>
+      </c>
+      <c r="S44" t="s"/>
+      <c r="T44" t="s">
+        <v>72</v>
+      </c>
+      <c r="U44" t="s"/>
+      <c r="V44" t="s">
+        <v>73</v>
+      </c>
+      <c r="W44" t="s"/>
+      <c r="X44" t="s">
+        <v>657</v>
+      </c>
       <c r="Y44" t="s"/>
       <c r="Z44" t="s"/>
       <c r="AA44" t="s"/>
-      <c r="AB44" t="n">
+      <c r="AB44" t="s"/>
+      <c r="AC44" t="n">
         <v>52</v>
       </c>
     </row>
-    <row r="45" spans="1:28">
+    <row r="45" spans="1:29">
       <c r="A45" t="s">
-        <v>615</v>
+        <v>658</v>
       </c>
       <c r="B45" t="s">
-        <v>616</v>
+        <v>659</v>
       </c>
       <c r="C45" t="s">
-        <v>617</v>
+        <v>660</v>
       </c>
       <c r="D45" t="s">
-        <v>618</v>
+        <v>661</v>
       </c>
       <c r="E45" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="F45" t="s"/>
       <c r="G45" t="s">
-        <v>326</v>
+        <v>347</v>
       </c>
       <c r="H45" t="s">
-        <v>619</v>
+        <v>662</v>
       </c>
       <c r="I45" t="s">
-        <v>620</v>
+        <v>663</v>
       </c>
       <c r="J45" t="s">
-        <v>162</v>
+        <v>170</v>
       </c>
       <c r="K45" t="s">
-        <v>621</v>
+        <v>664</v>
       </c>
       <c r="L45" t="s">
-        <v>622</v>
+        <v>665</v>
       </c>
       <c r="M45" t="s">
-        <v>65</v>
+        <v>666</v>
       </c>
       <c r="N45" t="s">
-        <v>623</v>
+        <v>67</v>
       </c>
       <c r="O45" t="s">
-        <v>67</v>
+        <v>667</v>
       </c>
       <c r="P45" t="s">
-        <v>624</v>
+        <v>69</v>
       </c>
       <c r="Q45" t="s">
-        <v>625</v>
-      </c>
-      <c r="R45" t="s"/>
-      <c r="S45" t="s">
-        <v>70</v>
-      </c>
-      <c r="T45" t="s"/>
-      <c r="U45" t="s">
-        <v>71</v>
-      </c>
-      <c r="V45" t="s"/>
-      <c r="W45" t="s">
-        <v>626</v>
-      </c>
-      <c r="X45" t="s"/>
+        <v>668</v>
+      </c>
+      <c r="R45" t="s">
+        <v>669</v>
+      </c>
+      <c r="S45" t="s"/>
+      <c r="T45" t="s">
+        <v>72</v>
+      </c>
+      <c r="U45" t="s"/>
+      <c r="V45" t="s">
+        <v>73</v>
+      </c>
+      <c r="W45" t="s"/>
+      <c r="X45" t="s">
+        <v>670</v>
+      </c>
       <c r="Y45" t="s"/>
       <c r="Z45" t="s"/>
       <c r="AA45" t="s"/>
-      <c r="AB45" t="n">
+      <c r="AB45" t="s"/>
+      <c r="AC45" t="n">
         <v>49</v>
       </c>
     </row>
-    <row r="46" spans="1:28">
+    <row r="46" spans="1:29">
       <c r="A46" t="s">
-        <v>627</v>
+        <v>671</v>
       </c>
       <c r="B46" t="s">
-        <v>628</v>
+        <v>672</v>
       </c>
       <c r="C46" t="s"/>
       <c r="D46" t="s"/>
       <c r="E46" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="F46" t="s">
-        <v>629</v>
+        <v>673</v>
       </c>
       <c r="G46" t="s">
-        <v>630</v>
+        <v>674</v>
       </c>
       <c r="H46" t="s">
-        <v>631</v>
+        <v>675</v>
       </c>
       <c r="I46" t="s">
-        <v>632</v>
+        <v>676</v>
       </c>
       <c r="J46" t="s">
-        <v>633</v>
+        <v>677</v>
       </c>
       <c r="K46" t="s">
-        <v>634</v>
+        <v>678</v>
       </c>
       <c r="L46" t="s">
-        <v>635</v>
+        <v>679</v>
       </c>
       <c r="M46" t="s">
-        <v>65</v>
+        <v>680</v>
       </c>
       <c r="N46" t="s">
-        <v>636</v>
+        <v>67</v>
       </c>
       <c r="O46" t="s">
-        <v>67</v>
+        <v>681</v>
       </c>
       <c r="P46" t="s">
-        <v>637</v>
+        <v>69</v>
       </c>
       <c r="Q46" t="s">
-        <v>638</v>
-      </c>
-      <c r="R46" t="s"/>
-      <c r="S46" t="s">
-        <v>70</v>
-      </c>
-      <c r="T46" t="s"/>
-      <c r="U46" t="s">
-        <v>71</v>
-      </c>
-      <c r="V46" t="s"/>
-      <c r="W46" t="s">
-        <v>639</v>
-      </c>
-      <c r="X46" t="s"/>
+        <v>682</v>
+      </c>
+      <c r="R46" t="s">
+        <v>683</v>
+      </c>
+      <c r="S46" t="s"/>
+      <c r="T46" t="s">
+        <v>72</v>
+      </c>
+      <c r="U46" t="s"/>
+      <c r="V46" t="s">
+        <v>73</v>
+      </c>
+      <c r="W46" t="s"/>
+      <c r="X46" t="s">
+        <v>684</v>
+      </c>
       <c r="Y46" t="s"/>
       <c r="Z46" t="s"/>
       <c r="AA46" t="s"/>
-      <c r="AB46" t="n">
+      <c r="AB46" t="s"/>
+      <c r="AC46" t="n">
         <v>41</v>
       </c>
     </row>
-    <row r="47" spans="1:28">
+    <row r="47" spans="1:29">
       <c r="A47" t="s">
-        <v>640</v>
+        <v>685</v>
       </c>
       <c r="B47" t="s">
-        <v>641</v>
+        <v>686</v>
       </c>
       <c r="C47" t="s"/>
       <c r="D47" t="s"/>
       <c r="E47" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="F47" t="s">
-        <v>312</v>
+        <v>332</v>
       </c>
       <c r="G47" t="s">
-        <v>642</v>
+        <v>687</v>
       </c>
       <c r="H47" t="s">
-        <v>643</v>
+        <v>688</v>
       </c>
       <c r="I47" t="s">
-        <v>644</v>
+        <v>689</v>
       </c>
       <c r="J47" t="s">
-        <v>645</v>
+        <v>690</v>
       </c>
       <c r="K47" t="s">
-        <v>646</v>
+        <v>691</v>
       </c>
       <c r="L47" t="s">
-        <v>647</v>
+        <v>692</v>
       </c>
       <c r="M47" t="s">
-        <v>65</v>
+        <v>693</v>
       </c>
       <c r="N47" t="s">
-        <v>648</v>
+        <v>67</v>
       </c>
       <c r="O47" t="s">
-        <v>67</v>
+        <v>694</v>
       </c>
       <c r="P47" t="s">
-        <v>649</v>
+        <v>69</v>
       </c>
       <c r="Q47" t="s">
-        <v>650</v>
-      </c>
-      <c r="R47" t="s"/>
-      <c r="S47" t="s">
-        <v>70</v>
-      </c>
-      <c r="T47" t="s"/>
-      <c r="U47" t="s">
-        <v>71</v>
-      </c>
-      <c r="V47" t="s"/>
-      <c r="W47" t="s">
-        <v>651</v>
-      </c>
-      <c r="X47" t="s"/>
+        <v>695</v>
+      </c>
+      <c r="R47" t="s">
+        <v>696</v>
+      </c>
+      <c r="S47" t="s"/>
+      <c r="T47" t="s">
+        <v>72</v>
+      </c>
+      <c r="U47" t="s"/>
+      <c r="V47" t="s">
+        <v>73</v>
+      </c>
+      <c r="W47" t="s"/>
+      <c r="X47" t="s">
+        <v>697</v>
+      </c>
       <c r="Y47" t="s"/>
       <c r="Z47" t="s"/>
       <c r="AA47" t="s"/>
-      <c r="AB47" t="n">
+      <c r="AB47" t="s"/>
+      <c r="AC47" t="n">
         <v>630</v>
       </c>
     </row>
-    <row r="48" spans="1:28">
+    <row r="48" spans="1:29">
       <c r="A48" t="s">
-        <v>652</v>
+        <v>698</v>
       </c>
       <c r="B48" t="s">
-        <v>653</v>
+        <v>699</v>
       </c>
       <c r="C48" t="s"/>
       <c r="D48" t="s">
-        <v>654</v>
+        <v>700</v>
       </c>
       <c r="E48" t="s">
-        <v>655</v>
+        <v>701</v>
       </c>
       <c r="F48" t="s">
-        <v>656</v>
+        <v>702</v>
       </c>
       <c r="G48" t="s">
-        <v>508</v>
+        <v>543</v>
       </c>
       <c r="H48" t="s">
-        <v>657</v>
+        <v>703</v>
       </c>
       <c r="I48" t="s">
-        <v>658</v>
+        <v>704</v>
       </c>
       <c r="J48" t="s">
-        <v>511</v>
+        <v>546</v>
       </c>
       <c r="K48" t="s">
-        <v>659</v>
+        <v>705</v>
       </c>
       <c r="L48" t="s">
-        <v>660</v>
+        <v>706</v>
       </c>
       <c r="M48" t="s">
-        <v>65</v>
+        <v>707</v>
       </c>
       <c r="N48" t="s">
-        <v>661</v>
+        <v>67</v>
       </c>
       <c r="O48" t="s">
-        <v>67</v>
+        <v>708</v>
       </c>
       <c r="P48" t="s">
-        <v>662</v>
+        <v>69</v>
       </c>
       <c r="Q48" t="s">
-        <v>663</v>
-      </c>
-      <c r="R48" t="s"/>
-      <c r="S48" t="s">
-        <v>70</v>
-      </c>
-      <c r="T48" t="s"/>
-      <c r="U48" t="s">
-        <v>71</v>
-      </c>
-      <c r="V48" t="s"/>
-      <c r="W48" t="s">
-        <v>664</v>
-      </c>
-      <c r="X48" t="s"/>
+        <v>709</v>
+      </c>
+      <c r="R48" t="s">
+        <v>710</v>
+      </c>
+      <c r="S48" t="s"/>
+      <c r="T48" t="s">
+        <v>72</v>
+      </c>
+      <c r="U48" t="s"/>
+      <c r="V48" t="s">
+        <v>73</v>
+      </c>
+      <c r="W48" t="s"/>
+      <c r="X48" t="s">
+        <v>711</v>
+      </c>
       <c r="Y48" t="s"/>
       <c r="Z48" t="s"/>
       <c r="AA48" t="s"/>
-      <c r="AB48" t="n">
+      <c r="AB48" t="s"/>
+      <c r="AC48" t="n">
         <v>171</v>
       </c>
     </row>
-    <row r="49" spans="1:28">
+    <row r="49" spans="1:29">
       <c r="A49" t="s">
-        <v>665</v>
+        <v>712</v>
       </c>
       <c r="B49" t="s">
-        <v>666</v>
+        <v>713</v>
       </c>
       <c r="C49" t="s">
-        <v>667</v>
+        <v>714</v>
       </c>
       <c r="D49" t="s"/>
       <c r="E49" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="F49" t="s">
-        <v>668</v>
+        <v>715</v>
       </c>
       <c r="G49" t="s">
-        <v>535</v>
+        <v>572</v>
       </c>
       <c r="H49" t="s">
-        <v>669</v>
+        <v>716</v>
       </c>
       <c r="I49" t="s">
-        <v>670</v>
+        <v>717</v>
       </c>
       <c r="J49" t="s">
-        <v>671</v>
+        <v>718</v>
       </c>
       <c r="K49" t="s">
-        <v>672</v>
+        <v>719</v>
       </c>
       <c r="L49" t="s">
-        <v>673</v>
+        <v>720</v>
       </c>
       <c r="M49" t="s">
-        <v>65</v>
+        <v>721</v>
       </c>
       <c r="N49" t="s">
-        <v>674</v>
+        <v>67</v>
       </c>
       <c r="O49" t="s">
-        <v>67</v>
+        <v>722</v>
       </c>
       <c r="P49" t="s">
-        <v>675</v>
+        <v>69</v>
       </c>
       <c r="Q49" t="s">
-        <v>676</v>
-      </c>
-      <c r="R49" t="s"/>
-      <c r="S49" t="s">
-        <v>70</v>
-      </c>
-      <c r="T49" t="s"/>
-      <c r="U49" t="s">
-        <v>71</v>
-      </c>
-      <c r="V49" t="s"/>
-      <c r="W49" t="s">
-        <v>677</v>
-      </c>
-      <c r="X49" t="s"/>
+        <v>723</v>
+      </c>
+      <c r="R49" t="s">
+        <v>724</v>
+      </c>
+      <c r="S49" t="s"/>
+      <c r="T49" t="s">
+        <v>72</v>
+      </c>
+      <c r="U49" t="s"/>
+      <c r="V49" t="s">
+        <v>73</v>
+      </c>
+      <c r="W49" t="s"/>
+      <c r="X49" t="s">
+        <v>725</v>
+      </c>
       <c r="Y49" t="s"/>
       <c r="Z49" t="s"/>
       <c r="AA49" t="s"/>
-      <c r="AB49" t="n">
+      <c r="AB49" t="s"/>
+      <c r="AC49" t="n">
         <v>30</v>
       </c>
     </row>
-    <row r="50" spans="1:28">
+    <row r="50" spans="1:29">
       <c r="A50" t="s">
-        <v>678</v>
+        <v>726</v>
       </c>
       <c r="B50" t="s">
-        <v>679</v>
+        <v>727</v>
       </c>
       <c r="C50" t="s">
-        <v>680</v>
+        <v>728</v>
       </c>
       <c r="D50" t="s">
-        <v>681</v>
+        <v>729</v>
       </c>
       <c r="E50" t="s">
-        <v>682</v>
+        <v>730</v>
       </c>
       <c r="F50" t="s">
-        <v>683</v>
+        <v>731</v>
       </c>
       <c r="G50" t="s">
-        <v>684</v>
+        <v>732</v>
       </c>
       <c r="H50" t="s">
-        <v>685</v>
+        <v>733</v>
       </c>
       <c r="I50" t="s">
-        <v>686</v>
+        <v>734</v>
       </c>
       <c r="J50" t="s">
-        <v>254</v>
+        <v>269</v>
       </c>
       <c r="K50" t="s">
-        <v>687</v>
+        <v>735</v>
       </c>
       <c r="L50" t="s">
-        <v>688</v>
+        <v>736</v>
       </c>
       <c r="M50" t="s">
-        <v>65</v>
+        <v>737</v>
       </c>
       <c r="N50" t="s">
-        <v>689</v>
+        <v>67</v>
       </c>
       <c r="O50" t="s">
-        <v>67</v>
+        <v>738</v>
       </c>
       <c r="P50" t="s">
-        <v>690</v>
+        <v>69</v>
       </c>
       <c r="Q50" t="s">
-        <v>691</v>
-      </c>
-      <c r="R50" t="s"/>
-      <c r="S50" t="s">
-        <v>70</v>
-      </c>
-      <c r="T50" t="s"/>
-      <c r="U50" t="s">
-        <v>71</v>
-      </c>
-      <c r="V50" t="s"/>
-      <c r="W50" t="s">
-        <v>692</v>
-      </c>
-      <c r="X50" t="s"/>
+        <v>739</v>
+      </c>
+      <c r="R50" t="s">
+        <v>740</v>
+      </c>
+      <c r="S50" t="s"/>
+      <c r="T50" t="s">
+        <v>72</v>
+      </c>
+      <c r="U50" t="s"/>
+      <c r="V50" t="s">
+        <v>73</v>
+      </c>
+      <c r="W50" t="s"/>
+      <c r="X50" t="s">
+        <v>741</v>
+      </c>
       <c r="Y50" t="s"/>
       <c r="Z50" t="s"/>
       <c r="AA50" t="s"/>
-      <c r="AB50" t="n">
+      <c r="AB50" t="s"/>
+      <c r="AC50" t="n">
         <v>15</v>
       </c>
     </row>
-    <row r="51" spans="1:28">
+    <row r="51" spans="1:29">
       <c r="A51" t="s">
-        <v>693</v>
+        <v>742</v>
       </c>
       <c r="B51" t="s">
-        <v>694</v>
+        <v>743</v>
       </c>
       <c r="C51" t="s">
-        <v>695</v>
+        <v>744</v>
       </c>
       <c r="D51" t="s"/>
       <c r="E51" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="F51" t="s">
-        <v>696</v>
+        <v>745</v>
       </c>
       <c r="G51" t="s">
-        <v>481</v>
+        <v>514</v>
       </c>
       <c r="H51" t="s">
-        <v>697</v>
+        <v>746</v>
       </c>
       <c r="I51" t="s">
-        <v>698</v>
+        <v>747</v>
       </c>
       <c r="J51" t="s">
-        <v>254</v>
+        <v>269</v>
       </c>
       <c r="K51" t="s">
-        <v>699</v>
+        <v>748</v>
       </c>
       <c r="L51" t="s">
-        <v>700</v>
+        <v>749</v>
       </c>
       <c r="M51" t="s">
-        <v>65</v>
+        <v>750</v>
       </c>
       <c r="N51" t="s">
-        <v>701</v>
+        <v>67</v>
       </c>
       <c r="O51" t="s">
-        <v>67</v>
+        <v>751</v>
       </c>
       <c r="P51" t="s">
-        <v>702</v>
+        <v>69</v>
       </c>
       <c r="Q51" t="s">
-        <v>703</v>
-      </c>
-      <c r="R51" t="s"/>
-      <c r="S51" t="s">
-        <v>70</v>
-      </c>
-      <c r="T51" t="s"/>
-      <c r="U51" t="s">
-        <v>71</v>
-      </c>
-      <c r="V51" t="s"/>
-      <c r="W51" t="s">
-        <v>704</v>
-      </c>
-      <c r="X51" t="s"/>
+        <v>752</v>
+      </c>
+      <c r="R51" t="s">
+        <v>753</v>
+      </c>
+      <c r="S51" t="s"/>
+      <c r="T51" t="s">
+        <v>72</v>
+      </c>
+      <c r="U51" t="s"/>
+      <c r="V51" t="s">
+        <v>73</v>
+      </c>
+      <c r="W51" t="s"/>
+      <c r="X51" t="s">
+        <v>754</v>
+      </c>
       <c r="Y51" t="s"/>
       <c r="Z51" t="s"/>
       <c r="AA51" t="s"/>
-      <c r="AB51" t="n">
+      <c r="AB51" t="s"/>
+      <c r="AC51" t="n">
         <v>12</v>
       </c>
     </row>
-    <row r="52" spans="1:28">
+    <row r="52" spans="1:29">
       <c r="A52" t="s">
-        <v>705</v>
+        <v>755</v>
       </c>
       <c r="B52" t="s">
-        <v>706</v>
+        <v>756</v>
       </c>
       <c r="C52" t="s">
-        <v>707</v>
+        <v>757</v>
       </c>
       <c r="D52" t="s">
-        <v>708</v>
+        <v>758</v>
       </c>
       <c r="E52" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="F52" t="s">
-        <v>709</v>
+        <v>759</v>
       </c>
       <c r="G52" t="s">
-        <v>710</v>
+        <v>760</v>
       </c>
       <c r="H52" t="s">
-        <v>711</v>
+        <v>761</v>
       </c>
       <c r="I52" t="s">
-        <v>712</v>
+        <v>762</v>
       </c>
       <c r="J52" t="s">
-        <v>200</v>
+        <v>211</v>
       </c>
       <c r="K52" t="s">
-        <v>713</v>
+        <v>763</v>
       </c>
       <c r="L52" t="s">
-        <v>714</v>
+        <v>764</v>
       </c>
       <c r="M52" t="s">
-        <v>65</v>
+        <v>765</v>
       </c>
       <c r="N52" t="s">
-        <v>715</v>
+        <v>67</v>
       </c>
       <c r="O52" t="s">
-        <v>67</v>
+        <v>766</v>
       </c>
       <c r="P52" t="s">
-        <v>716</v>
+        <v>69</v>
       </c>
       <c r="Q52" t="s">
-        <v>717</v>
-      </c>
-      <c r="R52" t="s"/>
-      <c r="S52" t="s">
-        <v>70</v>
-      </c>
-      <c r="T52" t="s"/>
-      <c r="U52" t="s">
-        <v>71</v>
-      </c>
-      <c r="V52" t="s"/>
-      <c r="W52" t="s">
-        <v>718</v>
-      </c>
-      <c r="X52" t="s"/>
+        <v>767</v>
+      </c>
+      <c r="R52" t="s">
+        <v>768</v>
+      </c>
+      <c r="S52" t="s"/>
+      <c r="T52" t="s">
+        <v>72</v>
+      </c>
+      <c r="U52" t="s"/>
+      <c r="V52" t="s">
+        <v>73</v>
+      </c>
+      <c r="W52" t="s"/>
+      <c r="X52" t="s">
+        <v>769</v>
+      </c>
       <c r="Y52" t="s"/>
       <c r="Z52" t="s"/>
       <c r="AA52" t="s"/>
-      <c r="AB52" t="n">
+      <c r="AB52" t="s"/>
+      <c r="AC52" t="n">
         <v>44</v>
       </c>
     </row>
-    <row r="53" spans="1:28">
+    <row r="53" spans="1:29">
       <c r="A53" t="s">
-        <v>719</v>
+        <v>770</v>
       </c>
       <c r="B53" t="s">
-        <v>720</v>
+        <v>771</v>
       </c>
       <c r="C53" t="s"/>
       <c r="D53" t="s">
-        <v>721</v>
+        <v>772</v>
       </c>
       <c r="E53" t="s">
-        <v>722</v>
+        <v>773</v>
       </c>
       <c r="F53" t="s">
-        <v>723</v>
+        <v>774</v>
       </c>
       <c r="G53" t="s">
-        <v>326</v>
+        <v>347</v>
       </c>
       <c r="H53" t="s">
-        <v>724</v>
+        <v>775</v>
       </c>
       <c r="I53" t="s">
-        <v>725</v>
+        <v>776</v>
       </c>
       <c r="J53" t="s">
-        <v>162</v>
+        <v>170</v>
       </c>
       <c r="K53" t="s">
-        <v>726</v>
+        <v>777</v>
       </c>
       <c r="L53" t="s">
-        <v>727</v>
+        <v>778</v>
       </c>
       <c r="M53" t="s">
-        <v>65</v>
+        <v>779</v>
       </c>
       <c r="N53" t="s">
-        <v>728</v>
+        <v>67</v>
       </c>
       <c r="O53" t="s">
-        <v>67</v>
+        <v>780</v>
       </c>
       <c r="P53" t="s">
-        <v>729</v>
+        <v>69</v>
       </c>
       <c r="Q53" t="s">
-        <v>730</v>
-      </c>
-      <c r="R53" t="s"/>
-      <c r="S53" t="s">
-        <v>70</v>
-      </c>
-      <c r="T53" t="s"/>
-      <c r="U53" t="s">
-        <v>71</v>
-      </c>
-      <c r="V53" t="s"/>
-      <c r="W53" t="s">
-        <v>731</v>
-      </c>
-      <c r="X53" t="s"/>
+        <v>781</v>
+      </c>
+      <c r="R53" t="s">
+        <v>782</v>
+      </c>
+      <c r="S53" t="s"/>
+      <c r="T53" t="s">
+        <v>72</v>
+      </c>
+      <c r="U53" t="s"/>
+      <c r="V53" t="s">
+        <v>73</v>
+      </c>
+      <c r="W53" t="s"/>
+      <c r="X53" t="s">
+        <v>783</v>
+      </c>
       <c r="Y53" t="s"/>
       <c r="Z53" t="s"/>
       <c r="AA53" t="s"/>
-      <c r="AB53" t="n">
+      <c r="AB53" t="s"/>
+      <c r="AC53" t="n">
         <v>6</v>
       </c>
     </row>
-    <row r="54" spans="1:28">
+    <row r="54" spans="1:29">
       <c r="A54" t="s">
-        <v>732</v>
+        <v>784</v>
       </c>
       <c r="B54" t="s">
-        <v>733</v>
+        <v>785</v>
       </c>
       <c r="C54" t="s"/>
       <c r="D54" t="s">
-        <v>734</v>
+        <v>786</v>
       </c>
       <c r="E54" t="s">
-        <v>735</v>
+        <v>787</v>
       </c>
       <c r="F54" t="s"/>
       <c r="G54" t="s">
-        <v>710</v>
+        <v>760</v>
       </c>
       <c r="H54" t="s">
-        <v>736</v>
+        <v>788</v>
       </c>
       <c r="I54" t="s">
-        <v>737</v>
+        <v>789</v>
       </c>
       <c r="J54" t="s">
-        <v>738</v>
+        <v>790</v>
       </c>
       <c r="K54" t="s">
-        <v>739</v>
+        <v>791</v>
       </c>
       <c r="L54" t="s">
-        <v>740</v>
+        <v>792</v>
       </c>
       <c r="M54" t="s">
-        <v>65</v>
+        <v>793</v>
       </c>
       <c r="N54" t="s">
-        <v>741</v>
+        <v>67</v>
       </c>
       <c r="O54" t="s">
-        <v>67</v>
+        <v>794</v>
       </c>
       <c r="P54" t="s">
-        <v>742</v>
+        <v>69</v>
       </c>
       <c r="Q54" t="s">
-        <v>743</v>
-      </c>
-      <c r="R54" t="s"/>
-      <c r="S54" t="s">
-        <v>70</v>
-      </c>
-      <c r="T54" t="s"/>
-      <c r="U54" t="s">
-        <v>71</v>
-      </c>
-      <c r="V54" t="s"/>
-      <c r="W54" t="s">
-        <v>744</v>
-      </c>
-      <c r="X54" t="s"/>
+        <v>795</v>
+      </c>
+      <c r="R54" t="s">
+        <v>796</v>
+      </c>
+      <c r="S54" t="s"/>
+      <c r="T54" t="s">
+        <v>72</v>
+      </c>
+      <c r="U54" t="s"/>
+      <c r="V54" t="s">
+        <v>73</v>
+      </c>
+      <c r="W54" t="s"/>
+      <c r="X54" t="s">
+        <v>797</v>
+      </c>
       <c r="Y54" t="s"/>
       <c r="Z54" t="s"/>
       <c r="AA54" t="s"/>
-      <c r="AB54" t="n">
+      <c r="AB54" t="s"/>
+      <c r="AC54" t="n">
         <v>72</v>
       </c>
     </row>
-    <row r="55" spans="1:28">
+    <row r="55" spans="1:29">
       <c r="A55" t="s">
-        <v>745</v>
+        <v>798</v>
       </c>
       <c r="B55" t="s">
-        <v>746</v>
+        <v>799</v>
       </c>
       <c r="C55" t="s"/>
       <c r="D55" t="s"/>
       <c r="E55" t="s">
-        <v>747</v>
+        <v>800</v>
       </c>
       <c r="F55" t="s"/>
       <c r="G55" t="s">
-        <v>481</v>
+        <v>514</v>
       </c>
       <c r="H55" t="s">
-        <v>748</v>
+        <v>801</v>
       </c>
       <c r="I55" t="s">
-        <v>749</v>
+        <v>802</v>
       </c>
       <c r="J55" t="s">
-        <v>254</v>
+        <v>269</v>
       </c>
       <c r="K55" t="s">
-        <v>750</v>
+        <v>803</v>
       </c>
       <c r="L55" t="s">
-        <v>751</v>
+        <v>804</v>
       </c>
       <c r="M55" t="s">
-        <v>65</v>
+        <v>805</v>
       </c>
       <c r="N55" t="s">
-        <v>752</v>
+        <v>67</v>
       </c>
       <c r="O55" t="s">
-        <v>67</v>
+        <v>806</v>
       </c>
       <c r="P55" t="s">
-        <v>753</v>
+        <v>69</v>
       </c>
       <c r="Q55" t="s">
-        <v>754</v>
-      </c>
-      <c r="R55" t="s"/>
-      <c r="S55" t="s">
-        <v>70</v>
-      </c>
-      <c r="T55" t="s"/>
-      <c r="U55" t="s">
-        <v>71</v>
-      </c>
-      <c r="V55" t="s"/>
-      <c r="W55" t="s">
-        <v>755</v>
-      </c>
-      <c r="X55" t="s"/>
+        <v>807</v>
+      </c>
+      <c r="R55" t="s">
+        <v>808</v>
+      </c>
+      <c r="S55" t="s"/>
+      <c r="T55" t="s">
+        <v>72</v>
+      </c>
+      <c r="U55" t="s"/>
+      <c r="V55" t="s">
+        <v>73</v>
+      </c>
+      <c r="W55" t="s"/>
+      <c r="X55" t="s">
+        <v>809</v>
+      </c>
       <c r="Y55" t="s"/>
       <c r="Z55" t="s"/>
       <c r="AA55" t="s"/>
-      <c r="AB55" t="n">
+      <c r="AB55" t="s"/>
+      <c r="AC55" t="n">
         <v>19</v>
       </c>
     </row>
-    <row r="56" spans="1:28">
+    <row r="56" spans="1:29">
       <c r="A56" t="s">
-        <v>756</v>
+        <v>810</v>
       </c>
       <c r="B56" t="s">
-        <v>757</v>
+        <v>811</v>
       </c>
       <c r="C56" t="s"/>
       <c r="D56" t="s">
-        <v>758</v>
+        <v>812</v>
       </c>
       <c r="E56" t="s">
-        <v>682</v>
+        <v>730</v>
       </c>
       <c r="F56" t="s"/>
       <c r="G56" t="s">
-        <v>759</v>
+        <v>813</v>
       </c>
       <c r="H56" t="s">
-        <v>760</v>
+        <v>814</v>
       </c>
       <c r="I56" t="s">
-        <v>761</v>
+        <v>815</v>
       </c>
       <c r="J56" t="s">
-        <v>162</v>
+        <v>170</v>
       </c>
       <c r="K56" t="s">
-        <v>762</v>
+        <v>816</v>
       </c>
       <c r="L56" t="s">
-        <v>763</v>
+        <v>817</v>
       </c>
       <c r="M56" t="s">
-        <v>65</v>
+        <v>818</v>
       </c>
       <c r="N56" t="s">
-        <v>764</v>
+        <v>67</v>
       </c>
       <c r="O56" t="s">
-        <v>67</v>
+        <v>819</v>
       </c>
       <c r="P56" t="s">
-        <v>765</v>
+        <v>69</v>
       </c>
       <c r="Q56" t="s">
-        <v>766</v>
-      </c>
-      <c r="R56" t="s"/>
-      <c r="S56" t="s">
-        <v>70</v>
-      </c>
-      <c r="T56" t="s"/>
-      <c r="U56" t="s">
-        <v>71</v>
-      </c>
-      <c r="V56" t="s"/>
-      <c r="W56" t="s">
-        <v>767</v>
-      </c>
-      <c r="X56" t="s"/>
+        <v>820</v>
+      </c>
+      <c r="R56" t="s">
+        <v>821</v>
+      </c>
+      <c r="S56" t="s"/>
+      <c r="T56" t="s">
+        <v>72</v>
+      </c>
+      <c r="U56" t="s"/>
+      <c r="V56" t="s">
+        <v>73</v>
+      </c>
+      <c r="W56" t="s"/>
+      <c r="X56" t="s">
+        <v>822</v>
+      </c>
       <c r="Y56" t="s"/>
       <c r="Z56" t="s"/>
       <c r="AA56" t="s"/>
-      <c r="AB56" t="n">
+      <c r="AB56" t="s"/>
+      <c r="AC56" t="n">
         <v>7</v>
       </c>
     </row>
-    <row r="57" spans="1:28">
+    <row r="57" spans="1:29">
       <c r="A57" t="s">
-        <v>768</v>
+        <v>823</v>
       </c>
       <c r="B57" t="s">
-        <v>769</v>
+        <v>824</v>
       </c>
       <c r="C57" t="s"/>
       <c r="D57" t="s"/>
       <c r="E57" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="F57" t="s">
-        <v>770</v>
+        <v>825</v>
       </c>
       <c r="G57" t="s">
-        <v>771</v>
+        <v>826</v>
       </c>
       <c r="H57" t="s">
-        <v>772</v>
+        <v>827</v>
       </c>
       <c r="I57" t="s">
-        <v>773</v>
+        <v>828</v>
       </c>
       <c r="J57" t="s">
-        <v>162</v>
+        <v>170</v>
       </c>
       <c r="K57" t="s">
-        <v>774</v>
+        <v>829</v>
       </c>
       <c r="L57" t="s">
-        <v>775</v>
+        <v>830</v>
       </c>
       <c r="M57" t="s">
-        <v>65</v>
+        <v>831</v>
       </c>
       <c r="N57" t="s">
-        <v>776</v>
+        <v>67</v>
       </c>
       <c r="O57" t="s">
-        <v>67</v>
+        <v>832</v>
       </c>
       <c r="P57" t="s">
-        <v>777</v>
+        <v>69</v>
       </c>
       <c r="Q57" t="s">
-        <v>778</v>
-      </c>
-      <c r="R57" t="s"/>
-      <c r="S57" t="s">
-        <v>70</v>
-      </c>
-      <c r="T57" t="s"/>
-      <c r="U57" t="s">
-        <v>71</v>
-      </c>
-      <c r="V57" t="s"/>
-      <c r="W57" t="s">
-        <v>779</v>
-      </c>
-      <c r="X57" t="s"/>
+        <v>833</v>
+      </c>
+      <c r="R57" t="s">
+        <v>834</v>
+      </c>
+      <c r="S57" t="s"/>
+      <c r="T57" t="s">
+        <v>72</v>
+      </c>
+      <c r="U57" t="s"/>
+      <c r="V57" t="s">
+        <v>73</v>
+      </c>
+      <c r="W57" t="s"/>
+      <c r="X57" t="s">
+        <v>835</v>
+      </c>
       <c r="Y57" t="s"/>
       <c r="Z57" t="s"/>
       <c r="AA57" t="s"/>
-      <c r="AB57" t="n">
+      <c r="AB57" t="s"/>
+      <c r="AC57" t="n">
         <v>56</v>
       </c>
     </row>
-    <row r="58" spans="1:28">
+    <row r="58" spans="1:29">
       <c r="A58" t="s">
-        <v>505</v>
+        <v>540</v>
       </c>
       <c r="B58" t="s">
-        <v>506</v>
+        <v>541</v>
       </c>
       <c r="C58" t="s"/>
       <c r="D58" t="s">
-        <v>780</v>
+        <v>836</v>
       </c>
       <c r="E58" t="s">
-        <v>403</v>
+        <v>430</v>
       </c>
       <c r="F58" t="s"/>
       <c r="G58" t="s">
-        <v>508</v>
+        <v>543</v>
       </c>
       <c r="H58" t="s">
-        <v>781</v>
+        <v>837</v>
       </c>
       <c r="I58" t="s">
-        <v>782</v>
+        <v>838</v>
       </c>
       <c r="J58" t="s">
-        <v>511</v>
+        <v>546</v>
       </c>
       <c r="K58" t="s">
-        <v>783</v>
+        <v>839</v>
       </c>
       <c r="L58" t="s">
-        <v>784</v>
+        <v>840</v>
       </c>
       <c r="M58" t="s">
-        <v>65</v>
+        <v>841</v>
       </c>
       <c r="N58" t="s">
-        <v>785</v>
+        <v>67</v>
       </c>
       <c r="O58" t="s">
-        <v>67</v>
+        <v>842</v>
       </c>
       <c r="P58" t="s">
-        <v>786</v>
+        <v>69</v>
       </c>
       <c r="Q58" t="s">
-        <v>516</v>
-      </c>
-      <c r="R58" t="s"/>
-      <c r="S58" t="s">
-        <v>70</v>
-      </c>
-      <c r="T58" t="s"/>
-      <c r="U58" t="s">
-        <v>71</v>
-      </c>
-      <c r="V58" t="s"/>
-      <c r="W58" t="s">
-        <v>518</v>
-      </c>
-      <c r="X58" t="s"/>
+        <v>843</v>
+      </c>
+      <c r="R58" t="s">
+        <v>552</v>
+      </c>
+      <c r="S58" t="s"/>
+      <c r="T58" t="s">
+        <v>72</v>
+      </c>
+      <c r="U58" t="s"/>
+      <c r="V58" t="s">
+        <v>73</v>
+      </c>
+      <c r="W58" t="s"/>
+      <c r="X58" t="s">
+        <v>554</v>
+      </c>
       <c r="Y58" t="s"/>
       <c r="Z58" t="s"/>
       <c r="AA58" t="s"/>
-      <c r="AB58" t="n">
+      <c r="AB58" t="s"/>
+      <c r="AC58" t="n">
         <v>314</v>
       </c>
     </row>
-    <row r="59" spans="1:28">
+    <row r="59" spans="1:29">
       <c r="A59" t="s">
-        <v>787</v>
+        <v>844</v>
       </c>
       <c r="B59" t="s">
-        <v>788</v>
+        <v>845</v>
       </c>
       <c r="C59" t="s"/>
       <c r="D59" t="s">
-        <v>789</v>
+        <v>846</v>
       </c>
       <c r="E59" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="F59" t="s"/>
       <c r="G59" t="s">
-        <v>481</v>
+        <v>514</v>
       </c>
       <c r="H59" t="s">
-        <v>790</v>
+        <v>847</v>
       </c>
       <c r="I59" t="s">
-        <v>791</v>
+        <v>848</v>
       </c>
       <c r="J59" t="s">
-        <v>254</v>
+        <v>269</v>
       </c>
       <c r="K59" t="s">
-        <v>792</v>
+        <v>849</v>
       </c>
       <c r="L59" t="s">
-        <v>793</v>
+        <v>850</v>
       </c>
       <c r="M59" t="s">
-        <v>65</v>
+        <v>851</v>
       </c>
       <c r="N59" t="s">
-        <v>794</v>
+        <v>67</v>
       </c>
       <c r="O59" t="s">
-        <v>67</v>
+        <v>852</v>
       </c>
       <c r="P59" t="s">
-        <v>795</v>
+        <v>69</v>
       </c>
       <c r="Q59" t="s">
-        <v>796</v>
-      </c>
-      <c r="R59" t="s"/>
-      <c r="S59" t="s">
-        <v>70</v>
-      </c>
-      <c r="T59" t="s"/>
-      <c r="U59" t="s">
-        <v>71</v>
-      </c>
-      <c r="V59" t="s"/>
-      <c r="W59" t="s">
-        <v>797</v>
-      </c>
-      <c r="X59" t="s"/>
+        <v>853</v>
+      </c>
+      <c r="R59" t="s">
+        <v>854</v>
+      </c>
+      <c r="S59" t="s"/>
+      <c r="T59" t="s">
+        <v>72</v>
+      </c>
+      <c r="U59" t="s"/>
+      <c r="V59" t="s">
+        <v>73</v>
+      </c>
+      <c r="W59" t="s"/>
+      <c r="X59" t="s">
+        <v>855</v>
+      </c>
       <c r="Y59" t="s"/>
       <c r="Z59" t="s"/>
       <c r="AA59" t="s"/>
-      <c r="AB59" t="n">
+      <c r="AB59" t="s"/>
+      <c r="AC59" t="n">
         <v>15</v>
       </c>
     </row>
-    <row r="60" spans="1:28">
+    <row r="60" spans="1:29">
       <c r="A60" t="s">
-        <v>798</v>
+        <v>856</v>
       </c>
       <c r="B60" t="s">
-        <v>799</v>
+        <v>857</v>
       </c>
       <c r="C60" t="s"/>
       <c r="D60" t="s"/>
       <c r="E60" t="s">
-        <v>800</v>
+        <v>858</v>
       </c>
       <c r="F60" t="s">
-        <v>801</v>
+        <v>859</v>
       </c>
       <c r="G60" t="s">
-        <v>481</v>
+        <v>514</v>
       </c>
       <c r="H60" t="s">
-        <v>802</v>
+        <v>860</v>
       </c>
       <c r="I60" t="s">
-        <v>803</v>
+        <v>861</v>
       </c>
       <c r="J60" t="s">
-        <v>254</v>
+        <v>269</v>
       </c>
       <c r="K60" t="s">
-        <v>804</v>
+        <v>862</v>
       </c>
       <c r="L60" t="s">
-        <v>805</v>
+        <v>863</v>
       </c>
       <c r="M60" t="s">
-        <v>65</v>
+        <v>864</v>
       </c>
       <c r="N60" t="s">
-        <v>806</v>
+        <v>67</v>
       </c>
       <c r="O60" t="s">
-        <v>67</v>
+        <v>865</v>
       </c>
       <c r="P60" t="s">
-        <v>807</v>
+        <v>69</v>
       </c>
       <c r="Q60" t="s">
-        <v>808</v>
-      </c>
-      <c r="R60" t="s"/>
-      <c r="S60" t="s">
-        <v>70</v>
-      </c>
-      <c r="T60" t="s"/>
-      <c r="U60" t="s">
-        <v>71</v>
-      </c>
-      <c r="V60" t="s"/>
-      <c r="W60" t="s">
-        <v>809</v>
-      </c>
-      <c r="X60" t="s"/>
+        <v>866</v>
+      </c>
+      <c r="R60" t="s">
+        <v>867</v>
+      </c>
+      <c r="S60" t="s"/>
+      <c r="T60" t="s">
+        <v>72</v>
+      </c>
+      <c r="U60" t="s"/>
+      <c r="V60" t="s">
+        <v>73</v>
+      </c>
+      <c r="W60" t="s"/>
+      <c r="X60" t="s">
+        <v>868</v>
+      </c>
       <c r="Y60" t="s"/>
       <c r="Z60" t="s"/>
       <c r="AA60" t="s"/>
-      <c r="AB60" t="n">
+      <c r="AB60" t="s"/>
+      <c r="AC60" t="n">
         <v>21</v>
       </c>
     </row>
-    <row r="61" spans="1:28">
+    <row r="61" spans="1:29">
       <c r="A61" t="s">
-        <v>810</v>
+        <v>869</v>
       </c>
       <c r="B61" t="s">
-        <v>811</v>
+        <v>870</v>
       </c>
       <c r="C61" t="s"/>
       <c r="D61" t="s">
-        <v>812</v>
+        <v>871</v>
       </c>
       <c r="E61" t="s">
-        <v>813</v>
+        <v>872</v>
       </c>
       <c r="F61" t="s">
-        <v>814</v>
+        <v>873</v>
       </c>
       <c r="G61" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="H61" t="s">
-        <v>815</v>
+        <v>874</v>
       </c>
       <c r="I61" t="s">
-        <v>816</v>
+        <v>875</v>
       </c>
       <c r="J61" t="s">
-        <v>817</v>
+        <v>876</v>
       </c>
       <c r="K61" t="s">
-        <v>818</v>
+        <v>877</v>
       </c>
       <c r="L61" t="s">
-        <v>819</v>
+        <v>878</v>
       </c>
       <c r="M61" t="s">
-        <v>65</v>
+        <v>879</v>
       </c>
       <c r="N61" t="s">
-        <v>820</v>
+        <v>67</v>
       </c>
       <c r="O61" t="s">
-        <v>67</v>
+        <v>880</v>
       </c>
       <c r="P61" t="s">
-        <v>821</v>
+        <v>69</v>
       </c>
       <c r="Q61" t="s">
-        <v>822</v>
-      </c>
-      <c r="R61" t="s"/>
-      <c r="S61" t="s">
-        <v>70</v>
-      </c>
-      <c r="T61" t="s"/>
-      <c r="U61" t="s">
-        <v>71</v>
-      </c>
-      <c r="V61" t="s"/>
-      <c r="W61" t="s">
-        <v>823</v>
-      </c>
-      <c r="X61" t="s"/>
+        <v>881</v>
+      </c>
+      <c r="R61" t="s">
+        <v>882</v>
+      </c>
+      <c r="S61" t="s"/>
+      <c r="T61" t="s">
+        <v>72</v>
+      </c>
+      <c r="U61" t="s"/>
+      <c r="V61" t="s">
+        <v>73</v>
+      </c>
+      <c r="W61" t="s"/>
+      <c r="X61" t="s">
+        <v>883</v>
+      </c>
       <c r="Y61" t="s"/>
       <c r="Z61" t="s"/>
       <c r="AA61" t="s"/>
-      <c r="AB61" t="n">
+      <c r="AB61" t="s"/>
+      <c r="AC61" t="n">
         <v>126</v>
       </c>
     </row>
-    <row r="62" spans="1:28">
+    <row r="62" spans="1:29">
       <c r="A62" t="s">
-        <v>824</v>
+        <v>884</v>
       </c>
       <c r="B62" t="s">
-        <v>825</v>
+        <v>885</v>
       </c>
       <c r="C62" t="s">
-        <v>826</v>
+        <v>886</v>
       </c>
       <c r="D62" t="s"/>
       <c r="E62" t="s">
-        <v>403</v>
+        <v>430</v>
       </c>
       <c r="F62" t="s"/>
       <c r="G62" t="s">
-        <v>251</v>
+        <v>266</v>
       </c>
       <c r="H62" t="s">
-        <v>827</v>
+        <v>887</v>
       </c>
       <c r="I62" t="s">
-        <v>828</v>
+        <v>888</v>
       </c>
       <c r="J62" t="s">
-        <v>162</v>
+        <v>170</v>
       </c>
       <c r="K62" t="s">
-        <v>829</v>
+        <v>889</v>
       </c>
       <c r="L62" t="s">
-        <v>830</v>
+        <v>890</v>
       </c>
       <c r="M62" t="s">
-        <v>65</v>
+        <v>891</v>
       </c>
       <c r="N62" t="s">
-        <v>831</v>
+        <v>67</v>
       </c>
       <c r="O62" t="s">
-        <v>67</v>
+        <v>892</v>
       </c>
       <c r="P62" t="s">
-        <v>832</v>
+        <v>69</v>
       </c>
       <c r="Q62" t="s">
-        <v>833</v>
-      </c>
-      <c r="R62" t="s"/>
-      <c r="S62" t="s">
-        <v>70</v>
-      </c>
-      <c r="T62" t="s"/>
-      <c r="U62" t="s">
-        <v>71</v>
-      </c>
-      <c r="V62" t="s"/>
-      <c r="W62" t="s">
-        <v>834</v>
-      </c>
-      <c r="X62" t="s"/>
+        <v>893</v>
+      </c>
+      <c r="R62" t="s">
+        <v>894</v>
+      </c>
+      <c r="S62" t="s"/>
+      <c r="T62" t="s">
+        <v>72</v>
+      </c>
+      <c r="U62" t="s"/>
+      <c r="V62" t="s">
+        <v>73</v>
+      </c>
+      <c r="W62" t="s"/>
+      <c r="X62" t="s">
+        <v>895</v>
+      </c>
       <c r="Y62" t="s"/>
       <c r="Z62" t="s"/>
       <c r="AA62" t="s"/>
-      <c r="AB62" t="n">
+      <c r="AB62" t="s"/>
+      <c r="AC62" t="n">
         <v>31</v>
       </c>
     </row>
-    <row r="63" spans="1:28">
+    <row r="63" spans="1:29">
       <c r="A63" t="s">
-        <v>835</v>
+        <v>896</v>
       </c>
       <c r="B63" t="s">
-        <v>836</v>
+        <v>897</v>
       </c>
       <c r="C63" t="s">
-        <v>837</v>
+        <v>898</v>
       </c>
       <c r="D63" t="s">
-        <v>838</v>
+        <v>899</v>
       </c>
       <c r="E63" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="F63" t="s">
-        <v>839</v>
+        <v>900</v>
       </c>
       <c r="G63" t="s"/>
       <c r="H63" t="s">
-        <v>840</v>
+        <v>901</v>
       </c>
       <c r="I63" t="s">
-        <v>841</v>
+        <v>902</v>
       </c>
       <c r="J63" t="s">
-        <v>842</v>
+        <v>903</v>
       </c>
       <c r="K63" t="s">
-        <v>843</v>
+        <v>904</v>
       </c>
       <c r="L63" t="s">
-        <v>844</v>
+        <v>905</v>
       </c>
       <c r="M63" t="s">
-        <v>65</v>
+        <v>906</v>
       </c>
       <c r="N63" t="s">
-        <v>845</v>
+        <v>67</v>
       </c>
       <c r="O63" t="s">
-        <v>67</v>
+        <v>907</v>
       </c>
       <c r="P63" t="s">
-        <v>846</v>
+        <v>69</v>
       </c>
       <c r="Q63" t="s">
-        <v>847</v>
-      </c>
-      <c r="R63" t="s"/>
-      <c r="S63" t="s">
-        <v>70</v>
-      </c>
-      <c r="T63" t="s"/>
-      <c r="U63" t="s">
-        <v>71</v>
-      </c>
-      <c r="V63" t="s"/>
-      <c r="W63" t="s">
-        <v>848</v>
-      </c>
-      <c r="X63" t="s"/>
+        <v>908</v>
+      </c>
+      <c r="R63" t="s">
+        <v>909</v>
+      </c>
+      <c r="S63" t="s"/>
+      <c r="T63" t="s">
+        <v>72</v>
+      </c>
+      <c r="U63" t="s"/>
+      <c r="V63" t="s">
+        <v>73</v>
+      </c>
+      <c r="W63" t="s"/>
+      <c r="X63" t="s">
+        <v>910</v>
+      </c>
       <c r="Y63" t="s"/>
       <c r="Z63" t="s"/>
       <c r="AA63" t="s"/>
-      <c r="AB63" t="n">
+      <c r="AB63" t="s"/>
+      <c r="AC63" t="n">
         <v>7</v>
       </c>
     </row>
-    <row r="64" spans="1:28">
+    <row r="64" spans="1:29">
       <c r="A64" t="s">
-        <v>849</v>
+        <v>911</v>
       </c>
       <c r="B64" t="s">
-        <v>850</v>
+        <v>912</v>
       </c>
       <c r="C64" t="s"/>
       <c r="D64" t="s"/>
       <c r="E64" t="s">
-        <v>851</v>
+        <v>913</v>
       </c>
       <c r="F64" t="s">
-        <v>852</v>
+        <v>914</v>
       </c>
       <c r="G64" t="s">
-        <v>481</v>
+        <v>514</v>
       </c>
       <c r="H64" t="s">
-        <v>853</v>
+        <v>915</v>
       </c>
       <c r="I64" t="s">
-        <v>854</v>
+        <v>916</v>
       </c>
       <c r="J64" t="s">
-        <v>200</v>
+        <v>211</v>
       </c>
       <c r="K64" t="s">
-        <v>855</v>
+        <v>917</v>
       </c>
       <c r="L64" t="s">
-        <v>856</v>
+        <v>918</v>
       </c>
       <c r="M64" t="s">
-        <v>65</v>
+        <v>919</v>
       </c>
       <c r="N64" t="s">
-        <v>857</v>
+        <v>67</v>
       </c>
       <c r="O64" t="s">
-        <v>67</v>
+        <v>920</v>
       </c>
       <c r="P64" t="s">
-        <v>858</v>
+        <v>69</v>
       </c>
       <c r="Q64" t="s">
-        <v>859</v>
-      </c>
-      <c r="R64" t="s"/>
-      <c r="S64" t="s">
-        <v>70</v>
-      </c>
-      <c r="T64" t="s"/>
-      <c r="U64" t="s">
-        <v>71</v>
-      </c>
-      <c r="V64" t="s"/>
-      <c r="W64" t="s">
-        <v>860</v>
-      </c>
-      <c r="X64" t="s"/>
+        <v>921</v>
+      </c>
+      <c r="R64" t="s">
+        <v>922</v>
+      </c>
+      <c r="S64" t="s"/>
+      <c r="T64" t="s">
+        <v>72</v>
+      </c>
+      <c r="U64" t="s"/>
+      <c r="V64" t="s">
+        <v>73</v>
+      </c>
+      <c r="W64" t="s"/>
+      <c r="X64" t="s">
+        <v>923</v>
+      </c>
       <c r="Y64" t="s"/>
       <c r="Z64" t="s"/>
       <c r="AA64" t="s"/>
-      <c r="AB64" t="n">
+      <c r="AB64" t="s"/>
+      <c r="AC64" t="n">
         <v>17</v>
       </c>
     </row>
-    <row r="65" spans="1:28">
+    <row r="65" spans="1:29">
       <c r="A65" t="s">
-        <v>861</v>
+        <v>924</v>
       </c>
       <c r="B65" t="s">
-        <v>862</v>
+        <v>925</v>
       </c>
       <c r="C65" t="s"/>
       <c r="D65" t="s"/>
       <c r="E65" t="s">
-        <v>863</v>
+        <v>926</v>
       </c>
       <c r="F65" t="s">
-        <v>864</v>
+        <v>927</v>
       </c>
       <c r="G65" t="s">
-        <v>481</v>
+        <v>514</v>
       </c>
       <c r="H65" t="s">
-        <v>865</v>
+        <v>928</v>
       </c>
       <c r="I65" t="s">
-        <v>866</v>
+        <v>929</v>
       </c>
       <c r="J65" t="s">
-        <v>200</v>
+        <v>211</v>
       </c>
       <c r="K65" t="s">
-        <v>867</v>
+        <v>930</v>
       </c>
       <c r="L65" t="s">
-        <v>868</v>
+        <v>931</v>
       </c>
       <c r="M65" t="s">
-        <v>65</v>
+        <v>932</v>
       </c>
       <c r="N65" t="s">
-        <v>869</v>
+        <v>67</v>
       </c>
       <c r="O65" t="s">
-        <v>67</v>
+        <v>933</v>
       </c>
       <c r="P65" t="s">
-        <v>870</v>
+        <v>69</v>
       </c>
       <c r="Q65" t="s">
-        <v>871</v>
-      </c>
-      <c r="R65" t="s"/>
-      <c r="S65" t="s">
-        <v>70</v>
-      </c>
-      <c r="T65" t="s"/>
-      <c r="U65" t="s">
-        <v>71</v>
-      </c>
-      <c r="V65" t="s"/>
-      <c r="W65" t="s">
-        <v>872</v>
-      </c>
-      <c r="X65" t="s"/>
+        <v>934</v>
+      </c>
+      <c r="R65" t="s">
+        <v>935</v>
+      </c>
+      <c r="S65" t="s"/>
+      <c r="T65" t="s">
+        <v>72</v>
+      </c>
+      <c r="U65" t="s"/>
+      <c r="V65" t="s">
+        <v>73</v>
+      </c>
+      <c r="W65" t="s"/>
+      <c r="X65" t="s">
+        <v>936</v>
+      </c>
       <c r="Y65" t="s"/>
       <c r="Z65" t="s"/>
       <c r="AA65" t="s"/>
-      <c r="AB65" t="n">
+      <c r="AB65" t="s"/>
+      <c r="AC65" t="n">
         <v>13</v>
       </c>
     </row>
-    <row r="66" spans="1:28">
+    <row r="66" spans="1:29">
       <c r="A66" t="s">
-        <v>479</v>
+        <v>512</v>
       </c>
       <c r="B66" t="s">
-        <v>480</v>
+        <v>513</v>
       </c>
       <c r="C66" t="s"/>
       <c r="D66" t="s"/>
       <c r="E66" t="s">
-        <v>873</v>
+        <v>937</v>
       </c>
       <c r="F66" t="s">
-        <v>874</v>
+        <v>938</v>
       </c>
       <c r="G66" t="s">
-        <v>481</v>
+        <v>514</v>
       </c>
       <c r="H66" t="s">
-        <v>875</v>
+        <v>939</v>
       </c>
       <c r="I66" t="s">
-        <v>876</v>
+        <v>940</v>
       </c>
       <c r="J66" t="s">
-        <v>200</v>
+        <v>211</v>
       </c>
       <c r="K66" t="s">
-        <v>877</v>
+        <v>941</v>
       </c>
       <c r="L66" t="s">
-        <v>878</v>
+        <v>942</v>
       </c>
       <c r="M66" t="s">
-        <v>65</v>
+        <v>943</v>
       </c>
       <c r="N66" t="s">
-        <v>879</v>
+        <v>67</v>
       </c>
       <c r="O66" t="s">
-        <v>67</v>
+        <v>944</v>
       </c>
       <c r="P66" t="s">
-        <v>880</v>
+        <v>69</v>
       </c>
       <c r="Q66" t="s">
-        <v>881</v>
-      </c>
-      <c r="R66" t="s"/>
-      <c r="S66" t="s">
-        <v>70</v>
-      </c>
-      <c r="T66" t="s"/>
-      <c r="U66" t="s">
-        <v>71</v>
-      </c>
-      <c r="V66" t="s"/>
-      <c r="W66" t="s">
-        <v>882</v>
-      </c>
-      <c r="X66" t="s"/>
+        <v>945</v>
+      </c>
+      <c r="R66" t="s">
+        <v>946</v>
+      </c>
+      <c r="S66" t="s"/>
+      <c r="T66" t="s">
+        <v>72</v>
+      </c>
+      <c r="U66" t="s"/>
+      <c r="V66" t="s">
+        <v>73</v>
+      </c>
+      <c r="W66" t="s"/>
+      <c r="X66" t="s">
+        <v>947</v>
+      </c>
       <c r="Y66" t="s"/>
       <c r="Z66" t="s"/>
       <c r="AA66" t="s"/>
-      <c r="AB66" t="n">
+      <c r="AB66" t="s"/>
+      <c r="AC66" t="n">
         <v>13</v>
       </c>
     </row>
-    <row r="67" spans="1:28">
+    <row r="67" spans="1:29">
       <c r="A67" t="s">
-        <v>883</v>
+        <v>948</v>
       </c>
       <c r="B67" t="s">
-        <v>884</v>
+        <v>949</v>
       </c>
       <c r="C67" t="s"/>
       <c r="D67" t="s">
-        <v>885</v>
+        <v>950</v>
       </c>
       <c r="E67" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="F67" t="s">
-        <v>886</v>
+        <v>951</v>
       </c>
       <c r="G67" t="s">
-        <v>548</v>
+        <v>586</v>
       </c>
       <c r="H67" t="s">
-        <v>887</v>
+        <v>952</v>
       </c>
       <c r="I67" t="s">
-        <v>888</v>
+        <v>953</v>
       </c>
       <c r="J67" t="s">
-        <v>889</v>
+        <v>954</v>
       </c>
       <c r="K67" t="s">
-        <v>890</v>
+        <v>955</v>
       </c>
       <c r="L67" t="s">
-        <v>891</v>
+        <v>956</v>
       </c>
       <c r="M67" t="s">
-        <v>65</v>
+        <v>957</v>
       </c>
       <c r="N67" t="s">
-        <v>892</v>
+        <v>67</v>
       </c>
       <c r="O67" t="s">
-        <v>67</v>
+        <v>958</v>
       </c>
       <c r="P67" t="s">
-        <v>893</v>
+        <v>69</v>
       </c>
       <c r="Q67" t="s">
-        <v>894</v>
-      </c>
-      <c r="R67" t="s"/>
-      <c r="S67" t="s">
-        <v>70</v>
-      </c>
-      <c r="T67" t="s"/>
-      <c r="U67" t="s">
-        <v>71</v>
-      </c>
-      <c r="V67" t="s"/>
-      <c r="W67" t="s">
-        <v>895</v>
-      </c>
-      <c r="X67" t="s"/>
+        <v>959</v>
+      </c>
+      <c r="R67" t="s">
+        <v>960</v>
+      </c>
+      <c r="S67" t="s"/>
+      <c r="T67" t="s">
+        <v>72</v>
+      </c>
+      <c r="U67" t="s"/>
+      <c r="V67" t="s">
+        <v>73</v>
+      </c>
+      <c r="W67" t="s"/>
+      <c r="X67" t="s">
+        <v>961</v>
+      </c>
       <c r="Y67" t="s"/>
       <c r="Z67" t="s"/>
       <c r="AA67" t="s"/>
-      <c r="AB67" t="n">
+      <c r="AB67" t="s"/>
+      <c r="AC67" t="n">
         <v>297</v>
       </c>
     </row>
-    <row r="68" spans="1:28">
+    <row r="68" spans="1:29">
       <c r="A68" t="s">
-        <v>896</v>
+        <v>962</v>
       </c>
       <c r="B68" t="s">
-        <v>897</v>
+        <v>963</v>
       </c>
       <c r="C68" t="s"/>
       <c r="D68" t="s">
-        <v>898</v>
+        <v>964</v>
       </c>
       <c r="E68" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="F68" t="s">
-        <v>899</v>
+        <v>965</v>
       </c>
       <c r="G68" t="s">
-        <v>684</v>
+        <v>732</v>
       </c>
       <c r="H68" t="s">
-        <v>900</v>
+        <v>966</v>
       </c>
       <c r="I68" t="s">
-        <v>901</v>
+        <v>967</v>
       </c>
       <c r="J68" t="s">
-        <v>902</v>
+        <v>968</v>
       </c>
       <c r="K68" t="s">
-        <v>903</v>
+        <v>969</v>
       </c>
       <c r="L68" t="s">
-        <v>904</v>
+        <v>970</v>
       </c>
       <c r="M68" t="s">
-        <v>65</v>
+        <v>971</v>
       </c>
       <c r="N68" t="s">
-        <v>905</v>
+        <v>67</v>
       </c>
       <c r="O68" t="s">
-        <v>67</v>
+        <v>972</v>
       </c>
       <c r="P68" t="s">
-        <v>906</v>
+        <v>69</v>
       </c>
       <c r="Q68" t="s">
-        <v>907</v>
-      </c>
-      <c r="R68" t="s"/>
-      <c r="S68" t="s">
-        <v>70</v>
-      </c>
-      <c r="T68" t="s"/>
-      <c r="U68" t="s">
-        <v>71</v>
-      </c>
-      <c r="V68" t="s"/>
-      <c r="W68" t="s">
-        <v>908</v>
-      </c>
-      <c r="X68" t="s"/>
+        <v>973</v>
+      </c>
+      <c r="R68" t="s">
+        <v>974</v>
+      </c>
+      <c r="S68" t="s"/>
+      <c r="T68" t="s">
+        <v>72</v>
+      </c>
+      <c r="U68" t="s"/>
+      <c r="V68" t="s">
+        <v>73</v>
+      </c>
+      <c r="W68" t="s"/>
+      <c r="X68" t="s">
+        <v>975</v>
+      </c>
       <c r="Y68" t="s"/>
       <c r="Z68" t="s"/>
       <c r="AA68" t="s"/>
-      <c r="AB68" t="n">
+      <c r="AB68" t="s"/>
+      <c r="AC68" t="n">
         <v>73</v>
       </c>
     </row>
-    <row r="69" spans="1:28">
+    <row r="69" spans="1:29">
       <c r="A69" t="s">
-        <v>909</v>
+        <v>976</v>
       </c>
       <c r="B69" t="s">
-        <v>910</v>
+        <v>977</v>
       </c>
       <c r="C69" t="s"/>
       <c r="D69" t="s"/>
       <c r="E69" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="F69" t="s">
-        <v>911</v>
+        <v>978</v>
       </c>
       <c r="G69" t="s">
-        <v>642</v>
+        <v>687</v>
       </c>
       <c r="H69" t="s">
-        <v>912</v>
+        <v>979</v>
       </c>
       <c r="I69" t="s">
-        <v>913</v>
+        <v>980</v>
       </c>
       <c r="J69" t="s">
-        <v>303</v>
+        <v>322</v>
       </c>
       <c r="K69" t="s">
-        <v>914</v>
+        <v>981</v>
       </c>
       <c r="L69" t="s">
-        <v>915</v>
+        <v>982</v>
       </c>
       <c r="M69" t="s">
-        <v>65</v>
+        <v>983</v>
       </c>
       <c r="N69" t="s">
-        <v>916</v>
+        <v>67</v>
       </c>
       <c r="O69" t="s">
-        <v>67</v>
+        <v>984</v>
       </c>
       <c r="P69" t="s">
-        <v>917</v>
+        <v>69</v>
       </c>
       <c r="Q69" t="s">
-        <v>918</v>
-      </c>
-      <c r="R69" t="s"/>
-      <c r="S69" t="s">
-        <v>70</v>
-      </c>
-      <c r="T69" t="s"/>
-      <c r="U69" t="s">
-        <v>71</v>
-      </c>
-      <c r="V69" t="s"/>
-      <c r="W69" t="s">
-        <v>919</v>
-      </c>
-      <c r="X69" t="s"/>
+        <v>985</v>
+      </c>
+      <c r="R69" t="s">
+        <v>986</v>
+      </c>
+      <c r="S69" t="s"/>
+      <c r="T69" t="s">
+        <v>72</v>
+      </c>
+      <c r="U69" t="s"/>
+      <c r="V69" t="s">
+        <v>73</v>
+      </c>
+      <c r="W69" t="s"/>
+      <c r="X69" t="s">
+        <v>987</v>
+      </c>
       <c r="Y69" t="s"/>
       <c r="Z69" t="s"/>
       <c r="AA69" t="s"/>
-      <c r="AB69" t="n">
+      <c r="AB69" t="s"/>
+      <c r="AC69" t="n">
         <v>73</v>
       </c>
     </row>
-    <row r="70" spans="1:28">
+    <row r="70" spans="1:29">
       <c r="A70" t="s">
-        <v>920</v>
+        <v>988</v>
       </c>
       <c r="B70" t="s">
-        <v>921</v>
+        <v>989</v>
       </c>
       <c r="C70" t="s"/>
       <c r="D70" t="s">
-        <v>922</v>
+        <v>990</v>
       </c>
       <c r="E70" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="F70" t="s">
-        <v>923</v>
+        <v>991</v>
       </c>
       <c r="G70" t="s">
-        <v>924</v>
+        <v>992</v>
       </c>
       <c r="H70" t="s">
-        <v>925</v>
+        <v>993</v>
       </c>
       <c r="I70" t="s">
-        <v>926</v>
+        <v>994</v>
       </c>
       <c r="J70" t="s">
-        <v>162</v>
+        <v>170</v>
       </c>
       <c r="K70" t="s">
-        <v>927</v>
+        <v>995</v>
       </c>
       <c r="L70" t="s">
-        <v>928</v>
+        <v>996</v>
       </c>
       <c r="M70" t="s">
-        <v>65</v>
+        <v>997</v>
       </c>
       <c r="N70" t="s">
-        <v>929</v>
+        <v>67</v>
       </c>
       <c r="O70" t="s">
-        <v>67</v>
+        <v>998</v>
       </c>
       <c r="P70" t="s">
-        <v>930</v>
+        <v>69</v>
       </c>
       <c r="Q70" t="s">
-        <v>931</v>
-      </c>
-      <c r="R70" t="s"/>
-      <c r="S70" t="s">
-        <v>70</v>
-      </c>
-      <c r="T70" t="s"/>
-      <c r="U70" t="s">
-        <v>71</v>
-      </c>
-      <c r="V70" t="s"/>
-      <c r="W70" t="s">
-        <v>932</v>
-      </c>
-      <c r="X70" t="s"/>
+        <v>999</v>
+      </c>
+      <c r="R70" t="s">
+        <v>1000</v>
+      </c>
+      <c r="S70" t="s"/>
+      <c r="T70" t="s">
+        <v>72</v>
+      </c>
+      <c r="U70" t="s"/>
+      <c r="V70" t="s">
+        <v>73</v>
+      </c>
+      <c r="W70" t="s"/>
+      <c r="X70" t="s">
+        <v>1001</v>
+      </c>
       <c r="Y70" t="s"/>
       <c r="Z70" t="s"/>
       <c r="AA70" t="s"/>
-      <c r="AB70" t="n">
+      <c r="AB70" t="s"/>
+      <c r="AC70" t="n">
         <v>34</v>
       </c>
     </row>
-    <row r="71" spans="1:28">
+    <row r="71" spans="1:29">
       <c r="A71" t="s">
-        <v>933</v>
+        <v>1002</v>
       </c>
       <c r="B71" t="s">
-        <v>934</v>
+        <v>1003</v>
       </c>
       <c r="C71" t="s"/>
       <c r="D71" t="s"/>
       <c r="E71" t="s">
-        <v>935</v>
+        <v>1004</v>
       </c>
       <c r="F71" t="s"/>
       <c r="G71" t="s">
-        <v>936</v>
+        <v>1005</v>
       </c>
       <c r="H71" t="s">
-        <v>937</v>
+        <v>1006</v>
       </c>
       <c r="I71" t="s">
-        <v>938</v>
+        <v>1007</v>
       </c>
       <c r="J71" t="s">
-        <v>939</v>
+        <v>1008</v>
       </c>
       <c r="K71" t="s">
-        <v>940</v>
+        <v>1009</v>
       </c>
       <c r="L71" t="s">
-        <v>941</v>
+        <v>1010</v>
       </c>
       <c r="M71" t="s">
-        <v>65</v>
+        <v>1011</v>
       </c>
       <c r="N71" t="s">
-        <v>942</v>
+        <v>67</v>
       </c>
       <c r="O71" t="s">
-        <v>67</v>
+        <v>1012</v>
       </c>
       <c r="P71" t="s">
-        <v>943</v>
+        <v>69</v>
       </c>
       <c r="Q71" t="s">
-        <v>944</v>
-      </c>
-      <c r="R71" t="s"/>
-      <c r="S71" t="s">
-        <v>70</v>
-      </c>
-      <c r="T71" t="s"/>
-      <c r="U71" t="s">
-        <v>71</v>
-      </c>
-      <c r="V71" t="s"/>
-      <c r="W71" t="s">
-        <v>945</v>
-      </c>
-      <c r="X71" t="s"/>
+        <v>1013</v>
+      </c>
+      <c r="R71" t="s">
+        <v>1014</v>
+      </c>
+      <c r="S71" t="s"/>
+      <c r="T71" t="s">
+        <v>72</v>
+      </c>
+      <c r="U71" t="s"/>
+      <c r="V71" t="s">
+        <v>73</v>
+      </c>
+      <c r="W71" t="s"/>
+      <c r="X71" t="s">
+        <v>1015</v>
+      </c>
       <c r="Y71" t="s"/>
       <c r="Z71" t="s"/>
       <c r="AA71" t="s"/>
-      <c r="AB71" t="n">
+      <c r="AB71" t="s"/>
+      <c r="AC71" t="n">
         <v>15</v>
       </c>
     </row>

--- a/docs/collections/koten/metadata/data.xlsx
+++ b/docs/collections/koten/metadata/data.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="1016">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="1017">
   <si>
     <t>書名</t>
   </si>
@@ -231,6 +231,9 @@
   </si>
   <si>
     <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/api/items/172011</t>
+  </si>
+  <si>
+    <t>東京大学総合図書館 General Library, The University of Tokyo, JAPAN|東京大学総合図書館 General Library, The University of Tokyo, JAPAN</t>
   </si>
   <si>
     <t>http://iiif.io/api/presentation/2#rightToLeftDirection</t>
@@ -3635,17 +3638,19 @@
       <c r="R3" t="s">
         <v>71</v>
       </c>
-      <c r="S3" t="s"/>
+      <c r="S3" t="s">
+        <v>72</v>
+      </c>
       <c r="T3" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="U3" t="s"/>
       <c r="V3" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="W3" t="s"/>
       <c r="X3" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="Y3" t="s"/>
       <c r="Z3" t="s"/>
@@ -3657,68 +3662,70 @@
     </row>
     <row r="4" spans="1:29">
       <c r="A4" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="B4" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="C4" t="s"/>
       <c r="D4" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="E4" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="F4" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="G4" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="H4" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="I4" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="J4" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="K4" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="L4" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="M4" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="N4" t="s">
         <v>67</v>
       </c>
       <c r="O4" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="P4" t="s">
         <v>69</v>
       </c>
       <c r="Q4" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="R4" t="s">
-        <v>89</v>
-      </c>
-      <c r="S4" t="s"/>
+        <v>90</v>
+      </c>
+      <c r="S4" t="s">
+        <v>72</v>
+      </c>
       <c r="T4" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="U4" t="s"/>
       <c r="V4" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="W4" t="s"/>
       <c r="X4" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="Y4" t="s"/>
       <c r="Z4" t="s"/>
@@ -3730,68 +3737,70 @@
     </row>
     <row r="5" spans="1:29">
       <c r="A5" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B5" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="C5" t="s"/>
       <c r="D5" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="E5" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="F5" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="G5" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="H5" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="I5" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="J5" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="K5" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="L5" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="M5" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="N5" t="s">
         <v>67</v>
       </c>
       <c r="O5" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="P5" t="s">
         <v>69</v>
       </c>
       <c r="Q5" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="R5" t="s">
-        <v>104</v>
-      </c>
-      <c r="S5" t="s"/>
+        <v>105</v>
+      </c>
+      <c r="S5" t="s">
+        <v>72</v>
+      </c>
       <c r="T5" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="U5" t="s"/>
       <c r="V5" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="W5" t="s"/>
       <c r="X5" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="Y5" t="s"/>
       <c r="Z5" t="s"/>
@@ -3803,68 +3812,70 @@
     </row>
     <row r="6" spans="1:29">
       <c r="A6" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="B6" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="C6" t="s"/>
       <c r="D6" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="E6" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="F6" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="G6" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="H6" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="I6" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="J6" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="K6" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="L6" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="M6" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="N6" t="s">
         <v>67</v>
       </c>
       <c r="O6" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="P6" t="s">
         <v>69</v>
       </c>
       <c r="Q6" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="R6" t="s">
-        <v>118</v>
-      </c>
-      <c r="S6" t="s"/>
+        <v>119</v>
+      </c>
+      <c r="S6" t="s">
+        <v>72</v>
+      </c>
       <c r="T6" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="U6" t="s"/>
       <c r="V6" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="W6" t="s"/>
       <c r="X6" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="Y6" t="s"/>
       <c r="Z6" t="s"/>
@@ -3876,68 +3887,70 @@
     </row>
     <row r="7" spans="1:29">
       <c r="A7" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="B7" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="C7" t="s"/>
       <c r="D7" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="E7" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="F7" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="G7" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="H7" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="I7" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="J7" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="K7" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="L7" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="M7" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="N7" t="s">
         <v>67</v>
       </c>
       <c r="O7" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="P7" t="s">
         <v>69</v>
       </c>
       <c r="Q7" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="R7" t="s">
-        <v>131</v>
-      </c>
-      <c r="S7" t="s"/>
+        <v>132</v>
+      </c>
+      <c r="S7" t="s">
+        <v>72</v>
+      </c>
       <c r="T7" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="U7" t="s"/>
       <c r="V7" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="W7" t="s"/>
       <c r="X7" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="Y7" t="s"/>
       <c r="Z7" t="s"/>
@@ -3949,68 +3962,70 @@
     </row>
     <row r="8" spans="1:29">
       <c r="A8" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="B8" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="C8" t="s"/>
       <c r="D8" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="E8" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="F8" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="G8" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="H8" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="I8" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="J8" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="K8" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="L8" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="M8" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="N8" t="s">
         <v>67</v>
       </c>
       <c r="O8" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="P8" t="s">
         <v>69</v>
       </c>
       <c r="Q8" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="R8" t="s">
-        <v>146</v>
-      </c>
-      <c r="S8" t="s"/>
+        <v>147</v>
+      </c>
+      <c r="S8" t="s">
+        <v>72</v>
+      </c>
       <c r="T8" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="U8" t="s"/>
       <c r="V8" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="W8" t="s"/>
       <c r="X8" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="Y8" t="s"/>
       <c r="Z8" t="s"/>
@@ -4022,68 +4037,70 @@
     </row>
     <row r="9" spans="1:29">
       <c r="A9" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="B9" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="C9" t="s"/>
       <c r="D9" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="E9" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="F9" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="G9" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="H9" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="I9" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="J9" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="K9" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="L9" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="M9" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="N9" t="s">
         <v>67</v>
       </c>
       <c r="O9" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="P9" t="s">
         <v>69</v>
       </c>
       <c r="Q9" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="R9" t="s">
-        <v>160</v>
-      </c>
-      <c r="S9" t="s"/>
+        <v>161</v>
+      </c>
+      <c r="S9" t="s">
+        <v>72</v>
+      </c>
       <c r="T9" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="U9" t="s"/>
       <c r="V9" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="W9" t="s"/>
       <c r="X9" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="Y9" t="s"/>
       <c r="Z9" t="s"/>
@@ -4095,68 +4112,70 @@
     </row>
     <row r="10" spans="1:29">
       <c r="A10" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="B10" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="C10" t="s"/>
       <c r="D10" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="E10" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="F10" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="G10" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="H10" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="I10" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="J10" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="K10" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="L10" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="M10" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="N10" t="s">
         <v>67</v>
       </c>
       <c r="O10" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="P10" t="s">
         <v>69</v>
       </c>
       <c r="Q10" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="R10" t="s">
-        <v>176</v>
-      </c>
-      <c r="S10" t="s"/>
+        <v>177</v>
+      </c>
+      <c r="S10" t="s">
+        <v>72</v>
+      </c>
       <c r="T10" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="U10" t="s"/>
       <c r="V10" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="W10" t="s"/>
       <c r="X10" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="Y10" t="s"/>
       <c r="Z10" t="s"/>
@@ -4168,64 +4187,66 @@
     </row>
     <row r="11" spans="1:29">
       <c r="A11" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="B11" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="C11" t="s"/>
       <c r="D11" t="s"/>
       <c r="E11" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="F11" t="s"/>
       <c r="G11" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="H11" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="I11" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="J11" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="K11" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="L11" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="M11" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="N11" t="s">
         <v>67</v>
       </c>
       <c r="O11" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="P11" t="s">
         <v>69</v>
       </c>
       <c r="Q11" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="R11" t="s">
-        <v>190</v>
-      </c>
-      <c r="S11" t="s"/>
+        <v>191</v>
+      </c>
+      <c r="S11" t="s">
+        <v>72</v>
+      </c>
       <c r="T11" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="U11" t="s"/>
       <c r="V11" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="W11" t="s"/>
       <c r="X11" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="Y11" t="s"/>
       <c r="Z11" t="s"/>
@@ -4237,64 +4258,66 @@
     </row>
     <row r="12" spans="1:29">
       <c r="A12" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="B12" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="C12" t="s"/>
       <c r="D12" t="s"/>
       <c r="E12" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="F12" t="s"/>
       <c r="G12" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="H12" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="I12" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="J12" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="K12" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="L12" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="M12" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="N12" t="s">
         <v>67</v>
       </c>
       <c r="O12" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="P12" t="s">
         <v>69</v>
       </c>
       <c r="Q12" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="R12" t="s">
-        <v>202</v>
-      </c>
-      <c r="S12" t="s"/>
+        <v>203</v>
+      </c>
+      <c r="S12" t="s">
+        <v>72</v>
+      </c>
       <c r="T12" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="U12" t="s"/>
       <c r="V12" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="W12" t="s"/>
       <c r="X12" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="Y12" t="s"/>
       <c r="Z12" t="s"/>
@@ -4306,68 +4329,70 @@
     </row>
     <row r="13" spans="1:29">
       <c r="A13" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="B13" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="C13" t="s"/>
       <c r="D13" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="E13" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="F13" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="G13" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="H13" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="I13" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="J13" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="K13" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="L13" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="M13" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="N13" t="s">
         <v>67</v>
       </c>
       <c r="O13" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="P13" t="s">
         <v>69</v>
       </c>
       <c r="Q13" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="R13" t="s">
-        <v>217</v>
-      </c>
-      <c r="S13" t="s"/>
+        <v>218</v>
+      </c>
+      <c r="S13" t="s">
+        <v>72</v>
+      </c>
       <c r="T13" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="U13" t="s"/>
       <c r="V13" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="W13" t="s"/>
       <c r="X13" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="Y13" t="s"/>
       <c r="Z13" t="s"/>
@@ -4379,70 +4404,72 @@
     </row>
     <row r="14" spans="1:29">
       <c r="A14" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="B14" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="C14" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="D14" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="E14" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="F14" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="G14" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="H14" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="I14" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="J14" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="K14" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="L14" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="M14" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="N14" t="s">
         <v>67</v>
       </c>
       <c r="O14" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="P14" t="s">
         <v>69</v>
       </c>
       <c r="Q14" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="R14" t="s">
-        <v>233</v>
-      </c>
-      <c r="S14" t="s"/>
+        <v>234</v>
+      </c>
+      <c r="S14" t="s">
+        <v>72</v>
+      </c>
       <c r="T14" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="U14" t="s"/>
       <c r="V14" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="W14" t="s"/>
       <c r="X14" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="Y14" t="s"/>
       <c r="Z14" t="s"/>
@@ -4454,68 +4481,70 @@
     </row>
     <row r="15" spans="1:29">
       <c r="A15" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="B15" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="C15" t="s"/>
       <c r="D15" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="E15" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="F15" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="G15" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="H15" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="I15" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="J15" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="K15" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="L15" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="M15" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="N15" t="s">
         <v>67</v>
       </c>
       <c r="O15" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="P15" t="s">
         <v>69</v>
       </c>
       <c r="Q15" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="R15" t="s">
-        <v>248</v>
-      </c>
-      <c r="S15" t="s"/>
+        <v>249</v>
+      </c>
+      <c r="S15" t="s">
+        <v>72</v>
+      </c>
       <c r="T15" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="U15" t="s"/>
       <c r="V15" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="W15" t="s"/>
       <c r="X15" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="Y15" t="s"/>
       <c r="Z15" t="s"/>
@@ -4527,66 +4556,68 @@
     </row>
     <row r="16" spans="1:29">
       <c r="A16" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="B16" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="C16" t="s"/>
       <c r="D16" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="E16" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="F16" t="s"/>
       <c r="G16" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="H16" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="I16" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="J16" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="K16" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="L16" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="M16" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="N16" t="s">
         <v>67</v>
       </c>
       <c r="O16" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="P16" t="s">
         <v>69</v>
       </c>
       <c r="Q16" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="R16" t="s">
-        <v>262</v>
-      </c>
-      <c r="S16" t="s"/>
+        <v>263</v>
+      </c>
+      <c r="S16" t="s">
+        <v>72</v>
+      </c>
       <c r="T16" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="U16" t="s"/>
       <c r="V16" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="W16" t="s"/>
       <c r="X16" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="Y16" t="s"/>
       <c r="Z16" t="s"/>
@@ -4598,64 +4629,66 @@
     </row>
     <row r="17" spans="1:29">
       <c r="A17" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="B17" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="C17" t="s"/>
       <c r="D17" t="s"/>
       <c r="E17" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="F17" t="s"/>
       <c r="G17" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="H17" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="I17" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="J17" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="K17" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="L17" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="M17" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="N17" t="s">
         <v>67</v>
       </c>
       <c r="O17" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="P17" t="s">
         <v>69</v>
       </c>
       <c r="Q17" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="R17" t="s">
-        <v>275</v>
-      </c>
-      <c r="S17" t="s"/>
+        <v>276</v>
+      </c>
+      <c r="S17" t="s">
+        <v>72</v>
+      </c>
       <c r="T17" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="U17" t="s"/>
       <c r="V17" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="W17" t="s"/>
       <c r="X17" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="Y17" t="s"/>
       <c r="Z17" t="s"/>
@@ -4667,66 +4700,68 @@
     </row>
     <row r="18" spans="1:29">
       <c r="A18" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="B18" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="C18" t="s"/>
       <c r="D18" t="s"/>
       <c r="E18" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="F18" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="G18" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="H18" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="I18" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="J18" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="K18" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="L18" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="M18" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="N18" t="s">
         <v>67</v>
       </c>
       <c r="O18" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="P18" t="s">
         <v>69</v>
       </c>
       <c r="Q18" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="R18" t="s">
-        <v>287</v>
-      </c>
-      <c r="S18" t="s"/>
+        <v>288</v>
+      </c>
+      <c r="S18" t="s">
+        <v>72</v>
+      </c>
       <c r="T18" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="U18" t="s"/>
       <c r="V18" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="W18" t="s"/>
       <c r="X18" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="Y18" t="s"/>
       <c r="Z18" t="s"/>
@@ -4738,66 +4773,68 @@
     </row>
     <row r="19" spans="1:29">
       <c r="A19" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="B19" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="C19" t="s"/>
       <c r="D19" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="E19" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="F19" t="s"/>
       <c r="G19" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="H19" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="I19" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="J19" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="K19" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="L19" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="M19" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="N19" t="s">
         <v>67</v>
       </c>
       <c r="O19" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="P19" t="s">
         <v>69</v>
       </c>
       <c r="Q19" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="R19" t="s">
-        <v>300</v>
-      </c>
-      <c r="S19" t="s"/>
+        <v>301</v>
+      </c>
+      <c r="S19" t="s">
+        <v>72</v>
+      </c>
       <c r="T19" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="U19" t="s"/>
       <c r="V19" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="W19" t="s"/>
       <c r="X19" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="Y19" t="s"/>
       <c r="Z19" t="s"/>
@@ -4809,66 +4846,68 @@
     </row>
     <row r="20" spans="1:29">
       <c r="A20" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="B20" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="C20" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="D20" t="s"/>
       <c r="E20" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="F20" t="s"/>
       <c r="G20" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="H20" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="I20" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="J20" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="K20" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="L20" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="M20" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="N20" t="s">
         <v>67</v>
       </c>
       <c r="O20" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="P20" t="s">
         <v>69</v>
       </c>
       <c r="Q20" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="R20" t="s">
-        <v>313</v>
-      </c>
-      <c r="S20" t="s"/>
+        <v>314</v>
+      </c>
+      <c r="S20" t="s">
+        <v>72</v>
+      </c>
       <c r="T20" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="U20" t="s"/>
       <c r="V20" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="W20" t="s"/>
       <c r="X20" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="Y20" t="s"/>
       <c r="Z20" t="s"/>
@@ -4880,66 +4919,68 @@
     </row>
     <row r="21" spans="1:29">
       <c r="A21" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="B21" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="C21" t="s"/>
       <c r="D21" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="E21" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="F21" t="s"/>
       <c r="G21" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="H21" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="I21" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="J21" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="K21" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="L21" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="M21" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="N21" t="s">
         <v>67</v>
       </c>
       <c r="O21" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="P21" t="s">
         <v>69</v>
       </c>
       <c r="Q21" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="R21" t="s">
-        <v>328</v>
-      </c>
-      <c r="S21" t="s"/>
+        <v>329</v>
+      </c>
+      <c r="S21" t="s">
+        <v>72</v>
+      </c>
       <c r="T21" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="U21" t="s"/>
       <c r="V21" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="W21" t="s"/>
       <c r="X21" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="Y21" t="s"/>
       <c r="Z21" t="s"/>
@@ -4951,10 +4992,10 @@
     </row>
     <row r="22" spans="1:29">
       <c r="A22" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="B22" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="C22" t="s"/>
       <c r="D22" t="s"/>
@@ -4962,53 +5003,55 @@
         <v>59</v>
       </c>
       <c r="F22" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="G22" t="s"/>
       <c r="H22" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="I22" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="J22" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="K22" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="L22" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="M22" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="N22" t="s">
         <v>67</v>
       </c>
       <c r="O22" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="P22" t="s">
         <v>69</v>
       </c>
       <c r="Q22" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="R22" t="s">
-        <v>341</v>
-      </c>
-      <c r="S22" t="s"/>
+        <v>342</v>
+      </c>
+      <c r="S22" t="s">
+        <v>72</v>
+      </c>
       <c r="T22" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="U22" t="s"/>
       <c r="V22" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="W22" t="s"/>
       <c r="X22" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="Y22" t="s"/>
       <c r="Z22" t="s"/>
@@ -5020,66 +5063,68 @@
     </row>
     <row r="23" spans="1:29">
       <c r="A23" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="B23" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="C23" t="s"/>
       <c r="D23" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="E23" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="F23" t="s"/>
       <c r="G23" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="H23" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="I23" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="J23" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="K23" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="L23" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="M23" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="N23" t="s">
         <v>67</v>
       </c>
       <c r="O23" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="P23" t="s">
         <v>69</v>
       </c>
       <c r="Q23" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="R23" t="s">
-        <v>355</v>
-      </c>
-      <c r="S23" t="s"/>
+        <v>356</v>
+      </c>
+      <c r="S23" t="s">
+        <v>72</v>
+      </c>
       <c r="T23" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="U23" t="s"/>
       <c r="V23" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="W23" t="s"/>
       <c r="X23" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="Y23" t="s"/>
       <c r="Z23" t="s"/>
@@ -5091,70 +5136,72 @@
     </row>
     <row r="24" spans="1:29">
       <c r="A24" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="B24" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="C24" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="D24" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="E24" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="F24" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="G24" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="H24" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="I24" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="J24" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="K24" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="L24" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="M24" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="N24" t="s">
         <v>67</v>
       </c>
       <c r="O24" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="P24" t="s">
         <v>69</v>
       </c>
       <c r="Q24" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="R24" t="s">
-        <v>370</v>
-      </c>
-      <c r="S24" t="s"/>
+        <v>371</v>
+      </c>
+      <c r="S24" t="s">
+        <v>72</v>
+      </c>
       <c r="T24" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="U24" t="s"/>
       <c r="V24" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="W24" t="s"/>
       <c r="X24" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="Y24" t="s"/>
       <c r="Z24" t="s"/>
@@ -5166,68 +5213,70 @@
     </row>
     <row r="25" spans="1:29">
       <c r="A25" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="B25" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="C25" t="s"/>
       <c r="D25" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="E25" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="F25" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="G25" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="H25" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="I25" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="J25" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="K25" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="L25" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="M25" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="N25" t="s">
         <v>67</v>
       </c>
       <c r="O25" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="P25" t="s">
         <v>69</v>
       </c>
       <c r="Q25" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="R25" t="s">
-        <v>385</v>
-      </c>
-      <c r="S25" t="s"/>
+        <v>386</v>
+      </c>
+      <c r="S25" t="s">
+        <v>72</v>
+      </c>
       <c r="T25" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="U25" t="s"/>
       <c r="V25" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="W25" t="s"/>
       <c r="X25" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="Y25" t="s"/>
       <c r="Z25" t="s"/>
@@ -5239,66 +5288,68 @@
     </row>
     <row r="26" spans="1:29">
       <c r="A26" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="B26" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="C26" t="s"/>
       <c r="D26" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="E26" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="F26" t="s"/>
       <c r="G26" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="H26" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="I26" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="J26" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="K26" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="L26" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="M26" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="N26" t="s">
         <v>67</v>
       </c>
       <c r="O26" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="P26" t="s">
         <v>69</v>
       </c>
       <c r="Q26" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="R26" t="s">
-        <v>399</v>
-      </c>
-      <c r="S26" t="s"/>
+        <v>400</v>
+      </c>
+      <c r="S26" t="s">
+        <v>72</v>
+      </c>
       <c r="T26" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="U26" t="s"/>
       <c r="V26" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="W26" t="s"/>
       <c r="X26" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="Y26" t="s"/>
       <c r="Z26" t="s"/>
@@ -5310,68 +5361,70 @@
     </row>
     <row r="27" spans="1:29">
       <c r="A27" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="B27" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="C27" t="s"/>
       <c r="D27" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="E27" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="F27" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="G27" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="H27" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="I27" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="J27" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="K27" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="L27" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="M27" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="N27" t="s">
         <v>67</v>
       </c>
       <c r="O27" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="P27" t="s">
         <v>69</v>
       </c>
       <c r="Q27" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="R27" t="s">
-        <v>414</v>
-      </c>
-      <c r="S27" t="s"/>
+        <v>415</v>
+      </c>
+      <c r="S27" t="s">
+        <v>72</v>
+      </c>
       <c r="T27" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="U27" t="s"/>
       <c r="V27" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="W27" t="s"/>
       <c r="X27" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="Y27" t="s"/>
       <c r="Z27" t="s"/>
@@ -5383,68 +5436,70 @@
     </row>
     <row r="28" spans="1:29">
       <c r="A28" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="B28" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="C28" t="s"/>
       <c r="D28" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="E28" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="F28" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="G28" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="H28" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="I28" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="J28" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="K28" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="L28" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="M28" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="N28" t="s">
         <v>67</v>
       </c>
       <c r="O28" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="P28" t="s">
         <v>69</v>
       </c>
       <c r="Q28" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="R28" t="s">
-        <v>428</v>
-      </c>
-      <c r="S28" t="s"/>
+        <v>429</v>
+      </c>
+      <c r="S28" t="s">
+        <v>72</v>
+      </c>
       <c r="T28" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="U28" t="s"/>
       <c r="V28" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="W28" t="s"/>
       <c r="X28" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="Y28" t="s"/>
       <c r="Z28" t="s"/>
@@ -5456,68 +5511,70 @@
     </row>
     <row r="29" spans="1:29">
       <c r="A29" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="B29" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="C29" t="s"/>
       <c r="D29" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="E29" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="F29" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="G29" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="H29" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="I29" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="J29" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="K29" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="L29" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="M29" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="N29" t="s">
         <v>67</v>
       </c>
       <c r="O29" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="P29" t="s">
         <v>69</v>
       </c>
       <c r="Q29" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="R29" t="s">
-        <v>428</v>
-      </c>
-      <c r="S29" t="s"/>
+        <v>429</v>
+      </c>
+      <c r="S29" t="s">
+        <v>72</v>
+      </c>
       <c r="T29" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="U29" t="s"/>
       <c r="V29" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="W29" t="s"/>
       <c r="X29" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="Y29" t="s"/>
       <c r="Z29" t="s"/>
@@ -5529,66 +5586,68 @@
     </row>
     <row r="30" spans="1:29">
       <c r="A30" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="B30" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="C30" t="s"/>
       <c r="D30" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="E30" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="F30" t="s"/>
       <c r="G30" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="H30" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="I30" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="J30" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="K30" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="L30" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="M30" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="N30" t="s">
         <v>67</v>
       </c>
       <c r="O30" t="s">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="P30" t="s">
         <v>69</v>
       </c>
       <c r="Q30" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="R30" t="s">
-        <v>452</v>
-      </c>
-      <c r="S30" t="s"/>
+        <v>453</v>
+      </c>
+      <c r="S30" t="s">
+        <v>72</v>
+      </c>
       <c r="T30" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="U30" t="s"/>
       <c r="V30" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="W30" t="s"/>
       <c r="X30" t="s">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="Y30" t="s"/>
       <c r="Z30" t="s"/>
@@ -5600,68 +5659,70 @@
     </row>
     <row r="31" spans="1:29">
       <c r="A31" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="B31" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="C31" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="D31" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="E31" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="F31" t="s"/>
       <c r="G31" t="s">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="H31" t="s">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="I31" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="J31" t="s">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="K31" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="L31" t="s">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="M31" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="N31" t="s">
         <v>67</v>
       </c>
       <c r="O31" t="s">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="P31" t="s">
         <v>69</v>
       </c>
       <c r="Q31" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="R31" t="s">
-        <v>468</v>
-      </c>
-      <c r="S31" t="s"/>
+        <v>469</v>
+      </c>
+      <c r="S31" t="s">
+        <v>72</v>
+      </c>
       <c r="T31" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="U31" t="s"/>
       <c r="V31" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="W31" t="s"/>
       <c r="X31" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="Y31" t="s"/>
       <c r="Z31" t="s"/>
@@ -5673,64 +5734,66 @@
     </row>
     <row r="32" spans="1:29">
       <c r="A32" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="B32" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="C32" t="s"/>
       <c r="D32" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="E32" t="s">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="F32" t="s"/>
       <c r="G32" t="s"/>
       <c r="H32" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="I32" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="J32" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="K32" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="L32" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="M32" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="N32" t="s">
         <v>67</v>
       </c>
       <c r="O32" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="P32" t="s">
         <v>69</v>
       </c>
       <c r="Q32" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="R32" t="s">
-        <v>482</v>
-      </c>
-      <c r="S32" t="s"/>
+        <v>483</v>
+      </c>
+      <c r="S32" t="s">
+        <v>72</v>
+      </c>
       <c r="T32" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="U32" t="s"/>
       <c r="V32" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="W32" t="s"/>
       <c r="X32" t="s">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="Y32" t="s"/>
       <c r="Z32" t="s"/>
@@ -5742,68 +5805,70 @@
     </row>
     <row r="33" spans="1:29">
       <c r="A33" t="s">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="B33" t="s">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="C33" t="s"/>
       <c r="D33" t="s">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="E33" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="F33" t="s">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="G33" t="s">
-        <v>488</v>
+        <v>489</v>
       </c>
       <c r="H33" t="s">
-        <v>489</v>
+        <v>490</v>
       </c>
       <c r="I33" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="J33" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="K33" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
       <c r="L33" t="s">
-        <v>492</v>
+        <v>493</v>
       </c>
       <c r="M33" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c r="N33" t="s">
         <v>67</v>
       </c>
       <c r="O33" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="P33" t="s">
         <v>69</v>
       </c>
       <c r="Q33" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="R33" t="s">
-        <v>496</v>
-      </c>
-      <c r="S33" t="s"/>
+        <v>497</v>
+      </c>
+      <c r="S33" t="s">
+        <v>72</v>
+      </c>
       <c r="T33" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="U33" t="s"/>
       <c r="V33" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="W33" t="s"/>
       <c r="X33" t="s">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="Y33" t="s"/>
       <c r="Z33" t="s"/>
@@ -5815,68 +5880,70 @@
     </row>
     <row r="34" spans="1:29">
       <c r="A34" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
       <c r="B34" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
       <c r="C34" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="D34" t="s"/>
       <c r="E34" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="F34" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="G34" t="s">
-        <v>502</v>
+        <v>503</v>
       </c>
       <c r="H34" t="s">
-        <v>503</v>
+        <v>504</v>
       </c>
       <c r="I34" t="s">
-        <v>504</v>
+        <v>505</v>
       </c>
       <c r="J34" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="K34" t="s">
-        <v>505</v>
+        <v>506</v>
       </c>
       <c r="L34" t="s">
-        <v>506</v>
+        <v>507</v>
       </c>
       <c r="M34" t="s">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="N34" t="s">
         <v>67</v>
       </c>
       <c r="O34" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="P34" t="s">
         <v>69</v>
       </c>
       <c r="Q34" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="R34" t="s">
-        <v>510</v>
-      </c>
-      <c r="S34" t="s"/>
+        <v>511</v>
+      </c>
+      <c r="S34" t="s">
+        <v>72</v>
+      </c>
       <c r="T34" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="U34" t="s"/>
       <c r="V34" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="W34" t="s"/>
       <c r="X34" t="s">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="Y34" t="s"/>
       <c r="Z34" t="s"/>
@@ -5888,10 +5955,10 @@
     </row>
     <row r="35" spans="1:29">
       <c r="A35" t="s">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="B35" t="s">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="C35" t="s"/>
       <c r="D35" t="s"/>
@@ -5900,52 +5967,54 @@
       </c>
       <c r="F35" t="s"/>
       <c r="G35" t="s">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="H35" t="s">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="I35" t="s">
-        <v>516</v>
+        <v>517</v>
       </c>
       <c r="J35" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="K35" t="s">
-        <v>517</v>
+        <v>518</v>
       </c>
       <c r="L35" t="s">
-        <v>518</v>
+        <v>519</v>
       </c>
       <c r="M35" t="s">
-        <v>519</v>
+        <v>520</v>
       </c>
       <c r="N35" t="s">
         <v>67</v>
       </c>
       <c r="O35" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="P35" t="s">
         <v>69</v>
       </c>
       <c r="Q35" t="s">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="R35" t="s">
-        <v>522</v>
-      </c>
-      <c r="S35" t="s"/>
+        <v>523</v>
+      </c>
+      <c r="S35" t="s">
+        <v>72</v>
+      </c>
       <c r="T35" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="U35" t="s"/>
       <c r="V35" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="W35" t="s"/>
       <c r="X35" t="s">
-        <v>523</v>
+        <v>524</v>
       </c>
       <c r="Y35" t="s"/>
       <c r="Z35" t="s"/>
@@ -5957,70 +6026,72 @@
     </row>
     <row r="36" spans="1:29">
       <c r="A36" t="s">
-        <v>524</v>
+        <v>525</v>
       </c>
       <c r="B36" t="s">
-        <v>525</v>
+        <v>526</v>
       </c>
       <c r="C36" t="s">
-        <v>526</v>
+        <v>527</v>
       </c>
       <c r="D36" t="s">
-        <v>527</v>
+        <v>528</v>
       </c>
       <c r="E36" t="s">
-        <v>528</v>
+        <v>529</v>
       </c>
       <c r="F36" t="s">
-        <v>529</v>
+        <v>530</v>
       </c>
       <c r="G36" t="s">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="H36" t="s">
-        <v>530</v>
+        <v>531</v>
       </c>
       <c r="I36" t="s">
-        <v>531</v>
+        <v>532</v>
       </c>
       <c r="J36" t="s">
-        <v>532</v>
+        <v>533</v>
       </c>
       <c r="K36" t="s">
-        <v>533</v>
+        <v>534</v>
       </c>
       <c r="L36" t="s">
-        <v>534</v>
+        <v>535</v>
       </c>
       <c r="M36" t="s">
-        <v>535</v>
+        <v>536</v>
       </c>
       <c r="N36" t="s">
         <v>67</v>
       </c>
       <c r="O36" t="s">
-        <v>536</v>
+        <v>537</v>
       </c>
       <c r="P36" t="s">
         <v>69</v>
       </c>
       <c r="Q36" t="s">
-        <v>537</v>
+        <v>538</v>
       </c>
       <c r="R36" t="s">
-        <v>538</v>
-      </c>
-      <c r="S36" t="s"/>
+        <v>539</v>
+      </c>
+      <c r="S36" t="s">
+        <v>72</v>
+      </c>
       <c r="T36" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="U36" t="s"/>
       <c r="V36" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="W36" t="s"/>
       <c r="X36" t="s">
-        <v>539</v>
+        <v>540</v>
       </c>
       <c r="Y36" t="s"/>
       <c r="Z36" t="s"/>
@@ -6032,64 +6103,66 @@
     </row>
     <row r="37" spans="1:29">
       <c r="A37" t="s">
-        <v>540</v>
+        <v>541</v>
       </c>
       <c r="B37" t="s">
-        <v>541</v>
+        <v>542</v>
       </c>
       <c r="C37" t="s"/>
       <c r="D37" t="s"/>
       <c r="E37" t="s">
-        <v>542</v>
+        <v>543</v>
       </c>
       <c r="F37" t="s"/>
       <c r="G37" t="s">
-        <v>543</v>
+        <v>544</v>
       </c>
       <c r="H37" t="s">
-        <v>544</v>
+        <v>545</v>
       </c>
       <c r="I37" t="s">
-        <v>545</v>
+        <v>546</v>
       </c>
       <c r="J37" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
       <c r="K37" t="s">
-        <v>547</v>
+        <v>548</v>
       </c>
       <c r="L37" t="s">
-        <v>548</v>
+        <v>549</v>
       </c>
       <c r="M37" t="s">
-        <v>549</v>
+        <v>550</v>
       </c>
       <c r="N37" t="s">
         <v>67</v>
       </c>
       <c r="O37" t="s">
-        <v>550</v>
+        <v>551</v>
       </c>
       <c r="P37" t="s">
         <v>69</v>
       </c>
       <c r="Q37" t="s">
-        <v>551</v>
+        <v>552</v>
       </c>
       <c r="R37" t="s">
-        <v>552</v>
-      </c>
-      <c r="S37" t="s"/>
+        <v>553</v>
+      </c>
+      <c r="S37" t="s">
+        <v>72</v>
+      </c>
       <c r="T37" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="U37" t="s"/>
       <c r="V37" t="s">
-        <v>553</v>
+        <v>554</v>
       </c>
       <c r="W37" t="s"/>
       <c r="X37" t="s">
-        <v>554</v>
+        <v>555</v>
       </c>
       <c r="Y37" t="s"/>
       <c r="Z37" t="s"/>
@@ -6101,68 +6174,70 @@
     </row>
     <row r="38" spans="1:29">
       <c r="A38" t="s">
-        <v>555</v>
+        <v>556</v>
       </c>
       <c r="B38" t="s">
-        <v>556</v>
+        <v>557</v>
       </c>
       <c r="C38" t="s"/>
       <c r="D38" t="s">
-        <v>557</v>
+        <v>558</v>
       </c>
       <c r="E38" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="F38" t="s">
-        <v>558</v>
+        <v>559</v>
       </c>
       <c r="G38" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="H38" t="s">
-        <v>559</v>
+        <v>560</v>
       </c>
       <c r="I38" t="s">
-        <v>560</v>
+        <v>561</v>
       </c>
       <c r="J38" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="K38" t="s">
-        <v>561</v>
+        <v>562</v>
       </c>
       <c r="L38" t="s">
-        <v>562</v>
+        <v>563</v>
       </c>
       <c r="M38" t="s">
-        <v>563</v>
+        <v>564</v>
       </c>
       <c r="N38" t="s">
         <v>67</v>
       </c>
       <c r="O38" t="s">
-        <v>564</v>
+        <v>565</v>
       </c>
       <c r="P38" t="s">
         <v>69</v>
       </c>
       <c r="Q38" t="s">
-        <v>565</v>
+        <v>566</v>
       </c>
       <c r="R38" t="s">
-        <v>566</v>
-      </c>
-      <c r="S38" t="s"/>
+        <v>567</v>
+      </c>
+      <c r="S38" t="s">
+        <v>72</v>
+      </c>
       <c r="T38" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="U38" t="s"/>
       <c r="V38" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="W38" t="s"/>
       <c r="X38" t="s">
-        <v>567</v>
+        <v>568</v>
       </c>
       <c r="Y38" t="s"/>
       <c r="Z38" t="s"/>
@@ -6174,68 +6249,70 @@
     </row>
     <row r="39" spans="1:29">
       <c r="A39" t="s">
-        <v>568</v>
+        <v>569</v>
       </c>
       <c r="B39" t="s">
-        <v>569</v>
+        <v>570</v>
       </c>
       <c r="C39" t="s"/>
       <c r="D39" t="s">
-        <v>570</v>
+        <v>571</v>
       </c>
       <c r="E39" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="F39" t="s">
-        <v>571</v>
+        <v>572</v>
       </c>
       <c r="G39" t="s">
-        <v>572</v>
+        <v>573</v>
       </c>
       <c r="H39" t="s">
-        <v>573</v>
+        <v>574</v>
       </c>
       <c r="I39" t="s">
-        <v>574</v>
+        <v>575</v>
       </c>
       <c r="J39" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="K39" t="s">
-        <v>575</v>
+        <v>576</v>
       </c>
       <c r="L39" t="s">
-        <v>576</v>
+        <v>577</v>
       </c>
       <c r="M39" t="s">
-        <v>577</v>
+        <v>578</v>
       </c>
       <c r="N39" t="s">
         <v>67</v>
       </c>
       <c r="O39" t="s">
-        <v>578</v>
+        <v>579</v>
       </c>
       <c r="P39" t="s">
         <v>69</v>
       </c>
       <c r="Q39" t="s">
-        <v>579</v>
+        <v>580</v>
       </c>
       <c r="R39" t="s">
-        <v>580</v>
-      </c>
-      <c r="S39" t="s"/>
+        <v>581</v>
+      </c>
+      <c r="S39" t="s">
+        <v>72</v>
+      </c>
       <c r="T39" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="U39" t="s"/>
       <c r="V39" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="W39" t="s"/>
       <c r="X39" t="s">
-        <v>581</v>
+        <v>582</v>
       </c>
       <c r="Y39" t="s"/>
       <c r="Z39" t="s"/>
@@ -6247,68 +6324,70 @@
     </row>
     <row r="40" spans="1:29">
       <c r="A40" t="s">
-        <v>582</v>
+        <v>583</v>
       </c>
       <c r="B40" t="s">
-        <v>583</v>
+        <v>584</v>
       </c>
       <c r="C40" t="s">
-        <v>584</v>
+        <v>585</v>
       </c>
       <c r="D40" t="s"/>
       <c r="E40" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="F40" t="s">
-        <v>585</v>
+        <v>586</v>
       </c>
       <c r="G40" t="s">
-        <v>586</v>
+        <v>587</v>
       </c>
       <c r="H40" t="s">
-        <v>587</v>
+        <v>588</v>
       </c>
       <c r="I40" t="s">
-        <v>588</v>
+        <v>589</v>
       </c>
       <c r="J40" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="K40" t="s">
-        <v>589</v>
+        <v>590</v>
       </c>
       <c r="L40" t="s">
-        <v>590</v>
+        <v>591</v>
       </c>
       <c r="M40" t="s">
-        <v>591</v>
+        <v>592</v>
       </c>
       <c r="N40" t="s">
         <v>67</v>
       </c>
       <c r="O40" t="s">
-        <v>592</v>
+        <v>593</v>
       </c>
       <c r="P40" t="s">
         <v>69</v>
       </c>
       <c r="Q40" t="s">
-        <v>593</v>
+        <v>594</v>
       </c>
       <c r="R40" t="s">
-        <v>594</v>
-      </c>
-      <c r="S40" t="s"/>
+        <v>595</v>
+      </c>
+      <c r="S40" t="s">
+        <v>72</v>
+      </c>
       <c r="T40" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="U40" t="s"/>
       <c r="V40" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="W40" t="s"/>
       <c r="X40" t="s">
-        <v>595</v>
+        <v>596</v>
       </c>
       <c r="Y40" t="s"/>
       <c r="Z40" t="s"/>
@@ -6320,70 +6399,72 @@
     </row>
     <row r="41" spans="1:29">
       <c r="A41" t="s">
-        <v>596</v>
+        <v>597</v>
       </c>
       <c r="B41" t="s">
-        <v>597</v>
+        <v>598</v>
       </c>
       <c r="C41" t="s">
-        <v>598</v>
+        <v>599</v>
       </c>
       <c r="D41" t="s">
-        <v>599</v>
+        <v>600</v>
       </c>
       <c r="E41" t="s">
-        <v>600</v>
+        <v>601</v>
       </c>
       <c r="F41" t="s">
-        <v>601</v>
+        <v>602</v>
       </c>
       <c r="G41" t="s">
-        <v>602</v>
+        <v>603</v>
       </c>
       <c r="H41" t="s">
-        <v>603</v>
+        <v>604</v>
       </c>
       <c r="I41" t="s">
-        <v>604</v>
+        <v>605</v>
       </c>
       <c r="J41" t="s">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="K41" t="s">
-        <v>606</v>
+        <v>607</v>
       </c>
       <c r="L41" t="s">
-        <v>607</v>
+        <v>608</v>
       </c>
       <c r="M41" t="s">
-        <v>608</v>
+        <v>609</v>
       </c>
       <c r="N41" t="s">
         <v>67</v>
       </c>
       <c r="O41" t="s">
-        <v>609</v>
+        <v>610</v>
       </c>
       <c r="P41" t="s">
         <v>69</v>
       </c>
       <c r="Q41" t="s">
-        <v>610</v>
+        <v>611</v>
       </c>
       <c r="R41" t="s">
-        <v>611</v>
-      </c>
-      <c r="S41" t="s"/>
+        <v>612</v>
+      </c>
+      <c r="S41" t="s">
+        <v>72</v>
+      </c>
       <c r="T41" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="U41" t="s"/>
       <c r="V41" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="W41" t="s"/>
       <c r="X41" t="s">
-        <v>612</v>
+        <v>613</v>
       </c>
       <c r="Y41" t="s"/>
       <c r="Z41" t="s"/>
@@ -6395,68 +6476,70 @@
     </row>
     <row r="42" spans="1:29">
       <c r="A42" t="s">
-        <v>613</v>
+        <v>614</v>
       </c>
       <c r="B42" t="s">
-        <v>614</v>
+        <v>615</v>
       </c>
       <c r="C42" t="s"/>
       <c r="D42" t="s">
-        <v>615</v>
+        <v>616</v>
       </c>
       <c r="E42" t="s">
-        <v>616</v>
+        <v>617</v>
       </c>
       <c r="F42" t="s">
-        <v>617</v>
+        <v>618</v>
       </c>
       <c r="G42" t="s">
-        <v>602</v>
+        <v>603</v>
       </c>
       <c r="H42" t="s">
-        <v>618</v>
+        <v>619</v>
       </c>
       <c r="I42" t="s">
-        <v>619</v>
+        <v>620</v>
       </c>
       <c r="J42" t="s">
-        <v>620</v>
+        <v>621</v>
       </c>
       <c r="K42" t="s">
-        <v>621</v>
+        <v>622</v>
       </c>
       <c r="L42" t="s">
-        <v>622</v>
+        <v>623</v>
       </c>
       <c r="M42" t="s">
-        <v>623</v>
+        <v>624</v>
       </c>
       <c r="N42" t="s">
         <v>67</v>
       </c>
       <c r="O42" t="s">
-        <v>624</v>
+        <v>625</v>
       </c>
       <c r="P42" t="s">
         <v>69</v>
       </c>
       <c r="Q42" t="s">
-        <v>625</v>
+        <v>626</v>
       </c>
       <c r="R42" t="s">
-        <v>626</v>
-      </c>
-      <c r="S42" t="s"/>
+        <v>627</v>
+      </c>
+      <c r="S42" t="s">
+        <v>72</v>
+      </c>
       <c r="T42" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="U42" t="s"/>
       <c r="V42" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="W42" t="s"/>
       <c r="X42" t="s">
-        <v>627</v>
+        <v>628</v>
       </c>
       <c r="Y42" t="s"/>
       <c r="Z42" t="s"/>
@@ -6468,68 +6551,70 @@
     </row>
     <row r="43" spans="1:29">
       <c r="A43" t="s">
-        <v>628</v>
+        <v>629</v>
       </c>
       <c r="B43" t="s">
-        <v>629</v>
+        <v>630</v>
       </c>
       <c r="C43" t="s"/>
       <c r="D43" t="s">
-        <v>630</v>
+        <v>631</v>
       </c>
       <c r="E43" t="s">
-        <v>631</v>
+        <v>632</v>
       </c>
       <c r="F43" t="s">
-        <v>632</v>
+        <v>633</v>
       </c>
       <c r="G43" t="s">
-        <v>602</v>
+        <v>603</v>
       </c>
       <c r="H43" t="s">
-        <v>633</v>
+        <v>634</v>
       </c>
       <c r="I43" t="s">
-        <v>634</v>
+        <v>635</v>
       </c>
       <c r="J43" t="s">
-        <v>635</v>
+        <v>636</v>
       </c>
       <c r="K43" t="s">
-        <v>636</v>
+        <v>637</v>
       </c>
       <c r="L43" t="s">
-        <v>637</v>
+        <v>638</v>
       </c>
       <c r="M43" t="s">
-        <v>638</v>
+        <v>639</v>
       </c>
       <c r="N43" t="s">
         <v>67</v>
       </c>
       <c r="O43" t="s">
-        <v>639</v>
+        <v>640</v>
       </c>
       <c r="P43" t="s">
         <v>69</v>
       </c>
       <c r="Q43" t="s">
-        <v>640</v>
+        <v>641</v>
       </c>
       <c r="R43" t="s">
-        <v>641</v>
-      </c>
-      <c r="S43" t="s"/>
+        <v>642</v>
+      </c>
+      <c r="S43" t="s">
+        <v>72</v>
+      </c>
       <c r="T43" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="U43" t="s"/>
       <c r="V43" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="W43" t="s"/>
       <c r="X43" t="s">
-        <v>642</v>
+        <v>643</v>
       </c>
       <c r="Y43" t="s"/>
       <c r="Z43" t="s"/>
@@ -6541,68 +6626,70 @@
     </row>
     <row r="44" spans="1:29">
       <c r="A44" t="s">
-        <v>643</v>
+        <v>644</v>
       </c>
       <c r="B44" t="s">
-        <v>644</v>
+        <v>645</v>
       </c>
       <c r="C44" t="s"/>
       <c r="D44" t="s">
-        <v>645</v>
+        <v>646</v>
       </c>
       <c r="E44" t="s">
-        <v>646</v>
+        <v>647</v>
       </c>
       <c r="F44" t="s">
-        <v>647</v>
+        <v>648</v>
       </c>
       <c r="G44" t="s">
-        <v>648</v>
+        <v>649</v>
       </c>
       <c r="H44" t="s">
-        <v>649</v>
+        <v>650</v>
       </c>
       <c r="I44" t="s">
-        <v>650</v>
+        <v>651</v>
       </c>
       <c r="J44" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="K44" t="s">
-        <v>651</v>
+        <v>652</v>
       </c>
       <c r="L44" t="s">
-        <v>652</v>
+        <v>653</v>
       </c>
       <c r="M44" t="s">
-        <v>653</v>
+        <v>654</v>
       </c>
       <c r="N44" t="s">
         <v>67</v>
       </c>
       <c r="O44" t="s">
-        <v>654</v>
+        <v>655</v>
       </c>
       <c r="P44" t="s">
         <v>69</v>
       </c>
       <c r="Q44" t="s">
-        <v>655</v>
+        <v>656</v>
       </c>
       <c r="R44" t="s">
-        <v>656</v>
-      </c>
-      <c r="S44" t="s"/>
+        <v>657</v>
+      </c>
+      <c r="S44" t="s">
+        <v>72</v>
+      </c>
       <c r="T44" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="U44" t="s"/>
       <c r="V44" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="W44" t="s"/>
       <c r="X44" t="s">
-        <v>657</v>
+        <v>658</v>
       </c>
       <c r="Y44" t="s"/>
       <c r="Z44" t="s"/>
@@ -6614,68 +6701,70 @@
     </row>
     <row r="45" spans="1:29">
       <c r="A45" t="s">
-        <v>658</v>
+        <v>659</v>
       </c>
       <c r="B45" t="s">
-        <v>659</v>
+        <v>660</v>
       </c>
       <c r="C45" t="s">
-        <v>660</v>
+        <v>661</v>
       </c>
       <c r="D45" t="s">
-        <v>661</v>
+        <v>662</v>
       </c>
       <c r="E45" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="F45" t="s"/>
       <c r="G45" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="H45" t="s">
-        <v>662</v>
+        <v>663</v>
       </c>
       <c r="I45" t="s">
-        <v>663</v>
+        <v>664</v>
       </c>
       <c r="J45" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="K45" t="s">
-        <v>664</v>
+        <v>665</v>
       </c>
       <c r="L45" t="s">
-        <v>665</v>
+        <v>666</v>
       </c>
       <c r="M45" t="s">
-        <v>666</v>
+        <v>667</v>
       </c>
       <c r="N45" t="s">
         <v>67</v>
       </c>
       <c r="O45" t="s">
-        <v>667</v>
+        <v>668</v>
       </c>
       <c r="P45" t="s">
         <v>69</v>
       </c>
       <c r="Q45" t="s">
-        <v>668</v>
+        <v>669</v>
       </c>
       <c r="R45" t="s">
-        <v>669</v>
-      </c>
-      <c r="S45" t="s"/>
+        <v>670</v>
+      </c>
+      <c r="S45" t="s">
+        <v>72</v>
+      </c>
       <c r="T45" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="U45" t="s"/>
       <c r="V45" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="W45" t="s"/>
       <c r="X45" t="s">
-        <v>670</v>
+        <v>671</v>
       </c>
       <c r="Y45" t="s"/>
       <c r="Z45" t="s"/>
@@ -6687,66 +6776,68 @@
     </row>
     <row r="46" spans="1:29">
       <c r="A46" t="s">
-        <v>671</v>
+        <v>672</v>
       </c>
       <c r="B46" t="s">
-        <v>672</v>
+        <v>673</v>
       </c>
       <c r="C46" t="s"/>
       <c r="D46" t="s"/>
       <c r="E46" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="F46" t="s">
-        <v>673</v>
+        <v>674</v>
       </c>
       <c r="G46" t="s">
-        <v>674</v>
+        <v>675</v>
       </c>
       <c r="H46" t="s">
-        <v>675</v>
+        <v>676</v>
       </c>
       <c r="I46" t="s">
-        <v>676</v>
+        <v>677</v>
       </c>
       <c r="J46" t="s">
-        <v>677</v>
+        <v>678</v>
       </c>
       <c r="K46" t="s">
-        <v>678</v>
+        <v>679</v>
       </c>
       <c r="L46" t="s">
-        <v>679</v>
+        <v>680</v>
       </c>
       <c r="M46" t="s">
-        <v>680</v>
+        <v>681</v>
       </c>
       <c r="N46" t="s">
         <v>67</v>
       </c>
       <c r="O46" t="s">
-        <v>681</v>
+        <v>682</v>
       </c>
       <c r="P46" t="s">
         <v>69</v>
       </c>
       <c r="Q46" t="s">
-        <v>682</v>
+        <v>683</v>
       </c>
       <c r="R46" t="s">
-        <v>683</v>
-      </c>
-      <c r="S46" t="s"/>
+        <v>684</v>
+      </c>
+      <c r="S46" t="s">
+        <v>72</v>
+      </c>
       <c r="T46" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="U46" t="s"/>
       <c r="V46" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="W46" t="s"/>
       <c r="X46" t="s">
-        <v>684</v>
+        <v>685</v>
       </c>
       <c r="Y46" t="s"/>
       <c r="Z46" t="s"/>
@@ -6758,10 +6849,10 @@
     </row>
     <row r="47" spans="1:29">
       <c r="A47" t="s">
-        <v>685</v>
+        <v>686</v>
       </c>
       <c r="B47" t="s">
-        <v>686</v>
+        <v>687</v>
       </c>
       <c r="C47" t="s"/>
       <c r="D47" t="s"/>
@@ -6769,55 +6860,57 @@
         <v>59</v>
       </c>
       <c r="F47" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="G47" t="s">
-        <v>687</v>
+        <v>688</v>
       </c>
       <c r="H47" t="s">
-        <v>688</v>
+        <v>689</v>
       </c>
       <c r="I47" t="s">
-        <v>689</v>
+        <v>690</v>
       </c>
       <c r="J47" t="s">
-        <v>690</v>
+        <v>691</v>
       </c>
       <c r="K47" t="s">
-        <v>691</v>
+        <v>692</v>
       </c>
       <c r="L47" t="s">
-        <v>692</v>
+        <v>693</v>
       </c>
       <c r="M47" t="s">
-        <v>693</v>
+        <v>694</v>
       </c>
       <c r="N47" t="s">
         <v>67</v>
       </c>
       <c r="O47" t="s">
-        <v>694</v>
+        <v>695</v>
       </c>
       <c r="P47" t="s">
         <v>69</v>
       </c>
       <c r="Q47" t="s">
-        <v>695</v>
+        <v>696</v>
       </c>
       <c r="R47" t="s">
-        <v>696</v>
-      </c>
-      <c r="S47" t="s"/>
+        <v>697</v>
+      </c>
+      <c r="S47" t="s">
+        <v>72</v>
+      </c>
       <c r="T47" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="U47" t="s"/>
       <c r="V47" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="W47" t="s"/>
       <c r="X47" t="s">
-        <v>697</v>
+        <v>698</v>
       </c>
       <c r="Y47" t="s"/>
       <c r="Z47" t="s"/>
@@ -6829,68 +6922,70 @@
     </row>
     <row r="48" spans="1:29">
       <c r="A48" t="s">
-        <v>698</v>
+        <v>699</v>
       </c>
       <c r="B48" t="s">
-        <v>699</v>
+        <v>700</v>
       </c>
       <c r="C48" t="s"/>
       <c r="D48" t="s">
-        <v>700</v>
+        <v>701</v>
       </c>
       <c r="E48" t="s">
-        <v>701</v>
+        <v>702</v>
       </c>
       <c r="F48" t="s">
-        <v>702</v>
+        <v>703</v>
       </c>
       <c r="G48" t="s">
-        <v>543</v>
+        <v>544</v>
       </c>
       <c r="H48" t="s">
-        <v>703</v>
+        <v>704</v>
       </c>
       <c r="I48" t="s">
-        <v>704</v>
+        <v>705</v>
       </c>
       <c r="J48" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
       <c r="K48" t="s">
-        <v>705</v>
+        <v>706</v>
       </c>
       <c r="L48" t="s">
-        <v>706</v>
+        <v>707</v>
       </c>
       <c r="M48" t="s">
-        <v>707</v>
+        <v>708</v>
       </c>
       <c r="N48" t="s">
         <v>67</v>
       </c>
       <c r="O48" t="s">
-        <v>708</v>
+        <v>709</v>
       </c>
       <c r="P48" t="s">
         <v>69</v>
       </c>
       <c r="Q48" t="s">
-        <v>709</v>
+        <v>710</v>
       </c>
       <c r="R48" t="s">
-        <v>710</v>
-      </c>
-      <c r="S48" t="s"/>
+        <v>711</v>
+      </c>
+      <c r="S48" t="s">
+        <v>72</v>
+      </c>
       <c r="T48" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="U48" t="s"/>
       <c r="V48" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="W48" t="s"/>
       <c r="X48" t="s">
-        <v>711</v>
+        <v>712</v>
       </c>
       <c r="Y48" t="s"/>
       <c r="Z48" t="s"/>
@@ -6902,68 +6997,70 @@
     </row>
     <row r="49" spans="1:29">
       <c r="A49" t="s">
-        <v>712</v>
+        <v>713</v>
       </c>
       <c r="B49" t="s">
-        <v>713</v>
+        <v>714</v>
       </c>
       <c r="C49" t="s">
-        <v>714</v>
+        <v>715</v>
       </c>
       <c r="D49" t="s"/>
       <c r="E49" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="F49" t="s">
-        <v>715</v>
+        <v>716</v>
       </c>
       <c r="G49" t="s">
-        <v>572</v>
+        <v>573</v>
       </c>
       <c r="H49" t="s">
-        <v>716</v>
+        <v>717</v>
       </c>
       <c r="I49" t="s">
-        <v>717</v>
+        <v>718</v>
       </c>
       <c r="J49" t="s">
-        <v>718</v>
+        <v>719</v>
       </c>
       <c r="K49" t="s">
-        <v>719</v>
+        <v>720</v>
       </c>
       <c r="L49" t="s">
-        <v>720</v>
+        <v>721</v>
       </c>
       <c r="M49" t="s">
-        <v>721</v>
+        <v>722</v>
       </c>
       <c r="N49" t="s">
         <v>67</v>
       </c>
       <c r="O49" t="s">
-        <v>722</v>
+        <v>723</v>
       </c>
       <c r="P49" t="s">
         <v>69</v>
       </c>
       <c r="Q49" t="s">
-        <v>723</v>
+        <v>724</v>
       </c>
       <c r="R49" t="s">
-        <v>724</v>
-      </c>
-      <c r="S49" t="s"/>
+        <v>725</v>
+      </c>
+      <c r="S49" t="s">
+        <v>72</v>
+      </c>
       <c r="T49" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="U49" t="s"/>
       <c r="V49" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="W49" t="s"/>
       <c r="X49" t="s">
-        <v>725</v>
+        <v>726</v>
       </c>
       <c r="Y49" t="s"/>
       <c r="Z49" t="s"/>
@@ -6975,70 +7072,72 @@
     </row>
     <row r="50" spans="1:29">
       <c r="A50" t="s">
-        <v>726</v>
+        <v>727</v>
       </c>
       <c r="B50" t="s">
-        <v>727</v>
+        <v>728</v>
       </c>
       <c r="C50" t="s">
-        <v>728</v>
+        <v>729</v>
       </c>
       <c r="D50" t="s">
-        <v>729</v>
+        <v>730</v>
       </c>
       <c r="E50" t="s">
-        <v>730</v>
+        <v>731</v>
       </c>
       <c r="F50" t="s">
-        <v>731</v>
+        <v>732</v>
       </c>
       <c r="G50" t="s">
-        <v>732</v>
+        <v>733</v>
       </c>
       <c r="H50" t="s">
-        <v>733</v>
+        <v>734</v>
       </c>
       <c r="I50" t="s">
-        <v>734</v>
+        <v>735</v>
       </c>
       <c r="J50" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="K50" t="s">
-        <v>735</v>
+        <v>736</v>
       </c>
       <c r="L50" t="s">
-        <v>736</v>
+        <v>737</v>
       </c>
       <c r="M50" t="s">
-        <v>737</v>
+        <v>738</v>
       </c>
       <c r="N50" t="s">
         <v>67</v>
       </c>
       <c r="O50" t="s">
-        <v>738</v>
+        <v>739</v>
       </c>
       <c r="P50" t="s">
         <v>69</v>
       </c>
       <c r="Q50" t="s">
-        <v>739</v>
+        <v>740</v>
       </c>
       <c r="R50" t="s">
-        <v>740</v>
-      </c>
-      <c r="S50" t="s"/>
+        <v>741</v>
+      </c>
+      <c r="S50" t="s">
+        <v>72</v>
+      </c>
       <c r="T50" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="U50" t="s"/>
       <c r="V50" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="W50" t="s"/>
       <c r="X50" t="s">
-        <v>741</v>
+        <v>742</v>
       </c>
       <c r="Y50" t="s"/>
       <c r="Z50" t="s"/>
@@ -7050,68 +7149,70 @@
     </row>
     <row r="51" spans="1:29">
       <c r="A51" t="s">
-        <v>742</v>
+        <v>743</v>
       </c>
       <c r="B51" t="s">
-        <v>743</v>
+        <v>744</v>
       </c>
       <c r="C51" t="s">
-        <v>744</v>
+        <v>745</v>
       </c>
       <c r="D51" t="s"/>
       <c r="E51" t="s">
         <v>59</v>
       </c>
       <c r="F51" t="s">
-        <v>745</v>
+        <v>746</v>
       </c>
       <c r="G51" t="s">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="H51" t="s">
-        <v>746</v>
+        <v>747</v>
       </c>
       <c r="I51" t="s">
-        <v>747</v>
+        <v>748</v>
       </c>
       <c r="J51" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="K51" t="s">
-        <v>748</v>
+        <v>749</v>
       </c>
       <c r="L51" t="s">
-        <v>749</v>
+        <v>750</v>
       </c>
       <c r="M51" t="s">
-        <v>750</v>
+        <v>751</v>
       </c>
       <c r="N51" t="s">
         <v>67</v>
       </c>
       <c r="O51" t="s">
-        <v>751</v>
+        <v>752</v>
       </c>
       <c r="P51" t="s">
         <v>69</v>
       </c>
       <c r="Q51" t="s">
-        <v>752</v>
+        <v>753</v>
       </c>
       <c r="R51" t="s">
-        <v>753</v>
-      </c>
-      <c r="S51" t="s"/>
+        <v>754</v>
+      </c>
+      <c r="S51" t="s">
+        <v>72</v>
+      </c>
       <c r="T51" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="U51" t="s"/>
       <c r="V51" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="W51" t="s"/>
       <c r="X51" t="s">
-        <v>754</v>
+        <v>755</v>
       </c>
       <c r="Y51" t="s"/>
       <c r="Z51" t="s"/>
@@ -7123,70 +7224,72 @@
     </row>
     <row r="52" spans="1:29">
       <c r="A52" t="s">
-        <v>755</v>
+        <v>756</v>
       </c>
       <c r="B52" t="s">
-        <v>756</v>
+        <v>757</v>
       </c>
       <c r="C52" t="s">
-        <v>757</v>
+        <v>758</v>
       </c>
       <c r="D52" t="s">
-        <v>758</v>
+        <v>759</v>
       </c>
       <c r="E52" t="s">
         <v>59</v>
       </c>
       <c r="F52" t="s">
-        <v>759</v>
+        <v>760</v>
       </c>
       <c r="G52" t="s">
-        <v>760</v>
+        <v>761</v>
       </c>
       <c r="H52" t="s">
-        <v>761</v>
+        <v>762</v>
       </c>
       <c r="I52" t="s">
-        <v>762</v>
+        <v>763</v>
       </c>
       <c r="J52" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="K52" t="s">
-        <v>763</v>
+        <v>764</v>
       </c>
       <c r="L52" t="s">
-        <v>764</v>
+        <v>765</v>
       </c>
       <c r="M52" t="s">
-        <v>765</v>
+        <v>766</v>
       </c>
       <c r="N52" t="s">
         <v>67</v>
       </c>
       <c r="O52" t="s">
-        <v>766</v>
+        <v>767</v>
       </c>
       <c r="P52" t="s">
         <v>69</v>
       </c>
       <c r="Q52" t="s">
-        <v>767</v>
+        <v>768</v>
       </c>
       <c r="R52" t="s">
-        <v>768</v>
-      </c>
-      <c r="S52" t="s"/>
+        <v>769</v>
+      </c>
+      <c r="S52" t="s">
+        <v>72</v>
+      </c>
       <c r="T52" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="U52" t="s"/>
       <c r="V52" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="W52" t="s"/>
       <c r="X52" t="s">
-        <v>769</v>
+        <v>770</v>
       </c>
       <c r="Y52" t="s"/>
       <c r="Z52" t="s"/>
@@ -7198,68 +7301,70 @@
     </row>
     <row r="53" spans="1:29">
       <c r="A53" t="s">
-        <v>770</v>
+        <v>771</v>
       </c>
       <c r="B53" t="s">
-        <v>771</v>
+        <v>772</v>
       </c>
       <c r="C53" t="s"/>
       <c r="D53" t="s">
-        <v>772</v>
+        <v>773</v>
       </c>
       <c r="E53" t="s">
-        <v>773</v>
+        <v>774</v>
       </c>
       <c r="F53" t="s">
-        <v>774</v>
+        <v>775</v>
       </c>
       <c r="G53" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="H53" t="s">
-        <v>775</v>
+        <v>776</v>
       </c>
       <c r="I53" t="s">
-        <v>776</v>
+        <v>777</v>
       </c>
       <c r="J53" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="K53" t="s">
-        <v>777</v>
+        <v>778</v>
       </c>
       <c r="L53" t="s">
-        <v>778</v>
+        <v>779</v>
       </c>
       <c r="M53" t="s">
-        <v>779</v>
+        <v>780</v>
       </c>
       <c r="N53" t="s">
         <v>67</v>
       </c>
       <c r="O53" t="s">
-        <v>780</v>
+        <v>781</v>
       </c>
       <c r="P53" t="s">
         <v>69</v>
       </c>
       <c r="Q53" t="s">
-        <v>781</v>
+        <v>782</v>
       </c>
       <c r="R53" t="s">
-        <v>782</v>
-      </c>
-      <c r="S53" t="s"/>
+        <v>783</v>
+      </c>
+      <c r="S53" t="s">
+        <v>72</v>
+      </c>
       <c r="T53" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="U53" t="s"/>
       <c r="V53" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="W53" t="s"/>
       <c r="X53" t="s">
-        <v>783</v>
+        <v>784</v>
       </c>
       <c r="Y53" t="s"/>
       <c r="Z53" t="s"/>
@@ -7271,66 +7376,68 @@
     </row>
     <row r="54" spans="1:29">
       <c r="A54" t="s">
-        <v>784</v>
+        <v>785</v>
       </c>
       <c r="B54" t="s">
-        <v>785</v>
+        <v>786</v>
       </c>
       <c r="C54" t="s"/>
       <c r="D54" t="s">
-        <v>786</v>
+        <v>787</v>
       </c>
       <c r="E54" t="s">
-        <v>787</v>
+        <v>788</v>
       </c>
       <c r="F54" t="s"/>
       <c r="G54" t="s">
-        <v>760</v>
+        <v>761</v>
       </c>
       <c r="H54" t="s">
-        <v>788</v>
+        <v>789</v>
       </c>
       <c r="I54" t="s">
-        <v>789</v>
+        <v>790</v>
       </c>
       <c r="J54" t="s">
-        <v>790</v>
+        <v>791</v>
       </c>
       <c r="K54" t="s">
-        <v>791</v>
+        <v>792</v>
       </c>
       <c r="L54" t="s">
-        <v>792</v>
+        <v>793</v>
       </c>
       <c r="M54" t="s">
-        <v>793</v>
+        <v>794</v>
       </c>
       <c r="N54" t="s">
         <v>67</v>
       </c>
       <c r="O54" t="s">
-        <v>794</v>
+        <v>795</v>
       </c>
       <c r="P54" t="s">
         <v>69</v>
       </c>
       <c r="Q54" t="s">
-        <v>795</v>
+        <v>796</v>
       </c>
       <c r="R54" t="s">
-        <v>796</v>
-      </c>
-      <c r="S54" t="s"/>
+        <v>797</v>
+      </c>
+      <c r="S54" t="s">
+        <v>72</v>
+      </c>
       <c r="T54" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="U54" t="s"/>
       <c r="V54" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="W54" t="s"/>
       <c r="X54" t="s">
-        <v>797</v>
+        <v>798</v>
       </c>
       <c r="Y54" t="s"/>
       <c r="Z54" t="s"/>
@@ -7342,64 +7449,66 @@
     </row>
     <row r="55" spans="1:29">
       <c r="A55" t="s">
-        <v>798</v>
+        <v>799</v>
       </c>
       <c r="B55" t="s">
-        <v>799</v>
+        <v>800</v>
       </c>
       <c r="C55" t="s"/>
       <c r="D55" t="s"/>
       <c r="E55" t="s">
-        <v>800</v>
+        <v>801</v>
       </c>
       <c r="F55" t="s"/>
       <c r="G55" t="s">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="H55" t="s">
-        <v>801</v>
+        <v>802</v>
       </c>
       <c r="I55" t="s">
-        <v>802</v>
+        <v>803</v>
       </c>
       <c r="J55" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="K55" t="s">
-        <v>803</v>
+        <v>804</v>
       </c>
       <c r="L55" t="s">
-        <v>804</v>
+        <v>805</v>
       </c>
       <c r="M55" t="s">
-        <v>805</v>
+        <v>806</v>
       </c>
       <c r="N55" t="s">
         <v>67</v>
       </c>
       <c r="O55" t="s">
-        <v>806</v>
+        <v>807</v>
       </c>
       <c r="P55" t="s">
         <v>69</v>
       </c>
       <c r="Q55" t="s">
-        <v>807</v>
+        <v>808</v>
       </c>
       <c r="R55" t="s">
-        <v>808</v>
-      </c>
-      <c r="S55" t="s"/>
+        <v>809</v>
+      </c>
+      <c r="S55" t="s">
+        <v>72</v>
+      </c>
       <c r="T55" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="U55" t="s"/>
       <c r="V55" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="W55" t="s"/>
       <c r="X55" t="s">
-        <v>809</v>
+        <v>810</v>
       </c>
       <c r="Y55" t="s"/>
       <c r="Z55" t="s"/>
@@ -7411,66 +7520,68 @@
     </row>
     <row r="56" spans="1:29">
       <c r="A56" t="s">
-        <v>810</v>
+        <v>811</v>
       </c>
       <c r="B56" t="s">
-        <v>811</v>
+        <v>812</v>
       </c>
       <c r="C56" t="s"/>
       <c r="D56" t="s">
-        <v>812</v>
+        <v>813</v>
       </c>
       <c r="E56" t="s">
-        <v>730</v>
+        <v>731</v>
       </c>
       <c r="F56" t="s"/>
       <c r="G56" t="s">
-        <v>813</v>
+        <v>814</v>
       </c>
       <c r="H56" t="s">
-        <v>814</v>
+        <v>815</v>
       </c>
       <c r="I56" t="s">
-        <v>815</v>
+        <v>816</v>
       </c>
       <c r="J56" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="K56" t="s">
-        <v>816</v>
+        <v>817</v>
       </c>
       <c r="L56" t="s">
-        <v>817</v>
+        <v>818</v>
       </c>
       <c r="M56" t="s">
-        <v>818</v>
+        <v>819</v>
       </c>
       <c r="N56" t="s">
         <v>67</v>
       </c>
       <c r="O56" t="s">
-        <v>819</v>
+        <v>820</v>
       </c>
       <c r="P56" t="s">
         <v>69</v>
       </c>
       <c r="Q56" t="s">
-        <v>820</v>
+        <v>821</v>
       </c>
       <c r="R56" t="s">
-        <v>821</v>
-      </c>
-      <c r="S56" t="s"/>
+        <v>822</v>
+      </c>
+      <c r="S56" t="s">
+        <v>72</v>
+      </c>
       <c r="T56" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="U56" t="s"/>
       <c r="V56" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="W56" t="s"/>
       <c r="X56" t="s">
-        <v>822</v>
+        <v>823</v>
       </c>
       <c r="Y56" t="s"/>
       <c r="Z56" t="s"/>
@@ -7482,66 +7593,68 @@
     </row>
     <row r="57" spans="1:29">
       <c r="A57" t="s">
-        <v>823</v>
+        <v>824</v>
       </c>
       <c r="B57" t="s">
-        <v>824</v>
+        <v>825</v>
       </c>
       <c r="C57" t="s"/>
       <c r="D57" t="s"/>
       <c r="E57" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="F57" t="s">
-        <v>825</v>
+        <v>826</v>
       </c>
       <c r="G57" t="s">
-        <v>826</v>
+        <v>827</v>
       </c>
       <c r="H57" t="s">
-        <v>827</v>
+        <v>828</v>
       </c>
       <c r="I57" t="s">
-        <v>828</v>
+        <v>829</v>
       </c>
       <c r="J57" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="K57" t="s">
-        <v>829</v>
+        <v>830</v>
       </c>
       <c r="L57" t="s">
-        <v>830</v>
+        <v>831</v>
       </c>
       <c r="M57" t="s">
-        <v>831</v>
+        <v>832</v>
       </c>
       <c r="N57" t="s">
         <v>67</v>
       </c>
       <c r="O57" t="s">
-        <v>832</v>
+        <v>833</v>
       </c>
       <c r="P57" t="s">
         <v>69</v>
       </c>
       <c r="Q57" t="s">
-        <v>833</v>
+        <v>834</v>
       </c>
       <c r="R57" t="s">
-        <v>834</v>
-      </c>
-      <c r="S57" t="s"/>
+        <v>835</v>
+      </c>
+      <c r="S57" t="s">
+        <v>72</v>
+      </c>
       <c r="T57" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="U57" t="s"/>
       <c r="V57" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="W57" t="s"/>
       <c r="X57" t="s">
-        <v>835</v>
+        <v>836</v>
       </c>
       <c r="Y57" t="s"/>
       <c r="Z57" t="s"/>
@@ -7553,66 +7666,68 @@
     </row>
     <row r="58" spans="1:29">
       <c r="A58" t="s">
-        <v>540</v>
+        <v>541</v>
       </c>
       <c r="B58" t="s">
-        <v>541</v>
+        <v>542</v>
       </c>
       <c r="C58" t="s"/>
       <c r="D58" t="s">
-        <v>836</v>
+        <v>837</v>
       </c>
       <c r="E58" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="F58" t="s"/>
       <c r="G58" t="s">
-        <v>543</v>
+        <v>544</v>
       </c>
       <c r="H58" t="s">
-        <v>837</v>
+        <v>838</v>
       </c>
       <c r="I58" t="s">
-        <v>838</v>
+        <v>839</v>
       </c>
       <c r="J58" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
       <c r="K58" t="s">
-        <v>839</v>
+        <v>840</v>
       </c>
       <c r="L58" t="s">
-        <v>840</v>
+        <v>841</v>
       </c>
       <c r="M58" t="s">
-        <v>841</v>
+        <v>842</v>
       </c>
       <c r="N58" t="s">
         <v>67</v>
       </c>
       <c r="O58" t="s">
-        <v>842</v>
+        <v>843</v>
       </c>
       <c r="P58" t="s">
         <v>69</v>
       </c>
       <c r="Q58" t="s">
-        <v>843</v>
+        <v>844</v>
       </c>
       <c r="R58" t="s">
-        <v>552</v>
-      </c>
-      <c r="S58" t="s"/>
+        <v>553</v>
+      </c>
+      <c r="S58" t="s">
+        <v>72</v>
+      </c>
       <c r="T58" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="U58" t="s"/>
       <c r="V58" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="W58" t="s"/>
       <c r="X58" t="s">
-        <v>554</v>
+        <v>555</v>
       </c>
       <c r="Y58" t="s"/>
       <c r="Z58" t="s"/>
@@ -7624,66 +7739,68 @@
     </row>
     <row r="59" spans="1:29">
       <c r="A59" t="s">
-        <v>844</v>
+        <v>845</v>
       </c>
       <c r="B59" t="s">
-        <v>845</v>
+        <v>846</v>
       </c>
       <c r="C59" t="s"/>
       <c r="D59" t="s">
-        <v>846</v>
+        <v>847</v>
       </c>
       <c r="E59" t="s">
         <v>59</v>
       </c>
       <c r="F59" t="s"/>
       <c r="G59" t="s">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="H59" t="s">
-        <v>847</v>
+        <v>848</v>
       </c>
       <c r="I59" t="s">
-        <v>848</v>
+        <v>849</v>
       </c>
       <c r="J59" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="K59" t="s">
-        <v>849</v>
+        <v>850</v>
       </c>
       <c r="L59" t="s">
-        <v>850</v>
+        <v>851</v>
       </c>
       <c r="M59" t="s">
-        <v>851</v>
+        <v>852</v>
       </c>
       <c r="N59" t="s">
         <v>67</v>
       </c>
       <c r="O59" t="s">
-        <v>852</v>
+        <v>853</v>
       </c>
       <c r="P59" t="s">
         <v>69</v>
       </c>
       <c r="Q59" t="s">
-        <v>853</v>
+        <v>854</v>
       </c>
       <c r="R59" t="s">
-        <v>854</v>
-      </c>
-      <c r="S59" t="s"/>
+        <v>855</v>
+      </c>
+      <c r="S59" t="s">
+        <v>72</v>
+      </c>
       <c r="T59" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="U59" t="s"/>
       <c r="V59" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="W59" t="s"/>
       <c r="X59" t="s">
-        <v>855</v>
+        <v>856</v>
       </c>
       <c r="Y59" t="s"/>
       <c r="Z59" t="s"/>
@@ -7695,66 +7812,68 @@
     </row>
     <row r="60" spans="1:29">
       <c r="A60" t="s">
-        <v>856</v>
+        <v>857</v>
       </c>
       <c r="B60" t="s">
-        <v>857</v>
+        <v>858</v>
       </c>
       <c r="C60" t="s"/>
       <c r="D60" t="s"/>
       <c r="E60" t="s">
-        <v>858</v>
+        <v>859</v>
       </c>
       <c r="F60" t="s">
-        <v>859</v>
+        <v>860</v>
       </c>
       <c r="G60" t="s">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="H60" t="s">
-        <v>860</v>
+        <v>861</v>
       </c>
       <c r="I60" t="s">
-        <v>861</v>
+        <v>862</v>
       </c>
       <c r="J60" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="K60" t="s">
-        <v>862</v>
+        <v>863</v>
       </c>
       <c r="L60" t="s">
-        <v>863</v>
+        <v>864</v>
       </c>
       <c r="M60" t="s">
-        <v>864</v>
+        <v>865</v>
       </c>
       <c r="N60" t="s">
         <v>67</v>
       </c>
       <c r="O60" t="s">
-        <v>865</v>
+        <v>866</v>
       </c>
       <c r="P60" t="s">
         <v>69</v>
       </c>
       <c r="Q60" t="s">
-        <v>866</v>
+        <v>867</v>
       </c>
       <c r="R60" t="s">
-        <v>867</v>
-      </c>
-      <c r="S60" t="s"/>
+        <v>868</v>
+      </c>
+      <c r="S60" t="s">
+        <v>72</v>
+      </c>
       <c r="T60" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="U60" t="s"/>
       <c r="V60" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="W60" t="s"/>
       <c r="X60" t="s">
-        <v>868</v>
+        <v>869</v>
       </c>
       <c r="Y60" t="s"/>
       <c r="Z60" t="s"/>
@@ -7766,68 +7885,70 @@
     </row>
     <row r="61" spans="1:29">
       <c r="A61" t="s">
-        <v>869</v>
+        <v>870</v>
       </c>
       <c r="B61" t="s">
-        <v>870</v>
+        <v>871</v>
       </c>
       <c r="C61" t="s"/>
       <c r="D61" t="s">
-        <v>871</v>
+        <v>872</v>
       </c>
       <c r="E61" t="s">
-        <v>872</v>
+        <v>873</v>
       </c>
       <c r="F61" t="s">
-        <v>873</v>
+        <v>874</v>
       </c>
       <c r="G61" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="H61" t="s">
-        <v>874</v>
+        <v>875</v>
       </c>
       <c r="I61" t="s">
-        <v>875</v>
+        <v>876</v>
       </c>
       <c r="J61" t="s">
-        <v>876</v>
+        <v>877</v>
       </c>
       <c r="K61" t="s">
-        <v>877</v>
+        <v>878</v>
       </c>
       <c r="L61" t="s">
-        <v>878</v>
+        <v>879</v>
       </c>
       <c r="M61" t="s">
-        <v>879</v>
+        <v>880</v>
       </c>
       <c r="N61" t="s">
         <v>67</v>
       </c>
       <c r="O61" t="s">
-        <v>880</v>
+        <v>881</v>
       </c>
       <c r="P61" t="s">
         <v>69</v>
       </c>
       <c r="Q61" t="s">
-        <v>881</v>
+        <v>882</v>
       </c>
       <c r="R61" t="s">
-        <v>882</v>
-      </c>
-      <c r="S61" t="s"/>
+        <v>883</v>
+      </c>
+      <c r="S61" t="s">
+        <v>72</v>
+      </c>
       <c r="T61" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="U61" t="s"/>
       <c r="V61" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="W61" t="s"/>
       <c r="X61" t="s">
-        <v>883</v>
+        <v>884</v>
       </c>
       <c r="Y61" t="s"/>
       <c r="Z61" t="s"/>
@@ -7839,66 +7960,68 @@
     </row>
     <row r="62" spans="1:29">
       <c r="A62" t="s">
-        <v>884</v>
+        <v>885</v>
       </c>
       <c r="B62" t="s">
-        <v>885</v>
+        <v>886</v>
       </c>
       <c r="C62" t="s">
-        <v>886</v>
+        <v>887</v>
       </c>
       <c r="D62" t="s"/>
       <c r="E62" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="F62" t="s"/>
       <c r="G62" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="H62" t="s">
-        <v>887</v>
+        <v>888</v>
       </c>
       <c r="I62" t="s">
-        <v>888</v>
+        <v>889</v>
       </c>
       <c r="J62" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="K62" t="s">
-        <v>889</v>
+        <v>890</v>
       </c>
       <c r="L62" t="s">
-        <v>890</v>
+        <v>891</v>
       </c>
       <c r="M62" t="s">
-        <v>891</v>
+        <v>892</v>
       </c>
       <c r="N62" t="s">
         <v>67</v>
       </c>
       <c r="O62" t="s">
-        <v>892</v>
+        <v>893</v>
       </c>
       <c r="P62" t="s">
         <v>69</v>
       </c>
       <c r="Q62" t="s">
-        <v>893</v>
+        <v>894</v>
       </c>
       <c r="R62" t="s">
-        <v>894</v>
-      </c>
-      <c r="S62" t="s"/>
+        <v>895</v>
+      </c>
+      <c r="S62" t="s">
+        <v>72</v>
+      </c>
       <c r="T62" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="U62" t="s"/>
       <c r="V62" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="W62" t="s"/>
       <c r="X62" t="s">
-        <v>895</v>
+        <v>896</v>
       </c>
       <c r="Y62" t="s"/>
       <c r="Z62" t="s"/>
@@ -7910,68 +8033,70 @@
     </row>
     <row r="63" spans="1:29">
       <c r="A63" t="s">
-        <v>896</v>
+        <v>897</v>
       </c>
       <c r="B63" t="s">
-        <v>897</v>
+        <v>898</v>
       </c>
       <c r="C63" t="s">
-        <v>898</v>
+        <v>899</v>
       </c>
       <c r="D63" t="s">
-        <v>899</v>
+        <v>900</v>
       </c>
       <c r="E63" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="F63" t="s">
-        <v>900</v>
+        <v>901</v>
       </c>
       <c r="G63" t="s"/>
       <c r="H63" t="s">
-        <v>901</v>
+        <v>902</v>
       </c>
       <c r="I63" t="s">
-        <v>902</v>
+        <v>903</v>
       </c>
       <c r="J63" t="s">
-        <v>903</v>
+        <v>904</v>
       </c>
       <c r="K63" t="s">
-        <v>904</v>
+        <v>905</v>
       </c>
       <c r="L63" t="s">
-        <v>905</v>
+        <v>906</v>
       </c>
       <c r="M63" t="s">
-        <v>906</v>
+        <v>907</v>
       </c>
       <c r="N63" t="s">
         <v>67</v>
       </c>
       <c r="O63" t="s">
-        <v>907</v>
+        <v>908</v>
       </c>
       <c r="P63" t="s">
         <v>69</v>
       </c>
       <c r="Q63" t="s">
-        <v>908</v>
+        <v>909</v>
       </c>
       <c r="R63" t="s">
-        <v>909</v>
-      </c>
-      <c r="S63" t="s"/>
+        <v>910</v>
+      </c>
+      <c r="S63" t="s">
+        <v>72</v>
+      </c>
       <c r="T63" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="U63" t="s"/>
       <c r="V63" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="W63" t="s"/>
       <c r="X63" t="s">
-        <v>910</v>
+        <v>911</v>
       </c>
       <c r="Y63" t="s"/>
       <c r="Z63" t="s"/>
@@ -7983,66 +8108,68 @@
     </row>
     <row r="64" spans="1:29">
       <c r="A64" t="s">
-        <v>911</v>
+        <v>912</v>
       </c>
       <c r="B64" t="s">
-        <v>912</v>
+        <v>913</v>
       </c>
       <c r="C64" t="s"/>
       <c r="D64" t="s"/>
       <c r="E64" t="s">
-        <v>913</v>
+        <v>914</v>
       </c>
       <c r="F64" t="s">
-        <v>914</v>
+        <v>915</v>
       </c>
       <c r="G64" t="s">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="H64" t="s">
-        <v>915</v>
+        <v>916</v>
       </c>
       <c r="I64" t="s">
-        <v>916</v>
+        <v>917</v>
       </c>
       <c r="J64" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="K64" t="s">
-        <v>917</v>
+        <v>918</v>
       </c>
       <c r="L64" t="s">
-        <v>918</v>
+        <v>919</v>
       </c>
       <c r="M64" t="s">
-        <v>919</v>
+        <v>920</v>
       </c>
       <c r="N64" t="s">
         <v>67</v>
       </c>
       <c r="O64" t="s">
-        <v>920</v>
+        <v>921</v>
       </c>
       <c r="P64" t="s">
         <v>69</v>
       </c>
       <c r="Q64" t="s">
-        <v>921</v>
+        <v>922</v>
       </c>
       <c r="R64" t="s">
-        <v>922</v>
-      </c>
-      <c r="S64" t="s"/>
+        <v>923</v>
+      </c>
+      <c r="S64" t="s">
+        <v>72</v>
+      </c>
       <c r="T64" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="U64" t="s"/>
       <c r="V64" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="W64" t="s"/>
       <c r="X64" t="s">
-        <v>923</v>
+        <v>924</v>
       </c>
       <c r="Y64" t="s"/>
       <c r="Z64" t="s"/>
@@ -8054,66 +8181,68 @@
     </row>
     <row r="65" spans="1:29">
       <c r="A65" t="s">
-        <v>924</v>
+        <v>925</v>
       </c>
       <c r="B65" t="s">
-        <v>925</v>
+        <v>926</v>
       </c>
       <c r="C65" t="s"/>
       <c r="D65" t="s"/>
       <c r="E65" t="s">
-        <v>926</v>
+        <v>927</v>
       </c>
       <c r="F65" t="s">
-        <v>927</v>
+        <v>928</v>
       </c>
       <c r="G65" t="s">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="H65" t="s">
-        <v>928</v>
+        <v>929</v>
       </c>
       <c r="I65" t="s">
-        <v>929</v>
+        <v>930</v>
       </c>
       <c r="J65" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="K65" t="s">
-        <v>930</v>
+        <v>931</v>
       </c>
       <c r="L65" t="s">
-        <v>931</v>
+        <v>932</v>
       </c>
       <c r="M65" t="s">
-        <v>932</v>
+        <v>933</v>
       </c>
       <c r="N65" t="s">
         <v>67</v>
       </c>
       <c r="O65" t="s">
-        <v>933</v>
+        <v>934</v>
       </c>
       <c r="P65" t="s">
         <v>69</v>
       </c>
       <c r="Q65" t="s">
-        <v>934</v>
+        <v>935</v>
       </c>
       <c r="R65" t="s">
-        <v>935</v>
-      </c>
-      <c r="S65" t="s"/>
+        <v>936</v>
+      </c>
+      <c r="S65" t="s">
+        <v>72</v>
+      </c>
       <c r="T65" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="U65" t="s"/>
       <c r="V65" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="W65" t="s"/>
       <c r="X65" t="s">
-        <v>936</v>
+        <v>937</v>
       </c>
       <c r="Y65" t="s"/>
       <c r="Z65" t="s"/>
@@ -8125,66 +8254,68 @@
     </row>
     <row r="66" spans="1:29">
       <c r="A66" t="s">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="B66" t="s">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="C66" t="s"/>
       <c r="D66" t="s"/>
       <c r="E66" t="s">
-        <v>937</v>
+        <v>938</v>
       </c>
       <c r="F66" t="s">
-        <v>938</v>
+        <v>939</v>
       </c>
       <c r="G66" t="s">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="H66" t="s">
-        <v>939</v>
+        <v>940</v>
       </c>
       <c r="I66" t="s">
-        <v>940</v>
+        <v>941</v>
       </c>
       <c r="J66" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="K66" t="s">
-        <v>941</v>
+        <v>942</v>
       </c>
       <c r="L66" t="s">
-        <v>942</v>
+        <v>943</v>
       </c>
       <c r="M66" t="s">
-        <v>943</v>
+        <v>944</v>
       </c>
       <c r="N66" t="s">
         <v>67</v>
       </c>
       <c r="O66" t="s">
-        <v>944</v>
+        <v>945</v>
       </c>
       <c r="P66" t="s">
         <v>69</v>
       </c>
       <c r="Q66" t="s">
-        <v>945</v>
+        <v>946</v>
       </c>
       <c r="R66" t="s">
-        <v>946</v>
-      </c>
-      <c r="S66" t="s"/>
+        <v>947</v>
+      </c>
+      <c r="S66" t="s">
+        <v>72</v>
+      </c>
       <c r="T66" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="U66" t="s"/>
       <c r="V66" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="W66" t="s"/>
       <c r="X66" t="s">
-        <v>947</v>
+        <v>948</v>
       </c>
       <c r="Y66" t="s"/>
       <c r="Z66" t="s"/>
@@ -8196,68 +8327,70 @@
     </row>
     <row r="67" spans="1:29">
       <c r="A67" t="s">
-        <v>948</v>
+        <v>949</v>
       </c>
       <c r="B67" t="s">
-        <v>949</v>
+        <v>950</v>
       </c>
       <c r="C67" t="s"/>
       <c r="D67" t="s">
-        <v>950</v>
+        <v>951</v>
       </c>
       <c r="E67" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="F67" t="s">
-        <v>951</v>
+        <v>952</v>
       </c>
       <c r="G67" t="s">
-        <v>586</v>
+        <v>587</v>
       </c>
       <c r="H67" t="s">
-        <v>952</v>
+        <v>953</v>
       </c>
       <c r="I67" t="s">
-        <v>953</v>
+        <v>954</v>
       </c>
       <c r="J67" t="s">
-        <v>954</v>
+        <v>955</v>
       </c>
       <c r="K67" t="s">
-        <v>955</v>
+        <v>956</v>
       </c>
       <c r="L67" t="s">
-        <v>956</v>
+        <v>957</v>
       </c>
       <c r="M67" t="s">
-        <v>957</v>
+        <v>958</v>
       </c>
       <c r="N67" t="s">
         <v>67</v>
       </c>
       <c r="O67" t="s">
-        <v>958</v>
+        <v>959</v>
       </c>
       <c r="P67" t="s">
         <v>69</v>
       </c>
       <c r="Q67" t="s">
-        <v>959</v>
+        <v>960</v>
       </c>
       <c r="R67" t="s">
-        <v>960</v>
-      </c>
-      <c r="S67" t="s"/>
+        <v>961</v>
+      </c>
+      <c r="S67" t="s">
+        <v>72</v>
+      </c>
       <c r="T67" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="U67" t="s"/>
       <c r="V67" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="W67" t="s"/>
       <c r="X67" t="s">
-        <v>961</v>
+        <v>962</v>
       </c>
       <c r="Y67" t="s"/>
       <c r="Z67" t="s"/>
@@ -8269,68 +8402,70 @@
     </row>
     <row r="68" spans="1:29">
       <c r="A68" t="s">
-        <v>962</v>
+        <v>963</v>
       </c>
       <c r="B68" t="s">
-        <v>963</v>
+        <v>964</v>
       </c>
       <c r="C68" t="s"/>
       <c r="D68" t="s">
-        <v>964</v>
+        <v>965</v>
       </c>
       <c r="E68" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="F68" t="s">
-        <v>965</v>
+        <v>966</v>
       </c>
       <c r="G68" t="s">
-        <v>732</v>
+        <v>733</v>
       </c>
       <c r="H68" t="s">
-        <v>966</v>
+        <v>967</v>
       </c>
       <c r="I68" t="s">
-        <v>967</v>
+        <v>968</v>
       </c>
       <c r="J68" t="s">
-        <v>968</v>
+        <v>969</v>
       </c>
       <c r="K68" t="s">
-        <v>969</v>
+        <v>970</v>
       </c>
       <c r="L68" t="s">
-        <v>970</v>
+        <v>971</v>
       </c>
       <c r="M68" t="s">
-        <v>971</v>
+        <v>972</v>
       </c>
       <c r="N68" t="s">
         <v>67</v>
       </c>
       <c r="O68" t="s">
-        <v>972</v>
+        <v>973</v>
       </c>
       <c r="P68" t="s">
         <v>69</v>
       </c>
       <c r="Q68" t="s">
-        <v>973</v>
+        <v>974</v>
       </c>
       <c r="R68" t="s">
-        <v>974</v>
-      </c>
-      <c r="S68" t="s"/>
+        <v>975</v>
+      </c>
+      <c r="S68" t="s">
+        <v>72</v>
+      </c>
       <c r="T68" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="U68" t="s"/>
       <c r="V68" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="W68" t="s"/>
       <c r="X68" t="s">
-        <v>975</v>
+        <v>976</v>
       </c>
       <c r="Y68" t="s"/>
       <c r="Z68" t="s"/>
@@ -8342,66 +8477,68 @@
     </row>
     <row r="69" spans="1:29">
       <c r="A69" t="s">
-        <v>976</v>
+        <v>977</v>
       </c>
       <c r="B69" t="s">
-        <v>977</v>
+        <v>978</v>
       </c>
       <c r="C69" t="s"/>
       <c r="D69" t="s"/>
       <c r="E69" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="F69" t="s">
-        <v>978</v>
+        <v>979</v>
       </c>
       <c r="G69" t="s">
-        <v>687</v>
+        <v>688</v>
       </c>
       <c r="H69" t="s">
-        <v>979</v>
+        <v>980</v>
       </c>
       <c r="I69" t="s">
-        <v>980</v>
+        <v>981</v>
       </c>
       <c r="J69" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="K69" t="s">
-        <v>981</v>
+        <v>982</v>
       </c>
       <c r="L69" t="s">
-        <v>982</v>
+        <v>983</v>
       </c>
       <c r="M69" t="s">
-        <v>983</v>
+        <v>984</v>
       </c>
       <c r="N69" t="s">
         <v>67</v>
       </c>
       <c r="O69" t="s">
-        <v>984</v>
+        <v>985</v>
       </c>
       <c r="P69" t="s">
         <v>69</v>
       </c>
       <c r="Q69" t="s">
-        <v>985</v>
+        <v>986</v>
       </c>
       <c r="R69" t="s">
-        <v>986</v>
-      </c>
-      <c r="S69" t="s"/>
+        <v>987</v>
+      </c>
+      <c r="S69" t="s">
+        <v>72</v>
+      </c>
       <c r="T69" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="U69" t="s"/>
       <c r="V69" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="W69" t="s"/>
       <c r="X69" t="s">
-        <v>987</v>
+        <v>988</v>
       </c>
       <c r="Y69" t="s"/>
       <c r="Z69" t="s"/>
@@ -8413,68 +8550,70 @@
     </row>
     <row r="70" spans="1:29">
       <c r="A70" t="s">
-        <v>988</v>
+        <v>989</v>
       </c>
       <c r="B70" t="s">
-        <v>989</v>
+        <v>990</v>
       </c>
       <c r="C70" t="s"/>
       <c r="D70" t="s">
-        <v>990</v>
+        <v>991</v>
       </c>
       <c r="E70" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="F70" t="s">
-        <v>991</v>
+        <v>992</v>
       </c>
       <c r="G70" t="s">
-        <v>992</v>
+        <v>993</v>
       </c>
       <c r="H70" t="s">
-        <v>993</v>
+        <v>994</v>
       </c>
       <c r="I70" t="s">
-        <v>994</v>
+        <v>995</v>
       </c>
       <c r="J70" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="K70" t="s">
-        <v>995</v>
+        <v>996</v>
       </c>
       <c r="L70" t="s">
-        <v>996</v>
+        <v>997</v>
       </c>
       <c r="M70" t="s">
-        <v>997</v>
+        <v>998</v>
       </c>
       <c r="N70" t="s">
         <v>67</v>
       </c>
       <c r="O70" t="s">
-        <v>998</v>
+        <v>999</v>
       </c>
       <c r="P70" t="s">
         <v>69</v>
       </c>
       <c r="Q70" t="s">
-        <v>999</v>
+        <v>1000</v>
       </c>
       <c r="R70" t="s">
-        <v>1000</v>
-      </c>
-      <c r="S70" t="s"/>
+        <v>1001</v>
+      </c>
+      <c r="S70" t="s">
+        <v>72</v>
+      </c>
       <c r="T70" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="U70" t="s"/>
       <c r="V70" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="W70" t="s"/>
       <c r="X70" t="s">
-        <v>1001</v>
+        <v>1002</v>
       </c>
       <c r="Y70" t="s"/>
       <c r="Z70" t="s"/>
@@ -8486,64 +8625,66 @@
     </row>
     <row r="71" spans="1:29">
       <c r="A71" t="s">
-        <v>1002</v>
+        <v>1003</v>
       </c>
       <c r="B71" t="s">
-        <v>1003</v>
+        <v>1004</v>
       </c>
       <c r="C71" t="s"/>
       <c r="D71" t="s"/>
       <c r="E71" t="s">
-        <v>1004</v>
+        <v>1005</v>
       </c>
       <c r="F71" t="s"/>
       <c r="G71" t="s">
-        <v>1005</v>
+        <v>1006</v>
       </c>
       <c r="H71" t="s">
-        <v>1006</v>
+        <v>1007</v>
       </c>
       <c r="I71" t="s">
-        <v>1007</v>
+        <v>1008</v>
       </c>
       <c r="J71" t="s">
-        <v>1008</v>
+        <v>1009</v>
       </c>
       <c r="K71" t="s">
-        <v>1009</v>
+        <v>1010</v>
       </c>
       <c r="L71" t="s">
-        <v>1010</v>
+        <v>1011</v>
       </c>
       <c r="M71" t="s">
-        <v>1011</v>
+        <v>1012</v>
       </c>
       <c r="N71" t="s">
         <v>67</v>
       </c>
       <c r="O71" t="s">
-        <v>1012</v>
+        <v>1013</v>
       </c>
       <c r="P71" t="s">
         <v>69</v>
       </c>
       <c r="Q71" t="s">
-        <v>1013</v>
+        <v>1014</v>
       </c>
       <c r="R71" t="s">
-        <v>1014</v>
-      </c>
-      <c r="S71" t="s"/>
+        <v>1015</v>
+      </c>
+      <c r="S71" t="s">
+        <v>72</v>
+      </c>
       <c r="T71" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="U71" t="s"/>
       <c r="V71" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="W71" t="s"/>
       <c r="X71" t="s">
-        <v>1015</v>
+        <v>1016</v>
       </c>
       <c r="Y71" t="s"/>
       <c r="Z71" t="s"/>

--- a/docs/collections/koten/metadata/data.xlsx
+++ b/docs/collections/koten/metadata/data.xlsx
@@ -239,7 +239,8 @@
     <t>小</t>
   </si>
   <si>
-    <t>分類:仏教マイクロフィルム番号:9-11-1</t>
+    <t>分類:仏教
+マイクロフィルム番号:9-11-1</t>
   </si>
   <si>
     <t>中国語</t>
@@ -305,7 +306,8 @@
     <t>28 cm</t>
   </si>
   <si>
-    <t>題簽   :  家伝通外印記  :  岡崎桂一郎  光義之印、 朱印光高ノ黒印アリ巻末ニ「家傳通外上下二巻謹記之  于時永祿二年巳未冬十月十一日、正五位下度會常辰抜萃」トアリ分類:医学
+    <t>題簽   :  家伝通外印記  :  岡崎桂一郎  光義之印、 朱印光高ノ黒印アリ巻末ニ「家傳通外上下二巻謹記之  于時永祿二年巳未冬十月十一日、正五位下度會常辰抜萃」トアリ
+分類:医学
 マイクロフィルム番号:6-31-3</t>
   </si>
   <si>
@@ -360,7 +362,8 @@
     <t>74丁(帙入)</t>
   </si>
   <si>
-    <t>印記 : 岡崎桂一郎度會常辰筆分類:医学
+    <t>印記 : 岡崎桂一郎度會常辰筆
+分類:医学
 マイクロフィルム番号:6-31-4</t>
   </si>
   <si>
@@ -403,7 +406,8 @@
     <t>26  cm</t>
   </si>
   <si>
-    <t>自筆本印記  :   鶚軒文庫、鶚軒所穫分類:医学
+    <t>自筆本印記  :   鶚軒文庫、鶚軒所穫
+分類:医学
 マイクロフィルム番号:6-31-7</t>
   </si>
   <si>
@@ -443,7 +447,8 @@
     <t>26 cm</t>
   </si>
   <si>
-    <t>曲直瀬正琳写印記 : 望氷壬戌巳後所集舊斬古●三井家雙●閣、雙蔑●臧分類:医学
+    <t>曲直瀬正琳写印記 : 望氷壬戌巳後所集舊斬古●三井家雙●閣、雙蔑●臧
+分類:医学
 マイクロフィルム番号:6-31-8</t>
   </si>
   <si>
@@ -489,7 +494,8 @@
     <t>198丁</t>
   </si>
   <si>
-    <t>土肥文庫旧蔵、帙入印記 : 茂木文庫鶚軒文庫題簽 : 難経抄分類:医学
+    <t>土肥文庫旧蔵、帙入印記 : 茂木文庫鶚軒文庫題簽 : 難経抄
+分類:医学
 マイクロフィルム番号:6-31-5</t>
   </si>
   <si>
@@ -529,7 +535,8 @@
     <t>20丁</t>
   </si>
   <si>
-    <t>帙入題簽 : 鼻祖一渓叟道三墨蹟  奥山春斉蔵分類:医学
+    <t>帙入題簽 : 鼻祖一渓叟道三墨蹟  奥山春斉蔵
+分類:医学
 マイクロフィルム番号:6-31-6</t>
   </si>
   <si>
@@ -578,7 +585,8 @@
     <t>大</t>
   </si>
   <si>
-    <t>自筆稿本分類:漢学
+    <t>自筆稿本
+分類:漢学
 マイクロフィルム番号:6-32-20</t>
   </si>
   <si>
@@ -621,7 +629,8 @@
     <t>5巻5冊</t>
   </si>
   <si>
-    <t>分類:漢詩・注釈マイクロフィルム番号:7-8-1</t>
+    <t>分類:漢詩・注釈
+マイクロフィルム番号:7-8-1</t>
   </si>
   <si>
     <t>http://tify.sub.uni-goettingen.de/demo.html?manifest=https://archdataset.dl.itc.u-tokyo.ac.jp/manifest/cd187574-954d-6fb0-0874-a3e39ad16ac2.json</t>
@@ -654,7 +663,8 @@
     <t>イチヨウショウ</t>
   </si>
   <si>
-    <t>分類:歌学マイクロフィルム番号:7-9-5</t>
+    <t>分類:歌学
+マイクロフィルム番号:7-9-5</t>
   </si>
   <si>
     <t>http://tify.sub.uni-goettingen.de/demo.html?manifest=https://archdataset.dl.itc.u-tokyo.ac.jp/manifest/2c2614d0-8c8e-8088-284a-92c977dc6774.json</t>
@@ -690,7 +700,8 @@
     <t>柳亭種彦作 ; 柳川重信畫</t>
   </si>
   <si>
-    <t>自筆本分類:合巻
+    <t>自筆本
+分類:合巻
 マイクロフィルム番号:7-11-21</t>
   </si>
   <si>
@@ -742,7 +753,8 @@
     <t>15 cm</t>
   </si>
   <si>
-    <t>印記 : 江坂家ノ未印験號は和蘭全躯内外分合図の一部。分類:医学
+    <t>印記 : 江坂家ノ未印験號は和蘭全躯内外分合図の一部。
+分類:医学
 マイクロフィルム番号:6-7-12</t>
   </si>
   <si>
@@ -791,7 +803,8 @@
     <t>25 cm</t>
   </si>
   <si>
-    <t>印記 : 吉家氏蔵、森氏、杉本氏蔵分類:医学
+    <t>印記 : 吉家氏蔵、森氏、杉本氏蔵
+分類:医学
 マイクロフィルム番号:7-11-11</t>
   </si>
   <si>
@@ -831,7 +844,8 @@
     <t>10巻3冊</t>
   </si>
   <si>
-    <t>分類:目録マイクロフィルム番号:7-13-2</t>
+    <t>分類:目録
+マイクロフィルム番号:7-13-2</t>
   </si>
   <si>
     <t>青洲文庫</t>
@@ -870,7 +884,8 @@
     <t>中</t>
   </si>
   <si>
-    <t>分類:室町物語マイクロフィルム番号:7-15-16</t>
+    <t>分類:室町物語
+マイクロフィルム番号:7-15-16</t>
   </si>
   <si>
     <t>http://tify.sub.uni-goettingen.de/demo.html?manifest=https://archdataset.dl.itc.u-tokyo.ac.jp/manifest/43ca8e1d-087d-5bdc-3bc3-372800f60cb6.json</t>
@@ -903,7 +918,8 @@
     <t>ブンショウ  ソウシ</t>
   </si>
   <si>
-    <t>奈良絵本内題 : 塩賣物語分類:室町物語
+    <t>奈良絵本内題 : 塩賣物語
+分類:室町物語
 マイクロフィルム番号:7-15-15</t>
   </si>
   <si>
@@ -940,7 +956,8 @@
     <t>河上公註</t>
   </si>
   <si>
-    <t>分類:漢学マイクロフィルム番号:7-15-20</t>
+    <t>分類:漢学
+マイクロフィルム番号:7-15-20</t>
   </si>
   <si>
     <t>南葵文庫</t>
@@ -979,7 +996,8 @@
     <t>月日の物語</t>
   </si>
   <si>
-    <t>分類:室町物語マイクロフィルム番号:7-16-5</t>
+    <t>分類:室町物語
+マイクロフィルム番号:7-16-5</t>
   </si>
   <si>
     <t>http://tify.sub.uni-goettingen.de/demo.html?manifest=https://archdataset.dl.itc.u-tokyo.ac.jp/manifest/b64a927b-3706-22ba-0aeb-550af6195588.json</t>
@@ -1024,7 +1042,8 @@
     <t>2巻1冊</t>
   </si>
   <si>
-    <t>分類:伝記マイクロフィルム番号:7-18-7</t>
+    <t>分類:伝記
+マイクロフィルム番号:7-18-7</t>
   </si>
   <si>
     <t>http://tify.sub.uni-goettingen.de/demo.html?manifest=https://archdataset.dl.itc.u-tokyo.ac.jp/manifest/de2a9abc-62d1-1943-32b4-156471ef8c5c.json</t>
@@ -1060,7 +1079,8 @@
     <t>15冊</t>
   </si>
   <si>
-    <t>古活字版マイクロフィルム番号:7-20-1</t>
+    <t>古活字版
+マイクロフィルム番号:7-20-1</t>
   </si>
   <si>
     <t>http://tify.sub.uni-goettingen.de/demo.html?manifest=https://archdataset.dl.itc.u-tokyo.ac.jp/manifest/652f540f-9d21-0493-7728-52e359fe4292.json</t>
@@ -1102,7 +1122,8 @@
     <t>天保9</t>
   </si>
   <si>
-    <t>分類:動物マイクロフィルム番号:7-22-17</t>
+    <t>分類:動物
+マイクロフィルム番号:7-22-17</t>
   </si>
   <si>
     <t>http://tify.sub.uni-goettingen.de/demo.html?manifest=https://archdataset.dl.itc.u-tokyo.ac.jp/manifest/0178c1cb-097d-7ac2-2563-307ae3b80eef.json</t>
@@ -1141,7 +1162,8 @@
     <t>土佐行秀画</t>
   </si>
   <si>
-    <t>蔭山広迢模写分類:絵巻
+    <t>蔭山広迢模写
+分類:絵巻
 マイクロフィルム番号:8-8-2</t>
   </si>
   <si>
@@ -1184,7 +1206,8 @@
     <t>文政2</t>
   </si>
   <si>
-    <t>自筆本巻末ニ「『文政二年歳次巳卯冬十月借鈔温古堂之本旦逐一校正ス』 山崎美成 」ト書ケリ分類:祭祀
+    <t>自筆本巻末ニ「『文政二年歳次巳卯冬十月借鈔温古堂之本旦逐一校正ス』 山崎美成 」ト書ケリ
+分類:祭祀
 マイクロフィルム番号:6-8-7</t>
   </si>
   <si>
@@ -1236,7 +1259,8 @@
     <t>42×27 cm (42×14  cm)</t>
   </si>
   <si>
-    <t>分類:医学マイクロフィルム番号:9-27-7</t>
+    <t>分類:医学
+マイクロフィルム番号:9-27-7</t>
   </si>
   <si>
     <t>http://tify.sub.uni-goettingen.de/demo.html?manifest=https://archdataset.dl.itc.u-tokyo.ac.jp/manifest/a28d0e4c-8db1-8bb0-32f8-f8967759382a.json</t>
@@ -1275,7 +1299,8 @@
     <t>1冊(帙入)</t>
   </si>
   <si>
-    <t>元禄四年(鱒形屋)版模刻本  月次のあそびの原版分類:絵画
+    <t>元禄四年(鱒形屋)版模刻本  月次のあそびの原版
+分類:絵画
 マイクロフィルム番号:9-27-5</t>
   </si>
   <si>
@@ -1315,7 +1340,8 @@
     <t>10巻2冊</t>
   </si>
   <si>
-    <t>古写本分類:漢学
+    <t>古写本
+分類:漢学
 マイクロフィルム番号:9-28-4</t>
   </si>
   <si>
@@ -1346,7 +1372,8 @@
     <t>室町時代</t>
   </si>
   <si>
-    <t>表紙ニ「春浦宗熈禅師眞跡一休同時之人  明應五年正月十四日八十八」ト書入アリ分類:漢学
+    <t>表紙ニ「春浦宗熈禅師眞跡一休同時之人  明應五年正月十四日八十八」ト書入アリ
+分類:漢学
 マイクロフィルム番号:9-28-3</t>
   </si>
   <si>
@@ -1386,7 +1413,8 @@
     <t>3冊</t>
   </si>
   <si>
-    <t>分類:修験道マイクロフィルム番号:9-29-14</t>
+    <t>分類:修験道
+マイクロフィルム番号:9-29-14</t>
   </si>
   <si>
     <t>http://tify.sub.uni-goettingen.de/demo.html?manifest=https://archdataset.dl.itc.u-tokyo.ac.jp/manifest/5dfe4131-2a2a-4b42-92b9-561053727994.json</t>
@@ -1437,7 +1465,8 @@
     <t>5冊</t>
   </si>
   <si>
-    <t>分類:随筆マイクロフィルム番号:9-31-16</t>
+    <t>分類:随筆
+マイクロフィルム番号:9-31-16</t>
   </si>
   <si>
     <t>http://tify.sub.uni-goettingen.de/demo.html?manifest=https://archdataset.dl.itc.u-tokyo.ac.jp/manifest/b2669333-a52b-5b93-3075-be6faf961e9e.json</t>
@@ -1518,7 +1547,8 @@
     <t>林読耕斎[著]</t>
   </si>
   <si>
-    <t>「読耕齋家藏」印アリ分類:漢詩文
+    <t>「読耕齋家藏」印アリ
+分類:漢詩文
 マイクロフィルム番号:10-4-4</t>
   </si>
   <si>
@@ -1555,7 +1585,8 @@
     <t>続世継物語</t>
   </si>
   <si>
-    <t>二条為定筆題簽 : 続世継物語分類:歴史物語
+    <t>二条為定筆題簽 : 続世継物語
+分類:歴史物語
 マイクロフィルム番号:10-16-23</t>
   </si>
   <si>
@@ -1589,7 +1620,8 @@
     <t>コアツモリ</t>
   </si>
   <si>
-    <t>分類:浄瑠璃マイクロフィルム番号:8-9-6</t>
+    <t>分類:浄瑠璃
+マイクロフィルム番号:8-9-6</t>
   </si>
   <si>
     <t>http://tify.sub.uni-goettingen.de/demo.html?manifest=https://archdataset.dl.itc.u-tokyo.ac.jp/manifest/7234f107-20b2-3791-0f00-2ae032039cd0.json</t>
@@ -1637,7 +1669,8 @@
     <t>文化1</t>
   </si>
   <si>
-    <t>馬琴書入併識語分類:随筆
+    <t>馬琴書入併識語
+分類:随筆
 マイクロフィルム番号:6-8-17</t>
   </si>
   <si>
@@ -1674,7 +1707,8 @@
     <t>室町末期</t>
   </si>
   <si>
-    <t>分類:歌集マイクロフィルム番号:6-13-6</t>
+    <t>分類:歌集
+マイクロフィルム番号:6-13-6</t>
   </si>
   <si>
     <t>http://tify.sub.uni-goettingen.de/demo.html?manifest=https://archdataset.dl.itc.u-tokyo.ac.jp/manifest/7dbdd04c-5fd9-902e-631a-7d3d199d1ed8.json</t>
@@ -1710,7 +1744,8 @@
     <t>小川忠善</t>
   </si>
   <si>
-    <t>書写者 喜多村栲窓「右侍医典薬小川忠善所著也辛亥初夏従僚友井上玄亮借録是蔵五月竹醉日識手還読齋中直寛」の奥書あり分類:医学
+    <t>書写者 喜多村栲窓「右侍医典薬小川忠善所著也辛亥初夏従僚友井上玄亮借録是蔵五月竹醉日識手還読齋中直寛」の奥書あり
+分類:医学
 マイクロフィルム番号:2-7-3</t>
   </si>
   <si>
@@ -1747,7 +1782,8 @@
     <t>紫式部著 ; 足代弘訓校書入</t>
   </si>
   <si>
-    <t>印記 :青洲文庫表示に「足代弘訓蔵」とあり巻首に「寛居」の朱印あり巻末に「文政二年九月二十四日春木晶光神もりとよみをへぬ。(朱書)文化十三年六月七日湖月抄にて丁付を弘訓しるしぬ。六月八日玉のをくしをもて異同を校合しぬ、同年霜月二十七日湖月抄をもて一河繁樹とよみくらへぬ。」とあり分類:物語
+    <t>印記 :青洲文庫表示に「足代弘訓蔵」とあり巻首に「寛居」の朱印あり巻末に「文政二年九月二十四日春木晶光神もりとよみをへぬ。(朱書)文化十三年六月七日湖月抄にて丁付を弘訓しるしぬ。六月八日玉のをくしをもて異同を校合しぬ、同年霜月二十七日湖月抄をもて一河繁樹とよみくらへぬ。」とあり
+分類:物語
 マイクロフィルム番号:3-2-2</t>
   </si>
   <si>
@@ -1784,7 +1820,8 @@
     <t>国史法家書目録</t>
   </si>
   <si>
-    <t>本朝国史目録と本朝法家文書目録との合綴印記 : 陽春盧記印記 : 南葵文庫分類:書目
+    <t>本朝国史目録と本朝法家文書目録との合綴印記 : 陽春盧記印記 : 南葵文庫
+分類:書目
 マイクロフィルム番号:3-4-11</t>
   </si>
   <si>
@@ -1836,7 +1873,8 @@
     <t>17巻1冊</t>
   </si>
   <si>
-    <t>書写者 森約之父印記 : 田中本森氏の朱印あり救荒野譜紀聞と合綴奥書ニ「此書家大人幼弱時待聴於田邸先生所聞紀予戊申秋取而糊製頗有逸脱因補抄以道純本末附本綱記聞數●道純亦当時共待同紀然互有出入異同詳●於是今亦補標于彼之●長所詳以備後日之看予先不誌支于此來有故往々改觀救荒於是乎今追書于先年往事如此云嘉永七甲寅九月二十有四日題誌写米華佗剛読書屋 沈催 漁澂為所 揺荻●約之」分類:本草
+    <t>書写者 森約之父印記 : 田中本森氏の朱印あり救荒野譜紀聞と合綴奥書ニ「此書家大人幼弱時待聴於田邸先生所聞紀予戊申秋取而糊製頗有逸脱因補抄以道純本末附本綱記聞數●道純亦当時共待同紀然互有出入異同詳●於是今亦補標于彼之●長所詳以備後日之看予先不誌支于此來有故往々改觀救荒於是乎今追書于先年往事如此云嘉永七甲寅九月二十有四日題誌写米華佗剛読書屋 沈催 漁澂為所 揺荻●約之」
+分類:本草
 マイクロフィルム番号:3-4-24</t>
   </si>
   <si>
@@ -1882,7 +1920,8 @@
     <t>1巻1冊</t>
   </si>
   <si>
-    <t>書写者 : 森約之印記 : 田中本太田玄澄撰救荒本草紀聞に合綴分類:本草
+    <t>書写者 : 森約之印記 : 田中本太田玄澄撰救荒本草紀聞に合綴
+分類:本草
 マイクロフィルム番号:3-4-25</t>
   </si>
   <si>
@@ -1928,7 +1967,8 @@
     <t>14巻1冊</t>
   </si>
   <si>
-    <t>書写者 : 森約之養真印記 : 田中本森氏の朱印あり巻頭ニ「書中和名等之假名往々有脱落者悉如原而不敢改補云嘉永辛亥七月森約之養真職 明周定王●有救荒本草李時珍本草綱目●戴至多然時珍稱為周憲王則以為●子有檄●作未免舛謬乃知救荒本草原定王●撰也」 巻末ニ「辛亥七月十三日書干柳原僑居之南廰下了 森約之」トアリ分類:本草
+    <t>書写者 : 森約之養真印記 : 田中本森氏の朱印あり巻頭ニ「書中和名等之假名往々有脱落者悉如原而不敢改補云嘉永辛亥七月森約之養真職 明周定王●有救荒本草李時珍本草綱目●戴至多然時珍稱為周憲王則以為●子有檄●作未免舛謬乃知救荒本草原定王●撰也」 巻末ニ「辛亥七月十三日書干柳原僑居之南廰下了 森約之」トアリ
+分類:本草
 マイクロフィルム番号:3-4-26</t>
   </si>
   <si>
@@ -1971,7 +2011,8 @@
     <t>寛政1</t>
   </si>
   <si>
-    <t>書写者 : 近藤守重 印記 : 陽春盧記印記 : 正斎蔵印記 : 南葵文庫分類:音楽
+    <t>書写者 : 近藤守重 印記 : 陽春盧記印記 : 正斎蔵印記 : 南葵文庫
+分類:音楽
 マイクロフィルム番号:3-4-19</t>
   </si>
   <si>
@@ -2011,7 +2052,8 @@
     <t>谷村柳南編</t>
   </si>
   <si>
-    <t>分類:動物マイクロフィルム番号:3-5-4</t>
+    <t>分類:動物
+マイクロフィルム番号:3-5-4</t>
   </si>
   <si>
     <t>http://tify.sub.uni-goettingen.de/demo.html?manifest=https://archdataset.dl.itc.u-tokyo.ac.jp/manifest/1f2ed9da-a2cf-4033-2086-2d3e3fb09386.json</t>
@@ -2047,7 +2089,8 @@
     <t>1帙</t>
   </si>
   <si>
-    <t>印記 : 南葵文庫分類:教訓
+    <t>印記 : 南葵文庫
+分類:教訓
 マイクロフィルム番号:3-5-13</t>
   </si>
   <si>
@@ -2084,7 +2127,8 @@
     <t>12冊</t>
   </si>
   <si>
-    <t>古活字版分類:軍記物語
+    <t>古活字版
+分類:軍記物語
 マイクロフィルム番号:6-9-2</t>
   </si>
   <si>
@@ -2124,7 +2168,8 @@
     <t>[京都]</t>
   </si>
   <si>
-    <t>自筆稿本印記 : 萩野本内藤耻叟の蔵書印あり奥書ニ「右中院通茂公自筆歌集二冊自貞享四年●至宝永二年●全備後宝永七年三月二十一日薨年八十云 此出明治二十八年頃得之於東京下谷文明堂可珍 内藤耻叟書之」トアリ分類:歌集
+    <t>自筆稿本印記 : 萩野本内藤耻叟の蔵書印あり奥書ニ「右中院通茂公自筆歌集二冊自貞享四年●至宝永二年●全備後宝永七年三月二十一日薨年八十云 此出明治二十八年頃得之於東京下谷文明堂可珍 内藤耻叟書之」トアリ
+分類:歌集
 マイクロフィルム番号:3-13-10</t>
   </si>
   <si>
@@ -2161,7 +2206,8 @@
     <t>今物語</t>
   </si>
   <si>
-    <t>書写者 : 黒澤翁満印記 : ●居蔵書書後ニ「これの物語ふみもしの誤いと多くて中にはことの心わきかたきさへ●あなる然はあれとも今写すにいささかもさかしらをましへすあやまりけに見ゆるふしくはもしの形をさへに●がままに物し待るなりつきくかうかんたしなむ物● もんせうのむとせといふとしの平翁満きさらきのつこもりかた」トアリ黒澤翁満自筆本。表紙ニ「今物語」トモ並記アルモ信実ノソレトハ違ル、「今は昔」トハ巻頭ノ文句ニアリテ表紙ニモ(翁満筆ナラム)アリ。コノ書ト同内容ノモノノ版本(「世継物語」ト題セル由)アル由。分類:物語
+    <t>書写者 : 黒澤翁満印記 : ●居蔵書書後ニ「これの物語ふみもしの誤いと多くて中にはことの心わきかたきさへ●あなる然はあれとも今写すにいささかもさかしらをましへすあやまりけに見ゆるふしくはもしの形をさへに●がままに物し待るなりつきくかうかんたしなむ物● もんせうのむとせといふとしの平翁満きさらきのつこもりかた」トアリ黒澤翁満自筆本。表紙ニ「今物語」トモ並記アルモ信実ノソレトハ違ル、「今は昔」トハ巻頭ノ文句ニアリテ表紙ニモ(翁満筆ナラム)アリ。コノ書ト同内容ノモノノ版本(「世継物語」ト題セル由)アル由。
+分類:物語
 マイクロフィルム番号:3-14-21</t>
   </si>
   <si>
@@ -2201,7 +2247,8 @@
     <t>新井白石著</t>
   </si>
   <si>
-    <t>印記 : 萩野本奥書ニ「白石先生手書由之印」トアリ分類:漢詩
+    <t>印記 : 萩野本奥書ニ「白石先生手書由之印」トアリ
+分類:漢詩
 マイクロフィルム番号:3-31-13</t>
   </si>
   <si>
@@ -2238,7 +2285,8 @@
     <t>かはりとよかつしまばらみゑくのもん日</t>
   </si>
   <si>
-    <t>題簽は島原御影供紋日 分類:浄瑠璃
+    <t>題簽は島原御影供紋日
+分類:浄瑠璃
 マイクロフィルム番号:3-33-7</t>
   </si>
   <si>
@@ -2278,7 +2326,8 @@
     <t>山崎宗鑑著</t>
   </si>
   <si>
-    <t>印記 : ダルマヤ五一印記 : 坂田文庫印記 : 南葵文庫分類:俳諧
+    <t>印記 : ダルマヤ五一印記 : 坂田文庫印記 : 南葵文庫
+分類:俳諧
 マイクロフィルム番号:4-9-24</t>
   </si>
   <si>
@@ -2318,7 +2367,8 @@
     <t>文政3</t>
   </si>
   <si>
-    <t>丹波元●題字、森枳園自筆奥書印記 : 田中本森氏の朱印あり奥書ニ「此一冊三葉丹洲君手書明治丙子三月二十五棟庵大淵君●贈写 古稀翁枳園 立之」トアリ分類:動物
+    <t>丹波元●題字、森枳園自筆奥書印記 : 田中本森氏の朱印あり奥書ニ「此一冊三葉丹洲君手書明治丙子三月二十五棟庵大淵君●贈写 古稀翁枳園 立之」トアリ
+分類:動物
 マイクロフィルム番号:4-11-12</t>
   </si>
   <si>
@@ -2370,7 +2420,8 @@
     <t>23 cm</t>
   </si>
   <si>
-    <t>分類:俳諧マイクロフィルム番号:4-11-8</t>
+    <t>分類:俳諧
+マイクロフィルム番号:4-11-8</t>
   </si>
   <si>
     <t>http://tify.sub.uni-goettingen.de/demo.html?manifest=https://archdataset.dl.itc.u-tokyo.ac.jp/manifest/e260ea9c-6ee4-18ef-6895-c2540d0b84d6.json</t>
@@ -2409,7 +2460,8 @@
     <t>延宝2</t>
   </si>
   <si>
-    <t>分類:浄瑠璃マイクロフィルム番号:4-13-10</t>
+    <t>分類:浄瑠璃
+マイクロフィルム番号:4-13-10</t>
   </si>
   <si>
     <t>http://tify.sub.uni-goettingen.de/demo.html?manifest=https://archdataset.dl.itc.u-tokyo.ac.jp/manifest/720ab3e9-54b3-12b4-50d2-59de91f43e87.json</t>
@@ -2445,7 +2497,8 @@
     <t>山東京伝著</t>
   </si>
   <si>
-    <t>分類:演劇マイクロフィルム番号:5-3-21</t>
+    <t>分類:演劇
+マイクロフィルム番号:5-3-21</t>
   </si>
   <si>
     <t>http://tify.sub.uni-goettingen.de/demo.html?manifest=https://archdataset.dl.itc.u-tokyo.ac.jp/manifest/7a2f0687-8592-8cb4-948c-644fae3d0b60.json</t>
@@ -2478,7 +2531,8 @@
     <t>テイキン オウライ コチュウ</t>
   </si>
   <si>
-    <t>印記 : 陽春盧記印記 : ●齋印記 : 南葵文庫巻頭小中村氏ノ貼紙ニヨレバ黒川●●義本ト相似タルモノニシテ、判信友ノ鑑定ニ依レバ文明頃ノモノナラントイフ。分類:往来物
+    <t>印記 : 陽春盧記印記 : ●齋印記 : 南葵文庫巻頭小中村氏ノ貼紙ニヨレバ黒川●●義本ト相似タルモノニシテ、判信友ノ鑑定ニ依レバ文明頃ノモノナラントイフ。
+分類:往来物
 マイクロフィルム番号:5-9-4</t>
   </si>
   <si>
@@ -2509,7 +2563,8 @@
     <t>藤原定家奉勅撰</t>
   </si>
   <si>
-    <t>分類:歌集マイクロフィルム番号:6-9-1</t>
+    <t>分類:歌集
+マイクロフィルム番号:6-9-1</t>
   </si>
   <si>
     <t>http://tify.sub.uni-goettingen.de/demo.html?manifest=https://archdataset.dl.itc.u-tokyo.ac.jp/manifest/950a3252-4bc7-7baa-40e0-5a15cb5610a8.json</t>
@@ -2539,7 +2594,8 @@
     <t>萩原宗固著</t>
   </si>
   <si>
-    <t>分類:浄瑠璃マイクロフィルム番号:5-10-2</t>
+    <t>分類:浄瑠璃
+マイクロフィルム番号:5-10-2</t>
   </si>
   <si>
     <t>http://tify.sub.uni-goettingen.de/demo.html?manifest=https://archdataset.dl.itc.u-tokyo.ac.jp/manifest/b570aa8c-6e56-92b9-7bc2-67a459cd66df.json</t>
@@ -2575,7 +2631,8 @@
     <t>京都 : 鶴屋喜右衛門</t>
   </si>
   <si>
-    <t>松更朱印・武宗黒印あり分類:浄瑠璃
+    <t>松更朱印・武宗黒印あり
+分類:浄瑠璃
 マイクロフィルム番号:5-10-11</t>
   </si>
   <si>
@@ -2624,7 +2681,8 @@
     <t>25cm</t>
   </si>
   <si>
-    <t>書写者 : 宇田川榕庵 印記 : 土肥文庫分類:医学
+    <t>書写者 : 宇田川榕庵 印記 : 土肥文庫
+分類:医学
 マイクロフィルム番号:5-10-7</t>
   </si>
   <si>
@@ -2661,7 +2719,8 @@
     <t>おちくぼのさうし</t>
   </si>
   <si>
-    <t>分類:室町物語マイクロフィルム番号:5-12-8</t>
+    <t>分類:室町物語
+マイクロフィルム番号:5-12-8</t>
   </si>
   <si>
     <t>http://tify.sub.uni-goettingen.de/demo.html?manifest=https://archdataset.dl.itc.u-tokyo.ac.jp/manifest/9301d388-95ee-8b41-1c3c-c2951dae8693.json</t>
@@ -2703,7 +2762,8 @@
     <t>29丁,4枚(帙入)</t>
   </si>
   <si>
-    <t>栗崎通有日記はその一部マイクロフィルム番号:5-13-1</t>
+    <t>栗崎通有日記はその一部
+マイクロフィルム番号:5-13-1</t>
   </si>
   <si>
     <t>http://tify.sub.uni-goettingen.de/demo.html?manifest=https://archdataset.dl.itc.u-tokyo.ac.jp/manifest/88930f9c-4b42-93fb-73fe-dfd44f8f2460.json</t>
@@ -2739,7 +2799,8 @@
     <t>京都 : 山本九兵衛</t>
   </si>
   <si>
-    <t>このぬしせんくわ黒印あり本書題名ニ就キ「古今外題年代記」、「浄瑠璃大系図」宇治加賀予作●中ニ「蒲御曹子東踏歌」トアルモ本書内題ニ依リ「蒲御曹子東童歌」トナシオクモノ也。分類:浄瑠璃
+    <t>このぬしせんくわ黒印あり本書題名ニ就キ「古今外題年代記」、「浄瑠璃大系図」宇治加賀予作●中ニ「蒲御曹子東踏歌」トアルモ本書内題ニ依リ「蒲御曹子東童歌」トナシオクモノ也。
+分類:浄瑠璃
 マイクロフィルム番号:6-4-8</t>
   </si>
   <si>
@@ -2776,7 +2837,8 @@
     <t>江戸 : うろこがたや</t>
   </si>
   <si>
-    <t>破本分類:浄瑠璃
+    <t>破本
+分類:浄瑠璃
 マイクロフィルム番号:6-5-23</t>
   </si>
   <si>
@@ -2813,7 +2875,8 @@
     <t>正徳5</t>
   </si>
   <si>
-    <t>「右此本者太夫直之以正本為寫令板行者也正徳五年松正月吉日 籠込嘉町 西村傳兵衛新板」の刊記あり分類:浄瑠璃
+    <t>「右此本者太夫直之以正本為寫令板行者也正徳五年松正月吉日 籠込嘉町 西村傳兵衛新板」の刊記あり
+分類:浄瑠璃
 マイクロフィルム番号:6-5-22</t>
   </si>
   <si>
@@ -2853,7 +2916,8 @@
     <t>6巻6冊</t>
   </si>
   <si>
-    <t>自筆本印記 : 詩賈堂印記 : 南葵文庫分類:書目
+    <t>自筆本印記 : 詩賈堂印記 : 南葵文庫
+分類:書目
 マイクロフィルム番号:6-8-8</t>
   </si>
   <si>
@@ -2893,7 +2957,8 @@
     <t>24 cm</t>
   </si>
   <si>
-    <t>自筆稿本附  本傳年譜印記 : 河子静印記 : 志在幽古印記 : 河正寧印分類:漢詩
+    <t>自筆稿本附  本傳年譜印記 : 河子静印記 : 志在幽古印記 : 河正寧印
+分類:漢詩
 マイクロフィルム番号:2-35-1</t>
   </si>
   <si>
@@ -2927,7 +2992,8 @@
     <t>ショウキュウキ</t>
   </si>
   <si>
-    <t>飛鳥井家本安藤素軒筆分類:軍記物語
+    <t>飛鳥井家本安藤素軒筆
+分類:軍記物語
 マイクロフィルム番号:6-11-5</t>
   </si>
   <si>
@@ -2964,7 +3030,8 @@
     <t>藤原時平 , 藤原忠平[著]</t>
   </si>
   <si>
-    <t>刻板補闕原本河村秀●書入アリ分類:法制
+    <t>刻板補闕原本河村秀●書入アリ
+分類:法制
 マイクロフィルム番号:6-15-13</t>
   </si>
   <si>
@@ -3007,7 +3074,8 @@
     <t>2巻</t>
   </si>
   <si>
-    <t>分類:黒本マイクロフィルム番号:6-15-22</t>
+    <t>分類:黒本
+マイクロフィルム番号:6-15-22</t>
   </si>
   <si>
     <t>http://tify.sub.uni-goettingen.de/demo.html?manifest=https://archdataset.dl.itc.u-tokyo.ac.jp/manifest/00e1f95d-5bd4-0b85-403e-b0eb6cd422d4.json</t>

--- a/docs/collections/koten/metadata/data.xlsx
+++ b/docs/collections/koten/metadata/data.xlsx
@@ -271,7 +271,7 @@
     <t>https://www.lib.u-tokyo.ac.jp/ja/library/contents/archives-top/reuse</t>
   </si>
   <si>
-    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/files/medium/b4a29c49e38aff515eda21522a45184d96e27174.jpg</t>
+    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/files/medium/30e433153e35f7d2400ffe437868fd04d20761cd.jpg</t>
   </si>
   <si>
     <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/api/items/533648</t>
@@ -335,7 +335,7 @@
     <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/s/koten/document/e261ae1e-2da4-18bc-906b-01e0e98f6b60</t>
   </si>
   <si>
-    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/files/medium/db642889add8a121d78d2a0bc33383245b6c5ad7.jpg</t>
+    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/files/medium/a91d096d00f84ef44bbbba1ee747c3c1e7294d9e.jpg</t>
   </si>
   <si>
     <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/api/items/533649</t>
@@ -396,7 +396,7 @@
     <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/s/koten/document/6e2221e7-2122-8a79-7d39-0755934a784e</t>
   </si>
   <si>
-    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/files/medium/231e72758f749f7665f8676f4f549bf393a7d8b9.jpg</t>
+    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/files/medium/ee1f053202e957e861349fc27842cecba2a27a0f.jpg</t>
   </si>
   <si>
     <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/api/items/533650</t>
@@ -417,7 +417,7 @@
     <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/s/koten/document/804b7f4b-63b3-130e-4c95-214b4f909ff9</t>
   </si>
   <si>
-    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/files/medium/023b74815190bb17ff55e3a3867643d4fc9c2fe6.jpg</t>
+    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/files/medium/a727161db1a24267b2e3524a0ccba569b4085f08.jpg</t>
   </si>
   <si>
     <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/api/items/533651</t>
@@ -438,7 +438,7 @@
     <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/s/koten/document/708f0fac-3117-7f3e-82fb-f70ec95f95bb</t>
   </si>
   <si>
-    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/files/medium/85a6ca5b7e31347a5224d164cc158b660fe7355d.jpg</t>
+    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/files/medium/37911bd40c1210536eeb72438e8949a248f14fd4.jpg</t>
   </si>
   <si>
     <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/api/items/533652</t>
@@ -459,7 +459,7 @@
     <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/s/koten/document/59cc481a-6559-0b9b-a238-7b31e3c91cbd</t>
   </si>
   <si>
-    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/files/medium/942345554a3ae40bb2c53db7b54516539b15e495.jpg</t>
+    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/files/medium/35b23d938cc171f636f0d681a2766f172d5cf5b2.jpg</t>
   </si>
   <si>
     <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/api/items/533653</t>
@@ -508,7 +508,7 @@
     <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/s/koten/document/634092c4-8376-3837-01d1-600e5ec50a2e</t>
   </si>
   <si>
-    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/files/medium/20d922b53db22a8abd110263d8c2a738baee6135.jpg</t>
+    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/files/medium/ed9daf5f512c26650f05d876db90de38bdb8454b.jpg</t>
   </si>
   <si>
     <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/api/items/533654</t>
@@ -560,7 +560,7 @@
     <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/s/koten/document/cf19276e-75e0-97f6-1a0a-5aa7760565e1</t>
   </si>
   <si>
-    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/files/medium/01348ee3d7c4f50da1278b85844706d3e673e924.jpg</t>
+    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/files/medium/6853158fe4039f0a2c214e318cb85996eabebede.jpg</t>
   </si>
   <si>
     <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/api/items/533655</t>
@@ -598,7 +598,7 @@
     <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/s/koten/document/b43da4f6-2067-3133-6a6c-313cf5987d71</t>
   </si>
   <si>
-    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/files/medium/5909e458f53d8b08298fc4d595b14e6cd3d7133b.jpg</t>
+    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/files/medium/4d84f9a49fd677079ba54ee95849a56e0f557456.jpg</t>
   </si>
   <si>
     <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/api/items/533656</t>
@@ -659,7 +659,7 @@
     <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/s/koten/document/3cfd7a4c-6dab-425f-2e9b-63214b278bd9</t>
   </si>
   <si>
-    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/files/medium/4c59793cfd8d6741904811e9b7331ba87516f393.jpg</t>
+    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/files/medium/c02b7e3462ce8949206f5a2e71f3bc33c8517b97.jpg</t>
   </si>
   <si>
     <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/api/items/533657</t>
@@ -680,7 +680,7 @@
     <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/s/koten/document/e6a18fc9-027d-3a68-6a92-a9e51efe6c50</t>
   </si>
   <si>
-    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/files/medium/0507dfd0f7bd3bad44bc061fa2b30840a3dd4723.jpg</t>
+    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/files/medium/9c4eff1a68c0727957f6bec59716f4c1d0414bb1.jpg</t>
   </si>
   <si>
     <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/api/items/533658</t>
@@ -701,7 +701,7 @@
     <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/s/koten/document/07c09eff-4f41-6937-1f41-efa6e2b1067c</t>
   </si>
   <si>
-    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/files/medium/f525ca015d20f176bec50f7d093c65c542ecc5f1.jpg</t>
+    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/files/medium/c86eae6828033f19aa62e54a4a851f3d4881fab4.jpg</t>
   </si>
   <si>
     <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/api/items/533659</t>
@@ -758,7 +758,7 @@
     <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/s/koten/document/4a9dad64-18a1-8460-a2f7-859d5289650b</t>
   </si>
   <si>
-    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/files/medium/565c5461bbb591592fbc51138731d63c47c23c16.jpg</t>
+    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/files/medium/77aaf18e6e3b30dd5776a930e260e85ad81aed34.jpg</t>
   </si>
   <si>
     <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/api/items/533660</t>
@@ -779,7 +779,7 @@
     <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/s/koten/document/4ccd1bd6-0b9b-97a9-85f5-a67415cf9fdb</t>
   </si>
   <si>
-    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/files/medium/50f9bd6a8931ea5af66f4e040404e293e5e51fc0.jpg</t>
+    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/files/medium/7ee791ceb9cd86f87cc061ef96ef8a2402e90c45.jpg</t>
   </si>
   <si>
     <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/api/items/533661</t>
@@ -803,7 +803,7 @@
     <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/s/koten/document/f8e945b4-a75c-0f8c-8d84-c9e81bd69556</t>
   </si>
   <si>
-    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/files/medium/3398410db0d3ef155cda3095f98ad3a12a04fbd6.jpg</t>
+    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/files/medium/d77f6230e501f157064fd5117af778c16b2da8e3.jpg</t>
   </si>
   <si>
     <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/api/items/533662</t>
@@ -850,7 +850,7 @@
     <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/s/koten/document/75c917a4-15f6-6bc0-3fd5-4911ec98469c</t>
   </si>
   <si>
-    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/files/medium/a24da996bed2953db9c7da5f2250e0ea0ac8d501.jpg</t>
+    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/files/medium/b650bbbd69c39d44a14e267d309e624220e40f9a.jpg</t>
   </si>
   <si>
     <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/api/items/533663</t>
@@ -871,7 +871,7 @@
     <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/s/koten/document/0784f1c7-60d2-12de-050a-eb53eabc5def</t>
   </si>
   <si>
-    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/files/medium/6aa8757447842cc6ab9fdbe8d8e14b5c93bd3e55.jpg</t>
+    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/files/medium/44020f9400ec8ce6117dd97e48451e2100c5db75.jpg</t>
   </si>
   <si>
     <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/api/items/533664</t>
@@ -892,7 +892,7 @@
     <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/s/koten/document/f6711385-25fb-6761-4ce5-a21b6e5902fb</t>
   </si>
   <si>
-    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/files/medium/9a6fe2b745aa1ed7b590750908905ae9b193f188.jpg</t>
+    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/files/medium/7fda59f6bde60e9c21359666e81d5569167df82d.jpg</t>
   </si>
   <si>
     <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/api/items/533665</t>
@@ -937,7 +937,7 @@
     <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/s/koten/document/5e8ba4cf-6c5f-9aa9-89d6-b0a1186a15c3</t>
   </si>
   <si>
-    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/files/medium/729e24fc45033b82e3dfde006be14c1702ce5252.jpg</t>
+    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/files/medium/97569544dd3302bd167b35d816fae4f0e8e332e5.jpg</t>
   </si>
   <si>
     <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/api/items/533666</t>
@@ -958,7 +958,7 @@
     <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/s/koten/document/8eb2dad0-213a-1017-3a7c-e2bd3f3556b6</t>
   </si>
   <si>
-    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/files/medium/7c1d41a09f793adcdea7a4810374c08e52e8aaa8.jpg</t>
+    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/files/medium/41720c7ee3e3ef5d0e30b8d63f489768767e187a.jpg</t>
   </si>
   <si>
     <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/api/items/533667</t>
@@ -979,7 +979,7 @@
     <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/s/koten/document/a19171cc-4cab-63f5-4b59-bd83f3a9a418</t>
   </si>
   <si>
-    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/files/medium/af0a625cee9c589e710fe7c5f84277f08d1f6fbe.jpg</t>
+    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/files/medium/01cf233f715517458854be0c4cdc2fcc2a48656d.jpg</t>
   </si>
   <si>
     <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/api/items/533668</t>
@@ -1026,7 +1026,7 @@
     <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/s/koten/document/0d9a7dcf-79f1-125f-5d8c-5cfc40384656</t>
   </si>
   <si>
-    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/files/medium/fc96f2b704e65b502cbfcf5172c3fa524d6176b3.jpg</t>
+    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/files/medium/52f14a49bd054c2ccf2911df7307d7b7dc8904e8.jpg</t>
   </si>
   <si>
     <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/api/items/533669</t>
@@ -1047,7 +1047,7 @@
     <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/s/koten/document/78ded2bf-07a3-4700-4add-809e93f11ab5</t>
   </si>
   <si>
-    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/files/medium/0a12c54931b68f8d4e7e776e3b662f139f036c15.jpg</t>
+    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/files/medium/2730c1c6e47ff6f82987ceb7aa59ae3151aa286e.jpg</t>
   </si>
   <si>
     <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/api/items/533670</t>
@@ -1090,7 +1090,7 @@
     <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/s/koten/document/9f5f0a66-5bc3-250c-5a83-02c92468468b</t>
   </si>
   <si>
-    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/files/medium/08eea68c83f639c687dbbdc6c7eea85046c051a0.jpg</t>
+    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/files/medium/bc448110e3e24dd3c5dcb4c27ff429d916b5f1f0.jpg</t>
   </si>
   <si>
     <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/api/items/533671</t>
@@ -1130,7 +1130,7 @@
     <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/s/koten/document/4113a916-0a85-4912-6fff-2c2850da6ecb</t>
   </si>
   <si>
-    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/files/medium/8876513aaa37f3c0519f0a8f82581fb0fea939fa.jpg</t>
+    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/files/medium/9c4ac2c9ea684c7ccb0dc31c744a2fe5aa29b826.jpg</t>
   </si>
   <si>
     <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/api/items/533672</t>
@@ -1184,7 +1184,7 @@
     <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/s/koten/document/3f8ea4be-3507-6998-6b71-fd53fdc77091</t>
   </si>
   <si>
-    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/files/medium/69c5b5fd909bf7f7d1545e7f927a882c41d8b6b9.jpg</t>
+    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/files/medium/b4179e1f7a37ac65d98e7517a6c47d68e0bd246d.jpg</t>
   </si>
   <si>
     <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/api/items/533673</t>
@@ -1214,7 +1214,7 @@
     <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/s/koten/document/8bc3f8b7-706c-6bfa-931d-fbee07126b7b</t>
   </si>
   <si>
-    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/files/medium/12ceb759485c7914bd0abe89ee8e041a42ed5d1e.jpg</t>
+    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/files/medium/540de3c0228223db6ed5c77c051b7657ced4ae44.jpg</t>
   </si>
   <si>
     <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/api/items/533674</t>
@@ -1255,7 +1255,7 @@
     <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/s/koten/document/8ec3ed6d-11e2-82d1-a5d6-3bb2abfa4023</t>
   </si>
   <si>
-    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/files/medium/5f0a005dbecbc2d917a8559f3a34ad05ff0d459c.jpg</t>
+    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/files/medium/9e06eb55b46961ff80bb3de62bf28ab19b05ac6e.jpg</t>
   </si>
   <si>
     <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/api/items/533675</t>
@@ -1276,7 +1276,7 @@
     <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/s/koten/document/cd55e57b-8dc1-7fa3-030c-18f06dcf898c</t>
   </si>
   <si>
-    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/files/medium/6a862fca3cf0f90d6552af85784e0e0b33d9ab42.jpg</t>
+    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/files/medium/ca247f8986b3b06e79f4a7f326a043493c9ef224.jpg</t>
   </si>
   <si>
     <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/api/items/533676</t>
@@ -1297,7 +1297,7 @@
     <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/s/koten/document/40faa87f-6bb9-3950-45b3-50b17b2f0bd2</t>
   </si>
   <si>
-    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/files/medium/7e3ff72f0601aeb84fccb6fc03086ab939ff72ed.jpg</t>
+    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/files/medium/838e6a5b0c72425c8531b0f182975c7e6bf31cad.jpg</t>
   </si>
   <si>
     <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/api/items/533677</t>
@@ -1341,7 +1341,7 @@
     <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/s/koten/document/cf262921-9411-4fb3-667b-47e4b39d2bde</t>
   </si>
   <si>
-    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/files/medium/4eb926a94c583e3100a419942596dce3c20a2d3c.jpg</t>
+    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/files/medium/faad8d7a98345f3a640eddd023fa0fe021ff3248.jpg</t>
   </si>
   <si>
     <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/api/items/533678</t>
@@ -1385,7 +1385,7 @@
     <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/s/koten/document/679eb284-0c4d-67f8-3066-01113cd5597d</t>
   </si>
   <si>
-    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/files/medium/00412cd1b69c652a143c7c839aa882733e3aba1d.jpg</t>
+    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/files/medium/121d004a8380e0611846f5fc8dfb29e4b0f40eb9.jpg</t>
   </si>
   <si>
     <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/api/items/533679</t>
@@ -1406,7 +1406,7 @@
     <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/s/koten/document/2519a3aa-9700-6075-627c-66b9918079d4</t>
   </si>
   <si>
-    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/files/medium/fdd70f3437e2e85fd9aab3fc13582dffcc983ff2.jpg</t>
+    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/files/medium/3d2063c8a4044b27b675f481772d5a1bc8a467c0.jpg</t>
   </si>
   <si>
     <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/api/items/533680</t>
@@ -1427,7 +1427,7 @@
     <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/s/koten/document/6a3582fe-7985-5b0d-5046-e7c3b7be5379</t>
   </si>
   <si>
-    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/files/medium/8cd2e1a253a2dd20e2f31a4832cf0451c9aaf86b.jpg</t>
+    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/files/medium/30a80f66e437fd30786f3621baab3deb59dda523.jpg</t>
   </si>
   <si>
     <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/api/items/533681</t>
@@ -1466,7 +1466,7 @@
     <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/s/koten/document/f67275d0-01cb-0304-5570-30d5b95957b7</t>
   </si>
   <si>
-    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/files/medium/4eb3348fd4fab5505e28801111762af0cc5cc685.jpg</t>
+    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/files/medium/ec4890453228f8dfb8f07d1987978484cb1f8e52.jpg</t>
   </si>
   <si>
     <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/api/items/533682</t>
@@ -1517,7 +1517,7 @@
     <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/s/koten/document/7deb8533-1d13-0f7d-27f8-0cf50da015d1</t>
   </si>
   <si>
-    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/files/medium/756d1271a3487194061ef5c874227fc85a17be88.jpg</t>
+    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/files/medium/de5adb319affcb905f1b48a9a544c4b6e8db08ae.jpg</t>
   </si>
   <si>
     <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/api/items/533683</t>
@@ -1568,7 +1568,7 @@
     <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/s/koten/document/6b9a5758-3db1-a3ae-381e-c2ee88e843c5</t>
   </si>
   <si>
-    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/files/medium/20b6b95a4c6e4828973de9982c3d38762dd56ba0.jpg</t>
+    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/files/medium/38874058b2d12bb7b619c6022c4e2de7c9c5e65f.jpg</t>
   </si>
   <si>
     <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/api/items/533684</t>
@@ -1615,7 +1615,7 @@
     <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/s/koten/document/d2dc7fb5-42af-91d5-23b7-4ffd17d1607e</t>
   </si>
   <si>
-    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/files/medium/53bc8b2d1a491e5ec9f881320ef257361ec9c358.jpg</t>
+    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/files/medium/4215011af29ddd025613ebb87752343ea46d9be7.jpg</t>
   </si>
   <si>
     <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/api/items/533685</t>
@@ -1636,7 +1636,7 @@
     <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/s/koten/document/7e77c550-6c63-8eec-6922-a3fb55dd1395</t>
   </si>
   <si>
-    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/files/medium/06299ccfb22b8493bced6d9db8c054f577e4309b.jpg</t>
+    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/files/medium/6f7e5bce9440e1bf0d33810520c23f4c089b8b76.jpg</t>
   </si>
   <si>
     <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/api/items/533686</t>
@@ -1657,7 +1657,7 @@
     <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/s/koten/document/ccfeb5c8-96f3-67dc-54da-3a5dbf3aa22b</t>
   </si>
   <si>
-    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/files/medium/64bb08828c7edc655114f4b06a1b4ef01e44b6cf.jpg</t>
+    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/files/medium/dbfe404918f530f350194157f13ac8b92a025750.jpg</t>
   </si>
   <si>
     <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/api/items/533687</t>
@@ -1696,7 +1696,7 @@
     <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/s/koten/document/424d8f0b-4456-0156-62d1-5b8f39327efa</t>
   </si>
   <si>
-    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/files/medium/0200656cb75dd471d9d81319d7054b9f568f33ca.jpg</t>
+    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/files/medium/a1c81cfacaa725a7493619b9dcbdd9f3aa2f60a9.jpg</t>
   </si>
   <si>
     <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/api/items/533688</t>
